--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/Desktop/Daily Files/Inventory Y25 for SLK + LF/Tong Inventory List Weekly/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D45156C-7B0E-49A7-A6AE-53B410A48E50}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BE3CAAD-C8F7-4066-A6A9-249693233928}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="101">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>SAP</t>
+  </si>
+  <si>
+    <t>Wk28</t>
   </si>
 </sst>
 </file>
@@ -722,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2013,6 +2016,110 @@
         <v>1680</v>
       </c>
     </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="2">
+        <v>45841</v>
+      </c>
+      <c r="H50" s="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="2">
+        <v>45841</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1075.28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="2">
+        <v>45841</v>
+      </c>
+      <c r="H52" s="1">
+        <v>561.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" s="2">
+        <v>45842</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1680</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -406,6 +406,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -728,7 +732,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BE3CAAD-C8F7-4066-A6A9-249693233928}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1937520-D55D-42B6-B6CE-FABAB4DB0B86}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="100">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -336,9 +336,6 @@
   </si>
   <si>
     <t>SAP</t>
-  </si>
-  <si>
-    <t>Wk28</t>
   </si>
 </sst>
 </file>
@@ -729,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2020,110 +2017,6 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="2">
-        <v>45841</v>
-      </c>
-      <c r="H50" s="1">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="2">
-        <v>45841</v>
-      </c>
-      <c r="H51" s="1">
-        <v>1075.28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="1">
-        <v>11155497</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="2">
-        <v>45841</v>
-      </c>
-      <c r="H52" s="1">
-        <v>561.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G53" s="2">
-        <v>45842</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1680</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1937520-D55D-42B6-B6CE-FABAB4DB0B86}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{501A97BC-7A8D-4B3E-BF6F-46A79A28E86C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="129">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -336,6 +336,93 @@
   </si>
   <si>
     <t>SAP</t>
+  </si>
+  <si>
+    <t>XS-MIT-0099</t>
+  </si>
+  <si>
+    <t>SY3120-5LZDM5-F2 SOLENOID VALVE</t>
+  </si>
+  <si>
+    <t>XS-PTS-0860</t>
+  </si>
+  <si>
+    <t>X1439 70192.312 DARK LEAKAGE RUBBER TIP</t>
+  </si>
+  <si>
+    <t>XS-PTS-0764</t>
+  </si>
+  <si>
+    <t>70192.384 RUBBER TIP</t>
+  </si>
+  <si>
+    <t>XS-PTS-0790</t>
+  </si>
+  <si>
+    <t>70900.108 Test Socket Pogo Pin</t>
+  </si>
+  <si>
+    <t>XS-PTS-0933</t>
+  </si>
+  <si>
+    <t>X1629 70900.137 SEMICONDUCTOR PROBE PIN</t>
+  </si>
+  <si>
+    <t>XS-SPM-0061</t>
+  </si>
+  <si>
+    <t>14210873.140 SPAREP A218 - PICKUP</t>
+  </si>
+  <si>
+    <t>XS-SPE-0090</t>
+  </si>
+  <si>
+    <t>GP-762A35A-02XB Hyperspace Semicon Probe</t>
+  </si>
+  <si>
+    <t>XS-PTS-0864</t>
+  </si>
+  <si>
+    <t>Model : 6K-76235-H03X-NST Hyperspace</t>
+  </si>
+  <si>
+    <t>XS-PTS-0868</t>
+  </si>
+  <si>
+    <t>6K-76235-H03X-ALN Hyperspace Semicon</t>
+  </si>
+  <si>
+    <t>XS-PTS-0469</t>
+  </si>
+  <si>
+    <t>70508.201 10# BULB MFG: PHILIPS</t>
+  </si>
+  <si>
+    <t>XS-PTS-0465</t>
+  </si>
+  <si>
+    <t>70508.190 00707-SU Bulb#6</t>
+  </si>
+  <si>
+    <t>PTS-1140 6K-9090-HS02 HPS LF Aligner</t>
+  </si>
+  <si>
+    <t>Wk28</t>
+  </si>
+  <si>
+    <t>12pcs</t>
+  </si>
+  <si>
+    <t>60pcs</t>
+  </si>
+  <si>
+    <t>5200pcs</t>
+  </si>
+  <si>
+    <t>18pcs</t>
+  </si>
+  <si>
+    <t>Lisa</t>
   </si>
 </sst>
 </file>
@@ -403,10 +490,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,11 +809,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2017,6 +2098,656 @@
         <v>1680</v>
       </c>
     </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H50" s="1">
+        <v>74.87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H51" s="1">
+        <v>421.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="2">
+        <v>45846</v>
+      </c>
+      <c r="H52" s="1">
+        <v>421.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="2">
+        <v>45846</v>
+      </c>
+      <c r="H53" s="1">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="2">
+        <v>45846</v>
+      </c>
+      <c r="H54" s="1">
+        <v>257.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="2">
+        <v>45846</v>
+      </c>
+      <c r="H55" s="1">
+        <v>214.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="2">
+        <v>45846</v>
+      </c>
+      <c r="H56" s="1">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="2">
+        <v>45846</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="2">
+        <v>45846</v>
+      </c>
+      <c r="H58" s="1">
+        <v>91.88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59" s="2">
+        <v>45846</v>
+      </c>
+      <c r="H59" s="1">
+        <v>621.36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60" s="2">
+        <v>45847</v>
+      </c>
+      <c r="H60" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G61" s="2">
+        <v>45847</v>
+      </c>
+      <c r="H61" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" s="2">
+        <v>45847</v>
+      </c>
+      <c r="H62" s="1">
+        <v>325.02999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" s="2">
+        <v>45847</v>
+      </c>
+      <c r="H63" s="1">
+        <v>210.07</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2">
+        <v>45847</v>
+      </c>
+      <c r="H64" s="1">
+        <v>421.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="2">
+        <v>45848</v>
+      </c>
+      <c r="H65" s="1">
+        <v>406.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="2">
+        <v>45848</v>
+      </c>
+      <c r="H66" s="1">
+        <v>9672</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="2">
+        <v>45848</v>
+      </c>
+      <c r="H67" s="1">
+        <v>263.76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="2">
+        <v>45848</v>
+      </c>
+      <c r="H68" s="1">
+        <v>319.26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="2">
+        <v>45848</v>
+      </c>
+      <c r="H69" s="1">
+        <v>421.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" s="2">
+        <v>45848</v>
+      </c>
+      <c r="H70" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G71" s="2">
+        <v>45848</v>
+      </c>
+      <c r="H71" s="1">
+        <v>325.02999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G72" s="2">
+        <v>45848</v>
+      </c>
+      <c r="H72" s="1">
+        <v>210.07</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="2">
+        <v>45848</v>
+      </c>
+      <c r="H73" s="1">
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="2">
+        <v>45849</v>
+      </c>
+      <c r="H74" s="1">
+        <v>362.88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{501A97BC-7A8D-4B3E-BF6F-46A79A28E86C}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20523E71-6785-4F39-898C-DDB045CA54F1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="142">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -423,12 +423,54 @@
   </si>
   <si>
     <t>Lisa</t>
+  </si>
+  <si>
+    <t>PTS-1059 70900.217 Pri POGO PIN X2637</t>
+  </si>
+  <si>
+    <t>PTS-1139 Nanotek Brush (NANO-4-004)</t>
+  </si>
+  <si>
+    <t>11152231</t>
+  </si>
+  <si>
+    <t>PTS-1090 TW.50.15.FI.0S.151.00 X2637</t>
+  </si>
+  <si>
+    <t>XS-PTS-0098</t>
+  </si>
+  <si>
+    <t>CDUJB6-10D AIR CYLINDER</t>
+  </si>
+  <si>
+    <t>XS-PTS-0135</t>
+  </si>
+  <si>
+    <t>10028.018 AUTO SWITCH</t>
+  </si>
+  <si>
+    <t>XS-PTS-0383</t>
+  </si>
+  <si>
+    <t>22401.004 APC BACK UPS 500VA</t>
+  </si>
+  <si>
+    <t>XS-PTS-0401</t>
+  </si>
+  <si>
+    <t>10124.039 EQ-77 WINDOW ASSEMBLY</t>
+  </si>
+  <si>
+    <t>Wk29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -474,6 +516,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,6 +535,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -809,9 +858,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -819,9 +870,11 @@
     <col min="3" max="3" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="12.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -2488,7 +2541,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
@@ -2514,7 +2567,7 @@
         <v>406.2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>123</v>
       </c>
@@ -2540,7 +2593,7 @@
         <v>9672</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>123</v>
       </c>
@@ -2566,7 +2619,7 @@
         <v>263.76</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>123</v>
       </c>
@@ -2592,7 +2645,7 @@
         <v>319.26</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>123</v>
       </c>
@@ -2618,7 +2671,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
@@ -2644,7 +2697,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>123</v>
       </c>
@@ -2670,7 +2723,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>123</v>
       </c>
@@ -2696,7 +2749,7 @@
         <v>210.07</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>123</v>
       </c>
@@ -2722,7 +2775,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>123</v>
       </c>
@@ -2747,6 +2800,254 @@
       <c r="H74" s="1">
         <v>362.88</v>
       </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="1">
+        <v>11151236</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" s="1">
+        <v>400</v>
+      </c>
+      <c r="G75" s="2">
+        <v>45852</v>
+      </c>
+      <c r="H75" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="1">
+        <v>11154687</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4</v>
+      </c>
+      <c r="G76" s="2">
+        <v>45852</v>
+      </c>
+      <c r="H76" s="1">
+        <v>2222.2399999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="1">
+        <v>11155547</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2">
+        <v>45854</v>
+      </c>
+      <c r="H77" s="1">
+        <v>122.17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" s="1">
+        <v>68</v>
+      </c>
+      <c r="G78" s="2">
+        <v>45852</v>
+      </c>
+      <c r="H78" s="1">
+        <v>362.88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2</v>
+      </c>
+      <c r="G79" s="2">
+        <v>45852</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E80" s="1">
+        <v>7</v>
+      </c>
+      <c r="G80" s="2">
+        <v>45852</v>
+      </c>
+      <c r="H80" s="1">
+        <v>3888.92</v>
+      </c>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" s="2">
+        <v>45854</v>
+      </c>
+      <c r="H81" s="1">
+        <v>22.99</v>
+      </c>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2">
+        <v>45852</v>
+      </c>
+      <c r="H82" s="1">
+        <v>22.41</v>
+      </c>
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2">
+        <v>45852</v>
+      </c>
+      <c r="H83" s="1">
+        <v>210.53</v>
+      </c>
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84" s="1">
+        <v>20</v>
+      </c>
+      <c r="G84" s="2">
+        <v>45852</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1079.4000000000001</v>
+      </c>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J88" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20523E71-6785-4F39-898C-DDB045CA54F1}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECEE6E79-D10F-4281-82E2-E6C7973D41C2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="143">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -434,9 +434,6 @@
     <t>11152231</t>
   </si>
   <si>
-    <t>PTS-1090 TW.50.15.FI.0S.151.00 X2637</t>
-  </si>
-  <si>
     <t>XS-PTS-0098</t>
   </si>
   <si>
@@ -462,6 +459,12 @@
   </si>
   <si>
     <t>Wk29</t>
+  </si>
+  <si>
+    <t>PTS-1090 TW.50.15.FI.0S.151.00 X2637 B/C ADAPTOR/CAP (BOTTOM)</t>
+  </si>
+  <si>
+    <t>PTS-1130 TW.50.15.98.JV.009.00 X2544 MYCroft ADAPTOR</t>
   </si>
 </sst>
 </file>
@@ -860,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2803,7 +2806,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>99</v>
@@ -2826,7 +2829,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>99</v>
@@ -2835,7 +2838,7 @@
         <v>11154687</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="E76" s="1">
         <v>4</v>
@@ -2849,7 +2852,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>99</v>
@@ -2872,7 +2875,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>99</v>
@@ -2895,7 +2898,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>99</v>
@@ -2919,7 +2922,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>99</v>
@@ -2928,7 +2931,7 @@
         <v>131</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E80" s="1">
         <v>7</v>
@@ -2943,16 +2946,16 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="E81" s="1">
         <v>1</v>
@@ -2967,16 +2970,16 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
@@ -2991,16 +2994,16 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -3015,16 +3018,16 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="E84" s="1">
         <v>20</v>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECEE6E79-D10F-4281-82E2-E6C7973D41C2}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAA06D27-CE37-4123-9AA5-F7E09244279E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="150">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -425,15 +425,9 @@
     <t>Lisa</t>
   </si>
   <si>
-    <t>PTS-1059 70900.217 Pri POGO PIN X2637</t>
-  </si>
-  <si>
     <t>PTS-1139 Nanotek Brush (NANO-4-004)</t>
   </si>
   <si>
-    <t>11152231</t>
-  </si>
-  <si>
     <t>XS-PTS-0098</t>
   </si>
   <si>
@@ -452,19 +446,46 @@
     <t>22401.004 APC BACK UPS 500VA</t>
   </si>
   <si>
-    <t>XS-PTS-0401</t>
-  </si>
-  <si>
-    <t>10124.039 EQ-77 WINDOW ASSEMBLY</t>
-  </si>
-  <si>
     <t>Wk29</t>
   </si>
   <si>
-    <t>PTS-1090 TW.50.15.FI.0S.151.00 X2637 B/C ADAPTOR/CAP (BOTTOM)</t>
-  </si>
-  <si>
-    <t>PTS-1130 TW.50.15.98.JV.009.00 X2544 MYCroft ADAPTOR</t>
+    <t>PTS-1090 TW.50.15.FI.0S.151.00 X2637</t>
+  </si>
+  <si>
+    <t>Offline Jig for Nest Cleaning Module Assembly</t>
+  </si>
+  <si>
+    <t>Pilot Refillable Marker Pen</t>
+  </si>
+  <si>
+    <t>Hakko FA400-04 Bench Top ESD-Safe Smoke Absorber</t>
+  </si>
+  <si>
+    <t>Aluninum L'Block With E/N</t>
+  </si>
+  <si>
+    <t>14pcs</t>
+  </si>
+  <si>
+    <t>11155547</t>
+  </si>
+  <si>
+    <t>Stabilo Line 308</t>
+  </si>
+  <si>
+    <t>Telescopic Detection Mirror Led</t>
+  </si>
+  <si>
+    <t>22pcs</t>
+  </si>
+  <si>
+    <t>24pcs</t>
+  </si>
+  <si>
+    <t>S/S Compression Spring 2 Type 100pcs MyCroft</t>
+  </si>
+  <si>
+    <t>2 &amp; 1/2 Inch Aligner Jig / 2 MyCroft</t>
   </si>
 </sst>
 </file>
@@ -538,10 +559,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -861,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2806,251 +2823,888 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C75" s="1">
-        <v>11151236</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E75" s="1">
-        <v>400</v>
+      <c r="C75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G75" s="2">
         <v>45852</v>
       </c>
       <c r="H75" s="1">
-        <v>420</v>
-      </c>
+        <v>22.41</v>
+      </c>
+      <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C76" s="1">
-        <v>11154687</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E76" s="1">
-        <v>4</v>
+        <v>11155797</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G76" s="2">
         <v>45852</v>
       </c>
       <c r="H76" s="1">
-        <v>2222.2399999999998</v>
+        <v>403.2</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="1">
-        <v>11155547</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E77" s="1">
-        <v>1</v>
+      <c r="C77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G77" s="2">
-        <v>45854</v>
+        <v>45852</v>
       </c>
       <c r="H77" s="1">
-        <v>122.17</v>
+        <v>1111.1199999999999</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C78" s="1">
-        <v>11155797</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E78" s="1">
-        <v>68</v>
+        <v>11152231</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G78" s="2">
         <v>45852</v>
       </c>
       <c r="H78" s="1">
-        <v>362.88</v>
+        <v>2777.8</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E79" s="1">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G79" s="2">
         <v>45852</v>
       </c>
       <c r="H79" s="1">
-        <v>0</v>
-      </c>
-      <c r="J79" s="4"/>
+        <v>2222.2399999999998</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E80" s="1">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G80" s="2">
         <v>45852</v>
       </c>
       <c r="H80" s="1">
-        <v>3888.92</v>
-      </c>
-      <c r="J80" s="4"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E81" s="1">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G81" s="2">
-        <v>45854</v>
+        <v>45852</v>
       </c>
       <c r="H81" s="1">
-        <v>22.99</v>
-      </c>
-      <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+        <v>68.91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E82" s="1">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G82" s="2">
         <v>45852</v>
       </c>
       <c r="H82" s="1">
-        <v>22.41</v>
-      </c>
-      <c r="J82" s="4"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E83" s="1">
-        <v>1</v>
+        <v>134</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G83" s="2">
         <v>45852</v>
       </c>
       <c r="H83" s="1">
-        <v>210.53</v>
-      </c>
-      <c r="J83" s="4"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+        <v>283.72000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E84" s="1">
-        <v>20</v>
+      <c r="C84" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G84" s="2">
         <v>45852</v>
       </c>
       <c r="H84" s="1">
-        <v>1079.4000000000001</v>
-      </c>
-      <c r="J84" s="4"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J85" s="4"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J86" s="4"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J87" s="4"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J88" s="4"/>
+        <v>210.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="2">
+        <v>45852</v>
+      </c>
+      <c r="H85" s="1">
+        <v>161.28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="2">
+        <v>45853</v>
+      </c>
+      <c r="H86" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="2">
+        <v>45854</v>
+      </c>
+      <c r="H87" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="2">
+        <v>45855</v>
+      </c>
+      <c r="H88" s="1">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="2">
+        <v>45855</v>
+      </c>
+      <c r="H89" s="1">
+        <v>124.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="2">
+        <v>45855</v>
+      </c>
+      <c r="H90" s="1">
+        <v>327.35000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="2">
+        <v>45855</v>
+      </c>
+      <c r="H91" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="2">
+        <v>45855</v>
+      </c>
+      <c r="H92" s="1">
+        <v>631.79999999999995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="2">
+        <v>45855</v>
+      </c>
+      <c r="H93" s="1">
+        <v>282.24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="2">
+        <v>45855</v>
+      </c>
+      <c r="H94" s="1">
+        <v>123.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G95" s="2">
+        <v>45855</v>
+      </c>
+      <c r="H95" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G96" s="2">
+        <v>45855</v>
+      </c>
+      <c r="H96" s="1">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="2">
+        <v>45856</v>
+      </c>
+      <c r="H97" s="1">
+        <v>443.52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="2">
+        <v>45856</v>
+      </c>
+      <c r="H98" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="2">
+        <v>45856</v>
+      </c>
+      <c r="H99" s="1">
+        <v>561.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="2">
+        <v>45856</v>
+      </c>
+      <c r="H100" s="1">
+        <v>120.96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="2">
+        <v>45856</v>
+      </c>
+      <c r="H101" s="1">
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="2">
+        <v>45857</v>
+      </c>
+      <c r="H102" s="1">
+        <v>288.95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="2">
+        <v>45857</v>
+      </c>
+      <c r="H103" s="1">
+        <v>234.28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="2">
+        <v>45857</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1666.68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="2">
+        <v>45857</v>
+      </c>
+      <c r="H105" s="1">
+        <v>406.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="2">
+        <v>45857</v>
+      </c>
+      <c r="H106" s="1">
+        <v>842.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="2">
+        <v>45857</v>
+      </c>
+      <c r="H107" s="1">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="2">
+        <v>45858</v>
+      </c>
+      <c r="H108" s="1">
+        <v>421.2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAA06D27-CE37-4123-9AA5-F7E09244279E}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A390121A-E716-4ECD-A1BD-71AEE2835C9C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -452,9 +452,6 @@
     <t>PTS-1090 TW.50.15.FI.0S.151.00 X2637</t>
   </si>
   <si>
-    <t>Offline Jig for Nest Cleaning Module Assembly</t>
-  </si>
-  <si>
     <t>Pilot Refillable Marker Pen</t>
   </si>
   <si>
@@ -486,6 +483,9 @@
   </si>
   <si>
     <t>2 &amp; 1/2 Inch Aligner Jig / 2 MyCroft</t>
+  </si>
+  <si>
+    <t>Offline Jig for Nest Cleaning Module Assembly LF</t>
   </si>
 </sst>
 </file>
@@ -559,6 +559,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -880,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3015,7 +3019,7 @@
         <v>52</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>67</v>
@@ -3171,7 +3175,7 @@
         <v>52</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>8</v>
@@ -3197,7 +3201,7 @@
         <v>52</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>13</v>
@@ -3223,7 +3227,7 @@
         <v>52</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>41</v>
@@ -3304,7 +3308,7 @@
         <v>122</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>9</v>
@@ -3324,7 +3328,7 @@
         <v>99</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>129</v>
@@ -3353,7 +3357,7 @@
         <v>52</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>41</v>
@@ -3379,7 +3383,7 @@
         <v>52</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>13</v>
@@ -3408,7 +3412,7 @@
         <v>122</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>9</v>
@@ -3535,7 +3539,7 @@
         <v>52</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>21</v>
@@ -3561,7 +3565,7 @@
         <v>52</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>13</v>
@@ -3642,7 +3646,7 @@
         <v>91</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>9</v>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A390121A-E716-4ECD-A1BD-71AEE2835C9C}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28DD1015-9011-4A10-BD8E-1AA58E6ADBB3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$108</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="163">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -486,6 +489,45 @@
   </si>
   <si>
     <t>Offline Jig for Nest Cleaning Module Assembly LF</t>
+  </si>
+  <si>
+    <t>XS-PTS-0751</t>
+  </si>
+  <si>
+    <t>CDUJB8-15D Air Cylinder</t>
+  </si>
+  <si>
+    <t>11152231</t>
+  </si>
+  <si>
+    <t>XS-SPM-0006</t>
+  </si>
+  <si>
+    <t>14210853.126 SPAREP A217 PICKUP MODULE</t>
+  </si>
+  <si>
+    <t>11151245</t>
+  </si>
+  <si>
+    <t>PTS-1068 TW.50.15.FI.0S.109.00 X2637_Stn</t>
+  </si>
+  <si>
+    <t>11154654</t>
+  </si>
+  <si>
+    <t>PTS-1097 10618.836 (10412.950) X2544</t>
+  </si>
+  <si>
+    <t>11151255</t>
+  </si>
+  <si>
+    <t>PTS-1078 TW.50.1A.FI.0S.125.01 TOP PIN</t>
+  </si>
+  <si>
+    <t>PTS-1097 10618.836 (10412.950){Q=16},</t>
+  </si>
+  <si>
+    <t>Wk30</t>
   </si>
 </sst>
 </file>
@@ -882,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3710,7 +3752,1022 @@
         <v>421.2</v>
       </c>
     </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="2">
+        <v>45859</v>
+      </c>
+      <c r="H109" s="1">
+        <v>51.86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="2">
+        <v>45859</v>
+      </c>
+      <c r="H110" s="1">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="2">
+        <v>45859</v>
+      </c>
+      <c r="H111" s="1">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C112" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="2">
+        <v>45860</v>
+      </c>
+      <c r="H112" s="1">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="2">
+        <v>45860</v>
+      </c>
+      <c r="H113" s="1">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="2">
+        <v>45860</v>
+      </c>
+      <c r="H114" s="1">
+        <v>2222.2399999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="2">
+        <v>45860</v>
+      </c>
+      <c r="H115" s="1">
+        <v>2222.2399999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="2">
+        <v>45860</v>
+      </c>
+      <c r="H116" s="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G117" s="2">
+        <v>45861</v>
+      </c>
+      <c r="H117" s="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G118" s="2">
+        <v>45861</v>
+      </c>
+      <c r="H118" s="1">
+        <v>420.14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G119" s="2">
+        <v>45861</v>
+      </c>
+      <c r="H119" s="1">
+        <v>325.02999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="2">
+        <v>45861</v>
+      </c>
+      <c r="H120" s="1">
+        <v>68.91</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C121" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="2">
+        <v>45861</v>
+      </c>
+      <c r="H121" s="1">
+        <v>561.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C122" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="2">
+        <v>45861</v>
+      </c>
+      <c r="H122" s="1">
+        <v>362.88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="2">
+        <v>45861</v>
+      </c>
+      <c r="H123" s="1">
+        <v>270.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="2">
+        <v>45861</v>
+      </c>
+      <c r="H124" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="2">
+        <v>45861</v>
+      </c>
+      <c r="H125" s="1">
+        <v>1251.51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G126" s="2">
+        <v>45861</v>
+      </c>
+      <c r="H126" s="1">
+        <v>207.12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G127" s="2">
+        <v>45861</v>
+      </c>
+      <c r="H127" s="1">
+        <v>220.49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C128" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="2">
+        <v>45862</v>
+      </c>
+      <c r="H128" s="1">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C129" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" s="2">
+        <v>45862</v>
+      </c>
+      <c r="H129" s="1">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="2">
+        <v>45863</v>
+      </c>
+      <c r="H130" s="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C131" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="2">
+        <v>45863</v>
+      </c>
+      <c r="H131" s="1">
+        <v>561.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" s="2">
+        <v>45863</v>
+      </c>
+      <c r="H132" s="1">
+        <v>282.24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="2">
+        <v>45863</v>
+      </c>
+      <c r="H133" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" s="2">
+        <v>45863</v>
+      </c>
+      <c r="H134" s="1">
+        <v>304.08999999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C135" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="2">
+        <v>45863</v>
+      </c>
+      <c r="H135" s="1">
+        <v>2777.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C136" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" s="2">
+        <v>45863</v>
+      </c>
+      <c r="H136" s="1">
+        <v>842.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C137" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" s="2">
+        <v>45863</v>
+      </c>
+      <c r="H137" s="1">
+        <v>322.56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" s="2">
+        <v>45863</v>
+      </c>
+      <c r="H138" s="1">
+        <v>3018.87</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C139" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139" s="2">
+        <v>45864</v>
+      </c>
+      <c r="H139" s="1">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="2">
+        <v>45864</v>
+      </c>
+      <c r="H140" s="1">
+        <v>877.19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C141" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="2">
+        <v>45864</v>
+      </c>
+      <c r="H141" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C142" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" s="2">
+        <v>45864</v>
+      </c>
+      <c r="H142" s="1">
+        <v>161.28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C143" s="1">
+        <v>11152231</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" s="2">
+        <v>45864</v>
+      </c>
+      <c r="H143" s="1">
+        <v>555.55999999999995</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C144" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144" s="2">
+        <v>45864</v>
+      </c>
+      <c r="H144" s="1">
+        <v>555.55999999999995</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="2">
+        <v>45864</v>
+      </c>
+      <c r="H145" s="1">
+        <v>3018.87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C146" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" s="2">
+        <v>45865</v>
+      </c>
+      <c r="H146" s="1">
+        <v>561.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C147" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="2">
+        <v>45865</v>
+      </c>
+      <c r="H147" s="1">
+        <v>201.6</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H108" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28DD1015-9011-4A10-BD8E-1AA58E6ADBB3}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97B273EB-E902-4076-B585-646374516393}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$147</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="162">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -294,9 +294,6 @@
   </si>
   <si>
     <t>11151246</t>
-  </si>
-  <si>
-    <t>PTS-1069 TW.50.15.FI.0S.150.00 X2637</t>
   </si>
   <si>
     <t>10,16 And 20 Core Ribbon Cable 11 Meter Each And IDC Receptacle, Female 2.54mm, 2 Row (20 Sets Each)</t>
@@ -927,7 +924,7 @@
   <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -948,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -974,7 +971,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1">
         <v>11151246</v>
@@ -1000,7 +997,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1">
         <v>11152231</v>
@@ -1026,7 +1023,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1">
         <v>11154322</v>
@@ -1052,7 +1049,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -1078,7 +1075,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1104,7 +1101,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
@@ -1130,7 +1127,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -1156,7 +1153,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -1182,7 +1179,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -1208,7 +1205,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
@@ -1234,7 +1231,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -1257,10 +1254,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>30</v>
@@ -1283,10 +1280,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1309,10 +1306,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>34</v>
@@ -1335,10 +1332,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>37</v>
@@ -1361,10 +1358,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>39</v>
@@ -1387,10 +1384,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>42</v>
@@ -1413,10 +1410,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>45</v>
@@ -1439,10 +1436,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -1465,10 +1462,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>48</v>
@@ -1491,10 +1488,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>50</v>
@@ -1517,7 +1514,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>52</v>
@@ -1543,7 +1540,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>52</v>
@@ -1569,7 +1566,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>52</v>
@@ -1595,7 +1592,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>52</v>
@@ -1621,7 +1618,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>52</v>
@@ -1647,7 +1644,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>52</v>
@@ -1673,7 +1670,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>52</v>
@@ -1699,7 +1696,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>52</v>
@@ -1725,7 +1722,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>52</v>
@@ -1751,7 +1748,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>52</v>
@@ -1777,7 +1774,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>52</v>
@@ -1803,7 +1800,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>52</v>
@@ -1829,10 +1826,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>26</v>
@@ -1855,10 +1852,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>69</v>
@@ -1881,10 +1878,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>71</v>
@@ -1907,10 +1904,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>73</v>
@@ -1933,10 +1930,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>75</v>
@@ -1959,10 +1956,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>77</v>
@@ -1985,10 +1982,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>79</v>
@@ -2011,10 +2008,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>81</v>
@@ -2037,16 +2034,16 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>8</v>
@@ -2063,7 +2060,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>52</v>
@@ -2089,7 +2086,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>52</v>
@@ -2098,10 +2095,10 @@
         <v>52</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>9</v>
@@ -2115,10 +2112,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>19</v>
@@ -2127,7 +2124,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>9</v>
@@ -2141,16 +2138,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>36</v>
@@ -2167,19 +2164,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="1">
         <v>11155497</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>9</v>
@@ -2193,22 +2190,22 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="G49" s="2">
         <v>45842</v>
@@ -2219,16 +2216,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
@@ -2245,19 +2242,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" s="1">
         <v>11155497</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>9</v>
@@ -2271,19 +2268,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" s="1">
         <v>11155497</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>9</v>
@@ -2297,10 +2294,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>45</v>
@@ -2323,16 +2320,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>16</v>
@@ -2349,16 +2346,16 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>41</v>
@@ -2375,16 +2372,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>21</v>
@@ -2401,16 +2398,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>21</v>
@@ -2427,10 +2424,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>22</v>
@@ -2453,22 +2450,22 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G59" s="2">
         <v>45846</v>
@@ -2479,22 +2476,22 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G60" s="2">
         <v>45847</v>
@@ -2505,22 +2502,22 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G61" s="2">
         <v>45847</v>
@@ -2531,22 +2528,22 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G62" s="2">
         <v>45847</v>
@@ -2557,22 +2554,22 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G63" s="2">
         <v>45847</v>
@@ -2583,19 +2580,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64" s="1">
         <v>11155497</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>9</v>
@@ -2609,10 +2606,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
@@ -2621,7 +2618,7 @@
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>9</v>
@@ -2635,10 +2632,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>81</v>
@@ -2647,7 +2644,7 @@
         <v>82</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>9</v>
@@ -2661,16 +2658,16 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>28</v>
@@ -2687,16 +2684,16 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>8</v>
@@ -2713,19 +2710,19 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" s="1">
         <v>11155497</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>9</v>
@@ -2739,22 +2736,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G70" s="2">
         <v>45848</v>
@@ -2765,22 +2762,22 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G71" s="2">
         <v>45848</v>
@@ -2791,22 +2788,22 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G72" s="2">
         <v>45848</v>
@@ -2817,16 +2814,16 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C73" s="1">
         <v>11155497</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>11</v>
@@ -2843,19 +2840,19 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C74" s="1">
         <v>11155797</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>9</v>
@@ -2869,16 +2866,16 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>13</v>
@@ -2896,16 +2893,16 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76" s="1">
         <v>11155797</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>122</v>
+      <c r="D76" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>16</v>
@@ -2922,16 +2919,16 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>85</v>
+      <c r="D77" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>28</v>
@@ -2948,16 +2945,16 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C78" s="1">
         <v>11152231</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>137</v>
+      <c r="D78" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>44</v>
@@ -2974,15 +2971,15 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -3000,15 +2997,15 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -3026,15 +3023,15 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -3052,7 +3049,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>52</v>
@@ -3060,8 +3057,8 @@
       <c r="C82" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>149</v>
+      <c r="D82" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>67</v>
@@ -3078,16 +3075,16 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>13</v>
@@ -3104,16 +3101,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C84" s="1">
         <v>11155497</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>91</v>
+      <c r="D84" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>67</v>
@@ -3130,16 +3127,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C85" s="1">
         <v>11155797</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>122</v>
+      <c r="D85" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>11</v>
@@ -3156,16 +3153,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" s="1">
         <v>11155497</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>91</v>
+      <c r="D86" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>41</v>
@@ -3182,16 +3179,16 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87" s="1">
         <v>11155497</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>91</v>
+      <c r="D87" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>41</v>
@@ -3208,7 +3205,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>52</v>
@@ -3216,8 +3213,8 @@
       <c r="C88" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>138</v>
+      <c r="D88" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>8</v>
@@ -3234,7 +3231,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>52</v>
@@ -3242,8 +3239,8 @@
       <c r="C89" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>139</v>
+      <c r="D89" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>13</v>
@@ -3260,7 +3257,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>52</v>
@@ -3268,8 +3265,8 @@
       <c r="C90" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>140</v>
+      <c r="D90" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>41</v>
@@ -3286,16 +3283,16 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>13</v>
@@ -3312,19 +3309,19 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C92" s="1">
         <v>11155497</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>91</v>
+      <c r="D92" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>9</v>
@@ -3338,19 +3335,19 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C93" s="1">
         <v>11155797</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>122</v>
+      <c r="D93" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>9</v>
@@ -3364,16 +3361,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>13</v>
@@ -3390,7 +3387,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>52</v>
@@ -3398,14 +3395,14 @@
       <c r="C95" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>143</v>
+      <c r="D95" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G95" s="2">
         <v>45855</v>
@@ -3416,7 +3413,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>52</v>
@@ -3424,14 +3421,14 @@
       <c r="C96" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>144</v>
+      <c r="D96" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G96" s="2">
         <v>45855</v>
@@ -3442,19 +3439,19 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97" s="1">
         <v>11155797</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>122</v>
+      <c r="D97" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>9</v>
@@ -3468,15 +3465,15 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -3494,19 +3491,19 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99" s="1">
         <v>11155497</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>9</v>
@@ -3520,16 +3517,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" s="1">
         <v>11155797</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>122</v>
+      <c r="D100" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>67</v>
@@ -3546,16 +3543,16 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="1">
         <v>11155497</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>91</v>
+      <c r="D101" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
@@ -3572,7 +3569,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>52</v>
@@ -3580,8 +3577,8 @@
       <c r="C102" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>147</v>
+      <c r="D102" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>21</v>
@@ -3598,7 +3595,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>52</v>
@@ -3606,8 +3603,8 @@
       <c r="C103" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>148</v>
+      <c r="D103" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>13</v>
@@ -3624,16 +3621,16 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>85</v>
+      <c r="D104" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>8</v>
@@ -3650,19 +3647,19 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>9</v>
@@ -3676,19 +3673,19 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C106" s="1">
         <v>11155497</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>91</v>
+      <c r="D106" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>9</v>
@@ -3702,16 +3699,16 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="1">
         <v>11155797</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>122</v>
+      <c r="D107" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>41</v>
@@ -3728,19 +3725,19 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C108" s="1">
         <v>11155497</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>91</v>
+      <c r="D108" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>9</v>
@@ -3754,16 +3751,16 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>28</v>
@@ -3780,16 +3777,16 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C110" s="1">
         <v>11155497</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>91</v>
+      <c r="D110" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>16</v>
@@ -3806,16 +3803,16 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C111" s="1">
         <v>11155797</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>122</v>
+      <c r="D111" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>41</v>
@@ -3832,16 +3829,16 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C112" s="1">
         <v>11155497</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>91</v>
+      <c r="D112" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>16</v>
@@ -3858,16 +3855,16 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C113" s="1">
         <v>11155797</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>122</v>
+      <c r="D113" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>41</v>
@@ -3884,16 +3881,16 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>36</v>
@@ -3910,16 +3907,16 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>85</v>
+      <c r="D115" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>36</v>
@@ -3936,19 +3933,19 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>9</v>
@@ -3962,22 +3959,22 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E117" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G117" s="2">
         <v>45861</v>
@@ -3988,22 +3985,22 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G118" s="2">
         <v>45861</v>
@@ -4014,22 +4011,22 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G119" s="2">
         <v>45861</v>
@@ -4040,15 +4037,15 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -4066,19 +4063,19 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C121" s="1">
         <v>11155497</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>9</v>
@@ -4092,19 +4089,19 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C122" s="1">
         <v>11155797</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>122</v>
+      <c r="D122" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>9</v>
@@ -4118,15 +4115,15 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -4144,15 +4141,15 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -4170,15 +4167,15 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -4196,22 +4193,22 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G126" s="2">
         <v>45861</v>
@@ -4222,22 +4219,22 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G127" s="2">
         <v>45861</v>
@@ -4248,16 +4245,16 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C128" s="1">
         <v>11155497</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>91</v>
+      <c r="D128" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>16</v>
@@ -4274,16 +4271,16 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C129" s="1">
         <v>11155797</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>122</v>
+      <c r="D129" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>41</v>
@@ -4300,19 +4297,19 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>9</v>
@@ -4326,19 +4323,19 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C131" s="1">
         <v>11155497</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>9</v>
@@ -4352,19 +4349,19 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C132" s="1">
         <v>11155797</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>122</v>
+      <c r="D132" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>9</v>
@@ -4378,15 +4375,15 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -4404,16 +4401,16 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>13</v>
@@ -4430,16 +4427,16 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C135" s="1">
         <v>11151246</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>85</v>
+      <c r="D135" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>44</v>
@@ -4456,19 +4453,19 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C136" s="1">
         <v>11155497</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>91</v>
+      <c r="D136" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>9</v>
@@ -4482,19 +4479,19 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C137" s="1">
         <v>11155797</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>122</v>
+      <c r="D137" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>9</v>
@@ -4508,16 +4505,16 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>13</v>
@@ -4534,16 +4531,16 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C139" s="1">
         <v>11155797</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>122</v>
+      <c r="D139" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>41</v>
@@ -4560,16 +4557,16 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>13</v>
@@ -4586,16 +4583,16 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C141" s="1">
         <v>11155497</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>91</v>
+      <c r="D141" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>41</v>
@@ -4612,16 +4609,16 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C142" s="1">
         <v>11155797</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>122</v>
+      <c r="D142" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>11</v>
@@ -4638,16 +4635,16 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C143" s="1">
         <v>11152231</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>137</v>
+      <c r="D143" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>13</v>
@@ -4664,16 +4661,16 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C144" s="1">
         <v>11151246</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>85</v>
+      <c r="D144" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>13</v>
@@ -4690,16 +4687,16 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>13</v>
@@ -4716,19 +4713,19 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C146" s="1">
         <v>11155497</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>9</v>
@@ -4742,16 +4739,16 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C147" s="1">
         <v>11155797</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>122</v>
+      <c r="D147" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>41</v>
@@ -4767,7 +4764,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H108" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
+  <autoFilter ref="A1:H147" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97B273EB-E902-4076-B585-646374516393}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFBE45C9-A6AD-4EFB-9FFC-0CC0E2868179}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -598,10 +598,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4644,7 +4640,7 @@
         <v>11152231</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>13</v>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFBE45C9-A6AD-4EFB-9FFC-0CC0E2868179}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47780A31-9618-4D5D-9753-6B413BC1E28A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -598,6 +598,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -920,7 +924,7 @@
   <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/WeeklyInsights/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{82A9AC4F-F022-4B3A-85D3-C409B9F30705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47780A31-9618-4D5D-9753-6B413BC1E28A}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="114_{0D1DAFC4-A43C-4969-9318-CA6B86E4123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D13D1491-7813-4F7D-A5EE-4C36C8AA7A57}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="161">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -447,9 +447,6 @@
   </si>
   <si>
     <t>Wk29</t>
-  </si>
-  <si>
-    <t>PTS-1090 TW.50.15.FI.0S.151.00 X2637</t>
   </si>
   <si>
     <t>Pilot Refillable Marker Pen</t>
@@ -2954,7 +2951,7 @@
         <v>11152231</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>44</v>
@@ -3058,7 +3055,7 @@
         <v>52</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>67</v>
@@ -3214,7 +3211,7 @@
         <v>52</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>8</v>
@@ -3240,7 +3237,7 @@
         <v>52</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>13</v>
@@ -3266,7 +3263,7 @@
         <v>52</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>41</v>
@@ -3347,7 +3344,7 @@
         <v>121</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>9</v>
@@ -3367,7 +3364,7 @@
         <v>98</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>128</v>
@@ -3396,7 +3393,7 @@
         <v>52</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>41</v>
@@ -3422,7 +3419,7 @@
         <v>52</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>13</v>
@@ -3451,7 +3448,7 @@
         <v>121</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>9</v>
@@ -3578,7 +3575,7 @@
         <v>52</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>21</v>
@@ -3604,7 +3601,7 @@
         <v>52</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>13</v>
@@ -3685,7 +3682,7 @@
         <v>90</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>9</v>
@@ -3751,16 +3748,16 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>28</v>
@@ -3777,7 +3774,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>98</v>
@@ -3803,7 +3800,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>98</v>
@@ -3829,7 +3826,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>98</v>
@@ -3855,7 +3852,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>98</v>
@@ -3881,16 +3878,16 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>36</v>
@@ -3907,7 +3904,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>98</v>
@@ -3933,7 +3930,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>98</v>
@@ -3959,7 +3956,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>98</v>
@@ -3985,7 +3982,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>98</v>
@@ -4011,7 +4008,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>98</v>
@@ -4037,7 +4034,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>98</v>
@@ -4063,7 +4060,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>98</v>
@@ -4089,7 +4086,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>98</v>
@@ -4115,7 +4112,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>98</v>
@@ -4141,7 +4138,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>98</v>
@@ -4167,7 +4164,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>98</v>
@@ -4193,7 +4190,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>98</v>
@@ -4219,16 +4216,16 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>13</v>
@@ -4245,7 +4242,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>98</v>
@@ -4271,7 +4268,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>98</v>
@@ -4297,7 +4294,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>98</v>
@@ -4323,7 +4320,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>98</v>
@@ -4349,7 +4346,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>98</v>
@@ -4361,7 +4358,7 @@
         <v>121</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>9</v>
@@ -4375,7 +4372,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>98</v>
@@ -4401,16 +4398,16 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>13</v>
@@ -4427,7 +4424,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>98</v>
@@ -4453,7 +4450,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>98</v>
@@ -4465,7 +4462,7 @@
         <v>90</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>9</v>
@@ -4479,7 +4476,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>98</v>
@@ -4505,16 +4502,16 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>13</v>
@@ -4531,7 +4528,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>98</v>
@@ -4557,16 +4554,16 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>13</v>
@@ -4583,7 +4580,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>98</v>
@@ -4609,7 +4606,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>98</v>
@@ -4635,7 +4632,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>98</v>
@@ -4661,7 +4658,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>98</v>
@@ -4687,16 +4684,16 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>13</v>
@@ -4713,7 +4710,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>98</v>
@@ -4739,7 +4736,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>98</v>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/WeeklyInsights/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="114_{0D1DAFC4-A43C-4969-9318-CA6B86E4123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D13D1491-7813-4F7D-A5EE-4C36C8AA7A57}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="114_{0D1DAFC4-A43C-4969-9318-CA6B86E4123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C62BC06-E61C-4AD9-A3BA-DD916B2EED40}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$190</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="189">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -287,241 +287,325 @@
     <t>11155143</t>
   </si>
   <si>
+    <t>2600pcs</t>
+  </si>
+  <si>
+    <t>11151246</t>
+  </si>
+  <si>
+    <t>10,16 And 20 Core Ribbon Cable 11 Meter Each And IDC Receptacle, Female 2.54mm, 2 Row (20 Sets Each)</t>
+  </si>
+  <si>
+    <t>10set</t>
+  </si>
+  <si>
+    <t>400pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-0962</t>
+  </si>
+  <si>
+    <t>TW.50.1A.FI.0R.026.02 NORMAL PRIMARY</t>
+  </si>
+  <si>
+    <t>PTS-1138 6K-9090-HS01  Vacuum Adaptor</t>
+  </si>
+  <si>
+    <t>16pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-0356</t>
+  </si>
+  <si>
+    <t>GP-570D84A-03 Hyperspace Semicon Probes</t>
+  </si>
+  <si>
+    <t>800pcs</t>
+  </si>
+  <si>
+    <t>Sihl</t>
+  </si>
+  <si>
+    <t>Wk27</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>XS-MIT-0099</t>
+  </si>
+  <si>
+    <t>SY3120-5LZDM5-F2 SOLENOID VALVE</t>
+  </si>
+  <si>
+    <t>XS-PTS-0860</t>
+  </si>
+  <si>
+    <t>X1439 70192.312 DARK LEAKAGE RUBBER TIP</t>
+  </si>
+  <si>
+    <t>XS-PTS-0764</t>
+  </si>
+  <si>
+    <t>70192.384 RUBBER TIP</t>
+  </si>
+  <si>
+    <t>XS-PTS-0790</t>
+  </si>
+  <si>
+    <t>70900.108 Test Socket Pogo Pin</t>
+  </si>
+  <si>
+    <t>XS-PTS-0933</t>
+  </si>
+  <si>
+    <t>X1629 70900.137 SEMICONDUCTOR PROBE PIN</t>
+  </si>
+  <si>
+    <t>XS-SPM-0061</t>
+  </si>
+  <si>
+    <t>14210873.140 SPAREP A218 - PICKUP</t>
+  </si>
+  <si>
+    <t>XS-SPE-0090</t>
+  </si>
+  <si>
+    <t>GP-762A35A-02XB Hyperspace Semicon Probe</t>
+  </si>
+  <si>
+    <t>XS-PTS-0864</t>
+  </si>
+  <si>
+    <t>Model : 6K-76235-H03X-NST Hyperspace</t>
+  </si>
+  <si>
+    <t>XS-PTS-0868</t>
+  </si>
+  <si>
+    <t>6K-76235-H03X-ALN Hyperspace Semicon</t>
+  </si>
+  <si>
+    <t>XS-PTS-0469</t>
+  </si>
+  <si>
+    <t>70508.201 10# BULB MFG: PHILIPS</t>
+  </si>
+  <si>
+    <t>XS-PTS-0465</t>
+  </si>
+  <si>
+    <t>70508.190 00707-SU Bulb#6</t>
+  </si>
+  <si>
+    <t>PTS-1140 6K-9090-HS02 HPS LF Aligner</t>
+  </si>
+  <si>
+    <t>Wk28</t>
+  </si>
+  <si>
+    <t>12pcs</t>
+  </si>
+  <si>
+    <t>60pcs</t>
+  </si>
+  <si>
+    <t>5200pcs</t>
+  </si>
+  <si>
+    <t>18pcs</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>PTS-1139 Nanotek Brush (NANO-4-004)</t>
+  </si>
+  <si>
+    <t>XS-PTS-0098</t>
+  </si>
+  <si>
+    <t>CDUJB6-10D AIR CYLINDER</t>
+  </si>
+  <si>
+    <t>XS-PTS-0135</t>
+  </si>
+  <si>
+    <t>10028.018 AUTO SWITCH</t>
+  </si>
+  <si>
+    <t>XS-PTS-0383</t>
+  </si>
+  <si>
+    <t>22401.004 APC BACK UPS 500VA</t>
+  </si>
+  <si>
+    <t>Wk29</t>
+  </si>
+  <si>
+    <t>Pilot Refillable Marker Pen</t>
+  </si>
+  <si>
+    <t>Hakko FA400-04 Bench Top ESD-Safe Smoke Absorber</t>
+  </si>
+  <si>
+    <t>Aluninum L'Block With E/N</t>
+  </si>
+  <si>
+    <t>14pcs</t>
+  </si>
+  <si>
+    <t>11155547</t>
+  </si>
+  <si>
+    <t>Stabilo Line 308</t>
+  </si>
+  <si>
+    <t>Telescopic Detection Mirror Led</t>
+  </si>
+  <si>
+    <t>22pcs</t>
+  </si>
+  <si>
+    <t>24pcs</t>
+  </si>
+  <si>
+    <t>S/S Compression Spring 2 Type 100pcs MyCroft</t>
+  </si>
+  <si>
+    <t>2 &amp; 1/2 Inch Aligner Jig / 2 MyCroft</t>
+  </si>
+  <si>
+    <t>Offline Jig for Nest Cleaning Module Assembly LF</t>
+  </si>
+  <si>
+    <t>XS-PTS-0751</t>
+  </si>
+  <si>
+    <t>CDUJB8-15D Air Cylinder</t>
+  </si>
+  <si>
+    <t>11152231</t>
+  </si>
+  <si>
+    <t>XS-SPM-0006</t>
+  </si>
+  <si>
+    <t>14210853.126 SPAREP A217 PICKUP MODULE</t>
+  </si>
+  <si>
+    <t>11151245</t>
+  </si>
+  <si>
+    <t>PTS-1068 TW.50.15.FI.0S.109.00 X2637_Stn</t>
+  </si>
+  <si>
+    <t>11154654</t>
+  </si>
+  <si>
+    <t>PTS-1097 10618.836 (10412.950) X2544</t>
+  </si>
+  <si>
+    <t>11151255</t>
+  </si>
+  <si>
+    <t>PTS-1078 TW.50.1A.FI.0S.125.01 TOP PIN</t>
+  </si>
+  <si>
+    <t>PTS-1097 10618.836 (10412.950){Q=16},</t>
+  </si>
+  <si>
+    <t>Wk30</t>
+  </si>
+  <si>
+    <t>PTS-1136 300-001519-015 QualMax Semiconductor</t>
+  </si>
+  <si>
+    <t>XS-PTS-0833</t>
+  </si>
+  <si>
+    <t>1254527 u-shape type, Sensor 6mm, NPN,</t>
+  </si>
+  <si>
+    <t>XS-PTS-0832</t>
+  </si>
+  <si>
+    <t>1254531 u-shape type, Sensor 6mm, NPN,</t>
+  </si>
+  <si>
+    <t>XS-PTS-0266</t>
+  </si>
+  <si>
+    <t>70192.261 VACUUM PAD (For Empty Tray)</t>
+  </si>
+  <si>
+    <t>XS-PTS-0402</t>
+  </si>
+  <si>
+    <t>10124.040 EQ-77 BULB ASSEMBLY</t>
+  </si>
+  <si>
+    <t>XS-PTS-1029</t>
+  </si>
+  <si>
+    <t>10300.263 BENCH POWER SUPPLY</t>
+  </si>
+  <si>
     <t>PTS-1136 300-001519-015 Semiconductor</t>
   </si>
   <si>
-    <t>2600pcs</t>
-  </si>
-  <si>
-    <t>11151246</t>
-  </si>
-  <si>
-    <t>10,16 And 20 Core Ribbon Cable 11 Meter Each And IDC Receptacle, Female 2.54mm, 2 Row (20 Sets Each)</t>
-  </si>
-  <si>
-    <t>10set</t>
-  </si>
-  <si>
-    <t>400pcs</t>
-  </si>
-  <si>
-    <t>XS-PTS-0962</t>
-  </si>
-  <si>
-    <t>TW.50.1A.FI.0R.026.02 NORMAL PRIMARY</t>
-  </si>
-  <si>
-    <t>PTS-1138 6K-9090-HS01  Vacuum Adaptor</t>
-  </si>
-  <si>
-    <t>16pcs</t>
-  </si>
-  <si>
-    <t>XS-PTS-0356</t>
-  </si>
-  <si>
-    <t>GP-570D84A-03 Hyperspace Semicon Probes</t>
-  </si>
-  <si>
-    <t>800pcs</t>
-  </si>
-  <si>
-    <t>Sihl</t>
-  </si>
-  <si>
-    <t>Wk27</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>SAP</t>
-  </si>
-  <si>
-    <t>XS-MIT-0099</t>
-  </si>
-  <si>
-    <t>SY3120-5LZDM5-F2 SOLENOID VALVE</t>
-  </si>
-  <si>
-    <t>XS-PTS-0860</t>
-  </si>
-  <si>
-    <t>X1439 70192.312 DARK LEAKAGE RUBBER TIP</t>
-  </si>
-  <si>
-    <t>XS-PTS-0764</t>
-  </si>
-  <si>
-    <t>70192.384 RUBBER TIP</t>
-  </si>
-  <si>
-    <t>XS-PTS-0790</t>
-  </si>
-  <si>
-    <t>70900.108 Test Socket Pogo Pin</t>
-  </si>
-  <si>
-    <t>XS-PTS-0933</t>
-  </si>
-  <si>
-    <t>X1629 70900.137 SEMICONDUCTOR PROBE PIN</t>
-  </si>
-  <si>
-    <t>XS-SPM-0061</t>
-  </si>
-  <si>
-    <t>14210873.140 SPAREP A218 - PICKUP</t>
-  </si>
-  <si>
-    <t>XS-SPE-0090</t>
-  </si>
-  <si>
-    <t>GP-762A35A-02XB Hyperspace Semicon Probe</t>
-  </si>
-  <si>
-    <t>XS-PTS-0864</t>
-  </si>
-  <si>
-    <t>Model : 6K-76235-H03X-NST Hyperspace</t>
-  </si>
-  <si>
-    <t>XS-PTS-0868</t>
-  </si>
-  <si>
-    <t>6K-76235-H03X-ALN Hyperspace Semicon</t>
-  </si>
-  <si>
-    <t>XS-PTS-0469</t>
-  </si>
-  <si>
-    <t>70508.201 10# BULB MFG: PHILIPS</t>
-  </si>
-  <si>
-    <t>XS-PTS-0465</t>
-  </si>
-  <si>
-    <t>70508.190 00707-SU Bulb#6</t>
-  </si>
-  <si>
-    <t>PTS-1140 6K-9090-HS02 HPS LF Aligner</t>
-  </si>
-  <si>
-    <t>Wk28</t>
-  </si>
-  <si>
-    <t>12pcs</t>
-  </si>
-  <si>
-    <t>60pcs</t>
-  </si>
-  <si>
-    <t>5200pcs</t>
-  </si>
-  <si>
-    <t>18pcs</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>PTS-1139 Nanotek Brush (NANO-4-004)</t>
-  </si>
-  <si>
-    <t>XS-PTS-0098</t>
-  </si>
-  <si>
-    <t>CDUJB6-10D AIR CYLINDER</t>
-  </si>
-  <si>
-    <t>XS-PTS-0135</t>
-  </si>
-  <si>
-    <t>10028.018 AUTO SWITCH</t>
-  </si>
-  <si>
-    <t>XS-PTS-0383</t>
-  </si>
-  <si>
-    <t>22401.004 APC BACK UPS 500VA</t>
-  </si>
-  <si>
-    <t>Wk29</t>
-  </si>
-  <si>
-    <t>Pilot Refillable Marker Pen</t>
-  </si>
-  <si>
-    <t>Hakko FA400-04 Bench Top ESD-Safe Smoke Absorber</t>
-  </si>
-  <si>
-    <t>Aluninum L'Block With E/N</t>
-  </si>
-  <si>
-    <t>14pcs</t>
-  </si>
-  <si>
-    <t>11155547</t>
-  </si>
-  <si>
-    <t>Stabilo Line 308</t>
-  </si>
-  <si>
-    <t>Telescopic Detection Mirror Led</t>
-  </si>
-  <si>
-    <t>22pcs</t>
-  </si>
-  <si>
-    <t>24pcs</t>
-  </si>
-  <si>
-    <t>S/S Compression Spring 2 Type 100pcs MyCroft</t>
-  </si>
-  <si>
-    <t>2 &amp; 1/2 Inch Aligner Jig / 2 MyCroft</t>
-  </si>
-  <si>
-    <t>Offline Jig for Nest Cleaning Module Assembly LF</t>
-  </si>
-  <si>
-    <t>XS-PTS-0751</t>
-  </si>
-  <si>
-    <t>CDUJB8-15D Air Cylinder</t>
-  </si>
-  <si>
-    <t>11152231</t>
-  </si>
-  <si>
-    <t>XS-SPM-0006</t>
-  </si>
-  <si>
-    <t>14210853.126 SPAREP A217 PICKUP MODULE</t>
-  </si>
-  <si>
-    <t>11151245</t>
-  </si>
-  <si>
-    <t>PTS-1068 TW.50.15.FI.0S.109.00 X2637_Stn</t>
-  </si>
-  <si>
-    <t>11154654</t>
-  </si>
-  <si>
-    <t>PTS-1097 10618.836 (10412.950) X2544</t>
-  </si>
-  <si>
-    <t>11151255</t>
-  </si>
-  <si>
-    <t>PTS-1078 TW.50.1A.FI.0S.125.01 TOP PIN</t>
-  </si>
-  <si>
-    <t>PTS-1097 10618.836 (10412.950){Q=16},</t>
-  </si>
-  <si>
-    <t>Wk30</t>
+    <t>100pcs</t>
+  </si>
+  <si>
+    <t>PTS-1090 TW.50.15.FI.0S.151.00 X2637</t>
+  </si>
+  <si>
+    <t>PTS-1069 TW.50.15.FI.0S.150.00 X2637</t>
+  </si>
+  <si>
+    <t>XS-PTS-0466</t>
+  </si>
+  <si>
+    <t>70508.147 Sunco SCBR304PK5K Bulb#7</t>
+  </si>
+  <si>
+    <t>NI PXIe-4113 2 Channel Power Supply, 10V, 6A Repair / PXIE-4113  X2637</t>
+  </si>
+  <si>
+    <t>XS-PTS-0971</t>
+  </si>
+  <si>
+    <t>TW.50.15.FI.0R.061.00 STT B ADAPTOR X189</t>
+  </si>
+  <si>
+    <t>XS-PTS-0867</t>
+  </si>
+  <si>
+    <t>6K-57084-H062 Hyperspace Semicon Socket</t>
+  </si>
+  <si>
+    <t>ISM-TS-06 X2544 Aligner &amp; Nest Assembly X2544</t>
+  </si>
+  <si>
+    <t>ISM-TS-06 X2544 RMA PCB boards batch02 X2544</t>
+  </si>
+  <si>
+    <t>11152143</t>
+  </si>
+  <si>
+    <t>PTS-1086 TW.50.1A.FI.0S.127.00 ALIGNER</t>
+  </si>
+  <si>
+    <t>11pcs</t>
+  </si>
+  <si>
+    <t>28pcs</t>
+  </si>
+  <si>
+    <t>Wk31</t>
   </si>
 </sst>
 </file>
@@ -595,10 +679,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -918,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -942,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -968,7 +1048,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1">
         <v>11151246</v>
@@ -994,7 +1074,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1">
         <v>11152231</v>
@@ -1020,7 +1100,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1">
         <v>11154322</v>
@@ -1046,7 +1126,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -1072,7 +1152,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1098,7 +1178,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
@@ -1124,7 +1204,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -1150,7 +1230,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -1176,7 +1256,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -1202,7 +1282,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
@@ -1228,7 +1308,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -1251,10 +1331,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>30</v>
@@ -1277,10 +1357,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1303,10 +1383,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>34</v>
@@ -1329,10 +1409,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>37</v>
@@ -1355,10 +1435,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>39</v>
@@ -1381,10 +1461,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>42</v>
@@ -1407,10 +1487,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>45</v>
@@ -1433,10 +1513,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -1459,10 +1539,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>48</v>
@@ -1485,10 +1565,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>50</v>
@@ -1511,7 +1591,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>52</v>
@@ -1537,7 +1617,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>52</v>
@@ -1563,7 +1643,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>52</v>
@@ -1589,7 +1669,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>52</v>
@@ -1615,7 +1695,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>52</v>
@@ -1641,7 +1721,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>52</v>
@@ -1667,7 +1747,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>52</v>
@@ -1693,7 +1773,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>52</v>
@@ -1719,7 +1799,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>52</v>
@@ -1745,7 +1825,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>52</v>
@@ -1771,7 +1851,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>52</v>
@@ -1797,7 +1877,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>52</v>
@@ -1823,10 +1903,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>26</v>
@@ -1849,10 +1929,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>69</v>
@@ -1875,10 +1955,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>71</v>
@@ -1901,10 +1981,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>73</v>
@@ -1927,10 +2007,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>75</v>
@@ -1953,10 +2033,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>77</v>
@@ -1979,10 +2059,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>79</v>
@@ -2005,19 +2085,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>9</v>
@@ -2031,13 +2111,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>7</v>
@@ -2057,7 +2137,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>52</v>
@@ -2083,7 +2163,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>52</v>
@@ -2092,10 +2172,10 @@
         <v>52</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>9</v>
@@ -2109,10 +2189,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>19</v>
@@ -2121,7 +2201,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>9</v>
@@ -2135,16 +2215,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>36</v>
@@ -2161,19 +2241,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="1">
         <v>11155497</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>9</v>
@@ -2187,22 +2267,22 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G49" s="2">
         <v>45842</v>
@@ -2213,16 +2293,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
@@ -2239,19 +2319,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" s="1">
         <v>11155497</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>9</v>
@@ -2265,19 +2345,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="1">
         <v>11155497</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>9</v>
@@ -2291,10 +2371,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>45</v>
@@ -2317,16 +2397,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>16</v>
@@ -2343,16 +2423,16 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>41</v>
@@ -2369,16 +2449,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>21</v>
@@ -2395,16 +2475,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>21</v>
@@ -2421,10 +2501,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>22</v>
@@ -2447,22 +2527,22 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G59" s="2">
         <v>45846</v>
@@ -2473,22 +2553,22 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G60" s="2">
         <v>45847</v>
@@ -2499,22 +2579,22 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G61" s="2">
         <v>45847</v>
@@ -2525,22 +2605,22 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G62" s="2">
         <v>45847</v>
@@ -2551,22 +2631,22 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G63" s="2">
         <v>45847</v>
@@ -2577,19 +2657,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C64" s="1">
         <v>11155497</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>9</v>
@@ -2603,10 +2683,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
@@ -2615,7 +2695,7 @@
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>9</v>
@@ -2629,19 +2709,19 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>9</v>
@@ -2655,16 +2735,16 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>28</v>
@@ -2681,16 +2761,16 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>8</v>
@@ -2707,19 +2787,19 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" s="1">
         <v>11155497</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>9</v>
@@ -2733,22 +2813,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G70" s="2">
         <v>45848</v>
@@ -2759,22 +2839,22 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G71" s="2">
         <v>45848</v>
@@ -2785,22 +2865,22 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G72" s="2">
         <v>45848</v>
@@ -2811,16 +2891,16 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="1">
         <v>11155497</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>11</v>
@@ -2837,19 +2917,19 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C74" s="1">
         <v>11155797</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>9</v>
@@ -2863,16 +2943,16 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>13</v>
@@ -2890,16 +2970,16 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C76" s="1">
         <v>11155797</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>16</v>
@@ -2916,13 +2996,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>7</v>
@@ -2942,10 +3022,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C78" s="1">
         <v>11152231</v>
@@ -2968,10 +3048,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>71</v>
@@ -2994,10 +3074,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>19</v>
@@ -3020,10 +3100,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>22</v>
@@ -3046,7 +3126,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>52</v>
@@ -3055,7 +3135,7 @@
         <v>52</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>67</v>
@@ -3072,16 +3152,16 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>13</v>
@@ -3098,16 +3178,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84" s="1">
         <v>11155497</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>67</v>
@@ -3124,16 +3204,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" s="1">
         <v>11155797</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>11</v>
@@ -3150,16 +3230,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86" s="1">
         <v>11155497</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>41</v>
@@ -3176,16 +3256,16 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C87" s="1">
         <v>11155497</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>41</v>
@@ -3202,7 +3282,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>52</v>
@@ -3211,7 +3291,7 @@
         <v>52</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>8</v>
@@ -3228,7 +3308,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>52</v>
@@ -3237,7 +3317,7 @@
         <v>52</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>13</v>
@@ -3254,7 +3334,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>52</v>
@@ -3263,7 +3343,7 @@
         <v>52</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>41</v>
@@ -3280,16 +3360,16 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>13</v>
@@ -3306,19 +3386,19 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C92" s="1">
         <v>11155497</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>9</v>
@@ -3332,19 +3412,19 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93" s="1">
         <v>11155797</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>9</v>
@@ -3358,16 +3438,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>13</v>
@@ -3384,7 +3464,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>52</v>
@@ -3393,13 +3473,13 @@
         <v>52</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G95" s="2">
         <v>45855</v>
@@ -3410,7 +3490,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>52</v>
@@ -3419,13 +3499,13 @@
         <v>52</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G96" s="2">
         <v>45855</v>
@@ -3436,19 +3516,19 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97" s="1">
         <v>11155797</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>9</v>
@@ -3462,10 +3542,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>19</v>
@@ -3488,19 +3568,19 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99" s="1">
         <v>11155497</v>
       </c>
       <c r="D99" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>9</v>
@@ -3514,16 +3594,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C100" s="1">
         <v>11155797</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>67</v>
@@ -3540,16 +3620,16 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C101" s="1">
         <v>11155497</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
@@ -3566,7 +3646,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>52</v>
@@ -3575,7 +3655,7 @@
         <v>52</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>21</v>
@@ -3592,7 +3672,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>52</v>
@@ -3601,7 +3681,7 @@
         <v>52</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>13</v>
@@ -3618,13 +3698,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>7</v>
@@ -3644,10 +3724,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>14</v>
@@ -3656,7 +3736,7 @@
         <v>15</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>9</v>
@@ -3670,19 +3750,19 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C106" s="1">
         <v>11155497</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>9</v>
@@ -3696,16 +3776,16 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C107" s="1">
         <v>11155797</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>41</v>
@@ -3722,19 +3802,19 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C108" s="1">
         <v>11155497</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>9</v>
@@ -3748,16 +3828,16 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>28</v>
@@ -3774,16 +3854,16 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C110" s="1">
         <v>11155497</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>16</v>
@@ -3800,16 +3880,16 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C111" s="1">
         <v>11155797</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>41</v>
@@ -3826,16 +3906,16 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C112" s="1">
         <v>11155497</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>16</v>
@@ -3852,16 +3932,16 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C113" s="1">
         <v>11155797</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>41</v>
@@ -3878,13 +3958,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>10</v>
@@ -3904,13 +3984,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>7</v>
@@ -3930,10 +4010,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>19</v>
@@ -3942,7 +4022,7 @@
         <v>20</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>9</v>
@@ -3956,22 +4036,22 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="E117" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G117" s="2">
         <v>45861</v>
@@ -3982,22 +4062,22 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G118" s="2">
         <v>45861</v>
@@ -4008,22 +4088,22 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G119" s="2">
         <v>45861</v>
@@ -4034,10 +4114,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>22</v>
@@ -4060,19 +4140,19 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C121" s="1">
         <v>11155497</v>
       </c>
       <c r="D121" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>9</v>
@@ -4086,19 +4166,19 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C122" s="1">
         <v>11155797</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>9</v>
@@ -4112,10 +4192,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>14</v>
@@ -4138,16 +4218,16 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>21</v>
@@ -4164,10 +4244,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>50</v>
@@ -4190,22 +4270,22 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G126" s="2">
         <v>45861</v>
@@ -4216,22 +4296,22 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G127" s="2">
         <v>45861</v>
@@ -4242,16 +4322,16 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C128" s="1">
         <v>11155497</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>16</v>
@@ -4268,16 +4348,16 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C129" s="1">
         <v>11155797</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>41</v>
@@ -4294,10 +4374,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>19</v>
@@ -4306,7 +4386,7 @@
         <v>20</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>9</v>
@@ -4320,19 +4400,19 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C131" s="1">
         <v>11155497</v>
       </c>
       <c r="D131" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>9</v>
@@ -4346,19 +4426,19 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C132" s="1">
         <v>11155797</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>9</v>
@@ -4372,16 +4452,16 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>21</v>
@@ -4398,16 +4478,16 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>13</v>
@@ -4424,10 +4504,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C135" s="1">
         <v>11151246</v>
@@ -4450,19 +4530,19 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C136" s="1">
         <v>11155497</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>9</v>
@@ -4476,19 +4556,19 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C137" s="1">
         <v>11155797</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>9</v>
@@ -4502,16 +4582,16 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>13</v>
@@ -4528,16 +4608,16 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C139" s="1">
         <v>11155797</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>41</v>
@@ -4554,16 +4634,16 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>13</v>
@@ -4580,16 +4660,16 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C141" s="1">
         <v>11155497</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>41</v>
@@ -4606,16 +4686,16 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C142" s="1">
         <v>11155797</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>11</v>
@@ -4632,10 +4712,10 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C143" s="1">
         <v>11152231</v>
@@ -4658,10 +4738,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C144" s="1">
         <v>11151246</v>
@@ -4684,16 +4764,16 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>13</v>
@@ -4710,19 +4790,19 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C146" s="1">
         <v>11155497</v>
       </c>
       <c r="D146" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>9</v>
@@ -4736,16 +4816,16 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C147" s="1">
         <v>11155797</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>41</v>
@@ -4760,8 +4840,1126 @@
         <v>201.6</v>
       </c>
     </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" s="2">
+        <v>45866</v>
+      </c>
+      <c r="H148" s="1">
+        <v>53.36</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" s="2">
+        <v>45866</v>
+      </c>
+      <c r="H149" s="1">
+        <v>51.84</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" s="2">
+        <v>45866</v>
+      </c>
+      <c r="H150" s="1">
+        <v>252.01</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="2">
+        <v>45866</v>
+      </c>
+      <c r="H151" s="1">
+        <v>4945.2700000000004</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" s="2">
+        <v>45866</v>
+      </c>
+      <c r="H152" s="1">
+        <v>189.47</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" s="2">
+        <v>45866</v>
+      </c>
+      <c r="H153" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C154" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" s="2">
+        <v>45866</v>
+      </c>
+      <c r="H154" s="1">
+        <v>322.56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C155" s="1">
+        <v>11152231</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" s="2">
+        <v>45866</v>
+      </c>
+      <c r="H155" s="1">
+        <v>3333.36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C156" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G156" s="2">
+        <v>45866</v>
+      </c>
+      <c r="H156" s="1">
+        <v>555.55999999999995</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" s="2">
+        <v>45866</v>
+      </c>
+      <c r="H157" s="1">
+        <v>125.69</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" s="2">
+        <v>45866</v>
+      </c>
+      <c r="H158" s="1">
+        <v>5055.03</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C159" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" s="2">
+        <v>45866</v>
+      </c>
+      <c r="H159" s="1">
+        <v>161.28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C160" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" s="2">
+        <v>45866</v>
+      </c>
+      <c r="H160" s="1">
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C161" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" s="2">
+        <v>45867</v>
+      </c>
+      <c r="H161" s="1">
+        <v>161.28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C162" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" s="2">
+        <v>45867</v>
+      </c>
+      <c r="H162" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" s="2">
+        <v>45867</v>
+      </c>
+      <c r="H163" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" s="2">
+        <v>45867</v>
+      </c>
+      <c r="H164" s="1">
+        <v>340.11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C165" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165" s="2">
+        <v>45867</v>
+      </c>
+      <c r="H165" s="1">
+        <v>80.64</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C166" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" s="2">
+        <v>45867</v>
+      </c>
+      <c r="H166" s="1">
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G167" s="2">
+        <v>45868</v>
+      </c>
+      <c r="H167" s="1">
+        <v>440.98</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G168" s="2">
+        <v>45868</v>
+      </c>
+      <c r="H168" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C169" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G169" s="2">
+        <v>45868</v>
+      </c>
+      <c r="H169" s="1">
+        <v>282.24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" s="2">
+        <v>45868</v>
+      </c>
+      <c r="H170" s="1">
+        <v>135.4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C171" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" s="2">
+        <v>45868</v>
+      </c>
+      <c r="H171" s="1">
+        <v>210.6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G172" s="2">
+        <v>45868</v>
+      </c>
+      <c r="H172" s="1">
+        <v>325.02999999999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G173" s="2">
+        <v>45868</v>
+      </c>
+      <c r="H173" s="1">
+        <v>420.14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G174" s="2">
+        <v>45868</v>
+      </c>
+      <c r="H174" s="1">
+        <v>381.97</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G175" s="2">
+        <v>45868</v>
+      </c>
+      <c r="H175" s="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C176" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" s="2">
+        <v>45869</v>
+      </c>
+      <c r="H176" s="1">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" s="2">
+        <v>45869</v>
+      </c>
+      <c r="H177" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C178" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178" s="2">
+        <v>45869</v>
+      </c>
+      <c r="H178" s="1">
+        <v>421.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179" s="2">
+        <v>45869</v>
+      </c>
+      <c r="H179" s="1">
+        <v>5778.96</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" s="2">
+        <v>45869</v>
+      </c>
+      <c r="H180" s="1">
+        <v>8857.99</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C181" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181" s="2">
+        <v>45868</v>
+      </c>
+      <c r="H181" s="1">
+        <v>282.24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G182" s="2">
+        <v>45869</v>
+      </c>
+      <c r="H182" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" s="2">
+        <v>45869</v>
+      </c>
+      <c r="H183" s="1">
+        <v>1140.3599999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G184" s="2">
+        <v>45869</v>
+      </c>
+      <c r="H184" s="1">
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C185" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="2">
+        <v>45870</v>
+      </c>
+      <c r="H185" s="1">
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C186" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G186" s="2">
+        <v>45870</v>
+      </c>
+      <c r="H186" s="1">
+        <v>221.76</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C187" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G187" s="2">
+        <v>45871</v>
+      </c>
+      <c r="H187" s="1">
+        <v>561.6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G188" s="2">
+        <v>45871</v>
+      </c>
+      <c r="H188" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C189" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G189" s="2">
+        <v>45872</v>
+      </c>
+      <c r="H189" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C190" s="1">
+        <v>11152231</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G190" s="2">
+        <v>45872</v>
+      </c>
+      <c r="H190" s="1">
+        <v>2222.2399999999998</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H147" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
+  <autoFilter ref="A1:H190" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="114_{0D1DAFC4-A43C-4969-9318-CA6B86E4123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C62BC06-E61C-4AD9-A3BA-DD916B2EED40}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="114_{0D1DAFC4-A43C-4969-9318-CA6B86E4123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C46F4FF-EF85-48D3-82BE-DEAF7247EEDB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="187">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -558,12 +558,6 @@
   </si>
   <si>
     <t>100pcs</t>
-  </si>
-  <si>
-    <t>PTS-1090 TW.50.15.FI.0S.151.00 X2637</t>
-  </si>
-  <si>
-    <t>PTS-1069 TW.50.15.FI.0S.150.00 X2637</t>
   </si>
   <si>
     <t>XS-PTS-0466</t>
@@ -679,6 +673,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1000,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
   <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4842,7 +4840,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>97</v>
@@ -4868,7 +4866,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>97</v>
@@ -4894,7 +4892,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>97</v>
@@ -4920,7 +4918,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>97</v>
@@ -4946,7 +4944,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>97</v>
@@ -4972,7 +4970,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>97</v>
@@ -4998,7 +4996,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>97</v>
@@ -5024,7 +5022,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>97</v>
@@ -5033,7 +5031,7 @@
         <v>11152231</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>67</v>
@@ -5050,7 +5048,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>97</v>
@@ -5059,7 +5057,7 @@
         <v>11151246</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>13</v>
@@ -5076,16 +5074,16 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>13</v>
@@ -5102,7 +5100,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>97</v>
@@ -5111,7 +5109,7 @@
         <v>52</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>67</v>
@@ -5128,7 +5126,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>97</v>
@@ -5154,7 +5152,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>97</v>
@@ -5180,7 +5178,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>97</v>
@@ -5206,7 +5204,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>97</v>
@@ -5232,7 +5230,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>97</v>
@@ -5258,16 +5256,16 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>13</v>
@@ -5284,7 +5282,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>97</v>
@@ -5310,7 +5308,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>97</v>
@@ -5336,7 +5334,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>97</v>
@@ -5362,7 +5360,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>97</v>
@@ -5388,7 +5386,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>97</v>
@@ -5414,7 +5412,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>97</v>
@@ -5440,7 +5438,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>97</v>
@@ -5466,7 +5464,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>97</v>
@@ -5492,7 +5490,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>97</v>
@@ -5518,16 +5516,16 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>28</v>
@@ -5544,7 +5542,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>97</v>
@@ -5570,7 +5568,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>97</v>
@@ -5596,7 +5594,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>97</v>
@@ -5622,7 +5620,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>97</v>
@@ -5648,7 +5646,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>52</v>
@@ -5657,7 +5655,7 @@
         <v>52</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>11</v>
@@ -5674,7 +5672,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>52</v>
@@ -5683,7 +5681,7 @@
         <v>52</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>13</v>
@@ -5700,7 +5698,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>97</v>
@@ -5726,7 +5724,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>97</v>
@@ -5752,7 +5750,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>97</v>
@@ -5778,16 +5776,16 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>41</v>
@@ -5804,7 +5802,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>97</v>
@@ -5830,7 +5828,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>97</v>
@@ -5842,7 +5840,7 @@
         <v>120</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>9</v>
@@ -5856,7 +5854,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>97</v>
@@ -5882,7 +5880,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>97</v>
@@ -5908,7 +5906,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>97</v>
@@ -5920,7 +5918,7 @@
         <v>89</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>9</v>
@@ -5934,7 +5932,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>97</v>
@@ -5943,7 +5941,7 @@
         <v>11152231</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>36</v>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="114_{0D1DAFC4-A43C-4969-9318-CA6B86E4123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C46F4FF-EF85-48D3-82BE-DEAF7247EEDB}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="114_{0D1DAFC4-A43C-4969-9318-CA6B86E4123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49572870-01FB-4F07-89C4-475EF9497786}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$228</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="213">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -128,478 +128,556 @@
     <t>2pcs</t>
   </si>
   <si>
+    <t>11151253</t>
+  </si>
+  <si>
+    <t>PTS-1076 TW.50.15.00.0B.366.00 X2637</t>
+  </si>
+  <si>
+    <t>XS-PTS-0837</t>
+  </si>
+  <si>
+    <t>HX 0786 HPN VGA CABLE MALE TO MALE 5M</t>
+  </si>
+  <si>
+    <t>XS-PTS-0972</t>
+  </si>
+  <si>
+    <t>70192.496 RUBBER TIP DARK LEAKAGE</t>
+  </si>
+  <si>
+    <t>4pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-1043</t>
+  </si>
+  <si>
+    <t>10416.113 SAMTEC CABLE 1.2M X1767</t>
+  </si>
+  <si>
+    <t>XS-PTS-1031</t>
+  </si>
+  <si>
+    <t>70902.35 SHOULDER SCREW (SUS 304)</t>
+  </si>
+  <si>
+    <t>10pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-1032</t>
+  </si>
+  <si>
+    <t>X1767 800.404.C3 2nd PG BLOCK 8 STAGE(S)</t>
+  </si>
+  <si>
+    <t>5pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-1030</t>
+  </si>
+  <si>
+    <t>TW.50.1A.00.02.016.00 BRASS SLIDE</t>
+  </si>
+  <si>
+    <t>40pcs</t>
+  </si>
+  <si>
+    <t>11151239</t>
+  </si>
+  <si>
+    <t>PTS-1062 TW.50.1A.FI.0S.148.00 X2637</t>
+  </si>
+  <si>
+    <t>11151250</t>
+  </si>
+  <si>
+    <t>PTS-1073 10618.655 (10311.135){Q=129}</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>S/S M2.5 x 10mm Cap Screw (100pcs)</t>
+  </si>
+  <si>
+    <t>1lot</t>
+  </si>
+  <si>
+    <t>Non-Contact Test Pencil 1Ac-D</t>
+  </si>
+  <si>
+    <t>4 Ways Extension Cable 3 Meter</t>
+  </si>
+  <si>
+    <t>3 Meter USB Male And Female Extension Cable</t>
+  </si>
+  <si>
+    <t>Niijima Diamond File 5pcs 3mm x 140mm</t>
+  </si>
+  <si>
+    <t>4 set</t>
+  </si>
+  <si>
+    <t>Connector For Camera To Hub, Cable length:3 Meter, 9 Pin Matel Casing Connector And RJ10 Connector</t>
+  </si>
+  <si>
+    <t>15set</t>
+  </si>
+  <si>
+    <t>6201ZZ Bearing</t>
+  </si>
+  <si>
+    <t>LS UA-4 Contactor</t>
+  </si>
+  <si>
+    <t>Quick Terminal Block,Mini Universal Compact Wire Connector</t>
+  </si>
+  <si>
+    <t>Battery CR1632</t>
+  </si>
+  <si>
+    <t>Battery SR44</t>
+  </si>
+  <si>
+    <t>6pcs</t>
+  </si>
+  <si>
+    <t>Cable Tie 100mm (6 Packs), 150mm (6 Packs), 200mm (9 Packs), 250mm (6 Packs), 300mm (3 Packs)</t>
+  </si>
+  <si>
+    <t>11154686</t>
+  </si>
+  <si>
+    <t>PTS-1129 TW.50.15.98.JV.016.00 X2544</t>
+  </si>
+  <si>
+    <t>11154687</t>
+  </si>
+  <si>
+    <t>PTS-1130 TW.50.15.98.JV.009.00 X2544</t>
+  </si>
+  <si>
+    <t>11154688</t>
+  </si>
+  <si>
+    <t>PTS-1131 70902.588 X2544 SOCKET NEST X2544</t>
+  </si>
+  <si>
+    <t>11154689</t>
+  </si>
+  <si>
+    <t>PTS-1132 800.403.00 Indexing Socket Nest X2544</t>
+  </si>
+  <si>
+    <t>11151249</t>
+  </si>
+  <si>
+    <t>PTS -1072 70192.696 LL RUBBER TIP X2637</t>
+  </si>
+  <si>
+    <t>11151252</t>
+  </si>
+  <si>
+    <t>PTS-1075 10618.564 X2637 LIGHT LEAKAGE</t>
+  </si>
+  <si>
+    <t>11155143</t>
+  </si>
+  <si>
+    <t>2600pcs</t>
+  </si>
+  <si>
+    <t>11151246</t>
+  </si>
+  <si>
+    <t>10,16 And 20 Core Ribbon Cable 11 Meter Each And IDC Receptacle, Female 2.54mm, 2 Row (20 Sets Each)</t>
+  </si>
+  <si>
+    <t>10set</t>
+  </si>
+  <si>
+    <t>400pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-0962</t>
+  </si>
+  <si>
+    <t>TW.50.1A.FI.0R.026.02 NORMAL PRIMARY</t>
+  </si>
+  <si>
+    <t>PTS-1138 6K-9090-HS01  Vacuum Adaptor</t>
+  </si>
+  <si>
+    <t>16pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-0356</t>
+  </si>
+  <si>
+    <t>GP-570D84A-03 Hyperspace Semicon Probes</t>
+  </si>
+  <si>
+    <t>800pcs</t>
+  </si>
+  <si>
+    <t>Sihl</t>
+  </si>
+  <si>
+    <t>Wk27</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>XS-MIT-0099</t>
+  </si>
+  <si>
+    <t>SY3120-5LZDM5-F2 SOLENOID VALVE</t>
+  </si>
+  <si>
+    <t>XS-PTS-0860</t>
+  </si>
+  <si>
+    <t>X1439 70192.312 DARK LEAKAGE RUBBER TIP</t>
+  </si>
+  <si>
+    <t>XS-PTS-0764</t>
+  </si>
+  <si>
+    <t>70192.384 RUBBER TIP</t>
+  </si>
+  <si>
+    <t>XS-PTS-0790</t>
+  </si>
+  <si>
+    <t>70900.108 Test Socket Pogo Pin</t>
+  </si>
+  <si>
+    <t>XS-PTS-0933</t>
+  </si>
+  <si>
+    <t>X1629 70900.137 SEMICONDUCTOR PROBE PIN</t>
+  </si>
+  <si>
+    <t>XS-SPM-0061</t>
+  </si>
+  <si>
+    <t>14210873.140 SPAREP A218 - PICKUP</t>
+  </si>
+  <si>
+    <t>XS-SPE-0090</t>
+  </si>
+  <si>
+    <t>GP-762A35A-02XB Hyperspace Semicon Probe</t>
+  </si>
+  <si>
+    <t>XS-PTS-0864</t>
+  </si>
+  <si>
+    <t>Model : 6K-76235-H03X-NST Hyperspace</t>
+  </si>
+  <si>
+    <t>XS-PTS-0868</t>
+  </si>
+  <si>
+    <t>6K-76235-H03X-ALN Hyperspace Semicon</t>
+  </si>
+  <si>
+    <t>XS-PTS-0469</t>
+  </si>
+  <si>
+    <t>70508.201 10# BULB MFG: PHILIPS</t>
+  </si>
+  <si>
+    <t>XS-PTS-0465</t>
+  </si>
+  <si>
+    <t>70508.190 00707-SU Bulb#6</t>
+  </si>
+  <si>
+    <t>PTS-1140 6K-9090-HS02 HPS LF Aligner</t>
+  </si>
+  <si>
+    <t>Wk28</t>
+  </si>
+  <si>
+    <t>12pcs</t>
+  </si>
+  <si>
+    <t>60pcs</t>
+  </si>
+  <si>
+    <t>5200pcs</t>
+  </si>
+  <si>
+    <t>18pcs</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>PTS-1139 Nanotek Brush (NANO-4-004)</t>
+  </si>
+  <si>
+    <t>XS-PTS-0098</t>
+  </si>
+  <si>
+    <t>CDUJB6-10D AIR CYLINDER</t>
+  </si>
+  <si>
+    <t>XS-PTS-0135</t>
+  </si>
+  <si>
+    <t>10028.018 AUTO SWITCH</t>
+  </si>
+  <si>
+    <t>XS-PTS-0383</t>
+  </si>
+  <si>
+    <t>22401.004 APC BACK UPS 500VA</t>
+  </si>
+  <si>
+    <t>Wk29</t>
+  </si>
+  <si>
+    <t>Pilot Refillable Marker Pen</t>
+  </si>
+  <si>
+    <t>Hakko FA400-04 Bench Top ESD-Safe Smoke Absorber</t>
+  </si>
+  <si>
+    <t>Aluninum L'Block With E/N</t>
+  </si>
+  <si>
+    <t>14pcs</t>
+  </si>
+  <si>
+    <t>11155547</t>
+  </si>
+  <si>
+    <t>Stabilo Line 308</t>
+  </si>
+  <si>
+    <t>Telescopic Detection Mirror Led</t>
+  </si>
+  <si>
+    <t>22pcs</t>
+  </si>
+  <si>
+    <t>24pcs</t>
+  </si>
+  <si>
+    <t>S/S Compression Spring 2 Type 100pcs MyCroft</t>
+  </si>
+  <si>
+    <t>2 &amp; 1/2 Inch Aligner Jig / 2 MyCroft</t>
+  </si>
+  <si>
+    <t>Offline Jig for Nest Cleaning Module Assembly LF</t>
+  </si>
+  <si>
+    <t>XS-PTS-0751</t>
+  </si>
+  <si>
+    <t>CDUJB8-15D Air Cylinder</t>
+  </si>
+  <si>
+    <t>11152231</t>
+  </si>
+  <si>
+    <t>XS-SPM-0006</t>
+  </si>
+  <si>
+    <t>14210853.126 SPAREP A217 PICKUP MODULE</t>
+  </si>
+  <si>
+    <t>11151245</t>
+  </si>
+  <si>
+    <t>PTS-1068 TW.50.15.FI.0S.109.00 X2637_Stn</t>
+  </si>
+  <si>
+    <t>11154654</t>
+  </si>
+  <si>
+    <t>PTS-1097 10618.836 (10412.950) X2544</t>
+  </si>
+  <si>
+    <t>11151255</t>
+  </si>
+  <si>
+    <t>PTS-1078 TW.50.1A.FI.0S.125.01 TOP PIN</t>
+  </si>
+  <si>
+    <t>PTS-1097 10618.836 (10412.950){Q=16},</t>
+  </si>
+  <si>
+    <t>Wk30</t>
+  </si>
+  <si>
+    <t>PTS-1136 300-001519-015 QualMax Semiconductor</t>
+  </si>
+  <si>
+    <t>XS-PTS-0833</t>
+  </si>
+  <si>
+    <t>1254527 u-shape type, Sensor 6mm, NPN,</t>
+  </si>
+  <si>
+    <t>XS-PTS-0832</t>
+  </si>
+  <si>
+    <t>1254531 u-shape type, Sensor 6mm, NPN,</t>
+  </si>
+  <si>
+    <t>XS-PTS-0266</t>
+  </si>
+  <si>
+    <t>70192.261 VACUUM PAD (For Empty Tray)</t>
+  </si>
+  <si>
+    <t>XS-PTS-0402</t>
+  </si>
+  <si>
+    <t>10124.040 EQ-77 BULB ASSEMBLY</t>
+  </si>
+  <si>
+    <t>XS-PTS-1029</t>
+  </si>
+  <si>
+    <t>10300.263 BENCH POWER SUPPLY</t>
+  </si>
+  <si>
+    <t>PTS-1136 300-001519-015 Semiconductor</t>
+  </si>
+  <si>
+    <t>100pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-0466</t>
+  </si>
+  <si>
+    <t>70508.147 Sunco SCBR304PK5K Bulb#7</t>
+  </si>
+  <si>
+    <t>NI PXIe-4113 2 Channel Power Supply, 10V, 6A Repair / PXIE-4113  X2637</t>
+  </si>
+  <si>
+    <t>XS-PTS-0971</t>
+  </si>
+  <si>
+    <t>TW.50.15.FI.0R.061.00 STT B ADAPTOR X189</t>
+  </si>
+  <si>
+    <t>XS-PTS-0867</t>
+  </si>
+  <si>
+    <t>6K-57084-H062 Hyperspace Semicon Socket</t>
+  </si>
+  <si>
+    <t>ISM-TS-06 X2544 Aligner &amp; Nest Assembly X2544</t>
+  </si>
+  <si>
+    <t>ISM-TS-06 X2544 RMA PCB boards batch02 X2544</t>
+  </si>
+  <si>
+    <t>11152143</t>
+  </si>
+  <si>
+    <t>PTS-1086 TW.50.1A.FI.0S.127.00 ALIGNER</t>
+  </si>
+  <si>
+    <t>11pcs</t>
+  </si>
+  <si>
+    <t>28pcs</t>
+  </si>
+  <si>
+    <t>Wk31</t>
+  </si>
+  <si>
     <t>Wk26</t>
   </si>
   <si>
-    <t>11151253</t>
-  </si>
-  <si>
-    <t>PTS-1076 TW.50.15.00.0B.366.00 X2637</t>
-  </si>
-  <si>
-    <t>XS-PTS-0837</t>
-  </si>
-  <si>
-    <t>HX 0786 HPN VGA CABLE MALE TO MALE 5M</t>
-  </si>
-  <si>
-    <t>XS-PTS-0972</t>
-  </si>
-  <si>
-    <t>70192.496 RUBBER TIP DARK LEAKAGE</t>
-  </si>
-  <si>
-    <t>4pcs</t>
-  </si>
-  <si>
-    <t>XS-PTS-1043</t>
-  </si>
-  <si>
-    <t>10416.113 SAMTEC CABLE 1.2M X1767</t>
-  </si>
-  <si>
-    <t>XS-PTS-1031</t>
-  </si>
-  <si>
-    <t>70902.35 SHOULDER SCREW (SUS 304)</t>
-  </si>
-  <si>
-    <t>10pcs</t>
-  </si>
-  <si>
-    <t>XS-PTS-1032</t>
-  </si>
-  <si>
-    <t>X1767 800.404.C3 2nd PG BLOCK 8 STAGE(S)</t>
-  </si>
-  <si>
-    <t>5pcs</t>
-  </si>
-  <si>
-    <t>XS-PTS-1030</t>
-  </si>
-  <si>
-    <t>TW.50.1A.00.02.016.00 BRASS SLIDE</t>
-  </si>
-  <si>
-    <t>40pcs</t>
-  </si>
-  <si>
-    <t>11151239</t>
-  </si>
-  <si>
-    <t>PTS-1062 TW.50.1A.FI.0S.148.00 X2637</t>
-  </si>
-  <si>
-    <t>11151250</t>
-  </si>
-  <si>
-    <t>PTS-1073 10618.655 (10311.135){Q=129}</t>
-  </si>
-  <si>
-    <t>Expense</t>
-  </si>
-  <si>
-    <t>S/S M2.5 x 10mm Cap Screw (100pcs)</t>
-  </si>
-  <si>
-    <t>1lot</t>
-  </si>
-  <si>
-    <t>Non-Contact Test Pencil 1Ac-D</t>
-  </si>
-  <si>
-    <t>4 Ways Extension Cable 3 Meter</t>
-  </si>
-  <si>
-    <t>3 Meter USB Male And Female Extension Cable</t>
-  </si>
-  <si>
-    <t>Niijima Diamond File 5pcs 3mm x 140mm</t>
-  </si>
-  <si>
-    <t>4 set</t>
-  </si>
-  <si>
-    <t>Connector For Camera To Hub, Cable length:3 Meter, 9 Pin Matel Casing Connector And RJ10 Connector</t>
-  </si>
-  <si>
-    <t>15set</t>
-  </si>
-  <si>
-    <t>6201ZZ Bearing</t>
-  </si>
-  <si>
-    <t>LS UA-4 Contactor</t>
-  </si>
-  <si>
-    <t>Quick Terminal Block,Mini Universal Compact Wire Connector</t>
-  </si>
-  <si>
-    <t>Battery CR1632</t>
-  </si>
-  <si>
-    <t>Battery SR44</t>
-  </si>
-  <si>
-    <t>6pcs</t>
-  </si>
-  <si>
-    <t>Cable Tie 100mm (6 Packs), 150mm (6 Packs), 200mm (9 Packs), 250mm (6 Packs), 300mm (3 Packs)</t>
-  </si>
-  <si>
-    <t>11154686</t>
-  </si>
-  <si>
-    <t>PTS-1129 TW.50.15.98.JV.016.00 X2544</t>
-  </si>
-  <si>
-    <t>11154687</t>
-  </si>
-  <si>
-    <t>PTS-1130 TW.50.15.98.JV.009.00 X2544</t>
-  </si>
-  <si>
-    <t>11154688</t>
-  </si>
-  <si>
-    <t>PTS-1131 70902.588 X2544 SOCKET NEST X2544</t>
-  </si>
-  <si>
-    <t>11154689</t>
-  </si>
-  <si>
-    <t>PTS-1132 800.403.00 Indexing Socket Nest X2544</t>
-  </si>
-  <si>
-    <t>11151249</t>
-  </si>
-  <si>
-    <t>PTS -1072 70192.696 LL RUBBER TIP X2637</t>
-  </si>
-  <si>
-    <t>11151252</t>
-  </si>
-  <si>
-    <t>PTS-1075 10618.564 X2637 LIGHT LEAKAGE</t>
-  </si>
-  <si>
-    <t>11155143</t>
-  </si>
-  <si>
-    <t>2600pcs</t>
-  </si>
-  <si>
-    <t>11151246</t>
-  </si>
-  <si>
-    <t>10,16 And 20 Core Ribbon Cable 11 Meter Each And IDC Receptacle, Female 2.54mm, 2 Row (20 Sets Each)</t>
-  </si>
-  <si>
-    <t>10set</t>
-  </si>
-  <si>
-    <t>400pcs</t>
-  </si>
-  <si>
-    <t>XS-PTS-0962</t>
-  </si>
-  <si>
-    <t>TW.50.1A.FI.0R.026.02 NORMAL PRIMARY</t>
-  </si>
-  <si>
-    <t>PTS-1138 6K-9090-HS01  Vacuum Adaptor</t>
-  </si>
-  <si>
-    <t>16pcs</t>
-  </si>
-  <si>
-    <t>XS-PTS-0356</t>
-  </si>
-  <si>
-    <t>GP-570D84A-03 Hyperspace Semicon Probes</t>
-  </si>
-  <si>
-    <t>800pcs</t>
-  </si>
-  <si>
-    <t>Sihl</t>
-  </si>
-  <si>
-    <t>Wk27</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>SAP</t>
-  </si>
-  <si>
-    <t>XS-MIT-0099</t>
-  </si>
-  <si>
-    <t>SY3120-5LZDM5-F2 SOLENOID VALVE</t>
-  </si>
-  <si>
-    <t>XS-PTS-0860</t>
-  </si>
-  <si>
-    <t>X1439 70192.312 DARK LEAKAGE RUBBER TIP</t>
-  </si>
-  <si>
-    <t>XS-PTS-0764</t>
-  </si>
-  <si>
-    <t>70192.384 RUBBER TIP</t>
-  </si>
-  <si>
-    <t>XS-PTS-0790</t>
-  </si>
-  <si>
-    <t>70900.108 Test Socket Pogo Pin</t>
-  </si>
-  <si>
-    <t>XS-PTS-0933</t>
-  </si>
-  <si>
-    <t>X1629 70900.137 SEMICONDUCTOR PROBE PIN</t>
-  </si>
-  <si>
-    <t>XS-SPM-0061</t>
-  </si>
-  <si>
-    <t>14210873.140 SPAREP A218 - PICKUP</t>
-  </si>
-  <si>
-    <t>XS-SPE-0090</t>
-  </si>
-  <si>
-    <t>GP-762A35A-02XB Hyperspace Semicon Probe</t>
-  </si>
-  <si>
-    <t>XS-PTS-0864</t>
-  </si>
-  <si>
-    <t>Model : 6K-76235-H03X-NST Hyperspace</t>
-  </si>
-  <si>
-    <t>XS-PTS-0868</t>
-  </si>
-  <si>
-    <t>6K-76235-H03X-ALN Hyperspace Semicon</t>
-  </si>
-  <si>
-    <t>XS-PTS-0469</t>
-  </si>
-  <si>
-    <t>70508.201 10# BULB MFG: PHILIPS</t>
-  </si>
-  <si>
-    <t>XS-PTS-0465</t>
-  </si>
-  <si>
-    <t>70508.190 00707-SU Bulb#6</t>
-  </si>
-  <si>
-    <t>PTS-1140 6K-9090-HS02 HPS LF Aligner</t>
-  </si>
-  <si>
-    <t>Wk28</t>
-  </si>
-  <si>
-    <t>12pcs</t>
-  </si>
-  <si>
-    <t>60pcs</t>
-  </si>
-  <si>
-    <t>5200pcs</t>
-  </si>
-  <si>
-    <t>18pcs</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>PTS-1139 Nanotek Brush (NANO-4-004)</t>
-  </si>
-  <si>
-    <t>XS-PTS-0098</t>
-  </si>
-  <si>
-    <t>CDUJB6-10D AIR CYLINDER</t>
-  </si>
-  <si>
-    <t>XS-PTS-0135</t>
-  </si>
-  <si>
-    <t>10028.018 AUTO SWITCH</t>
-  </si>
-  <si>
-    <t>XS-PTS-0383</t>
-  </si>
-  <si>
-    <t>22401.004 APC BACK UPS 500VA</t>
-  </si>
-  <si>
-    <t>Wk29</t>
-  </si>
-  <si>
-    <t>Pilot Refillable Marker Pen</t>
-  </si>
-  <si>
-    <t>Hakko FA400-04 Bench Top ESD-Safe Smoke Absorber</t>
-  </si>
-  <si>
-    <t>Aluninum L'Block With E/N</t>
-  </si>
-  <si>
-    <t>14pcs</t>
-  </si>
-  <si>
-    <t>11155547</t>
-  </si>
-  <si>
-    <t>Stabilo Line 308</t>
-  </si>
-  <si>
-    <t>Telescopic Detection Mirror Led</t>
-  </si>
-  <si>
-    <t>22pcs</t>
-  </si>
-  <si>
-    <t>24pcs</t>
-  </si>
-  <si>
-    <t>S/S Compression Spring 2 Type 100pcs MyCroft</t>
-  </si>
-  <si>
-    <t>2 &amp; 1/2 Inch Aligner Jig / 2 MyCroft</t>
-  </si>
-  <si>
-    <t>Offline Jig for Nest Cleaning Module Assembly LF</t>
-  </si>
-  <si>
-    <t>XS-PTS-0751</t>
-  </si>
-  <si>
-    <t>CDUJB8-15D Air Cylinder</t>
-  </si>
-  <si>
-    <t>11152231</t>
-  </si>
-  <si>
-    <t>XS-SPM-0006</t>
-  </si>
-  <si>
-    <t>14210853.126 SPAREP A217 PICKUP MODULE</t>
-  </si>
-  <si>
-    <t>11151245</t>
-  </si>
-  <si>
-    <t>PTS-1068 TW.50.15.FI.0S.109.00 X2637_Stn</t>
-  </si>
-  <si>
-    <t>11154654</t>
-  </si>
-  <si>
-    <t>PTS-1097 10618.836 (10412.950) X2544</t>
-  </si>
-  <si>
-    <t>11151255</t>
-  </si>
-  <si>
-    <t>PTS-1078 TW.50.1A.FI.0S.125.01 TOP PIN</t>
-  </si>
-  <si>
-    <t>PTS-1097 10618.836 (10412.950){Q=16},</t>
-  </si>
-  <si>
-    <t>Wk30</t>
-  </si>
-  <si>
-    <t>PTS-1136 300-001519-015 QualMax Semiconductor</t>
-  </si>
-  <si>
-    <t>XS-PTS-0833</t>
-  </si>
-  <si>
-    <t>1254527 u-shape type, Sensor 6mm, NPN,</t>
-  </si>
-  <si>
-    <t>XS-PTS-0832</t>
-  </si>
-  <si>
-    <t>1254531 u-shape type, Sensor 6mm, NPN,</t>
-  </si>
-  <si>
-    <t>XS-PTS-0266</t>
-  </si>
-  <si>
-    <t>70192.261 VACUUM PAD (For Empty Tray)</t>
-  </si>
-  <si>
-    <t>XS-PTS-0402</t>
-  </si>
-  <si>
-    <t>10124.040 EQ-77 BULB ASSEMBLY</t>
-  </si>
-  <si>
-    <t>XS-PTS-1029</t>
-  </si>
-  <si>
-    <t>10300.263 BENCH POWER SUPPLY</t>
-  </si>
-  <si>
-    <t>PTS-1136 300-001519-015 Semiconductor</t>
-  </si>
-  <si>
-    <t>100pcs</t>
-  </si>
-  <si>
-    <t>XS-PTS-0466</t>
-  </si>
-  <si>
-    <t>70508.147 Sunco SCBR304PK5K Bulb#7</t>
-  </si>
-  <si>
-    <t>NI PXIe-4113 2 Channel Power Supply, 10V, 6A Repair / PXIE-4113  X2637</t>
-  </si>
-  <si>
-    <t>XS-PTS-0971</t>
-  </si>
-  <si>
-    <t>TW.50.15.FI.0R.061.00 STT B ADAPTOR X189</t>
-  </si>
-  <si>
-    <t>XS-PTS-0867</t>
-  </si>
-  <si>
-    <t>6K-57084-H062 Hyperspace Semicon Socket</t>
-  </si>
-  <si>
-    <t>ISM-TS-06 X2544 Aligner &amp; Nest Assembly X2544</t>
-  </si>
-  <si>
-    <t>ISM-TS-06 X2544 RMA PCB boards batch02 X2544</t>
-  </si>
-  <si>
-    <t>11152143</t>
-  </si>
-  <si>
-    <t>PTS-1086 TW.50.1A.FI.0S.127.00 ALIGNER</t>
-  </si>
-  <si>
-    <t>11pcs</t>
-  </si>
-  <si>
-    <t>28pcs</t>
-  </si>
-  <si>
-    <t>Wk31</t>
+    <t>PTS-1090 TW.50.15.FI.0S.151.00 X2637</t>
+  </si>
+  <si>
+    <t>Wk32</t>
+  </si>
+  <si>
+    <t>25pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-0977</t>
+  </si>
+  <si>
+    <t>800.404.3x 40 WAY RIBBON CABLE (1meter)</t>
+  </si>
+  <si>
+    <t>Solenoid Valve Mounting Bracket For: VQD1151U-5L</t>
+  </si>
+  <si>
+    <t>XS-PTS-0907</t>
+  </si>
+  <si>
+    <t>x1655SAMP 70900.067 Test Socket Pogo</t>
+  </si>
+  <si>
+    <t>XS-SPM-0032</t>
+  </si>
+  <si>
+    <t>38781430.122 SPAREP SOCKET FOR T01 LISA</t>
+  </si>
+  <si>
+    <t>Core Insight 3810, Ionizer Swing Mounting Bracket Assembly X2544</t>
+  </si>
+  <si>
+    <t>11151242</t>
+  </si>
+  <si>
+    <t>PTS-1065 TW.50.1A.FI.0S.136.00 X2637_SEC</t>
+  </si>
+  <si>
+    <t>PTS-1060 70192.692 PNP RUBBER TIP</t>
+  </si>
+  <si>
+    <t>42pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-0102</t>
+  </si>
+  <si>
+    <t>TW.50.15.00.01.874.00 WASHER</t>
+  </si>
+  <si>
+    <t>XS-PTS-0082</t>
+  </si>
+  <si>
+    <t>TW.50.15.98.5A.028.01 WINDOW CLAMPER</t>
+  </si>
+  <si>
+    <t>XS-PTS-0752</t>
+  </si>
+  <si>
+    <t>HX 1483 HPN OMRON EE-SX952-W-1M SENSOR</t>
+  </si>
+  <si>
+    <t>38pcs</t>
+  </si>
+  <si>
+    <t>500pcs</t>
+  </si>
+  <si>
+    <t>PTS-1126 TW.50.0B.FI.0S.006.01 PP</t>
+  </si>
+  <si>
+    <t>11154683</t>
+  </si>
+  <si>
+    <t>54pcs</t>
   </si>
 </sst>
 </file>
@@ -996,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C224" sqref="C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1020,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1043,10 +1121,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1">
         <v>11151246</v>
@@ -1069,10 +1147,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1">
         <v>11152231</v>
@@ -1095,10 +1173,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1">
         <v>11154322</v>
@@ -1121,10 +1199,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -1147,10 +1225,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1173,10 +1251,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
@@ -1199,10 +1277,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -1225,10 +1303,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -1251,10 +1329,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -1277,10 +1355,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
@@ -1303,10 +1381,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -1329,16 +1407,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>28</v>
@@ -1355,16 +1433,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -1381,19 +1459,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1407,16 +1485,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -1433,19 +1511,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1459,19 +1537,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1485,19 +1563,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1511,10 +1589,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -1523,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1537,16 +1615,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>28</v>
@@ -1563,16 +1641,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -1589,19 +1667,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>9</v>
@@ -1615,19 +1693,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>9</v>
@@ -1641,16 +1719,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>28</v>
@@ -1667,16 +1745,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>28</v>
@@ -1693,19 +1771,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>9</v>
@@ -1719,19 +1797,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>9</v>
@@ -1745,19 +1823,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>9</v>
@@ -1771,16 +1849,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
@@ -1797,19 +1875,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>9</v>
@@ -1823,19 +1901,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>9</v>
@@ -1849,19 +1927,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>9</v>
@@ -1875,19 +1953,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>9</v>
@@ -1901,10 +1979,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>26</v>
@@ -1927,16 +2005,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>28</v>
@@ -1953,16 +2031,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>28</v>
@@ -1979,19 +2057,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>9</v>
@@ -2005,19 +2083,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>9</v>
@@ -2031,19 +2109,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>9</v>
@@ -2057,16 +2135,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>13</v>
@@ -2083,19 +2161,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>9</v>
@@ -2109,13 +2187,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>7</v>
@@ -2135,19 +2213,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>9</v>
@@ -2161,19 +2239,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>9</v>
@@ -2187,10 +2265,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>19</v>
@@ -2199,7 +2277,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>9</v>
@@ -2213,19 +2291,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>9</v>
@@ -2239,19 +2317,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="1">
         <v>11155497</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>9</v>
@@ -2265,22 +2343,22 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="G49" s="2">
         <v>45842</v>
@@ -2291,16 +2369,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
@@ -2317,19 +2395,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" s="1">
         <v>11155497</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>9</v>
@@ -2343,19 +2421,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52" s="1">
         <v>11155497</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>9</v>
@@ -2369,19 +2447,19 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>9</v>
@@ -2395,16 +2473,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>16</v>
@@ -2421,19 +2499,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>9</v>
@@ -2447,16 +2525,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>21</v>
@@ -2473,16 +2551,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>21</v>
@@ -2499,10 +2577,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>22</v>
@@ -2511,7 +2589,7 @@
         <v>23</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>9</v>
@@ -2525,22 +2603,22 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G59" s="2">
         <v>45846</v>
@@ -2551,22 +2629,22 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G60" s="2">
         <v>45847</v>
@@ -2577,22 +2655,22 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G61" s="2">
         <v>45847</v>
@@ -2603,22 +2681,22 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G62" s="2">
         <v>45847</v>
@@ -2629,22 +2707,22 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G63" s="2">
         <v>45847</v>
@@ -2655,19 +2733,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C64" s="1">
         <v>11155497</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>9</v>
@@ -2681,10 +2759,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
@@ -2693,7 +2771,7 @@
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>9</v>
@@ -2707,19 +2785,19 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>9</v>
@@ -2733,16 +2811,16 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>28</v>
@@ -2759,16 +2837,16 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>8</v>
@@ -2785,19 +2863,19 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69" s="1">
         <v>11155497</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>9</v>
@@ -2811,22 +2889,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G70" s="2">
         <v>45848</v>
@@ -2837,22 +2915,22 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G71" s="2">
         <v>45848</v>
@@ -2863,22 +2941,22 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G72" s="2">
         <v>45848</v>
@@ -2889,16 +2967,16 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C73" s="1">
         <v>11155497</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>11</v>
@@ -2915,19 +2993,19 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C74" s="1">
         <v>11155797</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>9</v>
@@ -2941,16 +3019,16 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>13</v>
@@ -2968,16 +3046,16 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C76" s="1">
         <v>11155797</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>16</v>
@@ -2994,13 +3072,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>7</v>
@@ -3020,10 +3098,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C78" s="1">
         <v>11152231</v>
@@ -3032,7 +3110,7 @@
         <v>10</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>9</v>
@@ -3046,16 +3124,16 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>8</v>
@@ -3072,10 +3150,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>19</v>
@@ -3098,10 +3176,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>22</v>
@@ -3124,19 +3202,19 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>9</v>
@@ -3150,16 +3228,16 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>13</v>
@@ -3176,19 +3254,19 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="1">
         <v>11155497</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>9</v>
@@ -3202,16 +3280,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C85" s="1">
         <v>11155797</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>11</v>
@@ -3228,19 +3306,19 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C86" s="1">
         <v>11155497</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>9</v>
@@ -3254,19 +3332,19 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C87" s="1">
         <v>11155497</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>9</v>
@@ -3280,16 +3358,16 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>8</v>
@@ -3306,16 +3384,16 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>13</v>
@@ -3332,19 +3410,19 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>9</v>
@@ -3358,16 +3436,16 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>13</v>
@@ -3384,19 +3462,19 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92" s="1">
         <v>11155497</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>9</v>
@@ -3410,19 +3488,19 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C93" s="1">
         <v>11155797</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>9</v>
@@ -3436,16 +3514,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>13</v>
@@ -3462,22 +3540,22 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G95" s="2">
         <v>45855</v>
@@ -3488,22 +3566,22 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G96" s="2">
         <v>45855</v>
@@ -3514,19 +3592,19 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C97" s="1">
         <v>11155797</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>9</v>
@@ -3540,10 +3618,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>19</v>
@@ -3566,19 +3644,19 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C99" s="1">
         <v>11155497</v>
       </c>
       <c r="D99" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>9</v>
@@ -3592,19 +3670,19 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C100" s="1">
         <v>11155797</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>9</v>
@@ -3618,16 +3696,16 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C101" s="1">
         <v>11155497</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
@@ -3644,16 +3722,16 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>21</v>
@@ -3670,16 +3748,16 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>13</v>
@@ -3696,13 +3774,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>7</v>
@@ -3722,10 +3800,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>14</v>
@@ -3734,7 +3812,7 @@
         <v>15</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>9</v>
@@ -3748,19 +3826,19 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C106" s="1">
         <v>11155497</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>9</v>
@@ -3774,19 +3852,19 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C107" s="1">
         <v>11155797</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>9</v>
@@ -3800,19 +3878,19 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C108" s="1">
         <v>11155497</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>9</v>
@@ -3826,16 +3904,16 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>28</v>
@@ -3852,16 +3930,16 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C110" s="1">
         <v>11155497</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>16</v>
@@ -3878,19 +3956,19 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C111" s="1">
         <v>11155797</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>9</v>
@@ -3904,16 +3982,16 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C112" s="1">
         <v>11155497</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>16</v>
@@ -3930,19 +4008,19 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C113" s="1">
         <v>11155797</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>9</v>
@@ -3956,19 +4034,19 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>9</v>
@@ -3982,19 +4060,19 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>9</v>
@@ -4008,10 +4086,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>19</v>
@@ -4020,7 +4098,7 @@
         <v>20</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>9</v>
@@ -4034,22 +4112,22 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E117" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G117" s="2">
         <v>45861</v>
@@ -4060,22 +4138,22 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G118" s="2">
         <v>45861</v>
@@ -4086,22 +4164,22 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G119" s="2">
         <v>45861</v>
@@ -4112,10 +4190,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>22</v>
@@ -4138,19 +4216,19 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C121" s="1">
         <v>11155497</v>
       </c>
       <c r="D121" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>9</v>
@@ -4164,19 +4242,19 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C122" s="1">
         <v>11155797</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>9</v>
@@ -4190,10 +4268,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>14</v>
@@ -4202,7 +4280,7 @@
         <v>15</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>9</v>
@@ -4216,16 +4294,16 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>21</v>
@@ -4242,16 +4320,16 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>13</v>
@@ -4268,22 +4346,22 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G126" s="2">
         <v>45861</v>
@@ -4294,22 +4372,22 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G127" s="2">
         <v>45861</v>
@@ -4320,16 +4398,16 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C128" s="1">
         <v>11155497</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>16</v>
@@ -4346,19 +4424,19 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C129" s="1">
         <v>11155797</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>9</v>
@@ -4372,10 +4450,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>19</v>
@@ -4384,7 +4462,7 @@
         <v>20</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>9</v>
@@ -4398,19 +4476,19 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C131" s="1">
         <v>11155497</v>
       </c>
       <c r="D131" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>9</v>
@@ -4424,19 +4502,19 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C132" s="1">
         <v>11155797</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>9</v>
@@ -4450,16 +4528,16 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>21</v>
@@ -4476,16 +4554,16 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>13</v>
@@ -4502,10 +4580,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C135" s="1">
         <v>11151246</v>
@@ -4514,7 +4592,7 @@
         <v>7</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>9</v>
@@ -4528,19 +4606,19 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C136" s="1">
         <v>11155497</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>9</v>
@@ -4554,19 +4632,19 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C137" s="1">
         <v>11155797</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>9</v>
@@ -4580,16 +4658,16 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>13</v>
@@ -4606,19 +4684,19 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C139" s="1">
         <v>11155797</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>9</v>
@@ -4632,16 +4710,16 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>13</v>
@@ -4658,19 +4736,19 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C141" s="1">
         <v>11155497</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>9</v>
@@ -4684,16 +4762,16 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C142" s="1">
         <v>11155797</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>11</v>
@@ -4710,10 +4788,10 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C143" s="1">
         <v>11152231</v>
@@ -4736,10 +4814,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C144" s="1">
         <v>11151246</v>
@@ -4762,16 +4840,16 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>13</v>
@@ -4788,19 +4866,19 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C146" s="1">
         <v>11155497</v>
       </c>
       <c r="D146" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>9</v>
@@ -4814,19 +4892,19 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C147" s="1">
         <v>11155797</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>9</v>
@@ -4840,16 +4918,16 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>28</v>
@@ -4866,16 +4944,16 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>28</v>
@@ -4892,16 +4970,16 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C150" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>16</v>
@@ -4918,16 +4996,16 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>13</v>
@@ -4944,16 +5022,16 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>13</v>
@@ -4970,19 +5048,19 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D153" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>9</v>
@@ -4996,19 +5074,19 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C154" s="1">
         <v>11155797</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>9</v>
@@ -5022,10 +5100,10 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C155" s="1">
         <v>11152231</v>
@@ -5034,7 +5112,7 @@
         <v>10</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>9</v>
@@ -5048,10 +5126,10 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C156" s="1">
         <v>11151246</v>
@@ -5074,16 +5152,16 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>13</v>
@@ -5100,19 +5178,19 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>9</v>
@@ -5126,16 +5204,16 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C159" s="1">
         <v>11155797</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>11</v>
@@ -5152,16 +5230,16 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C160" s="1">
         <v>11155497</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>11</v>
@@ -5178,16 +5256,16 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C161" s="1">
         <v>11155797</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>11</v>
@@ -5204,19 +5282,19 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C162" s="1">
         <v>11155497</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>9</v>
@@ -5230,19 +5308,19 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D163" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>9</v>
@@ -5256,16 +5334,16 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C164" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>13</v>
@@ -5282,19 +5360,19 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C165" s="1">
         <v>11155797</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>9</v>
@@ -5308,19 +5386,19 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C166" s="1">
         <v>11155497</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>9</v>
@@ -5334,22 +5412,22 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G167" s="2">
         <v>45868</v>
@@ -5360,22 +5438,22 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G168" s="2">
         <v>45868</v>
@@ -5386,19 +5464,19 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C169" s="1">
         <v>11155797</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>9</v>
@@ -5412,10 +5490,10 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>14</v>
@@ -5438,19 +5516,19 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C171" s="1">
         <v>11155497</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>9</v>
@@ -5464,22 +5542,22 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D172" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G172" s="2">
         <v>45868</v>
@@ -5490,22 +5568,22 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D173" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G173" s="2">
         <v>45868</v>
@@ -5516,22 +5594,22 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D174" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G174" s="2">
         <v>45868</v>
@@ -5542,22 +5620,22 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C175" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D175" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D175" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E175" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G175" s="2">
         <v>45868</v>
@@ -5568,19 +5646,19 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C176" s="1">
         <v>11155797</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>9</v>
@@ -5594,19 +5672,19 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D177" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>9</v>
@@ -5620,19 +5698,19 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C178" s="1">
         <v>11155497</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>9</v>
@@ -5646,16 +5724,16 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>11</v>
@@ -5672,16 +5750,16 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>13</v>
@@ -5698,19 +5776,19 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C181" s="1">
         <v>11155797</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>9</v>
@@ -5724,19 +5802,19 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D182" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>9</v>
@@ -5750,16 +5828,16 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>8</v>
@@ -5776,19 +5854,19 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="E184" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>9</v>
@@ -5802,16 +5880,16 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C185" s="1">
         <v>11155497</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>11</v>
@@ -5828,19 +5906,19 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C186" s="1">
         <v>11155797</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>9</v>
@@ -5854,19 +5932,19 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C187" s="1">
         <v>11155497</v>
       </c>
       <c r="D187" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>9</v>
@@ -5880,16 +5958,16 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>21</v>
@@ -5906,19 +5984,19 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C189" s="1">
         <v>11155497</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>9</v>
@@ -5932,10 +6010,10 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C190" s="1">
         <v>11152231</v>
@@ -5944,7 +6022,7 @@
         <v>10</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>9</v>
@@ -5956,8 +6034,996 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C191" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G191" s="2">
+        <v>45873</v>
+      </c>
+      <c r="H191" s="1">
+        <v>221.76</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G192" s="2">
+        <v>45873</v>
+      </c>
+      <c r="H192" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C193" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G193" s="2">
+        <v>45873</v>
+      </c>
+      <c r="H193" s="1">
+        <v>982.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C194" s="1">
+        <v>11152231</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G194" s="2">
+        <v>45873</v>
+      </c>
+      <c r="H194" s="1">
+        <v>2222.2399999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A195" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C195" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G195" s="2">
+        <v>45873</v>
+      </c>
+      <c r="H195" s="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G196" s="2">
+        <v>45873</v>
+      </c>
+      <c r="H196" s="1">
+        <v>79.56</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G197" s="2">
+        <v>45873</v>
+      </c>
+      <c r="H197" s="1">
+        <v>439.07</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A198" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G198" s="2">
+        <v>45873</v>
+      </c>
+      <c r="H198" s="1">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G199" s="2">
+        <v>45873</v>
+      </c>
+      <c r="H199" s="1">
+        <v>2334.27</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G200" s="2">
+        <v>45873</v>
+      </c>
+      <c r="H200" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A201" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G201" s="2">
+        <v>45873</v>
+      </c>
+      <c r="H201" s="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C202" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G202" s="2">
+        <v>45874</v>
+      </c>
+      <c r="H202" s="1">
+        <v>982.8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G203" s="2">
+        <v>45875</v>
+      </c>
+      <c r="H203" s="1">
+        <v>1617.86</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G204" s="2">
+        <v>45875</v>
+      </c>
+      <c r="H204" s="1">
+        <v>378.94</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" s="2">
+        <v>45875</v>
+      </c>
+      <c r="H205" s="1">
+        <v>106.42</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G206" s="2">
+        <v>45875</v>
+      </c>
+      <c r="H206" s="1">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G207" s="2">
+        <v>45875</v>
+      </c>
+      <c r="H207" s="1">
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G208" s="2">
+        <v>45875</v>
+      </c>
+      <c r="H208" s="1">
+        <v>270.8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C209" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G209" s="2">
+        <v>45875</v>
+      </c>
+      <c r="H209" s="1">
+        <v>421.2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G210" s="2">
+        <v>45876</v>
+      </c>
+      <c r="H210" s="1">
+        <v>189.47</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A211" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G211" s="2">
+        <v>45876</v>
+      </c>
+      <c r="H211" s="1">
+        <v>874.48</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C212" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G212" s="2">
+        <v>45876</v>
+      </c>
+      <c r="H212" s="1">
+        <v>1474.2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A213" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G213" s="2">
+        <v>45876</v>
+      </c>
+      <c r="H213" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A214" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G214" s="2">
+        <v>45876</v>
+      </c>
+      <c r="H214" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A215" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G215" s="2">
+        <v>45876</v>
+      </c>
+      <c r="H215" s="1">
+        <v>210.04</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A216" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G216" s="2">
+        <v>45876</v>
+      </c>
+      <c r="H216" s="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G217" s="2">
+        <v>45876</v>
+      </c>
+      <c r="H217" s="1">
+        <v>325.02999999999997</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A218" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G218" s="2">
+        <v>45876</v>
+      </c>
+      <c r="H218" s="1">
+        <v>162.71</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G219" s="2">
+        <v>45877</v>
+      </c>
+      <c r="H219" s="1">
+        <v>68.91</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A220" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G220" s="2">
+        <v>45877</v>
+      </c>
+      <c r="H220" s="1">
+        <v>364.95</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G221" s="2">
+        <v>45877</v>
+      </c>
+      <c r="H221" s="1">
+        <v>114.85</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G222" s="2">
+        <v>45877</v>
+      </c>
+      <c r="H222" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C223" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G223" s="2">
+        <v>45877</v>
+      </c>
+      <c r="H223" s="1">
+        <v>1333.8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G224" s="2">
+        <v>45877</v>
+      </c>
+      <c r="H224" s="1">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A225" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C225" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G225" s="2">
+        <v>45878</v>
+      </c>
+      <c r="H225" s="1">
+        <v>772.2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G226" s="2">
+        <v>45878</v>
+      </c>
+      <c r="H226" s="1">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G227" s="2">
+        <v>45878</v>
+      </c>
+      <c r="H227" s="1">
+        <v>123.1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A228" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C228" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G228" s="2">
+        <v>45879</v>
+      </c>
+      <c r="H228" s="1">
+        <v>1895.4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H190" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
+  <autoFilter ref="A1:H228" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="114_{0D1DAFC4-A43C-4969-9318-CA6B86E4123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49572870-01FB-4F07-89C4-475EF9497786}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="114_{0D1DAFC4-A43C-4969-9318-CA6B86E4123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C605CDBC-749B-4C89-A568-8DA76C46F553}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="212">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -600,9 +600,6 @@
   </si>
   <si>
     <t>Wk26</t>
-  </si>
-  <si>
-    <t>PTS-1090 TW.50.15.FI.0S.151.00 X2637</t>
   </si>
   <si>
     <t>Wk32</t>
@@ -1077,7 +1074,7 @@
   <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C224" sqref="C224"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6036,7 +6033,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>96</v>
@@ -6062,7 +6059,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>96</v>
@@ -6088,7 +6085,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>96</v>
@@ -6114,7 +6111,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>96</v>
@@ -6123,7 +6120,7 @@
         <v>11152231</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>35</v>
@@ -6140,7 +6137,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>96</v>
@@ -6152,7 +6149,7 @@
         <v>119</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>9</v>
@@ -6166,16 +6163,16 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>35</v>
@@ -6192,7 +6189,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>51</v>
@@ -6201,7 +6198,7 @@
         <v>51</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>40</v>
@@ -6218,16 +6215,16 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D198" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>21</v>
@@ -6244,16 +6241,16 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C199" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D199" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>13</v>
@@ -6270,7 +6267,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>96</v>
@@ -6296,7 +6293,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>96</v>
@@ -6322,7 +6319,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>96</v>
@@ -6348,7 +6345,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>51</v>
@@ -6357,7 +6354,7 @@
         <v>51</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>28</v>
@@ -6374,7 +6371,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>96</v>
@@ -6400,7 +6397,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>96</v>
@@ -6426,7 +6423,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>96</v>
@@ -6452,16 +6449,16 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C207" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>13</v>
@@ -6478,7 +6475,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>96</v>
@@ -6487,7 +6484,7 @@
         <v>14</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>46</v>
@@ -6504,7 +6501,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>96</v>
@@ -6530,7 +6527,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>96</v>
@@ -6556,7 +6553,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>96</v>
@@ -6582,7 +6579,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>96</v>
@@ -6594,7 +6591,7 @@
         <v>88</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>9</v>
@@ -6608,7 +6605,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>96</v>
@@ -6634,7 +6631,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>96</v>
@@ -6660,7 +6657,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>96</v>
@@ -6686,7 +6683,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>96</v>
@@ -6712,7 +6709,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>96</v>
@@ -6738,16 +6735,16 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C218" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D218" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>16</v>
@@ -6764,7 +6761,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>96</v>
@@ -6790,16 +6787,16 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C220" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D220" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>28</v>
@@ -6816,7 +6813,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>96</v>
@@ -6842,16 +6839,16 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D222" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>13</v>
@@ -6868,7 +6865,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>96</v>
@@ -6880,7 +6877,7 @@
         <v>88</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>9</v>
@@ -6894,7 +6891,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>96</v>
@@ -6906,7 +6903,7 @@
         <v>170</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>9</v>
@@ -6920,7 +6917,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>96</v>
@@ -6929,7 +6926,7 @@
         <v>11155497</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>141</v>
@@ -6946,16 +6943,16 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>28</v>
@@ -6972,7 +6969,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>96</v>
@@ -6998,7 +6995,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>96</v>
@@ -7010,7 +7007,7 @@
         <v>88</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>9</v>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="114_{0D1DAFC4-A43C-4969-9318-CA6B86E4123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C605CDBC-749B-4C89-A568-8DA76C46F553}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="114_{0D1DAFC4-A43C-4969-9318-CA6B86E4123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{609CE376-2B07-4D7E-BBE0-409080AFAD47}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$228</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$264</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="243">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -675,6 +675,99 @@
   </si>
   <si>
     <t>54pcs</t>
+  </si>
+  <si>
+    <t>PTS-1069 TW.50.15.FI.0S.150.00 X2637</t>
+  </si>
+  <si>
+    <t>48pcs</t>
+  </si>
+  <si>
+    <t>A4 Paper 80g</t>
+  </si>
+  <si>
+    <t>2ream</t>
+  </si>
+  <si>
+    <t>Harden Steel Ball Diameter 4mm (50cs)</t>
+  </si>
+  <si>
+    <t>S/S Compression Spring (As Per Sample)</t>
+  </si>
+  <si>
+    <t>Max Stapler HD 10D With 2 Boxes Staples</t>
+  </si>
+  <si>
+    <t>Philip Pan Head Screw M1.2 x 2mm (100pcs)</t>
+  </si>
+  <si>
+    <t>5 Inch Long Nose Plier</t>
+  </si>
+  <si>
+    <t>XS-SPE-0073</t>
+  </si>
+  <si>
+    <t>GP-762A35A-1BA POGO PIN</t>
+  </si>
+  <si>
+    <t>150W 6 Ports Fast Charger And Charger Cable</t>
+  </si>
+  <si>
+    <t>XS-PTS-0502</t>
+  </si>
+  <si>
+    <t>Hyperspace Socket Model : 6K-76235-H04</t>
+  </si>
+  <si>
+    <t>XS-PTS-0869</t>
+  </si>
+  <si>
+    <t>ARD-K STEPPING MOTOR DRIVER</t>
+  </si>
+  <si>
+    <t>11151244</t>
+  </si>
+  <si>
+    <t>PTS-1067 TW.50.1A.FI.0S.132.00 PCB X2637</t>
+  </si>
+  <si>
+    <t>PTS-1071 TW.50.15.FI.0S.151.00 X2637</t>
+  </si>
+  <si>
+    <t>7pcs</t>
+  </si>
+  <si>
+    <t>32pcs</t>
+  </si>
+  <si>
+    <t>XS-SPE-0096</t>
+  </si>
+  <si>
+    <t>Wired motor for RRU300 (mod. L20A18S0604</t>
+  </si>
+  <si>
+    <t>11151248</t>
+  </si>
+  <si>
+    <t>26pcs</t>
+  </si>
+  <si>
+    <t>Lamphead Service &amp; Repair charges (S/N: 4163)</t>
+  </si>
+  <si>
+    <t>1EA</t>
+  </si>
+  <si>
+    <t>Lamphead Service,Repair charges &amp; Replacement  (S/N: RMI70094)</t>
+  </si>
+  <si>
+    <t>11154665</t>
+  </si>
+  <si>
+    <t>PTS-1108 70011.122 PRECISION MACHINE</t>
+  </si>
+  <si>
+    <t>Wk33</t>
   </si>
 </sst>
 </file>
@@ -1071,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:J228"/>
+  <dimension ref="A1:J264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C266" sqref="C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7019,8 +7112,944 @@
         <v>1895.4</v>
       </c>
     </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G229" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H229" s="1">
+        <v>159.12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G230" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H230" s="1">
+        <v>2222.2399999999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A231" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G231" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H231" s="1">
+        <v>1251.51</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C232" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G232" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H232" s="1">
+        <v>1684.8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G233" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H233" s="1">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G234" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H234" s="1">
+        <v>11.66</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G235" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H235" s="1">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G236" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H236" s="1">
+        <v>198.21</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A237" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G237" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H237" s="1">
+        <v>28.76</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A238" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G238" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H238" s="1">
+        <v>18.66</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A239" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G239" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H239" s="1">
+        <v>172.57</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A240" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G240" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H240" s="1">
+        <v>388.24</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A241" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G241" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H241" s="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G242" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H242" s="1">
+        <v>34.21</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G243" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H243" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G244" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H244" s="1">
+        <v>1913.44</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G245" s="2">
+        <v>45881</v>
+      </c>
+      <c r="H245" s="1">
+        <v>372.62</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G246" s="2">
+        <v>45881</v>
+      </c>
+      <c r="H246" s="1">
+        <v>438.6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A247" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C247" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G247" s="2">
+        <v>45881</v>
+      </c>
+      <c r="H247" s="1">
+        <v>3888.92</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C248" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G248" s="2">
+        <v>45881</v>
+      </c>
+      <c r="H248" s="1">
+        <v>1123.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G249" s="2">
+        <v>45881</v>
+      </c>
+      <c r="H249" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A250" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G250" s="2">
+        <v>45881</v>
+      </c>
+      <c r="H250" s="1">
+        <v>331.6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G251" s="2">
+        <v>45881</v>
+      </c>
+      <c r="H251" s="1">
+        <v>381.97</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C252" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G252" s="2">
+        <v>45881</v>
+      </c>
+      <c r="H252" s="1">
+        <v>982.8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G253" s="2">
+        <v>45882</v>
+      </c>
+      <c r="H253" s="1">
+        <v>1111.1199999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C254" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G254" s="2">
+        <v>45882</v>
+      </c>
+      <c r="H254" s="1">
+        <v>210.6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G255" s="2">
+        <v>45882</v>
+      </c>
+      <c r="H255" s="1">
+        <v>1111.1199999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A256" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C256" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G256" s="2">
+        <v>45883</v>
+      </c>
+      <c r="H256" s="1">
+        <v>210.6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A257" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C257" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G257" s="2">
+        <v>45884</v>
+      </c>
+      <c r="H257" s="1">
+        <v>912.6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A258" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G258" s="2">
+        <v>45884</v>
+      </c>
+      <c r="H258" s="1">
+        <v>9791.43</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A259" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G259" s="2">
+        <v>45884</v>
+      </c>
+      <c r="H259" s="1">
+        <v>12792</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A260" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C260" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G260" s="2">
+        <v>45885</v>
+      </c>
+      <c r="H260" s="1">
+        <v>421.2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A261" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G261" s="2">
+        <v>45885</v>
+      </c>
+      <c r="H261" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A262" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G262" s="2">
+        <v>45885</v>
+      </c>
+      <c r="H262" s="1">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A263" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G263" s="2">
+        <v>45885</v>
+      </c>
+      <c r="H263" s="1">
+        <v>369.3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A264" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C264" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G264" s="2">
+        <v>45886</v>
+      </c>
+      <c r="H264" s="1">
+        <v>491.1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H228" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
+  <autoFilter ref="A1:H264" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="114_{0D1DAFC4-A43C-4969-9318-CA6B86E4123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{609CE376-2B07-4D7E-BBE0-409080AFAD47}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="114_{0D1DAFC4-A43C-4969-9318-CA6B86E4123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96A09028-298F-4A93-ABC7-49F26394D03C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$264</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$318</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="271">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -768,6 +768,90 @@
   </si>
   <si>
     <t>Wk33</t>
+  </si>
+  <si>
+    <t>300pcs</t>
+  </si>
+  <si>
+    <t>11154322</t>
+  </si>
+  <si>
+    <t>PTS-1095 TW.50.1A.FI.0S.089.01 ALIGNER</t>
+  </si>
+  <si>
+    <t>27pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-0235</t>
+  </si>
+  <si>
+    <t>70900.302 Secondary Board Pogo Pins</t>
+  </si>
+  <si>
+    <t>600pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-1026</t>
+  </si>
+  <si>
+    <t>10618.381 SECONDARY BOARD X1767</t>
+  </si>
+  <si>
+    <t>XS-PTS-0970</t>
+  </si>
+  <si>
+    <t>TW.50.15.FI.0R.059.00 STT A ADAPTOR X189</t>
+  </si>
+  <si>
+    <t>120pcs</t>
+  </si>
+  <si>
+    <t>19pcs</t>
+  </si>
+  <si>
+    <t>700pcs</t>
+  </si>
+  <si>
+    <t>340pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-0753</t>
+  </si>
+  <si>
+    <t>HX 1484 HPN OMRON EE-SX953-R-1M SENSOR</t>
+  </si>
+  <si>
+    <t>XS-PTS-0393</t>
+  </si>
+  <si>
+    <t>50901.004 PENTAMASTER INSTRUMENTATION</t>
+  </si>
+  <si>
+    <t>XS-PTS-0925</t>
+  </si>
+  <si>
+    <t>70173.148 Vacuum Pen X2637</t>
+  </si>
+  <si>
+    <t>XS-PTS-0408</t>
+  </si>
+  <si>
+    <t>10323.020 SAFETY RELAY MODULE</t>
+  </si>
+  <si>
+    <t>XS-PTS-0998</t>
+  </si>
+  <si>
+    <t>HX 3630 HPN MAGGIE AIR VALVE MOQ: 20</t>
+  </si>
+  <si>
+    <t>XS-PTS-0401</t>
+  </si>
+  <si>
+    <t>10124.039 EQ-77 WINDOW ASSEMBLY</t>
+  </si>
+  <si>
+    <t>Wk34</t>
   </si>
 </sst>
 </file>
@@ -841,10 +925,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1164,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:J264"/>
+  <dimension ref="A1:J318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C266" sqref="C266"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8048,8 +8128,1412 @@
         <v>491.1</v>
       </c>
     </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A265" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G265" s="2">
+        <v>45887</v>
+      </c>
+      <c r="H265" s="1">
+        <v>81.319999999999993</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A266" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G266" s="2">
+        <v>45887</v>
+      </c>
+      <c r="H266" s="1">
+        <v>159.12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A267" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G267" s="2">
+        <v>45887</v>
+      </c>
+      <c r="H267" s="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A268" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C268" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G268" s="2">
+        <v>45887</v>
+      </c>
+      <c r="H268" s="1">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A269" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C269" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G269" s="2">
+        <v>45887</v>
+      </c>
+      <c r="H269" s="1">
+        <v>772.2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A270" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G270" s="2">
+        <v>45887</v>
+      </c>
+      <c r="H270" s="1">
+        <v>270.8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A271" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G271" s="2">
+        <v>45887</v>
+      </c>
+      <c r="H271" s="1">
+        <v>471.72</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A272" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G272" s="2">
+        <v>45887</v>
+      </c>
+      <c r="H272" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A273" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C273" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G273" s="2">
+        <v>45887</v>
+      </c>
+      <c r="H273" s="1">
+        <v>947.7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A274" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G274" s="2">
+        <v>45887</v>
+      </c>
+      <c r="H274" s="1">
+        <v>1111.1199999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A275" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G275" s="2">
+        <v>45888</v>
+      </c>
+      <c r="H275" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A276" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G276" s="2">
+        <v>45888</v>
+      </c>
+      <c r="H276" s="1">
+        <v>1155.8699999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A277" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G277" s="2">
+        <v>45888</v>
+      </c>
+      <c r="H277" s="1">
+        <v>680.22</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A278" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C278" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G278" s="2">
+        <v>45888</v>
+      </c>
+      <c r="H278" s="1">
+        <v>947.7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A279" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G279" s="2">
+        <v>45888</v>
+      </c>
+      <c r="H279" s="1">
+        <v>812.4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A280" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C280" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G280" s="2">
+        <v>45888</v>
+      </c>
+      <c r="H280" s="1">
+        <v>383.04</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A281" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G281" s="2">
+        <v>45888</v>
+      </c>
+      <c r="H281" s="1">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A282" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G282" s="2">
+        <v>45887</v>
+      </c>
+      <c r="H282" s="1">
+        <v>1111.1199999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A283" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G283" s="2">
+        <v>45888</v>
+      </c>
+      <c r="H283" s="1">
+        <v>1754.38</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A284" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G284" s="2">
+        <v>45889</v>
+      </c>
+      <c r="H284" s="1">
+        <v>2301.8000000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A285" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G285" s="2">
+        <v>45889</v>
+      </c>
+      <c r="H285" s="1">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A286" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G286" s="2">
+        <v>45889</v>
+      </c>
+      <c r="H286" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A287" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G287" s="2">
+        <v>45889</v>
+      </c>
+      <c r="H287" s="1">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A288" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G288" s="2">
+        <v>45889</v>
+      </c>
+      <c r="H288" s="1">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A289" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G289" s="2">
+        <v>45889</v>
+      </c>
+      <c r="H289" s="1">
+        <v>26.68</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A290" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G290" s="2">
+        <v>45889</v>
+      </c>
+      <c r="H290" s="1">
+        <v>949.7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A291" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C291" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G291" s="2">
+        <v>45889</v>
+      </c>
+      <c r="H291" s="1">
+        <v>491.4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A292" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G292" s="2">
+        <v>45889</v>
+      </c>
+      <c r="H292" s="1">
+        <v>2222.2399999999998</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A293" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G293" s="2">
+        <v>45889</v>
+      </c>
+      <c r="H293" s="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A294" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G294" s="2">
+        <v>45889</v>
+      </c>
+      <c r="H294" s="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A295" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G295" s="2">
+        <v>45889</v>
+      </c>
+      <c r="H295" s="1">
+        <v>650.05999999999995</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A296" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G296" s="2">
+        <v>45889</v>
+      </c>
+      <c r="H296" s="1">
+        <v>382.69</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A297" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G297" s="2">
+        <v>45889</v>
+      </c>
+      <c r="H297" s="1">
+        <v>1666.68</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A298" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G298" s="2">
+        <v>45890</v>
+      </c>
+      <c r="H298" s="1">
+        <v>9890.5300000000007</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A299" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G299" s="2">
+        <v>45890</v>
+      </c>
+      <c r="H299" s="1">
+        <v>425.68</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A300" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G300" s="2">
+        <v>45890</v>
+      </c>
+      <c r="H300" s="1">
+        <v>263.76</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A301" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C301" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G301" s="2">
+        <v>45890</v>
+      </c>
+      <c r="H301" s="1">
+        <v>491.4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A302" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G302" s="2">
+        <v>45890</v>
+      </c>
+      <c r="H302" s="1">
+        <v>326.86</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A303" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G303" s="2">
+        <v>45890</v>
+      </c>
+      <c r="H303" s="1">
+        <v>217.55</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A304" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C304" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G304" s="2">
+        <v>45891</v>
+      </c>
+      <c r="H304" s="1">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A305" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G305" s="2">
+        <v>45891</v>
+      </c>
+      <c r="H305" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A306" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C306" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G306" s="2">
+        <v>45891</v>
+      </c>
+      <c r="H306" s="1">
+        <v>912.6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A307" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G307" s="2">
+        <v>45891</v>
+      </c>
+      <c r="H307" s="1">
+        <v>78.62</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A308" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G308" s="2">
+        <v>45891</v>
+      </c>
+      <c r="H308" s="1">
+        <v>123.1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A309" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G309" s="2">
+        <v>45892</v>
+      </c>
+      <c r="H309" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A310" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G310" s="2">
+        <v>45892</v>
+      </c>
+      <c r="H310" s="1">
+        <v>1155.8699999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A311" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G311" s="2">
+        <v>45892</v>
+      </c>
+      <c r="H311" s="1">
+        <v>38.53</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A312" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G312" s="2">
+        <v>45892</v>
+      </c>
+      <c r="H312" s="1">
+        <v>1079.4000000000001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A313" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C313" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G313" s="2">
+        <v>45892</v>
+      </c>
+      <c r="H313" s="1">
+        <v>877.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A314" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G314" s="2">
+        <v>45892</v>
+      </c>
+      <c r="H314" s="1">
+        <v>380.12</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A315" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G315" s="2">
+        <v>45893</v>
+      </c>
+      <c r="H315" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A316" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G316" s="2">
+        <v>45893</v>
+      </c>
+      <c r="H316" s="1">
+        <v>1666.68</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A317" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C317" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G317" s="2">
+        <v>45893</v>
+      </c>
+      <c r="H317" s="1">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A318" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C318" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G318" s="2">
+        <v>45893</v>
+      </c>
+      <c r="H318" s="1">
+        <v>80.64</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H264" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
+  <autoFilter ref="A1:H318" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="114_{0D1DAFC4-A43C-4969-9318-CA6B86E4123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96A09028-298F-4A93-ABC7-49F26394D03C}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="114_{0D1DAFC4-A43C-4969-9318-CA6B86E4123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95D22A22-CD47-4691-9739-C46883CB6D20}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="269">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -551,9 +551,6 @@
     <t>10300.263 BENCH POWER SUPPLY</t>
   </si>
   <si>
-    <t>PTS-1136 300-001519-015 Semiconductor</t>
-  </si>
-  <si>
     <t>100pcs</t>
   </si>
   <si>
@@ -675,9 +672,6 @@
   </si>
   <si>
     <t>54pcs</t>
-  </si>
-  <si>
-    <t>PTS-1069 TW.50.15.FI.0S.150.00 X2637</t>
   </si>
   <si>
     <t>48pcs</t>
@@ -925,6 +919,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1247,7 +1245,7 @@
   <dimension ref="A1:J318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1291,7 +1289,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>96</v>
@@ -1317,7 +1315,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>96</v>
@@ -1343,7 +1341,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>96</v>
@@ -1369,7 +1367,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>96</v>
@@ -1395,7 +1393,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>96</v>
@@ -1421,7 +1419,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>96</v>
@@ -1447,7 +1445,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>96</v>
@@ -1473,7 +1471,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>96</v>
@@ -1499,7 +1497,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>96</v>
@@ -1525,7 +1523,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>96</v>
@@ -1551,7 +1549,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>96</v>
@@ -5088,7 +5086,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>96</v>
@@ -5114,7 +5112,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>96</v>
@@ -5140,7 +5138,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>96</v>
@@ -5166,7 +5164,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>96</v>
@@ -5192,7 +5190,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>96</v>
@@ -5218,7 +5216,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>96</v>
@@ -5227,10 +5225,10 @@
         <v>80</v>
       </c>
       <c r="D153" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>9</v>
@@ -5244,7 +5242,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>96</v>
@@ -5270,7 +5268,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>96</v>
@@ -5296,7 +5294,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>96</v>
@@ -5322,16 +5320,16 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>13</v>
@@ -5348,7 +5346,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>51</v>
@@ -5357,7 +5355,7 @@
         <v>51</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>66</v>
@@ -5374,7 +5372,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>96</v>
@@ -5400,7 +5398,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>96</v>
@@ -5426,7 +5424,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>96</v>
@@ -5452,7 +5450,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>96</v>
@@ -5478,7 +5476,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>96</v>
@@ -5487,10 +5485,10 @@
         <v>80</v>
       </c>
       <c r="D163" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>9</v>
@@ -5504,16 +5502,16 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C164" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>13</v>
@@ -5530,7 +5528,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>96</v>
@@ -5556,7 +5554,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>96</v>
@@ -5582,7 +5580,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>96</v>
@@ -5608,7 +5606,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>96</v>
@@ -5634,7 +5632,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>96</v>
@@ -5660,7 +5658,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>96</v>
@@ -5686,7 +5684,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>96</v>
@@ -5712,7 +5710,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>96</v>
@@ -5738,7 +5736,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>96</v>
@@ -5764,16 +5762,16 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D174" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>28</v>
@@ -5790,7 +5788,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>96</v>
@@ -5816,7 +5814,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>96</v>
@@ -5842,7 +5840,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>96</v>
@@ -5851,10 +5849,10 @@
         <v>80</v>
       </c>
       <c r="D177" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>9</v>
@@ -5868,7 +5866,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>96</v>
@@ -5894,7 +5892,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>51</v>
@@ -5903,7 +5901,7 @@
         <v>51</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>11</v>
@@ -5920,7 +5918,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>51</v>
@@ -5929,7 +5927,7 @@
         <v>51</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>13</v>
@@ -5946,7 +5944,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>96</v>
@@ -5972,7 +5970,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>96</v>
@@ -5981,10 +5979,10 @@
         <v>80</v>
       </c>
       <c r="D182" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>9</v>
@@ -5998,7 +5996,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>96</v>
@@ -6024,16 +6022,16 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>40</v>
@@ -6050,7 +6048,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>96</v>
@@ -6076,7 +6074,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>96</v>
@@ -6088,7 +6086,7 @@
         <v>119</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>9</v>
@@ -6102,7 +6100,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>96</v>
@@ -6128,7 +6126,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>96</v>
@@ -6137,7 +6135,7 @@
         <v>80</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>21</v>
@@ -6154,7 +6152,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>96</v>
@@ -6166,7 +6164,7 @@
         <v>88</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>9</v>
@@ -6180,7 +6178,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>96</v>
@@ -6206,7 +6204,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>96</v>
@@ -6218,7 +6216,7 @@
         <v>119</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>9</v>
@@ -6232,7 +6230,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>96</v>
@@ -6241,7 +6239,7 @@
         <v>80</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>21</v>
@@ -6258,7 +6256,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>96</v>
@@ -6270,7 +6268,7 @@
         <v>88</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>9</v>
@@ -6284,7 +6282,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>96</v>
@@ -6310,7 +6308,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>96</v>
@@ -6322,7 +6320,7 @@
         <v>119</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>9</v>
@@ -6336,16 +6334,16 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>35</v>
@@ -6362,7 +6360,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>51</v>
@@ -6371,7 +6369,7 @@
         <v>51</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>40</v>
@@ -6388,16 +6386,16 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D198" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>21</v>
@@ -6414,16 +6412,16 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C199" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D199" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>13</v>
@@ -6440,7 +6438,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>96</v>
@@ -6466,7 +6464,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>96</v>
@@ -6492,7 +6490,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>96</v>
@@ -6504,7 +6502,7 @@
         <v>88</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>9</v>
@@ -6518,7 +6516,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>51</v>
@@ -6527,7 +6525,7 @@
         <v>51</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>28</v>
@@ -6544,7 +6542,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>96</v>
@@ -6570,7 +6568,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>96</v>
@@ -6596,7 +6594,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>96</v>
@@ -6605,7 +6603,7 @@
         <v>80</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>85</v>
@@ -6622,16 +6620,16 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C207" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>13</v>
@@ -6648,7 +6646,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>96</v>
@@ -6657,7 +6655,7 @@
         <v>14</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>46</v>
@@ -6674,7 +6672,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>96</v>
@@ -6700,7 +6698,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>96</v>
@@ -6726,7 +6724,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>96</v>
@@ -6752,7 +6750,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>96</v>
@@ -6764,7 +6762,7 @@
         <v>88</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>9</v>
@@ -6778,7 +6776,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>96</v>
@@ -6787,7 +6785,7 @@
         <v>80</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>85</v>
@@ -6804,7 +6802,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>96</v>
@@ -6830,7 +6828,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>96</v>
@@ -6856,7 +6854,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>96</v>
@@ -6882,7 +6880,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>96</v>
@@ -6908,16 +6906,16 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C218" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D218" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>16</v>
@@ -6934,7 +6932,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>96</v>
@@ -6960,16 +6958,16 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C220" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D220" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>28</v>
@@ -6986,7 +6984,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>96</v>
@@ -7012,16 +7010,16 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D222" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>13</v>
@@ -7038,7 +7036,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>96</v>
@@ -7050,7 +7048,7 @@
         <v>88</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>9</v>
@@ -7064,7 +7062,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>96</v>
@@ -7073,10 +7071,10 @@
         <v>80</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>9</v>
@@ -7090,7 +7088,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>96</v>
@@ -7099,7 +7097,7 @@
         <v>11155497</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>141</v>
@@ -7116,16 +7114,16 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>28</v>
@@ -7142,7 +7140,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>96</v>
@@ -7168,7 +7166,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>96</v>
@@ -7180,7 +7178,7 @@
         <v>88</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>9</v>
@@ -7194,16 +7192,16 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C229" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D229" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>11</v>
@@ -7220,7 +7218,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>96</v>
@@ -7229,7 +7227,7 @@
         <v>82</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>35</v>
@@ -7246,7 +7244,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>96</v>
@@ -7272,7 +7270,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>96</v>
@@ -7284,7 +7282,7 @@
         <v>88</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>9</v>
@@ -7298,7 +7296,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>96</v>
@@ -7307,10 +7305,10 @@
         <v>80</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>9</v>
@@ -7324,7 +7322,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>51</v>
@@ -7333,10 +7331,10 @@
         <v>51</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>9</v>
@@ -7350,7 +7348,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>51</v>
@@ -7359,7 +7357,7 @@
         <v>51</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>28</v>
@@ -7376,7 +7374,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>51</v>
@@ -7385,10 +7383,10 @@
         <v>51</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>9</v>
@@ -7402,7 +7400,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>51</v>
@@ -7411,7 +7409,7 @@
         <v>51</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>28</v>
@@ -7428,7 +7426,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>51</v>
@@ -7437,7 +7435,7 @@
         <v>51</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>53</v>
@@ -7454,7 +7452,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>51</v>
@@ -7463,7 +7461,7 @@
         <v>51</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>121</v>
@@ -7480,16 +7478,16 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>21</v>
@@ -7506,7 +7504,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>96</v>
@@ -7532,7 +7530,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>51</v>
@@ -7541,7 +7539,7 @@
         <v>51</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>28</v>
@@ -7558,7 +7556,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>96</v>
@@ -7584,16 +7582,16 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>40</v>
@@ -7610,16 +7608,16 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>13</v>
@@ -7636,16 +7634,16 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>13</v>
@@ -7662,7 +7660,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>96</v>
@@ -7671,10 +7669,10 @@
         <v>11151248</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>9</v>
@@ -7688,7 +7686,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>96</v>
@@ -7700,7 +7698,7 @@
         <v>88</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>9</v>
@@ -7714,7 +7712,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>96</v>
@@ -7723,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>21</v>
@@ -7740,16 +7738,16 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>13</v>
@@ -7766,16 +7764,16 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C251" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D251" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>28</v>
@@ -7792,7 +7790,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>96</v>
@@ -7804,7 +7802,7 @@
         <v>88</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>9</v>
@@ -7818,16 +7816,16 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>28</v>
@@ -7844,7 +7842,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>96</v>
@@ -7870,7 +7868,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>96</v>
@@ -7879,7 +7877,7 @@
         <v>82</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>28</v>
@@ -7896,7 +7894,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>96</v>
@@ -7922,7 +7920,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>96</v>
@@ -7934,7 +7932,7 @@
         <v>88</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>9</v>
@@ -7948,7 +7946,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>51</v>
@@ -7957,10 +7955,10 @@
         <v>51</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>9</v>
@@ -7974,7 +7972,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>51</v>
@@ -7983,10 +7981,10 @@
         <v>51</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>9</v>
@@ -8000,7 +7998,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>96</v>
@@ -8026,7 +8024,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>96</v>
@@ -8035,7 +8033,7 @@
         <v>80</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>21</v>
@@ -8052,16 +8050,16 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>13</v>
@@ -8078,7 +8076,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>96</v>
@@ -8104,7 +8102,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>96</v>
@@ -8130,7 +8128,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>96</v>
@@ -8156,16 +8154,16 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C266" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D266" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>11</v>
@@ -8182,7 +8180,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>96</v>
@@ -8191,10 +8189,10 @@
         <v>80</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>9</v>
@@ -8208,7 +8206,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>96</v>
@@ -8234,7 +8232,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>96</v>
@@ -8260,7 +8258,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>96</v>
@@ -8269,7 +8267,7 @@
         <v>14</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>46</v>
@@ -8286,16 +8284,16 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>66</v>
@@ -8312,7 +8310,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>96</v>
@@ -8321,10 +8319,10 @@
         <v>80</v>
       </c>
       <c r="D272" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E272" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>9</v>
@@ -8338,7 +8336,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>96</v>
@@ -8350,7 +8348,7 @@
         <v>88</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>9</v>
@@ -8364,7 +8362,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>96</v>
@@ -8373,7 +8371,7 @@
         <v>82</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>28</v>
@@ -8390,19 +8388,19 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C275" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E275" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>9</v>
@@ -8416,16 +8414,16 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>13</v>
@@ -8442,16 +8440,16 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>28</v>
@@ -8468,7 +8466,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>96</v>
@@ -8480,7 +8478,7 @@
         <v>88</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>9</v>
@@ -8494,7 +8492,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>96</v>
@@ -8503,10 +8501,10 @@
         <v>14</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>9</v>
@@ -8520,7 +8518,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>96</v>
@@ -8532,7 +8530,7 @@
         <v>119</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>9</v>
@@ -8546,7 +8544,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>96</v>
@@ -8555,10 +8553,10 @@
         <v>80</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>9</v>
@@ -8572,7 +8570,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>96</v>
@@ -8581,7 +8579,7 @@
         <v>82</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>28</v>
@@ -8598,7 +8596,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>96</v>
@@ -8624,7 +8622,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>96</v>
@@ -8633,10 +8631,10 @@
         <v>14</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>9</v>
@@ -8650,16 +8648,16 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C285" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D285" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>21</v>
@@ -8676,16 +8674,16 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C286" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D286" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>13</v>
@@ -8702,16 +8700,16 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>13</v>
@@ -8728,7 +8726,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>96</v>
@@ -8754,7 +8752,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>96</v>
@@ -8780,16 +8778,16 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>13</v>
@@ -8806,7 +8804,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>96</v>
@@ -8832,7 +8830,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>96</v>
@@ -8841,7 +8839,7 @@
         <v>82</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>35</v>
@@ -8858,7 +8856,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>96</v>
@@ -8884,7 +8882,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>96</v>
@@ -8910,7 +8908,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>96</v>
@@ -8936,16 +8934,16 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>28</v>
@@ -8962,7 +8960,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>96</v>
@@ -8971,7 +8969,7 @@
         <v>82</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>8</v>
@@ -8988,7 +8986,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>96</v>
@@ -9014,7 +9012,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>96</v>
@@ -9040,7 +9038,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>96</v>
@@ -9066,7 +9064,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>96</v>
@@ -9092,16 +9090,16 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>13</v>
@@ -9118,16 +9116,16 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>13</v>
@@ -9144,7 +9142,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>96</v>
@@ -9170,7 +9168,7 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>96</v>
@@ -9179,10 +9177,10 @@
         <v>80</v>
       </c>
       <c r="D305" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E305" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>9</v>
@@ -9196,7 +9194,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>96</v>
@@ -9208,7 +9206,7 @@
         <v>88</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>9</v>
@@ -9222,16 +9220,16 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>13</v>
@@ -9248,7 +9246,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>96</v>
@@ -9274,16 +9272,16 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>85</v>
@@ -9300,16 +9298,16 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>13</v>
@@ -9326,16 +9324,16 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>40</v>
@@ -9352,16 +9350,16 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>21</v>
@@ -9378,7 +9376,7 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>96</v>
@@ -9390,7 +9388,7 @@
         <v>88</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>9</v>
@@ -9404,7 +9402,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>96</v>
@@ -9430,7 +9428,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>96</v>
@@ -9439,7 +9437,7 @@
         <v>80</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>21</v>
@@ -9456,7 +9454,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>96</v>
@@ -9465,7 +9463,7 @@
         <v>82</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>8</v>
@@ -9482,7 +9480,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>96</v>
@@ -9508,7 +9506,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>96</v>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.MohamedArkam\OneDrive - ams OSRAM\amoa\DropBox III\Desktop\EongsRequest\ploty_Dashboard\Weeklydashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="114_{0D1DAFC4-A43C-4969-9318-CA6B86E4123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95D22A22-CD47-4691-9739-C46883CB6D20}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31855EA1-A5E8-48EB-8EB9-C7B4005B8234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$318</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$382</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="304">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -846,6 +846,111 @@
   </si>
   <si>
     <t>Wk34</t>
+  </si>
+  <si>
+    <t>39pcs</t>
+  </si>
+  <si>
+    <t>PTS-1069 TW.50.15.FI.0S.150.00 X2637</t>
+  </si>
+  <si>
+    <t>11151256</t>
+  </si>
+  <si>
+    <t>PTS-1079 TW.50.1A.FI.0S.104.00 Bottom</t>
+  </si>
+  <si>
+    <t>11155949</t>
+  </si>
+  <si>
+    <t>PTS-1146 70902.631 X2544 ALIGNER &amp; NEST</t>
+  </si>
+  <si>
+    <t>PTS-1136 300-001519-015 Semiconductor</t>
+  </si>
+  <si>
+    <t>XS-PTS-0189</t>
+  </si>
+  <si>
+    <t>70160.018 BODY PORTED VALVE X1767</t>
+  </si>
+  <si>
+    <t>StarTech.com Male USB A; VGA to Male VGA KVM Cable</t>
+  </si>
+  <si>
+    <t>Stainless Steel Transfer Ball (China)</t>
+  </si>
+  <si>
+    <t>S/S Compression Spring (As Per Sample) 2 Type (100pcs Each)</t>
+  </si>
+  <si>
+    <t>2lots</t>
+  </si>
+  <si>
+    <t>SATO Label Coated Paper (30.0mm (P) x 40.0mm (W) Plant White</t>
+  </si>
+  <si>
+    <t>2rolls</t>
+  </si>
+  <si>
+    <t>XS-SPM-0081</t>
+  </si>
+  <si>
+    <t>HP-1810LS160-01 TIB PIN</t>
+  </si>
+  <si>
+    <t>Dowel Pin Diameter 2.5mm x 8mm</t>
+  </si>
+  <si>
+    <t>50pcs</t>
+  </si>
+  <si>
+    <t>M 3Ways Connector (Male / Female) White</t>
+  </si>
+  <si>
+    <t>100set</t>
+  </si>
+  <si>
+    <t>SM Connector Crimping Pin And Connetor Pin (100pcs Each Pack)</t>
+  </si>
+  <si>
+    <t>1set</t>
+  </si>
+  <si>
+    <t>Flow Control Valve AS1002F-04A</t>
+  </si>
+  <si>
+    <t>COB Working Light (Small &amp; Big Size)</t>
+  </si>
+  <si>
+    <t>MyCroftL-Shuttle Nest Assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTS-1084 TW.50.1B.FI.0S.002.01 SHUTTLE Load NEST ALIGNER </t>
+  </si>
+  <si>
+    <t>XS-PTS-0467</t>
+  </si>
+  <si>
+    <t>70508.087 Philips 414045 Bulb#8</t>
+  </si>
+  <si>
+    <t>XS-PTS-0883</t>
+  </si>
+  <si>
+    <t>PSFJW6-48-M3-N3 LINEAR SHAFT Offload</t>
+  </si>
+  <si>
+    <t>XS-PTS-1023</t>
+  </si>
+  <si>
+    <t>22401.032 APC SMART-UPS 1000VA X1767</t>
+  </si>
+  <si>
+    <t>PTS-1145 TW.50.0B.98.JV.006.00 VACUUM CUP X2544</t>
+  </si>
+  <si>
+    <t>Wk35</t>
   </si>
 </sst>
 </file>
@@ -919,10 +1024,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1242,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:J318"/>
+  <dimension ref="A1:J382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9530,8 +9631,1672 @@
         <v>80.64</v>
       </c>
     </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A319" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G319" s="2">
+        <v>45894</v>
+      </c>
+      <c r="H319" s="1">
+        <v>159.12</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A320" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C320" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G320" s="2">
+        <v>45894</v>
+      </c>
+      <c r="H320" s="1">
+        <v>1368.9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A321" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C321" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G321" s="2">
+        <v>45894</v>
+      </c>
+      <c r="H321" s="1">
+        <v>362.88</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A322" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G322" s="2">
+        <v>45894</v>
+      </c>
+      <c r="H322" s="1">
+        <v>1111.1199999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A323" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G323" s="2">
+        <v>45894</v>
+      </c>
+      <c r="H323" s="1">
+        <v>135.4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A324" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G324" s="2">
+        <v>45894</v>
+      </c>
+      <c r="H324" s="1">
+        <v>204.68</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A325" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G325" s="2">
+        <v>45894</v>
+      </c>
+      <c r="H325" s="1">
+        <v>3611.85</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A326" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G326" s="2">
+        <v>45894</v>
+      </c>
+      <c r="H326" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A327" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G327" s="2">
+        <v>45894</v>
+      </c>
+      <c r="H327" s="1">
+        <v>388.24</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A328" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G328" s="2">
+        <v>45894</v>
+      </c>
+      <c r="H328" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A329" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C329" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G329" s="2">
+        <v>45895</v>
+      </c>
+      <c r="H329" s="1">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A330" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G330" s="2">
+        <v>45895</v>
+      </c>
+      <c r="H330" s="1">
+        <v>572.96</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A331" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C331" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G331" s="2">
+        <v>45895</v>
+      </c>
+      <c r="H331" s="1">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A332" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G332" s="2">
+        <v>45895</v>
+      </c>
+      <c r="H332" s="1">
+        <v>874.48</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A333" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G333" s="2">
+        <v>45895</v>
+      </c>
+      <c r="H333" s="1">
+        <v>1155.8699999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A334" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G334" s="2">
+        <v>45895</v>
+      </c>
+      <c r="H334" s="1">
+        <v>68.91</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A335" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G335" s="2">
+        <v>45895</v>
+      </c>
+      <c r="H335" s="1">
+        <v>3100.4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A336" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G336" s="2">
+        <v>45895</v>
+      </c>
+      <c r="H336" s="1">
+        <v>2311.7399999999998</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A337" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G337" s="2">
+        <v>45895</v>
+      </c>
+      <c r="H337" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A338" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G338" s="2">
+        <v>45895</v>
+      </c>
+      <c r="H338" s="1">
+        <v>409.36</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A339" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G339" s="2">
+        <v>45896</v>
+      </c>
+      <c r="H339" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A340" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G340" s="2">
+        <v>45896</v>
+      </c>
+      <c r="H340" s="1">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A341" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G341" s="2">
+        <v>45896</v>
+      </c>
+      <c r="H341" s="1">
+        <v>3467.61</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A342" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C342" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G342" s="2">
+        <v>45896</v>
+      </c>
+      <c r="H342" s="1">
+        <v>561.6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A343" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G343" s="2">
+        <v>45896</v>
+      </c>
+      <c r="H343" s="1">
+        <v>91.21</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A344" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G344" s="2">
+        <v>45896</v>
+      </c>
+      <c r="H344" s="1">
+        <v>155.91</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A345" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G345" s="2">
+        <v>45896</v>
+      </c>
+      <c r="H345" s="1">
+        <v>288.45</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A346" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G346" s="2">
+        <v>45896</v>
+      </c>
+      <c r="H346" s="1">
+        <v>40.54</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A347" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G347" s="2">
+        <v>45896</v>
+      </c>
+      <c r="H347" s="1">
+        <v>388.24</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A348" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G348" s="2">
+        <v>45896</v>
+      </c>
+      <c r="H348" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A349" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G349" s="2">
+        <v>45896</v>
+      </c>
+      <c r="H349" s="1">
+        <v>325.02999999999997</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A350" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G350" s="2">
+        <v>45897</v>
+      </c>
+      <c r="H350" s="1">
+        <v>33.14</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A351" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G351" s="2">
+        <v>45897</v>
+      </c>
+      <c r="H351" s="1">
+        <v>58.45</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A352" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G352" s="2">
+        <v>45897</v>
+      </c>
+      <c r="H352" s="1">
+        <v>16.37</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A353" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G353" s="2">
+        <v>45897</v>
+      </c>
+      <c r="H353" s="1">
+        <v>565.15</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A354" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G354" s="2">
+        <v>45897</v>
+      </c>
+      <c r="H354" s="1">
+        <v>47.55</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A355" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G355" s="2">
+        <v>45897</v>
+      </c>
+      <c r="H355" s="1">
+        <v>8780.24</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A356" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C356" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G356" s="2">
+        <v>45897</v>
+      </c>
+      <c r="H356" s="1">
+        <v>403.2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A357" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C357" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G357" s="2">
+        <v>45897</v>
+      </c>
+      <c r="H357" s="1">
+        <v>491.4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A358" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G358" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H358" s="1">
+        <v>191.35</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A359" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C359" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G359" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H359" s="1">
+        <v>1666.68</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A360" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C360" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G360" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H360" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A361" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C361" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G361" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H361" s="1">
+        <v>2222.2399999999998</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A362" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C362" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G362" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H362" s="1">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A363" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G363" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H363" s="1">
+        <v>135.4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A364" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C364" s="1">
+        <v>11151260</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G364" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H364" s="1">
+        <v>672.5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A365" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G365" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H365" s="1">
+        <v>395.64</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A366" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G366" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H366" s="1">
+        <v>379.02</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A367" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G367" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H367" s="1">
+        <v>255.74</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A368" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G368" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H368" s="1">
+        <v>18.739999999999998</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A369" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C369" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G369" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H369" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A370" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G370" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H370" s="1">
+        <v>437.24</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A371" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C371" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G371" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H371" s="1">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A372" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G372" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H372" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A373" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G373" s="2">
+        <v>45899</v>
+      </c>
+      <c r="H373" s="1">
+        <v>190.99</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A374" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C374" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G374" s="2">
+        <v>45899</v>
+      </c>
+      <c r="H374" s="1">
+        <v>210.6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A375" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G375" s="2">
+        <v>45899</v>
+      </c>
+      <c r="H375" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A376" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C376" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G376" s="2">
+        <v>45899</v>
+      </c>
+      <c r="H376" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A377" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C377" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G377" s="2">
+        <v>45899</v>
+      </c>
+      <c r="H377" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A378" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C378" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G378" s="2">
+        <v>45900</v>
+      </c>
+      <c r="H378" s="1">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A379" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G379" s="2">
+        <v>45900</v>
+      </c>
+      <c r="H379" s="1">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A380" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C380" s="1">
+        <v>11155948</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G380" s="2">
+        <v>45900</v>
+      </c>
+      <c r="H380" s="1">
+        <v>1446.8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A381" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C381" s="1">
+        <v>11154686</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G381" s="2">
+        <v>45900</v>
+      </c>
+      <c r="H381" s="1">
+        <v>555.55999999999995</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A382" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G382" s="2">
+        <v>45900</v>
+      </c>
+      <c r="H382" s="1">
+        <v>191.35</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H318" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
+  <autoFilter ref="A1:H382" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.MohamedArkam\OneDrive - ams OSRAM\amoa\DropBox III\Desktop\EongsRequest\ploty_Dashboard\Weeklydashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31855EA1-A5E8-48EB-8EB9-C7B4005B8234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$382</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$491</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="340">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -770,9 +770,6 @@
     <t>11154322</t>
   </si>
   <si>
-    <t>PTS-1095 TW.50.1A.FI.0S.089.01 ALIGNER</t>
-  </si>
-  <si>
     <t>27pcs</t>
   </si>
   <si>
@@ -851,9 +848,6 @@
     <t>39pcs</t>
   </si>
   <si>
-    <t>PTS-1069 TW.50.15.FI.0S.150.00 X2637</t>
-  </si>
-  <si>
     <t>11151256</t>
   </si>
   <si>
@@ -951,6 +945,120 @@
   </si>
   <si>
     <t>Wk35</t>
+  </si>
+  <si>
+    <t>XS-PTS-0875</t>
+  </si>
+  <si>
+    <t>HX 0764 HPN QUICK CONNECT CONNECTOR</t>
+  </si>
+  <si>
+    <t>1boxs</t>
+  </si>
+  <si>
+    <t>1pack</t>
+  </si>
+  <si>
+    <t>43pcs</t>
+  </si>
+  <si>
+    <t>PTS-1144 800.403.00 X2544 MYCROFTL MP X2544</t>
+  </si>
+  <si>
+    <t>3M Insulation Tape (Black)</t>
+  </si>
+  <si>
+    <t>12roll</t>
+  </si>
+  <si>
+    <t>Gigabyte P1000GM</t>
+  </si>
+  <si>
+    <t>CR488288W Singal 2 Way Cable</t>
+  </si>
+  <si>
+    <t>1Roll</t>
+  </si>
+  <si>
+    <t>Test Kit Aligner Block</t>
+  </si>
+  <si>
+    <t>11154656</t>
+  </si>
+  <si>
+    <t>PTS-1099 TW.50.1B.00.01.505.00 PULLER X2544</t>
+  </si>
+  <si>
+    <t>Union Brush Brass</t>
+  </si>
+  <si>
+    <t>XS-PTS-1027</t>
+  </si>
+  <si>
+    <t>10618.396 DUT DAUGHTER CARD X1767</t>
+  </si>
+  <si>
+    <t>Wk36</t>
+  </si>
+  <si>
+    <t>1500pcs</t>
+  </si>
+  <si>
+    <t>99pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-0835</t>
+  </si>
+  <si>
+    <t>IDC10S-TE 10 Ways IDC Socket Clamping</t>
+  </si>
+  <si>
+    <t>401pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-0994</t>
+  </si>
+  <si>
+    <t>P/N: PJWBB790-28-00S ISC P-PIN</t>
+  </si>
+  <si>
+    <t>Connection Cable Bracket 2 Type (2pcs Each) And Adaptor Holder 2pcs</t>
+  </si>
+  <si>
+    <t>Replace Brushing Pad (Brass)</t>
+  </si>
+  <si>
+    <t>Hex Screwdriver Tool Set</t>
+  </si>
+  <si>
+    <t>Hepa Filter Purifier Model: 4/4</t>
+  </si>
+  <si>
+    <t>Short Length Alen Key 1.5mm to 6mm (No: 8 Brand Japan) Chrome</t>
+  </si>
+  <si>
+    <t>2set</t>
+  </si>
+  <si>
+    <t>6pcs Stanley Precision Screwdriver Set</t>
+  </si>
+  <si>
+    <t>3' Inch Board Cleaning Swabs, Cleanroom Lint Free Pointd Foam Tip (500pcs Per Pack)</t>
+  </si>
+  <si>
+    <t>1.25 SWAB / Swab Single Head (100pcs)</t>
+  </si>
+  <si>
+    <t>30pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-0464</t>
+  </si>
+  <si>
+    <t>70508.170 Dayton,4000K Bulb#5</t>
+  </si>
+  <si>
+    <t>Wk37</t>
   </si>
 </sst>
 </file>
@@ -1343,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:J382"/>
+  <dimension ref="A1:J491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8229,7 +8337,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>96</v>
@@ -8255,7 +8363,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>96</v>
@@ -8281,7 +8389,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>96</v>
@@ -8307,7 +8415,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>96</v>
@@ -8333,7 +8441,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>96</v>
@@ -8359,7 +8467,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>96</v>
@@ -8385,7 +8493,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>96</v>
@@ -8394,7 +8502,7 @@
         <v>242</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>66</v>
@@ -8411,7 +8519,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>96</v>
@@ -8437,7 +8545,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>96</v>
@@ -8449,7 +8557,7 @@
         <v>88</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>9</v>
@@ -8463,7 +8571,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>96</v>
@@ -8489,19 +8597,19 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C275" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D275" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="E275" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>9</v>
@@ -8515,16 +8623,16 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C276" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D276" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>13</v>
@@ -8541,16 +8649,16 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C277" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D277" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>28</v>
@@ -8567,7 +8675,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>96</v>
@@ -8579,7 +8687,7 @@
         <v>88</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>9</v>
@@ -8593,7 +8701,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>96</v>
@@ -8605,7 +8713,7 @@
         <v>198</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>9</v>
@@ -8619,7 +8727,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>96</v>
@@ -8631,7 +8739,7 @@
         <v>119</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>9</v>
@@ -8645,7 +8753,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>96</v>
@@ -8657,7 +8765,7 @@
         <v>159</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>9</v>
@@ -8671,7 +8779,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>96</v>
@@ -8697,7 +8805,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>96</v>
@@ -8723,7 +8831,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>96</v>
@@ -8735,7 +8843,7 @@
         <v>198</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>9</v>
@@ -8749,7 +8857,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>96</v>
@@ -8775,7 +8883,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>96</v>
@@ -8801,16 +8909,16 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C287" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D287" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>13</v>
@@ -8827,7 +8935,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>96</v>
@@ -8853,7 +8961,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>96</v>
@@ -8879,16 +8987,16 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C290" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D290" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>13</v>
@@ -8905,7 +9013,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>96</v>
@@ -8931,7 +9039,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>96</v>
@@ -8957,7 +9065,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>96</v>
@@ -8983,7 +9091,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>96</v>
@@ -9009,7 +9117,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>96</v>
@@ -9035,7 +9143,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>96</v>
@@ -9061,7 +9169,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>96</v>
@@ -9087,7 +9195,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>96</v>
@@ -9113,7 +9221,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>96</v>
@@ -9139,7 +9247,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>96</v>
@@ -9165,7 +9273,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>96</v>
@@ -9191,16 +9299,16 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C302" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D302" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>13</v>
@@ -9217,16 +9325,16 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C303" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D303" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="D303" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>13</v>
@@ -9243,7 +9351,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>96</v>
@@ -9269,7 +9377,7 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>96</v>
@@ -9295,7 +9403,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>96</v>
@@ -9321,7 +9429,7 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>96</v>
@@ -9330,7 +9438,7 @@
         <v>242</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>13</v>
@@ -9347,7 +9455,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>96</v>
@@ -9373,16 +9481,16 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C309" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D309" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>85</v>
@@ -9399,16 +9507,16 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C310" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D310" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>13</v>
@@ -9425,16 +9533,16 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C311" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D311" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>40</v>
@@ -9451,16 +9559,16 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C312" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D312" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>21</v>
@@ -9477,7 +9585,7 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>96</v>
@@ -9503,7 +9611,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>96</v>
@@ -9529,7 +9637,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>96</v>
@@ -9555,7 +9663,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>96</v>
@@ -9581,7 +9689,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>96</v>
@@ -9607,7 +9715,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>96</v>
@@ -9633,7 +9741,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>96</v>
@@ -9659,7 +9767,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>96</v>
@@ -9671,7 +9779,7 @@
         <v>88</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>9</v>
@@ -9685,7 +9793,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>96</v>
@@ -9711,7 +9819,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>96</v>
@@ -9720,7 +9828,7 @@
         <v>82</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>270</v>
+        <v>7</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>28</v>
@@ -9737,7 +9845,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>96</v>
@@ -9763,16 +9871,16 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>13</v>
@@ -9789,16 +9897,16 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>43</v>
@@ -9815,7 +9923,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>96</v>
@@ -9824,7 +9932,7 @@
         <v>80</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>21</v>
@@ -9841,7 +9949,7 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>96</v>
@@ -9867,7 +9975,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>96</v>
@@ -9893,7 +10001,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>96</v>
@@ -9919,7 +10027,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>96</v>
@@ -9945,7 +10053,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>96</v>
@@ -9971,7 +10079,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>96</v>
@@ -9997,16 +10105,16 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C333" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D333" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>13</v>
@@ -10023,7 +10131,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>96</v>
@@ -10049,16 +10157,16 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>46</v>
@@ -10075,16 +10183,16 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C336" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D336" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>28</v>
@@ -10101,7 +10209,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>96</v>
@@ -10110,7 +10218,7 @@
         <v>80</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>170</v>
@@ -10127,16 +10235,16 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>28</v>
@@ -10153,16 +10261,16 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C339" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D339" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>85</v>
@@ -10179,7 +10287,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>96</v>
@@ -10188,7 +10296,7 @@
         <v>80</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>207</v>
@@ -10205,16 +10313,16 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C341" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D341" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>8</v>
@@ -10231,7 +10339,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>96</v>
@@ -10257,7 +10365,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>51</v>
@@ -10266,7 +10374,7 @@
         <v>51</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>8</v>
@@ -10283,7 +10391,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>51</v>
@@ -10292,7 +10400,7 @@
         <v>51</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>16</v>
@@ -10309,7 +10417,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>51</v>
@@ -10318,10 +10426,10 @@
         <v>51</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>9</v>
@@ -10335,7 +10443,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>51</v>
@@ -10344,10 +10452,10 @@
         <v>51</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>9</v>
@@ -10361,7 +10469,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>96</v>
@@ -10387,16 +10495,16 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>21</v>
@@ -10413,7 +10521,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>96</v>
@@ -10439,7 +10547,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>51</v>
@@ -10448,10 +10556,10 @@
         <v>51</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>9</v>
@@ -10465,7 +10573,7 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>51</v>
@@ -10474,10 +10582,10 @@
         <v>51</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>9</v>
@@ -10491,7 +10599,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>51</v>
@@ -10500,10 +10608,10 @@
         <v>51</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>9</v>
@@ -10517,7 +10625,7 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>51</v>
@@ -10526,10 +10634,10 @@
         <v>51</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>9</v>
@@ -10543,7 +10651,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>51</v>
@@ -10552,7 +10660,7 @@
         <v>51</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>28</v>
@@ -10569,7 +10677,7 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>51</v>
@@ -10578,7 +10686,7 @@
         <v>51</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>11</v>
@@ -10595,7 +10703,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>96</v>
@@ -10621,7 +10729,7 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>96</v>
@@ -10647,7 +10755,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>96</v>
@@ -10673,7 +10781,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>96</v>
@@ -10682,7 +10790,7 @@
         <v>11151246</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>270</v>
+        <v>7</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>8</v>
@@ -10699,7 +10807,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>96</v>
@@ -10708,7 +10816,7 @@
         <v>11155143</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>21</v>
@@ -10725,7 +10833,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>96</v>
@@ -10734,7 +10842,7 @@
         <v>11151246</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>270</v>
+        <v>7</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>35</v>
@@ -10751,7 +10859,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>96</v>
@@ -10777,7 +10885,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>96</v>
@@ -10803,7 +10911,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>96</v>
@@ -10812,7 +10920,7 @@
         <v>11151260</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>43</v>
@@ -10829,7 +10937,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>96</v>
@@ -10855,16 +10963,16 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>8</v>
@@ -10881,7 +10989,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>96</v>
@@ -10907,16 +11015,16 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>66</v>
@@ -10933,7 +11041,7 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>96</v>
@@ -10942,7 +11050,7 @@
         <v>11155143</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>21</v>
@@ -10959,7 +11067,7 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>96</v>
@@ -10985,7 +11093,7 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>96</v>
@@ -11011,7 +11119,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>96</v>
@@ -11037,7 +11145,7 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>96</v>
@@ -11063,7 +11171,7 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>96</v>
@@ -11089,16 +11197,16 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C375" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D375" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="D375" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>85</v>
@@ -11115,7 +11223,7 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>96</v>
@@ -11124,7 +11232,7 @@
         <v>11155143</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>21</v>
@@ -11141,7 +11249,7 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>96</v>
@@ -11150,7 +11258,7 @@
         <v>11155143</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>21</v>
@@ -11167,7 +11275,7 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>96</v>
@@ -11193,16 +11301,16 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>13</v>
@@ -11219,7 +11327,7 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>96</v>
@@ -11228,7 +11336,7 @@
         <v>11155948</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>40</v>
@@ -11245,7 +11353,7 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>96</v>
@@ -11271,7 +11379,7 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>96</v>
@@ -11295,8 +11403,2842 @@
         <v>191.35</v>
       </c>
     </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A383" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G383" s="2">
+        <v>45901</v>
+      </c>
+      <c r="H383" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A384" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G384" s="2">
+        <v>45901</v>
+      </c>
+      <c r="H384" s="1">
+        <v>388.24</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A385" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G385" s="2">
+        <v>45901</v>
+      </c>
+      <c r="H385" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A386" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C386" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G386" s="2">
+        <v>45901</v>
+      </c>
+      <c r="H386" s="1">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A387" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C387" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G387" s="2">
+        <v>45901</v>
+      </c>
+      <c r="H387" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A388" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G388" s="2">
+        <v>45901</v>
+      </c>
+      <c r="H388" s="1">
+        <v>2167.11</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A389" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G389" s="2">
+        <v>45901</v>
+      </c>
+      <c r="H389" s="1">
+        <v>25.81</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A390" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C390" s="1">
+        <v>11154322</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G390" s="2">
+        <v>45901</v>
+      </c>
+      <c r="H390" s="1">
+        <v>78.62</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A391" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C391" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G391" s="2">
+        <v>45901</v>
+      </c>
+      <c r="H391" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A392" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G392" s="2">
+        <v>45901</v>
+      </c>
+      <c r="H392" s="1">
+        <v>2777.8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A393" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G393" s="2">
+        <v>45901</v>
+      </c>
+      <c r="H393" s="1">
+        <v>4444.4799999999996</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A394" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G394" s="2">
+        <v>45901</v>
+      </c>
+      <c r="H394" s="1">
+        <v>191.35</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A395" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G395" s="2">
+        <v>45901</v>
+      </c>
+      <c r="H395" s="1">
+        <v>210.04</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A396" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G396" s="2">
+        <v>45901</v>
+      </c>
+      <c r="H396" s="1">
+        <v>325.02999999999997</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A397" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G397" s="2">
+        <v>45901</v>
+      </c>
+      <c r="H397" s="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A398" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C398" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G398" s="2">
+        <v>45902</v>
+      </c>
+      <c r="H398" s="1">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A399" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C399" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G399" s="2">
+        <v>45902</v>
+      </c>
+      <c r="H399" s="1">
+        <v>421.2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A400" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G400" s="2">
+        <v>45902</v>
+      </c>
+      <c r="H400" s="1">
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A401" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G401" s="2">
+        <v>45902</v>
+      </c>
+      <c r="H401" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A402" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C402" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G402" s="2">
+        <v>45902</v>
+      </c>
+      <c r="H402" s="1">
+        <v>1509.3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A403" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G403" s="2">
+        <v>45903</v>
+      </c>
+      <c r="H403" s="1">
+        <v>191.35</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A404" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G404" s="2">
+        <v>45903</v>
+      </c>
+      <c r="H404" s="1">
+        <v>381.97</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A405" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G405" s="2">
+        <v>45903</v>
+      </c>
+      <c r="H405" s="1">
+        <v>210.04</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A406" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G406" s="2">
+        <v>45903</v>
+      </c>
+      <c r="H406" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A407" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G407" s="2">
+        <v>45903</v>
+      </c>
+      <c r="H407" s="1">
+        <v>135.4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A408" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C408" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G408" s="2">
+        <v>45903</v>
+      </c>
+      <c r="H408" s="1">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A409" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C409" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G409" s="2">
+        <v>45903</v>
+      </c>
+      <c r="H409" s="1">
+        <v>561.6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A410" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C410" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G410" s="2">
+        <v>45903</v>
+      </c>
+      <c r="H410" s="1">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A411" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G411" s="2">
+        <v>45903</v>
+      </c>
+      <c r="H411" s="1">
+        <v>874.48</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A412" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G412" s="2">
+        <v>45903</v>
+      </c>
+      <c r="H412" s="1">
+        <v>1155.8699999999999</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A413" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C413" s="1">
+        <v>11155947</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G413" s="2">
+        <v>45903</v>
+      </c>
+      <c r="H413" s="1">
+        <v>752.32</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A414" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G414" s="2">
+        <v>45903</v>
+      </c>
+      <c r="H414" s="1">
+        <v>388.24</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A415" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G415" s="2">
+        <v>45903</v>
+      </c>
+      <c r="H415" s="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A416" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G416" s="2">
+        <v>45904</v>
+      </c>
+      <c r="H416" s="1">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A417" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G417" s="2">
+        <v>45904</v>
+      </c>
+      <c r="H417" s="1">
+        <v>287.25</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A418" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G418" s="2">
+        <v>45904</v>
+      </c>
+      <c r="H418" s="1">
+        <v>640.53</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A419" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G419" s="2">
+        <v>45904</v>
+      </c>
+      <c r="H419" s="1">
+        <v>737.57</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A420" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G420" s="2">
+        <v>45904</v>
+      </c>
+      <c r="H420" s="1">
+        <v>2167.11</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A421" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G421" s="2">
+        <v>45904</v>
+      </c>
+      <c r="H421" s="1">
+        <v>17.36</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A422" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G422" s="2">
+        <v>45904</v>
+      </c>
+      <c r="H422" s="1">
+        <v>43.32</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A423" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G423" s="2">
+        <v>45904</v>
+      </c>
+      <c r="H423" s="1">
+        <v>420.08</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A424" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G424" s="2">
+        <v>45904</v>
+      </c>
+      <c r="H424" s="1">
+        <v>650.05999999999995</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A425" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C425" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G425" s="2">
+        <v>45905</v>
+      </c>
+      <c r="H425" s="1">
+        <v>561.6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A426" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G426" s="2">
+        <v>45906</v>
+      </c>
+      <c r="H426" s="1">
+        <v>4623.4799999999996</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A427" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G427" s="2">
+        <v>45906</v>
+      </c>
+      <c r="H427" s="1">
+        <v>1788.3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A428" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G428" s="2">
+        <v>45906</v>
+      </c>
+      <c r="H428" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A429" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C429" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G429" s="2">
+        <v>45906</v>
+      </c>
+      <c r="H429" s="1">
+        <v>631.79999999999995</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A430" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G430" s="2">
+        <v>45906</v>
+      </c>
+      <c r="H430" s="1">
+        <v>4945.2700000000004</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A431" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C431" s="1">
+        <v>11155949</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G431" s="2">
+        <v>45907</v>
+      </c>
+      <c r="H431" s="1">
+        <v>2167.11</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A432" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C432" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G432" s="2">
+        <v>45908</v>
+      </c>
+      <c r="H432" s="1">
+        <v>982.8</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A433" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C433" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G433" s="2">
+        <v>45909</v>
+      </c>
+      <c r="H433" s="1">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A434" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G434" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H434" s="1">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A435" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G435" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H435" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A436" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G436" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H436" s="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A437" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G437" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H437" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A438" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C438" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G438" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H438" s="1">
+        <v>403.2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A439" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C439" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G439" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H439" s="1">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A440" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G440" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H440" s="1">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A441" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G441" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H441" s="1">
+        <v>51.86</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A442" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G442" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H442" s="1">
+        <v>53.36</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A443" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G443" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H443" s="1">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A444" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G444" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H444" s="1">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A445" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G445" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H445" s="1">
+        <v>1155.8699999999999</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A446" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G446" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H446" s="1">
+        <v>1788.3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A447" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G447" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H447" s="1">
+        <v>382.7</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A448" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G448" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H448" s="1">
+        <v>210.04</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A449" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G449" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H449" s="1">
+        <v>650.05999999999995</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A450" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G450" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H450" s="1">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A451" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C451" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G451" s="2">
+        <v>45911</v>
+      </c>
+      <c r="H451" s="1">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A452" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G452" s="2">
+        <v>45911</v>
+      </c>
+      <c r="H452" s="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A453" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G453" s="2">
+        <v>45911</v>
+      </c>
+      <c r="H453" s="1">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A454" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G454" s="2">
+        <v>45911</v>
+      </c>
+      <c r="H454" s="1">
+        <v>194.12</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A455" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C455" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G455" s="2">
+        <v>45911</v>
+      </c>
+      <c r="H455" s="1">
+        <v>555.55999999999995</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A456" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G456" s="2">
+        <v>45911</v>
+      </c>
+      <c r="H456" s="1">
+        <v>135.4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A457" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C457" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G457" s="2">
+        <v>45911</v>
+      </c>
+      <c r="H457" s="1">
+        <v>1123.2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A458" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G458" s="2">
+        <v>45911</v>
+      </c>
+      <c r="H458" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A459" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C459" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G459" s="2">
+        <v>45912</v>
+      </c>
+      <c r="H459" s="1">
+        <v>403.2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A460" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G460" s="2">
+        <v>45911</v>
+      </c>
+      <c r="H460" s="1">
+        <v>840.16</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A461" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G461" s="2">
+        <v>45911</v>
+      </c>
+      <c r="H461" s="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A462" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G462" s="2">
+        <v>45911</v>
+      </c>
+      <c r="H462" s="1">
+        <v>763.94</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A463" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G463" s="2">
+        <v>45911</v>
+      </c>
+      <c r="H463" s="1">
+        <v>650.05999999999995</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A464" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G464" s="2">
+        <v>45912</v>
+      </c>
+      <c r="H464" s="1">
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A465" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G465" s="2">
+        <v>45912</v>
+      </c>
+      <c r="H465" s="1">
+        <v>630.12</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A466" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G466" s="2">
+        <v>45912</v>
+      </c>
+      <c r="H466" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A467" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G467" s="2">
+        <v>45912</v>
+      </c>
+      <c r="H467" s="1">
+        <v>89.68</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A468" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G468" s="2">
+        <v>45912</v>
+      </c>
+      <c r="H468" s="1">
+        <v>50.69</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A469" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G469" s="2">
+        <v>45912</v>
+      </c>
+      <c r="H469" s="1">
+        <v>30.42</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A470" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G470" s="2">
+        <v>45912</v>
+      </c>
+      <c r="H470" s="1">
+        <v>54.59</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A471" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G471" s="2">
+        <v>45912</v>
+      </c>
+      <c r="H471" s="1">
+        <v>73.31</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A472" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G472" s="2">
+        <v>45912</v>
+      </c>
+      <c r="H472" s="1">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A473" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G473" s="2">
+        <v>45912</v>
+      </c>
+      <c r="H473" s="1">
+        <v>68.62</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A474" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G474" s="2">
+        <v>45912</v>
+      </c>
+      <c r="H474" s="1">
+        <v>90.45</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A475" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G475" s="2">
+        <v>45913</v>
+      </c>
+      <c r="H475" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A476" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G476" s="2">
+        <v>45913</v>
+      </c>
+      <c r="H476" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A477" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C477" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G477" s="2">
+        <v>45913</v>
+      </c>
+      <c r="H477" s="1">
+        <v>604.79999999999995</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A478" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G478" s="2">
+        <v>45913</v>
+      </c>
+      <c r="H478" s="1">
+        <v>91.88</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A479" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C479" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G479" s="2">
+        <v>45914</v>
+      </c>
+      <c r="H479" s="1">
+        <v>604.79999999999995</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A480" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C480" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G480" s="2">
+        <v>45913</v>
+      </c>
+      <c r="H480" s="1">
+        <v>386.1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A481" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G481" s="2">
+        <v>45914</v>
+      </c>
+      <c r="H481" s="1">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A482" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G482" s="2">
+        <v>45914</v>
+      </c>
+      <c r="H482" s="1">
+        <v>228.94</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A483" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G483" s="2">
+        <v>45914</v>
+      </c>
+      <c r="H483" s="1">
+        <v>159.12</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A484" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G484" s="2">
+        <v>45914</v>
+      </c>
+      <c r="H484" s="1">
+        <v>2280.7199999999998</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A485" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G485" s="2">
+        <v>45914</v>
+      </c>
+      <c r="H485" s="1">
+        <v>2311.7399999999998</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A486" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G486" s="2">
+        <v>45914</v>
+      </c>
+      <c r="H486" s="1">
+        <v>3576.6</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A487" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G487" s="2">
+        <v>45914</v>
+      </c>
+      <c r="H487" s="1">
+        <v>874.48</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A488" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G488" s="2">
+        <v>45914</v>
+      </c>
+      <c r="H488" s="1">
+        <v>4945.2700000000004</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A489" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C489" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G489" s="2">
+        <v>45914</v>
+      </c>
+      <c r="H489" s="1">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A490" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G490" s="2">
+        <v>45914</v>
+      </c>
+      <c r="H490" s="1">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A491" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C491" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G491" s="2">
+        <v>45914</v>
+      </c>
+      <c r="H491" s="1">
+        <v>1111.1199999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H382" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
+  <autoFilter ref="A1:H491" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.MohamedArkam\OneDrive - ams OSRAM\amoa\DropBox III\Desktop\EongsRequest\ploty_Dashboard\Weeklydashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A8ACDC3-C3DD-4C1C-814D-9FAAF9A6C513}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$491</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$665</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3918" uniqueCount="405">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -1059,6 +1059,201 @@
   </si>
   <si>
     <t>Wk37</t>
+  </si>
+  <si>
+    <t>PTS-1136 300-001519-015 Semiconductor X2637</t>
+  </si>
+  <si>
+    <t>PTS-1071 TW.50.15.FI.0S.151.00 X2637 Station adaptor A</t>
+  </si>
+  <si>
+    <t>PTS-1071 TW.50.15.FI.0S.151.00 X2637 Station adaptor B/C</t>
+  </si>
+  <si>
+    <t>S/S Philip Pan Head Screw (Fine Screw) M1.6 x 3mm</t>
+  </si>
+  <si>
+    <t>Cutter Blade (10pcs)</t>
+  </si>
+  <si>
+    <t>RS Pro Safety Cutter</t>
+  </si>
+  <si>
+    <t>15/9/2025</t>
+  </si>
+  <si>
+    <t>CSb Battery 12V 7.2Ah F1</t>
+  </si>
+  <si>
+    <t>PTS-1139 Nanotek Brush (NANO-4-003)</t>
+  </si>
+  <si>
+    <t>X1655 70900.067 SA/MP Test Socket Pogo P</t>
+  </si>
+  <si>
+    <t>PTS-1149 40Ways Ribbon Flat Cable (1.2M)</t>
+  </si>
+  <si>
+    <t>16/9/2025</t>
+  </si>
+  <si>
+    <t>PTS-1147  Nano Brush Diameter 2mm And</t>
+  </si>
+  <si>
+    <t>17/9/2025</t>
+  </si>
+  <si>
+    <t>PTS-1060 70192.692 PNP RUBBER TIP X2637</t>
+  </si>
+  <si>
+    <t>18/9/2025</t>
+  </si>
+  <si>
+    <t>19/9/2025</t>
+  </si>
+  <si>
+    <t>XS-PTS-0954</t>
+  </si>
+  <si>
+    <t>70192.461 RUBBER TIP_X1893_LENS (BLACK)</t>
+  </si>
+  <si>
+    <t>XS-PTS-0836</t>
+  </si>
+  <si>
+    <t>OKI Flat Cable (Gray) 10 Ways</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>20/9/2025</t>
+  </si>
+  <si>
+    <t>XS-PTS-0961</t>
+  </si>
+  <si>
+    <t>TW.50.1A.FI.0R.029.03 ADAPTOR X1893</t>
+  </si>
+  <si>
+    <t>XS-PTS-0963</t>
+  </si>
+  <si>
+    <t>TW.50.1A.FI.0R.030.02 Aligner X1893</t>
+  </si>
+  <si>
+    <t>21/9/2025</t>
+  </si>
+  <si>
+    <t>X1893 70900.067 SA/MP Test Socket Pogo P</t>
+  </si>
+  <si>
+    <t>Wk38</t>
+  </si>
+  <si>
+    <t>22/9/2025</t>
+  </si>
+  <si>
+    <t>75pcs</t>
+  </si>
+  <si>
+    <t>23/9/2025</t>
+  </si>
+  <si>
+    <t>24/9/2025</t>
+  </si>
+  <si>
+    <t>25/9/2025</t>
+  </si>
+  <si>
+    <t>26/9/2025</t>
+  </si>
+  <si>
+    <t>28/9/2025</t>
+  </si>
+  <si>
+    <t>1000pcs</t>
+  </si>
+  <si>
+    <t>Wk39</t>
+  </si>
+  <si>
+    <t>29/9/2025</t>
+  </si>
+  <si>
+    <t>30/9/2025</t>
+  </si>
+  <si>
+    <t>XS-PTS-0983</t>
+  </si>
+  <si>
+    <t>Fuji Electric Ac Servo Motor GYS201D5-</t>
+  </si>
+  <si>
+    <t>XS-PTS-0309</t>
+  </si>
+  <si>
+    <t>10203.178 FUJI SERVO MOTOR WITH BRAKE</t>
+  </si>
+  <si>
+    <t>XS-PTS-0313</t>
+  </si>
+  <si>
+    <t>70380.298 ACTUATOR (For PnP Exchange)</t>
+  </si>
+  <si>
+    <t>1box</t>
+  </si>
+  <si>
+    <t>PTS-1068 TW.50.15.FI.0S.109.00 Stn Dome Adaptor/cap (Top) X2637</t>
+  </si>
+  <si>
+    <t>PTS-1071 TW.50.15.FI.0S.151.00 STATION B/C ADAPTOR/CAP  (BOTTOM) X2637</t>
+  </si>
+  <si>
+    <t>XS-PTS-0463</t>
+  </si>
+  <si>
+    <t>70508.083 Philips 414052 Bulb#4</t>
+  </si>
+  <si>
+    <t>01/10/2025</t>
+  </si>
+  <si>
+    <t>02/10/2025</t>
+  </si>
+  <si>
+    <t>PTS-1091 TW.50.0B.FI.0S.011.01 Load/Un</t>
+  </si>
+  <si>
+    <t>PTS-1092 TW.50.0B.FI.0S.006.01 Input/Out</t>
+  </si>
+  <si>
+    <t>1600pcs</t>
+  </si>
+  <si>
+    <t>02/10/2026</t>
+  </si>
+  <si>
+    <t>03/10/2025</t>
+  </si>
+  <si>
+    <t>XS-SPM-0019</t>
+  </si>
+  <si>
+    <t>34013717.135 SPAREP CABLE FOR ALPHA</t>
+  </si>
+  <si>
+    <t>PTS-1126 TW.50.0B.FI.0S.006.02 PP</t>
+  </si>
+  <si>
+    <t>13pcs</t>
+  </si>
+  <si>
+    <t>05/10/2025</t>
+  </si>
+  <si>
+    <t>Wk40</t>
   </si>
 </sst>
 </file>
@@ -1451,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:J491"/>
+  <dimension ref="A1:J665"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14237,8 +14432,4532 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A492" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D492" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G492" s="2">
+        <v>45915</v>
+      </c>
+      <c r="H492" s="1">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A493" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G493" s="2">
+        <v>45915</v>
+      </c>
+      <c r="H493" s="1">
+        <v>228.94</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A494" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G494" s="2">
+        <v>45915</v>
+      </c>
+      <c r="H494" s="1">
+        <v>159.12</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A495" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C495" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G495" s="2">
+        <v>45915</v>
+      </c>
+      <c r="H495" s="1">
+        <v>604.79999999999995</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A496" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G496" s="2">
+        <v>45915</v>
+      </c>
+      <c r="H496" s="1">
+        <v>2280.7199999999998</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A497" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G497" s="2">
+        <v>45915</v>
+      </c>
+      <c r="H497" s="1">
+        <v>2311.7399999999998</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A498" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G498" s="2">
+        <v>45915</v>
+      </c>
+      <c r="H498" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A499" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G499" s="2">
+        <v>45915</v>
+      </c>
+      <c r="H499" s="1">
+        <v>3576.6</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A500" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G500" s="2">
+        <v>45915</v>
+      </c>
+      <c r="H500" s="1">
+        <v>874.48</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A501" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G501" s="2">
+        <v>45915</v>
+      </c>
+      <c r="H501" s="1">
+        <v>4945.2700000000004</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A502" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C502" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G502" s="2">
+        <v>45915</v>
+      </c>
+      <c r="H502" s="1">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A503" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G503" s="2">
+        <v>45915</v>
+      </c>
+      <c r="H503" s="1">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A504" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C504" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G504" s="2">
+        <v>45915</v>
+      </c>
+      <c r="H504" s="1">
+        <v>1111.1199999999999</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A505" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C505" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G505" s="2">
+        <v>45915</v>
+      </c>
+      <c r="H505" s="1">
+        <v>2222.2399999999998</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A506" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G506" s="2">
+        <v>45915</v>
+      </c>
+      <c r="H506" s="1">
+        <v>15.64</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A507" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G507" s="2">
+        <v>45915</v>
+      </c>
+      <c r="H507" s="1">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A508" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G508" s="2">
+        <v>45915</v>
+      </c>
+      <c r="H508" s="1">
+        <v>42.23</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A509" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G509" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H509" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A510" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G510" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H510" s="1">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A511" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G511" s="2">
+        <v>45916</v>
+      </c>
+      <c r="H511" s="1">
+        <v>381.97</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A512" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C512" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G512" s="2">
+        <v>45916</v>
+      </c>
+      <c r="H512" s="1">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A513" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C513" s="1">
+        <v>11155547</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G513" s="2">
+        <v>45916</v>
+      </c>
+      <c r="H513" s="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A514" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G514" s="2">
+        <v>45916</v>
+      </c>
+      <c r="H514" s="1">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A515" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G515" s="2">
+        <v>45916</v>
+      </c>
+      <c r="H515" s="1">
+        <v>435.1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A516" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C516" s="1">
+        <v>11156536</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G516" s="2">
+        <v>45916</v>
+      </c>
+      <c r="H516" s="1">
+        <v>34.36</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A517" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C517" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G517" s="2">
+        <v>45916</v>
+      </c>
+      <c r="H517" s="1">
+        <v>2222.2399999999998</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A518" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C518" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G518" s="2">
+        <v>45916</v>
+      </c>
+      <c r="H518" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A519" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C519" s="1">
+        <v>11154322</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G519" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H519" s="1">
+        <v>9890.5300000000007</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A520" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C520" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G520" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H520" s="1">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A521" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C521" s="1">
+        <v>11156248</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G521" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H521" s="1">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A522" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G522" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H522" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A523" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C523" s="1">
+        <v>11151249</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G523" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H523" s="1">
+        <v>913.6</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A524" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C524" s="1">
+        <v>11151237</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G524" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H524" s="1">
+        <v>270.8</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A525" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C525" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G525" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H525" s="1">
+        <v>1111.1199999999999</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A526" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C526" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G526" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H526" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A527" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G527" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H527" s="1">
+        <v>91.88</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A528" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G528" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H528" s="1">
+        <v>1788.3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A529" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G529" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H529" s="1">
+        <v>2311.7399999999998</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A530" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G530" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H530" s="1">
+        <v>437.24</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A531" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G531" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H531" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A532" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C532" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G532" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H532" s="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A533" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C533" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G533" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H533" s="1">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A534" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C534" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G534" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H534" s="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A535" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G535" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H535" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A536" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G536" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H536" s="1">
+        <v>191.35</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A537" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G537" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H537" s="1">
+        <v>210.04</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A538" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C538" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G538" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H538" s="1">
+        <v>1111.1199999999999</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A539" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G539" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H539" s="1">
+        <v>91.88</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A540" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G540" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H540" s="1">
+        <v>22.19</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A541" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C541" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G541" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H541" s="1">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A542" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G542" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H542" s="1">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A543" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C543" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G543" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H543" s="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A544" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G544" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H544" s="1">
+        <v>77.790000000000006</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A545" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G545" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H545" s="1">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A546" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C546" s="1">
+        <v>11156536</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G546" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H546" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A547" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G547" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H547" s="1">
+        <v>503.35</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A548" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G548" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H548" s="1">
+        <v>332.15</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A549" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C549" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G549" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H549" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A550" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G550" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H550" s="1">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A551" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C551" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G551" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H551" s="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A552" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G552" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H552" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A553" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C553" s="1">
+        <v>11154322</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G553" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H553" s="1">
+        <v>78.62</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A554" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C554" s="1">
+        <v>11151242</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G554" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H554" s="1">
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A555" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C555" s="1">
+        <v>11151249</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G555" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H555" s="1">
+        <v>1827.2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A556" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C556" s="1">
+        <v>11151237</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G556" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H556" s="1">
+        <v>270.8</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A557" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C557" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G557" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H557" s="1">
+        <v>1666.68</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A558" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C558" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G558" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H558" s="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A559" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C559" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G559" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H559" s="1">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A560" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C560" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G560" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H560" s="1">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A561" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G561" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H561" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A562" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G562" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H562" s="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A563" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G563" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H563" s="1">
+        <v>4945.2700000000004</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A564" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C564" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G564" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H564" s="1">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A565" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G565" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H565" s="1">
+        <v>874.48</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A566" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G566" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H566" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A567" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C567" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G567" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H567" s="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A568" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G568" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H568" s="1">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A569" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C569" s="1">
+        <v>11155547</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G569" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H569" s="1">
+        <v>612.95000000000005</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A570" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C570" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G570" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H570" s="1">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A571" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C571" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G571" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H571" s="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A572" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G572" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H572" s="1">
+        <v>91.88</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A573" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C573" s="1">
+        <v>11155949</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G573" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H573" s="1">
+        <v>3611.85</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A574" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G574" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H574" s="1">
+        <v>45.94</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A575" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G575" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H575" s="1">
+        <v>5364.9</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A576" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G576" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H576" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A577" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F577" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G577" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H577" s="1">
+        <v>420.08</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A578" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F578" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G578" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H578" s="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A579" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F579" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G579" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H579" s="1">
+        <v>191.35</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A580" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C580" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F580" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G580" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H580" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A581" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C581" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F581" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G581" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H581" s="1">
+        <v>877.5</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A582" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C582" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G582" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H582" s="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A583" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G583" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H583" s="1">
+        <v>505.36</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A584" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G584" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H584" s="1">
+        <v>1140.3599999999999</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A585" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C585" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G585" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H585" s="1">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A586" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C586" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F586" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G586" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H586" s="1">
+        <v>2222.2399999999998</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A587" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C587" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F587" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G587" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H587" s="1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A588" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C588" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G588" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H588" s="1">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A589" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G589" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H589" s="1">
+        <v>190.99</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A590" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D590" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G590" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H590" s="1">
+        <v>210.04</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A591" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F591" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G591" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H591" s="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A592" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D592" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G592" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H592" s="1">
+        <v>2311.7399999999998</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A593" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D593" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G593" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H593" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A594" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G594" s="2">
+        <v>45927</v>
+      </c>
+      <c r="H594" s="1">
+        <v>3576.6</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A595" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D595" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G595" s="2">
+        <v>45927</v>
+      </c>
+      <c r="H595" s="1">
+        <v>874.48</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A596" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G596" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H596" s="1">
+        <v>191.35</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A597" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C597" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D597" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G597" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H597" s="1">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A598" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C598" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D598" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G598" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H598" s="1">
+        <v>604.79999999999995</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A599" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C599" s="1">
+        <v>11155547</v>
+      </c>
+      <c r="D599" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G599" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H599" s="1">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A600" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C600" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D600" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G600" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H600" s="1">
+        <v>2632.5</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A601" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D601" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G601" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H601" s="1">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A602" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D602" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G602" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H602" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A603" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D603" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G603" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H603" s="1">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A604" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C604" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D604" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G604" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H604" s="1">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A605" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D605" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G605" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H605" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A606" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D606" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G606" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H606" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A607" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D607" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G607" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H607" s="1">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A608" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C608" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D608" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F608" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G608" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H608" s="1">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A609" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D609" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G609" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H609" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A610" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D610" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F610" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G610" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H610" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A611" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D611" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G611" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H611" s="1">
+        <v>858.79</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A612" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D612" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G612" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H612" s="1">
+        <v>799.4</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A613" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D613" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G613" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H613" s="1">
+        <v>484.29</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A614" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D614" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G614" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H614" s="1">
+        <v>25.81</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A615" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C615" s="1">
+        <v>11151245</v>
+      </c>
+      <c r="D615" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G615" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H615" s="1">
+        <v>304.08999999999997</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A616" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C616" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D616" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F616" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G616" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H616" s="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A617" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C617" s="1">
+        <v>11151237</v>
+      </c>
+      <c r="D617" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F617" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G617" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H617" s="1">
+        <v>270.8</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A618" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C618" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D618" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G618" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H618" s="1">
+        <v>1111.1199999999999</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A619" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D619" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G619" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H619" s="1">
+        <v>25.81</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A620" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C620" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D620" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G620" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H620" s="1">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A621" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D621" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G621" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H621" s="1">
+        <v>272.14</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A622" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C622" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D622" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G622" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H622" s="1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A623" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C623" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D623" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G623" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H623" s="1">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A624" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D624" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F624" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G624" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H624" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A625" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D625" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F625" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G625" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H625" s="1">
+        <v>650.05999999999995</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A626" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D626" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F626" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G626" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H626" s="1">
+        <v>420.08</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A627" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D627" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F627" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G627" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H627" s="1">
+        <v>191.35</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A628" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C628" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D628" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G628" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H628" s="1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A629" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C629" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D629" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F629" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G629" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H629" s="1">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A630" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D630" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F630" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G630" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H630" s="1">
+        <v>191.35</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A631" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D631" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F631" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G631" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H631" s="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A632" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C632" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D632" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F632" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G632" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H632" s="1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A633" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C633" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D633" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F633" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G633" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H633" s="1">
+        <v>2777.8</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A634" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C634" s="1">
+        <v>11153067</v>
+      </c>
+      <c r="D634" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G634" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H634" s="1">
+        <v>968.7</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A635" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C635" s="1">
+        <v>11153068</v>
+      </c>
+      <c r="D635" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G635" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H635" s="1">
+        <v>968.7</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A636" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D636" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G636" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H636" s="1">
+        <v>359.6</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A637" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D637" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F637" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G637" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H637" s="1">
+        <v>6040.2</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A638" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D638" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F638" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G638" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H638" s="1">
+        <v>1020.33</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A639" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D639" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F639" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G639" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H639" s="1">
+        <v>1020.33</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A640" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D640" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G640" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H640" s="1">
+        <v>2657.2</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A641" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C641" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D641" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G641" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H641" s="1">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A642" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D642" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G642" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H642" s="1">
+        <v>45.94</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A643" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C643" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D643" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G643" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H643" s="1">
+        <v>2222.2399999999998</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A644" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C644" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D644" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G644" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H644" s="1">
+        <v>1666.68</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A645" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C645" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D645" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G645" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H645" s="1">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A646" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C646" s="1">
+        <v>11155949</v>
+      </c>
+      <c r="D646" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F646" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G646" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H646" s="1">
+        <v>2167.11</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A647" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C647" s="1">
+        <v>11155949</v>
+      </c>
+      <c r="D647" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F647" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G647" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H647" s="1">
+        <v>1444.74</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A648" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C648" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D648" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F648" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G648" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H648" s="1">
+        <v>555.55999999999995</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A649" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C649" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D649" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F649" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G649" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H649" s="1">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A650" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D650" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F650" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G650" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H650" s="1">
+        <v>975.09</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A651" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D651" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F651" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G651" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H651" s="1">
+        <v>630.12</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A652" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D652" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F652" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G652" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H652" s="1">
+        <v>191.35</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A653" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D653" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F653" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G653" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H653" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A654" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D654" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F654" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G654" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H654" s="1">
+        <v>207.12</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A655" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D655" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F655" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G655" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H655" s="1">
+        <v>331.6</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A656" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D656" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F656" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G656" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H656" s="1">
+        <v>96.73</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A657" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D657" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F657" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G657" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H657" s="1">
+        <v>220.49</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A658" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C658" s="1">
+        <v>11154683</v>
+      </c>
+      <c r="D658" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F658" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G658" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H658" s="1">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A659" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C659" s="1">
+        <v>11151250</v>
+      </c>
+      <c r="D659" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F659" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G659" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H659" s="1">
+        <v>2503.02</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A660" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D660" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F660" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G660" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H660" s="1">
+        <v>303.41000000000003</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A661" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C661" s="1">
+        <v>11156536</v>
+      </c>
+      <c r="D661" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F661" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G661" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H661" s="1">
+        <v>136.56</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A662" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C662" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D662" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F662" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G662" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H662" s="1">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A663" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C663" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D663" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F663" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G663" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H663" s="1">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A664" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C664" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D664" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F664" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G664" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H664" s="1">
+        <v>2222.2399999999998</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A665" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D665" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F665" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G665" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H665" s="1">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H491" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
+  <autoFilter ref="A1:H665" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A8ACDC3-C3DD-4C1C-814D-9FAAF9A6C513}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36D6C0B2-89CC-4F7D-82EA-D80F1B7A9991}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$665</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$721</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3918" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4242" uniqueCount="451">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -1254,6 +1254,144 @@
   </si>
   <si>
     <t>Wk40</t>
+  </si>
+  <si>
+    <t>Xiaomi Mijia Electric Grinding Pen</t>
+  </si>
+  <si>
+    <t>06/10/2025</t>
+  </si>
+  <si>
+    <t>O'Ring t=0.5 x I.D=3mm</t>
+  </si>
+  <si>
+    <t>Sand Paper (3 Type Total:10pcs)</t>
+  </si>
+  <si>
+    <t>Tolsen LED Telescopic Inspection Mirror 66006</t>
+  </si>
+  <si>
+    <t>Super XHP120 LED Flashling</t>
+  </si>
+  <si>
+    <t>OMRON G9SE-401 (24VDC) power supply</t>
+  </si>
+  <si>
+    <t>HX 2067 HPN CRC CO CONTACT CLEANER X2637</t>
+  </si>
+  <si>
+    <t>PTS-1138 6K-9090-HS01  Vacuum Adaptor X2637</t>
+  </si>
+  <si>
+    <t>PTS-1150 300-01698-010 Semiconductor X2544</t>
+  </si>
+  <si>
+    <t>XS-MISC-0021</t>
+  </si>
+  <si>
+    <t>HX 0477 HPN BLACK NYLON CABLE TIE 150MM</t>
+  </si>
+  <si>
+    <t>XS-MISC-0022</t>
+  </si>
+  <si>
+    <t>HX 0541 HPN BLACK NYLON CABLE TIE 100MM</t>
+  </si>
+  <si>
+    <t>XS-MISC-0051</t>
+  </si>
+  <si>
+    <t>Heat Shrinkable Tube Inside Diameter 2mm</t>
+  </si>
+  <si>
+    <t>2pack</t>
+  </si>
+  <si>
+    <t>XS-MISC-0020</t>
+  </si>
+  <si>
+    <t>HX 0543 HPN BLACK NYLON CABLE TIE 300MM</t>
+  </si>
+  <si>
+    <t>50901.004 PENTAMASTER INSTRUMENTATION X1893</t>
+  </si>
+  <si>
+    <t>PTS-1140 6K-9090-HS02 HPS LF Aligner X2637</t>
+  </si>
+  <si>
+    <t>PTS-1069 TW.50.15.FI.0S.150.00 X2637</t>
+  </si>
+  <si>
+    <t>GP-762A35A-SOCKET GRD POGO PIN</t>
+  </si>
+  <si>
+    <t>Elbow Control Valve Tubing 4mm Male Thread M5</t>
+  </si>
+  <si>
+    <t>07/10/2025</t>
+  </si>
+  <si>
+    <t>Silicon Tubing 0402 (Per pack 20 Meter)</t>
+  </si>
+  <si>
+    <t>PTS-1146 70902.631 ALIGNER &amp; NEST X2544</t>
+  </si>
+  <si>
+    <t>1200pcs</t>
+  </si>
+  <si>
+    <t>08/10/2025</t>
+  </si>
+  <si>
+    <t>XS-PTS-0387</t>
+  </si>
+  <si>
+    <t>HX 2067 HPN CRC CO CONTACT CLEANER X1893</t>
+  </si>
+  <si>
+    <t>XS-PTS-0500</t>
+  </si>
+  <si>
+    <t>ZB1-VPN3-C4-A V PORT ASSY</t>
+  </si>
+  <si>
+    <t>XS-PTS-0838</t>
+  </si>
+  <si>
+    <t>70192.334 RUBBER TIP X1893</t>
+  </si>
+  <si>
+    <t>XS-PTS-0647</t>
+  </si>
+  <si>
+    <t>70192.334 Vacuum Cup X1893</t>
+  </si>
+  <si>
+    <t>70192.261 VACUUM PAD (For Empty Tray) X1893</t>
+  </si>
+  <si>
+    <t>80pcs</t>
+  </si>
+  <si>
+    <t>09/10/2025</t>
+  </si>
+  <si>
+    <t>70192.461 RUBBER TIP_LENS (BLACK) X1893</t>
+  </si>
+  <si>
+    <t>TW.50.15.FI.0R.061.00 STT B ADAPTOR X1893</t>
+  </si>
+  <si>
+    <t>70192.496 RUBBER TIP DARK LEAKAGE X1893</t>
+  </si>
+  <si>
+    <t>70900.108 Test Socket Pogo Pin X1893</t>
+  </si>
+  <si>
+    <t>X1767 800.404.C3 2nd PG BLOCK 8 STAGE(S) X1767</t>
+  </si>
+  <si>
+    <t>Wk41</t>
   </si>
 </sst>
 </file>
@@ -1327,6 +1465,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1646,10 +1788,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:J665"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D691" sqref="D691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1691,7 +1834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>185</v>
       </c>
@@ -1717,7 +1860,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>185</v>
       </c>
@@ -1743,7 +1886,7 @@
         <v>4444.4799999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>185</v>
       </c>
@@ -1769,7 +1912,7 @@
         <v>78.62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>185</v>
       </c>
@@ -1795,7 +1938,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>185</v>
       </c>
@@ -1821,7 +1964,7 @@
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>185</v>
       </c>
@@ -1847,7 +1990,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>185</v>
       </c>
@@ -1873,7 +2016,7 @@
         <v>65.959999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>185</v>
       </c>
@@ -1899,7 +2042,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>185</v>
       </c>
@@ -1925,7 +2068,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>185</v>
       </c>
@@ -1951,7 +2094,7 @@
         <v>29.46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>185</v>
       </c>
@@ -1977,7 +2120,7 @@
         <v>513.29999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
@@ -2003,7 +2146,7 @@
         <v>119.16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
@@ -2029,7 +2172,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>94</v>
       </c>
@@ -2055,7 +2198,7 @@
         <v>71.92</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
@@ -2081,7 +2224,7 @@
         <v>1311.72</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>94</v>
       </c>
@@ -2107,7 +2250,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
@@ -2133,7 +2276,7 @@
         <v>1983.2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
@@ -2159,7 +2302,7 @@
         <v>135.30000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>94</v>
       </c>
@@ -2185,7 +2328,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -2211,7 +2354,7 @@
         <v>760.24</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
@@ -2549,7 +2692,7 @@
         <v>172.66</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
@@ -2575,7 +2718,7 @@
         <v>769.95</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -2601,7 +2744,7 @@
         <v>1539.9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>94</v>
       </c>
@@ -2627,7 +2770,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>94</v>
       </c>
@@ -2653,7 +2796,7 @@
         <v>8548.4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>94</v>
       </c>
@@ -2679,7 +2822,7 @@
         <v>13348.4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>94</v>
       </c>
@@ -2705,7 +2848,7 @@
         <v>1827.2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>94</v>
       </c>
@@ -2731,7 +2874,7 @@
         <v>1489.57</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -2757,7 +2900,7 @@
         <v>4836</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
@@ -2835,7 +2978,7 @@
         <v>145.19</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
@@ -2861,7 +3004,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
@@ -2887,7 +3030,7 @@
         <v>1075.28</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -2913,7 +3056,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
@@ -2939,7 +3082,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>120</v>
       </c>
@@ -2965,7 +3108,7 @@
         <v>74.87</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>120</v>
       </c>
@@ -2991,7 +3134,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>120</v>
       </c>
@@ -3017,7 +3160,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>120</v>
       </c>
@@ -3043,7 +3186,7 @@
         <v>13.53</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>120</v>
       </c>
@@ -3069,7 +3212,7 @@
         <v>257.2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -3095,7 +3238,7 @@
         <v>214.3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>120</v>
       </c>
@@ -3121,7 +3264,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
@@ -3147,7 +3290,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>120</v>
       </c>
@@ -3173,7 +3316,7 @@
         <v>91.88</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
@@ -3199,7 +3342,7 @@
         <v>621.36</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>120</v>
       </c>
@@ -3225,7 +3368,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -3251,7 +3394,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
@@ -3277,7 +3420,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>120</v>
       </c>
@@ -3303,7 +3446,7 @@
         <v>210.07</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>120</v>
       </c>
@@ -3329,7 +3472,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>120</v>
       </c>
@@ -3355,7 +3498,7 @@
         <v>406.2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>120</v>
       </c>
@@ -3381,7 +3524,7 @@
         <v>9672</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>120</v>
       </c>
@@ -3407,7 +3550,7 @@
         <v>263.76</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>120</v>
       </c>
@@ -3433,7 +3576,7 @@
         <v>319.26</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>120</v>
       </c>
@@ -3459,7 +3602,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>120</v>
       </c>
@@ -3485,7 +3628,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>120</v>
       </c>
@@ -3511,7 +3654,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>120</v>
       </c>
@@ -3537,7 +3680,7 @@
         <v>210.07</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>120</v>
       </c>
@@ -3563,7 +3706,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>120</v>
       </c>
@@ -3589,7 +3732,7 @@
         <v>362.88</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
@@ -3616,7 +3759,7 @@
       </c>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>133</v>
       </c>
@@ -3642,7 +3785,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>133</v>
       </c>
@@ -3668,7 +3811,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>133</v>
       </c>
@@ -3694,7 +3837,7 @@
         <v>2777.8</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>133</v>
       </c>
@@ -3720,7 +3863,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>133</v>
       </c>
@@ -3746,7 +3889,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>133</v>
       </c>
@@ -3798,7 +3941,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>133</v>
       </c>
@@ -3824,7 +3967,7 @@
         <v>283.72000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>133</v>
       </c>
@@ -3850,7 +3993,7 @@
         <v>210.6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>133</v>
       </c>
@@ -3876,7 +4019,7 @@
         <v>161.28</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>133</v>
       </c>
@@ -3902,7 +4045,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>133</v>
       </c>
@@ -4006,7 +4149,7 @@
         <v>327.35000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>133</v>
       </c>
@@ -4032,7 +4175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>133</v>
       </c>
@@ -4058,7 +4201,7 @@
         <v>631.79999999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>133</v>
       </c>
@@ -4084,7 +4227,7 @@
         <v>282.24</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>133</v>
       </c>
@@ -4162,7 +4305,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>133</v>
       </c>
@@ -4188,7 +4331,7 @@
         <v>443.52</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>133</v>
       </c>
@@ -4214,7 +4357,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>133</v>
       </c>
@@ -4240,7 +4383,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>133</v>
       </c>
@@ -4266,7 +4409,7 @@
         <v>120.96</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>133</v>
       </c>
@@ -4344,7 +4487,7 @@
         <v>234.28</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>133</v>
       </c>
@@ -4370,7 +4513,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>133</v>
       </c>
@@ -4396,7 +4539,7 @@
         <v>406.2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>133</v>
       </c>
@@ -4422,7 +4565,7 @@
         <v>842.4</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>133</v>
       </c>
@@ -4448,7 +4591,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>133</v>
       </c>
@@ -4474,7 +4617,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>158</v>
       </c>
@@ -4500,7 +4643,7 @@
         <v>51.86</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>158</v>
       </c>
@@ -4526,7 +4669,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>158</v>
       </c>
@@ -4552,7 +4695,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>158</v>
       </c>
@@ -4578,7 +4721,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>158</v>
       </c>
@@ -4604,7 +4747,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>158</v>
       </c>
@@ -4630,7 +4773,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>158</v>
       </c>
@@ -4656,7 +4799,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>158</v>
       </c>
@@ -4682,7 +4825,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>158</v>
       </c>
@@ -4708,7 +4851,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>158</v>
       </c>
@@ -4734,7 +4877,7 @@
         <v>420.14</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>158</v>
       </c>
@@ -4760,7 +4903,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>158</v>
       </c>
@@ -4786,7 +4929,7 @@
         <v>68.91</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>158</v>
       </c>
@@ -4812,7 +4955,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>158</v>
       </c>
@@ -4838,7 +4981,7 @@
         <v>362.88</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>158</v>
       </c>
@@ -4864,7 +5007,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>158</v>
       </c>
@@ -4890,7 +5033,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>158</v>
       </c>
@@ -4916,7 +5059,7 @@
         <v>1251.51</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>158</v>
       </c>
@@ -4942,7 +5085,7 @@
         <v>207.12</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>158</v>
       </c>
@@ -4968,7 +5111,7 @@
         <v>220.49</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>158</v>
       </c>
@@ -4994,7 +5137,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>158</v>
       </c>
@@ -5020,7 +5163,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>158</v>
       </c>
@@ -5046,7 +5189,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>158</v>
       </c>
@@ -5072,7 +5215,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>158</v>
       </c>
@@ -5098,7 +5241,7 @@
         <v>282.24</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>158</v>
       </c>
@@ -5124,7 +5267,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>158</v>
       </c>
@@ -5150,7 +5293,7 @@
         <v>304.08999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>158</v>
       </c>
@@ -5176,7 +5319,7 @@
         <v>2777.8</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>158</v>
       </c>
@@ -5202,7 +5345,7 @@
         <v>842.4</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>158</v>
       </c>
@@ -5228,7 +5371,7 @@
         <v>322.56</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>158</v>
       </c>
@@ -5254,7 +5397,7 @@
         <v>3018.87</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>158</v>
       </c>
@@ -5280,7 +5423,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>158</v>
       </c>
@@ -5306,7 +5449,7 @@
         <v>877.19</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>158</v>
       </c>
@@ -5332,7 +5475,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>158</v>
       </c>
@@ -5358,7 +5501,7 @@
         <v>161.28</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>158</v>
       </c>
@@ -5384,7 +5527,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>158</v>
       </c>
@@ -5410,7 +5553,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>158</v>
       </c>
@@ -5436,7 +5579,7 @@
         <v>3018.87</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
@@ -5462,7 +5605,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>158</v>
       </c>
@@ -5488,7 +5631,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>184</v>
       </c>
@@ -5514,7 +5657,7 @@
         <v>53.36</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>184</v>
       </c>
@@ -5540,7 +5683,7 @@
         <v>51.84</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>184</v>
       </c>
@@ -5566,7 +5709,7 @@
         <v>252.01</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>184</v>
       </c>
@@ -5592,7 +5735,7 @@
         <v>4945.2700000000004</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>184</v>
       </c>
@@ -5618,7 +5761,7 @@
         <v>189.47</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>184</v>
       </c>
@@ -5644,7 +5787,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>184</v>
       </c>
@@ -5670,7 +5813,7 @@
         <v>322.56</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>184</v>
       </c>
@@ -5696,7 +5839,7 @@
         <v>3333.36</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>184</v>
       </c>
@@ -5722,7 +5865,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>184</v>
       </c>
@@ -5774,7 +5917,7 @@
         <v>5055.03</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>184</v>
       </c>
@@ -5800,7 +5943,7 @@
         <v>161.28</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>184</v>
       </c>
@@ -5826,7 +5969,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>184</v>
       </c>
@@ -5852,7 +5995,7 @@
         <v>161.28</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>184</v>
       </c>
@@ -5878,7 +6021,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>184</v>
       </c>
@@ -5904,7 +6047,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>184</v>
       </c>
@@ -5930,7 +6073,7 @@
         <v>340.11</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>184</v>
       </c>
@@ -5956,7 +6099,7 @@
         <v>80.64</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>184</v>
       </c>
@@ -5982,7 +6125,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>184</v>
       </c>
@@ -6008,7 +6151,7 @@
         <v>440.98</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>184</v>
       </c>
@@ -6034,7 +6177,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>184</v>
       </c>
@@ -6060,7 +6203,7 @@
         <v>282.24</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>184</v>
       </c>
@@ -6086,7 +6229,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>184</v>
       </c>
@@ -6112,7 +6255,7 @@
         <v>210.6</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
@@ -6138,7 +6281,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>184</v>
       </c>
@@ -6164,7 +6307,7 @@
         <v>420.14</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>184</v>
       </c>
@@ -6190,7 +6333,7 @@
         <v>381.97</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>184</v>
       </c>
@@ -6216,7 +6359,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>184</v>
       </c>
@@ -6242,7 +6385,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>184</v>
       </c>
@@ -6268,7 +6411,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>184</v>
       </c>
@@ -6346,7 +6489,7 @@
         <v>8857.99</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
@@ -6372,7 +6515,7 @@
         <v>282.24</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
@@ -6398,7 +6541,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -6424,7 +6567,7 @@
         <v>1140.3599999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>184</v>
       </c>
@@ -6450,7 +6593,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
@@ -6476,7 +6619,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
@@ -6502,7 +6645,7 @@
         <v>221.76</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>184</v>
       </c>
@@ -6528,7 +6671,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>184</v>
       </c>
@@ -6554,7 +6697,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>184</v>
       </c>
@@ -6580,7 +6723,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>184</v>
       </c>
@@ -6606,7 +6749,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>186</v>
       </c>
@@ -6632,7 +6775,7 @@
         <v>221.76</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>186</v>
       </c>
@@ -6658,7 +6801,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>186</v>
       </c>
@@ -6684,7 +6827,7 @@
         <v>982.8</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>186</v>
       </c>
@@ -6710,7 +6853,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>186</v>
       </c>
@@ -6736,7 +6879,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>186</v>
       </c>
@@ -6788,7 +6931,7 @@
         <v>439.07</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>186</v>
       </c>
@@ -6814,7 +6957,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>186</v>
       </c>
@@ -6840,7 +6983,7 @@
         <v>2334.27</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>186</v>
       </c>
@@ -6866,7 +7009,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>186</v>
       </c>
@@ -6892,7 +7035,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>186</v>
       </c>
@@ -6944,7 +7087,7 @@
         <v>1617.86</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>186</v>
       </c>
@@ -6970,7 +7113,7 @@
         <v>378.94</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>186</v>
       </c>
@@ -6996,7 +7139,7 @@
         <v>106.42</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>186</v>
       </c>
@@ -7022,7 +7165,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>186</v>
       </c>
@@ -7048,7 +7191,7 @@
         <v>106.75</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>186</v>
       </c>
@@ -7074,7 +7217,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>186</v>
       </c>
@@ -7100,7 +7243,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>186</v>
       </c>
@@ -7126,7 +7269,7 @@
         <v>189.47</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>186</v>
       </c>
@@ -7152,7 +7295,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>186</v>
       </c>
@@ -7178,7 +7321,7 @@
         <v>1474.2</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>186</v>
       </c>
@@ -7204,7 +7347,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>186</v>
       </c>
@@ -7230,7 +7373,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>186</v>
       </c>
@@ -7256,7 +7399,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>186</v>
       </c>
@@ -7282,7 +7425,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>186</v>
       </c>
@@ -7308,7 +7451,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>186</v>
       </c>
@@ -7334,7 +7477,7 @@
         <v>162.71</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>186</v>
       </c>
@@ -7360,7 +7503,7 @@
         <v>68.91</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>186</v>
       </c>
@@ -7386,7 +7529,7 @@
         <v>364.95</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>186</v>
       </c>
@@ -7412,7 +7555,7 @@
         <v>114.85</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>186</v>
       </c>
@@ -7438,7 +7581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>186</v>
       </c>
@@ -7464,7 +7607,7 @@
         <v>1333.8</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>186</v>
       </c>
@@ -7490,7 +7633,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>186</v>
       </c>
@@ -7516,7 +7659,7 @@
         <v>772.2</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>186</v>
       </c>
@@ -7542,7 +7685,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>186</v>
       </c>
@@ -7568,7 +7711,7 @@
         <v>123.1</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>186</v>
       </c>
@@ -7594,7 +7737,7 @@
         <v>1895.4</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>240</v>
       </c>
@@ -7620,7 +7763,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>240</v>
       </c>
@@ -7646,7 +7789,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>240</v>
       </c>
@@ -7672,7 +7815,7 @@
         <v>1251.51</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>240</v>
       </c>
@@ -7698,7 +7841,7 @@
         <v>1684.8</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>240</v>
       </c>
@@ -7880,7 +8023,7 @@
         <v>172.57</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>240</v>
       </c>
@@ -7906,7 +8049,7 @@
         <v>388.24</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>240</v>
       </c>
@@ -7958,7 +8101,7 @@
         <v>34.21</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>240</v>
       </c>
@@ -7984,7 +8127,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>240</v>
       </c>
@@ -8010,7 +8153,7 @@
         <v>1913.44</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>240</v>
       </c>
@@ -8036,7 +8179,7 @@
         <v>372.62</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>240</v>
       </c>
@@ -8062,7 +8205,7 @@
         <v>438.6</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>240</v>
       </c>
@@ -8088,7 +8231,7 @@
         <v>3888.92</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>240</v>
       </c>
@@ -8114,7 +8257,7 @@
         <v>1123.2</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>240</v>
       </c>
@@ -8140,7 +8283,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>240</v>
       </c>
@@ -8166,7 +8309,7 @@
         <v>331.6</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>240</v>
       </c>
@@ -8192,7 +8335,7 @@
         <v>381.97</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>240</v>
       </c>
@@ -8218,7 +8361,7 @@
         <v>982.8</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>240</v>
       </c>
@@ -8244,7 +8387,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>240</v>
       </c>
@@ -8270,7 +8413,7 @@
         <v>210.6</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>240</v>
       </c>
@@ -8296,7 +8439,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>240</v>
       </c>
@@ -8322,7 +8465,7 @@
         <v>210.6</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>240</v>
       </c>
@@ -8400,7 +8543,7 @@
         <v>12792</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>240</v>
       </c>
@@ -8426,7 +8569,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>240</v>
       </c>
@@ -8452,7 +8595,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>240</v>
       </c>
@@ -8478,7 +8621,7 @@
         <v>13.19</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>240</v>
       </c>
@@ -8504,7 +8647,7 @@
         <v>369.3</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>240</v>
       </c>
@@ -8530,7 +8673,7 @@
         <v>491.1</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>267</v>
       </c>
@@ -8556,7 +8699,7 @@
         <v>81.319999999999993</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>267</v>
       </c>
@@ -8582,7 +8725,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>267</v>
       </c>
@@ -8608,7 +8751,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>267</v>
       </c>
@@ -8634,7 +8777,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>267</v>
       </c>
@@ -8660,7 +8803,7 @@
         <v>772.2</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>267</v>
       </c>
@@ -8686,7 +8829,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>267</v>
       </c>
@@ -8712,7 +8855,7 @@
         <v>471.72</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>267</v>
       </c>
@@ -8738,7 +8881,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>267</v>
       </c>
@@ -8764,7 +8907,7 @@
         <v>947.7</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>267</v>
       </c>
@@ -8790,7 +8933,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>267</v>
       </c>
@@ -8816,7 +8959,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>267</v>
       </c>
@@ -8842,7 +8985,7 @@
         <v>1155.8699999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>267</v>
       </c>
@@ -8868,7 +9011,7 @@
         <v>680.22</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>267</v>
       </c>
@@ -8894,7 +9037,7 @@
         <v>947.7</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>267</v>
       </c>
@@ -8920,7 +9063,7 @@
         <v>812.4</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>267</v>
       </c>
@@ -8946,7 +9089,7 @@
         <v>383.04</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>267</v>
       </c>
@@ -8972,7 +9115,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>267</v>
       </c>
@@ -8998,7 +9141,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>267</v>
       </c>
@@ -9024,7 +9167,7 @@
         <v>1754.38</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>267</v>
       </c>
@@ -9050,7 +9193,7 @@
         <v>2301.8000000000002</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>267</v>
       </c>
@@ -9076,7 +9219,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>267</v>
       </c>
@@ -9102,7 +9245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>267</v>
       </c>
@@ -9128,7 +9271,7 @@
         <v>18.18</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>267</v>
       </c>
@@ -9154,7 +9297,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>267</v>
       </c>
@@ -9180,7 +9323,7 @@
         <v>26.68</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>267</v>
       </c>
@@ -9206,7 +9349,7 @@
         <v>949.7</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>267</v>
       </c>
@@ -9232,7 +9375,7 @@
         <v>491.4</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>267</v>
       </c>
@@ -9258,7 +9401,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>267</v>
       </c>
@@ -9284,7 +9427,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>267</v>
       </c>
@@ -9310,7 +9453,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>267</v>
       </c>
@@ -9336,7 +9479,7 @@
         <v>650.05999999999995</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>267</v>
       </c>
@@ -9362,7 +9505,7 @@
         <v>382.69</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>267</v>
       </c>
@@ -9388,7 +9531,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>267</v>
       </c>
@@ -9414,7 +9557,7 @@
         <v>9890.5300000000007</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>267</v>
       </c>
@@ -9440,7 +9583,7 @@
         <v>425.68</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>267</v>
       </c>
@@ -9466,7 +9609,7 @@
         <v>263.76</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>267</v>
       </c>
@@ -9492,7 +9635,7 @@
         <v>491.4</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>267</v>
       </c>
@@ -9518,7 +9661,7 @@
         <v>326.86</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>267</v>
       </c>
@@ -9544,7 +9687,7 @@
         <v>217.55</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>267</v>
       </c>
@@ -9570,7 +9713,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>267</v>
       </c>
@@ -9596,7 +9739,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>267</v>
       </c>
@@ -9622,7 +9765,7 @@
         <v>912.6</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>267</v>
       </c>
@@ -9648,7 +9791,7 @@
         <v>78.62</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>267</v>
       </c>
@@ -9674,7 +9817,7 @@
         <v>123.1</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>267</v>
       </c>
@@ -9700,7 +9843,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>267</v>
       </c>
@@ -9726,7 +9869,7 @@
         <v>1155.8699999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>267</v>
       </c>
@@ -9752,7 +9895,7 @@
         <v>38.53</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>267</v>
       </c>
@@ -9778,7 +9921,7 @@
         <v>1079.4000000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>267</v>
       </c>
@@ -9804,7 +9947,7 @@
         <v>877.5</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>267</v>
       </c>
@@ -9830,7 +9973,7 @@
         <v>380.12</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>267</v>
       </c>
@@ -9856,7 +9999,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>267</v>
       </c>
@@ -9882,7 +10025,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>267</v>
       </c>
@@ -9908,7 +10051,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>267</v>
       </c>
@@ -9934,7 +10077,7 @@
         <v>80.64</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>301</v>
       </c>
@@ -9960,7 +10103,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>301</v>
       </c>
@@ -9986,7 +10129,7 @@
         <v>1368.9</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>301</v>
       </c>
@@ -10012,7 +10155,7 @@
         <v>362.88</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>301</v>
       </c>
@@ -10038,7 +10181,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>301</v>
       </c>
@@ -10064,7 +10207,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>301</v>
       </c>
@@ -10090,7 +10233,7 @@
         <v>204.68</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>301</v>
       </c>
@@ -10116,7 +10259,7 @@
         <v>3611.85</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>301</v>
       </c>
@@ -10142,7 +10285,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>301</v>
       </c>
@@ -10168,7 +10311,7 @@
         <v>388.24</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>301</v>
       </c>
@@ -10194,7 +10337,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>301</v>
       </c>
@@ -10220,7 +10363,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>301</v>
       </c>
@@ -10246,7 +10389,7 @@
         <v>572.96</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>301</v>
       </c>
@@ -10272,7 +10415,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>301</v>
       </c>
@@ -10298,7 +10441,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>301</v>
       </c>
@@ -10324,7 +10467,7 @@
         <v>1155.8699999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>301</v>
       </c>
@@ -10350,7 +10493,7 @@
         <v>68.91</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>301</v>
       </c>
@@ -10376,7 +10519,7 @@
         <v>3100.4</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>301</v>
       </c>
@@ -10402,7 +10545,7 @@
         <v>2311.7399999999998</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>301</v>
       </c>
@@ -10428,7 +10571,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>301</v>
       </c>
@@ -10454,7 +10597,7 @@
         <v>409.36</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>301</v>
       </c>
@@ -10480,7 +10623,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>301</v>
       </c>
@@ -10506,7 +10649,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>301</v>
       </c>
@@ -10532,7 +10675,7 @@
         <v>3467.61</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>301</v>
       </c>
@@ -10662,7 +10805,7 @@
         <v>40.54</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>301</v>
       </c>
@@ -10688,7 +10831,7 @@
         <v>388.24</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>301</v>
       </c>
@@ -10714,7 +10857,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>301</v>
       </c>
@@ -10896,7 +11039,7 @@
         <v>8780.24</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>301</v>
       </c>
@@ -10922,7 +11065,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>301</v>
       </c>
@@ -10948,7 +11091,7 @@
         <v>491.4</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>301</v>
       </c>
@@ -10974,7 +11117,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>301</v>
       </c>
@@ -11000,7 +11143,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>301</v>
       </c>
@@ -11026,7 +11169,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>301</v>
       </c>
@@ -11052,7 +11195,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>301</v>
       </c>
@@ -11078,7 +11221,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>301</v>
       </c>
@@ -11104,7 +11247,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>301</v>
       </c>
@@ -11130,7 +11273,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>301</v>
       </c>
@@ -11156,7 +11299,7 @@
         <v>395.64</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>301</v>
       </c>
@@ -11182,7 +11325,7 @@
         <v>379.02</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>301</v>
       </c>
@@ -11208,7 +11351,7 @@
         <v>255.74</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>301</v>
       </c>
@@ -11234,7 +11377,7 @@
         <v>18.739999999999998</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>301</v>
       </c>
@@ -11260,7 +11403,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>301</v>
       </c>
@@ -11286,7 +11429,7 @@
         <v>437.24</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>301</v>
       </c>
@@ -11312,7 +11455,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>301</v>
       </c>
@@ -11338,7 +11481,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>301</v>
       </c>
@@ -11364,7 +11507,7 @@
         <v>190.99</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>301</v>
       </c>
@@ -11390,7 +11533,7 @@
         <v>210.6</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>301</v>
       </c>
@@ -11416,7 +11559,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>301</v>
       </c>
@@ -11442,7 +11585,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>301</v>
       </c>
@@ -11468,7 +11611,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>301</v>
       </c>
@@ -11494,7 +11637,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>301</v>
       </c>
@@ -11520,7 +11663,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>301</v>
       </c>
@@ -11546,7 +11689,7 @@
         <v>1446.8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>301</v>
       </c>
@@ -11572,7 +11715,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>301</v>
       </c>
@@ -11598,7 +11741,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>319</v>
       </c>
@@ -11624,7 +11767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>319</v>
       </c>
@@ -11650,7 +11793,7 @@
         <v>388.24</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>319</v>
       </c>
@@ -11676,7 +11819,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>319</v>
       </c>
@@ -11702,7 +11845,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>319</v>
       </c>
@@ -11728,7 +11871,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>319</v>
       </c>
@@ -11754,7 +11897,7 @@
         <v>2167.11</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>319</v>
       </c>
@@ -11780,7 +11923,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>319</v>
       </c>
@@ -11806,7 +11949,7 @@
         <v>78.62</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>319</v>
       </c>
@@ -11832,7 +11975,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>319</v>
       </c>
@@ -11858,7 +12001,7 @@
         <v>2777.8</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>319</v>
       </c>
@@ -11884,7 +12027,7 @@
         <v>4444.4799999999996</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>319</v>
       </c>
@@ -11910,7 +12053,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>319</v>
       </c>
@@ -11936,7 +12079,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>319</v>
       </c>
@@ -11962,7 +12105,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>319</v>
       </c>
@@ -11988,7 +12131,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>319</v>
       </c>
@@ -12014,7 +12157,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>319</v>
       </c>
@@ -12040,7 +12183,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>319</v>
       </c>
@@ -12066,7 +12209,7 @@
         <v>106.75</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>319</v>
       </c>
@@ -12092,7 +12235,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>319</v>
       </c>
@@ -12118,7 +12261,7 @@
         <v>1509.3</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>319</v>
       </c>
@@ -12144,7 +12287,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>319</v>
       </c>
@@ -12170,7 +12313,7 @@
         <v>381.97</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>319</v>
       </c>
@@ -12196,7 +12339,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>319</v>
       </c>
@@ -12222,7 +12365,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
         <v>319</v>
       </c>
@@ -12248,7 +12391,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
         <v>319</v>
       </c>
@@ -12274,7 +12417,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
         <v>319</v>
       </c>
@@ -12300,7 +12443,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>319</v>
       </c>
@@ -12326,7 +12469,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>319</v>
       </c>
@@ -12352,7 +12495,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>319</v>
       </c>
@@ -12378,7 +12521,7 @@
         <v>1155.8699999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>319</v>
       </c>
@@ -12404,7 +12547,7 @@
         <v>752.32</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>319</v>
       </c>
@@ -12430,7 +12573,7 @@
         <v>388.24</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>319</v>
       </c>
@@ -12560,7 +12703,7 @@
         <v>737.57</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>319</v>
       </c>
@@ -12586,7 +12729,7 @@
         <v>2167.11</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>319</v>
       </c>
@@ -12638,7 +12781,7 @@
         <v>43.32</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
         <v>319</v>
       </c>
@@ -12664,7 +12807,7 @@
         <v>420.08</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
         <v>319</v>
       </c>
@@ -12690,7 +12833,7 @@
         <v>650.05999999999995</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>319</v>
       </c>
@@ -12716,7 +12859,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
         <v>319</v>
       </c>
@@ -12742,7 +12885,7 @@
         <v>4623.4799999999996</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
         <v>319</v>
       </c>
@@ -12768,7 +12911,7 @@
         <v>1788.3</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
         <v>319</v>
       </c>
@@ -12794,7 +12937,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
         <v>319</v>
       </c>
@@ -12820,7 +12963,7 @@
         <v>631.79999999999995</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
         <v>319</v>
       </c>
@@ -12846,7 +12989,7 @@
         <v>4945.2700000000004</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
         <v>319</v>
       </c>
@@ -12872,7 +13015,7 @@
         <v>2167.11</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
         <v>339</v>
       </c>
@@ -12898,7 +13041,7 @@
         <v>982.8</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
         <v>339</v>
       </c>
@@ -12924,7 +13067,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
         <v>339</v>
       </c>
@@ -12950,7 +13093,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
         <v>339</v>
       </c>
@@ -12976,7 +13119,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
         <v>339</v>
       </c>
@@ -13002,7 +13145,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
         <v>339</v>
       </c>
@@ -13028,7 +13171,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>339</v>
       </c>
@@ -13054,7 +13197,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>339</v>
       </c>
@@ -13080,7 +13223,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>339</v>
       </c>
@@ -13106,7 +13249,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
         <v>339</v>
       </c>
@@ -13132,7 +13275,7 @@
         <v>51.86</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
         <v>339</v>
       </c>
@@ -13158,7 +13301,7 @@
         <v>53.36</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>339</v>
       </c>
@@ -13184,7 +13327,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>339</v>
       </c>
@@ -13210,7 +13353,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
         <v>339</v>
       </c>
@@ -13236,7 +13379,7 @@
         <v>1155.8699999999999</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>339</v>
       </c>
@@ -13262,7 +13405,7 @@
         <v>1788.3</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>339</v>
       </c>
@@ -13288,7 +13431,7 @@
         <v>382.7</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>339</v>
       </c>
@@ -13314,7 +13457,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
         <v>339</v>
       </c>
@@ -13340,7 +13483,7 @@
         <v>650.05999999999995</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>339</v>
       </c>
@@ -13366,7 +13509,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>339</v>
       </c>
@@ -13392,7 +13535,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
         <v>339</v>
       </c>
@@ -13418,7 +13561,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>339</v>
       </c>
@@ -13444,7 +13587,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
         <v>339</v>
       </c>
@@ -13470,7 +13613,7 @@
         <v>194.12</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>339</v>
       </c>
@@ -13496,7 +13639,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
         <v>339</v>
       </c>
@@ -13522,7 +13665,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
         <v>339</v>
       </c>
@@ -13548,7 +13691,7 @@
         <v>1123.2</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
         <v>339</v>
       </c>
@@ -13574,7 +13717,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
         <v>339</v>
       </c>
@@ -13600,7 +13743,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
         <v>339</v>
       </c>
@@ -13626,7 +13769,7 @@
         <v>840.16</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>339</v>
       </c>
@@ -13652,7 +13795,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>339</v>
       </c>
@@ -13678,7 +13821,7 @@
         <v>763.94</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>339</v>
       </c>
@@ -13730,7 +13873,7 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>339</v>
       </c>
@@ -13756,7 +13899,7 @@
         <v>630.12</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
         <v>339</v>
       </c>
@@ -13990,7 +14133,7 @@
         <v>90.45</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
         <v>339</v>
       </c>
@@ -14016,7 +14159,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
         <v>339</v>
       </c>
@@ -14042,7 +14185,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
         <v>339</v>
       </c>
@@ -14068,7 +14211,7 @@
         <v>604.79999999999995</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
         <v>339</v>
       </c>
@@ -14094,7 +14237,7 @@
         <v>91.88</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
         <v>339</v>
       </c>
@@ -14120,7 +14263,7 @@
         <v>604.79999999999995</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
         <v>339</v>
       </c>
@@ -14146,7 +14289,7 @@
         <v>386.1</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
         <v>339</v>
       </c>
@@ -14172,7 +14315,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
         <v>339</v>
       </c>
@@ -14198,7 +14341,7 @@
         <v>228.94</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
         <v>339</v>
       </c>
@@ -14224,7 +14367,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
         <v>339</v>
       </c>
@@ -14250,7 +14393,7 @@
         <v>2280.7199999999998</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
         <v>339</v>
       </c>
@@ -14276,7 +14419,7 @@
         <v>2311.7399999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
         <v>339</v>
       </c>
@@ -14302,7 +14445,7 @@
         <v>3576.6</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
         <v>339</v>
       </c>
@@ -14328,7 +14471,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
         <v>339</v>
       </c>
@@ -14354,7 +14497,7 @@
         <v>4945.2700000000004</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
         <v>339</v>
       </c>
@@ -14380,7 +14523,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" s="1" t="s">
         <v>339</v>
       </c>
@@ -14406,7 +14549,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
         <v>339</v>
       </c>
@@ -14432,7 +14575,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
         <v>369</v>
       </c>
@@ -14458,7 +14601,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" s="1" t="s">
         <v>369</v>
       </c>
@@ -14484,7 +14627,7 @@
         <v>228.94</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
         <v>369</v>
       </c>
@@ -14510,7 +14653,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
         <v>369</v>
       </c>
@@ -14536,7 +14679,7 @@
         <v>604.79999999999995</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" s="1" t="s">
         <v>369</v>
       </c>
@@ -14562,7 +14705,7 @@
         <v>2280.7199999999998</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
         <v>369</v>
       </c>
@@ -14588,7 +14731,7 @@
         <v>2311.7399999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
         <v>369</v>
       </c>
@@ -14614,7 +14757,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
         <v>369</v>
       </c>
@@ -14640,7 +14783,7 @@
         <v>3576.6</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
         <v>369</v>
       </c>
@@ -14666,7 +14809,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
         <v>369</v>
       </c>
@@ -14692,7 +14835,7 @@
         <v>4945.2700000000004</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
         <v>369</v>
       </c>
@@ -14718,7 +14861,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" s="1" t="s">
         <v>369</v>
       </c>
@@ -14744,7 +14887,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" s="1" t="s">
         <v>369</v>
       </c>
@@ -14770,7 +14913,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" s="1" t="s">
         <v>369</v>
       </c>
@@ -14874,7 +15017,7 @@
         <v>42.23</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" s="1" t="s">
         <v>369</v>
       </c>
@@ -14926,7 +15069,7 @@
         <v>87.6</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
         <v>369</v>
       </c>
@@ -14952,7 +15095,7 @@
         <v>381.97</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
         <v>369</v>
       </c>
@@ -14978,7 +15121,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" s="1" t="s">
         <v>369</v>
       </c>
@@ -15004,7 +15147,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
         <v>369</v>
       </c>
@@ -15030,7 +15173,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
         <v>369</v>
       </c>
@@ -15056,7 +15199,7 @@
         <v>435.1</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" s="1" t="s">
         <v>369</v>
       </c>
@@ -15082,7 +15225,7 @@
         <v>34.36</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" s="1" t="s">
         <v>369</v>
       </c>
@@ -15108,7 +15251,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" s="1" t="s">
         <v>369</v>
       </c>
@@ -15134,7 +15277,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" s="1" t="s">
         <v>369</v>
       </c>
@@ -15160,7 +15303,7 @@
         <v>9890.5300000000007</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" s="1" t="s">
         <v>369</v>
       </c>
@@ -15186,7 +15329,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" s="1" t="s">
         <v>369</v>
       </c>
@@ -15212,7 +15355,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" s="1" t="s">
         <v>369</v>
       </c>
@@ -15238,7 +15381,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" s="1" t="s">
         <v>369</v>
       </c>
@@ -15264,7 +15407,7 @@
         <v>913.6</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" s="1" t="s">
         <v>369</v>
       </c>
@@ -15290,7 +15433,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" s="1" t="s">
         <v>369</v>
       </c>
@@ -15316,7 +15459,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" s="1" t="s">
         <v>369</v>
       </c>
@@ -15342,7 +15485,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" s="1" t="s">
         <v>369</v>
       </c>
@@ -15368,7 +15511,7 @@
         <v>91.88</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" s="1" t="s">
         <v>369</v>
       </c>
@@ -15394,7 +15537,7 @@
         <v>1788.3</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" s="1" t="s">
         <v>369</v>
       </c>
@@ -15420,7 +15563,7 @@
         <v>2311.7399999999998</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" s="1" t="s">
         <v>369</v>
       </c>
@@ -15446,7 +15589,7 @@
         <v>437.24</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" s="1" t="s">
         <v>369</v>
       </c>
@@ -15472,7 +15615,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" s="1" t="s">
         <v>369</v>
       </c>
@@ -15498,7 +15641,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" s="1" t="s">
         <v>369</v>
       </c>
@@ -15524,7 +15667,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" s="1" t="s">
         <v>369</v>
       </c>
@@ -15550,7 +15693,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" s="1" t="s">
         <v>369</v>
       </c>
@@ -15576,7 +15719,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" s="1" t="s">
         <v>369</v>
       </c>
@@ -15602,7 +15745,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" s="1" t="s">
         <v>369</v>
       </c>
@@ -15628,7 +15771,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" s="1" t="s">
         <v>369</v>
       </c>
@@ -15654,7 +15797,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" s="1" t="s">
         <v>369</v>
       </c>
@@ -15680,7 +15823,7 @@
         <v>91.88</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" s="1" t="s">
         <v>369</v>
       </c>
@@ -15706,7 +15849,7 @@
         <v>22.19</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" s="1" t="s">
         <v>369</v>
       </c>
@@ -15732,7 +15875,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" s="1" t="s">
         <v>369</v>
       </c>
@@ -15758,7 +15901,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" s="1" t="s">
         <v>369</v>
       </c>
@@ -15784,7 +15927,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" s="1" t="s">
         <v>369</v>
       </c>
@@ -15810,7 +15953,7 @@
         <v>77.790000000000006</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" s="1" t="s">
         <v>369</v>
       </c>
@@ -15836,7 +15979,7 @@
         <v>116.1</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" s="1" t="s">
         <v>369</v>
       </c>
@@ -15862,7 +16005,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" s="1" t="s">
         <v>369</v>
       </c>
@@ -15888,7 +16031,7 @@
         <v>503.35</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" s="1" t="s">
         <v>369</v>
       </c>
@@ -15914,7 +16057,7 @@
         <v>332.15</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" s="1" t="s">
         <v>369</v>
       </c>
@@ -15940,7 +16083,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" s="1" t="s">
         <v>369</v>
       </c>
@@ -15966,7 +16109,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" s="1" t="s">
         <v>378</v>
       </c>
@@ -15992,7 +16135,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" s="1" t="s">
         <v>378</v>
       </c>
@@ -16018,7 +16161,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" s="1" t="s">
         <v>378</v>
       </c>
@@ -16044,7 +16187,7 @@
         <v>78.62</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" s="1" t="s">
         <v>378</v>
       </c>
@@ -16070,7 +16213,7 @@
         <v>106.75</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" s="1" t="s">
         <v>378</v>
       </c>
@@ -16096,7 +16239,7 @@
         <v>1827.2</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" s="1" t="s">
         <v>378</v>
       </c>
@@ -16122,7 +16265,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" s="1" t="s">
         <v>378</v>
       </c>
@@ -16148,7 +16291,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" s="1" t="s">
         <v>378</v>
       </c>
@@ -16174,7 +16317,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" s="1" t="s">
         <v>378</v>
       </c>
@@ -16200,7 +16343,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" s="1" t="s">
         <v>378</v>
       </c>
@@ -16226,7 +16369,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" s="1" t="s">
         <v>378</v>
       </c>
@@ -16252,7 +16395,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" s="1" t="s">
         <v>378</v>
       </c>
@@ -16278,7 +16421,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" s="1" t="s">
         <v>378</v>
       </c>
@@ -16304,7 +16447,7 @@
         <v>4945.2700000000004</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" s="1" t="s">
         <v>378</v>
       </c>
@@ -16330,7 +16473,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" s="1" t="s">
         <v>378</v>
       </c>
@@ -16356,7 +16499,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" s="1" t="s">
         <v>378</v>
       </c>
@@ -16382,7 +16525,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" s="1" t="s">
         <v>378</v>
       </c>
@@ -16408,7 +16551,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" s="1" t="s">
         <v>378</v>
       </c>
@@ -16434,7 +16577,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" s="1" t="s">
         <v>378</v>
       </c>
@@ -16460,7 +16603,7 @@
         <v>612.95000000000005</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" s="1" t="s">
         <v>378</v>
       </c>
@@ -16486,7 +16629,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" s="1" t="s">
         <v>378</v>
       </c>
@@ -16512,7 +16655,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" s="1" t="s">
         <v>378</v>
       </c>
@@ -16538,7 +16681,7 @@
         <v>91.88</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" s="1" t="s">
         <v>378</v>
       </c>
@@ -16564,7 +16707,7 @@
         <v>3611.85</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" s="1" t="s">
         <v>378</v>
       </c>
@@ -16590,7 +16733,7 @@
         <v>45.94</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" s="1" t="s">
         <v>378</v>
       </c>
@@ -16616,7 +16759,7 @@
         <v>5364.9</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" s="1" t="s">
         <v>378</v>
       </c>
@@ -16642,7 +16785,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" s="1" t="s">
         <v>378</v>
       </c>
@@ -16668,7 +16811,7 @@
         <v>420.08</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" s="1" t="s">
         <v>378</v>
       </c>
@@ -16694,7 +16837,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" s="1" t="s">
         <v>378</v>
       </c>
@@ -16720,7 +16863,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" s="1" t="s">
         <v>378</v>
       </c>
@@ -16746,7 +16889,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" s="1" t="s">
         <v>378</v>
       </c>
@@ -16772,7 +16915,7 @@
         <v>877.5</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" s="1" t="s">
         <v>378</v>
       </c>
@@ -16798,7 +16941,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" s="1" t="s">
         <v>378</v>
       </c>
@@ -16824,7 +16967,7 @@
         <v>505.36</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" s="1" t="s">
         <v>378</v>
       </c>
@@ -16850,7 +16993,7 @@
         <v>1140.3599999999999</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" s="1" t="s">
         <v>378</v>
       </c>
@@ -16876,7 +17019,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" s="1" t="s">
         <v>378</v>
       </c>
@@ -16902,7 +17045,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" s="1" t="s">
         <v>378</v>
       </c>
@@ -16928,7 +17071,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" s="1" t="s">
         <v>378</v>
       </c>
@@ -16954,7 +17097,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" s="1" t="s">
         <v>378</v>
       </c>
@@ -16980,7 +17123,7 @@
         <v>190.99</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" s="1" t="s">
         <v>378</v>
       </c>
@@ -17006,7 +17149,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" s="1" t="s">
         <v>378</v>
       </c>
@@ -17032,7 +17175,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" s="1" t="s">
         <v>378</v>
       </c>
@@ -17058,7 +17201,7 @@
         <v>2311.7399999999998</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" s="1" t="s">
         <v>378</v>
       </c>
@@ -17084,7 +17227,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" s="1" t="s">
         <v>378</v>
       </c>
@@ -17110,7 +17253,7 @@
         <v>3576.6</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" s="1" t="s">
         <v>378</v>
       </c>
@@ -17136,7 +17279,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" s="1" t="s">
         <v>378</v>
       </c>
@@ -17162,7 +17305,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" s="1" t="s">
         <v>378</v>
       </c>
@@ -17188,7 +17331,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" s="1" t="s">
         <v>378</v>
       </c>
@@ -17214,7 +17357,7 @@
         <v>604.79999999999995</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" s="1" t="s">
         <v>378</v>
       </c>
@@ -17240,7 +17383,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" s="1" t="s">
         <v>378</v>
       </c>
@@ -17266,7 +17409,7 @@
         <v>2632.5</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" s="1" t="s">
         <v>378</v>
       </c>
@@ -17292,7 +17435,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" s="1" t="s">
         <v>378</v>
       </c>
@@ -17318,7 +17461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" s="1" t="s">
         <v>404</v>
       </c>
@@ -17344,7 +17487,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" s="1" t="s">
         <v>404</v>
       </c>
@@ -17370,7 +17513,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605" s="1" t="s">
         <v>404</v>
       </c>
@@ -17396,7 +17539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606" s="1" t="s">
         <v>404</v>
       </c>
@@ -17422,7 +17565,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" s="1" t="s">
         <v>404</v>
       </c>
@@ -17448,7 +17591,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608" s="1" t="s">
         <v>404</v>
       </c>
@@ -17474,7 +17617,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" s="1" t="s">
         <v>404</v>
       </c>
@@ -17500,7 +17643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" s="1" t="s">
         <v>404</v>
       </c>
@@ -17526,7 +17669,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" s="1" t="s">
         <v>404</v>
       </c>
@@ -17552,7 +17695,7 @@
         <v>858.79</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" s="1" t="s">
         <v>404</v>
       </c>
@@ -17578,7 +17721,7 @@
         <v>799.4</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" s="1" t="s">
         <v>404</v>
       </c>
@@ -17604,7 +17747,7 @@
         <v>484.29</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" s="1" t="s">
         <v>404</v>
       </c>
@@ -17630,7 +17773,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" s="1" t="s">
         <v>404</v>
       </c>
@@ -17656,7 +17799,7 @@
         <v>304.08999999999997</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616" s="1" t="s">
         <v>404</v>
       </c>
@@ -17682,7 +17825,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617" s="1" t="s">
         <v>404</v>
       </c>
@@ -17708,7 +17851,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618" s="1" t="s">
         <v>404</v>
       </c>
@@ -17734,7 +17877,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" s="1" t="s">
         <v>404</v>
       </c>
@@ -17760,7 +17903,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" s="1" t="s">
         <v>404</v>
       </c>
@@ -17786,7 +17929,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" s="1" t="s">
         <v>404</v>
       </c>
@@ -17812,7 +17955,7 @@
         <v>272.14</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" s="1" t="s">
         <v>404</v>
       </c>
@@ -17838,7 +17981,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" s="1" t="s">
         <v>404</v>
       </c>
@@ -17864,7 +18007,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" s="1" t="s">
         <v>404</v>
       </c>
@@ -17890,7 +18033,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" s="1" t="s">
         <v>404</v>
       </c>
@@ -17916,7 +18059,7 @@
         <v>650.05999999999995</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" s="1" t="s">
         <v>404</v>
       </c>
@@ -17942,7 +18085,7 @@
         <v>420.08</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" s="1" t="s">
         <v>404</v>
       </c>
@@ -17968,7 +18111,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" s="1" t="s">
         <v>404</v>
       </c>
@@ -17994,7 +18137,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" s="1" t="s">
         <v>404</v>
       </c>
@@ -18020,7 +18163,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" s="1" t="s">
         <v>404</v>
       </c>
@@ -18046,7 +18189,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" s="1" t="s">
         <v>404</v>
       </c>
@@ -18072,7 +18215,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" s="1" t="s">
         <v>404</v>
       </c>
@@ -18098,7 +18241,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" s="1" t="s">
         <v>404</v>
       </c>
@@ -18124,7 +18267,7 @@
         <v>2777.8</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" s="1" t="s">
         <v>404</v>
       </c>
@@ -18150,7 +18293,7 @@
         <v>968.7</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" s="1" t="s">
         <v>404</v>
       </c>
@@ -18176,7 +18319,7 @@
         <v>968.7</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636" s="1" t="s">
         <v>404</v>
       </c>
@@ -18202,7 +18345,7 @@
         <v>359.6</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" s="1" t="s">
         <v>404</v>
       </c>
@@ -18228,7 +18371,7 @@
         <v>6040.2</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" s="1" t="s">
         <v>404</v>
       </c>
@@ -18254,7 +18397,7 @@
         <v>1020.33</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" s="1" t="s">
         <v>404</v>
       </c>
@@ -18280,7 +18423,7 @@
         <v>1020.33</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" s="1" t="s">
         <v>404</v>
       </c>
@@ -18306,7 +18449,7 @@
         <v>2657.2</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" s="1" t="s">
         <v>404</v>
       </c>
@@ -18332,7 +18475,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" s="1" t="s">
         <v>404</v>
       </c>
@@ -18358,7 +18501,7 @@
         <v>45.94</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643" s="1" t="s">
         <v>404</v>
       </c>
@@ -18384,7 +18527,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644" s="1" t="s">
         <v>404</v>
       </c>
@@ -18410,7 +18553,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" s="1" t="s">
         <v>404</v>
       </c>
@@ -18436,7 +18579,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" s="1" t="s">
         <v>404</v>
       </c>
@@ -18462,7 +18605,7 @@
         <v>2167.11</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" s="1" t="s">
         <v>404</v>
       </c>
@@ -18488,7 +18631,7 @@
         <v>1444.74</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" s="1" t="s">
         <v>404</v>
       </c>
@@ -18514,7 +18657,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" s="1" t="s">
         <v>404</v>
       </c>
@@ -18540,7 +18683,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" s="1" t="s">
         <v>404</v>
       </c>
@@ -18566,7 +18709,7 @@
         <v>975.09</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" s="1" t="s">
         <v>404</v>
       </c>
@@ -18592,7 +18735,7 @@
         <v>630.12</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" s="1" t="s">
         <v>404</v>
       </c>
@@ -18618,7 +18761,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" s="1" t="s">
         <v>404</v>
       </c>
@@ -18644,7 +18787,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" s="1" t="s">
         <v>404</v>
       </c>
@@ -18670,7 +18813,7 @@
         <v>207.12</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655" s="1" t="s">
         <v>404</v>
       </c>
@@ -18696,7 +18839,7 @@
         <v>331.6</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" s="1" t="s">
         <v>404</v>
       </c>
@@ -18722,7 +18865,7 @@
         <v>96.73</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657" s="1" t="s">
         <v>404</v>
       </c>
@@ -18748,7 +18891,7 @@
         <v>220.49</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658" s="1" t="s">
         <v>404</v>
       </c>
@@ -18774,7 +18917,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" s="1" t="s">
         <v>404</v>
       </c>
@@ -18800,7 +18943,7 @@
         <v>2503.02</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" s="1" t="s">
         <v>404</v>
       </c>
@@ -18826,7 +18969,7 @@
         <v>303.41000000000003</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" s="1" t="s">
         <v>404</v>
       </c>
@@ -18852,7 +18995,7 @@
         <v>136.56</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662" s="1" t="s">
         <v>404</v>
       </c>
@@ -18878,7 +19021,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663" s="1" t="s">
         <v>404</v>
       </c>
@@ -18904,7 +19047,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" s="1" t="s">
         <v>404</v>
       </c>
@@ -18930,7 +19073,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" s="1" t="s">
         <v>404</v>
       </c>
@@ -18956,8 +19099,1326 @@
         <v>600</v>
       </c>
     </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A666" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E666" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F666" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G666" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H666" s="1">
+        <v>55.78</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A667" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F667" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G667" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H667" s="1">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A668" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F668" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G668" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H668" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A669" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F669" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G669" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H669" s="1">
+        <v>20.14</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A670" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F670" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G670" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H670" s="1">
+        <v>24.79</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A671" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D671" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F671" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G671" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H671" s="1">
+        <v>1100.0999999999999</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A672" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C672" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F672" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G672" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H672" s="1">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A673" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F673" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G673" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H673" s="1">
+        <v>22.97</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A674" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C674" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D674" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E674" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F674" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G674" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H674" s="1">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A675" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C675" s="1">
+        <v>11156537</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F675" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G675" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H675" s="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A676" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F676" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G676" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H676" s="1">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A677" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F677" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G677" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H677" s="1">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A678" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F678" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G678" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H678" s="1">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A679" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F679" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G679" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H679" s="1">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A680" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F680" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G680" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H680" s="1">
+        <v>9890.5300000000007</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A681" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F681" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G681" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H681" s="1">
+        <v>949.7</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A682" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F682" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G682" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H682" s="1">
+        <v>59.67</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A683" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C683" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F683" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G683" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H683" s="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A684" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C684" s="1">
+        <v>11151249</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F684" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G684" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H684" s="1">
+        <v>1827.2</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A685" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C685" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F685" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G685" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H685" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A686" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C686" s="1">
+        <v>11151237</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F686" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G686" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H686" s="1">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A687" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C687" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E687" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F687" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G687" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H687" s="1">
+        <v>1111.1199999999999</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A688" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E688" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F688" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G688" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H688" s="1">
+        <v>776.48</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A689" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F689" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G689" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H689" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A690" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E690" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F690" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G690" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H690" s="1">
+        <v>968.45</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A691" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F691" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G691" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H691" s="1">
+        <v>77.48</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A692" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C692" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E692" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F692" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G692" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H692" s="1">
+        <v>1666.68</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A693" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C693" s="1">
+        <v>11155949</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E693" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F693" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G693" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H693" s="1">
+        <v>2889.48</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A694" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E694" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F694" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G694" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H694" s="1">
+        <v>91.88</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A695" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C695" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E695" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F695" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G695" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H695" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A696" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E696" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F696" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G696" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H696" s="1">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A697" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C697" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E697" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F697" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G697" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H697" s="1">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A698" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C698" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E698" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F698" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G698" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H698" s="1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A699" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C699" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F699" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G699" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H699" s="1">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A700" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F700" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G700" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H700" s="1">
+        <v>1221.4000000000001</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A701" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F701" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G701" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H701" s="1">
+        <v>87.69</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A702" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F702" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G702" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H702" s="1">
+        <v>574.20000000000005</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A703" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F703" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G703" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H703" s="1">
+        <v>430.6</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A704" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E704" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F704" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G704" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H704" s="1">
+        <v>1008.02</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A705" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E705" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F705" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G705" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H705" s="1">
+        <v>99.45</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A706" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C706" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D706" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E706" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F706" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G706" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H706" s="1">
+        <v>776.48</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A707" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E707" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F707" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G707" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H707" s="1">
+        <v>382.7</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A708" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D708" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E708" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F708" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G708" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H708" s="1">
+        <v>2098.7600000000002</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A709" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C709" s="1">
+        <v>11156537</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E709" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F709" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G709" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H709" s="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A710" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C710" s="1">
+        <v>11155949</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E710" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F710" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G710" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H710" s="1">
+        <v>5778.96</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A711" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F711" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G711" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H711" s="1">
+        <v>1110.6400000000001</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A712" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F712" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G712" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H712" s="1">
+        <v>664.3</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A713" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C713" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F713" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G713" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H713" s="1">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A714" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C714" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F714" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G714" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H714" s="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A715" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F715" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G715" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H715" s="1">
+        <v>1785.58</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A716" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F716" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G716" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H716" s="1">
+        <v>1678.14</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A717" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F717" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G717" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H717" s="1">
+        <v>4697.9399999999996</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A718" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G718" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H718" s="1">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A719" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C719" s="1">
+        <v>11156537</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F719" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G719" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H719" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A720" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F720" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G720" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H720" s="1">
+        <v>462.75</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A721" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C721" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E721" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F721" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G721" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H721" s="1">
+        <v>744</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H665" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
+  <autoFilter ref="A1:H721" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Expense"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36D6C0B2-89CC-4F7D-82EA-D80F1B7A9991}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{771F6A9A-0589-41A2-AEB6-A36AA84653E5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4242" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="451">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -1788,11 +1788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D691" sqref="D691"/>
+      <selection activeCell="C675" sqref="C675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1834,7 +1833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>185</v>
       </c>
@@ -1860,7 +1859,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>185</v>
       </c>
@@ -1886,7 +1885,7 @@
         <v>4444.4799999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>185</v>
       </c>
@@ -1912,7 +1911,7 @@
         <v>78.62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>185</v>
       </c>
@@ -1938,7 +1937,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>185</v>
       </c>
@@ -1964,7 +1963,7 @@
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>185</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>185</v>
       </c>
@@ -2016,7 +2015,7 @@
         <v>65.959999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>185</v>
       </c>
@@ -2042,7 +2041,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>185</v>
       </c>
@@ -2068,7 +2067,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>185</v>
       </c>
@@ -2094,7 +2093,7 @@
         <v>29.46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>185</v>
       </c>
@@ -2120,7 +2119,7 @@
         <v>513.29999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>119.16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>94</v>
       </c>
@@ -2198,7 +2197,7 @@
         <v>71.92</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
@@ -2224,7 +2223,7 @@
         <v>1311.72</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>94</v>
       </c>
@@ -2250,7 +2249,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
@@ -2276,7 +2275,7 @@
         <v>1983.2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
@@ -2302,7 +2301,7 @@
         <v>135.30000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>94</v>
       </c>
@@ -2328,7 +2327,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>760.24</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
@@ -2692,7 +2691,7 @@
         <v>172.66</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
@@ -2718,7 +2717,7 @@
         <v>769.95</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -2744,7 +2743,7 @@
         <v>1539.9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>94</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>94</v>
       </c>
@@ -2796,7 +2795,7 @@
         <v>8548.4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>94</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>13348.4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>94</v>
       </c>
@@ -2848,7 +2847,7 @@
         <v>1827.2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>94</v>
       </c>
@@ -2874,7 +2873,7 @@
         <v>1489.57</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -2900,7 +2899,7 @@
         <v>4836</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
@@ -2978,7 +2977,7 @@
         <v>145.19</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
@@ -3030,7 +3029,7 @@
         <v>1075.28</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -3056,7 +3055,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
@@ -3082,7 +3081,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>120</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>74.87</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>120</v>
       </c>
@@ -3134,7 +3133,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>120</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>120</v>
       </c>
@@ -3186,7 +3185,7 @@
         <v>13.53</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>120</v>
       </c>
@@ -3212,7 +3211,7 @@
         <v>257.2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -3238,7 +3237,7 @@
         <v>214.3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>120</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>120</v>
       </c>
@@ -3316,7 +3315,7 @@
         <v>91.88</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>621.36</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>120</v>
       </c>
@@ -3368,7 +3367,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -3394,7 +3393,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>120</v>
       </c>
@@ -3446,7 +3445,7 @@
         <v>210.07</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>120</v>
       </c>
@@ -3472,7 +3471,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>120</v>
       </c>
@@ -3498,7 +3497,7 @@
         <v>406.2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>120</v>
       </c>
@@ -3524,7 +3523,7 @@
         <v>9672</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>120</v>
       </c>
@@ -3550,7 +3549,7 @@
         <v>263.76</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>120</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>319.26</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>120</v>
       </c>
@@ -3602,7 +3601,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>120</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>120</v>
       </c>
@@ -3654,7 +3653,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>120</v>
       </c>
@@ -3680,7 +3679,7 @@
         <v>210.07</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>120</v>
       </c>
@@ -3706,7 +3705,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>120</v>
       </c>
@@ -3732,7 +3731,7 @@
         <v>362.88</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
@@ -3759,7 +3758,7 @@
       </c>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>133</v>
       </c>
@@ -3785,7 +3784,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>133</v>
       </c>
@@ -3811,7 +3810,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>133</v>
       </c>
@@ -3837,7 +3836,7 @@
         <v>2777.8</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>133</v>
       </c>
@@ -3863,7 +3862,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>133</v>
       </c>
@@ -3889,7 +3888,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>133</v>
       </c>
@@ -3941,7 +3940,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>133</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>283.72000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>133</v>
       </c>
@@ -3993,7 +3992,7 @@
         <v>210.6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>133</v>
       </c>
@@ -4019,7 +4018,7 @@
         <v>161.28</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>133</v>
       </c>
@@ -4045,7 +4044,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>133</v>
       </c>
@@ -4149,7 +4148,7 @@
         <v>327.35000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>133</v>
       </c>
@@ -4175,7 +4174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>133</v>
       </c>
@@ -4201,7 +4200,7 @@
         <v>631.79999999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>133</v>
       </c>
@@ -4227,7 +4226,7 @@
         <v>282.24</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>133</v>
       </c>
@@ -4305,7 +4304,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>133</v>
       </c>
@@ -4331,7 +4330,7 @@
         <v>443.52</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>133</v>
       </c>
@@ -4357,7 +4356,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>133</v>
       </c>
@@ -4383,7 +4382,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>133</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>120.96</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>133</v>
       </c>
@@ -4487,7 +4486,7 @@
         <v>234.28</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>133</v>
       </c>
@@ -4513,7 +4512,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>133</v>
       </c>
@@ -4539,7 +4538,7 @@
         <v>406.2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>133</v>
       </c>
@@ -4565,7 +4564,7 @@
         <v>842.4</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>133</v>
       </c>
@@ -4591,7 +4590,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>133</v>
       </c>
@@ -4617,7 +4616,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>158</v>
       </c>
@@ -4643,7 +4642,7 @@
         <v>51.86</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>158</v>
       </c>
@@ -4669,7 +4668,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>158</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>158</v>
       </c>
@@ -4721,7 +4720,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>158</v>
       </c>
@@ -4747,7 +4746,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>158</v>
       </c>
@@ -4773,7 +4772,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>158</v>
       </c>
@@ -4799,7 +4798,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>158</v>
       </c>
@@ -4825,7 +4824,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>158</v>
       </c>
@@ -4851,7 +4850,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>158</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>420.14</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>158</v>
       </c>
@@ -4903,7 +4902,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>158</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>68.91</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>158</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>158</v>
       </c>
@@ -4981,7 +4980,7 @@
         <v>362.88</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>158</v>
       </c>
@@ -5007,7 +5006,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>158</v>
       </c>
@@ -5033,7 +5032,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>158</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>1251.51</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>158</v>
       </c>
@@ -5085,7 +5084,7 @@
         <v>207.12</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>158</v>
       </c>
@@ -5111,7 +5110,7 @@
         <v>220.49</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>158</v>
       </c>
@@ -5137,7 +5136,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>158</v>
       </c>
@@ -5163,7 +5162,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>158</v>
       </c>
@@ -5189,7 +5188,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>158</v>
       </c>
@@ -5215,7 +5214,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>158</v>
       </c>
@@ -5241,7 +5240,7 @@
         <v>282.24</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>158</v>
       </c>
@@ -5267,7 +5266,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>158</v>
       </c>
@@ -5293,7 +5292,7 @@
         <v>304.08999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>158</v>
       </c>
@@ -5319,7 +5318,7 @@
         <v>2777.8</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>158</v>
       </c>
@@ -5345,7 +5344,7 @@
         <v>842.4</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>158</v>
       </c>
@@ -5371,7 +5370,7 @@
         <v>322.56</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>158</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>3018.87</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>158</v>
       </c>
@@ -5423,7 +5422,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>158</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>877.19</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>158</v>
       </c>
@@ -5475,7 +5474,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>158</v>
       </c>
@@ -5501,7 +5500,7 @@
         <v>161.28</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>158</v>
       </c>
@@ -5527,7 +5526,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>158</v>
       </c>
@@ -5553,7 +5552,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>158</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>3018.87</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
@@ -5605,7 +5604,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>158</v>
       </c>
@@ -5631,7 +5630,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>184</v>
       </c>
@@ -5657,7 +5656,7 @@
         <v>53.36</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>184</v>
       </c>
@@ -5683,7 +5682,7 @@
         <v>51.84</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>184</v>
       </c>
@@ -5709,7 +5708,7 @@
         <v>252.01</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>184</v>
       </c>
@@ -5735,7 +5734,7 @@
         <v>4945.2700000000004</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>184</v>
       </c>
@@ -5761,7 +5760,7 @@
         <v>189.47</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>184</v>
       </c>
@@ -5787,7 +5786,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>184</v>
       </c>
@@ -5813,7 +5812,7 @@
         <v>322.56</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>184</v>
       </c>
@@ -5839,7 +5838,7 @@
         <v>3333.36</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>184</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>184</v>
       </c>
@@ -5917,7 +5916,7 @@
         <v>5055.03</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>184</v>
       </c>
@@ -5943,7 +5942,7 @@
         <v>161.28</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>184</v>
       </c>
@@ -5969,7 +5968,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>184</v>
       </c>
@@ -5995,7 +5994,7 @@
         <v>161.28</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>184</v>
       </c>
@@ -6021,7 +6020,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>184</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>184</v>
       </c>
@@ -6073,7 +6072,7 @@
         <v>340.11</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>184</v>
       </c>
@@ -6099,7 +6098,7 @@
         <v>80.64</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>184</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>184</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>440.98</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>184</v>
       </c>
@@ -6177,7 +6176,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>184</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>282.24</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>184</v>
       </c>
@@ -6229,7 +6228,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>184</v>
       </c>
@@ -6255,7 +6254,7 @@
         <v>210.6</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
@@ -6281,7 +6280,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>184</v>
       </c>
@@ -6307,7 +6306,7 @@
         <v>420.14</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>184</v>
       </c>
@@ -6333,7 +6332,7 @@
         <v>381.97</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>184</v>
       </c>
@@ -6359,7 +6358,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>184</v>
       </c>
@@ -6385,7 +6384,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>184</v>
       </c>
@@ -6411,7 +6410,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>184</v>
       </c>
@@ -6489,7 +6488,7 @@
         <v>8857.99</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>282.24</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
@@ -6541,7 +6540,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -6567,7 +6566,7 @@
         <v>1140.3599999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>184</v>
       </c>
@@ -6593,7 +6592,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
@@ -6619,7 +6618,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
@@ -6645,7 +6644,7 @@
         <v>221.76</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>184</v>
       </c>
@@ -6671,7 +6670,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>184</v>
       </c>
@@ -6697,7 +6696,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>184</v>
       </c>
@@ -6723,7 +6722,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>184</v>
       </c>
@@ -6749,7 +6748,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>186</v>
       </c>
@@ -6775,7 +6774,7 @@
         <v>221.76</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>186</v>
       </c>
@@ -6801,7 +6800,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>186</v>
       </c>
@@ -6827,7 +6826,7 @@
         <v>982.8</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>186</v>
       </c>
@@ -6853,7 +6852,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>186</v>
       </c>
@@ -6879,7 +6878,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>186</v>
       </c>
@@ -6931,7 +6930,7 @@
         <v>439.07</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>186</v>
       </c>
@@ -6957,7 +6956,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>186</v>
       </c>
@@ -6983,7 +6982,7 @@
         <v>2334.27</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>186</v>
       </c>
@@ -7009,7 +7008,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>186</v>
       </c>
@@ -7035,7 +7034,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>186</v>
       </c>
@@ -7087,7 +7086,7 @@
         <v>1617.86</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>186</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>378.94</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>186</v>
       </c>
@@ -7139,7 +7138,7 @@
         <v>106.42</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>186</v>
       </c>
@@ -7165,7 +7164,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>186</v>
       </c>
@@ -7191,7 +7190,7 @@
         <v>106.75</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>186</v>
       </c>
@@ -7217,7 +7216,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>186</v>
       </c>
@@ -7243,7 +7242,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>186</v>
       </c>
@@ -7269,7 +7268,7 @@
         <v>189.47</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>186</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>186</v>
       </c>
@@ -7321,7 +7320,7 @@
         <v>1474.2</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>186</v>
       </c>
@@ -7347,7 +7346,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>186</v>
       </c>
@@ -7373,7 +7372,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>186</v>
       </c>
@@ -7399,7 +7398,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>186</v>
       </c>
@@ -7425,7 +7424,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>186</v>
       </c>
@@ -7451,7 +7450,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>186</v>
       </c>
@@ -7477,7 +7476,7 @@
         <v>162.71</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>186</v>
       </c>
@@ -7503,7 +7502,7 @@
         <v>68.91</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>186</v>
       </c>
@@ -7529,7 +7528,7 @@
         <v>364.95</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>186</v>
       </c>
@@ -7555,7 +7554,7 @@
         <v>114.85</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>186</v>
       </c>
@@ -7581,7 +7580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>186</v>
       </c>
@@ -7607,7 +7606,7 @@
         <v>1333.8</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>186</v>
       </c>
@@ -7633,7 +7632,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>186</v>
       </c>
@@ -7659,7 +7658,7 @@
         <v>772.2</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>186</v>
       </c>
@@ -7685,7 +7684,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>186</v>
       </c>
@@ -7711,7 +7710,7 @@
         <v>123.1</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>186</v>
       </c>
@@ -7737,7 +7736,7 @@
         <v>1895.4</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>240</v>
       </c>
@@ -7763,7 +7762,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>240</v>
       </c>
@@ -7789,7 +7788,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>240</v>
       </c>
@@ -7815,7 +7814,7 @@
         <v>1251.51</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>240</v>
       </c>
@@ -7841,7 +7840,7 @@
         <v>1684.8</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>240</v>
       </c>
@@ -8023,7 +8022,7 @@
         <v>172.57</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>240</v>
       </c>
@@ -8049,7 +8048,7 @@
         <v>388.24</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>240</v>
       </c>
@@ -8101,7 +8100,7 @@
         <v>34.21</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>240</v>
       </c>
@@ -8127,7 +8126,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>240</v>
       </c>
@@ -8153,7 +8152,7 @@
         <v>1913.44</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>240</v>
       </c>
@@ -8179,7 +8178,7 @@
         <v>372.62</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>240</v>
       </c>
@@ -8205,7 +8204,7 @@
         <v>438.6</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>240</v>
       </c>
@@ -8231,7 +8230,7 @@
         <v>3888.92</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>240</v>
       </c>
@@ -8257,7 +8256,7 @@
         <v>1123.2</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>240</v>
       </c>
@@ -8283,7 +8282,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>240</v>
       </c>
@@ -8309,7 +8308,7 @@
         <v>331.6</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>240</v>
       </c>
@@ -8335,7 +8334,7 @@
         <v>381.97</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>240</v>
       </c>
@@ -8361,7 +8360,7 @@
         <v>982.8</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>240</v>
       </c>
@@ -8387,7 +8386,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>240</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>210.6</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>240</v>
       </c>
@@ -8439,7 +8438,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>240</v>
       </c>
@@ -8465,7 +8464,7 @@
         <v>210.6</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>240</v>
       </c>
@@ -8543,7 +8542,7 @@
         <v>12792</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>240</v>
       </c>
@@ -8569,7 +8568,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>240</v>
       </c>
@@ -8595,7 +8594,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>240</v>
       </c>
@@ -8621,7 +8620,7 @@
         <v>13.19</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>240</v>
       </c>
@@ -8647,7 +8646,7 @@
         <v>369.3</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>240</v>
       </c>
@@ -8673,7 +8672,7 @@
         <v>491.1</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>267</v>
       </c>
@@ -8699,7 +8698,7 @@
         <v>81.319999999999993</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>267</v>
       </c>
@@ -8725,7 +8724,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>267</v>
       </c>
@@ -8751,7 +8750,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>267</v>
       </c>
@@ -8777,7 +8776,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>267</v>
       </c>
@@ -8803,7 +8802,7 @@
         <v>772.2</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>267</v>
       </c>
@@ -8829,7 +8828,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>267</v>
       </c>
@@ -8855,7 +8854,7 @@
         <v>471.72</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>267</v>
       </c>
@@ -8881,7 +8880,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>267</v>
       </c>
@@ -8907,7 +8906,7 @@
         <v>947.7</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>267</v>
       </c>
@@ -8933,7 +8932,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>267</v>
       </c>
@@ -8959,7 +8958,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>267</v>
       </c>
@@ -8985,7 +8984,7 @@
         <v>1155.8699999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>267</v>
       </c>
@@ -9011,7 +9010,7 @@
         <v>680.22</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>267</v>
       </c>
@@ -9037,7 +9036,7 @@
         <v>947.7</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>267</v>
       </c>
@@ -9063,7 +9062,7 @@
         <v>812.4</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>267</v>
       </c>
@@ -9089,7 +9088,7 @@
         <v>383.04</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>267</v>
       </c>
@@ -9115,7 +9114,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>267</v>
       </c>
@@ -9141,7 +9140,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>267</v>
       </c>
@@ -9167,7 +9166,7 @@
         <v>1754.38</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>267</v>
       </c>
@@ -9193,7 +9192,7 @@
         <v>2301.8000000000002</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>267</v>
       </c>
@@ -9219,7 +9218,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>267</v>
       </c>
@@ -9245,7 +9244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>267</v>
       </c>
@@ -9271,7 +9270,7 @@
         <v>18.18</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>267</v>
       </c>
@@ -9297,7 +9296,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>267</v>
       </c>
@@ -9323,7 +9322,7 @@
         <v>26.68</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>267</v>
       </c>
@@ -9349,7 +9348,7 @@
         <v>949.7</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>267</v>
       </c>
@@ -9375,7 +9374,7 @@
         <v>491.4</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>267</v>
       </c>
@@ -9401,7 +9400,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>267</v>
       </c>
@@ -9427,7 +9426,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>267</v>
       </c>
@@ -9453,7 +9452,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>267</v>
       </c>
@@ -9479,7 +9478,7 @@
         <v>650.05999999999995</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>267</v>
       </c>
@@ -9505,7 +9504,7 @@
         <v>382.69</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>267</v>
       </c>
@@ -9531,7 +9530,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>267</v>
       </c>
@@ -9557,7 +9556,7 @@
         <v>9890.5300000000007</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>267</v>
       </c>
@@ -9583,7 +9582,7 @@
         <v>425.68</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>267</v>
       </c>
@@ -9609,7 +9608,7 @@
         <v>263.76</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>267</v>
       </c>
@@ -9635,7 +9634,7 @@
         <v>491.4</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>267</v>
       </c>
@@ -9661,7 +9660,7 @@
         <v>326.86</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>267</v>
       </c>
@@ -9687,7 +9686,7 @@
         <v>217.55</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>267</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>267</v>
       </c>
@@ -9739,7 +9738,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>267</v>
       </c>
@@ -9765,7 +9764,7 @@
         <v>912.6</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>267</v>
       </c>
@@ -9791,7 +9790,7 @@
         <v>78.62</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>267</v>
       </c>
@@ -9817,7 +9816,7 @@
         <v>123.1</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>267</v>
       </c>
@@ -9843,7 +9842,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>267</v>
       </c>
@@ -9869,7 +9868,7 @@
         <v>1155.8699999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>267</v>
       </c>
@@ -9895,7 +9894,7 @@
         <v>38.53</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>267</v>
       </c>
@@ -9921,7 +9920,7 @@
         <v>1079.4000000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>267</v>
       </c>
@@ -9947,7 +9946,7 @@
         <v>877.5</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>267</v>
       </c>
@@ -9973,7 +9972,7 @@
         <v>380.12</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>267</v>
       </c>
@@ -9999,7 +9998,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>267</v>
       </c>
@@ -10025,7 +10024,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>267</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>267</v>
       </c>
@@ -10077,7 +10076,7 @@
         <v>80.64</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>301</v>
       </c>
@@ -10103,7 +10102,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>301</v>
       </c>
@@ -10129,7 +10128,7 @@
         <v>1368.9</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>301</v>
       </c>
@@ -10155,7 +10154,7 @@
         <v>362.88</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>301</v>
       </c>
@@ -10181,7 +10180,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>301</v>
       </c>
@@ -10207,7 +10206,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>301</v>
       </c>
@@ -10233,7 +10232,7 @@
         <v>204.68</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>301</v>
       </c>
@@ -10259,7 +10258,7 @@
         <v>3611.85</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>301</v>
       </c>
@@ -10285,7 +10284,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>301</v>
       </c>
@@ -10311,7 +10310,7 @@
         <v>388.24</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>301</v>
       </c>
@@ -10337,7 +10336,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>301</v>
       </c>
@@ -10363,7 +10362,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>301</v>
       </c>
@@ -10389,7 +10388,7 @@
         <v>572.96</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>301</v>
       </c>
@@ -10415,7 +10414,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>301</v>
       </c>
@@ -10441,7 +10440,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>301</v>
       </c>
@@ -10467,7 +10466,7 @@
         <v>1155.8699999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>301</v>
       </c>
@@ -10493,7 +10492,7 @@
         <v>68.91</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>301</v>
       </c>
@@ -10519,7 +10518,7 @@
         <v>3100.4</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>301</v>
       </c>
@@ -10545,7 +10544,7 @@
         <v>2311.7399999999998</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>301</v>
       </c>
@@ -10571,7 +10570,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>301</v>
       </c>
@@ -10597,7 +10596,7 @@
         <v>409.36</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>301</v>
       </c>
@@ -10623,7 +10622,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>301</v>
       </c>
@@ -10649,7 +10648,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>301</v>
       </c>
@@ -10675,7 +10674,7 @@
         <v>3467.61</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>301</v>
       </c>
@@ -10805,7 +10804,7 @@
         <v>40.54</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>301</v>
       </c>
@@ -10831,7 +10830,7 @@
         <v>388.24</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>301</v>
       </c>
@@ -10857,7 +10856,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>301</v>
       </c>
@@ -11039,7 +11038,7 @@
         <v>8780.24</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>301</v>
       </c>
@@ -11065,7 +11064,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>301</v>
       </c>
@@ -11091,7 +11090,7 @@
         <v>491.4</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>301</v>
       </c>
@@ -11117,7 +11116,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>301</v>
       </c>
@@ -11143,7 +11142,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>301</v>
       </c>
@@ -11169,7 +11168,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>301</v>
       </c>
@@ -11195,7 +11194,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>301</v>
       </c>
@@ -11221,7 +11220,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>301</v>
       </c>
@@ -11247,7 +11246,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>301</v>
       </c>
@@ -11273,7 +11272,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>301</v>
       </c>
@@ -11299,7 +11298,7 @@
         <v>395.64</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>301</v>
       </c>
@@ -11325,7 +11324,7 @@
         <v>379.02</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>301</v>
       </c>
@@ -11351,7 +11350,7 @@
         <v>255.74</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>301</v>
       </c>
@@ -11377,7 +11376,7 @@
         <v>18.739999999999998</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>301</v>
       </c>
@@ -11403,7 +11402,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>301</v>
       </c>
@@ -11429,7 +11428,7 @@
         <v>437.24</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>301</v>
       </c>
@@ -11455,7 +11454,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>301</v>
       </c>
@@ -11481,7 +11480,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>301</v>
       </c>
@@ -11507,7 +11506,7 @@
         <v>190.99</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>301</v>
       </c>
@@ -11533,7 +11532,7 @@
         <v>210.6</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>301</v>
       </c>
@@ -11559,7 +11558,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>301</v>
       </c>
@@ -11585,7 +11584,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>301</v>
       </c>
@@ -11611,7 +11610,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>301</v>
       </c>
@@ -11637,7 +11636,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>301</v>
       </c>
@@ -11663,7 +11662,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>301</v>
       </c>
@@ -11689,7 +11688,7 @@
         <v>1446.8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>301</v>
       </c>
@@ -11715,7 +11714,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>301</v>
       </c>
@@ -11741,7 +11740,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>319</v>
       </c>
@@ -11767,7 +11766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>319</v>
       </c>
@@ -11793,7 +11792,7 @@
         <v>388.24</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>319</v>
       </c>
@@ -11819,7 +11818,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>319</v>
       </c>
@@ -11845,7 +11844,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>319</v>
       </c>
@@ -11871,7 +11870,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>319</v>
       </c>
@@ -11897,7 +11896,7 @@
         <v>2167.11</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>319</v>
       </c>
@@ -11923,7 +11922,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>319</v>
       </c>
@@ -11949,7 +11948,7 @@
         <v>78.62</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>319</v>
       </c>
@@ -11975,7 +11974,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>319</v>
       </c>
@@ -12001,7 +12000,7 @@
         <v>2777.8</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>319</v>
       </c>
@@ -12027,7 +12026,7 @@
         <v>4444.4799999999996</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>319</v>
       </c>
@@ -12053,7 +12052,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>319</v>
       </c>
@@ -12079,7 +12078,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>319</v>
       </c>
@@ -12105,7 +12104,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>319</v>
       </c>
@@ -12131,7 +12130,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>319</v>
       </c>
@@ -12157,7 +12156,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>319</v>
       </c>
@@ -12183,7 +12182,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>319</v>
       </c>
@@ -12209,7 +12208,7 @@
         <v>106.75</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>319</v>
       </c>
@@ -12235,7 +12234,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>319</v>
       </c>
@@ -12261,7 +12260,7 @@
         <v>1509.3</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>319</v>
       </c>
@@ -12287,7 +12286,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>319</v>
       </c>
@@ -12313,7 +12312,7 @@
         <v>381.97</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>319</v>
       </c>
@@ -12339,7 +12338,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>319</v>
       </c>
@@ -12365,7 +12364,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
         <v>319</v>
       </c>
@@ -12391,7 +12390,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
         <v>319</v>
       </c>
@@ -12417,7 +12416,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
         <v>319</v>
       </c>
@@ -12443,7 +12442,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>319</v>
       </c>
@@ -12469,7 +12468,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>319</v>
       </c>
@@ -12495,7 +12494,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>319</v>
       </c>
@@ -12521,7 +12520,7 @@
         <v>1155.8699999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>319</v>
       </c>
@@ -12547,7 +12546,7 @@
         <v>752.32</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>319</v>
       </c>
@@ -12573,7 +12572,7 @@
         <v>388.24</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>319</v>
       </c>
@@ -12703,7 +12702,7 @@
         <v>737.57</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>319</v>
       </c>
@@ -12729,7 +12728,7 @@
         <v>2167.11</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>319</v>
       </c>
@@ -12781,7 +12780,7 @@
         <v>43.32</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
         <v>319</v>
       </c>
@@ -12807,7 +12806,7 @@
         <v>420.08</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
         <v>319</v>
       </c>
@@ -12833,7 +12832,7 @@
         <v>650.05999999999995</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>319</v>
       </c>
@@ -12859,7 +12858,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
         <v>319</v>
       </c>
@@ -12885,7 +12884,7 @@
         <v>4623.4799999999996</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
         <v>319</v>
       </c>
@@ -12911,7 +12910,7 @@
         <v>1788.3</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
         <v>319</v>
       </c>
@@ -12937,7 +12936,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
         <v>319</v>
       </c>
@@ -12963,7 +12962,7 @@
         <v>631.79999999999995</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
         <v>319</v>
       </c>
@@ -12989,7 +12988,7 @@
         <v>4945.2700000000004</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
         <v>319</v>
       </c>
@@ -13015,7 +13014,7 @@
         <v>2167.11</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
         <v>339</v>
       </c>
@@ -13041,7 +13040,7 @@
         <v>982.8</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
         <v>339</v>
       </c>
@@ -13067,7 +13066,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
         <v>339</v>
       </c>
@@ -13093,7 +13092,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
         <v>339</v>
       </c>
@@ -13119,7 +13118,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
         <v>339</v>
       </c>
@@ -13145,7 +13144,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
         <v>339</v>
       </c>
@@ -13171,7 +13170,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>339</v>
       </c>
@@ -13197,7 +13196,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>339</v>
       </c>
@@ -13223,7 +13222,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>339</v>
       </c>
@@ -13249,7 +13248,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
         <v>339</v>
       </c>
@@ -13275,7 +13274,7 @@
         <v>51.86</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
         <v>339</v>
       </c>
@@ -13301,7 +13300,7 @@
         <v>53.36</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>339</v>
       </c>
@@ -13327,7 +13326,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>339</v>
       </c>
@@ -13353,7 +13352,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
         <v>339</v>
       </c>
@@ -13379,7 +13378,7 @@
         <v>1155.8699999999999</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>339</v>
       </c>
@@ -13405,7 +13404,7 @@
         <v>1788.3</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>339</v>
       </c>
@@ -13431,7 +13430,7 @@
         <v>382.7</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>339</v>
       </c>
@@ -13457,7 +13456,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
         <v>339</v>
       </c>
@@ -13483,7 +13482,7 @@
         <v>650.05999999999995</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>339</v>
       </c>
@@ -13509,7 +13508,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>339</v>
       </c>
@@ -13535,7 +13534,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
         <v>339</v>
       </c>
@@ -13561,7 +13560,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>339</v>
       </c>
@@ -13587,7 +13586,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
         <v>339</v>
       </c>
@@ -13613,7 +13612,7 @@
         <v>194.12</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>339</v>
       </c>
@@ -13639,7 +13638,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
         <v>339</v>
       </c>
@@ -13665,7 +13664,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
         <v>339</v>
       </c>
@@ -13691,7 +13690,7 @@
         <v>1123.2</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
         <v>339</v>
       </c>
@@ -13717,7 +13716,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
         <v>339</v>
       </c>
@@ -13743,7 +13742,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
         <v>339</v>
       </c>
@@ -13769,7 +13768,7 @@
         <v>840.16</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>339</v>
       </c>
@@ -13795,7 +13794,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>339</v>
       </c>
@@ -13821,7 +13820,7 @@
         <v>763.94</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>339</v>
       </c>
@@ -13873,7 +13872,7 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>339</v>
       </c>
@@ -13899,7 +13898,7 @@
         <v>630.12</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
         <v>339</v>
       </c>
@@ -14133,7 +14132,7 @@
         <v>90.45</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
         <v>339</v>
       </c>
@@ -14159,7 +14158,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
         <v>339</v>
       </c>
@@ -14185,7 +14184,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
         <v>339</v>
       </c>
@@ -14211,7 +14210,7 @@
         <v>604.79999999999995</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
         <v>339</v>
       </c>
@@ -14237,7 +14236,7 @@
         <v>91.88</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
         <v>339</v>
       </c>
@@ -14263,7 +14262,7 @@
         <v>604.79999999999995</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
         <v>339</v>
       </c>
@@ -14289,7 +14288,7 @@
         <v>386.1</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
         <v>339</v>
       </c>
@@ -14315,7 +14314,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
         <v>339</v>
       </c>
@@ -14341,7 +14340,7 @@
         <v>228.94</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
         <v>339</v>
       </c>
@@ -14367,7 +14366,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
         <v>339</v>
       </c>
@@ -14393,7 +14392,7 @@
         <v>2280.7199999999998</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
         <v>339</v>
       </c>
@@ -14419,7 +14418,7 @@
         <v>2311.7399999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
         <v>339</v>
       </c>
@@ -14445,7 +14444,7 @@
         <v>3576.6</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
         <v>339</v>
       </c>
@@ -14471,7 +14470,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
         <v>339</v>
       </c>
@@ -14497,7 +14496,7 @@
         <v>4945.2700000000004</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
         <v>339</v>
       </c>
@@ -14523,7 +14522,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A490" s="1" t="s">
         <v>339</v>
       </c>
@@ -14549,7 +14548,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
         <v>339</v>
       </c>
@@ -14575,7 +14574,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
         <v>369</v>
       </c>
@@ -14601,7 +14600,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A493" s="1" t="s">
         <v>369</v>
       </c>
@@ -14627,7 +14626,7 @@
         <v>228.94</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
         <v>369</v>
       </c>
@@ -14653,7 +14652,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
         <v>369</v>
       </c>
@@ -14679,7 +14678,7 @@
         <v>604.79999999999995</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A496" s="1" t="s">
         <v>369</v>
       </c>
@@ -14705,7 +14704,7 @@
         <v>2280.7199999999998</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
         <v>369</v>
       </c>
@@ -14731,7 +14730,7 @@
         <v>2311.7399999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
         <v>369</v>
       </c>
@@ -14757,7 +14756,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
         <v>369</v>
       </c>
@@ -14783,7 +14782,7 @@
         <v>3576.6</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
         <v>369</v>
       </c>
@@ -14809,7 +14808,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
         <v>369</v>
       </c>
@@ -14835,7 +14834,7 @@
         <v>4945.2700000000004</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
         <v>369</v>
       </c>
@@ -14861,7 +14860,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A503" s="1" t="s">
         <v>369</v>
       </c>
@@ -14887,7 +14886,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A504" s="1" t="s">
         <v>369</v>
       </c>
@@ -14913,7 +14912,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A505" s="1" t="s">
         <v>369</v>
       </c>
@@ -15017,7 +15016,7 @@
         <v>42.23</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A509" s="1" t="s">
         <v>369</v>
       </c>
@@ -15069,7 +15068,7 @@
         <v>87.6</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
         <v>369</v>
       </c>
@@ -15095,7 +15094,7 @@
         <v>381.97</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
         <v>369</v>
       </c>
@@ -15121,7 +15120,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A513" s="1" t="s">
         <v>369</v>
       </c>
@@ -15147,7 +15146,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
         <v>369</v>
       </c>
@@ -15173,7 +15172,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
         <v>369</v>
       </c>
@@ -15199,7 +15198,7 @@
         <v>435.1</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516" s="1" t="s">
         <v>369</v>
       </c>
@@ -15225,7 +15224,7 @@
         <v>34.36</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517" s="1" t="s">
         <v>369</v>
       </c>
@@ -15251,7 +15250,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518" s="1" t="s">
         <v>369</v>
       </c>
@@ -15277,7 +15276,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519" s="1" t="s">
         <v>369</v>
       </c>
@@ -15303,7 +15302,7 @@
         <v>9890.5300000000007</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A520" s="1" t="s">
         <v>369</v>
       </c>
@@ -15329,7 +15328,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A521" s="1" t="s">
         <v>369</v>
       </c>
@@ -15355,7 +15354,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A522" s="1" t="s">
         <v>369</v>
       </c>
@@ -15381,7 +15380,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A523" s="1" t="s">
         <v>369</v>
       </c>
@@ -15407,7 +15406,7 @@
         <v>913.6</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A524" s="1" t="s">
         <v>369</v>
       </c>
@@ -15433,7 +15432,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A525" s="1" t="s">
         <v>369</v>
       </c>
@@ -15459,7 +15458,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A526" s="1" t="s">
         <v>369</v>
       </c>
@@ -15485,7 +15484,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A527" s="1" t="s">
         <v>369</v>
       </c>
@@ -15511,7 +15510,7 @@
         <v>91.88</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A528" s="1" t="s">
         <v>369</v>
       </c>
@@ -15537,7 +15536,7 @@
         <v>1788.3</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A529" s="1" t="s">
         <v>369</v>
       </c>
@@ -15563,7 +15562,7 @@
         <v>2311.7399999999998</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A530" s="1" t="s">
         <v>369</v>
       </c>
@@ -15589,7 +15588,7 @@
         <v>437.24</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A531" s="1" t="s">
         <v>369</v>
       </c>
@@ -15615,7 +15614,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A532" s="1" t="s">
         <v>369</v>
       </c>
@@ -15641,7 +15640,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A533" s="1" t="s">
         <v>369</v>
       </c>
@@ -15667,7 +15666,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A534" s="1" t="s">
         <v>369</v>
       </c>
@@ -15693,7 +15692,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A535" s="1" t="s">
         <v>369</v>
       </c>
@@ -15719,7 +15718,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A536" s="1" t="s">
         <v>369</v>
       </c>
@@ -15745,7 +15744,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A537" s="1" t="s">
         <v>369</v>
       </c>
@@ -15771,7 +15770,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A538" s="1" t="s">
         <v>369</v>
       </c>
@@ -15797,7 +15796,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A539" s="1" t="s">
         <v>369</v>
       </c>
@@ -15823,7 +15822,7 @@
         <v>91.88</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A540" s="1" t="s">
         <v>369</v>
       </c>
@@ -15849,7 +15848,7 @@
         <v>22.19</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A541" s="1" t="s">
         <v>369</v>
       </c>
@@ -15875,7 +15874,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A542" s="1" t="s">
         <v>369</v>
       </c>
@@ -15901,7 +15900,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A543" s="1" t="s">
         <v>369</v>
       </c>
@@ -15927,7 +15926,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A544" s="1" t="s">
         <v>369</v>
       </c>
@@ -15953,7 +15952,7 @@
         <v>77.790000000000006</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A545" s="1" t="s">
         <v>369</v>
       </c>
@@ -15979,7 +15978,7 @@
         <v>116.1</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A546" s="1" t="s">
         <v>369</v>
       </c>
@@ -16005,7 +16004,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A547" s="1" t="s">
         <v>369</v>
       </c>
@@ -16031,7 +16030,7 @@
         <v>503.35</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A548" s="1" t="s">
         <v>369</v>
       </c>
@@ -16057,7 +16056,7 @@
         <v>332.15</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A549" s="1" t="s">
         <v>369</v>
       </c>
@@ -16083,7 +16082,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A550" s="1" t="s">
         <v>369</v>
       </c>
@@ -16109,7 +16108,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A551" s="1" t="s">
         <v>378</v>
       </c>
@@ -16135,7 +16134,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A552" s="1" t="s">
         <v>378</v>
       </c>
@@ -16161,7 +16160,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A553" s="1" t="s">
         <v>378</v>
       </c>
@@ -16187,7 +16186,7 @@
         <v>78.62</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A554" s="1" t="s">
         <v>378</v>
       </c>
@@ -16213,7 +16212,7 @@
         <v>106.75</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A555" s="1" t="s">
         <v>378</v>
       </c>
@@ -16239,7 +16238,7 @@
         <v>1827.2</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A556" s="1" t="s">
         <v>378</v>
       </c>
@@ -16265,7 +16264,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A557" s="1" t="s">
         <v>378</v>
       </c>
@@ -16291,7 +16290,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A558" s="1" t="s">
         <v>378</v>
       </c>
@@ -16317,7 +16316,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A559" s="1" t="s">
         <v>378</v>
       </c>
@@ -16343,7 +16342,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A560" s="1" t="s">
         <v>378</v>
       </c>
@@ -16369,7 +16368,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A561" s="1" t="s">
         <v>378</v>
       </c>
@@ -16395,7 +16394,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A562" s="1" t="s">
         <v>378</v>
       </c>
@@ -16421,7 +16420,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A563" s="1" t="s">
         <v>378</v>
       </c>
@@ -16447,7 +16446,7 @@
         <v>4945.2700000000004</v>
       </c>
     </row>
-    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A564" s="1" t="s">
         <v>378</v>
       </c>
@@ -16473,7 +16472,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A565" s="1" t="s">
         <v>378</v>
       </c>
@@ -16499,7 +16498,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A566" s="1" t="s">
         <v>378</v>
       </c>
@@ -16525,7 +16524,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A567" s="1" t="s">
         <v>378</v>
       </c>
@@ -16551,7 +16550,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A568" s="1" t="s">
         <v>378</v>
       </c>
@@ -16577,7 +16576,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A569" s="1" t="s">
         <v>378</v>
       </c>
@@ -16603,7 +16602,7 @@
         <v>612.95000000000005</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A570" s="1" t="s">
         <v>378</v>
       </c>
@@ -16629,7 +16628,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A571" s="1" t="s">
         <v>378</v>
       </c>
@@ -16655,7 +16654,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A572" s="1" t="s">
         <v>378</v>
       </c>
@@ -16681,7 +16680,7 @@
         <v>91.88</v>
       </c>
     </row>
-    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A573" s="1" t="s">
         <v>378</v>
       </c>
@@ -16707,7 +16706,7 @@
         <v>3611.85</v>
       </c>
     </row>
-    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A574" s="1" t="s">
         <v>378</v>
       </c>
@@ -16733,7 +16732,7 @@
         <v>45.94</v>
       </c>
     </row>
-    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A575" s="1" t="s">
         <v>378</v>
       </c>
@@ -16759,7 +16758,7 @@
         <v>5364.9</v>
       </c>
     </row>
-    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A576" s="1" t="s">
         <v>378</v>
       </c>
@@ -16785,7 +16784,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A577" s="1" t="s">
         <v>378</v>
       </c>
@@ -16811,7 +16810,7 @@
         <v>420.08</v>
       </c>
     </row>
-    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A578" s="1" t="s">
         <v>378</v>
       </c>
@@ -16837,7 +16836,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A579" s="1" t="s">
         <v>378</v>
       </c>
@@ -16863,7 +16862,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A580" s="1" t="s">
         <v>378</v>
       </c>
@@ -16889,7 +16888,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A581" s="1" t="s">
         <v>378</v>
       </c>
@@ -16915,7 +16914,7 @@
         <v>877.5</v>
       </c>
     </row>
-    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A582" s="1" t="s">
         <v>378</v>
       </c>
@@ -16941,7 +16940,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A583" s="1" t="s">
         <v>378</v>
       </c>
@@ -16967,7 +16966,7 @@
         <v>505.36</v>
       </c>
     </row>
-    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A584" s="1" t="s">
         <v>378</v>
       </c>
@@ -16993,7 +16992,7 @@
         <v>1140.3599999999999</v>
       </c>
     </row>
-    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A585" s="1" t="s">
         <v>378</v>
       </c>
@@ -17019,7 +17018,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A586" s="1" t="s">
         <v>378</v>
       </c>
@@ -17045,7 +17044,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A587" s="1" t="s">
         <v>378</v>
       </c>
@@ -17071,7 +17070,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A588" s="1" t="s">
         <v>378</v>
       </c>
@@ -17097,7 +17096,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A589" s="1" t="s">
         <v>378</v>
       </c>
@@ -17123,7 +17122,7 @@
         <v>190.99</v>
       </c>
     </row>
-    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A590" s="1" t="s">
         <v>378</v>
       </c>
@@ -17149,7 +17148,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A591" s="1" t="s">
         <v>378</v>
       </c>
@@ -17175,7 +17174,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A592" s="1" t="s">
         <v>378</v>
       </c>
@@ -17201,7 +17200,7 @@
         <v>2311.7399999999998</v>
       </c>
     </row>
-    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A593" s="1" t="s">
         <v>378</v>
       </c>
@@ -17227,7 +17226,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A594" s="1" t="s">
         <v>378</v>
       </c>
@@ -17253,7 +17252,7 @@
         <v>3576.6</v>
       </c>
     </row>
-    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A595" s="1" t="s">
         <v>378</v>
       </c>
@@ -17279,7 +17278,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A596" s="1" t="s">
         <v>378</v>
       </c>
@@ -17305,7 +17304,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A597" s="1" t="s">
         <v>378</v>
       </c>
@@ -17331,7 +17330,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A598" s="1" t="s">
         <v>378</v>
       </c>
@@ -17357,7 +17356,7 @@
         <v>604.79999999999995</v>
       </c>
     </row>
-    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A599" s="1" t="s">
         <v>378</v>
       </c>
@@ -17383,7 +17382,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A600" s="1" t="s">
         <v>378</v>
       </c>
@@ -17409,7 +17408,7 @@
         <v>2632.5</v>
       </c>
     </row>
-    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A601" s="1" t="s">
         <v>378</v>
       </c>
@@ -17435,7 +17434,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A602" s="1" t="s">
         <v>378</v>
       </c>
@@ -17461,7 +17460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A603" s="1" t="s">
         <v>404</v>
       </c>
@@ -17487,7 +17486,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A604" s="1" t="s">
         <v>404</v>
       </c>
@@ -17513,7 +17512,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A605" s="1" t="s">
         <v>404</v>
       </c>
@@ -17539,7 +17538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A606" s="1" t="s">
         <v>404</v>
       </c>
@@ -17565,7 +17564,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A607" s="1" t="s">
         <v>404</v>
       </c>
@@ -17591,7 +17590,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A608" s="1" t="s">
         <v>404</v>
       </c>
@@ -17617,7 +17616,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A609" s="1" t="s">
         <v>404</v>
       </c>
@@ -17643,7 +17642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A610" s="1" t="s">
         <v>404</v>
       </c>
@@ -17669,7 +17668,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A611" s="1" t="s">
         <v>404</v>
       </c>
@@ -17695,7 +17694,7 @@
         <v>858.79</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A612" s="1" t="s">
         <v>404</v>
       </c>
@@ -17721,7 +17720,7 @@
         <v>799.4</v>
       </c>
     </row>
-    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A613" s="1" t="s">
         <v>404</v>
       </c>
@@ -17747,7 +17746,7 @@
         <v>484.29</v>
       </c>
     </row>
-    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A614" s="1" t="s">
         <v>404</v>
       </c>
@@ -17773,7 +17772,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A615" s="1" t="s">
         <v>404</v>
       </c>
@@ -17799,7 +17798,7 @@
         <v>304.08999999999997</v>
       </c>
     </row>
-    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A616" s="1" t="s">
         <v>404</v>
       </c>
@@ -17825,7 +17824,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A617" s="1" t="s">
         <v>404</v>
       </c>
@@ -17851,7 +17850,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A618" s="1" t="s">
         <v>404</v>
       </c>
@@ -17877,7 +17876,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A619" s="1" t="s">
         <v>404</v>
       </c>
@@ -17903,7 +17902,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A620" s="1" t="s">
         <v>404</v>
       </c>
@@ -17929,7 +17928,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A621" s="1" t="s">
         <v>404</v>
       </c>
@@ -17955,7 +17954,7 @@
         <v>272.14</v>
       </c>
     </row>
-    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A622" s="1" t="s">
         <v>404</v>
       </c>
@@ -17981,7 +17980,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A623" s="1" t="s">
         <v>404</v>
       </c>
@@ -18007,7 +18006,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A624" s="1" t="s">
         <v>404</v>
       </c>
@@ -18033,7 +18032,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A625" s="1" t="s">
         <v>404</v>
       </c>
@@ -18059,7 +18058,7 @@
         <v>650.05999999999995</v>
       </c>
     </row>
-    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A626" s="1" t="s">
         <v>404</v>
       </c>
@@ -18085,7 +18084,7 @@
         <v>420.08</v>
       </c>
     </row>
-    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A627" s="1" t="s">
         <v>404</v>
       </c>
@@ -18111,7 +18110,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A628" s="1" t="s">
         <v>404</v>
       </c>
@@ -18137,7 +18136,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A629" s="1" t="s">
         <v>404</v>
       </c>
@@ -18163,7 +18162,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A630" s="1" t="s">
         <v>404</v>
       </c>
@@ -18189,7 +18188,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A631" s="1" t="s">
         <v>404</v>
       </c>
@@ -18215,7 +18214,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A632" s="1" t="s">
         <v>404</v>
       </c>
@@ -18241,7 +18240,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A633" s="1" t="s">
         <v>404</v>
       </c>
@@ -18267,7 +18266,7 @@
         <v>2777.8</v>
       </c>
     </row>
-    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A634" s="1" t="s">
         <v>404</v>
       </c>
@@ -18293,7 +18292,7 @@
         <v>968.7</v>
       </c>
     </row>
-    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A635" s="1" t="s">
         <v>404</v>
       </c>
@@ -18319,7 +18318,7 @@
         <v>968.7</v>
       </c>
     </row>
-    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A636" s="1" t="s">
         <v>404</v>
       </c>
@@ -18345,7 +18344,7 @@
         <v>359.6</v>
       </c>
     </row>
-    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A637" s="1" t="s">
         <v>404</v>
       </c>
@@ -18371,7 +18370,7 @@
         <v>6040.2</v>
       </c>
     </row>
-    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A638" s="1" t="s">
         <v>404</v>
       </c>
@@ -18397,7 +18396,7 @@
         <v>1020.33</v>
       </c>
     </row>
-    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A639" s="1" t="s">
         <v>404</v>
       </c>
@@ -18423,7 +18422,7 @@
         <v>1020.33</v>
       </c>
     </row>
-    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A640" s="1" t="s">
         <v>404</v>
       </c>
@@ -18449,7 +18448,7 @@
         <v>2657.2</v>
       </c>
     </row>
-    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A641" s="1" t="s">
         <v>404</v>
       </c>
@@ -18475,7 +18474,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A642" s="1" t="s">
         <v>404</v>
       </c>
@@ -18501,7 +18500,7 @@
         <v>45.94</v>
       </c>
     </row>
-    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A643" s="1" t="s">
         <v>404</v>
       </c>
@@ -18527,7 +18526,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A644" s="1" t="s">
         <v>404</v>
       </c>
@@ -18553,7 +18552,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A645" s="1" t="s">
         <v>404</v>
       </c>
@@ -18579,7 +18578,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A646" s="1" t="s">
         <v>404</v>
       </c>
@@ -18605,7 +18604,7 @@
         <v>2167.11</v>
       </c>
     </row>
-    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A647" s="1" t="s">
         <v>404</v>
       </c>
@@ -18631,7 +18630,7 @@
         <v>1444.74</v>
       </c>
     </row>
-    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A648" s="1" t="s">
         <v>404</v>
       </c>
@@ -18657,7 +18656,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A649" s="1" t="s">
         <v>404</v>
       </c>
@@ -18683,7 +18682,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A650" s="1" t="s">
         <v>404</v>
       </c>
@@ -18709,7 +18708,7 @@
         <v>975.09</v>
       </c>
     </row>
-    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A651" s="1" t="s">
         <v>404</v>
       </c>
@@ -18735,7 +18734,7 @@
         <v>630.12</v>
       </c>
     </row>
-    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A652" s="1" t="s">
         <v>404</v>
       </c>
@@ -18761,7 +18760,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A653" s="1" t="s">
         <v>404</v>
       </c>
@@ -18787,7 +18786,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A654" s="1" t="s">
         <v>404</v>
       </c>
@@ -18813,7 +18812,7 @@
         <v>207.12</v>
       </c>
     </row>
-    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A655" s="1" t="s">
         <v>404</v>
       </c>
@@ -18839,7 +18838,7 @@
         <v>331.6</v>
       </c>
     </row>
-    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A656" s="1" t="s">
         <v>404</v>
       </c>
@@ -18865,7 +18864,7 @@
         <v>96.73</v>
       </c>
     </row>
-    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A657" s="1" t="s">
         <v>404</v>
       </c>
@@ -18891,7 +18890,7 @@
         <v>220.49</v>
       </c>
     </row>
-    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A658" s="1" t="s">
         <v>404</v>
       </c>
@@ -18917,7 +18916,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A659" s="1" t="s">
         <v>404</v>
       </c>
@@ -18943,7 +18942,7 @@
         <v>2503.02</v>
       </c>
     </row>
-    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A660" s="1" t="s">
         <v>404</v>
       </c>
@@ -18969,7 +18968,7 @@
         <v>303.41000000000003</v>
       </c>
     </row>
-    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A661" s="1" t="s">
         <v>404</v>
       </c>
@@ -18995,7 +18994,7 @@
         <v>136.56</v>
       </c>
     </row>
-    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A662" s="1" t="s">
         <v>404</v>
       </c>
@@ -19021,7 +19020,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A663" s="1" t="s">
         <v>404</v>
       </c>
@@ -19047,7 +19046,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A664" s="1" t="s">
         <v>404</v>
       </c>
@@ -19073,7 +19072,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A665" s="1" t="s">
         <v>404</v>
       </c>
@@ -19255,10 +19254,13 @@
         <v>1100.0999999999999</v>
       </c>
     </row>
-    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A672" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B672" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C672" s="1">
         <v>11155143</v>
       </c>
@@ -19278,10 +19280,13 @@
         <v>930</v>
       </c>
     </row>
-    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A673" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B673" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C673" s="1" t="s">
         <v>22</v>
       </c>
@@ -19301,10 +19306,13 @@
         <v>22.97</v>
       </c>
     </row>
-    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A674" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B674" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C674" s="1">
         <v>11155497</v>
       </c>
@@ -19324,10 +19332,13 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A675" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B675" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C675" s="1">
         <v>11156537</v>
       </c>
@@ -19347,10 +19358,13 @@
         <v>936</v>
       </c>
     </row>
-    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A676" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B676" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C676" s="1" t="s">
         <v>415</v>
       </c>
@@ -19370,10 +19384,13 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A677" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B677" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C677" s="1" t="s">
         <v>417</v>
       </c>
@@ -19393,10 +19410,13 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A678" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B678" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C678" s="1" t="s">
         <v>419</v>
       </c>
@@ -19416,10 +19436,13 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A679" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B679" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C679" s="1" t="s">
         <v>422</v>
       </c>
@@ -19439,10 +19462,13 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A680" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B680" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C680" s="1" t="s">
         <v>166</v>
       </c>
@@ -19462,10 +19488,13 @@
         <v>9890.5300000000007</v>
       </c>
     </row>
-    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A681" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B681" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C681" s="1" t="s">
         <v>257</v>
       </c>
@@ -19485,10 +19514,13 @@
         <v>949.7</v>
       </c>
     </row>
-    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A682" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B682" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C682" s="1" t="s">
         <v>188</v>
       </c>
@@ -19508,10 +19540,13 @@
         <v>59.67</v>
       </c>
     </row>
-    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A683" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B683" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C683" s="1">
         <v>11155797</v>
       </c>
@@ -19531,10 +19566,13 @@
         <v>504</v>
       </c>
     </row>
-    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A684" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B684" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C684" s="1">
         <v>11151249</v>
       </c>
@@ -19554,10 +19592,13 @@
         <v>1827.2</v>
       </c>
     </row>
-    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A685" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B685" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C685" s="1">
         <v>11155143</v>
       </c>
@@ -19577,10 +19618,13 @@
         <v>372</v>
       </c>
     </row>
-    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A686" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B686" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C686" s="1">
         <v>11151237</v>
       </c>
@@ -19600,10 +19644,13 @@
         <v>677</v>
       </c>
     </row>
-    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A687" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B687" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C687" s="1">
         <v>11151246</v>
       </c>
@@ -19623,10 +19670,13 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A688" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B688" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C688" s="1" t="s">
         <v>219</v>
       </c>
@@ -19646,9 +19696,12 @@
         <v>776.48</v>
       </c>
     </row>
-    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A689" s="1" t="s">
         <v>450</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C689" s="1" t="s">
         <v>325</v>
@@ -19721,10 +19774,13 @@
         <v>77.48</v>
       </c>
     </row>
-    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A692" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B692" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C692" s="1">
         <v>11151246</v>
       </c>
@@ -19744,10 +19800,13 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A693" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B693" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C693" s="1">
         <v>11155949</v>
       </c>
@@ -19767,10 +19826,13 @@
         <v>2889.48</v>
       </c>
     </row>
-    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A694" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B694" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C694" s="1" t="s">
         <v>22</v>
       </c>
@@ -19790,10 +19852,13 @@
         <v>91.88</v>
       </c>
     </row>
-    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A695" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B695" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C695" s="1">
         <v>11155143</v>
       </c>
@@ -19813,10 +19878,13 @@
         <v>372</v>
       </c>
     </row>
-    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A696" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B696" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C696" s="1" t="s">
         <v>90</v>
       </c>
@@ -19836,10 +19904,13 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A697" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B697" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C697" s="1">
         <v>11155497</v>
       </c>
@@ -19859,10 +19930,13 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A698" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B698" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C698" s="1">
         <v>11155797</v>
       </c>
@@ -19882,10 +19956,13 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A699" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B699" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C699" s="1">
         <v>11155143</v>
       </c>
@@ -19905,10 +19982,13 @@
         <v>744</v>
       </c>
     </row>
-    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A700" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B700" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C700" s="1" t="s">
         <v>434</v>
       </c>
@@ -19928,10 +20008,13 @@
         <v>1221.4000000000001</v>
       </c>
     </row>
-    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A701" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B701" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C701" s="1" t="s">
         <v>436</v>
       </c>
@@ -19951,10 +20034,13 @@
         <v>87.69</v>
       </c>
     </row>
-    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A702" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B702" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C702" s="1" t="s">
         <v>438</v>
       </c>
@@ -19974,10 +20060,13 @@
         <v>574.20000000000005</v>
       </c>
     </row>
-    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A703" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B703" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C703" s="1" t="s">
         <v>440</v>
       </c>
@@ -19997,10 +20086,13 @@
         <v>430.6</v>
       </c>
     </row>
-    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A704" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B704" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C704" s="1" t="s">
         <v>164</v>
       </c>
@@ -20020,10 +20112,13 @@
         <v>1008.02</v>
       </c>
     </row>
-    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A705" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B705" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C705" s="1" t="s">
         <v>188</v>
       </c>
@@ -20043,10 +20138,13 @@
         <v>99.45</v>
       </c>
     </row>
-    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A706" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B706" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C706" s="1" t="s">
         <v>219</v>
       </c>
@@ -20066,10 +20164,13 @@
         <v>776.48</v>
       </c>
     </row>
-    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A707" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B707" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C707" s="1" t="s">
         <v>222</v>
       </c>
@@ -20089,10 +20190,13 @@
         <v>382.7</v>
       </c>
     </row>
-    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A708" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B708" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C708" s="1" t="s">
         <v>36</v>
       </c>
@@ -20112,10 +20216,13 @@
         <v>2098.7600000000002</v>
       </c>
     </row>
-    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A709" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B709" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C709" s="1">
         <v>11156537</v>
       </c>
@@ -20135,10 +20242,13 @@
         <v>936</v>
       </c>
     </row>
-    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A710" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B710" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C710" s="1">
         <v>11155949</v>
       </c>
@@ -20158,10 +20268,13 @@
         <v>5778.96</v>
       </c>
     </row>
-    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A711" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B711" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C711" s="1" t="s">
         <v>357</v>
       </c>
@@ -20181,10 +20294,13 @@
         <v>1110.6400000000001</v>
       </c>
     </row>
-    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A712" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B712" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C712" s="1" t="s">
         <v>365</v>
       </c>
@@ -20204,10 +20320,13 @@
         <v>664.3</v>
       </c>
     </row>
-    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A713" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B713" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C713" s="1">
         <v>11155497</v>
       </c>
@@ -20227,10 +20346,13 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A714" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B714" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C714" s="1">
         <v>11155797</v>
       </c>
@@ -20250,10 +20372,13 @@
         <v>504</v>
       </c>
     </row>
-    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A715" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B715" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C715" s="1" t="s">
         <v>174</v>
       </c>
@@ -20273,10 +20398,13 @@
         <v>1785.58</v>
       </c>
     </row>
-    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A716" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B716" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C716" s="1" t="s">
         <v>33</v>
       </c>
@@ -20296,10 +20424,13 @@
         <v>1678.14</v>
       </c>
     </row>
-    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A717" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B717" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C717" s="1" t="s">
         <v>363</v>
       </c>
@@ -20319,10 +20450,13 @@
         <v>4697.9399999999996</v>
       </c>
     </row>
-    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A718" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B718" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C718" s="1" t="s">
         <v>103</v>
       </c>
@@ -20342,10 +20476,13 @@
         <v>896</v>
       </c>
     </row>
-    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A719" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B719" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C719" s="1">
         <v>11156537</v>
       </c>
@@ -20365,10 +20502,13 @@
         <v>234</v>
       </c>
     </row>
-    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A720" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B720" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C720" s="1" t="s">
         <v>41</v>
       </c>
@@ -20388,10 +20528,13 @@
         <v>462.75</v>
       </c>
     </row>
-    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A721" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="B721" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C721" s="1">
         <v>11155143</v>
       </c>
@@ -20412,13 +20555,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H721" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Expense"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H721" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{771F6A9A-0589-41A2-AEB6-A36AA84653E5}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABE734D0-C55E-4593-A2E6-18EF66A507CE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$721</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$771</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4608" uniqueCount="480">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -1392,6 +1392,93 @@
   </si>
   <si>
     <t>Wk41</t>
+  </si>
+  <si>
+    <t>70900.067 SA/MP Test Socket Pogo Pin X1893</t>
+  </si>
+  <si>
+    <t>13/10/2025</t>
+  </si>
+  <si>
+    <t>PTS-1138 6K-9090-HS01  LF Vacuum Adaptor</t>
+  </si>
+  <si>
+    <t>PTS-1136 300-001519-015 Semiconductor Primary Pogo pin X2637</t>
+  </si>
+  <si>
+    <t>1400pcs</t>
+  </si>
+  <si>
+    <t>PTS-1150 300-01698-010 Semiconductor Secondary Pogo Pin X2544</t>
+  </si>
+  <si>
+    <t>14/10/2025</t>
+  </si>
+  <si>
+    <t>15/10/2025</t>
+  </si>
+  <si>
+    <t>XS-PTS-1025</t>
+  </si>
+  <si>
+    <t>10618.38 PRIMARY PCB BOARD ASSY X1767</t>
+  </si>
+  <si>
+    <t>260pcs</t>
+  </si>
+  <si>
+    <t>HX 1483 HPN OMRON EE-SX952-W-1M SENSOR X1893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTS-1149 40Ways Ribbon Flat Cable (1.2M) </t>
+  </si>
+  <si>
+    <t>PTS-1154 70902.708 TOP NEST X2544</t>
+  </si>
+  <si>
+    <t>PTS-1144 800.403.00 X2544 MYCROFTL MP</t>
+  </si>
+  <si>
+    <t>PTS-1133 TW.50.1B.98.JV.001.02 SHUTTLE X2544</t>
+  </si>
+  <si>
+    <t>TW.50.1A.00.02.016.00 BRASS SLIDE X1767</t>
+  </si>
+  <si>
+    <t>145pcs</t>
+  </si>
+  <si>
+    <t>540pcs</t>
+  </si>
+  <si>
+    <t>PTS-1152 TW.50.1B.FI.0S.016.00 SHT UNLOAD X2637</t>
+  </si>
+  <si>
+    <t>PTS-1151 TW.50.1B.FI.0S.014.00 SHT LOAD X2637</t>
+  </si>
+  <si>
+    <t>3M Wire Seal Tape (Black)</t>
+  </si>
+  <si>
+    <t>10roll</t>
+  </si>
+  <si>
+    <t>16/10/2025</t>
+  </si>
+  <si>
+    <t>18/10/2025</t>
+  </si>
+  <si>
+    <t>17/10/2025</t>
+  </si>
+  <si>
+    <t>97pcs</t>
+  </si>
+  <si>
+    <t>19/10/2025</t>
+  </si>
+  <si>
+    <t>Wk42</t>
   </si>
 </sst>
 </file>
@@ -1788,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:J721"/>
+  <dimension ref="A1:J771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C675" sqref="C675"/>
+      <selection activeCell="B724" sqref="B724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20554,8 +20641,1308 @@
         <v>744</v>
       </c>
     </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A722" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D722" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E722" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F722" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G722" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H722" s="1">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A723" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C723" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D723" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E723" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F723" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G723" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H723" s="1">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A724" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C724" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D724" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E724" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F724" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G724" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H724" s="1">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A725" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C725" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E725" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F725" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G725" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H725" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A726" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D726" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F726" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G726" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H726" s="1">
+        <v>2098.7600000000002</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A727" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C727" s="1">
+        <v>11155949</v>
+      </c>
+      <c r="D727" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E727" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F727" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G727" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H727" s="1">
+        <v>11557.92</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A728" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C728" s="1">
+        <v>11156537</v>
+      </c>
+      <c r="D728" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E728" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F728" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G728" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H728" s="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A729" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D729" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E729" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F729" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G729" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H729" s="1">
+        <v>190.99</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A730" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D730" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E730" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F730" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G730" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H730" s="1">
+        <v>191.35</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A731" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E731" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F731" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G731" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H731" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A732" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D732" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E732" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F732" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G732" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H732" s="1">
+        <v>331.6</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A733" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C733" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E733" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F733" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G733" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H733" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A734" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C734" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E734" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F734" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G734" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H734" s="1">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A735" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C735" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E735" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F735" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G735" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H735" s="1">
+        <v>2222.2399999999998</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A736" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C736" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E736" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F736" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G736" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H736" s="1">
+        <v>1111.1199999999999</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A737" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C737" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E737" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F737" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G737" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H737" s="1">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A738" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C738" s="1">
+        <v>11151237</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E738" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F738" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G738" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H738" s="1">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A739" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E739" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F739" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G739" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H739" s="1">
+        <v>133.63999999999999</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A740" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C740" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E740" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F740" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G740" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H740" s="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A741" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E741" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F741" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G741" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H741" s="1">
+        <v>7703.45</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A742" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E742" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F742" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G742" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H742" s="1">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A743" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E743" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F743" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G743" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H743" s="1">
+        <v>132.86000000000001</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A744" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E744" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F744" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G744" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H744" s="1">
+        <v>1785.58</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A745" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E745" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F745" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G745" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H745" s="1">
+        <v>1006.88</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A746" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C746" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E746" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F746" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G746" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H746" s="1">
+        <v>1666.68</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A747" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C747" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E747" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F747" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G747" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H747" s="1">
+        <v>1666.68</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A748" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C748" s="1">
+        <v>11151237</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E748" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F748" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G748" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H748" s="1">
+        <v>1760.2</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A749" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C749" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E749" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F749" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G749" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H749" s="1">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A750" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E750" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F750" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G750" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H750" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A751" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C751" s="1">
+        <v>11156537</v>
+      </c>
+      <c r="D751" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E751" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F751" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G751" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H751" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A752" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C752" s="1">
+        <v>11156536</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E752" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F752" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G752" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H752" s="1">
+        <v>194.66</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A753" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E753" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F753" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G753" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H753" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A754" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C754" s="1">
+        <v>11156541</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E754" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F754" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G754" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H754" s="1">
+        <v>784.32</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A755" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C755" s="1">
+        <v>11155947</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E755" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F755" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G755" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H755" s="1">
+        <v>752.32</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A756" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C756" s="1">
+        <v>11154690</v>
+      </c>
+      <c r="D756" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E756" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F756" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G756" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H756" s="1">
+        <v>833.34</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A757" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C757" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D757" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E757" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F757" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G757" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H757" s="1">
+        <v>135.30000000000001</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A758" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D758" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E758" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F758" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G758" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H758" s="1">
+        <v>1850.99</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A759" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C759" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D759" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E759" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F759" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G759" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H759" s="1">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A760" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C760" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E760" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F760" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G760" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H760" s="1">
+        <v>5089.5</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A761" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C761" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D761" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E761" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F761" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G761" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H761" s="1">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A762" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C762" s="1">
+        <v>11151237</v>
+      </c>
+      <c r="D762" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E762" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F762" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G762" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H762" s="1">
+        <v>3655.8</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A763" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C763" s="1">
+        <v>11156539</v>
+      </c>
+      <c r="D763" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E763" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F763" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G763" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H763" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A764" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C764" s="1">
+        <v>11156538</v>
+      </c>
+      <c r="D764" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E764" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F764" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G764" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H764" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A765" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C765" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E765" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F765" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G765" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H765" s="1">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A766" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C766" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D766" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E766" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F766" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G766" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H766" s="1">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A767" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C767" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D767" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E767" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F767" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G767" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H767" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A768" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C768" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D768" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E768" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F768" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G768" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H768" s="1">
+        <v>555.55999999999995</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A769" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C769" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D769" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E769" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F769" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G769" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H769" s="1">
+        <v>1666.68</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A770" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C770" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D770" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E770" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F770" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G770" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H770" s="1">
+        <v>3404.7</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A771" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C771" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E771" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F771" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G771" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H771" s="1">
+        <v>2016</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H721" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
+  <autoFilter ref="A1:H771" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABE734D0-C55E-4593-A2E6-18EF66A507CE}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4982471-97E2-43B4-8B53-BDEB263A89DE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4608" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4608" uniqueCount="479">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -1317,9 +1317,6 @@
   </si>
   <si>
     <t>PTS-1140 6K-9090-HS02 HPS LF Aligner X2637</t>
-  </si>
-  <si>
-    <t>PTS-1069 TW.50.15.FI.0S.150.00 X2637</t>
   </si>
   <si>
     <t>GP-762A35A-SOCKET GRD POGO PIN</t>
@@ -1878,7 +1875,7 @@
   <dimension ref="A1:J771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B724" sqref="B724"/>
+      <selection activeCell="D776" sqref="D776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19187,7 +19184,7 @@
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A666" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B666" s="1" t="s">
         <v>51</v>
@@ -19213,7 +19210,7 @@
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A667" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B667" s="1" t="s">
         <v>51</v>
@@ -19239,7 +19236,7 @@
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A668" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B668" s="1" t="s">
         <v>51</v>
@@ -19265,7 +19262,7 @@
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A669" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B669" s="1" t="s">
         <v>51</v>
@@ -19291,7 +19288,7 @@
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A670" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B670" s="1" t="s">
         <v>51</v>
@@ -19317,7 +19314,7 @@
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A671" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>51</v>
@@ -19343,7 +19340,7 @@
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A672" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B672" s="1" t="s">
         <v>96</v>
@@ -19369,7 +19366,7 @@
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A673" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B673" s="1" t="s">
         <v>96</v>
@@ -19395,7 +19392,7 @@
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A674" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B674" s="1" t="s">
         <v>96</v>
@@ -19421,7 +19418,7 @@
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A675" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B675" s="1" t="s">
         <v>96</v>
@@ -19447,7 +19444,7 @@
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A676" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>96</v>
@@ -19473,7 +19470,7 @@
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A677" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B677" s="1" t="s">
         <v>96</v>
@@ -19499,7 +19496,7 @@
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A678" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B678" s="1" t="s">
         <v>96</v>
@@ -19525,7 +19522,7 @@
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A679" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B679" s="1" t="s">
         <v>96</v>
@@ -19551,7 +19548,7 @@
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A680" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B680" s="1" t="s">
         <v>96</v>
@@ -19577,7 +19574,7 @@
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A681" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B681" s="1" t="s">
         <v>96</v>
@@ -19603,7 +19600,7 @@
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A682" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B682" s="1" t="s">
         <v>96</v>
@@ -19629,7 +19626,7 @@
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A683" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B683" s="1" t="s">
         <v>96</v>
@@ -19655,7 +19652,7 @@
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A684" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B684" s="1" t="s">
         <v>96</v>
@@ -19681,7 +19678,7 @@
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A685" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B685" s="1" t="s">
         <v>96</v>
@@ -19707,7 +19704,7 @@
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A686" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B686" s="1" t="s">
         <v>96</v>
@@ -19733,7 +19730,7 @@
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A687" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B687" s="1" t="s">
         <v>96</v>
@@ -19741,8 +19738,8 @@
       <c r="C687" s="1">
         <v>11151246</v>
       </c>
-      <c r="D687" s="1" t="s">
-        <v>426</v>
+      <c r="D687" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E687" s="1" t="s">
         <v>28</v>
@@ -19759,7 +19756,7 @@
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A688" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B688" s="1" t="s">
         <v>96</v>
@@ -19768,7 +19765,7 @@
         <v>219</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E688" s="1" t="s">
         <v>85</v>
@@ -19785,7 +19782,7 @@
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A689" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B689" s="1" t="s">
         <v>96</v>
@@ -19811,7 +19808,7 @@
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A690" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B690" s="1" t="s">
         <v>51</v>
@@ -19820,7 +19817,7 @@
         <v>51</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E690" s="1" t="s">
         <v>170</v>
@@ -19829,7 +19826,7 @@
         <v>9</v>
       </c>
       <c r="G690" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H690" s="1">
         <v>968.45</v>
@@ -19837,7 +19834,7 @@
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A691" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B691" s="1" t="s">
         <v>51</v>
@@ -19846,7 +19843,7 @@
         <v>51</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E691" s="1" t="s">
         <v>421</v>
@@ -19855,7 +19852,7 @@
         <v>9</v>
       </c>
       <c r="G691" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H691" s="1">
         <v>77.48</v>
@@ -19863,7 +19860,7 @@
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A692" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B692" s="1" t="s">
         <v>96</v>
@@ -19871,8 +19868,8 @@
       <c r="C692" s="1">
         <v>11151246</v>
       </c>
-      <c r="D692" s="1" t="s">
-        <v>426</v>
+      <c r="D692" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E692" s="1" t="s">
         <v>8</v>
@@ -19881,7 +19878,7 @@
         <v>9</v>
       </c>
       <c r="G692" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H692" s="1">
         <v>1666.68</v>
@@ -19889,7 +19886,7 @@
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A693" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B693" s="1" t="s">
         <v>96</v>
@@ -19898,7 +19895,7 @@
         <v>11155949</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E693" s="1" t="s">
         <v>35</v>
@@ -19907,7 +19904,7 @@
         <v>9</v>
       </c>
       <c r="G693" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H693" s="1">
         <v>2889.48</v>
@@ -19915,7 +19912,7 @@
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A694" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>96</v>
@@ -19933,7 +19930,7 @@
         <v>9</v>
       </c>
       <c r="G694" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H694" s="1">
         <v>91.88</v>
@@ -19941,7 +19938,7 @@
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A695" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>96</v>
@@ -19959,7 +19956,7 @@
         <v>9</v>
       </c>
       <c r="G695" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H695" s="1">
         <v>372</v>
@@ -19967,7 +19964,7 @@
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A696" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B696" s="1" t="s">
         <v>96</v>
@@ -19979,13 +19976,13 @@
         <v>91</v>
       </c>
       <c r="E696" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F696" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G696" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H696" s="1">
         <v>2520</v>
@@ -19993,7 +19990,7 @@
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A697" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B697" s="1" t="s">
         <v>96</v>
@@ -20011,7 +20008,7 @@
         <v>9</v>
       </c>
       <c r="G697" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H697" s="1">
         <v>3510</v>
@@ -20019,7 +20016,7 @@
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A698" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B698" s="1" t="s">
         <v>96</v>
@@ -20037,7 +20034,7 @@
         <v>9</v>
       </c>
       <c r="G698" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H698" s="1">
         <v>1008</v>
@@ -20045,7 +20042,7 @@
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A699" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B699" s="1" t="s">
         <v>96</v>
@@ -20063,7 +20060,7 @@
         <v>9</v>
       </c>
       <c r="G699" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H699" s="1">
         <v>744</v>
@@ -20071,16 +20068,16 @@
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A700" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B700" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C700" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D700" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="D700" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="E700" s="1" t="s">
         <v>13</v>
@@ -20089,7 +20086,7 @@
         <v>9</v>
       </c>
       <c r="G700" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H700" s="1">
         <v>1221.4000000000001</v>
@@ -20097,16 +20094,16 @@
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A701" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B701" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C701" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D701" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="D701" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="E701" s="1" t="s">
         <v>40</v>
@@ -20115,7 +20112,7 @@
         <v>9</v>
       </c>
       <c r="G701" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H701" s="1">
         <v>87.69</v>
@@ -20123,16 +20120,16 @@
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A702" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B702" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C702" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D702" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="D702" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="E702" s="1" t="s">
         <v>16</v>
@@ -20141,7 +20138,7 @@
         <v>9</v>
       </c>
       <c r="G702" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H702" s="1">
         <v>574.20000000000005</v>
@@ -20149,16 +20146,16 @@
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A703" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B703" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C703" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D703" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="D703" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="E703" s="1" t="s">
         <v>16</v>
@@ -20167,7 +20164,7 @@
         <v>9</v>
       </c>
       <c r="G703" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H703" s="1">
         <v>430.6</v>
@@ -20175,7 +20172,7 @@
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A704" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B704" s="1" t="s">
         <v>96</v>
@@ -20184,16 +20181,16 @@
         <v>164</v>
       </c>
       <c r="D704" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E704" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E704" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="F704" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G704" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H704" s="1">
         <v>1008.02</v>
@@ -20201,7 +20198,7 @@
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A705" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B705" s="1" t="s">
         <v>96</v>
@@ -20219,7 +20216,7 @@
         <v>9</v>
       </c>
       <c r="G705" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H705" s="1">
         <v>99.45</v>
@@ -20227,7 +20224,7 @@
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A706" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B706" s="1" t="s">
         <v>96</v>
@@ -20236,7 +20233,7 @@
         <v>219</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E706" s="1" t="s">
         <v>85</v>
@@ -20245,7 +20242,7 @@
         <v>125</v>
       </c>
       <c r="G706" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H706" s="1">
         <v>776.48</v>
@@ -20253,7 +20250,7 @@
     </row>
     <row r="707" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A707" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B707" s="1" t="s">
         <v>96</v>
@@ -20271,7 +20268,7 @@
         <v>93</v>
       </c>
       <c r="G707" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H707" s="1">
         <v>382.7</v>
@@ -20279,7 +20276,7 @@
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A708" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B708" s="1" t="s">
         <v>96</v>
@@ -20297,7 +20294,7 @@
         <v>9</v>
       </c>
       <c r="G708" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H708" s="1">
         <v>2098.7600000000002</v>
@@ -20305,7 +20302,7 @@
     </row>
     <row r="709" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A709" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>96</v>
@@ -20323,7 +20320,7 @@
         <v>9</v>
       </c>
       <c r="G709" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H709" s="1">
         <v>936</v>
@@ -20331,7 +20328,7 @@
     </row>
     <row r="710" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A710" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B710" s="1" t="s">
         <v>96</v>
@@ -20340,7 +20337,7 @@
         <v>11155949</v>
       </c>
       <c r="D710" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E710" s="1" t="s">
         <v>28</v>
@@ -20349,7 +20346,7 @@
         <v>9</v>
       </c>
       <c r="G710" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H710" s="1">
         <v>5778.96</v>
@@ -20357,7 +20354,7 @@
     </row>
     <row r="711" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A711" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B711" s="1" t="s">
         <v>96</v>
@@ -20366,7 +20363,7 @@
         <v>357</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E711" s="1" t="s">
         <v>46</v>
@@ -20375,7 +20372,7 @@
         <v>9</v>
       </c>
       <c r="G711" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H711" s="1">
         <v>1110.6400000000001</v>
@@ -20383,7 +20380,7 @@
     </row>
     <row r="712" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A712" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>96</v>
@@ -20401,7 +20398,7 @@
         <v>9</v>
       </c>
       <c r="G712" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H712" s="1">
         <v>664.3</v>
@@ -20409,7 +20406,7 @@
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A713" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B713" s="1" t="s">
         <v>96</v>
@@ -20427,7 +20424,7 @@
         <v>9</v>
       </c>
       <c r="G713" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H713" s="1">
         <v>3510</v>
@@ -20435,7 +20432,7 @@
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A714" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B714" s="1" t="s">
         <v>96</v>
@@ -20453,7 +20450,7 @@
         <v>9</v>
       </c>
       <c r="G714" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H714" s="1">
         <v>504</v>
@@ -20461,7 +20458,7 @@
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A715" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B715" s="1" t="s">
         <v>96</v>
@@ -20470,7 +20467,7 @@
         <v>174</v>
       </c>
       <c r="D715" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E715" s="1" t="s">
         <v>8</v>
@@ -20479,7 +20476,7 @@
         <v>9</v>
       </c>
       <c r="G715" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H715" s="1">
         <v>1785.58</v>
@@ -20487,7 +20484,7 @@
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A716" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>96</v>
@@ -20496,7 +20493,7 @@
         <v>33</v>
       </c>
       <c r="D716" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E716" s="1" t="s">
         <v>40</v>
@@ -20505,7 +20502,7 @@
         <v>9</v>
       </c>
       <c r="G716" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H716" s="1">
         <v>1678.14</v>
@@ -20513,7 +20510,7 @@
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A717" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B717" s="1" t="s">
         <v>96</v>
@@ -20531,7 +20528,7 @@
         <v>9</v>
       </c>
       <c r="G717" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H717" s="1">
         <v>4697.9399999999996</v>
@@ -20539,7 +20536,7 @@
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A718" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>96</v>
@@ -20548,7 +20545,7 @@
         <v>103</v>
       </c>
       <c r="D718" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E718" s="1" t="s">
         <v>21</v>
@@ -20557,7 +20554,7 @@
         <v>9</v>
       </c>
       <c r="G718" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H718" s="1">
         <v>896</v>
@@ -20565,7 +20562,7 @@
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A719" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B719" s="1" t="s">
         <v>96</v>
@@ -20583,7 +20580,7 @@
         <v>9</v>
       </c>
       <c r="G719" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H719" s="1">
         <v>234</v>
@@ -20591,7 +20588,7 @@
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A720" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B720" s="1" t="s">
         <v>96</v>
@@ -20600,7 +20597,7 @@
         <v>41</v>
       </c>
       <c r="D720" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E720" s="1" t="s">
         <v>13</v>
@@ -20609,7 +20606,7 @@
         <v>9</v>
       </c>
       <c r="G720" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H720" s="1">
         <v>462.75</v>
@@ -20617,7 +20614,7 @@
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A721" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B721" s="1" t="s">
         <v>96</v>
@@ -20635,7 +20632,7 @@
         <v>9</v>
       </c>
       <c r="G721" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H721" s="1">
         <v>744</v>
@@ -20643,7 +20640,7 @@
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A722" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B722" s="1" t="s">
         <v>96</v>
@@ -20652,7 +20649,7 @@
         <v>191</v>
       </c>
       <c r="D722" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E722" s="1" t="s">
         <v>85</v>
@@ -20661,7 +20658,7 @@
         <v>9</v>
       </c>
       <c r="G722" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H722" s="1">
         <v>1776</v>
@@ -20669,7 +20666,7 @@
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A723" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B723" s="1" t="s">
         <v>96</v>
@@ -20678,7 +20675,7 @@
         <v>11155497</v>
       </c>
       <c r="D723" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E723" s="1" t="s">
         <v>170</v>
@@ -20687,7 +20684,7 @@
         <v>9</v>
       </c>
       <c r="G723" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H723" s="1">
         <v>3510</v>
@@ -20695,7 +20692,7 @@
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A724" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>96</v>
@@ -20704,16 +20701,16 @@
         <v>11155143</v>
       </c>
       <c r="D724" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E724" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E724" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="F724" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G724" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H724" s="1">
         <v>2604</v>
@@ -20721,7 +20718,7 @@
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A725" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B725" s="1" t="s">
         <v>96</v>
@@ -20730,7 +20727,7 @@
         <v>11155143</v>
       </c>
       <c r="D725" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E725" s="1" t="s">
         <v>21</v>
@@ -20739,7 +20736,7 @@
         <v>9</v>
       </c>
       <c r="G725" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H725" s="1">
         <v>372</v>
@@ -20747,7 +20744,7 @@
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A726" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B726" s="1" t="s">
         <v>96</v>
@@ -20765,7 +20762,7 @@
         <v>9</v>
       </c>
       <c r="G726" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H726" s="1">
         <v>2098.7600000000002</v>
@@ -20773,7 +20770,7 @@
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A727" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B727" s="1" t="s">
         <v>96</v>
@@ -20791,7 +20788,7 @@
         <v>9</v>
       </c>
       <c r="G727" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H727" s="1">
         <v>11557.92</v>
@@ -20799,7 +20796,7 @@
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A728" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>96</v>
@@ -20808,7 +20805,7 @@
         <v>11156537</v>
       </c>
       <c r="D728" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E728" s="1" t="s">
         <v>85</v>
@@ -20817,7 +20814,7 @@
         <v>9</v>
       </c>
       <c r="G728" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H728" s="1">
         <v>936</v>
@@ -20825,7 +20822,7 @@
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A729" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B729" s="1" t="s">
         <v>96</v>
@@ -20843,7 +20840,7 @@
         <v>93</v>
       </c>
       <c r="G729" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H729" s="1">
         <v>190.99</v>
@@ -20851,7 +20848,7 @@
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A730" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B730" s="1" t="s">
         <v>96</v>
@@ -20869,7 +20866,7 @@
         <v>93</v>
       </c>
       <c r="G730" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H730" s="1">
         <v>191.35</v>
@@ -20877,7 +20874,7 @@
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A731" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>96</v>
@@ -20895,7 +20892,7 @@
         <v>93</v>
       </c>
       <c r="G731" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H731" s="1">
         <v>720</v>
@@ -20903,7 +20900,7 @@
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A732" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B732" s="1" t="s">
         <v>96</v>
@@ -20921,7 +20918,7 @@
         <v>125</v>
       </c>
       <c r="G732" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H732" s="1">
         <v>331.6</v>
@@ -20929,7 +20926,7 @@
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A733" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>96</v>
@@ -20947,7 +20944,7 @@
         <v>9</v>
       </c>
       <c r="G733" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H733" s="1">
         <v>2016</v>
@@ -20955,7 +20952,7 @@
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A734" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B734" s="1" t="s">
         <v>96</v>
@@ -20964,7 +20961,7 @@
         <v>11155497</v>
       </c>
       <c r="D734" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E734" s="1" t="s">
         <v>170</v>
@@ -20973,7 +20970,7 @@
         <v>9</v>
       </c>
       <c r="G734" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H734" s="1">
         <v>3510</v>
@@ -20981,7 +20978,7 @@
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A735" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B735" s="1" t="s">
         <v>96</v>
@@ -20999,7 +20996,7 @@
         <v>9</v>
       </c>
       <c r="G735" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H735" s="1">
         <v>2222.2399999999998</v>
@@ -21007,7 +21004,7 @@
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A736" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B736" s="1" t="s">
         <v>96</v>
@@ -21015,8 +21012,8 @@
       <c r="C736" s="1">
         <v>11151246</v>
       </c>
-      <c r="D736" s="1" t="s">
-        <v>426</v>
+      <c r="D736" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E736" s="1" t="s">
         <v>28</v>
@@ -21025,7 +21022,7 @@
         <v>9</v>
       </c>
       <c r="G736" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H736" s="1">
         <v>1111.1199999999999</v>
@@ -21033,7 +21030,7 @@
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A737" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>96</v>
@@ -21042,7 +21039,7 @@
         <v>11155143</v>
       </c>
       <c r="D737" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E737" s="1" t="s">
         <v>207</v>
@@ -21051,7 +21048,7 @@
         <v>9</v>
       </c>
       <c r="G737" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H737" s="1">
         <v>930</v>
@@ -21059,7 +21056,7 @@
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A738" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B738" s="1" t="s">
         <v>96</v>
@@ -21077,7 +21074,7 @@
         <v>9</v>
       </c>
       <c r="G738" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H738" s="1">
         <v>1354</v>
@@ -21085,7 +21082,7 @@
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A739" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>96</v>
@@ -21103,7 +21100,7 @@
         <v>9</v>
       </c>
       <c r="G739" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H739" s="1">
         <v>133.63999999999999</v>
@@ -21111,16 +21108,16 @@
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A740" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B740" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C740" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D740" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="D740" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="E740" s="1" t="s">
         <v>35</v>
@@ -21129,7 +21126,7 @@
         <v>9</v>
       </c>
       <c r="G740" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H740" s="1">
         <v>421</v>
@@ -21137,7 +21134,7 @@
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A741" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>96</v>
@@ -21155,7 +21152,7 @@
         <v>9</v>
       </c>
       <c r="G741" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H741" s="1">
         <v>7703.45</v>
@@ -21163,7 +21160,7 @@
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A742" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>96</v>
@@ -21172,7 +21169,7 @@
         <v>191</v>
       </c>
       <c r="D742" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E742" s="1" t="s">
         <v>85</v>
@@ -21181,7 +21178,7 @@
         <v>9</v>
       </c>
       <c r="G742" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H742" s="1">
         <v>1776</v>
@@ -21189,7 +21186,7 @@
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A743" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B743" s="1" t="s">
         <v>96</v>
@@ -21207,7 +21204,7 @@
         <v>9</v>
       </c>
       <c r="G743" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H743" s="1">
         <v>132.86000000000001</v>
@@ -21215,7 +21212,7 @@
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A744" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>96</v>
@@ -21233,7 +21230,7 @@
         <v>9</v>
       </c>
       <c r="G744" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H744" s="1">
         <v>1785.58</v>
@@ -21241,7 +21238,7 @@
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A745" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B745" s="1" t="s">
         <v>96</v>
@@ -21250,7 +21247,7 @@
         <v>33</v>
       </c>
       <c r="D745" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E745" s="1" t="s">
         <v>66</v>
@@ -21259,7 +21256,7 @@
         <v>9</v>
       </c>
       <c r="G745" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H745" s="1">
         <v>1006.88</v>
@@ -21267,7 +21264,7 @@
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A746" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B746" s="1" t="s">
         <v>96</v>
@@ -21285,7 +21282,7 @@
         <v>9</v>
       </c>
       <c r="G746" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H746" s="1">
         <v>1666.68</v>
@@ -21293,7 +21290,7 @@
     </row>
     <row r="747" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A747" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B747" s="1" t="s">
         <v>96</v>
@@ -21301,8 +21298,8 @@
       <c r="C747" s="1">
         <v>11151246</v>
       </c>
-      <c r="D747" s="1" t="s">
-        <v>426</v>
+      <c r="D747" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E747" s="1" t="s">
         <v>8</v>
@@ -21311,7 +21308,7 @@
         <v>9</v>
       </c>
       <c r="G747" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H747" s="1">
         <v>1666.68</v>
@@ -21319,7 +21316,7 @@
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A748" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B748" s="1" t="s">
         <v>96</v>
@@ -21331,13 +21328,13 @@
         <v>354</v>
       </c>
       <c r="E748" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F748" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G748" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H748" s="1">
         <v>1760.2</v>
@@ -21345,7 +21342,7 @@
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A749" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B749" s="1" t="s">
         <v>96</v>
@@ -21354,7 +21351,7 @@
         <v>11155143</v>
       </c>
       <c r="D749" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E749" s="1" t="s">
         <v>207</v>
@@ -21363,7 +21360,7 @@
         <v>9</v>
       </c>
       <c r="G749" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H749" s="1">
         <v>930</v>
@@ -21371,7 +21368,7 @@
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A750" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B750" s="1" t="s">
         <v>96</v>
@@ -21380,7 +21377,7 @@
         <v>204</v>
       </c>
       <c r="D750" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E750" s="1" t="s">
         <v>35</v>
@@ -21389,7 +21386,7 @@
         <v>9</v>
       </c>
       <c r="G750" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H750" s="1">
         <v>60</v>
@@ -21397,7 +21394,7 @@
     </row>
     <row r="751" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A751" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>96</v>
@@ -21406,7 +21403,7 @@
         <v>11156537</v>
       </c>
       <c r="D751" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E751" s="1" t="s">
         <v>170</v>
@@ -21415,7 +21412,7 @@
         <v>9</v>
       </c>
       <c r="G751" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H751" s="1">
         <v>234</v>
@@ -21423,7 +21420,7 @@
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A752" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B752" s="1" t="s">
         <v>96</v>
@@ -21432,7 +21429,7 @@
         <v>11156536</v>
       </c>
       <c r="D752" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E752" s="1" t="s">
         <v>40</v>
@@ -21441,7 +21438,7 @@
         <v>9</v>
       </c>
       <c r="G752" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H752" s="1">
         <v>194.66</v>
@@ -21449,7 +21446,7 @@
     </row>
     <row r="753" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A753" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B753" s="1" t="s">
         <v>96</v>
@@ -21467,7 +21464,7 @@
         <v>9</v>
       </c>
       <c r="G753" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H753" s="1">
         <v>0.75</v>
@@ -21475,7 +21472,7 @@
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A754" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B754" s="1" t="s">
         <v>96</v>
@@ -21484,7 +21481,7 @@
         <v>11156541</v>
       </c>
       <c r="D754" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E754" s="1" t="s">
         <v>28</v>
@@ -21493,7 +21490,7 @@
         <v>9</v>
       </c>
       <c r="G754" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H754" s="1">
         <v>784.32</v>
@@ -21501,7 +21498,7 @@
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A755" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B755" s="1" t="s">
         <v>96</v>
@@ -21510,7 +21507,7 @@
         <v>11155947</v>
       </c>
       <c r="D755" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E755" s="1" t="s">
         <v>28</v>
@@ -21519,7 +21516,7 @@
         <v>9</v>
       </c>
       <c r="G755" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H755" s="1">
         <v>752.32</v>
@@ -21527,7 +21524,7 @@
     </row>
     <row r="756" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A756" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B756" s="1" t="s">
         <v>96</v>
@@ -21536,7 +21533,7 @@
         <v>11154690</v>
       </c>
       <c r="D756" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E756" s="1" t="s">
         <v>28</v>
@@ -21545,7 +21542,7 @@
         <v>9</v>
       </c>
       <c r="G756" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H756" s="1">
         <v>833.34</v>
@@ -21553,7 +21550,7 @@
     </row>
     <row r="757" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A757" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B757" s="1" t="s">
         <v>96</v>
@@ -21562,7 +21559,7 @@
         <v>44</v>
       </c>
       <c r="D757" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E757" s="1" t="s">
         <v>40</v>
@@ -21571,7 +21568,7 @@
         <v>9</v>
       </c>
       <c r="G757" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H757" s="1">
         <v>135.30000000000001</v>
@@ -21579,7 +21576,7 @@
     </row>
     <row r="758" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A758" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B758" s="1" t="s">
         <v>96</v>
@@ -21597,7 +21594,7 @@
         <v>9</v>
       </c>
       <c r="G758" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H758" s="1">
         <v>1850.99</v>
@@ -21605,7 +21602,7 @@
     </row>
     <row r="759" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A759" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>96</v>
@@ -21623,7 +21620,7 @@
         <v>9</v>
       </c>
       <c r="G759" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H759" s="1">
         <v>4032</v>
@@ -21631,7 +21628,7 @@
     </row>
     <row r="760" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A760" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B760" s="1" t="s">
         <v>96</v>
@@ -21640,16 +21637,16 @@
         <v>11155497</v>
       </c>
       <c r="D760" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E760" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F760" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G760" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H760" s="1">
         <v>5089.5</v>
@@ -21657,7 +21654,7 @@
     </row>
     <row r="761" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A761" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B761" s="1" t="s">
         <v>96</v>
@@ -21666,7 +21663,7 @@
         <v>11155143</v>
       </c>
       <c r="D761" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E761" s="1" t="s">
         <v>207</v>
@@ -21675,7 +21672,7 @@
         <v>9</v>
       </c>
       <c r="G761" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H761" s="1">
         <v>930</v>
@@ -21683,7 +21680,7 @@
     </row>
     <row r="762" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A762" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B762" s="1" t="s">
         <v>96</v>
@@ -21695,13 +21692,13 @@
         <v>354</v>
       </c>
       <c r="E762" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F762" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G762" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H762" s="1">
         <v>3655.8</v>
@@ -21709,7 +21706,7 @@
     </row>
     <row r="763" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A763" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B763" s="1" t="s">
         <v>96</v>
@@ -21718,7 +21715,7 @@
         <v>11156539</v>
       </c>
       <c r="D763" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E763" s="1" t="s">
         <v>28</v>
@@ -21727,7 +21724,7 @@
         <v>9</v>
       </c>
       <c r="G763" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H763" s="1">
         <v>600</v>
@@ -21735,7 +21732,7 @@
     </row>
     <row r="764" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A764" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B764" s="1" t="s">
         <v>96</v>
@@ -21744,7 +21741,7 @@
         <v>11156538</v>
       </c>
       <c r="D764" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E764" s="1" t="s">
         <v>28</v>
@@ -21753,7 +21750,7 @@
         <v>9</v>
       </c>
       <c r="G764" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H764" s="1">
         <v>600</v>
@@ -21761,7 +21758,7 @@
     </row>
     <row r="765" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A765" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B765" s="1" t="s">
         <v>51</v>
@@ -21770,16 +21767,16 @@
         <v>51</v>
       </c>
       <c r="D765" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E765" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="E765" s="1" t="s">
+      <c r="F765" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G765" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="F765" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G765" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="H765" s="1">
         <v>11.58</v>
@@ -21787,7 +21784,7 @@
     </row>
     <row r="766" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A766" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B766" s="1" t="s">
         <v>96</v>
@@ -21796,7 +21793,7 @@
         <v>11155497</v>
       </c>
       <c r="D766" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E766" s="1" t="s">
         <v>170</v>
@@ -21805,7 +21802,7 @@
         <v>9</v>
       </c>
       <c r="G766" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H766" s="1">
         <v>3510</v>
@@ -21813,7 +21810,7 @@
     </row>
     <row r="767" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A767" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B767" s="1" t="s">
         <v>96</v>
@@ -21831,7 +21828,7 @@
         <v>9</v>
       </c>
       <c r="G767" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H767" s="1">
         <v>2016</v>
@@ -21839,7 +21836,7 @@
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A768" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B768" s="1" t="s">
         <v>96</v>
@@ -21847,8 +21844,8 @@
       <c r="C768" s="1">
         <v>11151246</v>
       </c>
-      <c r="D768" s="1" t="s">
-        <v>426</v>
+      <c r="D768" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E768" s="1" t="s">
         <v>8</v>
@@ -21857,7 +21854,7 @@
         <v>9</v>
       </c>
       <c r="G768" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H768" s="1">
         <v>555.55999999999995</v>
@@ -21865,7 +21862,7 @@
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A769" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B769" s="1" t="s">
         <v>96</v>
@@ -21883,7 +21880,7 @@
         <v>9</v>
       </c>
       <c r="G769" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H769" s="1">
         <v>1666.68</v>
@@ -21891,7 +21888,7 @@
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A770" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B770" s="1" t="s">
         <v>96</v>
@@ -21900,16 +21897,16 @@
         <v>11155497</v>
       </c>
       <c r="D770" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E770" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F770" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G770" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="F770" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G770" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="H770" s="1">
         <v>3404.7</v>
@@ -21917,7 +21914,7 @@
     </row>
     <row r="771" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A771" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>96</v>
@@ -21935,7 +21932,7 @@
         <v>9</v>
       </c>
       <c r="G771" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H771" s="1">
         <v>2016</v>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4982471-97E2-43B4-8B53-BDEB263A89DE}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DB2F8F0-2924-460B-9782-C6089BF4A6A5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4608" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4608" uniqueCount="477">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -1280,9 +1280,6 @@
     <t>HX 2067 HPN CRC CO CONTACT CLEANER X2637</t>
   </si>
   <si>
-    <t>PTS-1138 6K-9090-HS01  Vacuum Adaptor X2637</t>
-  </si>
-  <si>
     <t>PTS-1150 300-01698-010 Semiconductor X2544</t>
   </si>
   <si>
@@ -1395,9 +1392,6 @@
   </si>
   <si>
     <t>13/10/2025</t>
-  </si>
-  <si>
-    <t>PTS-1138 6K-9090-HS01  LF Vacuum Adaptor</t>
   </si>
   <si>
     <t>PTS-1136 300-001519-015 Semiconductor Primary Pogo pin X2637</t>
@@ -1549,10 +1543,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1875,7 +1865,7 @@
   <dimension ref="A1:J771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D776" sqref="D776"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19184,7 +19174,7 @@
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A666" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B666" s="1" t="s">
         <v>51</v>
@@ -19210,7 +19200,7 @@
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A667" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B667" s="1" t="s">
         <v>51</v>
@@ -19236,7 +19226,7 @@
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A668" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B668" s="1" t="s">
         <v>51</v>
@@ -19262,7 +19252,7 @@
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A669" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B669" s="1" t="s">
         <v>51</v>
@@ -19288,7 +19278,7 @@
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A670" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B670" s="1" t="s">
         <v>51</v>
@@ -19314,7 +19304,7 @@
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A671" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>51</v>
@@ -19340,7 +19330,7 @@
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A672" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B672" s="1" t="s">
         <v>96</v>
@@ -19366,7 +19356,7 @@
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A673" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B673" s="1" t="s">
         <v>96</v>
@@ -19392,7 +19382,7 @@
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A674" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B674" s="1" t="s">
         <v>96</v>
@@ -19400,8 +19390,8 @@
       <c r="C674" s="1">
         <v>11155497</v>
       </c>
-      <c r="D674" s="1" t="s">
-        <v>413</v>
+      <c r="D674" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E674" s="1" t="s">
         <v>21</v>
@@ -19418,7 +19408,7 @@
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A675" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B675" s="1" t="s">
         <v>96</v>
@@ -19427,7 +19417,7 @@
         <v>11156537</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E675" s="1" t="s">
         <v>85</v>
@@ -19444,16 +19434,16 @@
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A676" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C676" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D676" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="D676" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="E676" s="1" t="s">
         <v>305</v>
@@ -19470,16 +19460,16 @@
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A677" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B677" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C677" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D677" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="D677" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="E677" s="1" t="s">
         <v>305</v>
@@ -19496,19 +19486,19 @@
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A678" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B678" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C678" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D678" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D678" s="1" t="s">
+      <c r="E678" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="E678" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="F678" s="1" t="s">
         <v>9</v>
@@ -19522,16 +19512,16 @@
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A679" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B679" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C679" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D679" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="D679" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="E679" s="1" t="s">
         <v>305</v>
@@ -19548,7 +19538,7 @@
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A680" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B680" s="1" t="s">
         <v>96</v>
@@ -19574,7 +19564,7 @@
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A681" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B681" s="1" t="s">
         <v>96</v>
@@ -19583,7 +19573,7 @@
         <v>257</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E681" s="1" t="s">
         <v>13</v>
@@ -19600,7 +19590,7 @@
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A682" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B682" s="1" t="s">
         <v>96</v>
@@ -19626,7 +19616,7 @@
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A683" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B683" s="1" t="s">
         <v>96</v>
@@ -19635,7 +19625,7 @@
         <v>11155797</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E683" s="1" t="s">
         <v>187</v>
@@ -19652,7 +19642,7 @@
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A684" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B684" s="1" t="s">
         <v>96</v>
@@ -19678,7 +19668,7 @@
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A685" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B685" s="1" t="s">
         <v>96</v>
@@ -19704,7 +19694,7 @@
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A686" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B686" s="1" t="s">
         <v>96</v>
@@ -19730,7 +19720,7 @@
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A687" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B687" s="1" t="s">
         <v>96</v>
@@ -19756,7 +19746,7 @@
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A688" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B688" s="1" t="s">
         <v>96</v>
@@ -19765,7 +19755,7 @@
         <v>219</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E688" s="1" t="s">
         <v>85</v>
@@ -19782,7 +19772,7 @@
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A689" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B689" s="1" t="s">
         <v>96</v>
@@ -19808,7 +19798,7 @@
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A690" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B690" s="1" t="s">
         <v>51</v>
@@ -19817,7 +19807,7 @@
         <v>51</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E690" s="1" t="s">
         <v>170</v>
@@ -19826,7 +19816,7 @@
         <v>9</v>
       </c>
       <c r="G690" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H690" s="1">
         <v>968.45</v>
@@ -19834,7 +19824,7 @@
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A691" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B691" s="1" t="s">
         <v>51</v>
@@ -19843,16 +19833,16 @@
         <v>51</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E691" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F691" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G691" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H691" s="1">
         <v>77.48</v>
@@ -19860,7 +19850,7 @@
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A692" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B692" s="1" t="s">
         <v>96</v>
@@ -19878,7 +19868,7 @@
         <v>9</v>
       </c>
       <c r="G692" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H692" s="1">
         <v>1666.68</v>
@@ -19886,7 +19876,7 @@
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A693" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B693" s="1" t="s">
         <v>96</v>
@@ -19895,7 +19885,7 @@
         <v>11155949</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E693" s="1" t="s">
         <v>35</v>
@@ -19904,7 +19894,7 @@
         <v>9</v>
       </c>
       <c r="G693" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H693" s="1">
         <v>2889.48</v>
@@ -19912,7 +19902,7 @@
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A694" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>96</v>
@@ -19930,7 +19920,7 @@
         <v>9</v>
       </c>
       <c r="G694" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H694" s="1">
         <v>91.88</v>
@@ -19938,7 +19928,7 @@
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A695" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>96</v>
@@ -19956,7 +19946,7 @@
         <v>9</v>
       </c>
       <c r="G695" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H695" s="1">
         <v>372</v>
@@ -19964,7 +19954,7 @@
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A696" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B696" s="1" t="s">
         <v>96</v>
@@ -19976,13 +19966,13 @@
         <v>91</v>
       </c>
       <c r="E696" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F696" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G696" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H696" s="1">
         <v>2520</v>
@@ -19990,7 +19980,7 @@
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A697" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B697" s="1" t="s">
         <v>96</v>
@@ -19998,8 +19988,8 @@
       <c r="C697" s="1">
         <v>11155497</v>
       </c>
-      <c r="D697" s="1" t="s">
-        <v>413</v>
+      <c r="D697" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E697" s="1" t="s">
         <v>170</v>
@@ -20008,7 +19998,7 @@
         <v>9</v>
       </c>
       <c r="G697" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H697" s="1">
         <v>3510</v>
@@ -20016,7 +20006,7 @@
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A698" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B698" s="1" t="s">
         <v>96</v>
@@ -20025,7 +20015,7 @@
         <v>11155797</v>
       </c>
       <c r="D698" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E698" s="1" t="s">
         <v>285</v>
@@ -20034,7 +20024,7 @@
         <v>9</v>
       </c>
       <c r="G698" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H698" s="1">
         <v>1008</v>
@@ -20042,7 +20032,7 @@
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A699" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B699" s="1" t="s">
         <v>96</v>
@@ -20060,7 +20050,7 @@
         <v>9</v>
       </c>
       <c r="G699" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H699" s="1">
         <v>744</v>
@@ -20068,16 +20058,16 @@
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A700" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B700" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C700" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D700" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="D700" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="E700" s="1" t="s">
         <v>13</v>
@@ -20086,7 +20076,7 @@
         <v>9</v>
       </c>
       <c r="G700" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H700" s="1">
         <v>1221.4000000000001</v>
@@ -20094,16 +20084,16 @@
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A701" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B701" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C701" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D701" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="D701" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="E701" s="1" t="s">
         <v>40</v>
@@ -20112,7 +20102,7 @@
         <v>9</v>
       </c>
       <c r="G701" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H701" s="1">
         <v>87.69</v>
@@ -20120,16 +20110,16 @@
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A702" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B702" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C702" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D702" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="D702" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="E702" s="1" t="s">
         <v>16</v>
@@ -20138,7 +20128,7 @@
         <v>9</v>
       </c>
       <c r="G702" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H702" s="1">
         <v>574.20000000000005</v>
@@ -20146,16 +20136,16 @@
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A703" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B703" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C703" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D703" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="D703" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="E703" s="1" t="s">
         <v>16</v>
@@ -20164,7 +20154,7 @@
         <v>9</v>
       </c>
       <c r="G703" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H703" s="1">
         <v>430.6</v>
@@ -20172,7 +20162,7 @@
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A704" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B704" s="1" t="s">
         <v>96</v>
@@ -20181,16 +20171,16 @@
         <v>164</v>
       </c>
       <c r="D704" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E704" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="E704" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="F704" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G704" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H704" s="1">
         <v>1008.02</v>
@@ -20198,7 +20188,7 @@
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A705" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B705" s="1" t="s">
         <v>96</v>
@@ -20216,7 +20206,7 @@
         <v>9</v>
       </c>
       <c r="G705" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H705" s="1">
         <v>99.45</v>
@@ -20224,7 +20214,7 @@
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A706" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B706" s="1" t="s">
         <v>96</v>
@@ -20233,7 +20223,7 @@
         <v>219</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E706" s="1" t="s">
         <v>85</v>
@@ -20242,7 +20232,7 @@
         <v>125</v>
       </c>
       <c r="G706" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H706" s="1">
         <v>776.48</v>
@@ -20250,7 +20240,7 @@
     </row>
     <row r="707" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A707" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B707" s="1" t="s">
         <v>96</v>
@@ -20268,7 +20258,7 @@
         <v>93</v>
       </c>
       <c r="G707" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H707" s="1">
         <v>382.7</v>
@@ -20276,7 +20266,7 @@
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A708" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B708" s="1" t="s">
         <v>96</v>
@@ -20294,7 +20284,7 @@
         <v>9</v>
       </c>
       <c r="G708" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H708" s="1">
         <v>2098.7600000000002</v>
@@ -20302,7 +20292,7 @@
     </row>
     <row r="709" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A709" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>96</v>
@@ -20311,7 +20301,7 @@
         <v>11156537</v>
       </c>
       <c r="D709" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E709" s="1" t="s">
         <v>85</v>
@@ -20320,7 +20310,7 @@
         <v>9</v>
       </c>
       <c r="G709" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H709" s="1">
         <v>936</v>
@@ -20328,7 +20318,7 @@
     </row>
     <row r="710" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A710" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B710" s="1" t="s">
         <v>96</v>
@@ -20337,7 +20327,7 @@
         <v>11155949</v>
       </c>
       <c r="D710" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E710" s="1" t="s">
         <v>28</v>
@@ -20346,7 +20336,7 @@
         <v>9</v>
       </c>
       <c r="G710" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H710" s="1">
         <v>5778.96</v>
@@ -20354,7 +20344,7 @@
     </row>
     <row r="711" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A711" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B711" s="1" t="s">
         <v>96</v>
@@ -20363,7 +20353,7 @@
         <v>357</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E711" s="1" t="s">
         <v>46</v>
@@ -20372,7 +20362,7 @@
         <v>9</v>
       </c>
       <c r="G711" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H711" s="1">
         <v>1110.6400000000001</v>
@@ -20380,7 +20370,7 @@
     </row>
     <row r="712" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A712" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>96</v>
@@ -20398,7 +20388,7 @@
         <v>9</v>
       </c>
       <c r="G712" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H712" s="1">
         <v>664.3</v>
@@ -20406,7 +20396,7 @@
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A713" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B713" s="1" t="s">
         <v>96</v>
@@ -20414,8 +20404,8 @@
       <c r="C713" s="1">
         <v>11155497</v>
       </c>
-      <c r="D713" s="1" t="s">
-        <v>413</v>
+      <c r="D713" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E713" s="1" t="s">
         <v>170</v>
@@ -20424,7 +20414,7 @@
         <v>9</v>
       </c>
       <c r="G713" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H713" s="1">
         <v>3510</v>
@@ -20432,7 +20422,7 @@
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A714" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B714" s="1" t="s">
         <v>96</v>
@@ -20441,7 +20431,7 @@
         <v>11155797</v>
       </c>
       <c r="D714" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E714" s="1" t="s">
         <v>187</v>
@@ -20450,7 +20440,7 @@
         <v>9</v>
       </c>
       <c r="G714" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H714" s="1">
         <v>504</v>
@@ -20458,7 +20448,7 @@
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A715" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B715" s="1" t="s">
         <v>96</v>
@@ -20467,7 +20457,7 @@
         <v>174</v>
       </c>
       <c r="D715" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E715" s="1" t="s">
         <v>8</v>
@@ -20476,7 +20466,7 @@
         <v>9</v>
       </c>
       <c r="G715" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H715" s="1">
         <v>1785.58</v>
@@ -20484,7 +20474,7 @@
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A716" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>96</v>
@@ -20493,7 +20483,7 @@
         <v>33</v>
       </c>
       <c r="D716" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E716" s="1" t="s">
         <v>40</v>
@@ -20502,7 +20492,7 @@
         <v>9</v>
       </c>
       <c r="G716" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H716" s="1">
         <v>1678.14</v>
@@ -20510,7 +20500,7 @@
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A717" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B717" s="1" t="s">
         <v>96</v>
@@ -20528,7 +20518,7 @@
         <v>9</v>
       </c>
       <c r="G717" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H717" s="1">
         <v>4697.9399999999996</v>
@@ -20536,7 +20526,7 @@
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A718" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>96</v>
@@ -20545,7 +20535,7 @@
         <v>103</v>
       </c>
       <c r="D718" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E718" s="1" t="s">
         <v>21</v>
@@ -20554,7 +20544,7 @@
         <v>9</v>
       </c>
       <c r="G718" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H718" s="1">
         <v>896</v>
@@ -20562,7 +20552,7 @@
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A719" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B719" s="1" t="s">
         <v>96</v>
@@ -20571,7 +20561,7 @@
         <v>11156537</v>
       </c>
       <c r="D719" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E719" s="1" t="s">
         <v>170</v>
@@ -20580,7 +20570,7 @@
         <v>9</v>
       </c>
       <c r="G719" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H719" s="1">
         <v>234</v>
@@ -20588,7 +20578,7 @@
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A720" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B720" s="1" t="s">
         <v>96</v>
@@ -20597,7 +20587,7 @@
         <v>41</v>
       </c>
       <c r="D720" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E720" s="1" t="s">
         <v>13</v>
@@ -20606,7 +20596,7 @@
         <v>9</v>
       </c>
       <c r="G720" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H720" s="1">
         <v>462.75</v>
@@ -20614,7 +20604,7 @@
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A721" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B721" s="1" t="s">
         <v>96</v>
@@ -20632,7 +20622,7 @@
         <v>9</v>
       </c>
       <c r="G721" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H721" s="1">
         <v>744</v>
@@ -20640,7 +20630,7 @@
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A722" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B722" s="1" t="s">
         <v>96</v>
@@ -20649,7 +20639,7 @@
         <v>191</v>
       </c>
       <c r="D722" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E722" s="1" t="s">
         <v>85</v>
@@ -20658,7 +20648,7 @@
         <v>9</v>
       </c>
       <c r="G722" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H722" s="1">
         <v>1776</v>
@@ -20666,7 +20656,7 @@
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A723" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B723" s="1" t="s">
         <v>96</v>
@@ -20674,8 +20664,8 @@
       <c r="C723" s="1">
         <v>11155497</v>
       </c>
-      <c r="D723" s="1" t="s">
-        <v>452</v>
+      <c r="D723" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E723" s="1" t="s">
         <v>170</v>
@@ -20684,7 +20674,7 @@
         <v>9</v>
       </c>
       <c r="G723" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H723" s="1">
         <v>3510</v>
@@ -20692,7 +20682,7 @@
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A724" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>96</v>
@@ -20701,16 +20691,16 @@
         <v>11155143</v>
       </c>
       <c r="D724" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E724" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F724" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G724" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H724" s="1">
         <v>2604</v>
@@ -20718,7 +20708,7 @@
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A725" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B725" s="1" t="s">
         <v>96</v>
@@ -20727,7 +20717,7 @@
         <v>11155143</v>
       </c>
       <c r="D725" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E725" s="1" t="s">
         <v>21</v>
@@ -20736,7 +20726,7 @@
         <v>9</v>
       </c>
       <c r="G725" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H725" s="1">
         <v>372</v>
@@ -20744,7 +20734,7 @@
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A726" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B726" s="1" t="s">
         <v>96</v>
@@ -20762,7 +20752,7 @@
         <v>9</v>
       </c>
       <c r="G726" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H726" s="1">
         <v>2098.7600000000002</v>
@@ -20770,7 +20760,7 @@
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A727" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B727" s="1" t="s">
         <v>96</v>
@@ -20788,7 +20778,7 @@
         <v>9</v>
       </c>
       <c r="G727" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H727" s="1">
         <v>11557.92</v>
@@ -20796,7 +20786,7 @@
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A728" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>96</v>
@@ -20805,7 +20795,7 @@
         <v>11156537</v>
       </c>
       <c r="D728" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E728" s="1" t="s">
         <v>85</v>
@@ -20814,7 +20804,7 @@
         <v>9</v>
       </c>
       <c r="G728" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H728" s="1">
         <v>936</v>
@@ -20822,7 +20812,7 @@
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A729" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B729" s="1" t="s">
         <v>96</v>
@@ -20840,7 +20830,7 @@
         <v>93</v>
       </c>
       <c r="G729" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H729" s="1">
         <v>190.99</v>
@@ -20848,7 +20838,7 @@
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A730" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B730" s="1" t="s">
         <v>96</v>
@@ -20866,7 +20856,7 @@
         <v>93</v>
       </c>
       <c r="G730" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H730" s="1">
         <v>191.35</v>
@@ -20874,7 +20864,7 @@
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A731" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>96</v>
@@ -20892,7 +20882,7 @@
         <v>93</v>
       </c>
       <c r="G731" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H731" s="1">
         <v>720</v>
@@ -20900,7 +20890,7 @@
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A732" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B732" s="1" t="s">
         <v>96</v>
@@ -20918,7 +20908,7 @@
         <v>125</v>
       </c>
       <c r="G732" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H732" s="1">
         <v>331.6</v>
@@ -20926,7 +20916,7 @@
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A733" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>96</v>
@@ -20944,7 +20934,7 @@
         <v>9</v>
       </c>
       <c r="G733" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H733" s="1">
         <v>2016</v>
@@ -20952,7 +20942,7 @@
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A734" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B734" s="1" t="s">
         <v>96</v>
@@ -20960,8 +20950,8 @@
       <c r="C734" s="1">
         <v>11155497</v>
       </c>
-      <c r="D734" s="1" t="s">
-        <v>452</v>
+      <c r="D734" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E734" s="1" t="s">
         <v>170</v>
@@ -20970,7 +20960,7 @@
         <v>9</v>
       </c>
       <c r="G734" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H734" s="1">
         <v>3510</v>
@@ -20978,7 +20968,7 @@
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A735" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B735" s="1" t="s">
         <v>96</v>
@@ -20996,7 +20986,7 @@
         <v>9</v>
       </c>
       <c r="G735" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H735" s="1">
         <v>2222.2399999999998</v>
@@ -21004,7 +20994,7 @@
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A736" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B736" s="1" t="s">
         <v>96</v>
@@ -21022,7 +21012,7 @@
         <v>9</v>
       </c>
       <c r="G736" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H736" s="1">
         <v>1111.1199999999999</v>
@@ -21030,7 +21020,7 @@
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A737" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>96</v>
@@ -21039,7 +21029,7 @@
         <v>11155143</v>
       </c>
       <c r="D737" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E737" s="1" t="s">
         <v>207</v>
@@ -21048,7 +21038,7 @@
         <v>9</v>
       </c>
       <c r="G737" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H737" s="1">
         <v>930</v>
@@ -21056,7 +21046,7 @@
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A738" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B738" s="1" t="s">
         <v>96</v>
@@ -21074,7 +21064,7 @@
         <v>9</v>
       </c>
       <c r="G738" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H738" s="1">
         <v>1354</v>
@@ -21082,7 +21072,7 @@
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A739" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>96</v>
@@ -21100,7 +21090,7 @@
         <v>9</v>
       </c>
       <c r="G739" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H739" s="1">
         <v>133.63999999999999</v>
@@ -21108,16 +21098,16 @@
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A740" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B740" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D740" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E740" s="1" t="s">
         <v>35</v>
@@ -21126,7 +21116,7 @@
         <v>9</v>
       </c>
       <c r="G740" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H740" s="1">
         <v>421</v>
@@ -21134,7 +21124,7 @@
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A741" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>96</v>
@@ -21152,7 +21142,7 @@
         <v>9</v>
       </c>
       <c r="G741" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H741" s="1">
         <v>7703.45</v>
@@ -21160,7 +21150,7 @@
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A742" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>96</v>
@@ -21169,7 +21159,7 @@
         <v>191</v>
       </c>
       <c r="D742" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E742" s="1" t="s">
         <v>85</v>
@@ -21178,7 +21168,7 @@
         <v>9</v>
       </c>
       <c r="G742" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H742" s="1">
         <v>1776</v>
@@ -21186,7 +21176,7 @@
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A743" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B743" s="1" t="s">
         <v>96</v>
@@ -21204,7 +21194,7 @@
         <v>9</v>
       </c>
       <c r="G743" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H743" s="1">
         <v>132.86000000000001</v>
@@ -21212,7 +21202,7 @@
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A744" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>96</v>
@@ -21230,7 +21220,7 @@
         <v>9</v>
       </c>
       <c r="G744" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H744" s="1">
         <v>1785.58</v>
@@ -21238,7 +21228,7 @@
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A745" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B745" s="1" t="s">
         <v>96</v>
@@ -21247,7 +21237,7 @@
         <v>33</v>
       </c>
       <c r="D745" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E745" s="1" t="s">
         <v>66</v>
@@ -21256,7 +21246,7 @@
         <v>9</v>
       </c>
       <c r="G745" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H745" s="1">
         <v>1006.88</v>
@@ -21264,7 +21254,7 @@
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A746" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B746" s="1" t="s">
         <v>96</v>
@@ -21282,7 +21272,7 @@
         <v>9</v>
       </c>
       <c r="G746" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H746" s="1">
         <v>1666.68</v>
@@ -21290,7 +21280,7 @@
     </row>
     <row r="747" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A747" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B747" s="1" t="s">
         <v>96</v>
@@ -21308,7 +21298,7 @@
         <v>9</v>
       </c>
       <c r="G747" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H747" s="1">
         <v>1666.68</v>
@@ -21316,7 +21306,7 @@
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A748" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B748" s="1" t="s">
         <v>96</v>
@@ -21328,13 +21318,13 @@
         <v>354</v>
       </c>
       <c r="E748" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F748" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G748" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H748" s="1">
         <v>1760.2</v>
@@ -21342,7 +21332,7 @@
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A749" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B749" s="1" t="s">
         <v>96</v>
@@ -21351,7 +21341,7 @@
         <v>11155143</v>
       </c>
       <c r="D749" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E749" s="1" t="s">
         <v>207</v>
@@ -21360,7 +21350,7 @@
         <v>9</v>
       </c>
       <c r="G749" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H749" s="1">
         <v>930</v>
@@ -21368,7 +21358,7 @@
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A750" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B750" s="1" t="s">
         <v>96</v>
@@ -21377,7 +21367,7 @@
         <v>204</v>
       </c>
       <c r="D750" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E750" s="1" t="s">
         <v>35</v>
@@ -21386,7 +21376,7 @@
         <v>9</v>
       </c>
       <c r="G750" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H750" s="1">
         <v>60</v>
@@ -21394,7 +21384,7 @@
     </row>
     <row r="751" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A751" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>96</v>
@@ -21403,7 +21393,7 @@
         <v>11156537</v>
       </c>
       <c r="D751" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E751" s="1" t="s">
         <v>170</v>
@@ -21412,7 +21402,7 @@
         <v>9</v>
       </c>
       <c r="G751" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H751" s="1">
         <v>234</v>
@@ -21420,7 +21410,7 @@
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A752" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B752" s="1" t="s">
         <v>96</v>
@@ -21429,7 +21419,7 @@
         <v>11156536</v>
       </c>
       <c r="D752" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E752" s="1" t="s">
         <v>40</v>
@@ -21438,7 +21428,7 @@
         <v>9</v>
       </c>
       <c r="G752" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H752" s="1">
         <v>194.66</v>
@@ -21446,16 +21436,16 @@
     </row>
     <row r="753" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A753" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B753" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C753" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D753" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="D753" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="E753" s="1" t="s">
         <v>28</v>
@@ -21464,7 +21454,7 @@
         <v>9</v>
       </c>
       <c r="G753" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H753" s="1">
         <v>0.75</v>
@@ -21472,7 +21462,7 @@
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A754" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B754" s="1" t="s">
         <v>96</v>
@@ -21481,7 +21471,7 @@
         <v>11156541</v>
       </c>
       <c r="D754" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E754" s="1" t="s">
         <v>28</v>
@@ -21490,7 +21480,7 @@
         <v>9</v>
       </c>
       <c r="G754" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H754" s="1">
         <v>784.32</v>
@@ -21498,7 +21488,7 @@
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A755" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B755" s="1" t="s">
         <v>96</v>
@@ -21507,7 +21497,7 @@
         <v>11155947</v>
       </c>
       <c r="D755" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E755" s="1" t="s">
         <v>28</v>
@@ -21516,7 +21506,7 @@
         <v>9</v>
       </c>
       <c r="G755" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H755" s="1">
         <v>752.32</v>
@@ -21524,7 +21514,7 @@
     </row>
     <row r="756" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A756" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B756" s="1" t="s">
         <v>96</v>
@@ -21533,7 +21523,7 @@
         <v>11154690</v>
       </c>
       <c r="D756" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E756" s="1" t="s">
         <v>28</v>
@@ -21542,7 +21532,7 @@
         <v>9</v>
       </c>
       <c r="G756" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H756" s="1">
         <v>833.34</v>
@@ -21550,7 +21540,7 @@
     </row>
     <row r="757" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A757" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B757" s="1" t="s">
         <v>96</v>
@@ -21559,7 +21549,7 @@
         <v>44</v>
       </c>
       <c r="D757" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E757" s="1" t="s">
         <v>40</v>
@@ -21568,7 +21558,7 @@
         <v>9</v>
       </c>
       <c r="G757" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H757" s="1">
         <v>135.30000000000001</v>
@@ -21576,7 +21566,7 @@
     </row>
     <row r="758" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A758" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B758" s="1" t="s">
         <v>96</v>
@@ -21594,7 +21584,7 @@
         <v>9</v>
       </c>
       <c r="G758" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H758" s="1">
         <v>1850.99</v>
@@ -21602,7 +21592,7 @@
     </row>
     <row r="759" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A759" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>96</v>
@@ -21620,7 +21610,7 @@
         <v>9</v>
       </c>
       <c r="G759" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H759" s="1">
         <v>4032</v>
@@ -21628,7 +21618,7 @@
     </row>
     <row r="760" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A760" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B760" s="1" t="s">
         <v>96</v>
@@ -21636,17 +21626,17 @@
       <c r="C760" s="1">
         <v>11155497</v>
       </c>
-      <c r="D760" s="1" t="s">
-        <v>452</v>
+      <c r="D760" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E760" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F760" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G760" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H760" s="1">
         <v>5089.5</v>
@@ -21654,7 +21644,7 @@
     </row>
     <row r="761" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A761" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B761" s="1" t="s">
         <v>96</v>
@@ -21663,7 +21653,7 @@
         <v>11155143</v>
       </c>
       <c r="D761" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E761" s="1" t="s">
         <v>207</v>
@@ -21672,7 +21662,7 @@
         <v>9</v>
       </c>
       <c r="G761" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H761" s="1">
         <v>930</v>
@@ -21680,7 +21670,7 @@
     </row>
     <row r="762" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A762" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B762" s="1" t="s">
         <v>96</v>
@@ -21692,13 +21682,13 @@
         <v>354</v>
       </c>
       <c r="E762" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F762" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G762" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H762" s="1">
         <v>3655.8</v>
@@ -21706,7 +21696,7 @@
     </row>
     <row r="763" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A763" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B763" s="1" t="s">
         <v>96</v>
@@ -21715,7 +21705,7 @@
         <v>11156539</v>
       </c>
       <c r="D763" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E763" s="1" t="s">
         <v>28</v>
@@ -21724,7 +21714,7 @@
         <v>9</v>
       </c>
       <c r="G763" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H763" s="1">
         <v>600</v>
@@ -21732,7 +21722,7 @@
     </row>
     <row r="764" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A764" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B764" s="1" t="s">
         <v>96</v>
@@ -21741,7 +21731,7 @@
         <v>11156538</v>
       </c>
       <c r="D764" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E764" s="1" t="s">
         <v>28</v>
@@ -21750,7 +21740,7 @@
         <v>9</v>
       </c>
       <c r="G764" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H764" s="1">
         <v>600</v>
@@ -21758,7 +21748,7 @@
     </row>
     <row r="765" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A765" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B765" s="1" t="s">
         <v>51</v>
@@ -21767,16 +21757,16 @@
         <v>51</v>
       </c>
       <c r="D765" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E765" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F765" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G765" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="E765" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="F765" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G765" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="H765" s="1">
         <v>11.58</v>
@@ -21784,7 +21774,7 @@
     </row>
     <row r="766" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A766" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B766" s="1" t="s">
         <v>96</v>
@@ -21792,8 +21782,8 @@
       <c r="C766" s="1">
         <v>11155497</v>
       </c>
-      <c r="D766" s="1" t="s">
-        <v>452</v>
+      <c r="D766" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E766" s="1" t="s">
         <v>170</v>
@@ -21802,7 +21792,7 @@
         <v>9</v>
       </c>
       <c r="G766" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H766" s="1">
         <v>3510</v>
@@ -21810,7 +21800,7 @@
     </row>
     <row r="767" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A767" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B767" s="1" t="s">
         <v>96</v>
@@ -21828,7 +21818,7 @@
         <v>9</v>
       </c>
       <c r="G767" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H767" s="1">
         <v>2016</v>
@@ -21836,7 +21826,7 @@
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A768" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B768" s="1" t="s">
         <v>96</v>
@@ -21854,7 +21844,7 @@
         <v>9</v>
       </c>
       <c r="G768" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H768" s="1">
         <v>555.55999999999995</v>
@@ -21862,7 +21852,7 @@
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A769" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B769" s="1" t="s">
         <v>96</v>
@@ -21880,7 +21870,7 @@
         <v>9</v>
       </c>
       <c r="G769" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H769" s="1">
         <v>1666.68</v>
@@ -21888,7 +21878,7 @@
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A770" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B770" s="1" t="s">
         <v>96</v>
@@ -21896,17 +21886,17 @@
       <c r="C770" s="1">
         <v>11155497</v>
       </c>
-      <c r="D770" s="1" t="s">
-        <v>452</v>
+      <c r="D770" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E770" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F770" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G770" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H770" s="1">
         <v>3404.7</v>
@@ -21914,7 +21904,7 @@
     </row>
     <row r="771" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A771" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>96</v>
@@ -21932,7 +21922,7 @@
         <v>9</v>
       </c>
       <c r="G771" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H771" s="1">
         <v>2016</v>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DB2F8F0-2924-460B-9782-C6089BF4A6A5}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F6DF426-D39F-44B1-8478-7CA02CD1E067}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$771</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$814</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4608" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4885" uniqueCount="503">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -1470,6 +1470,84 @@
   </si>
   <si>
     <t>Wk42</t>
+  </si>
+  <si>
+    <t>XS-PTS-0871</t>
+  </si>
+  <si>
+    <t>AFX-8320M-01-REV1 PPMU &amp; FPGA I2C REV2</t>
+  </si>
+  <si>
+    <t>20/10/2025</t>
+  </si>
+  <si>
+    <t>XS-PTS-0976</t>
+  </si>
+  <si>
+    <t>10618.334 MORAY FPGA INTERCONNECTION</t>
+  </si>
+  <si>
+    <t>XS-PTS-0416</t>
+  </si>
+  <si>
+    <t>10105.095 SIMATIC S7-1200, DIGITAL I/O</t>
+  </si>
+  <si>
+    <t>PTS-1150 300-01698-010 Semiconductor</t>
+  </si>
+  <si>
+    <t>PTS-1136 300-01519-015 Semiconductor</t>
+  </si>
+  <si>
+    <t>XS-PTS-0108</t>
+  </si>
+  <si>
+    <t>CDUJB10-6D AIR CYLINDER</t>
+  </si>
+  <si>
+    <t>21/10/2025</t>
+  </si>
+  <si>
+    <t>22/10/2025</t>
+  </si>
+  <si>
+    <t>23/10/2025</t>
+  </si>
+  <si>
+    <t>XS-PTS-1028</t>
+  </si>
+  <si>
+    <t>10618.397 X1767 SMU DAUGHTER CARD</t>
+  </si>
+  <si>
+    <t>PTS-1065 TW.50.1A.FI.0S.136.00 X2637_SECONDARY BOARD</t>
+  </si>
+  <si>
+    <t>PTS-1155 TW.50.1A.FI.0S.123.02 SA30 -</t>
+  </si>
+  <si>
+    <t>15pcs</t>
+  </si>
+  <si>
+    <t>PTS-1156 TW.50.1A.FI.0S.089.01 SA30</t>
+  </si>
+  <si>
+    <t>Wera Phillips Precision Screwdriver, PH0 Tip, 60 mm Blade, 157 mm Overall (ESD Safe Type)</t>
+  </si>
+  <si>
+    <t>24/10/2025</t>
+  </si>
+  <si>
+    <t>Socket Precision Harden Brushing Guide</t>
+  </si>
+  <si>
+    <t>Beware Of Laser Sticker (10pcs Per Pack)</t>
+  </si>
+  <si>
+    <t>900pcs</t>
+  </si>
+  <si>
+    <t>Wk43</t>
   </si>
 </sst>
 </file>
@@ -1862,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:J771"/>
+  <dimension ref="A1:J814"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="D823" sqref="D823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19182,7 +19260,7 @@
       <c r="C666" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D666" s="1" t="s">
+      <c r="D666" s="3" t="s">
         <v>405</v>
       </c>
       <c r="E666" s="1" t="s">
@@ -19208,7 +19286,7 @@
       <c r="C667" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D667" s="1" t="s">
+      <c r="D667" s="3" t="s">
         <v>407</v>
       </c>
       <c r="E667" s="1" t="s">
@@ -19234,7 +19312,7 @@
       <c r="C668" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D668" s="1" t="s">
+      <c r="D668" s="3" t="s">
         <v>408</v>
       </c>
       <c r="E668" s="1" t="s">
@@ -19260,7 +19338,7 @@
       <c r="C669" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D669" s="1" t="s">
+      <c r="D669" s="3" t="s">
         <v>409</v>
       </c>
       <c r="E669" s="1" t="s">
@@ -19286,7 +19364,7 @@
       <c r="C670" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D670" s="1" t="s">
+      <c r="D670" s="3" t="s">
         <v>410</v>
       </c>
       <c r="E670" s="1" t="s">
@@ -19312,7 +19390,7 @@
       <c r="C671" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D671" s="1" t="s">
+      <c r="D671" s="3" t="s">
         <v>411</v>
       </c>
       <c r="E671" s="1" t="s">
@@ -19338,7 +19416,7 @@
       <c r="C672" s="1">
         <v>11155143</v>
       </c>
-      <c r="D672" s="1" t="s">
+      <c r="D672" s="3" t="s">
         <v>340</v>
       </c>
       <c r="E672" s="1" t="s">
@@ -19364,7 +19442,7 @@
       <c r="C673" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D673" s="1" t="s">
+      <c r="D673" s="3" t="s">
         <v>412</v>
       </c>
       <c r="E673" s="1" t="s">
@@ -19416,7 +19494,7 @@
       <c r="C675" s="1">
         <v>11156537</v>
       </c>
-      <c r="D675" s="1" t="s">
+      <c r="D675" s="3" t="s">
         <v>413</v>
       </c>
       <c r="E675" s="1" t="s">
@@ -19442,7 +19520,7 @@
       <c r="C676" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D676" s="1" t="s">
+      <c r="D676" s="3" t="s">
         <v>415</v>
       </c>
       <c r="E676" s="1" t="s">
@@ -19468,7 +19546,7 @@
       <c r="C677" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D677" s="1" t="s">
+      <c r="D677" s="3" t="s">
         <v>417</v>
       </c>
       <c r="E677" s="1" t="s">
@@ -19494,7 +19572,7 @@
       <c r="C678" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D678" s="1" t="s">
+      <c r="D678" s="3" t="s">
         <v>419</v>
       </c>
       <c r="E678" s="1" t="s">
@@ -19520,7 +19598,7 @@
       <c r="C679" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D679" s="1" t="s">
+      <c r="D679" s="3" t="s">
         <v>422</v>
       </c>
       <c r="E679" s="1" t="s">
@@ -19546,7 +19624,7 @@
       <c r="C680" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D680" s="1" t="s">
+      <c r="D680" s="3" t="s">
         <v>167</v>
       </c>
       <c r="E680" s="1" t="s">
@@ -19572,7 +19650,7 @@
       <c r="C681" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D681" s="1" t="s">
+      <c r="D681" s="3" t="s">
         <v>423</v>
       </c>
       <c r="E681" s="1" t="s">
@@ -19598,7 +19676,7 @@
       <c r="C682" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D682" s="1" t="s">
+      <c r="D682" s="3" t="s">
         <v>189</v>
       </c>
       <c r="E682" s="1" t="s">
@@ -19624,7 +19702,7 @@
       <c r="C683" s="1">
         <v>11155797</v>
       </c>
-      <c r="D683" s="1" t="s">
+      <c r="D683" s="3" t="s">
         <v>424</v>
       </c>
       <c r="E683" s="1" t="s">
@@ -19650,7 +19728,7 @@
       <c r="C684" s="1">
         <v>11151249</v>
       </c>
-      <c r="D684" s="1" t="s">
+      <c r="D684" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E684" s="1" t="s">
@@ -19676,7 +19754,7 @@
       <c r="C685" s="1">
         <v>11155143</v>
       </c>
-      <c r="D685" s="1" t="s">
+      <c r="D685" s="3" t="s">
         <v>340</v>
       </c>
       <c r="E685" s="1" t="s">
@@ -19702,7 +19780,7 @@
       <c r="C686" s="1">
         <v>11151237</v>
       </c>
-      <c r="D686" s="1" t="s">
+      <c r="D686" s="3" t="s">
         <v>354</v>
       </c>
       <c r="E686" s="1" t="s">
@@ -19754,7 +19832,7 @@
       <c r="C688" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D688" s="1" t="s">
+      <c r="D688" s="3" t="s">
         <v>425</v>
       </c>
       <c r="E688" s="1" t="s">
@@ -19780,7 +19858,7 @@
       <c r="C689" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D689" s="1" t="s">
+      <c r="D689" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E689" s="1" t="s">
@@ -19806,7 +19884,7 @@
       <c r="C690" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D690" s="1" t="s">
+      <c r="D690" s="3" t="s">
         <v>426</v>
       </c>
       <c r="E690" s="1" t="s">
@@ -19832,7 +19910,7 @@
       <c r="C691" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D691" s="1" t="s">
+      <c r="D691" s="3" t="s">
         <v>428</v>
       </c>
       <c r="E691" s="1" t="s">
@@ -19884,7 +19962,7 @@
       <c r="C693" s="1">
         <v>11155949</v>
       </c>
-      <c r="D693" s="1" t="s">
+      <c r="D693" s="3" t="s">
         <v>429</v>
       </c>
       <c r="E693" s="1" t="s">
@@ -19910,7 +19988,7 @@
       <c r="C694" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D694" s="1" t="s">
+      <c r="D694" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E694" s="1" t="s">
@@ -19936,7 +20014,7 @@
       <c r="C695" s="1">
         <v>11155143</v>
       </c>
-      <c r="D695" s="1" t="s">
+      <c r="D695" s="3" t="s">
         <v>340</v>
       </c>
       <c r="E695" s="1" t="s">
@@ -19962,7 +20040,7 @@
       <c r="C696" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D696" s="1" t="s">
+      <c r="D696" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E696" s="1" t="s">
@@ -20014,7 +20092,7 @@
       <c r="C698" s="1">
         <v>11155797</v>
       </c>
-      <c r="D698" s="1" t="s">
+      <c r="D698" s="3" t="s">
         <v>424</v>
       </c>
       <c r="E698" s="1" t="s">
@@ -20040,7 +20118,7 @@
       <c r="C699" s="1">
         <v>11155143</v>
       </c>
-      <c r="D699" s="1" t="s">
+      <c r="D699" s="3" t="s">
         <v>340</v>
       </c>
       <c r="E699" s="1" t="s">
@@ -20066,7 +20144,7 @@
       <c r="C700" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D700" s="1" t="s">
+      <c r="D700" s="3" t="s">
         <v>433</v>
       </c>
       <c r="E700" s="1" t="s">
@@ -20092,7 +20170,7 @@
       <c r="C701" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D701" s="1" t="s">
+      <c r="D701" s="3" t="s">
         <v>435</v>
       </c>
       <c r="E701" s="1" t="s">
@@ -20118,7 +20196,7 @@
       <c r="C702" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D702" s="1" t="s">
+      <c r="D702" s="3" t="s">
         <v>437</v>
       </c>
       <c r="E702" s="1" t="s">
@@ -20144,7 +20222,7 @@
       <c r="C703" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D703" s="1" t="s">
+      <c r="D703" s="3" t="s">
         <v>439</v>
       </c>
       <c r="E703" s="1" t="s">
@@ -20170,7 +20248,7 @@
       <c r="C704" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D704" s="1" t="s">
+      <c r="D704" s="3" t="s">
         <v>440</v>
       </c>
       <c r="E704" s="1" t="s">
@@ -20196,7 +20274,7 @@
       <c r="C705" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D705" s="1" t="s">
+      <c r="D705" s="3" t="s">
         <v>189</v>
       </c>
       <c r="E705" s="1" t="s">
@@ -20222,7 +20300,7 @@
       <c r="C706" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D706" s="1" t="s">
+      <c r="D706" s="3" t="s">
         <v>425</v>
       </c>
       <c r="E706" s="1" t="s">
@@ -20248,7 +20326,7 @@
       <c r="C707" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D707" s="1" t="s">
+      <c r="D707" s="3" t="s">
         <v>223</v>
       </c>
       <c r="E707" s="1" t="s">
@@ -20274,7 +20352,7 @@
       <c r="C708" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D708" s="1" t="s">
+      <c r="D708" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E708" s="1" t="s">
@@ -20300,7 +20378,7 @@
       <c r="C709" s="1">
         <v>11156537</v>
       </c>
-      <c r="D709" s="1" t="s">
+      <c r="D709" s="3" t="s">
         <v>413</v>
       </c>
       <c r="E709" s="1" t="s">
@@ -20326,7 +20404,7 @@
       <c r="C710" s="1">
         <v>11155949</v>
       </c>
-      <c r="D710" s="1" t="s">
+      <c r="D710" s="3" t="s">
         <v>429</v>
       </c>
       <c r="E710" s="1" t="s">
@@ -20352,7 +20430,7 @@
       <c r="C711" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D711" s="1" t="s">
+      <c r="D711" s="3" t="s">
         <v>443</v>
       </c>
       <c r="E711" s="1" t="s">
@@ -20378,7 +20456,7 @@
       <c r="C712" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D712" s="1" t="s">
+      <c r="D712" s="3" t="s">
         <v>366</v>
       </c>
       <c r="E712" s="1" t="s">
@@ -20430,7 +20508,7 @@
       <c r="C714" s="1">
         <v>11155797</v>
       </c>
-      <c r="D714" s="1" t="s">
+      <c r="D714" s="3" t="s">
         <v>424</v>
       </c>
       <c r="E714" s="1" t="s">
@@ -20456,7 +20534,7 @@
       <c r="C715" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D715" s="1" t="s">
+      <c r="D715" s="3" t="s">
         <v>444</v>
       </c>
       <c r="E715" s="1" t="s">
@@ -20482,7 +20560,7 @@
       <c r="C716" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D716" s="1" t="s">
+      <c r="D716" s="3" t="s">
         <v>445</v>
       </c>
       <c r="E716" s="1" t="s">
@@ -20508,7 +20586,7 @@
       <c r="C717" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D717" s="1" t="s">
+      <c r="D717" s="3" t="s">
         <v>364</v>
       </c>
       <c r="E717" s="1" t="s">
@@ -20534,7 +20612,7 @@
       <c r="C718" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D718" s="1" t="s">
+      <c r="D718" s="3" t="s">
         <v>446</v>
       </c>
       <c r="E718" s="1" t="s">
@@ -20560,7 +20638,7 @@
       <c r="C719" s="1">
         <v>11156537</v>
       </c>
-      <c r="D719" s="1" t="s">
+      <c r="D719" s="3" t="s">
         <v>413</v>
       </c>
       <c r="E719" s="1" t="s">
@@ -20586,7 +20664,7 @@
       <c r="C720" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D720" s="1" t="s">
+      <c r="D720" s="3" t="s">
         <v>447</v>
       </c>
       <c r="E720" s="1" t="s">
@@ -20612,7 +20690,7 @@
       <c r="C721" s="1">
         <v>11155143</v>
       </c>
-      <c r="D721" s="1" t="s">
+      <c r="D721" s="3" t="s">
         <v>340</v>
       </c>
       <c r="E721" s="1" t="s">
@@ -20638,7 +20716,7 @@
       <c r="C722" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D722" s="1" t="s">
+      <c r="D722" s="3" t="s">
         <v>449</v>
       </c>
       <c r="E722" s="1" t="s">
@@ -20690,7 +20768,7 @@
       <c r="C724" s="1">
         <v>11155143</v>
       </c>
-      <c r="D724" s="1" t="s">
+      <c r="D724" s="3" t="s">
         <v>451</v>
       </c>
       <c r="E724" s="1" t="s">
@@ -20716,7 +20794,7 @@
       <c r="C725" s="1">
         <v>11155143</v>
       </c>
-      <c r="D725" s="1" t="s">
+      <c r="D725" s="3" t="s">
         <v>451</v>
       </c>
       <c r="E725" s="1" t="s">
@@ -20742,7 +20820,7 @@
       <c r="C726" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D726" s="1" t="s">
+      <c r="D726" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E726" s="1" t="s">
@@ -20768,7 +20846,7 @@
       <c r="C727" s="1">
         <v>11155949</v>
       </c>
-      <c r="D727" s="1" t="s">
+      <c r="D727" s="3" t="s">
         <v>272</v>
       </c>
       <c r="E727" s="1" t="s">
@@ -20794,7 +20872,7 @@
       <c r="C728" s="1">
         <v>11156537</v>
       </c>
-      <c r="D728" s="1" t="s">
+      <c r="D728" s="3" t="s">
         <v>453</v>
       </c>
       <c r="E728" s="1" t="s">
@@ -20820,7 +20898,7 @@
       <c r="C729" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D729" s="1" t="s">
+      <c r="D729" s="3" t="s">
         <v>177</v>
       </c>
       <c r="E729" s="1" t="s">
@@ -20846,7 +20924,7 @@
       <c r="C730" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D730" s="1" t="s">
+      <c r="D730" s="3" t="s">
         <v>223</v>
       </c>
       <c r="E730" s="1" t="s">
@@ -20872,7 +20950,7 @@
       <c r="C731" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D731" s="1" t="s">
+      <c r="D731" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E731" s="1" t="s">
@@ -20898,7 +20976,7 @@
       <c r="C732" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D732" s="1" t="s">
+      <c r="D732" s="3" t="s">
         <v>232</v>
       </c>
       <c r="E732" s="1" t="s">
@@ -20924,7 +21002,7 @@
       <c r="C733" s="1">
         <v>11155797</v>
       </c>
-      <c r="D733" s="1" t="s">
+      <c r="D733" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E733" s="1" t="s">
@@ -20976,7 +21054,7 @@
       <c r="C735" s="1">
         <v>11151248</v>
       </c>
-      <c r="D735" s="1" t="s">
+      <c r="D735" s="3" t="s">
         <v>228</v>
       </c>
       <c r="E735" s="1" t="s">
@@ -21028,7 +21106,7 @@
       <c r="C737" s="1">
         <v>11155143</v>
       </c>
-      <c r="D737" s="1" t="s">
+      <c r="D737" s="3" t="s">
         <v>451</v>
       </c>
       <c r="E737" s="1" t="s">
@@ -21054,7 +21132,7 @@
       <c r="C738" s="1">
         <v>11151237</v>
       </c>
-      <c r="D738" s="1" t="s">
+      <c r="D738" s="3" t="s">
         <v>354</v>
       </c>
       <c r="E738" s="1" t="s">
@@ -21080,7 +21158,7 @@
       <c r="C739" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D739" s="1" t="s">
+      <c r="D739" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E739" s="1" t="s">
@@ -21106,7 +21184,7 @@
       <c r="C740" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D740" s="1" t="s">
+      <c r="D740" s="3" t="s">
         <v>457</v>
       </c>
       <c r="E740" s="1" t="s">
@@ -21132,7 +21210,7 @@
       <c r="C741" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D741" s="1" t="s">
+      <c r="D741" s="3" t="s">
         <v>318</v>
       </c>
       <c r="E741" s="1" t="s">
@@ -21158,7 +21236,7 @@
       <c r="C742" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D742" s="1" t="s">
+      <c r="D742" s="3" t="s">
         <v>449</v>
       </c>
       <c r="E742" s="1" t="s">
@@ -21184,7 +21262,7 @@
       <c r="C743" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D743" s="1" t="s">
+      <c r="D743" s="3" t="s">
         <v>366</v>
       </c>
       <c r="E743" s="1" t="s">
@@ -21210,7 +21288,7 @@
       <c r="C744" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D744" s="1" t="s">
+      <c r="D744" s="3" t="s">
         <v>175</v>
       </c>
       <c r="E744" s="1" t="s">
@@ -21236,7 +21314,7 @@
       <c r="C745" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D745" s="1" t="s">
+      <c r="D745" s="3" t="s">
         <v>445</v>
       </c>
       <c r="E745" s="1" t="s">
@@ -21262,7 +21340,7 @@
       <c r="C746" s="1">
         <v>11151248</v>
       </c>
-      <c r="D746" s="1" t="s">
+      <c r="D746" s="3" t="s">
         <v>228</v>
       </c>
       <c r="E746" s="1" t="s">
@@ -21314,7 +21392,7 @@
       <c r="C748" s="1">
         <v>11151237</v>
       </c>
-      <c r="D748" s="1" t="s">
+      <c r="D748" s="3" t="s">
         <v>354</v>
       </c>
       <c r="E748" s="1" t="s">
@@ -21340,7 +21418,7 @@
       <c r="C749" s="1">
         <v>11155143</v>
       </c>
-      <c r="D749" s="1" t="s">
+      <c r="D749" s="3" t="s">
         <v>451</v>
       </c>
       <c r="E749" s="1" t="s">
@@ -21366,7 +21444,7 @@
       <c r="C750" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D750" s="1" t="s">
+      <c r="D750" s="3" t="s">
         <v>459</v>
       </c>
       <c r="E750" s="1" t="s">
@@ -21392,7 +21470,7 @@
       <c r="C751" s="1">
         <v>11156537</v>
       </c>
-      <c r="D751" s="1" t="s">
+      <c r="D751" s="3" t="s">
         <v>453</v>
       </c>
       <c r="E751" s="1" t="s">
@@ -21418,7 +21496,7 @@
       <c r="C752" s="1">
         <v>11156536</v>
       </c>
-      <c r="D752" s="1" t="s">
+      <c r="D752" s="3" t="s">
         <v>460</v>
       </c>
       <c r="E752" s="1" t="s">
@@ -21444,7 +21522,7 @@
       <c r="C753" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D753" s="1" t="s">
+      <c r="D753" s="3" t="s">
         <v>419</v>
       </c>
       <c r="E753" s="1" t="s">
@@ -21470,7 +21548,7 @@
       <c r="C754" s="1">
         <v>11156541</v>
       </c>
-      <c r="D754" s="1" t="s">
+      <c r="D754" s="3" t="s">
         <v>461</v>
       </c>
       <c r="E754" s="1" t="s">
@@ -21496,7 +21574,7 @@
       <c r="C755" s="1">
         <v>11155947</v>
       </c>
-      <c r="D755" s="1" t="s">
+      <c r="D755" s="3" t="s">
         <v>462</v>
       </c>
       <c r="E755" s="1" t="s">
@@ -21522,7 +21600,7 @@
       <c r="C756" s="1">
         <v>11154690</v>
       </c>
-      <c r="D756" s="1" t="s">
+      <c r="D756" s="3" t="s">
         <v>463</v>
       </c>
       <c r="E756" s="1" t="s">
@@ -21548,7 +21626,7 @@
       <c r="C757" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D757" s="1" t="s">
+      <c r="D757" s="3" t="s">
         <v>464</v>
       </c>
       <c r="E757" s="1" t="s">
@@ -21574,7 +21652,7 @@
       <c r="C758" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D758" s="1" t="s">
+      <c r="D758" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E758" s="1" t="s">
@@ -21600,7 +21678,7 @@
       <c r="C759" s="1">
         <v>11155797</v>
       </c>
-      <c r="D759" s="1" t="s">
+      <c r="D759" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E759" s="1" t="s">
@@ -21652,7 +21730,7 @@
       <c r="C761" s="1">
         <v>11155143</v>
       </c>
-      <c r="D761" s="1" t="s">
+      <c r="D761" s="3" t="s">
         <v>451</v>
       </c>
       <c r="E761" s="1" t="s">
@@ -21678,7 +21756,7 @@
       <c r="C762" s="1">
         <v>11151237</v>
       </c>
-      <c r="D762" s="1" t="s">
+      <c r="D762" s="3" t="s">
         <v>354</v>
       </c>
       <c r="E762" s="1" t="s">
@@ -21704,7 +21782,7 @@
       <c r="C763" s="1">
         <v>11156539</v>
       </c>
-      <c r="D763" s="1" t="s">
+      <c r="D763" s="3" t="s">
         <v>467</v>
       </c>
       <c r="E763" s="1" t="s">
@@ -21730,7 +21808,7 @@
       <c r="C764" s="1">
         <v>11156538</v>
       </c>
-      <c r="D764" s="1" t="s">
+      <c r="D764" s="3" t="s">
         <v>468</v>
       </c>
       <c r="E764" s="1" t="s">
@@ -21756,7 +21834,7 @@
       <c r="C765" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D765" s="1" t="s">
+      <c r="D765" s="3" t="s">
         <v>469</v>
       </c>
       <c r="E765" s="1" t="s">
@@ -21808,7 +21886,7 @@
       <c r="C767" s="1">
         <v>11155797</v>
       </c>
-      <c r="D767" s="1" t="s">
+      <c r="D767" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E767" s="1" t="s">
@@ -21860,7 +21938,7 @@
       <c r="C769" s="1">
         <v>11151248</v>
       </c>
-      <c r="D769" s="1" t="s">
+      <c r="D769" s="3" t="s">
         <v>228</v>
       </c>
       <c r="E769" s="1" t="s">
@@ -21912,7 +21990,7 @@
       <c r="C771" s="1">
         <v>11155797</v>
       </c>
-      <c r="D771" s="1" t="s">
+      <c r="D771" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E771" s="1" t="s">
@@ -21928,8 +22006,1126 @@
         <v>2016</v>
       </c>
     </row>
+    <row r="772" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A772" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D772" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E772" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F772" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G772" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H772" s="1">
+        <v>2242.2600000000002</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A773" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C773" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D773" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E773" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F773" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G773" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H773" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A774" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C774" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D774" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E774" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F774" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G774" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H774" s="1">
+        <v>246.94</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A775" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C775" s="1">
+        <v>11156537</v>
+      </c>
+      <c r="D775" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E775" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F775" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G775" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H775" s="1">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A776" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D776" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E776" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F776" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G776" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H776" s="1">
+        <v>167.05</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A777" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C777" s="1">
+        <v>11155949</v>
+      </c>
+      <c r="D777" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E777" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F777" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G777" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H777" s="1">
+        <v>17336.88</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A778" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C778" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D778" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E778" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F778" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G778" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H778" s="1">
+        <v>2777.8</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A779" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C779" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D779" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E779" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F779" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G779" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H779" s="1">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A780" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C780" s="1">
+        <v>11155949</v>
+      </c>
+      <c r="D780" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E780" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F780" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G780" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H780" s="1">
+        <v>11557.92</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A781" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C781" s="1">
+        <v>11156537</v>
+      </c>
+      <c r="D781" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E781" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F781" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G781" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H781" s="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A782" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D782" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E782" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F782" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G782" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H782" s="1">
+        <v>134.96</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A783" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C783" s="1">
+        <v>11156541</v>
+      </c>
+      <c r="D783" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E783" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F783" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G783" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H783" s="1">
+        <v>1568.64</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A784" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D784" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E784" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F784" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G784" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H784" s="1">
+        <v>246.94</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A785" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C785" s="1">
+        <v>11156537</v>
+      </c>
+      <c r="D785" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E785" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F785" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G785" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H785" s="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A786" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C786" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D786" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E786" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F786" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G786" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H786" s="1">
+        <v>1111.1199999999999</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A787" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C787" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D787" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E787" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F787" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G787" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H787" s="1">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A788" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C788" s="1">
+        <v>11156536</v>
+      </c>
+      <c r="D788" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E788" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F788" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G788" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H788" s="1">
+        <v>194.66</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A789" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C789" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D789" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E789" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F789" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G789" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H789" s="1">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A790" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C790" s="1">
+        <v>11151249</v>
+      </c>
+      <c r="D790" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E790" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F790" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G790" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H790" s="1">
+        <v>2823.48</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A791" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C791" s="1">
+        <v>11151237</v>
+      </c>
+      <c r="D791" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E791" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F791" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G791" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H791" s="1">
+        <v>4288.43</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A792" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D792" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E792" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F792" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G792" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H792" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A793" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C793" s="1">
+        <v>11156541</v>
+      </c>
+      <c r="D793" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E793" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F793" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G793" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H793" s="1">
+        <v>1568.64</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A794" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C794" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D794" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E794" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F794" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G794" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H794" s="1">
+        <v>2221.04</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A795" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C795" s="1">
+        <v>11151242</v>
+      </c>
+      <c r="D795" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E795" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F795" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G795" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H795" s="1">
+        <v>213.5</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A796" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C796" s="1">
+        <v>11156542</v>
+      </c>
+      <c r="D796" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E796" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F796" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G796" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H796" s="1">
+        <v>2167.1999999999998</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A797" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C797" s="1">
+        <v>11156543</v>
+      </c>
+      <c r="D797" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E797" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F797" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G797" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H797" s="1">
+        <v>1341.6</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A798" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D798" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E798" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F798" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G798" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H798" s="1">
+        <v>138.72999999999999</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A799" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C799" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D799" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E799" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F799" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G799" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H799" s="1">
+        <v>181.11</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A800" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C800" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D800" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E800" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F800" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G800" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H800" s="1">
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A801" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D801" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E801" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F801" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G801" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H801" s="1">
+        <v>20.04</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A802" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D802" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E802" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F802" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G802" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H802" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A803" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C803" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D803" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E803" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F803" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G803" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H803" s="1">
+        <v>190.99</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A804" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C804" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D804" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E804" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F804" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G804" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H804" s="1">
+        <v>191.35</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A805" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C805" s="1">
+        <v>11156536</v>
+      </c>
+      <c r="D805" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E805" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F805" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G805" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H805" s="1">
+        <v>155.72999999999999</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A806" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C806" s="1">
+        <v>11156537</v>
+      </c>
+      <c r="D806" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E806" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F806" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G806" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H806" s="1">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A807" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C807" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D807" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F807" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G807" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H807" s="1">
+        <v>1399.17</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A808" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D808" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F808" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G808" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H808" s="1">
+        <v>756.02</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A809" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C809" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D809" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F809" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G809" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H809" s="1">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A810" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C810" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D810" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E810" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F810" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G810" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H810" s="1">
+        <v>2222.2399999999998</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A811" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C811" s="1">
+        <v>11156537</v>
+      </c>
+      <c r="D811" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E811" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F811" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G811" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H811" s="1">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A812" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D812" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E812" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F812" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G812" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H812" s="1">
+        <v>4964</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A813" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C813" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D813" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E813" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F813" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G813" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H813" s="1">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A814" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C814" s="1">
+        <v>11155947</v>
+      </c>
+      <c r="D814" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E814" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F814" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G814" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H814" s="1">
+        <v>1504.64</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H771" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
+  <autoFilter ref="A1:H814" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="291" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1374D25E-2F5C-4AC5-8A62-F7FAA760386E}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93664919-A994-44B2-A33A-B7FA59E2590F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$927</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$954</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5239" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5419" uniqueCount="558">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -1629,6 +1629,90 @@
   </si>
   <si>
     <t>Wk46</t>
+  </si>
+  <si>
+    <t>PTS-1136 300-001519-015 Semiconductor</t>
+  </si>
+  <si>
+    <t>4000pcs</t>
+  </si>
+  <si>
+    <t>17/11/2025</t>
+  </si>
+  <si>
+    <t>18/11/2025</t>
+  </si>
+  <si>
+    <t>19/11/2025</t>
+  </si>
+  <si>
+    <t>XS-PTS-0124</t>
+  </si>
+  <si>
+    <t>70700.545 COMRRESSION SPRING (Input &amp;</t>
+  </si>
+  <si>
+    <t>PTS-1160 10416.080 2 metre 0.635 MM HIGH</t>
+  </si>
+  <si>
+    <t>20/11/2025</t>
+  </si>
+  <si>
+    <t>XS-PTS-1021</t>
+  </si>
+  <si>
+    <t>10819.01410 METER HIGH FLEX HYBRID</t>
+  </si>
+  <si>
+    <t>PVC Wire 2C 2.5mm Green / Yellow 100meter</t>
+  </si>
+  <si>
+    <t>21/11/2025</t>
+  </si>
+  <si>
+    <t>Cable Lug (Spade) 2.5mm (100pcs Per Pack)</t>
+  </si>
+  <si>
+    <t>Snap-Off Blade (Retractable)</t>
+  </si>
+  <si>
+    <t>SSF Signal Cable (2M)</t>
+  </si>
+  <si>
+    <t>21pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-0952</t>
+  </si>
+  <si>
+    <t>10819.396 Yamaha Cable_Input &amp; Output</t>
+  </si>
+  <si>
+    <t>XS-PTS-0953</t>
+  </si>
+  <si>
+    <t>10819.292 8 METER HIGH FLEX HYBRID</t>
+  </si>
+  <si>
+    <t>Lencent Adaptor GaN III</t>
+  </si>
+  <si>
+    <t>6'' Inch Sciss</t>
+  </si>
+  <si>
+    <t>XS-PTS-0299</t>
+  </si>
+  <si>
+    <t>10018.004 RENISHAW LINEAR ENCODER</t>
+  </si>
+  <si>
+    <t>22/11/2025</t>
+  </si>
+  <si>
+    <t>PTS-1071 TW.50.15.FI.0S.151.00 X2637</t>
+  </si>
+  <si>
+    <t>Wk47</t>
   </si>
 </sst>
 </file>
@@ -1706,6 +1790,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2025,10 +2113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:J927"/>
+  <dimension ref="A1:J954"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26147,8 +26235,710 @@
         <v>760.24</v>
       </c>
     </row>
+    <row r="928" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A928" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B928" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C928" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D928" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E928" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F928" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G928" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H928" s="1">
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A929" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B929" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C929" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D929" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E929" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F929" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G929" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="H929" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A930" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B930" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D930" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E930" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F930" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G930" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="H930" s="1">
+        <v>90.92</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A931" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B931" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C931" s="1">
+        <v>11156537</v>
+      </c>
+      <c r="D931" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E931" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F931" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G931" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="H931" s="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A932" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B932" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D932" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E932" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F932" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G932" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="H932" s="1">
+        <v>131.88</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A933" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B933" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C933" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D933" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E933" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F933" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G933" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="H933" s="1">
+        <v>186.31</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A934" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B934" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C934" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D934" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E934" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F934" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G934" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="H934" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A935" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B935" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C935" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D935" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="E935" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F935" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G935" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="H935" s="1">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="936" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A936" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B936" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C936" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D936" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E936" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F936" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G936" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="H936" s="1">
+        <v>2311.7399999999998</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A937" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B937" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C937" s="1">
+        <v>11157203</v>
+      </c>
+      <c r="D937" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="E937" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F937" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G937" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="H937" s="1">
+        <v>1081.1199999999999</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A938" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B938" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C938" s="1">
+        <v>11155949</v>
+      </c>
+      <c r="D938" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E938" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F938" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G938" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="H938" s="1">
+        <v>2889.48</v>
+      </c>
+    </row>
+    <row r="939" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A939" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B939" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C939" s="1">
+        <v>11156537</v>
+      </c>
+      <c r="D939" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E939" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F939" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G939" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="H939" s="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="940" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A940" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B940" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C940" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D940" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E940" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F940" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G940" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="H940" s="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="941" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A941" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B941" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C941" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D941" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="E941" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F941" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G941" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="H941" s="1">
+        <v>361.39</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A942" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B942" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C942" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D942" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="E942" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F942" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G942" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H942" s="1">
+        <v>78.010000000000005</v>
+      </c>
+    </row>
+    <row r="943" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A943" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B943" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C943" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D943" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="E943" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F943" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G943" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H943" s="1">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="944" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A944" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B944" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C944" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D944" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E944" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F944" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G944" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H944" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="945" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A945" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B945" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C945" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D945" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E945" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F945" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G945" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H945" s="1">
+        <v>1009.1</v>
+      </c>
+    </row>
+    <row r="946" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A946" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B946" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C946" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D946" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E946" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F946" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G946" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H946" s="1">
+        <v>3275.36</v>
+      </c>
+    </row>
+    <row r="947" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A947" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B947" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C947" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D947" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E947" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F947" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G947" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H947" s="1">
+        <v>3467.61</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A948" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B948" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D948" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E948" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F948" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G948" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H948" s="1">
+        <v>413.18</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A949" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B949" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C949" s="1">
+        <v>11154686</v>
+      </c>
+      <c r="D949" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E949" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F949" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G949" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H949" s="1">
+        <v>1583.35</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A950" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B950" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C950" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D950" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E950" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F950" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G950" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H950" s="1">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="951" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A951" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B951" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C951" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D951" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="E951" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F951" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G951" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H951" s="1">
+        <v>90.22</v>
+      </c>
+    </row>
+    <row r="952" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A952" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B952" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C952" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D952" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="E952" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F952" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G952" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H952" s="1">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="953" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A953" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B953" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C953" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D953" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="E953" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F953" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G953" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="H953" s="1">
+        <v>4088.98</v>
+      </c>
+    </row>
+    <row r="954" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A954" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B954" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C954" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D954" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E954" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F954" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G954" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="H954" s="1">
+        <v>1666.68</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H927" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
+  <autoFilter ref="A1:H954" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93664919-A994-44B2-A33A-B7FA59E2590F}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C9F6C5F-2C2A-4AEC-8CC6-B50235DB4F71}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$954</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$966</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5419" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5491" uniqueCount="567">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -1550,9 +1550,6 @@
     <t>180pcs</t>
   </si>
   <si>
-    <t>PTS-1136 300-01519-015 Semiconductor</t>
-  </si>
-  <si>
     <t>11/11/2025</t>
   </si>
   <si>
@@ -1631,9 +1628,6 @@
     <t>Wk46</t>
   </si>
   <si>
-    <t>PTS-1136 300-001519-015 Semiconductor</t>
-  </si>
-  <si>
     <t>4000pcs</t>
   </si>
   <si>
@@ -1713,6 +1707,39 @@
   </si>
   <si>
     <t>Wk47</t>
+  </si>
+  <si>
+    <t>17/11/2026</t>
+  </si>
+  <si>
+    <t>17/11/2027</t>
+  </si>
+  <si>
+    <t>18/11/2026</t>
+  </si>
+  <si>
+    <t>18/11/2027</t>
+  </si>
+  <si>
+    <t>65pcs</t>
+  </si>
+  <si>
+    <t>19/11/2026</t>
+  </si>
+  <si>
+    <t>19/11/2027</t>
+  </si>
+  <si>
+    <t>20/11/2026</t>
+  </si>
+  <si>
+    <t>20/11/2027</t>
+  </si>
+  <si>
+    <t>21/11/2026</t>
+  </si>
+  <si>
+    <t>21/11/2027</t>
   </si>
 </sst>
 </file>
@@ -1790,10 +1817,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2113,10 +2136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:J954"/>
+  <dimension ref="A1:J966"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A953" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H964" sqref="H964"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25379,7 +25402,7 @@
     </row>
     <row r="895" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A895" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B895" s="1" t="s">
         <v>95</v>
@@ -25405,7 +25428,7 @@
     </row>
     <row r="896" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A896" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B896" s="1" t="s">
         <v>95</v>
@@ -25431,7 +25454,7 @@
     </row>
     <row r="897" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A897" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B897" s="1" t="s">
         <v>95</v>
@@ -25457,7 +25480,7 @@
     </row>
     <row r="898" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A898" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B898" s="1" t="s">
         <v>95</v>
@@ -25483,7 +25506,7 @@
     </row>
     <row r="899" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A899" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B899" s="1" t="s">
         <v>95</v>
@@ -25492,7 +25515,7 @@
         <v>11155143</v>
       </c>
       <c r="D899" s="5" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="E899" s="1" t="s">
         <v>398</v>
@@ -25509,7 +25532,7 @@
     </row>
     <row r="900" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A900" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B900" s="1" t="s">
         <v>95</v>
@@ -25527,7 +25550,7 @@
         <v>9</v>
       </c>
       <c r="G900" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H900" s="1">
         <v>1520.48</v>
@@ -25535,7 +25558,7 @@
     </row>
     <row r="901" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A901" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B901" s="1" t="s">
         <v>95</v>
@@ -25553,7 +25576,7 @@
         <v>9</v>
       </c>
       <c r="G901" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H901" s="1">
         <v>1251.51</v>
@@ -25561,16 +25584,16 @@
     </row>
     <row r="902" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A902" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B902" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C902" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D902" s="5" t="s">
         <v>505</v>
-      </c>
-      <c r="D902" s="5" t="s">
-        <v>506</v>
       </c>
       <c r="E902" s="1" t="s">
         <v>27</v>
@@ -25579,7 +25602,7 @@
         <v>9</v>
       </c>
       <c r="G902" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H902" s="1">
         <v>1256.32</v>
@@ -25587,7 +25610,7 @@
     </row>
     <row r="903" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A903" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B903" s="1" t="s">
         <v>95</v>
@@ -25605,7 +25628,7 @@
         <v>9</v>
       </c>
       <c r="G903" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H903" s="1">
         <v>798.18</v>
@@ -25613,13 +25636,13 @@
     </row>
     <row r="904" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A904" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B904" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D904" s="5" t="s">
         <v>256</v>
@@ -25631,7 +25654,7 @@
         <v>9</v>
       </c>
       <c r="G904" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H904" s="1">
         <v>1087.75</v>
@@ -25639,16 +25662,16 @@
     </row>
     <row r="905" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A905" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B905" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C905" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D905" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="D905" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="E905" s="1" t="s">
         <v>27</v>
@@ -25657,7 +25680,7 @@
         <v>9</v>
       </c>
       <c r="G905" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H905" s="1">
         <v>1312</v>
@@ -25665,16 +25688,16 @@
     </row>
     <row r="906" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A906" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B906" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C906" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D906" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="D906" s="5" t="s">
-        <v>511</v>
       </c>
       <c r="E906" s="1" t="s">
         <v>65</v>
@@ -25683,7 +25706,7 @@
         <v>9</v>
       </c>
       <c r="G906" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H906" s="1">
         <v>308.52</v>
@@ -25691,7 +25714,7 @@
     </row>
     <row r="907" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A907" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B907" s="1" t="s">
         <v>50</v>
@@ -25700,7 +25723,7 @@
         <v>50</v>
       </c>
       <c r="D907" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E907" s="1" t="s">
         <v>329</v>
@@ -25709,7 +25732,7 @@
         <v>9</v>
       </c>
       <c r="G907" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H907" s="1">
         <v>403.93</v>
@@ -25717,7 +25740,7 @@
     </row>
     <row r="908" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A908" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B908" s="1" t="s">
         <v>95</v>
@@ -25726,7 +25749,7 @@
         <v>11151259</v>
       </c>
       <c r="D908" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E908" s="1" t="s">
         <v>39</v>
@@ -25735,7 +25758,7 @@
         <v>9</v>
       </c>
       <c r="G908" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H908" s="1">
         <v>3216.4</v>
@@ -25743,7 +25766,7 @@
     </row>
     <row r="909" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A909" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B909" s="1" t="s">
         <v>95</v>
@@ -25761,7 +25784,7 @@
         <v>9</v>
       </c>
       <c r="G909" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H909" s="1">
         <v>926</v>
@@ -25769,7 +25792,7 @@
     </row>
     <row r="910" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A910" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B910" s="1" t="s">
         <v>95</v>
@@ -25787,7 +25810,7 @@
         <v>9</v>
       </c>
       <c r="G910" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H910" s="1">
         <v>4484.51</v>
@@ -25795,7 +25818,7 @@
     </row>
     <row r="911" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A911" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B911" s="1" t="s">
         <v>95</v>
@@ -25804,7 +25827,7 @@
         <v>11155351</v>
       </c>
       <c r="D911" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E911" s="1" t="s">
         <v>13</v>
@@ -25813,7 +25836,7 @@
         <v>9</v>
       </c>
       <c r="G911" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H911" s="1">
         <v>21.79</v>
@@ -25821,16 +25844,16 @@
     </row>
     <row r="912" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A912" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B912" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C912" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D912" s="5" t="s">
         <v>517</v>
-      </c>
-      <c r="D912" s="5" t="s">
-        <v>518</v>
       </c>
       <c r="E912" s="1" t="s">
         <v>13</v>
@@ -25839,7 +25862,7 @@
         <v>9</v>
       </c>
       <c r="G912" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H912" s="1">
         <v>265.70999999999998</v>
@@ -25847,7 +25870,7 @@
     </row>
     <row r="913" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A913" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B913" s="1" t="s">
         <v>95</v>
@@ -25865,7 +25888,7 @@
         <v>9</v>
       </c>
       <c r="G913" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H913" s="1">
         <v>365.07</v>
@@ -25873,7 +25896,7 @@
     </row>
     <row r="914" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A914" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B914" s="1" t="s">
         <v>95</v>
@@ -25891,7 +25914,7 @@
         <v>9</v>
       </c>
       <c r="G914" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H914" s="1">
         <v>1111.1199999999999</v>
@@ -25899,7 +25922,7 @@
     </row>
     <row r="915" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A915" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B915" s="1" t="s">
         <v>95</v>
@@ -25917,7 +25940,7 @@
         <v>9</v>
       </c>
       <c r="G915" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H915" s="1">
         <v>2222.2399999999998</v>
@@ -25925,7 +25948,7 @@
     </row>
     <row r="916" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A916" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B916" s="1" t="s">
         <v>95</v>
@@ -25943,7 +25966,7 @@
         <v>9</v>
       </c>
       <c r="G916" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H916" s="1">
         <v>6318</v>
@@ -25951,7 +25974,7 @@
     </row>
     <row r="917" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A917" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B917" s="1" t="s">
         <v>95</v>
@@ -25960,7 +25983,7 @@
         <v>11155143</v>
       </c>
       <c r="D917" s="5" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="E917" s="1" t="s">
         <v>20</v>
@@ -25969,7 +25992,7 @@
         <v>9</v>
       </c>
       <c r="G917" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H917" s="1">
         <v>372</v>
@@ -25977,7 +26000,7 @@
     </row>
     <row r="918" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A918" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B918" s="1" t="s">
         <v>50</v>
@@ -25986,16 +26009,16 @@
         <v>50</v>
       </c>
       <c r="D918" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="E918" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E918" s="1" t="s">
+      <c r="F918" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G918" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="F918" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G918" s="4" t="s">
-        <v>521</v>
       </c>
       <c r="H918" s="1">
         <v>1177.21</v>
@@ -26003,16 +26026,16 @@
     </row>
     <row r="919" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A919" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B919" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C919" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D919" s="5" t="s">
         <v>522</v>
-      </c>
-      <c r="D919" s="5" t="s">
-        <v>523</v>
       </c>
       <c r="E919" s="1" t="s">
         <v>8</v>
@@ -26021,7 +26044,7 @@
         <v>9</v>
       </c>
       <c r="G919" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H919" s="1">
         <v>5.79</v>
@@ -26029,7 +26052,7 @@
     </row>
     <row r="920" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A920" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B920" s="1" t="s">
         <v>95</v>
@@ -26047,7 +26070,7 @@
         <v>9</v>
       </c>
       <c r="G920" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H920" s="1">
         <v>653.72</v>
@@ -26055,16 +26078,16 @@
     </row>
     <row r="921" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A921" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B921" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C921" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D921" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="D921" s="5" t="s">
-        <v>525</v>
       </c>
       <c r="E921" s="1" t="s">
         <v>13</v>
@@ -26073,7 +26096,7 @@
         <v>9</v>
       </c>
       <c r="G921" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H921" s="1">
         <v>148</v>
@@ -26081,7 +26104,7 @@
     </row>
     <row r="922" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A922" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B922" s="1" t="s">
         <v>95</v>
@@ -26099,7 +26122,7 @@
         <v>9</v>
       </c>
       <c r="G922" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H922" s="1">
         <v>468</v>
@@ -26107,7 +26130,7 @@
     </row>
     <row r="923" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A923" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B923" s="1" t="s">
         <v>95</v>
@@ -26119,13 +26142,13 @@
         <v>87</v>
       </c>
       <c r="E923" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F923" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G923" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="F923" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G923" s="4" t="s">
-        <v>527</v>
       </c>
       <c r="H923" s="1">
         <v>3159</v>
@@ -26133,7 +26156,7 @@
     </row>
     <row r="924" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A924" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B924" s="1" t="s">
         <v>95</v>
@@ -26151,7 +26174,7 @@
         <v>9</v>
       </c>
       <c r="G924" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H924" s="1">
         <v>3754.53</v>
@@ -26159,7 +26182,7 @@
     </row>
     <row r="925" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A925" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B925" s="1" t="s">
         <v>95</v>
@@ -26177,7 +26200,7 @@
         <v>9</v>
       </c>
       <c r="G925" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H925" s="1">
         <v>1666.68</v>
@@ -26185,7 +26208,7 @@
     </row>
     <row r="926" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A926" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B926" s="1" t="s">
         <v>95</v>
@@ -26203,7 +26226,7 @@
         <v>9</v>
       </c>
       <c r="G926" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H926" s="1">
         <v>2222.2399999999998</v>
@@ -26211,7 +26234,7 @@
     </row>
     <row r="927" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A927" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B927" s="1" t="s">
         <v>95</v>
@@ -26229,7 +26252,7 @@
         <v>9</v>
       </c>
       <c r="G927" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H927" s="1">
         <v>760.24</v>
@@ -26237,7 +26260,7 @@
     </row>
     <row r="928" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A928" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B928" s="1" t="s">
         <v>95</v>
@@ -26246,16 +26269,16 @@
         <v>11155143</v>
       </c>
       <c r="D928" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E928" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F928" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G928" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="E928" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="F928" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G928" s="4" t="s">
-        <v>532</v>
       </c>
       <c r="H928" s="1">
         <v>7440</v>
@@ -26263,68 +26286,68 @@
     </row>
     <row r="929" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A929" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B929" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C929" s="1">
-        <v>11155143</v>
+        <v>11155497</v>
       </c>
       <c r="D929" s="5" t="s">
-        <v>530</v>
+        <v>87</v>
       </c>
       <c r="E929" s="1" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F929" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G929" s="4" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="H929" s="1">
-        <v>372</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="930" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A930" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B930" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C930" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D930" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E930" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F930" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G930" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B930" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C930" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D930" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E930" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F930" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G930" s="4" t="s">
-        <v>533</v>
-      </c>
       <c r="H930" s="1">
-        <v>90.92</v>
+        <v>604.79999999999995</v>
       </c>
     </row>
     <row r="931" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A931" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B931" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C931" s="1">
-        <v>11156537</v>
+        <v>11155143</v>
       </c>
       <c r="D931" s="5" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="E931" s="1" t="s">
         <v>20</v>
@@ -26333,509 +26356,509 @@
         <v>9</v>
       </c>
       <c r="G931" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H931" s="1">
-        <v>468</v>
+        <v>372</v>
       </c>
     </row>
     <row r="932" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A932" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B932" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="D932" s="5" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="E932" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F932" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G932" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H932" s="1">
-        <v>131.88</v>
+        <v>90.92</v>
       </c>
     </row>
     <row r="933" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A933" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B933" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C933" s="1" t="s">
-        <v>125</v>
+      <c r="C933" s="1">
+        <v>11156537</v>
       </c>
       <c r="D933" s="5" t="s">
-        <v>126</v>
+        <v>442</v>
       </c>
       <c r="E933" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F933" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G933" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H933" s="1">
-        <v>186.31</v>
+        <v>468</v>
       </c>
     </row>
     <row r="934" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A934" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B934" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C934" s="1" t="s">
-        <v>89</v>
+      <c r="C934" s="1">
+        <v>11155497</v>
       </c>
       <c r="D934" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E934" s="1" t="s">
-        <v>354</v>
+        <v>560</v>
       </c>
       <c r="F934" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="G934" s="4" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="H934" s="1">
-        <v>2100</v>
+        <v>2281.5</v>
       </c>
     </row>
     <row r="935" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A935" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B935" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C935" s="1" t="s">
-        <v>535</v>
+      <c r="C935" s="1">
+        <v>11155797</v>
       </c>
       <c r="D935" s="5" t="s">
-        <v>536</v>
+        <v>393</v>
       </c>
       <c r="E935" s="1" t="s">
-        <v>27</v>
+        <v>329</v>
       </c>
       <c r="F935" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G935" s="4" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="H935" s="1">
-        <v>17.18</v>
+        <v>604.79999999999995</v>
       </c>
     </row>
     <row r="936" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A936" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B936" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>241</v>
+        <v>114</v>
       </c>
       <c r="D936" s="5" t="s">
-        <v>242</v>
+        <v>115</v>
       </c>
       <c r="E936" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F936" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G936" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H936" s="1">
-        <v>2311.7399999999998</v>
+        <v>131.88</v>
       </c>
     </row>
     <row r="937" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A937" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B937" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C937" s="1">
-        <v>11157203</v>
+      <c r="C937" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D937" s="5" t="s">
-        <v>537</v>
+        <v>126</v>
       </c>
       <c r="E937" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F937" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G937" s="4" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="H937" s="1">
-        <v>1081.1199999999999</v>
+        <v>186.31</v>
       </c>
     </row>
     <row r="938" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A938" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B938" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C938" s="1">
-        <v>11155949</v>
+      <c r="C938" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D938" s="5" t="s">
-        <v>266</v>
+        <v>90</v>
       </c>
       <c r="E938" s="1" t="s">
-        <v>34</v>
+        <v>354</v>
       </c>
       <c r="F938" s="1" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="G938" s="4" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H938" s="1">
-        <v>2889.48</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="939" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A939" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B939" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C939" s="1">
-        <v>11156537</v>
+        <v>11155497</v>
       </c>
       <c r="D939" s="5" t="s">
-        <v>442</v>
+        <v>87</v>
       </c>
       <c r="E939" s="1" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F939" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G939" s="4" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
       <c r="H939" s="1">
-        <v>468</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="940" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A940" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B940" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C940" s="1" t="s">
-        <v>419</v>
+      <c r="C940" s="1">
+        <v>11155797</v>
       </c>
       <c r="D940" s="5" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="E940" s="1" t="s">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="F940" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G940" s="4" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="H940" s="1">
-        <v>421</v>
+        <v>604.79999999999995</v>
       </c>
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A941" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B941" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C941" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D941" s="5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E941" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F941" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G941" s="4" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H941" s="1">
-        <v>361.39</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="942" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A942" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>50</v>
+        <v>241</v>
       </c>
       <c r="D942" s="5" t="s">
-        <v>541</v>
+        <v>242</v>
       </c>
       <c r="E942" s="1" t="s">
-        <v>274</v>
+        <v>27</v>
       </c>
       <c r="F942" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G942" s="4" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="H942" s="1">
-        <v>78.010000000000005</v>
+        <v>2311.7399999999998</v>
       </c>
     </row>
     <row r="943" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A943" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C943" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
+      </c>
+      <c r="C943" s="1">
+        <v>11157203</v>
       </c>
       <c r="D943" s="5" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="E943" s="1" t="s">
-        <v>497</v>
+        <v>27</v>
       </c>
       <c r="F943" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G943" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H943" s="1">
-        <v>11.32</v>
+        <v>1081.1199999999999</v>
       </c>
     </row>
     <row r="944" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A944" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C944" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
+      </c>
+      <c r="C944" s="1">
+        <v>11155949</v>
       </c>
       <c r="D944" s="5" t="s">
-        <v>544</v>
+        <v>266</v>
       </c>
       <c r="E944" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F944" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G944" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H944" s="1">
-        <v>26</v>
+        <v>2889.48</v>
       </c>
     </row>
     <row r="945" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A945" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B945" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C945" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
+      </c>
+      <c r="C945" s="1">
+        <v>11155497</v>
       </c>
       <c r="D945" s="5" t="s">
-        <v>545</v>
+        <v>87</v>
       </c>
       <c r="E945" s="1" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="F945" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G945" s="4" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="H945" s="1">
-        <v>1009.1</v>
+        <v>2281.5</v>
       </c>
     </row>
     <row r="946" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A946" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B946" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C946" s="1" t="s">
-        <v>547</v>
+      <c r="C946" s="1">
+        <v>11155797</v>
       </c>
       <c r="D946" s="5" t="s">
-        <v>548</v>
+        <v>393</v>
       </c>
       <c r="E946" s="1" t="s">
-        <v>27</v>
+        <v>329</v>
       </c>
       <c r="F946" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G946" s="4" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
       <c r="H946" s="1">
-        <v>3275.36</v>
+        <v>604.79999999999995</v>
       </c>
     </row>
     <row r="947" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A947" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B947" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C947" s="1" t="s">
-        <v>241</v>
+      <c r="C947" s="1">
+        <v>11156537</v>
       </c>
       <c r="D947" s="5" t="s">
-        <v>242</v>
+        <v>442</v>
       </c>
       <c r="E947" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F947" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G947" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H947" s="1">
-        <v>3467.61</v>
+        <v>468</v>
       </c>
     </row>
     <row r="948" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A948" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B948" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>549</v>
+        <v>419</v>
       </c>
       <c r="D948" s="5" t="s">
-        <v>550</v>
+        <v>420</v>
       </c>
       <c r="E948" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F948" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G948" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H948" s="1">
-        <v>413.18</v>
+        <v>421</v>
       </c>
     </row>
     <row r="949" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A949" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B949" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C949" s="1">
-        <v>11154686</v>
+      <c r="C949" s="1" t="s">
+        <v>537</v>
       </c>
       <c r="D949" s="5" t="s">
-        <v>459</v>
+        <v>538</v>
       </c>
       <c r="E949" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F949" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G949" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H949" s="1">
-        <v>1583.35</v>
+        <v>361.39</v>
       </c>
     </row>
     <row r="950" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A950" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C950" s="1">
-        <v>11155143</v>
+        <v>50</v>
+      </c>
+      <c r="C950" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D950" s="5" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="E950" s="1" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="F950" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G950" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H950" s="1">
-        <v>2790</v>
+        <v>78.010000000000005</v>
       </c>
     </row>
     <row r="951" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A951" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B951" s="1" t="s">
         <v>50</v>
@@ -26844,24 +26867,24 @@
         <v>50</v>
       </c>
       <c r="D951" s="5" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="E951" s="1" t="s">
-        <v>27</v>
+        <v>497</v>
       </c>
       <c r="F951" s="1" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="G951" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H951" s="1">
-        <v>90.22</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="952" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A952" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B952" s="1" t="s">
         <v>50</v>
@@ -26870,75 +26893,387 @@
         <v>50</v>
       </c>
       <c r="D952" s="5" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="E952" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F952" s="1" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="G952" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H952" s="1">
-        <v>8.56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="953" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A953" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B953" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C953" s="1" t="s">
-        <v>553</v>
+        <v>50</v>
       </c>
       <c r="D953" s="5" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="E953" s="1" t="s">
-        <v>13</v>
+        <v>544</v>
       </c>
       <c r="F953" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G953" s="4" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="H953" s="1">
-        <v>4088.98</v>
+        <v>1009.1</v>
       </c>
     </row>
     <row r="954" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A954" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B954" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C954" s="1">
+      <c r="C954" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D954" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E954" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F954" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G954" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H954" s="1">
+        <v>3275.36</v>
+      </c>
+    </row>
+    <row r="955" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A955" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B955" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C955" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D955" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E955" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F955" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G955" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="H955" s="1">
+        <v>2281.5</v>
+      </c>
+    </row>
+    <row r="956" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A956" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B956" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C956" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D956" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E956" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F956" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G956" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="H956" s="1">
+        <v>604.79999999999995</v>
+      </c>
+    </row>
+    <row r="957" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A957" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B957" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C957" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D957" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E957" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F957" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G957" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H957" s="1">
+        <v>3467.61</v>
+      </c>
+    </row>
+    <row r="958" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A958" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B958" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C958" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D958" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E958" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F958" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G958" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H958" s="1">
+        <v>413.18</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A959" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B959" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C959" s="1">
+        <v>11154686</v>
+      </c>
+      <c r="D959" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E959" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F959" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G959" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H959" s="1">
+        <v>1583.35</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A960" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B960" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C960" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D960" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E960" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F960" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G960" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H960" s="1">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="961" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A961" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B961" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C961" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D961" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="E961" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F961" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G961" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H961" s="1">
+        <v>90.22</v>
+      </c>
+    </row>
+    <row r="962" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A962" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B962" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C962" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D962" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E962" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F962" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G962" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H962" s="1">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="963" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A963" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B963" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C963" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D963" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E963" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F963" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G963" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="H963" s="1">
+        <v>2106.1</v>
+      </c>
+    </row>
+    <row r="964" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A964" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B964" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C964" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D964" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E964" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F964" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G964" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="H964" s="1">
+        <v>604.79999999999995</v>
+      </c>
+    </row>
+    <row r="965" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A965" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B965" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C965" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D965" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="E965" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F965" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G965" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="H965" s="1">
+        <v>4088.98</v>
+      </c>
+    </row>
+    <row r="966" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A966" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B966" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C966" s="1">
         <v>11151248</v>
       </c>
-      <c r="D954" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="E954" s="1" t="s">
+      <c r="D966" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="E966" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F954" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G954" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="H954" s="1">
+      <c r="F966" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G966" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="H966" s="1">
         <v>1666.68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H954" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
+  <autoFilter ref="A1:H966" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -1817,6 +1817,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2138,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
   <dimension ref="A1:J966"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A953" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H964" sqref="H964"/>
+    <sheetView tabSelected="1" topLeftCell="A926" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D971" sqref="D971"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="369" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{108FCAE1-E6ED-48F3-95DF-77D0900FDB7E}"/>
+  <xr:revisionPtr revIDLastSave="381" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE3EC723-784D-437D-84E7-CA73B6362802}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -2069,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
   <dimension ref="A1:J966"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A944" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D954" sqref="D954"/>
+    <sheetView tabSelected="1" topLeftCell="A956" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G931" sqref="G931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26235,7 +26235,7 @@
         <v>9</v>
       </c>
       <c r="G929" s="3">
-        <v>46343</v>
+        <v>45978</v>
       </c>
       <c r="H929" s="1">
         <v>2106</v>
@@ -26261,7 +26261,7 @@
         <v>9</v>
       </c>
       <c r="G930" s="3">
-        <v>46708</v>
+        <v>45978</v>
       </c>
       <c r="H930" s="1">
         <v>604.79999999999995</v>
@@ -26365,7 +26365,7 @@
         <v>9</v>
       </c>
       <c r="G934" s="3">
-        <v>46344</v>
+        <v>45979</v>
       </c>
       <c r="H934" s="1">
         <v>2281.5</v>
@@ -26391,7 +26391,7 @@
         <v>9</v>
       </c>
       <c r="G935" s="3">
-        <v>46709</v>
+        <v>45979</v>
       </c>
       <c r="H935" s="1">
         <v>604.79999999999995</v>
@@ -26495,7 +26495,7 @@
         <v>9</v>
       </c>
       <c r="G939" s="3">
-        <v>46345</v>
+        <v>45980</v>
       </c>
       <c r="H939" s="1">
         <v>2106</v>
@@ -26521,7 +26521,7 @@
         <v>9</v>
       </c>
       <c r="G940" s="3">
-        <v>46710</v>
+        <v>45980</v>
       </c>
       <c r="H940" s="1">
         <v>604.79999999999995</v>
@@ -26651,7 +26651,7 @@
         <v>9</v>
       </c>
       <c r="G945" s="3">
-        <v>46346</v>
+        <v>45981</v>
       </c>
       <c r="H945" s="1">
         <v>2281.5</v>
@@ -26677,7 +26677,7 @@
         <v>9</v>
       </c>
       <c r="G946" s="3">
-        <v>46711</v>
+        <v>45981</v>
       </c>
       <c r="H946" s="1">
         <v>604.79999999999995</v>
@@ -26911,7 +26911,7 @@
         <v>9</v>
       </c>
       <c r="G955" s="3">
-        <v>46347</v>
+        <v>45982</v>
       </c>
       <c r="H955" s="1">
         <v>2281.5</v>
@@ -26937,7 +26937,7 @@
         <v>9</v>
       </c>
       <c r="G956" s="3">
-        <v>46712</v>
+        <v>45982</v>
       </c>
       <c r="H956" s="1">
         <v>604.79999999999995</v>
@@ -27119,7 +27119,7 @@
         <v>9</v>
       </c>
       <c r="G963" s="3">
-        <v>45252</v>
+        <v>45983</v>
       </c>
       <c r="H963" s="1">
         <v>2106.1</v>
@@ -27145,7 +27145,7 @@
         <v>9</v>
       </c>
       <c r="G964" s="3">
-        <v>45618</v>
+        <v>45983</v>
       </c>
       <c r="H964" s="1">
         <v>604.79999999999995</v>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="381" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE3EC723-784D-437D-84E7-CA73B6362802}"/>
+  <xr:revisionPtr revIDLastSave="386" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DFB0425-2B21-4FFA-9E88-59CF6029AF6A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -2069,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
   <dimension ref="A1:J966"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A956" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G931" sqref="G931"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18929,7 +18929,7 @@
         <v>9</v>
       </c>
       <c r="G648" s="3">
-        <v>46297</v>
+        <v>45932</v>
       </c>
       <c r="H648" s="1">
         <v>1009</v>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="392" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B42490E-8300-4D63-86E9-8BF0B7834356}"/>
+  <xr:revisionPtr revIDLastSave="393" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F7F6122-ED91-4DDF-A90B-D9B4B2FB20BF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -1715,7 +1715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1728,9 +1728,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2073,8 +2070,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J966"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H938" sqref="H938"/>
+    <sheetView tabSelected="1" topLeftCell="A945" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A960" sqref="A960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2084,7 +2081,7 @@
     <col min="4" max="4" width="69.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.7265625" style="1"/>
     <col min="7" max="7" width="18.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.7265625" style="1"/>
     <col min="10" max="10" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.7265625" style="1"/>
@@ -2112,7 +2109,7 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2138,7 +2135,7 @@
       <c r="G2" s="3">
         <v>45831</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="1">
         <v>1666.68</v>
       </c>
     </row>
@@ -2164,7 +2161,7 @@
       <c r="G3" s="3">
         <v>45831</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="1">
         <v>4444.4799999999996</v>
       </c>
     </row>
@@ -2190,7 +2187,7 @@
       <c r="G4" s="3">
         <v>45831</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="1">
         <v>78.62</v>
       </c>
     </row>
@@ -2216,7 +2213,7 @@
       <c r="G5" s="3">
         <v>45831</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="1">
         <v>135.4</v>
       </c>
     </row>
@@ -2242,7 +2239,7 @@
       <c r="G6" s="3">
         <v>45831</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="1">
         <v>80.099999999999994</v>
       </c>
     </row>
@@ -2268,7 +2265,7 @@
       <c r="G7" s="3">
         <v>45831</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="1">
         <v>420</v>
       </c>
     </row>
@@ -2294,7 +2291,7 @@
       <c r="G8" s="3">
         <v>45831</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="1">
         <v>65.959999999999994</v>
       </c>
     </row>
@@ -2320,7 +2317,7 @@
       <c r="G9" s="3">
         <v>45832</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="1">
         <v>420</v>
       </c>
     </row>
@@ -2346,7 +2343,7 @@
       <c r="G10" s="3">
         <v>45833</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="1">
         <v>420</v>
       </c>
     </row>
@@ -2372,7 +2369,7 @@
       <c r="G11" s="3">
         <v>45833</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="1">
         <v>29.46</v>
       </c>
     </row>
@@ -2398,7 +2395,7 @@
       <c r="G12" s="3">
         <v>45833</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="1">
         <v>513.29999999999995</v>
       </c>
     </row>
@@ -2424,7 +2421,7 @@
       <c r="G13" s="3">
         <v>45838</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="1">
         <v>119.16</v>
       </c>
     </row>
@@ -2450,7 +2447,7 @@
       <c r="G14" s="3">
         <v>45838</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="1">
         <v>12.33</v>
       </c>
     </row>
@@ -2476,7 +2473,7 @@
       <c r="G15" s="3">
         <v>45838</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="1">
         <v>71.92</v>
       </c>
     </row>
@@ -2502,7 +2499,7 @@
       <c r="G16" s="3">
         <v>45838</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="1">
         <v>1311.72</v>
       </c>
     </row>
@@ -2528,7 +2525,7 @@
       <c r="G17" s="3">
         <v>45838</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="1">
         <v>20.5</v>
       </c>
     </row>
@@ -2554,7 +2551,7 @@
       <c r="G18" s="3">
         <v>45838</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="1">
         <v>1983.2</v>
       </c>
     </row>
@@ -2580,7 +2577,7 @@
       <c r="G19" s="3">
         <v>45838</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="1">
         <v>135.30000000000001</v>
       </c>
     </row>
@@ -2606,7 +2603,7 @@
       <c r="G20" s="3">
         <v>45838</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="1">
         <v>270.8</v>
       </c>
     </row>
@@ -2632,7 +2629,7 @@
       <c r="G21" s="3">
         <v>45838</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="1">
         <v>760.24</v>
       </c>
     </row>
@@ -2658,7 +2655,7 @@
       <c r="G22" s="3">
         <v>45838</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="1">
         <v>1251.51</v>
       </c>
     </row>
@@ -2684,7 +2681,7 @@
       <c r="G23" s="3">
         <v>45840</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="1">
         <v>25.9</v>
       </c>
     </row>
@@ -2710,7 +2707,7 @@
       <c r="G24" s="3">
         <v>45840</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="1">
         <v>12.75</v>
       </c>
     </row>
@@ -2736,7 +2733,7 @@
       <c r="G25" s="3">
         <v>45840</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="1">
         <v>29.04</v>
       </c>
     </row>
@@ -2762,7 +2759,7 @@
       <c r="G26" s="3">
         <v>45840</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="1">
         <v>13.81</v>
       </c>
     </row>
@@ -2788,7 +2785,7 @@
       <c r="G27" s="3">
         <v>45840</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="1">
         <v>64.349999999999994</v>
       </c>
     </row>
@@ -2814,7 +2811,7 @@
       <c r="G28" s="3">
         <v>45840</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="1">
         <v>800.51</v>
       </c>
     </row>
@@ -2840,7 +2837,7 @@
       <c r="G29" s="3">
         <v>45840</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="1">
         <v>43.95</v>
       </c>
     </row>
@@ -2866,7 +2863,7 @@
       <c r="G30" s="3">
         <v>45840</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="1">
         <v>134.19999999999999</v>
       </c>
     </row>
@@ -2892,7 +2889,7 @@
       <c r="G31" s="3">
         <v>45840</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="1">
         <v>18.05</v>
       </c>
     </row>
@@ -2918,7 +2915,7 @@
       <c r="G32" s="3">
         <v>45840</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="1">
         <v>32.96</v>
       </c>
     </row>
@@ -2944,7 +2941,7 @@
       <c r="G33" s="3">
         <v>45840</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="1">
         <v>4</v>
       </c>
     </row>
@@ -2970,7 +2967,7 @@
       <c r="G34" s="3">
         <v>45840</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="1">
         <v>172.66</v>
       </c>
     </row>
@@ -2996,7 +2993,7 @@
       <c r="G35" s="3">
         <v>45840</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="1">
         <v>769.95</v>
       </c>
     </row>
@@ -3022,7 +3019,7 @@
       <c r="G36" s="3">
         <v>45840</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="1">
         <v>1539.9</v>
       </c>
     </row>
@@ -3048,7 +3045,7 @@
       <c r="G37" s="3">
         <v>45840</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -3074,7 +3071,7 @@
       <c r="G38" s="3">
         <v>45840</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="1">
         <v>8548.4</v>
       </c>
     </row>
@@ -3100,7 +3097,7 @@
       <c r="G39" s="3">
         <v>45840</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="1">
         <v>13348.4</v>
       </c>
     </row>
@@ -3126,7 +3123,7 @@
       <c r="G40" s="3">
         <v>45840</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="1">
         <v>1827.2</v>
       </c>
     </row>
@@ -3152,7 +3149,7 @@
       <c r="G41" s="3">
         <v>45840</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="1">
         <v>1489.57</v>
       </c>
     </row>
@@ -3178,7 +3175,7 @@
       <c r="G42" s="3">
         <v>45840</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="1">
         <v>4836</v>
       </c>
     </row>
@@ -3204,7 +3201,7 @@
       <c r="G43" s="3">
         <v>45840</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="1">
         <v>1666.68</v>
       </c>
     </row>
@@ -3230,7 +3227,7 @@
       <c r="G44" s="3">
         <v>45840</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="1">
         <v>18.05</v>
       </c>
     </row>
@@ -3256,7 +3253,7 @@
       <c r="G45" s="3">
         <v>45840</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="1">
         <v>145.19</v>
       </c>
     </row>
@@ -3282,7 +3279,7 @@
       <c r="G46" s="3">
         <v>45841</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="1">
         <v>840</v>
       </c>
     </row>
@@ -3308,7 +3305,7 @@
       <c r="G47" s="3">
         <v>45841</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="1">
         <v>1075.28</v>
       </c>
     </row>
@@ -3334,7 +3331,7 @@
       <c r="G48" s="3">
         <v>45841</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="1">
         <v>561.6</v>
       </c>
     </row>
@@ -3360,7 +3357,7 @@
       <c r="G49" s="3">
         <v>45842</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="1">
         <v>1680</v>
       </c>
     </row>
@@ -3386,7 +3383,7 @@
       <c r="G50" s="3">
         <v>45845</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="1">
         <v>74.87</v>
       </c>
     </row>
@@ -3412,7 +3409,7 @@
       <c r="G51" s="3">
         <v>45845</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="1">
         <v>421.2</v>
       </c>
     </row>
@@ -3438,7 +3435,7 @@
       <c r="G52" s="3">
         <v>45846</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="1">
         <v>421.2</v>
       </c>
     </row>
@@ -3464,7 +3461,7 @@
       <c r="G53" s="3">
         <v>45846</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="1">
         <v>13.53</v>
       </c>
     </row>
@@ -3490,7 +3487,7 @@
       <c r="G54" s="3">
         <v>45846</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="1">
         <v>257.2</v>
       </c>
     </row>
@@ -3516,7 +3513,7 @@
       <c r="G55" s="3">
         <v>45846</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="1">
         <v>214.3</v>
       </c>
     </row>
@@ -3542,7 +3539,7 @@
       <c r="G56" s="3">
         <v>45846</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="1">
         <v>896</v>
       </c>
     </row>
@@ -3568,7 +3565,7 @@
       <c r="G57" s="3">
         <v>45846</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="1">
         <v>2482</v>
       </c>
     </row>
@@ -3594,7 +3591,7 @@
       <c r="G58" s="3">
         <v>45846</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="1">
         <v>91.88</v>
       </c>
     </row>
@@ -3620,7 +3617,7 @@
       <c r="G59" s="3">
         <v>45846</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="1">
         <v>621.36</v>
       </c>
     </row>
@@ -3646,7 +3643,7 @@
       <c r="G60" s="3">
         <v>45847</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="1">
         <v>312</v>
       </c>
     </row>
@@ -3672,7 +3669,7 @@
       <c r="G61" s="3">
         <v>45847</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="1">
         <v>420</v>
       </c>
     </row>
@@ -3698,7 +3695,7 @@
       <c r="G62" s="3">
         <v>45847</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="1">
         <v>325.02999999999997</v>
       </c>
     </row>
@@ -3724,7 +3721,7 @@
       <c r="G63" s="3">
         <v>45847</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="1">
         <v>210.07</v>
       </c>
     </row>
@@ -3750,7 +3747,7 @@
       <c r="G64" s="3">
         <v>45847</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="1">
         <v>421.2</v>
       </c>
     </row>
@@ -3776,7 +3773,7 @@
       <c r="G65" s="3">
         <v>45848</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="1">
         <v>406.2</v>
       </c>
     </row>
@@ -3802,7 +3799,7 @@
       <c r="G66" s="3">
         <v>45848</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="1">
         <v>9672</v>
       </c>
     </row>
@@ -3828,7 +3825,7 @@
       <c r="G67" s="3">
         <v>45848</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="1">
         <v>263.76</v>
       </c>
     </row>
@@ -3854,7 +3851,7 @@
       <c r="G68" s="3">
         <v>45848</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="1">
         <v>319.26</v>
       </c>
     </row>
@@ -3880,7 +3877,7 @@
       <c r="G69" s="3">
         <v>45848</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="1">
         <v>421.2</v>
       </c>
     </row>
@@ -3906,7 +3903,7 @@
       <c r="G70" s="3">
         <v>45848</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="1">
         <v>420</v>
       </c>
     </row>
@@ -3932,7 +3929,7 @@
       <c r="G71" s="3">
         <v>45848</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="1">
         <v>325.02999999999997</v>
       </c>
     </row>
@@ -3958,7 +3955,7 @@
       <c r="G72" s="3">
         <v>45848</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="1">
         <v>210.07</v>
       </c>
     </row>
@@ -3984,7 +3981,7 @@
       <c r="G73" s="3">
         <v>45848</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H73" s="1">
         <v>280.8</v>
       </c>
     </row>
@@ -4010,7 +4007,7 @@
       <c r="G74" s="3">
         <v>45849</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H74" s="1">
         <v>362.88</v>
       </c>
     </row>
@@ -4036,7 +4033,7 @@
       <c r="G75" s="3">
         <v>45852</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75" s="1">
         <v>22.41</v>
       </c>
       <c r="J75" s="2"/>
@@ -4063,7 +4060,7 @@
       <c r="G76" s="3">
         <v>45852</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H76" s="1">
         <v>403.2</v>
       </c>
     </row>
@@ -4089,7 +4086,7 @@
       <c r="G77" s="3">
         <v>45852</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -4115,7 +4112,7 @@
       <c r="G78" s="3">
         <v>45852</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78" s="1">
         <v>2777.8</v>
       </c>
     </row>
@@ -4141,7 +4138,7 @@
       <c r="G79" s="3">
         <v>45852</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -4167,7 +4164,7 @@
       <c r="G80" s="3">
         <v>45852</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H80" s="1">
         <v>420</v>
       </c>
     </row>
@@ -4193,7 +4190,7 @@
       <c r="G81" s="3">
         <v>45852</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="1">
         <v>68.91</v>
       </c>
     </row>
@@ -4219,7 +4216,7 @@
       <c r="G82" s="3">
         <v>45852</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="1">
         <v>4500</v>
       </c>
     </row>
@@ -4245,7 +4242,7 @@
       <c r="G83" s="3">
         <v>45852</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H83" s="1">
         <v>283.72000000000003</v>
       </c>
     </row>
@@ -4271,7 +4268,7 @@
       <c r="G84" s="3">
         <v>45852</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H84" s="1">
         <v>210.6</v>
       </c>
     </row>
@@ -4297,7 +4294,7 @@
       <c r="G85" s="3">
         <v>45852</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="1">
         <v>161.28</v>
       </c>
     </row>
@@ -4323,7 +4320,7 @@
       <c r="G86" s="3">
         <v>45853</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86" s="1">
         <v>351</v>
       </c>
     </row>
@@ -4349,7 +4346,7 @@
       <c r="G87" s="3">
         <v>45854</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87" s="1">
         <v>351</v>
       </c>
     </row>
@@ -4375,7 +4372,7 @@
       <c r="G88" s="3">
         <v>45855</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H88" s="1">
         <v>9.82</v>
       </c>
     </row>
@@ -4401,7 +4398,7 @@
       <c r="G89" s="3">
         <v>45855</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H89" s="1">
         <v>124.7</v>
       </c>
     </row>
@@ -4427,7 +4424,7 @@
       <c r="G90" s="3">
         <v>45855</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H90" s="1">
         <v>327.35000000000002</v>
       </c>
     </row>
@@ -4453,7 +4450,7 @@
       <c r="G91" s="3">
         <v>45855</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91" s="1">
         <v>23</v>
       </c>
     </row>
@@ -4479,7 +4476,7 @@
       <c r="G92" s="3">
         <v>45855</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H92" s="1">
         <v>631.79999999999995</v>
       </c>
     </row>
@@ -4505,7 +4502,7 @@
       <c r="G93" s="3">
         <v>45855</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H93" s="1">
         <v>282.24</v>
       </c>
     </row>
@@ -4531,7 +4528,7 @@
       <c r="G94" s="3">
         <v>45855</v>
       </c>
-      <c r="H94" s="5">
+      <c r="H94" s="1">
         <v>123.1</v>
       </c>
     </row>
@@ -4557,7 +4554,7 @@
       <c r="G95" s="3">
         <v>45855</v>
       </c>
-      <c r="H95" s="5">
+      <c r="H95" s="1">
         <v>7.4</v>
       </c>
     </row>
@@ -4583,7 +4580,7 @@
       <c r="G96" s="3">
         <v>45855</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H96" s="1">
         <v>15.2</v>
       </c>
     </row>
@@ -4609,7 +4606,7 @@
       <c r="G97" s="3">
         <v>45856</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H97" s="1">
         <v>443.52</v>
       </c>
     </row>
@@ -4635,7 +4632,7 @@
       <c r="G98" s="3">
         <v>45856</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H98" s="1">
         <v>420</v>
       </c>
     </row>
@@ -4661,7 +4658,7 @@
       <c r="G99" s="3">
         <v>45856</v>
       </c>
-      <c r="H99" s="5">
+      <c r="H99" s="1">
         <v>561.6</v>
       </c>
     </row>
@@ -4687,7 +4684,7 @@
       <c r="G100" s="3">
         <v>45856</v>
       </c>
-      <c r="H100" s="5">
+      <c r="H100" s="1">
         <v>120.96</v>
       </c>
     </row>
@@ -4713,7 +4710,7 @@
       <c r="G101" s="3">
         <v>45856</v>
       </c>
-      <c r="H101" s="5">
+      <c r="H101" s="1">
         <v>280.8</v>
       </c>
     </row>
@@ -4739,7 +4736,7 @@
       <c r="G102" s="3">
         <v>45857</v>
       </c>
-      <c r="H102" s="5">
+      <c r="H102" s="1">
         <v>288.95</v>
       </c>
     </row>
@@ -4765,7 +4762,7 @@
       <c r="G103" s="3">
         <v>45857</v>
       </c>
-      <c r="H103" s="5">
+      <c r="H103" s="1">
         <v>234.28</v>
       </c>
     </row>
@@ -4791,7 +4788,7 @@
       <c r="G104" s="3">
         <v>45857</v>
       </c>
-      <c r="H104" s="5">
+      <c r="H104" s="1">
         <v>1666.68</v>
       </c>
     </row>
@@ -4817,7 +4814,7 @@
       <c r="G105" s="3">
         <v>45857</v>
       </c>
-      <c r="H105" s="5">
+      <c r="H105" s="1">
         <v>406.2</v>
       </c>
     </row>
@@ -4843,7 +4840,7 @@
       <c r="G106" s="3">
         <v>45857</v>
       </c>
-      <c r="H106" s="5">
+      <c r="H106" s="1">
         <v>842.4</v>
       </c>
     </row>
@@ -4869,7 +4866,7 @@
       <c r="G107" s="3">
         <v>45857</v>
       </c>
-      <c r="H107" s="5">
+      <c r="H107" s="1">
         <v>201.6</v>
       </c>
     </row>
@@ -4895,7 +4892,7 @@
       <c r="G108" s="3">
         <v>45858</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="1">
         <v>421.2</v>
       </c>
     </row>
@@ -4921,7 +4918,7 @@
       <c r="G109" s="3">
         <v>45859</v>
       </c>
-      <c r="H109" s="5">
+      <c r="H109" s="1">
         <v>51.86</v>
       </c>
     </row>
@@ -4947,7 +4944,7 @@
       <c r="G110" s="3">
         <v>45859</v>
       </c>
-      <c r="H110" s="5">
+      <c r="H110" s="1">
         <v>702</v>
       </c>
     </row>
@@ -4973,7 +4970,7 @@
       <c r="G111" s="3">
         <v>45859</v>
       </c>
-      <c r="H111" s="5">
+      <c r="H111" s="1">
         <v>201.6</v>
       </c>
     </row>
@@ -4999,7 +4996,7 @@
       <c r="G112" s="3">
         <v>45860</v>
       </c>
-      <c r="H112" s="5">
+      <c r="H112" s="1">
         <v>702</v>
       </c>
     </row>
@@ -5025,7 +5022,7 @@
       <c r="G113" s="3">
         <v>45860</v>
       </c>
-      <c r="H113" s="5">
+      <c r="H113" s="1">
         <v>201.6</v>
       </c>
     </row>
@@ -5051,7 +5048,7 @@
       <c r="G114" s="3">
         <v>45860</v>
       </c>
-      <c r="H114" s="5">
+      <c r="H114" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -5077,7 +5074,7 @@
       <c r="G115" s="3">
         <v>45860</v>
       </c>
-      <c r="H115" s="5">
+      <c r="H115" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -5103,7 +5100,7 @@
       <c r="G116" s="3">
         <v>45860</v>
       </c>
-      <c r="H116" s="5">
+      <c r="H116" s="1">
         <v>840</v>
       </c>
     </row>
@@ -5129,7 +5126,7 @@
       <c r="G117" s="3">
         <v>45861</v>
       </c>
-      <c r="H117" s="5">
+      <c r="H117" s="1">
         <v>840</v>
       </c>
     </row>
@@ -5155,7 +5152,7 @@
       <c r="G118" s="3">
         <v>45861</v>
       </c>
-      <c r="H118" s="5">
+      <c r="H118" s="1">
         <v>420.14</v>
       </c>
     </row>
@@ -5181,7 +5178,7 @@
       <c r="G119" s="3">
         <v>45861</v>
       </c>
-      <c r="H119" s="5">
+      <c r="H119" s="1">
         <v>325.02999999999997</v>
       </c>
     </row>
@@ -5207,7 +5204,7 @@
       <c r="G120" s="3">
         <v>45861</v>
       </c>
-      <c r="H120" s="5">
+      <c r="H120" s="1">
         <v>68.91</v>
       </c>
     </row>
@@ -5233,7 +5230,7 @@
       <c r="G121" s="3">
         <v>45861</v>
       </c>
-      <c r="H121" s="5">
+      <c r="H121" s="1">
         <v>561.6</v>
       </c>
     </row>
@@ -5259,7 +5256,7 @@
       <c r="G122" s="3">
         <v>45861</v>
       </c>
-      <c r="H122" s="5">
+      <c r="H122" s="1">
         <v>362.88</v>
       </c>
     </row>
@@ -5285,7 +5282,7 @@
       <c r="G123" s="3">
         <v>45861</v>
       </c>
-      <c r="H123" s="5">
+      <c r="H123" s="1">
         <v>270.8</v>
       </c>
     </row>
@@ -5311,7 +5308,7 @@
       <c r="G124" s="3">
         <v>45861</v>
       </c>
-      <c r="H124" s="5">
+      <c r="H124" s="1">
         <v>372</v>
       </c>
     </row>
@@ -5337,7 +5334,7 @@
       <c r="G125" s="3">
         <v>45861</v>
       </c>
-      <c r="H125" s="5">
+      <c r="H125" s="1">
         <v>1251.51</v>
       </c>
     </row>
@@ -5363,7 +5360,7 @@
       <c r="G126" s="3">
         <v>45861</v>
       </c>
-      <c r="H126" s="5">
+      <c r="H126" s="1">
         <v>207.12</v>
       </c>
     </row>
@@ -5389,7 +5386,7 @@
       <c r="G127" s="3">
         <v>45861</v>
       </c>
-      <c r="H127" s="5">
+      <c r="H127" s="1">
         <v>220.49</v>
       </c>
     </row>
@@ -5415,7 +5412,7 @@
       <c r="G128" s="3">
         <v>45862</v>
       </c>
-      <c r="H128" s="5">
+      <c r="H128" s="1">
         <v>702</v>
       </c>
     </row>
@@ -5441,7 +5438,7 @@
       <c r="G129" s="3">
         <v>45862</v>
       </c>
-      <c r="H129" s="5">
+      <c r="H129" s="1">
         <v>201.6</v>
       </c>
     </row>
@@ -5467,7 +5464,7 @@
       <c r="G130" s="3">
         <v>45863</v>
       </c>
-      <c r="H130" s="5">
+      <c r="H130" s="1">
         <v>840</v>
       </c>
     </row>
@@ -5493,7 +5490,7 @@
       <c r="G131" s="3">
         <v>45863</v>
       </c>
-      <c r="H131" s="5">
+      <c r="H131" s="1">
         <v>561.6</v>
       </c>
     </row>
@@ -5519,7 +5516,7 @@
       <c r="G132" s="3">
         <v>45863</v>
       </c>
-      <c r="H132" s="5">
+      <c r="H132" s="1">
         <v>282.24</v>
       </c>
     </row>
@@ -5545,7 +5542,7 @@
       <c r="G133" s="3">
         <v>45863</v>
       </c>
-      <c r="H133" s="5">
+      <c r="H133" s="1">
         <v>372</v>
       </c>
     </row>
@@ -5571,7 +5568,7 @@
       <c r="G134" s="3">
         <v>45863</v>
       </c>
-      <c r="H134" s="5">
+      <c r="H134" s="1">
         <v>304.08999999999997</v>
       </c>
     </row>
@@ -5597,7 +5594,7 @@
       <c r="G135" s="3">
         <v>45863</v>
       </c>
-      <c r="H135" s="5">
+      <c r="H135" s="1">
         <v>2777.8</v>
       </c>
     </row>
@@ -5623,7 +5620,7 @@
       <c r="G136" s="3">
         <v>45863</v>
       </c>
-      <c r="H136" s="5">
+      <c r="H136" s="1">
         <v>842.4</v>
       </c>
     </row>
@@ -5649,7 +5646,7 @@
       <c r="G137" s="3">
         <v>45863</v>
       </c>
-      <c r="H137" s="5">
+      <c r="H137" s="1">
         <v>322.56</v>
       </c>
     </row>
@@ -5675,7 +5672,7 @@
       <c r="G138" s="3">
         <v>45863</v>
       </c>
-      <c r="H138" s="5">
+      <c r="H138" s="1">
         <v>3018.87</v>
       </c>
     </row>
@@ -5701,7 +5698,7 @@
       <c r="G139" s="3">
         <v>45864</v>
       </c>
-      <c r="H139" s="5">
+      <c r="H139" s="1">
         <v>201.6</v>
       </c>
     </row>
@@ -5727,7 +5724,7 @@
       <c r="G140" s="3">
         <v>45864</v>
       </c>
-      <c r="H140" s="5">
+      <c r="H140" s="1">
         <v>877.19</v>
       </c>
     </row>
@@ -5753,7 +5750,7 @@
       <c r="G141" s="3">
         <v>45864</v>
       </c>
-      <c r="H141" s="5">
+      <c r="H141" s="1">
         <v>351</v>
       </c>
     </row>
@@ -5779,7 +5776,7 @@
       <c r="G142" s="3">
         <v>45864</v>
       </c>
-      <c r="H142" s="5">
+      <c r="H142" s="1">
         <v>161.28</v>
       </c>
     </row>
@@ -5805,7 +5802,7 @@
       <c r="G143" s="3">
         <v>45864</v>
       </c>
-      <c r="H143" s="5">
+      <c r="H143" s="1">
         <v>555.55999999999995</v>
       </c>
     </row>
@@ -5831,7 +5828,7 @@
       <c r="G144" s="3">
         <v>45864</v>
       </c>
-      <c r="H144" s="5">
+      <c r="H144" s="1">
         <v>555.55999999999995</v>
       </c>
     </row>
@@ -5857,7 +5854,7 @@
       <c r="G145" s="3">
         <v>45864</v>
       </c>
-      <c r="H145" s="5">
+      <c r="H145" s="1">
         <v>3018.87</v>
       </c>
     </row>
@@ -5883,7 +5880,7 @@
       <c r="G146" s="3">
         <v>45865</v>
       </c>
-      <c r="H146" s="5">
+      <c r="H146" s="1">
         <v>561.6</v>
       </c>
     </row>
@@ -5909,7 +5906,7 @@
       <c r="G147" s="3">
         <v>45865</v>
       </c>
-      <c r="H147" s="5">
+      <c r="H147" s="1">
         <v>201.6</v>
       </c>
     </row>
@@ -5935,7 +5932,7 @@
       <c r="G148" s="3">
         <v>45866</v>
       </c>
-      <c r="H148" s="5">
+      <c r="H148" s="1">
         <v>53.36</v>
       </c>
     </row>
@@ -5961,7 +5958,7 @@
       <c r="G149" s="3">
         <v>45866</v>
       </c>
-      <c r="H149" s="5">
+      <c r="H149" s="1">
         <v>51.84</v>
       </c>
     </row>
@@ -5987,7 +5984,7 @@
       <c r="G150" s="3">
         <v>45866</v>
       </c>
-      <c r="H150" s="5">
+      <c r="H150" s="1">
         <v>252.01</v>
       </c>
     </row>
@@ -6013,7 +6010,7 @@
       <c r="G151" s="3">
         <v>45866</v>
       </c>
-      <c r="H151" s="5">
+      <c r="H151" s="1">
         <v>4945.2700000000004</v>
       </c>
     </row>
@@ -6039,7 +6036,7 @@
       <c r="G152" s="3">
         <v>45866</v>
       </c>
-      <c r="H152" s="5">
+      <c r="H152" s="1">
         <v>189.47</v>
       </c>
     </row>
@@ -6065,7 +6062,7 @@
       <c r="G153" s="3">
         <v>45866</v>
       </c>
-      <c r="H153" s="5">
+      <c r="H153" s="1">
         <v>186</v>
       </c>
     </row>
@@ -6091,7 +6088,7 @@
       <c r="G154" s="3">
         <v>45866</v>
       </c>
-      <c r="H154" s="5">
+      <c r="H154" s="1">
         <v>322.56</v>
       </c>
     </row>
@@ -6117,7 +6114,7 @@
       <c r="G155" s="3">
         <v>45866</v>
       </c>
-      <c r="H155" s="5">
+      <c r="H155" s="1">
         <v>3333.36</v>
       </c>
     </row>
@@ -6143,7 +6140,7 @@
       <c r="G156" s="3">
         <v>45866</v>
       </c>
-      <c r="H156" s="5">
+      <c r="H156" s="1">
         <v>555.55999999999995</v>
       </c>
     </row>
@@ -6169,7 +6166,7 @@
       <c r="G157" s="3">
         <v>45866</v>
       </c>
-      <c r="H157" s="5">
+      <c r="H157" s="1">
         <v>125.69</v>
       </c>
     </row>
@@ -6195,7 +6192,7 @@
       <c r="G158" s="3">
         <v>45866</v>
       </c>
-      <c r="H158" s="5">
+      <c r="H158" s="1">
         <v>5055.03</v>
       </c>
     </row>
@@ -6221,7 +6218,7 @@
       <c r="G159" s="3">
         <v>45866</v>
       </c>
-      <c r="H159" s="5">
+      <c r="H159" s="1">
         <v>161.28</v>
       </c>
     </row>
@@ -6247,7 +6244,7 @@
       <c r="G160" s="3">
         <v>45866</v>
       </c>
-      <c r="H160" s="5">
+      <c r="H160" s="1">
         <v>280.8</v>
       </c>
     </row>
@@ -6273,7 +6270,7 @@
       <c r="G161" s="3">
         <v>45867</v>
       </c>
-      <c r="H161" s="5">
+      <c r="H161" s="1">
         <v>161.28</v>
       </c>
     </row>
@@ -6299,7 +6296,7 @@
       <c r="G162" s="3">
         <v>45867</v>
       </c>
-      <c r="H162" s="5">
+      <c r="H162" s="1">
         <v>351</v>
       </c>
     </row>
@@ -6325,7 +6322,7 @@
       <c r="G163" s="3">
         <v>45867</v>
       </c>
-      <c r="H163" s="5">
+      <c r="H163" s="1">
         <v>186</v>
       </c>
     </row>
@@ -6351,7 +6348,7 @@
       <c r="G164" s="3">
         <v>45867</v>
       </c>
-      <c r="H164" s="5">
+      <c r="H164" s="1">
         <v>340.11</v>
       </c>
     </row>
@@ -6377,7 +6374,7 @@
       <c r="G165" s="3">
         <v>45867</v>
       </c>
-      <c r="H165" s="5">
+      <c r="H165" s="1">
         <v>80.64</v>
       </c>
     </row>
@@ -6403,7 +6400,7 @@
       <c r="G166" s="3">
         <v>45867</v>
       </c>
-      <c r="H166" s="5">
+      <c r="H166" s="1">
         <v>140.4</v>
       </c>
     </row>
@@ -6429,7 +6426,7 @@
       <c r="G167" s="3">
         <v>45868</v>
       </c>
-      <c r="H167" s="5">
+      <c r="H167" s="1">
         <v>440.98</v>
       </c>
     </row>
@@ -6455,7 +6452,7 @@
       <c r="G168" s="3">
         <v>45868</v>
       </c>
-      <c r="H168" s="5">
+      <c r="H168" s="1">
         <v>312</v>
       </c>
     </row>
@@ -6481,7 +6478,7 @@
       <c r="G169" s="3">
         <v>45868</v>
       </c>
-      <c r="H169" s="5">
+      <c r="H169" s="1">
         <v>282.24</v>
       </c>
     </row>
@@ -6507,7 +6504,7 @@
       <c r="G170" s="3">
         <v>45868</v>
       </c>
-      <c r="H170" s="5">
+      <c r="H170" s="1">
         <v>135.4</v>
       </c>
     </row>
@@ -6533,7 +6530,7 @@
       <c r="G171" s="3">
         <v>45868</v>
       </c>
-      <c r="H171" s="5">
+      <c r="H171" s="1">
         <v>210.6</v>
       </c>
     </row>
@@ -6559,7 +6556,7 @@
       <c r="G172" s="3">
         <v>45868</v>
       </c>
-      <c r="H172" s="5">
+      <c r="H172" s="1">
         <v>325.02999999999997</v>
       </c>
     </row>
@@ -6585,7 +6582,7 @@
       <c r="G173" s="3">
         <v>45868</v>
       </c>
-      <c r="H173" s="5">
+      <c r="H173" s="1">
         <v>420.14</v>
       </c>
     </row>
@@ -6611,7 +6608,7 @@
       <c r="G174" s="3">
         <v>45868</v>
       </c>
-      <c r="H174" s="5">
+      <c r="H174" s="1">
         <v>381.97</v>
       </c>
     </row>
@@ -6637,7 +6634,7 @@
       <c r="G175" s="3">
         <v>45868</v>
       </c>
-      <c r="H175" s="5">
+      <c r="H175" s="1">
         <v>840</v>
       </c>
     </row>
@@ -6663,7 +6660,7 @@
       <c r="G176" s="3">
         <v>45869</v>
       </c>
-      <c r="H176" s="5">
+      <c r="H176" s="1">
         <v>201.6</v>
       </c>
     </row>
@@ -6689,7 +6686,7 @@
       <c r="G177" s="3">
         <v>45869</v>
       </c>
-      <c r="H177" s="5">
+      <c r="H177" s="1">
         <v>186</v>
       </c>
     </row>
@@ -6715,7 +6712,7 @@
       <c r="G178" s="3">
         <v>45869</v>
       </c>
-      <c r="H178" s="5">
+      <c r="H178" s="1">
         <v>421.2</v>
       </c>
     </row>
@@ -6741,7 +6738,7 @@
       <c r="G179" s="3">
         <v>45869</v>
       </c>
-      <c r="H179" s="5">
+      <c r="H179" s="1">
         <v>5778.96</v>
       </c>
     </row>
@@ -6767,7 +6764,7 @@
       <c r="G180" s="3">
         <v>45869</v>
       </c>
-      <c r="H180" s="5">
+      <c r="H180" s="1">
         <v>8857.99</v>
       </c>
     </row>
@@ -6793,7 +6790,7 @@
       <c r="G181" s="3">
         <v>45868</v>
       </c>
-      <c r="H181" s="5">
+      <c r="H181" s="1">
         <v>282.24</v>
       </c>
     </row>
@@ -6819,7 +6816,7 @@
       <c r="G182" s="3">
         <v>45869</v>
       </c>
-      <c r="H182" s="5">
+      <c r="H182" s="1">
         <v>186</v>
       </c>
     </row>
@@ -6845,7 +6842,7 @@
       <c r="G183" s="3">
         <v>45869</v>
       </c>
-      <c r="H183" s="5">
+      <c r="H183" s="1">
         <v>1140.3599999999999</v>
       </c>
     </row>
@@ -6871,7 +6868,7 @@
       <c r="G184" s="3">
         <v>45869</v>
       </c>
-      <c r="H184" s="5">
+      <c r="H184" s="1">
         <v>92.6</v>
       </c>
     </row>
@@ -6897,7 +6894,7 @@
       <c r="G185" s="3">
         <v>45870</v>
       </c>
-      <c r="H185" s="5">
+      <c r="H185" s="1">
         <v>280.8</v>
       </c>
     </row>
@@ -6923,7 +6920,7 @@
       <c r="G186" s="3">
         <v>45870</v>
       </c>
-      <c r="H186" s="5">
+      <c r="H186" s="1">
         <v>221.76</v>
       </c>
     </row>
@@ -6949,7 +6946,7 @@
       <c r="G187" s="3">
         <v>45871</v>
       </c>
-      <c r="H187" s="5">
+      <c r="H187" s="1">
         <v>561.6</v>
       </c>
     </row>
@@ -6975,7 +6972,7 @@
       <c r="G188" s="3">
         <v>45871</v>
       </c>
-      <c r="H188" s="5">
+      <c r="H188" s="1">
         <v>372</v>
       </c>
     </row>
@@ -7001,7 +6998,7 @@
       <c r="G189" s="3">
         <v>45872</v>
       </c>
-      <c r="H189" s="5">
+      <c r="H189" s="1">
         <v>351</v>
       </c>
     </row>
@@ -7027,7 +7024,7 @@
       <c r="G190" s="3">
         <v>45872</v>
       </c>
-      <c r="H190" s="5">
+      <c r="H190" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -7053,7 +7050,7 @@
       <c r="G191" s="3">
         <v>45873</v>
       </c>
-      <c r="H191" s="5">
+      <c r="H191" s="1">
         <v>221.76</v>
       </c>
     </row>
@@ -7079,7 +7076,7 @@
       <c r="G192" s="3">
         <v>45873</v>
       </c>
-      <c r="H192" s="5">
+      <c r="H192" s="1">
         <v>372</v>
       </c>
     </row>
@@ -7105,7 +7102,7 @@
       <c r="G193" s="3">
         <v>45873</v>
       </c>
-      <c r="H193" s="5">
+      <c r="H193" s="1">
         <v>982.8</v>
       </c>
     </row>
@@ -7131,7 +7128,7 @@
       <c r="G194" s="3">
         <v>45873</v>
       </c>
-      <c r="H194" s="5">
+      <c r="H194" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -7157,7 +7154,7 @@
       <c r="G195" s="3">
         <v>45873</v>
       </c>
-      <c r="H195" s="5">
+      <c r="H195" s="1">
         <v>504</v>
       </c>
     </row>
@@ -7183,7 +7180,7 @@
       <c r="G196" s="3">
         <v>45873</v>
       </c>
-      <c r="H196" s="5">
+      <c r="H196" s="1">
         <v>79.56</v>
       </c>
     </row>
@@ -7209,7 +7206,7 @@
       <c r="G197" s="3">
         <v>45873</v>
       </c>
-      <c r="H197" s="5">
+      <c r="H197" s="1">
         <v>439.07</v>
       </c>
     </row>
@@ -7235,7 +7232,7 @@
       <c r="G198" s="3">
         <v>45873</v>
       </c>
-      <c r="H198" s="5">
+      <c r="H198" s="1">
         <v>888</v>
       </c>
     </row>
@@ -7261,7 +7258,7 @@
       <c r="G199" s="3">
         <v>45873</v>
       </c>
-      <c r="H199" s="5">
+      <c r="H199" s="1">
         <v>2334.27</v>
       </c>
     </row>
@@ -7287,7 +7284,7 @@
       <c r="G200" s="3">
         <v>45873</v>
       </c>
-      <c r="H200" s="5">
+      <c r="H200" s="1">
         <v>312</v>
       </c>
     </row>
@@ -7313,7 +7310,7 @@
       <c r="G201" s="3">
         <v>45873</v>
       </c>
-      <c r="H201" s="5">
+      <c r="H201" s="1">
         <v>840</v>
       </c>
     </row>
@@ -7339,7 +7336,7 @@
       <c r="G202" s="3">
         <v>45874</v>
       </c>
-      <c r="H202" s="5">
+      <c r="H202" s="1">
         <v>982.8</v>
       </c>
     </row>
@@ -7365,7 +7362,7 @@
       <c r="G203" s="3">
         <v>45875</v>
       </c>
-      <c r="H203" s="5">
+      <c r="H203" s="1">
         <v>1617.86</v>
       </c>
     </row>
@@ -7391,7 +7388,7 @@
       <c r="G204" s="3">
         <v>45875</v>
       </c>
-      <c r="H204" s="5">
+      <c r="H204" s="1">
         <v>378.94</v>
       </c>
     </row>
@@ -7417,7 +7414,7 @@
       <c r="G205" s="3">
         <v>45875</v>
       </c>
-      <c r="H205" s="5">
+      <c r="H205" s="1">
         <v>106.42</v>
       </c>
     </row>
@@ -7443,7 +7440,7 @@
       <c r="G206" s="3">
         <v>45875</v>
       </c>
-      <c r="H206" s="5">
+      <c r="H206" s="1">
         <v>744</v>
       </c>
     </row>
@@ -7469,7 +7466,7 @@
       <c r="G207" s="3">
         <v>45875</v>
       </c>
-      <c r="H207" s="5">
+      <c r="H207" s="1">
         <v>106.75</v>
       </c>
     </row>
@@ -7495,7 +7492,7 @@
       <c r="G208" s="3">
         <v>45875</v>
       </c>
-      <c r="H208" s="5">
+      <c r="H208" s="1">
         <v>270.8</v>
       </c>
     </row>
@@ -7521,7 +7518,7 @@
       <c r="G209" s="3">
         <v>45875</v>
       </c>
-      <c r="H209" s="5">
+      <c r="H209" s="1">
         <v>421.2</v>
       </c>
     </row>
@@ -7547,7 +7544,7 @@
       <c r="G210" s="3">
         <v>45876</v>
       </c>
-      <c r="H210" s="5">
+      <c r="H210" s="1">
         <v>189.47</v>
       </c>
     </row>
@@ -7573,7 +7570,7 @@
       <c r="G211" s="3">
         <v>45876</v>
       </c>
-      <c r="H211" s="5">
+      <c r="H211" s="1">
         <v>874.48</v>
       </c>
     </row>
@@ -7599,7 +7596,7 @@
       <c r="G212" s="3">
         <v>45876</v>
       </c>
-      <c r="H212" s="5">
+      <c r="H212" s="1">
         <v>1474.2</v>
       </c>
     </row>
@@ -7625,7 +7622,7 @@
       <c r="G213" s="3">
         <v>45876</v>
       </c>
-      <c r="H213" s="5">
+      <c r="H213" s="1">
         <v>372</v>
       </c>
     </row>
@@ -7651,7 +7648,7 @@
       <c r="G214" s="3">
         <v>45876</v>
       </c>
-      <c r="H214" s="5">
+      <c r="H214" s="1">
         <v>312</v>
       </c>
     </row>
@@ -7677,7 +7674,7 @@
       <c r="G215" s="3">
         <v>45876</v>
       </c>
-      <c r="H215" s="5">
+      <c r="H215" s="1">
         <v>210.04</v>
       </c>
     </row>
@@ -7703,7 +7700,7 @@
       <c r="G216" s="3">
         <v>45876</v>
       </c>
-      <c r="H216" s="5">
+      <c r="H216" s="1">
         <v>840</v>
       </c>
     </row>
@@ -7729,7 +7726,7 @@
       <c r="G217" s="3">
         <v>45876</v>
       </c>
-      <c r="H217" s="5">
+      <c r="H217" s="1">
         <v>325.02999999999997</v>
       </c>
     </row>
@@ -7755,7 +7752,7 @@
       <c r="G218" s="3">
         <v>45876</v>
       </c>
-      <c r="H218" s="5">
+      <c r="H218" s="1">
         <v>162.71</v>
       </c>
     </row>
@@ -7781,7 +7778,7 @@
       <c r="G219" s="3">
         <v>45877</v>
       </c>
-      <c r="H219" s="5">
+      <c r="H219" s="1">
         <v>68.91</v>
       </c>
     </row>
@@ -7807,7 +7804,7 @@
       <c r="G220" s="3">
         <v>45877</v>
       </c>
-      <c r="H220" s="5">
+      <c r="H220" s="1">
         <v>364.95</v>
       </c>
     </row>
@@ -7833,7 +7830,7 @@
       <c r="G221" s="3">
         <v>45877</v>
       </c>
-      <c r="H221" s="5">
+      <c r="H221" s="1">
         <v>114.85</v>
       </c>
     </row>
@@ -7859,7 +7856,7 @@
       <c r="G222" s="3">
         <v>45877</v>
       </c>
-      <c r="H222" s="5">
+      <c r="H222" s="1">
         <v>15</v>
       </c>
     </row>
@@ -7885,7 +7882,7 @@
       <c r="G223" s="3">
         <v>45877</v>
       </c>
-      <c r="H223" s="5">
+      <c r="H223" s="1">
         <v>1333.8</v>
       </c>
     </row>
@@ -7911,7 +7908,7 @@
       <c r="G224" s="3">
         <v>45877</v>
       </c>
-      <c r="H224" s="5">
+      <c r="H224" s="1">
         <v>930</v>
       </c>
     </row>
@@ -7937,7 +7934,7 @@
       <c r="G225" s="3">
         <v>45878</v>
       </c>
-      <c r="H225" s="5">
+      <c r="H225" s="1">
         <v>772.2</v>
       </c>
     </row>
@@ -7963,7 +7960,7 @@
       <c r="G226" s="3">
         <v>45878</v>
       </c>
-      <c r="H226" s="5">
+      <c r="H226" s="1">
         <v>625</v>
       </c>
     </row>
@@ -7989,7 +7986,7 @@
       <c r="G227" s="3">
         <v>45878</v>
       </c>
-      <c r="H227" s="5">
+      <c r="H227" s="1">
         <v>123.1</v>
       </c>
     </row>
@@ -8015,7 +8012,7 @@
       <c r="G228" s="3">
         <v>45879</v>
       </c>
-      <c r="H228" s="5">
+      <c r="H228" s="1">
         <v>1895.4</v>
       </c>
     </row>
@@ -8041,7 +8038,7 @@
       <c r="G229" s="3">
         <v>45880</v>
       </c>
-      <c r="H229" s="5">
+      <c r="H229" s="1">
         <v>159.12</v>
       </c>
     </row>
@@ -8067,7 +8064,7 @@
       <c r="G230" s="3">
         <v>45880</v>
       </c>
-      <c r="H230" s="5">
+      <c r="H230" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -8093,7 +8090,7 @@
       <c r="G231" s="3">
         <v>45880</v>
       </c>
-      <c r="H231" s="5">
+      <c r="H231" s="1">
         <v>1251.51</v>
       </c>
     </row>
@@ -8119,7 +8116,7 @@
       <c r="G232" s="3">
         <v>45880</v>
       </c>
-      <c r="H232" s="5">
+      <c r="H232" s="1">
         <v>1684.8</v>
       </c>
     </row>
@@ -8145,7 +8142,7 @@
       <c r="G233" s="3">
         <v>45880</v>
       </c>
-      <c r="H233" s="5">
+      <c r="H233" s="1">
         <v>930</v>
       </c>
     </row>
@@ -8171,7 +8168,7 @@
       <c r="G234" s="3">
         <v>45880</v>
       </c>
-      <c r="H234" s="5">
+      <c r="H234" s="1">
         <v>11.66</v>
       </c>
     </row>
@@ -8197,7 +8194,7 @@
       <c r="G235" s="3">
         <v>45880</v>
       </c>
-      <c r="H235" s="5">
+      <c r="H235" s="1">
         <v>34.200000000000003</v>
       </c>
     </row>
@@ -8223,7 +8220,7 @@
       <c r="G236" s="3">
         <v>45880</v>
       </c>
-      <c r="H236" s="5">
+      <c r="H236" s="1">
         <v>198.21</v>
       </c>
     </row>
@@ -8249,7 +8246,7 @@
       <c r="G237" s="3">
         <v>45880</v>
       </c>
-      <c r="H237" s="5">
+      <c r="H237" s="1">
         <v>28.76</v>
       </c>
     </row>
@@ -8275,7 +8272,7 @@
       <c r="G238" s="3">
         <v>45880</v>
       </c>
-      <c r="H238" s="5">
+      <c r="H238" s="1">
         <v>18.66</v>
       </c>
     </row>
@@ -8301,7 +8298,7 @@
       <c r="G239" s="3">
         <v>45880</v>
       </c>
-      <c r="H239" s="5">
+      <c r="H239" s="1">
         <v>172.57</v>
       </c>
     </row>
@@ -8327,7 +8324,7 @@
       <c r="G240" s="3">
         <v>45880</v>
       </c>
-      <c r="H240" s="5">
+      <c r="H240" s="1">
         <v>388.24</v>
       </c>
     </row>
@@ -8353,7 +8350,7 @@
       <c r="G241" s="3">
         <v>45880</v>
       </c>
-      <c r="H241" s="5">
+      <c r="H241" s="1">
         <v>614</v>
       </c>
     </row>
@@ -8379,7 +8376,7 @@
       <c r="G242" s="3">
         <v>45880</v>
       </c>
-      <c r="H242" s="5">
+      <c r="H242" s="1">
         <v>34.21</v>
       </c>
     </row>
@@ -8405,7 +8402,7 @@
       <c r="G243" s="3">
         <v>45880</v>
       </c>
-      <c r="H243" s="5">
+      <c r="H243" s="1">
         <v>420</v>
       </c>
     </row>
@@ -8431,7 +8428,7 @@
       <c r="G244" s="3">
         <v>45880</v>
       </c>
-      <c r="H244" s="5">
+      <c r="H244" s="1">
         <v>1913.44</v>
       </c>
     </row>
@@ -8457,7 +8454,7 @@
       <c r="G245" s="3">
         <v>45881</v>
       </c>
-      <c r="H245" s="5">
+      <c r="H245" s="1">
         <v>372.62</v>
       </c>
     </row>
@@ -8483,7 +8480,7 @@
       <c r="G246" s="3">
         <v>45881</v>
       </c>
-      <c r="H246" s="5">
+      <c r="H246" s="1">
         <v>438.6</v>
       </c>
     </row>
@@ -8509,7 +8506,7 @@
       <c r="G247" s="3">
         <v>45881</v>
       </c>
-      <c r="H247" s="5">
+      <c r="H247" s="1">
         <v>3888.92</v>
       </c>
     </row>
@@ -8535,7 +8532,7 @@
       <c r="G248" s="3">
         <v>45881</v>
       </c>
-      <c r="H248" s="5">
+      <c r="H248" s="1">
         <v>1123.2</v>
       </c>
     </row>
@@ -8561,7 +8558,7 @@
       <c r="G249" s="3">
         <v>45881</v>
       </c>
-      <c r="H249" s="5">
+      <c r="H249" s="1">
         <v>372</v>
       </c>
     </row>
@@ -8587,7 +8584,7 @@
       <c r="G250" s="3">
         <v>45881</v>
       </c>
-      <c r="H250" s="5">
+      <c r="H250" s="1">
         <v>331.6</v>
       </c>
     </row>
@@ -8613,7 +8610,7 @@
       <c r="G251" s="3">
         <v>45881</v>
       </c>
-      <c r="H251" s="5">
+      <c r="H251" s="1">
         <v>381.97</v>
       </c>
     </row>
@@ -8639,7 +8636,7 @@
       <c r="G252" s="3">
         <v>45881</v>
       </c>
-      <c r="H252" s="5">
+      <c r="H252" s="1">
         <v>982.8</v>
       </c>
     </row>
@@ -8665,7 +8662,7 @@
       <c r="G253" s="3">
         <v>45882</v>
       </c>
-      <c r="H253" s="5">
+      <c r="H253" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -8691,7 +8688,7 @@
       <c r="G254" s="3">
         <v>45882</v>
       </c>
-      <c r="H254" s="5">
+      <c r="H254" s="1">
         <v>210.6</v>
       </c>
     </row>
@@ -8717,7 +8714,7 @@
       <c r="G255" s="3">
         <v>45882</v>
       </c>
-      <c r="H255" s="5">
+      <c r="H255" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -8743,7 +8740,7 @@
       <c r="G256" s="3">
         <v>45883</v>
       </c>
-      <c r="H256" s="5">
+      <c r="H256" s="1">
         <v>210.6</v>
       </c>
     </row>
@@ -8769,7 +8766,7 @@
       <c r="G257" s="3">
         <v>45884</v>
       </c>
-      <c r="H257" s="5">
+      <c r="H257" s="1">
         <v>912.6</v>
       </c>
     </row>
@@ -8795,7 +8792,7 @@
       <c r="G258" s="3">
         <v>45884</v>
       </c>
-      <c r="H258" s="5">
+      <c r="H258" s="1">
         <v>9791.43</v>
       </c>
     </row>
@@ -8821,7 +8818,7 @@
       <c r="G259" s="3">
         <v>45884</v>
       </c>
-      <c r="H259" s="5">
+      <c r="H259" s="1">
         <v>12792</v>
       </c>
     </row>
@@ -8847,7 +8844,7 @@
       <c r="G260" s="3">
         <v>45885</v>
       </c>
-      <c r="H260" s="5">
+      <c r="H260" s="1">
         <v>421.2</v>
       </c>
     </row>
@@ -8873,7 +8870,7 @@
       <c r="G261" s="3">
         <v>45885</v>
       </c>
-      <c r="H261" s="5">
+      <c r="H261" s="1">
         <v>372</v>
       </c>
     </row>
@@ -8899,7 +8896,7 @@
       <c r="G262" s="3">
         <v>45885</v>
       </c>
-      <c r="H262" s="5">
+      <c r="H262" s="1">
         <v>13.19</v>
       </c>
     </row>
@@ -8925,7 +8922,7 @@
       <c r="G263" s="3">
         <v>45885</v>
       </c>
-      <c r="H263" s="5">
+      <c r="H263" s="1">
         <v>369.3</v>
       </c>
     </row>
@@ -8951,7 +8948,7 @@
       <c r="G264" s="3">
         <v>45886</v>
       </c>
-      <c r="H264" s="5">
+      <c r="H264" s="1">
         <v>491.1</v>
       </c>
     </row>
@@ -8977,7 +8974,7 @@
       <c r="G265" s="3">
         <v>45887</v>
       </c>
-      <c r="H265" s="5">
+      <c r="H265" s="1">
         <v>81.319999999999993</v>
       </c>
     </row>
@@ -9003,7 +9000,7 @@
       <c r="G266" s="3">
         <v>45887</v>
       </c>
-      <c r="H266" s="5">
+      <c r="H266" s="1">
         <v>159.12</v>
       </c>
     </row>
@@ -9029,7 +9026,7 @@
       <c r="G267" s="3">
         <v>45887</v>
       </c>
-      <c r="H267" s="5">
+      <c r="H267" s="1">
         <v>558</v>
       </c>
     </row>
@@ -9055,7 +9052,7 @@
       <c r="G268" s="3">
         <v>45887</v>
       </c>
-      <c r="H268" s="5">
+      <c r="H268" s="1">
         <v>201.6</v>
       </c>
     </row>
@@ -9081,7 +9078,7 @@
       <c r="G269" s="3">
         <v>45887</v>
       </c>
-      <c r="H269" s="5">
+      <c r="H269" s="1">
         <v>772.2</v>
       </c>
     </row>
@@ -9107,7 +9104,7 @@
       <c r="G270" s="3">
         <v>45887</v>
       </c>
-      <c r="H270" s="5">
+      <c r="H270" s="1">
         <v>270.8</v>
       </c>
     </row>
@@ -9133,7 +9130,7 @@
       <c r="G271" s="3">
         <v>45887</v>
       </c>
-      <c r="H271" s="5">
+      <c r="H271" s="1">
         <v>471.72</v>
       </c>
     </row>
@@ -9159,7 +9156,7 @@
       <c r="G272" s="3">
         <v>45887</v>
       </c>
-      <c r="H272" s="5">
+      <c r="H272" s="1">
         <v>186</v>
       </c>
     </row>
@@ -9185,7 +9182,7 @@
       <c r="G273" s="3">
         <v>45887</v>
       </c>
-      <c r="H273" s="5">
+      <c r="H273" s="1">
         <v>947.7</v>
       </c>
     </row>
@@ -9211,7 +9208,7 @@
       <c r="G274" s="3">
         <v>45887</v>
       </c>
-      <c r="H274" s="5">
+      <c r="H274" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -9237,7 +9234,7 @@
       <c r="G275" s="3">
         <v>45888</v>
       </c>
-      <c r="H275" s="5">
+      <c r="H275" s="1">
         <v>1800</v>
       </c>
     </row>
@@ -9263,7 +9260,7 @@
       <c r="G276" s="3">
         <v>45888</v>
       </c>
-      <c r="H276" s="5">
+      <c r="H276" s="1">
         <v>1155.8699999999999</v>
       </c>
     </row>
@@ -9289,7 +9286,7 @@
       <c r="G277" s="3">
         <v>45888</v>
       </c>
-      <c r="H277" s="5">
+      <c r="H277" s="1">
         <v>680.22</v>
       </c>
     </row>
@@ -9315,7 +9312,7 @@
       <c r="G278" s="3">
         <v>45888</v>
       </c>
-      <c r="H278" s="5">
+      <c r="H278" s="1">
         <v>947.7</v>
       </c>
     </row>
@@ -9341,7 +9338,7 @@
       <c r="G279" s="3">
         <v>45888</v>
       </c>
-      <c r="H279" s="5">
+      <c r="H279" s="1">
         <v>812.4</v>
       </c>
     </row>
@@ -9367,7 +9364,7 @@
       <c r="G280" s="3">
         <v>45888</v>
       </c>
-      <c r="H280" s="5">
+      <c r="H280" s="1">
         <v>383.04</v>
       </c>
     </row>
@@ -9393,7 +9390,7 @@
       <c r="G281" s="3">
         <v>45888</v>
       </c>
-      <c r="H281" s="5">
+      <c r="H281" s="1">
         <v>1302</v>
       </c>
     </row>
@@ -9419,7 +9416,7 @@
       <c r="G282" s="3">
         <v>45887</v>
       </c>
-      <c r="H282" s="5">
+      <c r="H282" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -9445,7 +9442,7 @@
       <c r="G283" s="3">
         <v>45888</v>
       </c>
-      <c r="H283" s="5">
+      <c r="H283" s="1">
         <v>1754.38</v>
       </c>
     </row>
@@ -9471,7 +9468,7 @@
       <c r="G284" s="3">
         <v>45889</v>
       </c>
-      <c r="H284" s="5">
+      <c r="H284" s="1">
         <v>2301.8000000000002</v>
       </c>
     </row>
@@ -9497,7 +9494,7 @@
       <c r="G285" s="3">
         <v>45889</v>
       </c>
-      <c r="H285" s="5">
+      <c r="H285" s="1">
         <v>888</v>
       </c>
     </row>
@@ -9523,7 +9520,7 @@
       <c r="G286" s="3">
         <v>45889</v>
       </c>
-      <c r="H286" s="5">
+      <c r="H286" s="1">
         <v>15</v>
       </c>
     </row>
@@ -9549,7 +9546,7 @@
       <c r="G287" s="3">
         <v>45889</v>
       </c>
-      <c r="H287" s="5">
+      <c r="H287" s="1">
         <v>18.18</v>
       </c>
     </row>
@@ -9575,7 +9572,7 @@
       <c r="G288" s="3">
         <v>45889</v>
       </c>
-      <c r="H288" s="5">
+      <c r="H288" s="1">
         <v>25.92</v>
       </c>
     </row>
@@ -9601,7 +9598,7 @@
       <c r="G289" s="3">
         <v>45889</v>
       </c>
-      <c r="H289" s="5">
+      <c r="H289" s="1">
         <v>26.68</v>
       </c>
     </row>
@@ -9627,7 +9624,7 @@
       <c r="G290" s="3">
         <v>45889</v>
       </c>
-      <c r="H290" s="5">
+      <c r="H290" s="1">
         <v>949.7</v>
       </c>
     </row>
@@ -9653,7 +9650,7 @@
       <c r="G291" s="3">
         <v>45889</v>
       </c>
-      <c r="H291" s="5">
+      <c r="H291" s="1">
         <v>491.4</v>
       </c>
     </row>
@@ -9679,7 +9676,7 @@
       <c r="G292" s="3">
         <v>45889</v>
       </c>
-      <c r="H292" s="5">
+      <c r="H292" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -9705,7 +9702,7 @@
       <c r="G293" s="3">
         <v>45889</v>
       </c>
-      <c r="H293" s="5">
+      <c r="H293" s="1">
         <v>614</v>
       </c>
     </row>
@@ -9731,7 +9728,7 @@
       <c r="G294" s="3">
         <v>45889</v>
       </c>
-      <c r="H294" s="5">
+      <c r="H294" s="1">
         <v>840</v>
       </c>
     </row>
@@ -9757,7 +9754,7 @@
       <c r="G295" s="3">
         <v>45889</v>
       </c>
-      <c r="H295" s="5">
+      <c r="H295" s="1">
         <v>650.05999999999995</v>
       </c>
     </row>
@@ -9783,7 +9780,7 @@
       <c r="G296" s="3">
         <v>45889</v>
       </c>
-      <c r="H296" s="5">
+      <c r="H296" s="1">
         <v>382.69</v>
       </c>
     </row>
@@ -9809,7 +9806,7 @@
       <c r="G297" s="3">
         <v>45889</v>
       </c>
-      <c r="H297" s="5">
+      <c r="H297" s="1">
         <v>1666.68</v>
       </c>
     </row>
@@ -9835,7 +9832,7 @@
       <c r="G298" s="3">
         <v>45890</v>
       </c>
-      <c r="H298" s="5">
+      <c r="H298" s="1">
         <v>9890.5300000000007</v>
       </c>
     </row>
@@ -9861,7 +9858,7 @@
       <c r="G299" s="3">
         <v>45890</v>
       </c>
-      <c r="H299" s="5">
+      <c r="H299" s="1">
         <v>425.68</v>
       </c>
     </row>
@@ -9887,7 +9884,7 @@
       <c r="G300" s="3">
         <v>45890</v>
       </c>
-      <c r="H300" s="5">
+      <c r="H300" s="1">
         <v>263.76</v>
       </c>
     </row>
@@ -9913,7 +9910,7 @@
       <c r="G301" s="3">
         <v>45890</v>
       </c>
-      <c r="H301" s="5">
+      <c r="H301" s="1">
         <v>491.4</v>
       </c>
     </row>
@@ -9939,7 +9936,7 @@
       <c r="G302" s="3">
         <v>45890</v>
       </c>
-      <c r="H302" s="5">
+      <c r="H302" s="1">
         <v>326.86</v>
       </c>
     </row>
@@ -9965,7 +9962,7 @@
       <c r="G303" s="3">
         <v>45890</v>
       </c>
-      <c r="H303" s="5">
+      <c r="H303" s="1">
         <v>217.55</v>
       </c>
     </row>
@@ -9991,7 +9988,7 @@
       <c r="G304" s="3">
         <v>45891</v>
       </c>
-      <c r="H304" s="5">
+      <c r="H304" s="1">
         <v>201.6</v>
       </c>
     </row>
@@ -10017,7 +10014,7 @@
       <c r="G305" s="3">
         <v>45891</v>
       </c>
-      <c r="H305" s="5">
+      <c r="H305" s="1">
         <v>186</v>
       </c>
     </row>
@@ -10043,7 +10040,7 @@
       <c r="G306" s="3">
         <v>45891</v>
       </c>
-      <c r="H306" s="5">
+      <c r="H306" s="1">
         <v>912.6</v>
       </c>
     </row>
@@ -10069,7 +10066,7 @@
       <c r="G307" s="3">
         <v>45891</v>
       </c>
-      <c r="H307" s="5">
+      <c r="H307" s="1">
         <v>78.62</v>
       </c>
     </row>
@@ -10095,7 +10092,7 @@
       <c r="G308" s="3">
         <v>45891</v>
       </c>
-      <c r="H308" s="5">
+      <c r="H308" s="1">
         <v>123.1</v>
       </c>
     </row>
@@ -10121,7 +10118,7 @@
       <c r="G309" s="3">
         <v>45892</v>
       </c>
-      <c r="H309" s="5">
+      <c r="H309" s="1">
         <v>1200</v>
       </c>
     </row>
@@ -10147,7 +10144,7 @@
       <c r="G310" s="3">
         <v>45892</v>
       </c>
-      <c r="H310" s="5">
+      <c r="H310" s="1">
         <v>1155.8699999999999</v>
       </c>
     </row>
@@ -10173,7 +10170,7 @@
       <c r="G311" s="3">
         <v>45892</v>
       </c>
-      <c r="H311" s="5">
+      <c r="H311" s="1">
         <v>38.53</v>
       </c>
     </row>
@@ -10199,7 +10196,7 @@
       <c r="G312" s="3">
         <v>45892</v>
       </c>
-      <c r="H312" s="5">
+      <c r="H312" s="1">
         <v>1079.4000000000001</v>
       </c>
     </row>
@@ -10225,7 +10222,7 @@
       <c r="G313" s="3">
         <v>45892</v>
       </c>
-      <c r="H313" s="5">
+      <c r="H313" s="1">
         <v>877.5</v>
       </c>
     </row>
@@ -10251,7 +10248,7 @@
       <c r="G314" s="3">
         <v>45892</v>
       </c>
-      <c r="H314" s="5">
+      <c r="H314" s="1">
         <v>380.12</v>
       </c>
     </row>
@@ -10277,7 +10274,7 @@
       <c r="G315" s="3">
         <v>45893</v>
       </c>
-      <c r="H315" s="5">
+      <c r="H315" s="1">
         <v>372</v>
       </c>
     </row>
@@ -10303,7 +10300,7 @@
       <c r="G316" s="3">
         <v>45893</v>
       </c>
-      <c r="H316" s="5">
+      <c r="H316" s="1">
         <v>1666.68</v>
       </c>
     </row>
@@ -10329,7 +10326,7 @@
       <c r="G317" s="3">
         <v>45893</v>
       </c>
-      <c r="H317" s="5">
+      <c r="H317" s="1">
         <v>702</v>
       </c>
     </row>
@@ -10355,7 +10352,7 @@
       <c r="G318" s="3">
         <v>45893</v>
       </c>
-      <c r="H318" s="5">
+      <c r="H318" s="1">
         <v>80.64</v>
       </c>
     </row>
@@ -10381,7 +10378,7 @@
       <c r="G319" s="3">
         <v>45894</v>
       </c>
-      <c r="H319" s="5">
+      <c r="H319" s="1">
         <v>159.12</v>
       </c>
     </row>
@@ -10407,7 +10404,7 @@
       <c r="G320" s="3">
         <v>45894</v>
       </c>
-      <c r="H320" s="5">
+      <c r="H320" s="1">
         <v>1368.9</v>
       </c>
     </row>
@@ -10433,7 +10430,7 @@
       <c r="G321" s="3">
         <v>45894</v>
       </c>
-      <c r="H321" s="5">
+      <c r="H321" s="1">
         <v>362.88</v>
       </c>
     </row>
@@ -10459,7 +10456,7 @@
       <c r="G322" s="3">
         <v>45894</v>
       </c>
-      <c r="H322" s="5">
+      <c r="H322" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -10485,7 +10482,7 @@
       <c r="G323" s="3">
         <v>45894</v>
       </c>
-      <c r="H323" s="5">
+      <c r="H323" s="1">
         <v>135.4</v>
       </c>
     </row>
@@ -10511,7 +10508,7 @@
       <c r="G324" s="3">
         <v>45894</v>
       </c>
-      <c r="H324" s="5">
+      <c r="H324" s="1">
         <v>204.68</v>
       </c>
     </row>
@@ -10537,7 +10534,7 @@
       <c r="G325" s="3">
         <v>45894</v>
       </c>
-      <c r="H325" s="5">
+      <c r="H325" s="1">
         <v>3611.85</v>
       </c>
     </row>
@@ -10563,7 +10560,7 @@
       <c r="G326" s="3">
         <v>45894</v>
       </c>
-      <c r="H326" s="5">
+      <c r="H326" s="1">
         <v>372</v>
       </c>
     </row>
@@ -10589,7 +10586,7 @@
       <c r="G327" s="3">
         <v>45894</v>
       </c>
-      <c r="H327" s="5">
+      <c r="H327" s="1">
         <v>388.24</v>
       </c>
     </row>
@@ -10615,7 +10612,7 @@
       <c r="G328" s="3">
         <v>45894</v>
       </c>
-      <c r="H328" s="5">
+      <c r="H328" s="1">
         <v>420</v>
       </c>
     </row>
@@ -10641,7 +10638,7 @@
       <c r="G329" s="3">
         <v>45895</v>
       </c>
-      <c r="H329" s="5">
+      <c r="H329" s="1">
         <v>201.6</v>
       </c>
     </row>
@@ -10667,7 +10664,7 @@
       <c r="G330" s="3">
         <v>45895</v>
       </c>
-      <c r="H330" s="5">
+      <c r="H330" s="1">
         <v>572.96</v>
       </c>
     </row>
@@ -10693,7 +10690,7 @@
       <c r="G331" s="3">
         <v>45895</v>
       </c>
-      <c r="H331" s="5">
+      <c r="H331" s="1">
         <v>1404</v>
       </c>
     </row>
@@ -10719,7 +10716,7 @@
       <c r="G332" s="3">
         <v>45895</v>
       </c>
-      <c r="H332" s="5">
+      <c r="H332" s="1">
         <v>874.48</v>
       </c>
     </row>
@@ -10745,7 +10742,7 @@
       <c r="G333" s="3">
         <v>45895</v>
       </c>
-      <c r="H333" s="5">
+      <c r="H333" s="1">
         <v>1155.8699999999999</v>
       </c>
     </row>
@@ -10771,7 +10768,7 @@
       <c r="G334" s="3">
         <v>45895</v>
       </c>
-      <c r="H334" s="5">
+      <c r="H334" s="1">
         <v>68.91</v>
       </c>
     </row>
@@ -10797,7 +10794,7 @@
       <c r="G335" s="3">
         <v>45895</v>
       </c>
-      <c r="H335" s="5">
+      <c r="H335" s="1">
         <v>3100.4</v>
       </c>
     </row>
@@ -10823,7 +10820,7 @@
       <c r="G336" s="3">
         <v>45895</v>
       </c>
-      <c r="H336" s="5">
+      <c r="H336" s="1">
         <v>2311.7399999999998</v>
       </c>
     </row>
@@ -10849,7 +10846,7 @@
       <c r="G337" s="3">
         <v>45895</v>
       </c>
-      <c r="H337" s="5">
+      <c r="H337" s="1">
         <v>186</v>
       </c>
     </row>
@@ -10875,7 +10872,7 @@
       <c r="G338" s="3">
         <v>45895</v>
       </c>
-      <c r="H338" s="5">
+      <c r="H338" s="1">
         <v>409.36</v>
       </c>
     </row>
@@ -10901,7 +10898,7 @@
       <c r="G339" s="3">
         <v>45896</v>
       </c>
-      <c r="H339" s="5">
+      <c r="H339" s="1">
         <v>1200</v>
       </c>
     </row>
@@ -10927,7 +10924,7 @@
       <c r="G340" s="3">
         <v>45896</v>
       </c>
-      <c r="H340" s="5">
+      <c r="H340" s="1">
         <v>930</v>
       </c>
     </row>
@@ -10953,7 +10950,7 @@
       <c r="G341" s="3">
         <v>45896</v>
       </c>
-      <c r="H341" s="5">
+      <c r="H341" s="1">
         <v>3467.61</v>
       </c>
     </row>
@@ -10979,7 +10976,7 @@
       <c r="G342" s="3">
         <v>45896</v>
       </c>
-      <c r="H342" s="5">
+      <c r="H342" s="1">
         <v>561.6</v>
       </c>
     </row>
@@ -11005,7 +11002,7 @@
       <c r="G343" s="3">
         <v>45896</v>
       </c>
-      <c r="H343" s="5">
+      <c r="H343" s="1">
         <v>91.21</v>
       </c>
     </row>
@@ -11031,7 +11028,7 @@
       <c r="G344" s="3">
         <v>45896</v>
       </c>
-      <c r="H344" s="5">
+      <c r="H344" s="1">
         <v>155.91</v>
       </c>
     </row>
@@ -11057,7 +11054,7 @@
       <c r="G345" s="3">
         <v>45896</v>
       </c>
-      <c r="H345" s="5">
+      <c r="H345" s="1">
         <v>288.45</v>
       </c>
     </row>
@@ -11083,7 +11080,7 @@
       <c r="G346" s="3">
         <v>45896</v>
       </c>
-      <c r="H346" s="5">
+      <c r="H346" s="1">
         <v>40.54</v>
       </c>
     </row>
@@ -11109,7 +11106,7 @@
       <c r="G347" s="3">
         <v>45896</v>
       </c>
-      <c r="H347" s="5">
+      <c r="H347" s="1">
         <v>388.24</v>
       </c>
     </row>
@@ -11135,7 +11132,7 @@
       <c r="G348" s="3">
         <v>45896</v>
       </c>
-      <c r="H348" s="5">
+      <c r="H348" s="1">
         <v>200</v>
       </c>
     </row>
@@ -11161,7 +11158,7 @@
       <c r="G349" s="3">
         <v>45896</v>
       </c>
-      <c r="H349" s="5">
+      <c r="H349" s="1">
         <v>325.02999999999997</v>
       </c>
     </row>
@@ -11187,7 +11184,7 @@
       <c r="G350" s="3">
         <v>45897</v>
       </c>
-      <c r="H350" s="5">
+      <c r="H350" s="1">
         <v>33.14</v>
       </c>
     </row>
@@ -11213,7 +11210,7 @@
       <c r="G351" s="3">
         <v>45897</v>
       </c>
-      <c r="H351" s="5">
+      <c r="H351" s="1">
         <v>58.45</v>
       </c>
     </row>
@@ -11239,7 +11236,7 @@
       <c r="G352" s="3">
         <v>45897</v>
       </c>
-      <c r="H352" s="5">
+      <c r="H352" s="1">
         <v>16.37</v>
       </c>
     </row>
@@ -11265,7 +11262,7 @@
       <c r="G353" s="3">
         <v>45897</v>
       </c>
-      <c r="H353" s="5">
+      <c r="H353" s="1">
         <v>565.15</v>
       </c>
     </row>
@@ -11291,7 +11288,7 @@
       <c r="G354" s="3">
         <v>45897</v>
       </c>
-      <c r="H354" s="5">
+      <c r="H354" s="1">
         <v>47.55</v>
       </c>
     </row>
@@ -11317,7 +11314,7 @@
       <c r="G355" s="3">
         <v>45897</v>
       </c>
-      <c r="H355" s="5">
+      <c r="H355" s="1">
         <v>8780.24</v>
       </c>
     </row>
@@ -11343,7 +11340,7 @@
       <c r="G356" s="3">
         <v>45897</v>
       </c>
-      <c r="H356" s="5">
+      <c r="H356" s="1">
         <v>403.2</v>
       </c>
     </row>
@@ -11369,7 +11366,7 @@
       <c r="G357" s="3">
         <v>45897</v>
       </c>
-      <c r="H357" s="5">
+      <c r="H357" s="1">
         <v>491.4</v>
       </c>
     </row>
@@ -11395,7 +11392,7 @@
       <c r="G358" s="3">
         <v>45898</v>
       </c>
-      <c r="H358" s="5">
+      <c r="H358" s="1">
         <v>191.35</v>
       </c>
     </row>
@@ -11421,7 +11418,7 @@
       <c r="G359" s="3">
         <v>45898</v>
       </c>
-      <c r="H359" s="5">
+      <c r="H359" s="1">
         <v>1666.68</v>
       </c>
     </row>
@@ -11447,7 +11444,7 @@
       <c r="G360" s="3">
         <v>45898</v>
       </c>
-      <c r="H360" s="5">
+      <c r="H360" s="1">
         <v>372</v>
       </c>
     </row>
@@ -11473,7 +11470,7 @@
       <c r="G361" s="3">
         <v>45898</v>
       </c>
-      <c r="H361" s="5">
+      <c r="H361" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -11499,7 +11496,7 @@
       <c r="G362" s="3">
         <v>45898</v>
       </c>
-      <c r="H362" s="5">
+      <c r="H362" s="1">
         <v>702</v>
       </c>
     </row>
@@ -11525,7 +11522,7 @@
       <c r="G363" s="3">
         <v>45898</v>
       </c>
-      <c r="H363" s="5">
+      <c r="H363" s="1">
         <v>135.4</v>
       </c>
     </row>
@@ -11551,7 +11548,7 @@
       <c r="G364" s="3">
         <v>45898</v>
       </c>
-      <c r="H364" s="5">
+      <c r="H364" s="1">
         <v>672.5</v>
       </c>
     </row>
@@ -11577,7 +11574,7 @@
       <c r="G365" s="3">
         <v>45898</v>
       </c>
-      <c r="H365" s="5">
+      <c r="H365" s="1">
         <v>395.64</v>
       </c>
     </row>
@@ -11603,7 +11600,7 @@
       <c r="G366" s="3">
         <v>45898</v>
       </c>
-      <c r="H366" s="5">
+      <c r="H366" s="1">
         <v>379.02</v>
       </c>
     </row>
@@ -11629,7 +11626,7 @@
       <c r="G367" s="3">
         <v>45898</v>
       </c>
-      <c r="H367" s="5">
+      <c r="H367" s="1">
         <v>255.74</v>
       </c>
     </row>
@@ -11655,7 +11652,7 @@
       <c r="G368" s="3">
         <v>45898</v>
       </c>
-      <c r="H368" s="5">
+      <c r="H368" s="1">
         <v>18.739999999999998</v>
       </c>
     </row>
@@ -11681,7 +11678,7 @@
       <c r="G369" s="3">
         <v>45898</v>
       </c>
-      <c r="H369" s="5">
+      <c r="H369" s="1">
         <v>372</v>
       </c>
     </row>
@@ -11707,7 +11704,7 @@
       <c r="G370" s="3">
         <v>45898</v>
       </c>
-      <c r="H370" s="5">
+      <c r="H370" s="1">
         <v>437.24</v>
       </c>
     </row>
@@ -11733,7 +11730,7 @@
       <c r="G371" s="3">
         <v>45898</v>
       </c>
-      <c r="H371" s="5">
+      <c r="H371" s="1">
         <v>201.6</v>
       </c>
     </row>
@@ -11759,7 +11756,7 @@
       <c r="G372" s="3">
         <v>45898</v>
       </c>
-      <c r="H372" s="5">
+      <c r="H372" s="1">
         <v>420</v>
       </c>
     </row>
@@ -11785,7 +11782,7 @@
       <c r="G373" s="3">
         <v>45899</v>
       </c>
-      <c r="H373" s="5">
+      <c r="H373" s="1">
         <v>190.99</v>
       </c>
     </row>
@@ -11811,7 +11808,7 @@
       <c r="G374" s="3">
         <v>45899</v>
       </c>
-      <c r="H374" s="5">
+      <c r="H374" s="1">
         <v>210.6</v>
       </c>
     </row>
@@ -11837,7 +11834,7 @@
       <c r="G375" s="3">
         <v>45899</v>
       </c>
-      <c r="H375" s="5">
+      <c r="H375" s="1">
         <v>1200</v>
       </c>
     </row>
@@ -11863,7 +11860,7 @@
       <c r="G376" s="3">
         <v>45899</v>
       </c>
-      <c r="H376" s="5">
+      <c r="H376" s="1">
         <v>372</v>
       </c>
     </row>
@@ -11889,7 +11886,7 @@
       <c r="G377" s="3">
         <v>45899</v>
       </c>
-      <c r="H377" s="5">
+      <c r="H377" s="1">
         <v>372</v>
       </c>
     </row>
@@ -11915,7 +11912,7 @@
       <c r="G378" s="3">
         <v>45900</v>
       </c>
-      <c r="H378" s="5">
+      <c r="H378" s="1">
         <v>1404</v>
       </c>
     </row>
@@ -11941,7 +11938,7 @@
       <c r="G379" s="3">
         <v>45900</v>
       </c>
-      <c r="H379" s="5">
+      <c r="H379" s="1">
         <v>1370</v>
       </c>
     </row>
@@ -11967,7 +11964,7 @@
       <c r="G380" s="3">
         <v>45900</v>
       </c>
-      <c r="H380" s="5">
+      <c r="H380" s="1">
         <v>1446.8</v>
       </c>
     </row>
@@ -11993,7 +11990,7 @@
       <c r="G381" s="3">
         <v>45900</v>
       </c>
-      <c r="H381" s="5">
+      <c r="H381" s="1">
         <v>555.55999999999995</v>
       </c>
     </row>
@@ -12019,7 +12016,7 @@
       <c r="G382" s="3">
         <v>45900</v>
       </c>
-      <c r="H382" s="5">
+      <c r="H382" s="1">
         <v>191.35</v>
       </c>
     </row>
@@ -12045,7 +12042,7 @@
       <c r="G383" s="3">
         <v>45901</v>
       </c>
-      <c r="H383" s="5">
+      <c r="H383" s="1">
         <v>100</v>
       </c>
     </row>
@@ -12071,7 +12068,7 @@
       <c r="G384" s="3">
         <v>45901</v>
       </c>
-      <c r="H384" s="5">
+      <c r="H384" s="1">
         <v>388.24</v>
       </c>
     </row>
@@ -12097,7 +12094,7 @@
       <c r="G385" s="3">
         <v>45901</v>
       </c>
-      <c r="H385" s="5">
+      <c r="H385" s="1">
         <v>312</v>
       </c>
     </row>
@@ -12123,7 +12120,7 @@
       <c r="G386" s="3">
         <v>45901</v>
       </c>
-      <c r="H386" s="5">
+      <c r="H386" s="1">
         <v>201.6</v>
       </c>
     </row>
@@ -12149,7 +12146,7 @@
       <c r="G387" s="3">
         <v>45901</v>
       </c>
-      <c r="H387" s="5">
+      <c r="H387" s="1">
         <v>351</v>
       </c>
     </row>
@@ -12175,7 +12172,7 @@
       <c r="G388" s="3">
         <v>45901</v>
       </c>
-      <c r="H388" s="5">
+      <c r="H388" s="1">
         <v>2167.11</v>
       </c>
     </row>
@@ -12201,7 +12198,7 @@
       <c r="G389" s="3">
         <v>45901</v>
       </c>
-      <c r="H389" s="5">
+      <c r="H389" s="1">
         <v>25.81</v>
       </c>
     </row>
@@ -12227,7 +12224,7 @@
       <c r="G390" s="3">
         <v>45901</v>
       </c>
-      <c r="H390" s="5">
+      <c r="H390" s="1">
         <v>78.62</v>
       </c>
     </row>
@@ -12253,7 +12250,7 @@
       <c r="G391" s="3">
         <v>45901</v>
       </c>
-      <c r="H391" s="5">
+      <c r="H391" s="1">
         <v>351</v>
       </c>
     </row>
@@ -12279,7 +12276,7 @@
       <c r="G392" s="3">
         <v>45901</v>
       </c>
-      <c r="H392" s="5">
+      <c r="H392" s="1">
         <v>2777.8</v>
       </c>
     </row>
@@ -12305,7 +12302,7 @@
       <c r="G393" s="3">
         <v>45901</v>
       </c>
-      <c r="H393" s="5">
+      <c r="H393" s="1">
         <v>4444.4799999999996</v>
       </c>
     </row>
@@ -12331,7 +12328,7 @@
       <c r="G394" s="3">
         <v>45901</v>
       </c>
-      <c r="H394" s="5">
+      <c r="H394" s="1">
         <v>191.35</v>
       </c>
     </row>
@@ -12357,7 +12354,7 @@
       <c r="G395" s="3">
         <v>45901</v>
       </c>
-      <c r="H395" s="5">
+      <c r="H395" s="1">
         <v>210.04</v>
       </c>
     </row>
@@ -12383,7 +12380,7 @@
       <c r="G396" s="3">
         <v>45901</v>
       </c>
-      <c r="H396" s="5">
+      <c r="H396" s="1">
         <v>325.02999999999997</v>
       </c>
     </row>
@@ -12409,7 +12406,7 @@
       <c r="G397" s="3">
         <v>45901</v>
       </c>
-      <c r="H397" s="5">
+      <c r="H397" s="1">
         <v>840</v>
       </c>
     </row>
@@ -12435,7 +12432,7 @@
       <c r="G398" s="3">
         <v>45902</v>
       </c>
-      <c r="H398" s="5">
+      <c r="H398" s="1">
         <v>201.6</v>
       </c>
     </row>
@@ -12461,7 +12458,7 @@
       <c r="G399" s="3">
         <v>45902</v>
       </c>
-      <c r="H399" s="5">
+      <c r="H399" s="1">
         <v>421.2</v>
       </c>
     </row>
@@ -12487,7 +12484,7 @@
       <c r="G400" s="3">
         <v>45902</v>
       </c>
-      <c r="H400" s="5">
+      <c r="H400" s="1">
         <v>106.75</v>
       </c>
     </row>
@@ -12513,7 +12510,7 @@
       <c r="G401" s="3">
         <v>45902</v>
       </c>
-      <c r="H401" s="5">
+      <c r="H401" s="1">
         <v>372</v>
       </c>
     </row>
@@ -12539,7 +12536,7 @@
       <c r="G402" s="3">
         <v>45902</v>
       </c>
-      <c r="H402" s="5">
+      <c r="H402" s="1">
         <v>1509.3</v>
       </c>
     </row>
@@ -12565,7 +12562,7 @@
       <c r="G403" s="3">
         <v>45903</v>
       </c>
-      <c r="H403" s="5">
+      <c r="H403" s="1">
         <v>191.35</v>
       </c>
     </row>
@@ -12591,7 +12588,7 @@
       <c r="G404" s="3">
         <v>45903</v>
       </c>
-      <c r="H404" s="5">
+      <c r="H404" s="1">
         <v>381.97</v>
       </c>
     </row>
@@ -12617,7 +12614,7 @@
       <c r="G405" s="3">
         <v>45903</v>
       </c>
-      <c r="H405" s="5">
+      <c r="H405" s="1">
         <v>210.04</v>
       </c>
     </row>
@@ -12643,7 +12640,7 @@
       <c r="G406" s="3">
         <v>45903</v>
       </c>
-      <c r="H406" s="5">
+      <c r="H406" s="1">
         <v>372</v>
       </c>
     </row>
@@ -12669,7 +12666,7 @@
       <c r="G407" s="3">
         <v>45903</v>
       </c>
-      <c r="H407" s="5">
+      <c r="H407" s="1">
         <v>135.4</v>
       </c>
     </row>
@@ -12695,7 +12692,7 @@
       <c r="G408" s="3">
         <v>45903</v>
       </c>
-      <c r="H408" s="5">
+      <c r="H408" s="1">
         <v>201.6</v>
       </c>
     </row>
@@ -12721,7 +12718,7 @@
       <c r="G409" s="3">
         <v>45903</v>
       </c>
-      <c r="H409" s="5">
+      <c r="H409" s="1">
         <v>561.6</v>
       </c>
     </row>
@@ -12747,7 +12744,7 @@
       <c r="G410" s="3">
         <v>45903</v>
       </c>
-      <c r="H410" s="5">
+      <c r="H410" s="1">
         <v>100.8</v>
       </c>
     </row>
@@ -12773,7 +12770,7 @@
       <c r="G411" s="3">
         <v>45903</v>
       </c>
-      <c r="H411" s="5">
+      <c r="H411" s="1">
         <v>874.48</v>
       </c>
     </row>
@@ -12799,7 +12796,7 @@
       <c r="G412" s="3">
         <v>45903</v>
       </c>
-      <c r="H412" s="5">
+      <c r="H412" s="1">
         <v>1155.8699999999999</v>
       </c>
     </row>
@@ -12825,7 +12822,7 @@
       <c r="G413" s="3">
         <v>45903</v>
       </c>
-      <c r="H413" s="5">
+      <c r="H413" s="1">
         <v>752.32</v>
       </c>
     </row>
@@ -12851,7 +12848,7 @@
       <c r="G414" s="3">
         <v>45903</v>
       </c>
-      <c r="H414" s="5">
+      <c r="H414" s="1">
         <v>388.24</v>
       </c>
     </row>
@@ -12877,7 +12874,7 @@
       <c r="G415" s="3">
         <v>45903</v>
       </c>
-      <c r="H415" s="5">
+      <c r="H415" s="1">
         <v>624</v>
       </c>
     </row>
@@ -12903,7 +12900,7 @@
       <c r="G416" s="3">
         <v>45904</v>
       </c>
-      <c r="H416" s="5">
+      <c r="H416" s="1">
         <v>12.11</v>
       </c>
     </row>
@@ -12929,7 +12926,7 @@
       <c r="G417" s="3">
         <v>45904</v>
       </c>
-      <c r="H417" s="5">
+      <c r="H417" s="1">
         <v>287.25</v>
       </c>
     </row>
@@ -12955,7 +12952,7 @@
       <c r="G418" s="3">
         <v>45904</v>
       </c>
-      <c r="H418" s="5">
+      <c r="H418" s="1">
         <v>640.53</v>
       </c>
     </row>
@@ -12981,7 +12978,7 @@
       <c r="G419" s="3">
         <v>45904</v>
       </c>
-      <c r="H419" s="5">
+      <c r="H419" s="1">
         <v>737.57</v>
       </c>
     </row>
@@ -13007,7 +13004,7 @@
       <c r="G420" s="3">
         <v>45904</v>
       </c>
-      <c r="H420" s="5">
+      <c r="H420" s="1">
         <v>2167.11</v>
       </c>
     </row>
@@ -13033,7 +13030,7 @@
       <c r="G421" s="3">
         <v>45904</v>
       </c>
-      <c r="H421" s="5">
+      <c r="H421" s="1">
         <v>17.36</v>
       </c>
     </row>
@@ -13059,7 +13056,7 @@
       <c r="G422" s="3">
         <v>45904</v>
       </c>
-      <c r="H422" s="5">
+      <c r="H422" s="1">
         <v>43.32</v>
       </c>
     </row>
@@ -13085,7 +13082,7 @@
       <c r="G423" s="3">
         <v>45904</v>
       </c>
-      <c r="H423" s="5">
+      <c r="H423" s="1">
         <v>420.08</v>
       </c>
     </row>
@@ -13111,7 +13108,7 @@
       <c r="G424" s="3">
         <v>45904</v>
       </c>
-      <c r="H424" s="5">
+      <c r="H424" s="1">
         <v>650.05999999999995</v>
       </c>
     </row>
@@ -13137,7 +13134,7 @@
       <c r="G425" s="3">
         <v>45905</v>
       </c>
-      <c r="H425" s="5">
+      <c r="H425" s="1">
         <v>561.6</v>
       </c>
     </row>
@@ -13163,7 +13160,7 @@
       <c r="G426" s="3">
         <v>45906</v>
       </c>
-      <c r="H426" s="5">
+      <c r="H426" s="1">
         <v>4623.4799999999996</v>
       </c>
     </row>
@@ -13189,7 +13186,7 @@
       <c r="G427" s="3">
         <v>45906</v>
       </c>
-      <c r="H427" s="5">
+      <c r="H427" s="1">
         <v>1788.3</v>
       </c>
     </row>
@@ -13215,7 +13212,7 @@
       <c r="G428" s="3">
         <v>45906</v>
       </c>
-      <c r="H428" s="5">
+      <c r="H428" s="1">
         <v>600</v>
       </c>
     </row>
@@ -13241,7 +13238,7 @@
       <c r="G429" s="3">
         <v>45906</v>
       </c>
-      <c r="H429" s="5">
+      <c r="H429" s="1">
         <v>631.79999999999995</v>
       </c>
     </row>
@@ -13267,7 +13264,7 @@
       <c r="G430" s="3">
         <v>45906</v>
       </c>
-      <c r="H430" s="5">
+      <c r="H430" s="1">
         <v>4945.2700000000004</v>
       </c>
     </row>
@@ -13293,7 +13290,7 @@
       <c r="G431" s="3">
         <v>45907</v>
       </c>
-      <c r="H431" s="5">
+      <c r="H431" s="1">
         <v>2167.11</v>
       </c>
     </row>
@@ -13319,7 +13316,7 @@
       <c r="G432" s="3">
         <v>45908</v>
       </c>
-      <c r="H432" s="5">
+      <c r="H432" s="1">
         <v>982.8</v>
       </c>
     </row>
@@ -13345,7 +13342,7 @@
       <c r="G433" s="3">
         <v>45909</v>
       </c>
-      <c r="H433" s="5">
+      <c r="H433" s="1">
         <v>201.6</v>
       </c>
     </row>
@@ -13371,7 +13368,7 @@
       <c r="G434" s="3">
         <v>45910</v>
       </c>
-      <c r="H434" s="5">
+      <c r="H434" s="1">
         <v>2790</v>
       </c>
     </row>
@@ -13397,7 +13394,7 @@
       <c r="G435" s="3">
         <v>45910</v>
       </c>
-      <c r="H435" s="5">
+      <c r="H435" s="1">
         <v>1200</v>
       </c>
     </row>
@@ -13423,7 +13420,7 @@
       <c r="G436" s="3">
         <v>45910</v>
       </c>
-      <c r="H436" s="5">
+      <c r="H436" s="1">
         <v>936</v>
       </c>
     </row>
@@ -13449,7 +13446,7 @@
       <c r="G437" s="3">
         <v>45910</v>
       </c>
-      <c r="H437" s="5">
+      <c r="H437" s="1">
         <v>99</v>
       </c>
     </row>
@@ -13475,7 +13472,7 @@
       <c r="G438" s="3">
         <v>45910</v>
       </c>
-      <c r="H438" s="5">
+      <c r="H438" s="1">
         <v>403.2</v>
       </c>
     </row>
@@ -13501,7 +13498,7 @@
       <c r="G439" s="3">
         <v>45910</v>
       </c>
-      <c r="H439" s="5">
+      <c r="H439" s="1">
         <v>1404</v>
       </c>
     </row>
@@ -13527,7 +13524,7 @@
       <c r="G440" s="3">
         <v>45910</v>
       </c>
-      <c r="H440" s="5">
+      <c r="H440" s="1">
         <v>744</v>
       </c>
     </row>
@@ -13553,7 +13550,7 @@
       <c r="G441" s="3">
         <v>45910</v>
       </c>
-      <c r="H441" s="5">
+      <c r="H441" s="1">
         <v>51.86</v>
       </c>
     </row>
@@ -13579,7 +13576,7 @@
       <c r="G442" s="3">
         <v>45910</v>
       </c>
-      <c r="H442" s="5">
+      <c r="H442" s="1">
         <v>53.36</v>
       </c>
     </row>
@@ -13605,7 +13602,7 @@
       <c r="G443" s="3">
         <v>45910</v>
       </c>
-      <c r="H443" s="5">
+      <c r="H443" s="1">
         <v>25.92</v>
       </c>
     </row>
@@ -13631,7 +13628,7 @@
       <c r="G444" s="3">
         <v>45910</v>
       </c>
-      <c r="H444" s="5">
+      <c r="H444" s="1">
         <v>5.01</v>
       </c>
     </row>
@@ -13657,7 +13654,7 @@
       <c r="G445" s="3">
         <v>45910</v>
       </c>
-      <c r="H445" s="5">
+      <c r="H445" s="1">
         <v>1155.8699999999999</v>
       </c>
     </row>
@@ -13683,7 +13680,7 @@
       <c r="G446" s="3">
         <v>45910</v>
       </c>
-      <c r="H446" s="5">
+      <c r="H446" s="1">
         <v>1788.3</v>
       </c>
     </row>
@@ -13709,7 +13706,7 @@
       <c r="G447" s="3">
         <v>45910</v>
       </c>
-      <c r="H447" s="5">
+      <c r="H447" s="1">
         <v>382.7</v>
       </c>
     </row>
@@ -13735,7 +13732,7 @@
       <c r="G448" s="3">
         <v>45910</v>
       </c>
-      <c r="H448" s="5">
+      <c r="H448" s="1">
         <v>210.04</v>
       </c>
     </row>
@@ -13761,7 +13758,7 @@
       <c r="G449" s="3">
         <v>45910</v>
       </c>
-      <c r="H449" s="5">
+      <c r="H449" s="1">
         <v>650.05999999999995</v>
       </c>
     </row>
@@ -13787,7 +13784,7 @@
       <c r="G450" s="3">
         <v>45910</v>
       </c>
-      <c r="H450" s="5">
+      <c r="H450" s="1">
         <v>744</v>
       </c>
     </row>
@@ -13813,7 +13810,7 @@
       <c r="G451" s="3">
         <v>45911</v>
       </c>
-      <c r="H451" s="5">
+      <c r="H451" s="1">
         <v>201.6</v>
       </c>
     </row>
@@ -13839,7 +13836,7 @@
       <c r="G452" s="3">
         <v>45911</v>
       </c>
-      <c r="H452" s="5">
+      <c r="H452" s="1">
         <v>624</v>
       </c>
     </row>
@@ -13865,7 +13862,7 @@
       <c r="G453" s="3">
         <v>45911</v>
       </c>
-      <c r="H453" s="5">
+      <c r="H453" s="1">
         <v>401</v>
       </c>
     </row>
@@ -13891,7 +13888,7 @@
       <c r="G454" s="3">
         <v>45911</v>
       </c>
-      <c r="H454" s="5">
+      <c r="H454" s="1">
         <v>194.12</v>
       </c>
     </row>
@@ -13917,7 +13914,7 @@
       <c r="G455" s="3">
         <v>45911</v>
       </c>
-      <c r="H455" s="5">
+      <c r="H455" s="1">
         <v>555.55999999999995</v>
       </c>
     </row>
@@ -13943,7 +13940,7 @@
       <c r="G456" s="3">
         <v>45911</v>
       </c>
-      <c r="H456" s="5">
+      <c r="H456" s="1">
         <v>135.4</v>
       </c>
     </row>
@@ -13969,7 +13966,7 @@
       <c r="G457" s="3">
         <v>45911</v>
       </c>
-      <c r="H457" s="5">
+      <c r="H457" s="1">
         <v>1123.2</v>
       </c>
     </row>
@@ -13995,7 +13992,7 @@
       <c r="G458" s="3">
         <v>45911</v>
       </c>
-      <c r="H458" s="5">
+      <c r="H458" s="1">
         <v>372</v>
       </c>
     </row>
@@ -14021,7 +14018,7 @@
       <c r="G459" s="3">
         <v>45912</v>
       </c>
-      <c r="H459" s="5">
+      <c r="H459" s="1">
         <v>403.2</v>
       </c>
     </row>
@@ -14047,7 +14044,7 @@
       <c r="G460" s="3">
         <v>45911</v>
       </c>
-      <c r="H460" s="5">
+      <c r="H460" s="1">
         <v>840.16</v>
       </c>
     </row>
@@ -14073,7 +14070,7 @@
       <c r="G461" s="3">
         <v>45911</v>
       </c>
-      <c r="H461" s="5">
+      <c r="H461" s="1">
         <v>840</v>
       </c>
     </row>
@@ -14099,7 +14096,7 @@
       <c r="G462" s="3">
         <v>45911</v>
       </c>
-      <c r="H462" s="5">
+      <c r="H462" s="1">
         <v>763.94</v>
       </c>
     </row>
@@ -14125,7 +14122,7 @@
       <c r="G463" s="3">
         <v>45911</v>
       </c>
-      <c r="H463" s="5">
+      <c r="H463" s="1">
         <v>650.05999999999995</v>
       </c>
     </row>
@@ -14151,7 +14148,7 @@
       <c r="G464" s="3">
         <v>45912</v>
       </c>
-      <c r="H464" s="5">
+      <c r="H464" s="1">
         <v>7.41</v>
       </c>
     </row>
@@ -14177,7 +14174,7 @@
       <c r="G465" s="3">
         <v>45912</v>
       </c>
-      <c r="H465" s="5">
+      <c r="H465" s="1">
         <v>630.12</v>
       </c>
     </row>
@@ -14203,7 +14200,7 @@
       <c r="G466" s="3">
         <v>45912</v>
       </c>
-      <c r="H466" s="5">
+      <c r="H466" s="1">
         <v>360</v>
       </c>
     </row>
@@ -14229,7 +14226,7 @@
       <c r="G467" s="3">
         <v>45912</v>
       </c>
-      <c r="H467" s="5">
+      <c r="H467" s="1">
         <v>89.68</v>
       </c>
     </row>
@@ -14255,7 +14252,7 @@
       <c r="G468" s="3">
         <v>45912</v>
       </c>
-      <c r="H468" s="5">
+      <c r="H468" s="1">
         <v>50.69</v>
       </c>
     </row>
@@ -14281,7 +14278,7 @@
       <c r="G469" s="3">
         <v>45912</v>
       </c>
-      <c r="H469" s="5">
+      <c r="H469" s="1">
         <v>30.42</v>
       </c>
     </row>
@@ -14307,7 +14304,7 @@
       <c r="G470" s="3">
         <v>45912</v>
       </c>
-      <c r="H470" s="5">
+      <c r="H470" s="1">
         <v>54.59</v>
       </c>
     </row>
@@ -14333,7 +14330,7 @@
       <c r="G471" s="3">
         <v>45912</v>
       </c>
-      <c r="H471" s="5">
+      <c r="H471" s="1">
         <v>73.31</v>
       </c>
     </row>
@@ -14359,7 +14356,7 @@
       <c r="G472" s="3">
         <v>45912</v>
       </c>
-      <c r="H472" s="5">
+      <c r="H472" s="1">
         <v>16.38</v>
       </c>
     </row>
@@ -14385,7 +14382,7 @@
       <c r="G473" s="3">
         <v>45912</v>
       </c>
-      <c r="H473" s="5">
+      <c r="H473" s="1">
         <v>68.62</v>
       </c>
     </row>
@@ -14411,7 +14408,7 @@
       <c r="G474" s="3">
         <v>45912</v>
       </c>
-      <c r="H474" s="5">
+      <c r="H474" s="1">
         <v>90.45</v>
       </c>
     </row>
@@ -14437,7 +14434,7 @@
       <c r="G475" s="3">
         <v>45913</v>
       </c>
-      <c r="H475" s="5">
+      <c r="H475" s="1">
         <v>1200</v>
       </c>
     </row>
@@ -14463,7 +14460,7 @@
       <c r="G476" s="3">
         <v>45913</v>
       </c>
-      <c r="H476" s="5">
+      <c r="H476" s="1">
         <v>372</v>
       </c>
     </row>
@@ -14489,7 +14486,7 @@
       <c r="G477" s="3">
         <v>45913</v>
       </c>
-      <c r="H477" s="5">
+      <c r="H477" s="1">
         <v>604.79999999999995</v>
       </c>
     </row>
@@ -14515,7 +14512,7 @@
       <c r="G478" s="3">
         <v>45913</v>
       </c>
-      <c r="H478" s="5">
+      <c r="H478" s="1">
         <v>91.88</v>
       </c>
     </row>
@@ -14541,7 +14538,7 @@
       <c r="G479" s="3">
         <v>45914</v>
       </c>
-      <c r="H479" s="5">
+      <c r="H479" s="1">
         <v>604.79999999999995</v>
       </c>
     </row>
@@ -14567,7 +14564,7 @@
       <c r="G480" s="3">
         <v>45913</v>
       </c>
-      <c r="H480" s="5">
+      <c r="H480" s="1">
         <v>386.1</v>
       </c>
     </row>
@@ -14593,7 +14590,7 @@
       <c r="G481" s="3">
         <v>45914</v>
       </c>
-      <c r="H481" s="5">
+      <c r="H481" s="1">
         <v>744</v>
       </c>
     </row>
@@ -14619,7 +14616,7 @@
       <c r="G482" s="3">
         <v>45914</v>
       </c>
-      <c r="H482" s="5">
+      <c r="H482" s="1">
         <v>228.94</v>
       </c>
     </row>
@@ -14645,7 +14642,7 @@
       <c r="G483" s="3">
         <v>45914</v>
       </c>
-      <c r="H483" s="5">
+      <c r="H483" s="1">
         <v>159.12</v>
       </c>
     </row>
@@ -14671,7 +14668,7 @@
       <c r="G484" s="3">
         <v>45914</v>
       </c>
-      <c r="H484" s="5">
+      <c r="H484" s="1">
         <v>2280.7199999999998</v>
       </c>
     </row>
@@ -14697,7 +14694,7 @@
       <c r="G485" s="3">
         <v>45914</v>
       </c>
-      <c r="H485" s="5">
+      <c r="H485" s="1">
         <v>2311.7399999999998</v>
       </c>
     </row>
@@ -14723,7 +14720,7 @@
       <c r="G486" s="3">
         <v>45914</v>
       </c>
-      <c r="H486" s="5">
+      <c r="H486" s="1">
         <v>3576.6</v>
       </c>
     </row>
@@ -14749,7 +14746,7 @@
       <c r="G487" s="3">
         <v>45914</v>
       </c>
-      <c r="H487" s="5">
+      <c r="H487" s="1">
         <v>874.48</v>
       </c>
     </row>
@@ -14775,7 +14772,7 @@
       <c r="G488" s="3">
         <v>45914</v>
       </c>
-      <c r="H488" s="5">
+      <c r="H488" s="1">
         <v>4945.2700000000004</v>
       </c>
     </row>
@@ -14801,7 +14798,7 @@
       <c r="G489" s="3">
         <v>45914</v>
       </c>
-      <c r="H489" s="5">
+      <c r="H489" s="1">
         <v>1404</v>
       </c>
     </row>
@@ -14827,7 +14824,7 @@
       <c r="G490" s="3">
         <v>45914</v>
       </c>
-      <c r="H490" s="5">
+      <c r="H490" s="1">
         <v>1116</v>
       </c>
     </row>
@@ -14853,7 +14850,7 @@
       <c r="G491" s="3">
         <v>45914</v>
       </c>
-      <c r="H491" s="5">
+      <c r="H491" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -14879,7 +14876,7 @@
       <c r="G492" s="3">
         <v>45915</v>
       </c>
-      <c r="H492" s="5">
+      <c r="H492" s="1">
         <v>744</v>
       </c>
     </row>
@@ -14905,7 +14902,7 @@
       <c r="G493" s="3">
         <v>45915</v>
       </c>
-      <c r="H493" s="5">
+      <c r="H493" s="1">
         <v>228.94</v>
       </c>
     </row>
@@ -14931,7 +14928,7 @@
       <c r="G494" s="3">
         <v>45915</v>
       </c>
-      <c r="H494" s="5">
+      <c r="H494" s="1">
         <v>159.12</v>
       </c>
     </row>
@@ -14957,7 +14954,7 @@
       <c r="G495" s="3">
         <v>45915</v>
       </c>
-      <c r="H495" s="5">
+      <c r="H495" s="1">
         <v>604.79999999999995</v>
       </c>
     </row>
@@ -14983,7 +14980,7 @@
       <c r="G496" s="3">
         <v>45915</v>
       </c>
-      <c r="H496" s="5">
+      <c r="H496" s="1">
         <v>2280.7199999999998</v>
       </c>
     </row>
@@ -15009,7 +15006,7 @@
       <c r="G497" s="3">
         <v>45915</v>
       </c>
-      <c r="H497" s="5">
+      <c r="H497" s="1">
         <v>2311.7399999999998</v>
       </c>
     </row>
@@ -15035,7 +15032,7 @@
       <c r="G498" s="3">
         <v>45915</v>
       </c>
-      <c r="H498" s="5">
+      <c r="H498" s="1">
         <v>420</v>
       </c>
     </row>
@@ -15061,7 +15058,7 @@
       <c r="G499" s="3">
         <v>45915</v>
       </c>
-      <c r="H499" s="5">
+      <c r="H499" s="1">
         <v>3576.6</v>
       </c>
     </row>
@@ -15087,7 +15084,7 @@
       <c r="G500" s="3">
         <v>45915</v>
       </c>
-      <c r="H500" s="5">
+      <c r="H500" s="1">
         <v>874.48</v>
       </c>
     </row>
@@ -15113,7 +15110,7 @@
       <c r="G501" s="3">
         <v>45915</v>
       </c>
-      <c r="H501" s="5">
+      <c r="H501" s="1">
         <v>4945.2700000000004</v>
       </c>
     </row>
@@ -15139,7 +15136,7 @@
       <c r="G502" s="3">
         <v>45915</v>
       </c>
-      <c r="H502" s="5">
+      <c r="H502" s="1">
         <v>1755</v>
       </c>
     </row>
@@ -15165,7 +15162,7 @@
       <c r="G503" s="3">
         <v>45915</v>
       </c>
-      <c r="H503" s="5">
+      <c r="H503" s="1">
         <v>1116</v>
       </c>
     </row>
@@ -15191,7 +15188,7 @@
       <c r="G504" s="3">
         <v>45915</v>
       </c>
-      <c r="H504" s="5">
+      <c r="H504" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -15217,7 +15214,7 @@
       <c r="G505" s="3">
         <v>45915</v>
       </c>
-      <c r="H505" s="5">
+      <c r="H505" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -15243,7 +15240,7 @@
       <c r="G506" s="3">
         <v>45915</v>
       </c>
-      <c r="H506" s="5">
+      <c r="H506" s="1">
         <v>15.64</v>
       </c>
     </row>
@@ -15269,7 +15266,7 @@
       <c r="G507" s="3">
         <v>45915</v>
       </c>
-      <c r="H507" s="5">
+      <c r="H507" s="1">
         <v>5.08</v>
       </c>
     </row>
@@ -15295,7 +15292,7 @@
       <c r="G508" s="3">
         <v>45915</v>
       </c>
-      <c r="H508" s="5">
+      <c r="H508" s="1">
         <v>42.23</v>
       </c>
     </row>
@@ -15321,7 +15318,7 @@
       <c r="G509" s="3">
         <v>45915</v>
       </c>
-      <c r="H509" s="5">
+      <c r="H509" s="1">
         <v>312</v>
       </c>
     </row>
@@ -15347,7 +15344,7 @@
       <c r="G510" s="3">
         <v>45915</v>
       </c>
-      <c r="H510" s="5">
+      <c r="H510" s="1">
         <v>87.6</v>
       </c>
     </row>
@@ -15373,7 +15370,7 @@
       <c r="G511" s="3">
         <v>45916</v>
       </c>
-      <c r="H511" s="5">
+      <c r="H511" s="1">
         <v>381.97</v>
       </c>
     </row>
@@ -15399,7 +15396,7 @@
       <c r="G512" s="3">
         <v>45916</v>
       </c>
-      <c r="H512" s="5">
+      <c r="H512" s="1">
         <v>201.6</v>
       </c>
     </row>
@@ -15425,7 +15422,7 @@
       <c r="G513" s="3">
         <v>45916</v>
       </c>
-      <c r="H513" s="5">
+      <c r="H513" s="1">
         <v>314</v>
       </c>
     </row>
@@ -15451,7 +15448,7 @@
       <c r="G514" s="3">
         <v>45916</v>
       </c>
-      <c r="H514" s="5">
+      <c r="H514" s="1">
         <v>888</v>
       </c>
     </row>
@@ -15477,7 +15474,7 @@
       <c r="G515" s="3">
         <v>45916</v>
       </c>
-      <c r="H515" s="5">
+      <c r="H515" s="1">
         <v>435.1</v>
       </c>
     </row>
@@ -15503,7 +15500,7 @@
       <c r="G516" s="3">
         <v>45916</v>
       </c>
-      <c r="H516" s="5">
+      <c r="H516" s="1">
         <v>34.36</v>
       </c>
     </row>
@@ -15529,7 +15526,7 @@
       <c r="G517" s="3">
         <v>45916</v>
       </c>
-      <c r="H517" s="5">
+      <c r="H517" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -15555,7 +15552,7 @@
       <c r="G518" s="3">
         <v>45916</v>
       </c>
-      <c r="H518" s="5">
+      <c r="H518" s="1">
         <v>372</v>
       </c>
     </row>
@@ -15581,7 +15578,7 @@
       <c r="G519" s="3">
         <v>45916</v>
       </c>
-      <c r="H519" s="5">
+      <c r="H519" s="1">
         <v>9890.5300000000007</v>
       </c>
     </row>
@@ -15607,7 +15604,7 @@
       <c r="G520" s="3">
         <v>45916</v>
       </c>
-      <c r="H520" s="5">
+      <c r="H520" s="1">
         <v>1755</v>
       </c>
     </row>
@@ -15633,7 +15630,7 @@
       <c r="G521" s="3">
         <v>45917</v>
       </c>
-      <c r="H521" s="5">
+      <c r="H521" s="1">
         <v>4375</v>
       </c>
     </row>
@@ -15659,7 +15656,7 @@
       <c r="G522" s="3">
         <v>45917</v>
       </c>
-      <c r="H522" s="5">
+      <c r="H522" s="1">
         <v>600</v>
       </c>
     </row>
@@ -15685,7 +15682,7 @@
       <c r="G523" s="3">
         <v>45917</v>
       </c>
-      <c r="H523" s="5">
+      <c r="H523" s="1">
         <v>913.6</v>
       </c>
     </row>
@@ -15711,7 +15708,7 @@
       <c r="G524" s="3">
         <v>45917</v>
       </c>
-      <c r="H524" s="5">
+      <c r="H524" s="1">
         <v>270.8</v>
       </c>
     </row>
@@ -15737,7 +15734,7 @@
       <c r="G525" s="3">
         <v>45917</v>
       </c>
-      <c r="H525" s="5">
+      <c r="H525" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -15763,7 +15760,7 @@
       <c r="G526" s="3">
         <v>45917</v>
       </c>
-      <c r="H526" s="5">
+      <c r="H526" s="1">
         <v>372</v>
       </c>
     </row>
@@ -15789,7 +15786,7 @@
       <c r="G527" s="3">
         <v>45917</v>
       </c>
-      <c r="H527" s="5">
+      <c r="H527" s="1">
         <v>91.88</v>
       </c>
     </row>
@@ -15815,7 +15812,7 @@
       <c r="G528" s="3">
         <v>45917</v>
       </c>
-      <c r="H528" s="5">
+      <c r="H528" s="1">
         <v>1788.3</v>
       </c>
     </row>
@@ -15841,7 +15838,7 @@
       <c r="G529" s="3">
         <v>45917</v>
       </c>
-      <c r="H529" s="5">
+      <c r="H529" s="1">
         <v>2311.7399999999998</v>
       </c>
     </row>
@@ -15867,7 +15864,7 @@
       <c r="G530" s="3">
         <v>45917</v>
       </c>
-      <c r="H530" s="5">
+      <c r="H530" s="1">
         <v>437.24</v>
       </c>
     </row>
@@ -15893,7 +15890,7 @@
       <c r="G531" s="3">
         <v>45917</v>
       </c>
-      <c r="H531" s="5">
+      <c r="H531" s="1">
         <v>1200</v>
       </c>
     </row>
@@ -15919,7 +15916,7 @@
       <c r="G532" s="3">
         <v>45917</v>
       </c>
-      <c r="H532" s="5">
+      <c r="H532" s="1">
         <v>558</v>
       </c>
     </row>
@@ -15945,7 +15942,7 @@
       <c r="G533" s="3">
         <v>45918</v>
       </c>
-      <c r="H533" s="5">
+      <c r="H533" s="1">
         <v>1053</v>
       </c>
     </row>
@@ -15971,7 +15968,7 @@
       <c r="G534" s="3">
         <v>45918</v>
       </c>
-      <c r="H534" s="5">
+      <c r="H534" s="1">
         <v>504</v>
       </c>
     </row>
@@ -15997,7 +15994,7 @@
       <c r="G535" s="3">
         <v>45918</v>
       </c>
-      <c r="H535" s="5">
+      <c r="H535" s="1">
         <v>420</v>
       </c>
     </row>
@@ -16023,7 +16020,7 @@
       <c r="G536" s="3">
         <v>45918</v>
       </c>
-      <c r="H536" s="5">
+      <c r="H536" s="1">
         <v>191.35</v>
       </c>
     </row>
@@ -16049,7 +16046,7 @@
       <c r="G537" s="3">
         <v>45918</v>
       </c>
-      <c r="H537" s="5">
+      <c r="H537" s="1">
         <v>210.04</v>
       </c>
     </row>
@@ -16075,7 +16072,7 @@
       <c r="G538" s="3">
         <v>45919</v>
       </c>
-      <c r="H538" s="5">
+      <c r="H538" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -16101,7 +16098,7 @@
       <c r="G539" s="3">
         <v>45919</v>
       </c>
-      <c r="H539" s="5">
+      <c r="H539" s="1">
         <v>91.88</v>
       </c>
     </row>
@@ -16127,7 +16124,7 @@
       <c r="G540" s="3">
         <v>45919</v>
       </c>
-      <c r="H540" s="5">
+      <c r="H540" s="1">
         <v>22.19</v>
       </c>
     </row>
@@ -16153,7 +16150,7 @@
       <c r="G541" s="3">
         <v>45919</v>
       </c>
-      <c r="H541" s="5">
+      <c r="H541" s="1">
         <v>1053</v>
       </c>
     </row>
@@ -16179,7 +16176,7 @@
       <c r="G542" s="3">
         <v>45920</v>
       </c>
-      <c r="H542" s="5">
+      <c r="H542" s="1">
         <v>2.4700000000000002</v>
       </c>
     </row>
@@ -16205,7 +16202,7 @@
       <c r="G543" s="3">
         <v>45920</v>
       </c>
-      <c r="H543" s="5">
+      <c r="H543" s="1">
         <v>558</v>
       </c>
     </row>
@@ -16231,7 +16228,7 @@
       <c r="G544" s="3">
         <v>45920</v>
       </c>
-      <c r="H544" s="5">
+      <c r="H544" s="1">
         <v>77.790000000000006</v>
       </c>
     </row>
@@ -16257,7 +16254,7 @@
       <c r="G545" s="3">
         <v>45920</v>
       </c>
-      <c r="H545" s="5">
+      <c r="H545" s="1">
         <v>116.1</v>
       </c>
     </row>
@@ -16283,7 +16280,7 @@
       <c r="G546" s="3">
         <v>45920</v>
       </c>
-      <c r="H546" s="5">
+      <c r="H546" s="1">
         <v>86</v>
       </c>
     </row>
@@ -16309,7 +16306,7 @@
       <c r="G547" s="3">
         <v>45920</v>
       </c>
-      <c r="H547" s="5">
+      <c r="H547" s="1">
         <v>503.35</v>
       </c>
     </row>
@@ -16335,7 +16332,7 @@
       <c r="G548" s="3">
         <v>45920</v>
       </c>
-      <c r="H548" s="5">
+      <c r="H548" s="1">
         <v>332.15</v>
       </c>
     </row>
@@ -16361,7 +16358,7 @@
       <c r="G549" s="3">
         <v>45921</v>
       </c>
-      <c r="H549" s="5">
+      <c r="H549" s="1">
         <v>186</v>
       </c>
     </row>
@@ -16387,7 +16384,7 @@
       <c r="G550" s="3">
         <v>45921</v>
       </c>
-      <c r="H550" s="5">
+      <c r="H550" s="1">
         <v>888</v>
       </c>
     </row>
@@ -16413,7 +16410,7 @@
       <c r="G551" s="3">
         <v>45922</v>
       </c>
-      <c r="H551" s="5">
+      <c r="H551" s="1">
         <v>558</v>
       </c>
     </row>
@@ -16439,7 +16436,7 @@
       <c r="G552" s="3">
         <v>45922</v>
       </c>
-      <c r="H552" s="5">
+      <c r="H552" s="1">
         <v>600</v>
       </c>
     </row>
@@ -16465,7 +16462,7 @@
       <c r="G553" s="3">
         <v>45922</v>
       </c>
-      <c r="H553" s="5">
+      <c r="H553" s="1">
         <v>78.62</v>
       </c>
     </row>
@@ -16491,7 +16488,7 @@
       <c r="G554" s="3">
         <v>45922</v>
       </c>
-      <c r="H554" s="5">
+      <c r="H554" s="1">
         <v>106.75</v>
       </c>
     </row>
@@ -16517,7 +16514,7 @@
       <c r="G555" s="3">
         <v>45922</v>
       </c>
-      <c r="H555" s="5">
+      <c r="H555" s="1">
         <v>1827.2</v>
       </c>
     </row>
@@ -16543,7 +16540,7 @@
       <c r="G556" s="3">
         <v>45922</v>
       </c>
-      <c r="H556" s="5">
+      <c r="H556" s="1">
         <v>270.8</v>
       </c>
     </row>
@@ -16569,7 +16566,7 @@
       <c r="G557" s="3">
         <v>45922</v>
       </c>
-      <c r="H557" s="5">
+      <c r="H557" s="1">
         <v>1666.68</v>
       </c>
     </row>
@@ -16595,7 +16592,7 @@
       <c r="G558" s="3">
         <v>45922</v>
       </c>
-      <c r="H558" s="5">
+      <c r="H558" s="1">
         <v>558</v>
       </c>
     </row>
@@ -16621,7 +16618,7 @@
       <c r="G559" s="3">
         <v>45922</v>
       </c>
-      <c r="H559" s="5">
+      <c r="H559" s="1">
         <v>1512</v>
       </c>
     </row>
@@ -16647,7 +16644,7 @@
       <c r="G560" s="3">
         <v>45922</v>
       </c>
-      <c r="H560" s="5">
+      <c r="H560" s="1">
         <v>1755</v>
       </c>
     </row>
@@ -16673,7 +16670,7 @@
       <c r="G561" s="3">
         <v>45922</v>
       </c>
-      <c r="H561" s="5">
+      <c r="H561" s="1">
         <v>200</v>
       </c>
     </row>
@@ -16699,7 +16696,7 @@
       <c r="G562" s="3">
         <v>45922</v>
       </c>
-      <c r="H562" s="5">
+      <c r="H562" s="1">
         <v>840</v>
       </c>
     </row>
@@ -16725,7 +16722,7 @@
       <c r="G563" s="3">
         <v>45922</v>
       </c>
-      <c r="H563" s="5">
+      <c r="H563" s="1">
         <v>4945.2700000000004</v>
       </c>
     </row>
@@ -16751,7 +16748,7 @@
       <c r="G564" s="3">
         <v>45923</v>
       </c>
-      <c r="H564" s="5">
+      <c r="H564" s="1">
         <v>1488</v>
       </c>
     </row>
@@ -16777,7 +16774,7 @@
       <c r="G565" s="3">
         <v>45923</v>
       </c>
-      <c r="H565" s="5">
+      <c r="H565" s="1">
         <v>874.48</v>
       </c>
     </row>
@@ -16803,7 +16800,7 @@
       <c r="G566" s="3">
         <v>45923</v>
       </c>
-      <c r="H566" s="5">
+      <c r="H566" s="1">
         <v>1200</v>
       </c>
     </row>
@@ -16829,7 +16826,7 @@
       <c r="G567" s="3">
         <v>45924</v>
       </c>
-      <c r="H567" s="5">
+      <c r="H567" s="1">
         <v>558</v>
       </c>
     </row>
@@ -16855,7 +16852,7 @@
       <c r="G568" s="3">
         <v>45924</v>
       </c>
-      <c r="H568" s="5">
+      <c r="H568" s="1">
         <v>896</v>
       </c>
     </row>
@@ -16881,7 +16878,7 @@
       <c r="G569" s="3">
         <v>45924</v>
       </c>
-      <c r="H569" s="5">
+      <c r="H569" s="1">
         <v>612.95000000000005</v>
       </c>
     </row>
@@ -16907,7 +16904,7 @@
       <c r="G570" s="3">
         <v>45924</v>
       </c>
-      <c r="H570" s="5">
+      <c r="H570" s="1">
         <v>1755</v>
       </c>
     </row>
@@ -16933,7 +16930,7 @@
       <c r="G571" s="3">
         <v>45924</v>
       </c>
-      <c r="H571" s="5">
+      <c r="H571" s="1">
         <v>504</v>
       </c>
     </row>
@@ -16959,7 +16956,7 @@
       <c r="G572" s="3">
         <v>45924</v>
       </c>
-      <c r="H572" s="5">
+      <c r="H572" s="1">
         <v>91.88</v>
       </c>
     </row>
@@ -16985,7 +16982,7 @@
       <c r="G573" s="3">
         <v>45924</v>
       </c>
-      <c r="H573" s="5">
+      <c r="H573" s="1">
         <v>3611.85</v>
       </c>
     </row>
@@ -17011,7 +17008,7 @@
       <c r="G574" s="3">
         <v>45924</v>
       </c>
-      <c r="H574" s="5">
+      <c r="H574" s="1">
         <v>45.94</v>
       </c>
     </row>
@@ -17037,7 +17034,7 @@
       <c r="G575" s="3">
         <v>45924</v>
       </c>
-      <c r="H575" s="5">
+      <c r="H575" s="1">
         <v>5364.9</v>
       </c>
     </row>
@@ -17063,7 +17060,7 @@
       <c r="G576" s="3">
         <v>45924</v>
       </c>
-      <c r="H576" s="5">
+      <c r="H576" s="1">
         <v>720</v>
       </c>
     </row>
@@ -17089,7 +17086,7 @@
       <c r="G577" s="3">
         <v>45924</v>
       </c>
-      <c r="H577" s="5">
+      <c r="H577" s="1">
         <v>420.08</v>
       </c>
     </row>
@@ -17115,7 +17112,7 @@
       <c r="G578" s="3">
         <v>45924</v>
       </c>
-      <c r="H578" s="5">
+      <c r="H578" s="1">
         <v>840</v>
       </c>
     </row>
@@ -17141,7 +17138,7 @@
       <c r="G579" s="3">
         <v>45924</v>
       </c>
-      <c r="H579" s="5">
+      <c r="H579" s="1">
         <v>191.35</v>
       </c>
     </row>
@@ -17167,7 +17164,7 @@
       <c r="G580" s="3">
         <v>45925</v>
       </c>
-      <c r="H580" s="5">
+      <c r="H580" s="1">
         <v>372</v>
       </c>
     </row>
@@ -17193,7 +17190,7 @@
       <c r="G581" s="3">
         <v>45925</v>
       </c>
-      <c r="H581" s="5">
+      <c r="H581" s="1">
         <v>877.5</v>
       </c>
     </row>
@@ -17219,7 +17216,7 @@
       <c r="G582" s="3">
         <v>45925</v>
       </c>
-      <c r="H582" s="5">
+      <c r="H582" s="1">
         <v>504</v>
       </c>
     </row>
@@ -17245,7 +17242,7 @@
       <c r="G583" s="3">
         <v>45925</v>
       </c>
-      <c r="H583" s="5">
+      <c r="H583" s="1">
         <v>505.36</v>
       </c>
     </row>
@@ -17271,7 +17268,7 @@
       <c r="G584" s="3">
         <v>45925</v>
       </c>
-      <c r="H584" s="5">
+      <c r="H584" s="1">
         <v>1140.3599999999999</v>
       </c>
     </row>
@@ -17297,7 +17294,7 @@
       <c r="G585" s="3">
         <v>45925</v>
       </c>
-      <c r="H585" s="5">
+      <c r="H585" s="1">
         <v>1755</v>
       </c>
     </row>
@@ -17323,7 +17320,7 @@
       <c r="G586" s="3">
         <v>45925</v>
       </c>
-      <c r="H586" s="5">
+      <c r="H586" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -17349,7 +17346,7 @@
       <c r="G587" s="3">
         <v>45925</v>
       </c>
-      <c r="H587" s="5">
+      <c r="H587" s="1">
         <v>1008</v>
       </c>
     </row>
@@ -17375,7 +17372,7 @@
       <c r="G588" s="3">
         <v>45925</v>
       </c>
-      <c r="H588" s="5">
+      <c r="H588" s="1">
         <v>1755</v>
       </c>
     </row>
@@ -17401,7 +17398,7 @@
       <c r="G589" s="3">
         <v>45925</v>
       </c>
-      <c r="H589" s="5">
+      <c r="H589" s="1">
         <v>190.99</v>
       </c>
     </row>
@@ -17427,7 +17424,7 @@
       <c r="G590" s="3">
         <v>45925</v>
       </c>
-      <c r="H590" s="5">
+      <c r="H590" s="1">
         <v>210.04</v>
       </c>
     </row>
@@ -17453,7 +17450,7 @@
       <c r="G591" s="3">
         <v>45926</v>
       </c>
-      <c r="H591" s="5">
+      <c r="H591" s="1">
         <v>840</v>
       </c>
     </row>
@@ -17479,7 +17476,7 @@
       <c r="G592" s="3">
         <v>45926</v>
       </c>
-      <c r="H592" s="5">
+      <c r="H592" s="1">
         <v>2311.7399999999998</v>
       </c>
     </row>
@@ -17505,7 +17502,7 @@
       <c r="G593" s="3">
         <v>45926</v>
       </c>
-      <c r="H593" s="5">
+      <c r="H593" s="1">
         <v>420</v>
       </c>
     </row>
@@ -17531,7 +17528,7 @@
       <c r="G594" s="3">
         <v>45927</v>
       </c>
-      <c r="H594" s="5">
+      <c r="H594" s="1">
         <v>3576.6</v>
       </c>
     </row>
@@ -17557,7 +17554,7 @@
       <c r="G595" s="3">
         <v>45927</v>
       </c>
-      <c r="H595" s="5">
+      <c r="H595" s="1">
         <v>874.48</v>
       </c>
     </row>
@@ -17583,7 +17580,7 @@
       <c r="G596" s="3">
         <v>45928</v>
       </c>
-      <c r="H596" s="5">
+      <c r="H596" s="1">
         <v>191.35</v>
       </c>
     </row>
@@ -17609,7 +17606,7 @@
       <c r="G597" s="3">
         <v>45928</v>
       </c>
-      <c r="H597" s="5">
+      <c r="H597" s="1">
         <v>1860</v>
       </c>
     </row>
@@ -17635,7 +17632,7 @@
       <c r="G598" s="3">
         <v>45928</v>
       </c>
-      <c r="H598" s="5">
+      <c r="H598" s="1">
         <v>604.79999999999995</v>
       </c>
     </row>
@@ -17661,7 +17658,7 @@
       <c r="G599" s="3">
         <v>45928</v>
       </c>
-      <c r="H599" s="5">
+      <c r="H599" s="1">
         <v>3065</v>
       </c>
     </row>
@@ -17687,7 +17684,7 @@
       <c r="G600" s="3">
         <v>45928</v>
       </c>
-      <c r="H600" s="5">
+      <c r="H600" s="1">
         <v>2632.5</v>
       </c>
     </row>
@@ -17713,7 +17710,7 @@
       <c r="G601" s="3">
         <v>45928</v>
       </c>
-      <c r="H601" s="5">
+      <c r="H601" s="1">
         <v>888</v>
       </c>
     </row>
@@ -17739,7 +17736,7 @@
       <c r="G602" s="3">
         <v>45928</v>
       </c>
-      <c r="H602" s="5">
+      <c r="H602" s="1">
         <v>15</v>
       </c>
     </row>
@@ -17765,7 +17762,7 @@
       <c r="G603" s="3">
         <v>45929</v>
       </c>
-      <c r="H603" s="5">
+      <c r="H603" s="1">
         <v>888</v>
       </c>
     </row>
@@ -17791,7 +17788,7 @@
       <c r="G604" s="3">
         <v>45929</v>
       </c>
-      <c r="H604" s="5">
+      <c r="H604" s="1">
         <v>1488</v>
       </c>
     </row>
@@ -17817,7 +17814,7 @@
       <c r="G605" s="3">
         <v>45929</v>
       </c>
-      <c r="H605" s="5">
+      <c r="H605" s="1">
         <v>15</v>
       </c>
     </row>
@@ -17843,7 +17840,7 @@
       <c r="G606" s="3">
         <v>45929</v>
       </c>
-      <c r="H606" s="5">
+      <c r="H606" s="1">
         <v>720</v>
       </c>
     </row>
@@ -17869,7 +17866,7 @@
       <c r="G607" s="3">
         <v>45930</v>
       </c>
-      <c r="H607" s="5">
+      <c r="H607" s="1">
         <v>888</v>
       </c>
     </row>
@@ -17895,7 +17892,7 @@
       <c r="G608" s="3">
         <v>45930</v>
       </c>
-      <c r="H608" s="5">
+      <c r="H608" s="1">
         <v>930</v>
       </c>
     </row>
@@ -17921,7 +17918,7 @@
       <c r="G609" s="3">
         <v>45930</v>
       </c>
-      <c r="H609" s="5">
+      <c r="H609" s="1">
         <v>15</v>
       </c>
     </row>
@@ -17947,7 +17944,7 @@
       <c r="G610" s="3">
         <v>45930</v>
       </c>
-      <c r="H610" s="5">
+      <c r="H610" s="1">
         <v>600</v>
       </c>
     </row>
@@ -17973,7 +17970,7 @@
       <c r="G611" s="3">
         <v>45930</v>
       </c>
-      <c r="H611" s="5">
+      <c r="H611" s="1">
         <v>858.79</v>
       </c>
     </row>
@@ -17999,7 +17996,7 @@
       <c r="G612" s="3">
         <v>45930</v>
       </c>
-      <c r="H612" s="5">
+      <c r="H612" s="1">
         <v>799.4</v>
       </c>
     </row>
@@ -18025,7 +18022,7 @@
       <c r="G613" s="3">
         <v>45930</v>
       </c>
-      <c r="H613" s="5">
+      <c r="H613" s="1">
         <v>484.29</v>
       </c>
     </row>
@@ -18051,7 +18048,7 @@
       <c r="G614" s="3">
         <v>45930</v>
       </c>
-      <c r="H614" s="5">
+      <c r="H614" s="1">
         <v>25.81</v>
       </c>
     </row>
@@ -18077,7 +18074,7 @@
       <c r="G615" s="3">
         <v>45930</v>
       </c>
-      <c r="H615" s="5">
+      <c r="H615" s="1">
         <v>304.08999999999997</v>
       </c>
     </row>
@@ -18103,7 +18100,7 @@
       <c r="G616" s="3">
         <v>45930</v>
       </c>
-      <c r="H616" s="5">
+      <c r="H616" s="1">
         <v>558</v>
       </c>
     </row>
@@ -18129,7 +18126,7 @@
       <c r="G617" s="3">
         <v>45930</v>
       </c>
-      <c r="H617" s="5">
+      <c r="H617" s="1">
         <v>270.8</v>
       </c>
     </row>
@@ -18155,7 +18152,7 @@
       <c r="G618" s="3">
         <v>45930</v>
       </c>
-      <c r="H618" s="5">
+      <c r="H618" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -18181,7 +18178,7 @@
       <c r="G619" s="3">
         <v>45930</v>
       </c>
-      <c r="H619" s="5">
+      <c r="H619" s="1">
         <v>25.81</v>
       </c>
     </row>
@@ -18207,7 +18204,7 @@
       <c r="G620" s="3">
         <v>45930</v>
       </c>
-      <c r="H620" s="5">
+      <c r="H620" s="1">
         <v>5265</v>
       </c>
     </row>
@@ -18233,7 +18230,7 @@
       <c r="G621" s="3">
         <v>45930</v>
       </c>
-      <c r="H621" s="5">
+      <c r="H621" s="1">
         <v>272.14</v>
       </c>
     </row>
@@ -18259,7 +18256,7 @@
       <c r="G622" s="3">
         <v>45930</v>
       </c>
-      <c r="H622" s="5">
+      <c r="H622" s="1">
         <v>1008</v>
       </c>
     </row>
@@ -18285,7 +18282,7 @@
       <c r="G623" s="3">
         <v>45930</v>
       </c>
-      <c r="H623" s="5">
+      <c r="H623" s="1">
         <v>300</v>
       </c>
     </row>
@@ -18311,7 +18308,7 @@
       <c r="G624" s="3">
         <v>45930</v>
       </c>
-      <c r="H624" s="5">
+      <c r="H624" s="1">
         <v>650.05999999999995</v>
       </c>
     </row>
@@ -18337,7 +18334,7 @@
       <c r="G625" s="3">
         <v>45930</v>
       </c>
-      <c r="H625" s="5">
+      <c r="H625" s="1">
         <v>420.08</v>
       </c>
     </row>
@@ -18363,7 +18360,7 @@
       <c r="G626" s="3">
         <v>45930</v>
       </c>
-      <c r="H626" s="5">
+      <c r="H626" s="1">
         <v>191.35</v>
       </c>
     </row>
@@ -18389,7 +18386,7 @@
       <c r="G627" s="3">
         <v>45931</v>
       </c>
-      <c r="H627" s="5">
+      <c r="H627" s="1">
         <v>1008</v>
       </c>
     </row>
@@ -18415,7 +18412,7 @@
       <c r="G628" s="3">
         <v>45931</v>
       </c>
-      <c r="H628" s="5">
+      <c r="H628" s="1">
         <v>1755</v>
       </c>
     </row>
@@ -18441,7 +18438,7 @@
       <c r="G629" s="3">
         <v>45931</v>
       </c>
-      <c r="H629" s="5">
+      <c r="H629" s="1">
         <v>191.35</v>
       </c>
     </row>
@@ -18467,7 +18464,7 @@
       <c r="G630" s="3">
         <v>45931</v>
       </c>
-      <c r="H630" s="5">
+      <c r="H630" s="1">
         <v>840</v>
       </c>
     </row>
@@ -18493,7 +18490,7 @@
       <c r="G631" s="3">
         <v>45932</v>
       </c>
-      <c r="H631" s="5">
+      <c r="H631" s="1">
         <v>1008</v>
       </c>
     </row>
@@ -18519,7 +18516,7 @@
       <c r="G632" s="3">
         <v>45932</v>
       </c>
-      <c r="H632" s="5">
+      <c r="H632" s="1">
         <v>2777.8</v>
       </c>
     </row>
@@ -18545,7 +18542,7 @@
       <c r="G633" s="3">
         <v>45932</v>
       </c>
-      <c r="H633" s="5">
+      <c r="H633" s="1">
         <v>968.7</v>
       </c>
     </row>
@@ -18571,7 +18568,7 @@
       <c r="G634" s="3">
         <v>45932</v>
       </c>
-      <c r="H634" s="5">
+      <c r="H634" s="1">
         <v>968.7</v>
       </c>
     </row>
@@ -18597,7 +18594,7 @@
       <c r="G635" s="3">
         <v>45932</v>
       </c>
-      <c r="H635" s="5">
+      <c r="H635" s="1">
         <v>359.6</v>
       </c>
     </row>
@@ -18623,7 +18620,7 @@
       <c r="G636" s="3">
         <v>45932</v>
       </c>
-      <c r="H636" s="5">
+      <c r="H636" s="1">
         <v>6040.2</v>
       </c>
     </row>
@@ -18649,7 +18646,7 @@
       <c r="G637" s="3">
         <v>45932</v>
       </c>
-      <c r="H637" s="5">
+      <c r="H637" s="1">
         <v>1020.33</v>
       </c>
     </row>
@@ -18675,7 +18672,7 @@
       <c r="G638" s="3">
         <v>45932</v>
       </c>
-      <c r="H638" s="5">
+      <c r="H638" s="1">
         <v>1020.33</v>
       </c>
     </row>
@@ -18701,7 +18698,7 @@
       <c r="G639" s="3">
         <v>45932</v>
       </c>
-      <c r="H639" s="5">
+      <c r="H639" s="1">
         <v>2657.2</v>
       </c>
     </row>
@@ -18727,7 +18724,7 @@
       <c r="G640" s="3">
         <v>45932</v>
       </c>
-      <c r="H640" s="5">
+      <c r="H640" s="1">
         <v>3510</v>
       </c>
     </row>
@@ -18753,7 +18750,7 @@
       <c r="G641" s="3">
         <v>45932</v>
       </c>
-      <c r="H641" s="5">
+      <c r="H641" s="1">
         <v>45.94</v>
       </c>
     </row>
@@ -18779,7 +18776,7 @@
       <c r="G642" s="3">
         <v>45932</v>
       </c>
-      <c r="H642" s="5">
+      <c r="H642" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -18805,7 +18802,7 @@
       <c r="G643" s="3">
         <v>45932</v>
       </c>
-      <c r="H643" s="5">
+      <c r="H643" s="1">
         <v>1666.68</v>
       </c>
     </row>
@@ -18831,7 +18828,7 @@
       <c r="G644" s="3">
         <v>45932</v>
       </c>
-      <c r="H644" s="5">
+      <c r="H644" s="1">
         <v>2976</v>
       </c>
     </row>
@@ -18857,7 +18854,7 @@
       <c r="G645" s="3">
         <v>45932</v>
       </c>
-      <c r="H645" s="5">
+      <c r="H645" s="1">
         <v>2167.11</v>
       </c>
     </row>
@@ -18883,7 +18880,7 @@
       <c r="G646" s="3">
         <v>45932</v>
       </c>
-      <c r="H646" s="5">
+      <c r="H646" s="1">
         <v>1444.74</v>
       </c>
     </row>
@@ -18909,7 +18906,7 @@
       <c r="G647" s="3">
         <v>45932</v>
       </c>
-      <c r="H647" s="5">
+      <c r="H647" s="1">
         <v>555.55999999999995</v>
       </c>
     </row>
@@ -18935,7 +18932,7 @@
       <c r="G648" s="3">
         <v>45932</v>
       </c>
-      <c r="H648" s="5">
+      <c r="H648" s="1">
         <v>1009</v>
       </c>
     </row>
@@ -18961,7 +18958,7 @@
       <c r="G649" s="3">
         <v>45932</v>
       </c>
-      <c r="H649" s="5">
+      <c r="H649" s="1">
         <v>975.09</v>
       </c>
     </row>
@@ -18987,7 +18984,7 @@
       <c r="G650" s="3">
         <v>45932</v>
       </c>
-      <c r="H650" s="5">
+      <c r="H650" s="1">
         <v>630.12</v>
       </c>
     </row>
@@ -19013,7 +19010,7 @@
       <c r="G651" s="3">
         <v>45932</v>
       </c>
-      <c r="H651" s="5">
+      <c r="H651" s="1">
         <v>191.35</v>
       </c>
     </row>
@@ -19039,7 +19036,7 @@
       <c r="G652" s="3">
         <v>45932</v>
       </c>
-      <c r="H652" s="5">
+      <c r="H652" s="1">
         <v>420</v>
       </c>
     </row>
@@ -19065,7 +19062,7 @@
       <c r="G653" s="3">
         <v>45933</v>
       </c>
-      <c r="H653" s="5">
+      <c r="H653" s="1">
         <v>207.12</v>
       </c>
     </row>
@@ -19091,7 +19088,7 @@
       <c r="G654" s="3">
         <v>45933</v>
       </c>
-      <c r="H654" s="5">
+      <c r="H654" s="1">
         <v>331.6</v>
       </c>
     </row>
@@ -19117,7 +19114,7 @@
       <c r="G655" s="3">
         <v>45933</v>
       </c>
-      <c r="H655" s="5">
+      <c r="H655" s="1">
         <v>96.73</v>
       </c>
     </row>
@@ -19143,7 +19140,7 @@
       <c r="G656" s="3">
         <v>45933</v>
       </c>
-      <c r="H656" s="5">
+      <c r="H656" s="1">
         <v>220.49</v>
       </c>
     </row>
@@ -19169,7 +19166,7 @@
       <c r="G657" s="3">
         <v>45933</v>
       </c>
-      <c r="H657" s="5">
+      <c r="H657" s="1">
         <v>625</v>
       </c>
     </row>
@@ -19195,7 +19192,7 @@
       <c r="G658" s="3">
         <v>45933</v>
       </c>
-      <c r="H658" s="5">
+      <c r="H658" s="1">
         <v>2503.02</v>
       </c>
     </row>
@@ -19221,7 +19218,7 @@
       <c r="G659" s="3">
         <v>45933</v>
       </c>
-      <c r="H659" s="5">
+      <c r="H659" s="1">
         <v>303.41000000000003</v>
       </c>
     </row>
@@ -19247,7 +19244,7 @@
       <c r="G660" s="3">
         <v>45933</v>
       </c>
-      <c r="H660" s="5">
+      <c r="H660" s="1">
         <v>136.56</v>
       </c>
     </row>
@@ -19273,7 +19270,7 @@
       <c r="G661" s="3">
         <v>45933</v>
       </c>
-      <c r="H661" s="5">
+      <c r="H661" s="1">
         <v>1755</v>
       </c>
     </row>
@@ -19299,7 +19296,7 @@
       <c r="G662" s="3">
         <v>45933</v>
       </c>
-      <c r="H662" s="5">
+      <c r="H662" s="1">
         <v>1512</v>
       </c>
     </row>
@@ -19325,7 +19322,7 @@
       <c r="G663" s="3">
         <v>45933</v>
       </c>
-      <c r="H663" s="5">
+      <c r="H663" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -19351,7 +19348,7 @@
       <c r="G664" s="3">
         <v>45935</v>
       </c>
-      <c r="H664" s="5">
+      <c r="H664" s="1">
         <v>600</v>
       </c>
     </row>
@@ -19377,7 +19374,7 @@
       <c r="G665" s="3">
         <v>45936</v>
       </c>
-      <c r="H665" s="5">
+      <c r="H665" s="1">
         <v>55.78</v>
       </c>
     </row>
@@ -19403,7 +19400,7 @@
       <c r="G666" s="3">
         <v>45936</v>
       </c>
-      <c r="H666" s="5">
+      <c r="H666" s="1">
         <v>9.68</v>
       </c>
     </row>
@@ -19429,7 +19426,7 @@
       <c r="G667" s="3">
         <v>45936</v>
       </c>
-      <c r="H667" s="5">
+      <c r="H667" s="1">
         <v>12.4</v>
       </c>
     </row>
@@ -19455,7 +19452,7 @@
       <c r="G668" s="3">
         <v>45936</v>
       </c>
-      <c r="H668" s="5">
+      <c r="H668" s="1">
         <v>20.14</v>
       </c>
     </row>
@@ -19481,7 +19478,7 @@
       <c r="G669" s="3">
         <v>45936</v>
       </c>
-      <c r="H669" s="5">
+      <c r="H669" s="1">
         <v>24.79</v>
       </c>
     </row>
@@ -19507,7 +19504,7 @@
       <c r="G670" s="3">
         <v>45936</v>
       </c>
-      <c r="H670" s="5">
+      <c r="H670" s="1">
         <v>1100.0999999999999</v>
       </c>
     </row>
@@ -19533,7 +19530,7 @@
       <c r="G671" s="3">
         <v>45936</v>
       </c>
-      <c r="H671" s="5">
+      <c r="H671" s="1">
         <v>930</v>
       </c>
     </row>
@@ -19559,7 +19556,7 @@
       <c r="G672" s="3">
         <v>45936</v>
       </c>
-      <c r="H672" s="5">
+      <c r="H672" s="1">
         <v>22.97</v>
       </c>
     </row>
@@ -19585,7 +19582,7 @@
       <c r="G673" s="3">
         <v>45936</v>
       </c>
-      <c r="H673" s="5">
+      <c r="H673" s="1">
         <v>7020</v>
       </c>
     </row>
@@ -19611,7 +19608,7 @@
       <c r="G674" s="3">
         <v>45936</v>
       </c>
-      <c r="H674" s="5">
+      <c r="H674" s="1">
         <v>936</v>
       </c>
     </row>
@@ -19637,7 +19634,7 @@
       <c r="G675" s="3">
         <v>45936</v>
       </c>
-      <c r="H675" s="5">
+      <c r="H675" s="1">
         <v>3.81</v>
       </c>
     </row>
@@ -19663,7 +19660,7 @@
       <c r="G676" s="3">
         <v>45936</v>
       </c>
-      <c r="H676" s="5">
+      <c r="H676" s="1">
         <v>6.78</v>
       </c>
     </row>
@@ -19689,7 +19686,7 @@
       <c r="G677" s="3">
         <v>45936</v>
       </c>
-      <c r="H677" s="5">
+      <c r="H677" s="1">
         <v>0.74</v>
       </c>
     </row>
@@ -19715,7 +19712,7 @@
       <c r="G678" s="3">
         <v>45936</v>
       </c>
-      <c r="H678" s="5">
+      <c r="H678" s="1">
         <v>6.58</v>
       </c>
     </row>
@@ -19741,7 +19738,7 @@
       <c r="G679" s="3">
         <v>45936</v>
       </c>
-      <c r="H679" s="5">
+      <c r="H679" s="1">
         <v>9890.5300000000007</v>
       </c>
     </row>
@@ -19767,7 +19764,7 @@
       <c r="G680" s="3">
         <v>45936</v>
       </c>
-      <c r="H680" s="5">
+      <c r="H680" s="1">
         <v>949.7</v>
       </c>
     </row>
@@ -19793,7 +19790,7 @@
       <c r="G681" s="3">
         <v>45936</v>
       </c>
-      <c r="H681" s="5">
+      <c r="H681" s="1">
         <v>59.67</v>
       </c>
     </row>
@@ -19819,7 +19816,7 @@
       <c r="G682" s="3">
         <v>45936</v>
       </c>
-      <c r="H682" s="5">
+      <c r="H682" s="1">
         <v>504</v>
       </c>
     </row>
@@ -19845,7 +19842,7 @@
       <c r="G683" s="3">
         <v>45936</v>
       </c>
-      <c r="H683" s="5">
+      <c r="H683" s="1">
         <v>1827.2</v>
       </c>
     </row>
@@ -19871,7 +19868,7 @@
       <c r="G684" s="3">
         <v>45936</v>
       </c>
-      <c r="H684" s="5">
+      <c r="H684" s="1">
         <v>372</v>
       </c>
     </row>
@@ -19897,7 +19894,7 @@
       <c r="G685" s="3">
         <v>45936</v>
       </c>
-      <c r="H685" s="5">
+      <c r="H685" s="1">
         <v>677</v>
       </c>
     </row>
@@ -19923,7 +19920,7 @@
       <c r="G686" s="3">
         <v>45936</v>
       </c>
-      <c r="H686" s="5">
+      <c r="H686" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -19949,7 +19946,7 @@
       <c r="G687" s="3">
         <v>45936</v>
       </c>
-      <c r="H687" s="5">
+      <c r="H687" s="1">
         <v>776.48</v>
       </c>
     </row>
@@ -19975,7 +19972,7 @@
       <c r="G688" s="3">
         <v>45936</v>
       </c>
-      <c r="H688" s="5">
+      <c r="H688" s="1">
         <v>720</v>
       </c>
     </row>
@@ -20001,7 +19998,7 @@
       <c r="G689" s="3">
         <v>45937</v>
       </c>
-      <c r="H689" s="5">
+      <c r="H689" s="1">
         <v>968.45</v>
       </c>
     </row>
@@ -20027,7 +20024,7 @@
       <c r="G690" s="3">
         <v>45937</v>
       </c>
-      <c r="H690" s="5">
+      <c r="H690" s="1">
         <v>77.48</v>
       </c>
     </row>
@@ -20053,7 +20050,7 @@
       <c r="G691" s="3">
         <v>45937</v>
       </c>
-      <c r="H691" s="5">
+      <c r="H691" s="1">
         <v>1666.68</v>
       </c>
     </row>
@@ -20079,7 +20076,7 @@
       <c r="G692" s="3">
         <v>45937</v>
       </c>
-      <c r="H692" s="5">
+      <c r="H692" s="1">
         <v>2889.48</v>
       </c>
     </row>
@@ -20105,7 +20102,7 @@
       <c r="G693" s="3">
         <v>45937</v>
       </c>
-      <c r="H693" s="5">
+      <c r="H693" s="1">
         <v>91.88</v>
       </c>
     </row>
@@ -20131,7 +20128,7 @@
       <c r="G694" s="3">
         <v>45937</v>
       </c>
-      <c r="H694" s="5">
+      <c r="H694" s="1">
         <v>372</v>
       </c>
     </row>
@@ -20157,7 +20154,7 @@
       <c r="G695" s="3">
         <v>45937</v>
       </c>
-      <c r="H695" s="5">
+      <c r="H695" s="1">
         <v>2520</v>
       </c>
     </row>
@@ -20183,7 +20180,7 @@
       <c r="G696" s="3">
         <v>45938</v>
       </c>
-      <c r="H696" s="5">
+      <c r="H696" s="1">
         <v>3510</v>
       </c>
     </row>
@@ -20209,7 +20206,7 @@
       <c r="G697" s="3">
         <v>45938</v>
       </c>
-      <c r="H697" s="5">
+      <c r="H697" s="1">
         <v>1008</v>
       </c>
     </row>
@@ -20235,7 +20232,7 @@
       <c r="G698" s="3">
         <v>45938</v>
       </c>
-      <c r="H698" s="5">
+      <c r="H698" s="1">
         <v>744</v>
       </c>
     </row>
@@ -20261,7 +20258,7 @@
       <c r="G699" s="3">
         <v>45938</v>
       </c>
-      <c r="H699" s="5">
+      <c r="H699" s="1">
         <v>1221.4000000000001</v>
       </c>
     </row>
@@ -20287,7 +20284,7 @@
       <c r="G700" s="3">
         <v>45938</v>
       </c>
-      <c r="H700" s="5">
+      <c r="H700" s="1">
         <v>87.69</v>
       </c>
     </row>
@@ -20313,7 +20310,7 @@
       <c r="G701" s="3">
         <v>45938</v>
       </c>
-      <c r="H701" s="5">
+      <c r="H701" s="1">
         <v>574.20000000000005</v>
       </c>
     </row>
@@ -20339,7 +20336,7 @@
       <c r="G702" s="3">
         <v>45938</v>
       </c>
-      <c r="H702" s="5">
+      <c r="H702" s="1">
         <v>430.6</v>
       </c>
     </row>
@@ -20365,7 +20362,7 @@
       <c r="G703" s="3">
         <v>45938</v>
       </c>
-      <c r="H703" s="5">
+      <c r="H703" s="1">
         <v>1008.02</v>
       </c>
     </row>
@@ -20391,7 +20388,7 @@
       <c r="G704" s="3">
         <v>45938</v>
       </c>
-      <c r="H704" s="5">
+      <c r="H704" s="1">
         <v>99.45</v>
       </c>
     </row>
@@ -20417,7 +20414,7 @@
       <c r="G705" s="3">
         <v>45939</v>
       </c>
-      <c r="H705" s="5">
+      <c r="H705" s="1">
         <v>776.48</v>
       </c>
     </row>
@@ -20443,7 +20440,7 @@
       <c r="G706" s="3">
         <v>45939</v>
       </c>
-      <c r="H706" s="5">
+      <c r="H706" s="1">
         <v>382.7</v>
       </c>
     </row>
@@ -20469,7 +20466,7 @@
       <c r="G707" s="3">
         <v>45939</v>
       </c>
-      <c r="H707" s="5">
+      <c r="H707" s="1">
         <v>2098.7600000000002</v>
       </c>
     </row>
@@ -20495,7 +20492,7 @@
       <c r="G708" s="3">
         <v>45939</v>
       </c>
-      <c r="H708" s="5">
+      <c r="H708" s="1">
         <v>936</v>
       </c>
     </row>
@@ -20521,7 +20518,7 @@
       <c r="G709" s="3">
         <v>45939</v>
       </c>
-      <c r="H709" s="5">
+      <c r="H709" s="1">
         <v>5778.96</v>
       </c>
     </row>
@@ -20547,7 +20544,7 @@
       <c r="G710" s="3">
         <v>45939</v>
       </c>
-      <c r="H710" s="5">
+      <c r="H710" s="1">
         <v>1110.6400000000001</v>
       </c>
     </row>
@@ -20573,7 +20570,7 @@
       <c r="G711" s="3">
         <v>45939</v>
       </c>
-      <c r="H711" s="5">
+      <c r="H711" s="1">
         <v>664.3</v>
       </c>
     </row>
@@ -20599,7 +20596,7 @@
       <c r="G712" s="3">
         <v>45939</v>
       </c>
-      <c r="H712" s="5">
+      <c r="H712" s="1">
         <v>3510</v>
       </c>
     </row>
@@ -20625,7 +20622,7 @@
       <c r="G713" s="3">
         <v>45939</v>
       </c>
-      <c r="H713" s="5">
+      <c r="H713" s="1">
         <v>504</v>
       </c>
     </row>
@@ -20651,7 +20648,7 @@
       <c r="G714" s="3">
         <v>45939</v>
       </c>
-      <c r="H714" s="5">
+      <c r="H714" s="1">
         <v>1785.58</v>
       </c>
     </row>
@@ -20677,7 +20674,7 @@
       <c r="G715" s="3">
         <v>45939</v>
       </c>
-      <c r="H715" s="5">
+      <c r="H715" s="1">
         <v>1678.14</v>
       </c>
     </row>
@@ -20703,7 +20700,7 @@
       <c r="G716" s="3">
         <v>45939</v>
       </c>
-      <c r="H716" s="5">
+      <c r="H716" s="1">
         <v>4697.9399999999996</v>
       </c>
     </row>
@@ -20729,7 +20726,7 @@
       <c r="G717" s="3">
         <v>45939</v>
       </c>
-      <c r="H717" s="5">
+      <c r="H717" s="1">
         <v>896</v>
       </c>
     </row>
@@ -20755,7 +20752,7 @@
       <c r="G718" s="3">
         <v>45939</v>
       </c>
-      <c r="H718" s="5">
+      <c r="H718" s="1">
         <v>234</v>
       </c>
     </row>
@@ -20781,7 +20778,7 @@
       <c r="G719" s="3">
         <v>45939</v>
       </c>
-      <c r="H719" s="5">
+      <c r="H719" s="1">
         <v>462.75</v>
       </c>
     </row>
@@ -20807,7 +20804,7 @@
       <c r="G720" s="3">
         <v>45939</v>
       </c>
-      <c r="H720" s="5">
+      <c r="H720" s="1">
         <v>744</v>
       </c>
     </row>
@@ -20833,7 +20830,7 @@
       <c r="G721" s="3">
         <v>45943</v>
       </c>
-      <c r="H721" s="5">
+      <c r="H721" s="1">
         <v>1776</v>
       </c>
     </row>
@@ -20859,7 +20856,7 @@
       <c r="G722" s="3">
         <v>45943</v>
       </c>
-      <c r="H722" s="5">
+      <c r="H722" s="1">
         <v>3510</v>
       </c>
     </row>
@@ -20885,7 +20882,7 @@
       <c r="G723" s="3">
         <v>45943</v>
       </c>
-      <c r="H723" s="5">
+      <c r="H723" s="1">
         <v>2604</v>
       </c>
     </row>
@@ -20911,7 +20908,7 @@
       <c r="G724" s="3">
         <v>45943</v>
       </c>
-      <c r="H724" s="5">
+      <c r="H724" s="1">
         <v>372</v>
       </c>
     </row>
@@ -20937,7 +20934,7 @@
       <c r="G725" s="3">
         <v>45943</v>
       </c>
-      <c r="H725" s="5">
+      <c r="H725" s="1">
         <v>2098.7600000000002</v>
       </c>
     </row>
@@ -20963,7 +20960,7 @@
       <c r="G726" s="3">
         <v>45943</v>
       </c>
-      <c r="H726" s="5">
+      <c r="H726" s="1">
         <v>11557.92</v>
       </c>
     </row>
@@ -20989,7 +20986,7 @@
       <c r="G727" s="3">
         <v>45943</v>
       </c>
-      <c r="H727" s="5">
+      <c r="H727" s="1">
         <v>936</v>
       </c>
     </row>
@@ -21015,7 +21012,7 @@
       <c r="G728" s="3">
         <v>45944</v>
       </c>
-      <c r="H728" s="5">
+      <c r="H728" s="1">
         <v>190.99</v>
       </c>
     </row>
@@ -21041,7 +21038,7 @@
       <c r="G729" s="3">
         <v>45944</v>
       </c>
-      <c r="H729" s="5">
+      <c r="H729" s="1">
         <v>191.35</v>
       </c>
     </row>
@@ -21067,7 +21064,7 @@
       <c r="G730" s="3">
         <v>45944</v>
       </c>
-      <c r="H730" s="5">
+      <c r="H730" s="1">
         <v>720</v>
       </c>
     </row>
@@ -21093,7 +21090,7 @@
       <c r="G731" s="3">
         <v>45944</v>
       </c>
-      <c r="H731" s="5">
+      <c r="H731" s="1">
         <v>331.6</v>
       </c>
     </row>
@@ -21119,7 +21116,7 @@
       <c r="G732" s="3">
         <v>45944</v>
       </c>
-      <c r="H732" s="5">
+      <c r="H732" s="1">
         <v>2016</v>
       </c>
     </row>
@@ -21145,7 +21142,7 @@
       <c r="G733" s="3">
         <v>45944</v>
       </c>
-      <c r="H733" s="5">
+      <c r="H733" s="1">
         <v>3510</v>
       </c>
     </row>
@@ -21171,7 +21168,7 @@
       <c r="G734" s="3">
         <v>45944</v>
       </c>
-      <c r="H734" s="5">
+      <c r="H734" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -21197,7 +21194,7 @@
       <c r="G735" s="3">
         <v>45944</v>
       </c>
-      <c r="H735" s="5">
+      <c r="H735" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -21223,7 +21220,7 @@
       <c r="G736" s="3">
         <v>45944</v>
       </c>
-      <c r="H736" s="5">
+      <c r="H736" s="1">
         <v>930</v>
       </c>
     </row>
@@ -21249,7 +21246,7 @@
       <c r="G737" s="3">
         <v>45944</v>
       </c>
-      <c r="H737" s="5">
+      <c r="H737" s="1">
         <v>1354</v>
       </c>
     </row>
@@ -21275,7 +21272,7 @@
       <c r="G738" s="3">
         <v>45945</v>
       </c>
-      <c r="H738" s="5">
+      <c r="H738" s="1">
         <v>133.63999999999999</v>
       </c>
     </row>
@@ -21301,7 +21298,7 @@
       <c r="G739" s="3">
         <v>45945</v>
       </c>
-      <c r="H739" s="5">
+      <c r="H739" s="1">
         <v>421</v>
       </c>
     </row>
@@ -21327,7 +21324,7 @@
       <c r="G740" s="3">
         <v>45945</v>
       </c>
-      <c r="H740" s="5">
+      <c r="H740" s="1">
         <v>7703.45</v>
       </c>
     </row>
@@ -21353,7 +21350,7 @@
       <c r="G741" s="3">
         <v>45945</v>
       </c>
-      <c r="H741" s="5">
+      <c r="H741" s="1">
         <v>1776</v>
       </c>
     </row>
@@ -21379,7 +21376,7 @@
       <c r="G742" s="3">
         <v>45945</v>
       </c>
-      <c r="H742" s="5">
+      <c r="H742" s="1">
         <v>132.86000000000001</v>
       </c>
     </row>
@@ -21405,7 +21402,7 @@
       <c r="G743" s="3">
         <v>45945</v>
       </c>
-      <c r="H743" s="5">
+      <c r="H743" s="1">
         <v>1785.58</v>
       </c>
     </row>
@@ -21431,7 +21428,7 @@
       <c r="G744" s="3">
         <v>45945</v>
       </c>
-      <c r="H744" s="5">
+      <c r="H744" s="1">
         <v>1006.88</v>
       </c>
     </row>
@@ -21457,7 +21454,7 @@
       <c r="G745" s="3">
         <v>45945</v>
       </c>
-      <c r="H745" s="5">
+      <c r="H745" s="1">
         <v>1666.68</v>
       </c>
     </row>
@@ -21483,7 +21480,7 @@
       <c r="G746" s="3">
         <v>45945</v>
       </c>
-      <c r="H746" s="5">
+      <c r="H746" s="1">
         <v>1666.68</v>
       </c>
     </row>
@@ -21509,7 +21506,7 @@
       <c r="G747" s="3">
         <v>45945</v>
       </c>
-      <c r="H747" s="5">
+      <c r="H747" s="1">
         <v>1760.2</v>
       </c>
     </row>
@@ -21535,7 +21532,7 @@
       <c r="G748" s="3">
         <v>45945</v>
       </c>
-      <c r="H748" s="5">
+      <c r="H748" s="1">
         <v>930</v>
       </c>
     </row>
@@ -21561,7 +21558,7 @@
       <c r="G749" s="3">
         <v>45945</v>
       </c>
-      <c r="H749" s="5">
+      <c r="H749" s="1">
         <v>60</v>
       </c>
     </row>
@@ -21587,7 +21584,7 @@
       <c r="G750" s="3">
         <v>45945</v>
       </c>
-      <c r="H750" s="5">
+      <c r="H750" s="1">
         <v>234</v>
       </c>
     </row>
@@ -21613,7 +21610,7 @@
       <c r="G751" s="3">
         <v>45945</v>
       </c>
-      <c r="H751" s="5">
+      <c r="H751" s="1">
         <v>194.66</v>
       </c>
     </row>
@@ -21639,7 +21636,7 @@
       <c r="G752" s="3">
         <v>45945</v>
       </c>
-      <c r="H752" s="5">
+      <c r="H752" s="1">
         <v>0.75</v>
       </c>
     </row>
@@ -21665,7 +21662,7 @@
       <c r="G753" s="3">
         <v>45945</v>
       </c>
-      <c r="H753" s="5">
+      <c r="H753" s="1">
         <v>784.32</v>
       </c>
     </row>
@@ -21691,7 +21688,7 @@
       <c r="G754" s="3">
         <v>45945</v>
       </c>
-      <c r="H754" s="5">
+      <c r="H754" s="1">
         <v>752.32</v>
       </c>
     </row>
@@ -21717,7 +21714,7 @@
       <c r="G755" s="3">
         <v>45945</v>
       </c>
-      <c r="H755" s="5">
+      <c r="H755" s="1">
         <v>833.34</v>
       </c>
     </row>
@@ -21743,7 +21740,7 @@
       <c r="G756" s="3">
         <v>45945</v>
       </c>
-      <c r="H756" s="5">
+      <c r="H756" s="1">
         <v>135.30000000000001</v>
       </c>
     </row>
@@ -21769,7 +21766,7 @@
       <c r="G757" s="3">
         <v>45945</v>
       </c>
-      <c r="H757" s="5">
+      <c r="H757" s="1">
         <v>1850.99</v>
       </c>
     </row>
@@ -21795,7 +21792,7 @@
       <c r="G758" s="3">
         <v>45945</v>
       </c>
-      <c r="H758" s="5">
+      <c r="H758" s="1">
         <v>4032</v>
       </c>
     </row>
@@ -21821,7 +21818,7 @@
       <c r="G759" s="3">
         <v>45945</v>
       </c>
-      <c r="H759" s="5">
+      <c r="H759" s="1">
         <v>5089.5</v>
       </c>
     </row>
@@ -21847,7 +21844,7 @@
       <c r="G760" s="3">
         <v>45945</v>
       </c>
-      <c r="H760" s="5">
+      <c r="H760" s="1">
         <v>930</v>
       </c>
     </row>
@@ -21873,7 +21870,7 @@
       <c r="G761" s="3">
         <v>45945</v>
       </c>
-      <c r="H761" s="5">
+      <c r="H761" s="1">
         <v>3655.8</v>
       </c>
     </row>
@@ -21899,7 +21896,7 @@
       <c r="G762" s="3">
         <v>45945</v>
       </c>
-      <c r="H762" s="5">
+      <c r="H762" s="1">
         <v>600</v>
       </c>
     </row>
@@ -21925,7 +21922,7 @@
       <c r="G763" s="3">
         <v>45945</v>
       </c>
-      <c r="H763" s="5">
+      <c r="H763" s="1">
         <v>600</v>
       </c>
     </row>
@@ -21951,7 +21948,7 @@
       <c r="G764" s="3">
         <v>45946</v>
       </c>
-      <c r="H764" s="5">
+      <c r="H764" s="1">
         <v>11.58</v>
       </c>
     </row>
@@ -21977,7 +21974,7 @@
       <c r="G765" s="3">
         <v>45948</v>
       </c>
-      <c r="H765" s="5">
+      <c r="H765" s="1">
         <v>3510</v>
       </c>
     </row>
@@ -22003,7 +22000,7 @@
       <c r="G766" s="3">
         <v>45947</v>
       </c>
-      <c r="H766" s="5">
+      <c r="H766" s="1">
         <v>2016</v>
       </c>
     </row>
@@ -22029,7 +22026,7 @@
       <c r="G767" s="3">
         <v>45947</v>
       </c>
-      <c r="H767" s="5">
+      <c r="H767" s="1">
         <v>555.55999999999995</v>
       </c>
     </row>
@@ -22055,7 +22052,7 @@
       <c r="G768" s="3">
         <v>45948</v>
       </c>
-      <c r="H768" s="5">
+      <c r="H768" s="1">
         <v>1666.68</v>
       </c>
     </row>
@@ -22081,7 +22078,7 @@
       <c r="G769" s="3">
         <v>45949</v>
       </c>
-      <c r="H769" s="5">
+      <c r="H769" s="1">
         <v>3404.7</v>
       </c>
     </row>
@@ -22107,7 +22104,7 @@
       <c r="G770" s="3">
         <v>45949</v>
       </c>
-      <c r="H770" s="5">
+      <c r="H770" s="1">
         <v>2016</v>
       </c>
     </row>
@@ -22133,7 +22130,7 @@
       <c r="G771" s="3">
         <v>45950</v>
       </c>
-      <c r="H771" s="5">
+      <c r="H771" s="1">
         <v>2242.2600000000002</v>
       </c>
     </row>
@@ -22159,7 +22156,7 @@
       <c r="G772" s="3">
         <v>45950</v>
       </c>
-      <c r="H772" s="5">
+      <c r="H772" s="1">
         <v>237</v>
       </c>
     </row>
@@ -22185,7 +22182,7 @@
       <c r="G773" s="3">
         <v>45950</v>
       </c>
-      <c r="H773" s="5">
+      <c r="H773" s="1">
         <v>246.94</v>
       </c>
     </row>
@@ -22211,7 +22208,7 @@
       <c r="G774" s="3">
         <v>45950</v>
       </c>
-      <c r="H774" s="5">
+      <c r="H774" s="1">
         <v>1404</v>
       </c>
     </row>
@@ -22237,7 +22234,7 @@
       <c r="G775" s="3">
         <v>45950</v>
       </c>
-      <c r="H775" s="5">
+      <c r="H775" s="1">
         <v>167.05</v>
       </c>
     </row>
@@ -22263,7 +22260,7 @@
       <c r="G776" s="3">
         <v>45950</v>
       </c>
-      <c r="H776" s="5">
+      <c r="H776" s="1">
         <v>17336.88</v>
       </c>
     </row>
@@ -22289,7 +22286,7 @@
       <c r="G777" s="3">
         <v>45950</v>
       </c>
-      <c r="H777" s="5">
+      <c r="H777" s="1">
         <v>2777.8</v>
       </c>
     </row>
@@ -22315,7 +22312,7 @@
       <c r="G778" s="3">
         <v>45950</v>
       </c>
-      <c r="H778" s="5">
+      <c r="H778" s="1">
         <v>2232</v>
       </c>
     </row>
@@ -22341,7 +22338,7 @@
       <c r="G779" s="3">
         <v>45950</v>
       </c>
-      <c r="H779" s="5">
+      <c r="H779" s="1">
         <v>11557.92</v>
       </c>
     </row>
@@ -22367,7 +22364,7 @@
       <c r="G780" s="3">
         <v>45950</v>
       </c>
-      <c r="H780" s="5">
+      <c r="H780" s="1">
         <v>468</v>
       </c>
     </row>
@@ -22393,7 +22390,7 @@
       <c r="G781" s="3">
         <v>45951</v>
       </c>
-      <c r="H781" s="5">
+      <c r="H781" s="1">
         <v>134.96</v>
       </c>
     </row>
@@ -22419,7 +22416,7 @@
       <c r="G782" s="3">
         <v>45951</v>
       </c>
-      <c r="H782" s="5">
+      <c r="H782" s="1">
         <v>1568.64</v>
       </c>
     </row>
@@ -22445,7 +22442,7 @@
       <c r="G783" s="3">
         <v>45951</v>
       </c>
-      <c r="H783" s="5">
+      <c r="H783" s="1">
         <v>246.94</v>
       </c>
     </row>
@@ -22471,7 +22468,7 @@
       <c r="G784" s="3">
         <v>45951</v>
       </c>
-      <c r="H784" s="5">
+      <c r="H784" s="1">
         <v>468</v>
       </c>
     </row>
@@ -22497,7 +22494,7 @@
       <c r="G785" s="3">
         <v>45951</v>
       </c>
-      <c r="H785" s="5">
+      <c r="H785" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -22523,7 +22520,7 @@
       <c r="G786" s="3">
         <v>45951</v>
       </c>
-      <c r="H786" s="5">
+      <c r="H786" s="1">
         <v>744</v>
       </c>
     </row>
@@ -22549,7 +22546,7 @@
       <c r="G787" s="3">
         <v>45952</v>
       </c>
-      <c r="H787" s="5">
+      <c r="H787" s="1">
         <v>194.66</v>
       </c>
     </row>
@@ -22575,7 +22572,7 @@
       <c r="G788" s="3">
         <v>45952</v>
       </c>
-      <c r="H788" s="5">
+      <c r="H788" s="1">
         <v>744</v>
       </c>
     </row>
@@ -22601,7 +22598,7 @@
       <c r="G789" s="3">
         <v>45952</v>
       </c>
-      <c r="H789" s="5">
+      <c r="H789" s="1">
         <v>2823.48</v>
       </c>
     </row>
@@ -22627,7 +22624,7 @@
       <c r="G790" s="3">
         <v>45952</v>
       </c>
-      <c r="H790" s="5">
+      <c r="H790" s="1">
         <v>4288.43</v>
       </c>
     </row>
@@ -22653,7 +22650,7 @@
       <c r="G791" s="3">
         <v>45952</v>
       </c>
-      <c r="H791" s="5">
+      <c r="H791" s="1">
         <v>27</v>
       </c>
     </row>
@@ -22679,7 +22676,7 @@
       <c r="G792" s="3">
         <v>45953</v>
       </c>
-      <c r="H792" s="5">
+      <c r="H792" s="1">
         <v>1568.64</v>
       </c>
     </row>
@@ -22705,7 +22702,7 @@
       <c r="G793" s="3">
         <v>45953</v>
       </c>
-      <c r="H793" s="5">
+      <c r="H793" s="1">
         <v>2221.04</v>
       </c>
     </row>
@@ -22731,7 +22728,7 @@
       <c r="G794" s="3">
         <v>45953</v>
       </c>
-      <c r="H794" s="5">
+      <c r="H794" s="1">
         <v>213.5</v>
       </c>
     </row>
@@ -22757,7 +22754,7 @@
       <c r="G795" s="3">
         <v>45953</v>
       </c>
-      <c r="H795" s="5">
+      <c r="H795" s="1">
         <v>2167.1999999999998</v>
       </c>
     </row>
@@ -22783,7 +22780,7 @@
       <c r="G796" s="3">
         <v>45953</v>
       </c>
-      <c r="H796" s="5">
+      <c r="H796" s="1">
         <v>1341.6</v>
       </c>
     </row>
@@ -22809,7 +22806,7 @@
       <c r="G797" s="3">
         <v>45954</v>
       </c>
-      <c r="H797" s="5">
+      <c r="H797" s="1">
         <v>138.72999999999999</v>
       </c>
     </row>
@@ -22835,7 +22832,7 @@
       <c r="G798" s="3">
         <v>45954</v>
       </c>
-      <c r="H798" s="5">
+      <c r="H798" s="1">
         <v>181.11</v>
       </c>
     </row>
@@ -22861,7 +22858,7 @@
       <c r="G799" s="3">
         <v>45954</v>
       </c>
-      <c r="H799" s="5">
+      <c r="H799" s="1">
         <v>30.06</v>
       </c>
     </row>
@@ -22887,7 +22884,7 @@
       <c r="G800" s="3">
         <v>45954</v>
       </c>
-      <c r="H800" s="5">
+      <c r="H800" s="1">
         <v>20.04</v>
       </c>
     </row>
@@ -22913,7 +22910,7 @@
       <c r="G801" s="3">
         <v>45954</v>
       </c>
-      <c r="H801" s="5">
+      <c r="H801" s="1">
         <v>200</v>
       </c>
     </row>
@@ -22939,7 +22936,7 @@
       <c r="G802" s="3">
         <v>45954</v>
       </c>
-      <c r="H802" s="5">
+      <c r="H802" s="1">
         <v>190.99</v>
       </c>
     </row>
@@ -22965,7 +22962,7 @@
       <c r="G803" s="3">
         <v>45954</v>
       </c>
-      <c r="H803" s="5">
+      <c r="H803" s="1">
         <v>191.35</v>
       </c>
     </row>
@@ -22991,7 +22988,7 @@
       <c r="G804" s="3">
         <v>45954</v>
       </c>
-      <c r="H804" s="5">
+      <c r="H804" s="1">
         <v>155.72999999999999</v>
       </c>
     </row>
@@ -23017,7 +23014,7 @@
       <c r="G805" s="3">
         <v>45954</v>
       </c>
-      <c r="H805" s="5">
+      <c r="H805" s="1">
         <v>1170</v>
       </c>
     </row>
@@ -23043,7 +23040,7 @@
       <c r="G806" s="3">
         <v>45954</v>
       </c>
-      <c r="H806" s="5">
+      <c r="H806" s="1">
         <v>1399.17</v>
       </c>
     </row>
@@ -23069,7 +23066,7 @@
       <c r="G807" s="3">
         <v>45954</v>
       </c>
-      <c r="H807" s="5">
+      <c r="H807" s="1">
         <v>756.02</v>
       </c>
     </row>
@@ -23095,7 +23092,7 @@
       <c r="G808" s="3">
         <v>45954</v>
       </c>
-      <c r="H808" s="5">
+      <c r="H808" s="1">
         <v>930</v>
       </c>
     </row>
@@ -23121,7 +23118,7 @@
       <c r="G809" s="3">
         <v>45954</v>
       </c>
-      <c r="H809" s="5">
+      <c r="H809" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -23147,7 +23144,7 @@
       <c r="G810" s="3">
         <v>45954</v>
       </c>
-      <c r="H810" s="5">
+      <c r="H810" s="1">
         <v>702</v>
       </c>
     </row>
@@ -23173,7 +23170,7 @@
       <c r="G811" s="3">
         <v>45954</v>
       </c>
-      <c r="H811" s="5">
+      <c r="H811" s="1">
         <v>4964</v>
       </c>
     </row>
@@ -23199,7 +23196,7 @@
       <c r="G812" s="3">
         <v>45954</v>
       </c>
-      <c r="H812" s="5">
+      <c r="H812" s="1">
         <v>11.8</v>
       </c>
     </row>
@@ -23225,7 +23222,7 @@
       <c r="G813" s="3">
         <v>45954</v>
       </c>
-      <c r="H813" s="5">
+      <c r="H813" s="1">
         <v>1504.64</v>
       </c>
     </row>
@@ -23251,7 +23248,7 @@
       <c r="G814" s="3">
         <v>45957</v>
       </c>
-      <c r="H814" s="5">
+      <c r="H814" s="1">
         <v>672.5</v>
       </c>
     </row>
@@ -23277,7 +23274,7 @@
       <c r="G815" s="3">
         <v>45957</v>
       </c>
-      <c r="H815" s="5">
+      <c r="H815" s="1">
         <v>30</v>
       </c>
     </row>
@@ -23303,7 +23300,7 @@
       <c r="G816" s="3">
         <v>45957</v>
       </c>
-      <c r="H816" s="5">
+      <c r="H816" s="1">
         <v>53.36</v>
       </c>
     </row>
@@ -23329,7 +23326,7 @@
       <c r="G817" s="3">
         <v>45957</v>
       </c>
-      <c r="H817" s="5">
+      <c r="H817" s="1">
         <v>300.69</v>
       </c>
     </row>
@@ -23355,7 +23352,7 @@
       <c r="G818" s="3">
         <v>45957</v>
       </c>
-      <c r="H818" s="5">
+      <c r="H818" s="1">
         <v>300</v>
       </c>
     </row>
@@ -23381,7 +23378,7 @@
       <c r="G819" s="3">
         <v>45957</v>
       </c>
-      <c r="H819" s="5">
+      <c r="H819" s="1">
         <v>300</v>
       </c>
     </row>
@@ -23407,7 +23404,7 @@
       <c r="G820" s="3">
         <v>45957</v>
       </c>
-      <c r="H820" s="5">
+      <c r="H820" s="1">
         <v>1302</v>
       </c>
     </row>
@@ -23433,7 +23430,7 @@
       <c r="G821" s="3">
         <v>45957</v>
       </c>
-      <c r="H821" s="5">
+      <c r="H821" s="1">
         <v>1666.68</v>
       </c>
     </row>
@@ -23459,7 +23456,7 @@
       <c r="G822" s="3">
         <v>45957</v>
       </c>
-      <c r="H822" s="5">
+      <c r="H822" s="1">
         <v>11557.92</v>
       </c>
     </row>
@@ -23485,7 +23482,7 @@
       <c r="G823" s="3">
         <v>45957</v>
       </c>
-      <c r="H823" s="5">
+      <c r="H823" s="1">
         <v>936</v>
       </c>
     </row>
@@ -23511,7 +23508,7 @@
       <c r="G824" s="3">
         <v>45958</v>
       </c>
-      <c r="H824" s="5">
+      <c r="H824" s="1">
         <v>212.84</v>
       </c>
     </row>
@@ -23537,7 +23534,7 @@
       <c r="G825" s="3">
         <v>45958</v>
       </c>
-      <c r="H825" s="5">
+      <c r="H825" s="1">
         <v>10530</v>
       </c>
     </row>
@@ -23563,7 +23560,7 @@
       <c r="G826" s="3">
         <v>45958</v>
       </c>
-      <c r="H826" s="5">
+      <c r="H826" s="1">
         <v>300</v>
       </c>
     </row>
@@ -23589,7 +23586,7 @@
       <c r="G827" s="3">
         <v>45958</v>
       </c>
-      <c r="H827" s="5">
+      <c r="H827" s="1">
         <v>300</v>
       </c>
     </row>
@@ -23615,7 +23612,7 @@
       <c r="G828" s="3">
         <v>45958</v>
       </c>
-      <c r="H828" s="5">
+      <c r="H828" s="1">
         <v>877.33</v>
       </c>
     </row>
@@ -23641,7 +23638,7 @@
       <c r="G829" s="3">
         <v>45958</v>
       </c>
-      <c r="H829" s="5">
+      <c r="H829" s="1">
         <v>1370</v>
       </c>
     </row>
@@ -23667,7 +23664,7 @@
       <c r="G830" s="3">
         <v>45958</v>
       </c>
-      <c r="H830" s="5">
+      <c r="H830" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -23693,7 +23690,7 @@
       <c r="G831" s="3">
         <v>45958</v>
       </c>
-      <c r="H831" s="5">
+      <c r="H831" s="1">
         <v>1140.3599999999999</v>
       </c>
     </row>
@@ -23719,7 +23716,7 @@
       <c r="G832" s="3">
         <v>45959</v>
       </c>
-      <c r="H832" s="5">
+      <c r="H832" s="1">
         <v>1488</v>
       </c>
     </row>
@@ -23745,7 +23742,7 @@
       <c r="G833" s="3">
         <v>45959</v>
       </c>
-      <c r="H833" s="5">
+      <c r="H833" s="1">
         <v>555.55999999999995</v>
       </c>
     </row>
@@ -23771,7 +23768,7 @@
       <c r="G834" s="3">
         <v>45959</v>
       </c>
-      <c r="H834" s="5">
+      <c r="H834" s="1">
         <v>558</v>
       </c>
     </row>
@@ -23797,7 +23794,7 @@
       <c r="G835" s="3">
         <v>45959</v>
       </c>
-      <c r="H835" s="5">
+      <c r="H835" s="1">
         <v>5276.14</v>
       </c>
     </row>
@@ -23823,7 +23820,7 @@
       <c r="G836" s="3">
         <v>45960</v>
       </c>
-      <c r="H836" s="5">
+      <c r="H836" s="1">
         <v>677</v>
       </c>
     </row>
@@ -23849,7 +23846,7 @@
       <c r="G837" s="3">
         <v>45960</v>
       </c>
-      <c r="H837" s="5">
+      <c r="H837" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -23875,7 +23872,7 @@
       <c r="G838" s="3">
         <v>45960</v>
       </c>
-      <c r="H838" s="5">
+      <c r="H838" s="1">
         <v>304.08999999999997</v>
       </c>
     </row>
@@ -23901,7 +23898,7 @@
       <c r="G839" s="3">
         <v>45960</v>
       </c>
-      <c r="H839" s="5">
+      <c r="H839" s="1">
         <v>1116</v>
       </c>
     </row>
@@ -23927,7 +23924,7 @@
       <c r="G840" s="3">
         <v>45960</v>
       </c>
-      <c r="H840" s="5">
+      <c r="H840" s="1">
         <v>936</v>
       </c>
     </row>
@@ -23953,7 +23950,7 @@
       <c r="G841" s="3">
         <v>45961</v>
       </c>
-      <c r="H841" s="5">
+      <c r="H841" s="1">
         <v>877.19</v>
       </c>
     </row>
@@ -23979,7 +23976,7 @@
       <c r="G842" s="3">
         <v>45961</v>
       </c>
-      <c r="H842" s="5">
+      <c r="H842" s="1">
         <v>1302</v>
       </c>
     </row>
@@ -24005,7 +24002,7 @@
       <c r="G843" s="3">
         <v>45961</v>
       </c>
-      <c r="H843" s="5">
+      <c r="H843" s="1">
         <v>9072</v>
       </c>
     </row>
@@ -24031,7 +24028,7 @@
       <c r="G844" s="3">
         <v>45961</v>
       </c>
-      <c r="H844" s="5">
+      <c r="H844" s="1">
         <v>331.6</v>
       </c>
     </row>
@@ -24057,7 +24054,7 @@
       <c r="G845" s="3">
         <v>45961</v>
       </c>
-      <c r="H845" s="5">
+      <c r="H845" s="1">
         <v>840</v>
       </c>
     </row>
@@ -24083,7 +24080,7 @@
       <c r="G846" s="3">
         <v>45961</v>
       </c>
-      <c r="H846" s="5">
+      <c r="H846" s="1">
         <v>190.99</v>
       </c>
     </row>
@@ -24109,7 +24106,7 @@
       <c r="G847" s="3">
         <v>45962</v>
       </c>
-      <c r="H847" s="5">
+      <c r="H847" s="1">
         <v>558</v>
       </c>
     </row>
@@ -24135,7 +24132,7 @@
       <c r="G848" s="3">
         <v>45962</v>
       </c>
-      <c r="H848" s="5">
+      <c r="H848" s="1">
         <v>558</v>
       </c>
     </row>
@@ -24161,7 +24158,7 @@
       <c r="G849" s="3">
         <v>45963</v>
       </c>
-      <c r="H849" s="5">
+      <c r="H849" s="1">
         <v>23166</v>
       </c>
     </row>
@@ -24187,7 +24184,7 @@
       <c r="G850" s="3">
         <v>45963</v>
       </c>
-      <c r="H850" s="5">
+      <c r="H850" s="1">
         <v>744</v>
       </c>
     </row>
@@ -24213,7 +24210,7 @@
       <c r="G851" s="3">
         <v>45963</v>
       </c>
-      <c r="H851" s="5">
+      <c r="H851" s="1">
         <v>126.34</v>
       </c>
     </row>
@@ -24239,7 +24236,7 @@
       <c r="G852" s="3">
         <v>45963</v>
       </c>
-      <c r="H852" s="5">
+      <c r="H852" s="1">
         <v>106.42</v>
       </c>
     </row>
@@ -24265,7 +24262,7 @@
       <c r="G853" s="3">
         <v>45963</v>
       </c>
-      <c r="H853" s="5">
+      <c r="H853" s="1">
         <v>90.72</v>
       </c>
     </row>
@@ -24291,7 +24288,7 @@
       <c r="G854" s="3">
         <v>45963</v>
       </c>
-      <c r="H854" s="5">
+      <c r="H854" s="1">
         <v>86.42</v>
       </c>
     </row>
@@ -24317,7 +24314,7 @@
       <c r="G855" s="3">
         <v>45964</v>
       </c>
-      <c r="H855" s="5">
+      <c r="H855" s="1">
         <v>608.17999999999995</v>
       </c>
     </row>
@@ -24343,7 +24340,7 @@
       <c r="G856" s="3">
         <v>45964</v>
       </c>
-      <c r="H856" s="5">
+      <c r="H856" s="1">
         <v>936</v>
       </c>
     </row>
@@ -24369,7 +24366,7 @@
       <c r="G857" s="3">
         <v>45964</v>
       </c>
-      <c r="H857" s="5">
+      <c r="H857" s="1">
         <v>3337.1</v>
       </c>
     </row>
@@ -24395,7 +24392,7 @@
       <c r="G858" s="3">
         <v>45964</v>
       </c>
-      <c r="H858" s="5">
+      <c r="H858" s="1">
         <v>793.28</v>
       </c>
     </row>
@@ -24421,7 +24418,7 @@
       <c r="G859" s="3">
         <v>45964</v>
       </c>
-      <c r="H859" s="5">
+      <c r="H859" s="1">
         <v>421</v>
       </c>
     </row>
@@ -24447,7 +24444,7 @@
       <c r="G860" s="3">
         <v>45964</v>
       </c>
-      <c r="H860" s="5">
+      <c r="H860" s="1">
         <v>1444.74</v>
       </c>
     </row>
@@ -24473,7 +24470,7 @@
       <c r="G861" s="3">
         <v>45964</v>
       </c>
-      <c r="H861" s="5">
+      <c r="H861" s="1">
         <v>8.76</v>
       </c>
     </row>
@@ -24499,7 +24496,7 @@
       <c r="G862" s="3">
         <v>45964</v>
       </c>
-      <c r="H862" s="5">
+      <c r="H862" s="1">
         <v>6.81</v>
       </c>
     </row>
@@ -24525,7 +24522,7 @@
       <c r="G863" s="3">
         <v>45964</v>
       </c>
-      <c r="H863" s="5">
+      <c r="H863" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -24551,7 +24548,7 @@
       <c r="G864" s="3">
         <v>45964</v>
       </c>
-      <c r="H864" s="5">
+      <c r="H864" s="1">
         <v>1114.8399999999999</v>
       </c>
     </row>
@@ -24577,7 +24574,7 @@
       <c r="G865" s="3">
         <v>45964</v>
       </c>
-      <c r="H865" s="5">
+      <c r="H865" s="1">
         <v>1788.3</v>
       </c>
     </row>
@@ -24603,7 +24600,7 @@
       <c r="G866" s="3">
         <v>45965</v>
       </c>
-      <c r="H866" s="5">
+      <c r="H866" s="1">
         <v>3053.7</v>
       </c>
     </row>
@@ -24629,7 +24626,7 @@
       <c r="G867" s="3">
         <v>45965</v>
       </c>
-      <c r="H867" s="5">
+      <c r="H867" s="1">
         <v>67.05</v>
       </c>
     </row>
@@ -24655,7 +24652,7 @@
       <c r="G868" s="3">
         <v>45965</v>
       </c>
-      <c r="H868" s="5">
+      <c r="H868" s="1">
         <v>63.6</v>
       </c>
     </row>
@@ -24681,7 +24678,7 @@
       <c r="G869" s="3">
         <v>45965</v>
       </c>
-      <c r="H869" s="5">
+      <c r="H869" s="1">
         <v>15.94</v>
       </c>
     </row>
@@ -24707,7 +24704,7 @@
       <c r="G870" s="3">
         <v>45965</v>
       </c>
-      <c r="H870" s="5">
+      <c r="H870" s="1">
         <v>9.9600000000000009</v>
       </c>
     </row>
@@ -24733,7 +24730,7 @@
       <c r="G871" s="3">
         <v>45965</v>
       </c>
-      <c r="H871" s="5">
+      <c r="H871" s="1">
         <v>10.92</v>
       </c>
     </row>
@@ -24759,7 +24756,7 @@
       <c r="G872" s="3">
         <v>45965</v>
       </c>
-      <c r="H872" s="5">
+      <c r="H872" s="1">
         <v>28.35</v>
       </c>
     </row>
@@ -24785,7 +24782,7 @@
       <c r="G873" s="3">
         <v>45965</v>
       </c>
-      <c r="H873" s="5">
+      <c r="H873" s="1">
         <v>881.29</v>
       </c>
     </row>
@@ -24811,7 +24808,7 @@
       <c r="G874" s="3">
         <v>45965</v>
       </c>
-      <c r="H874" s="5">
+      <c r="H874" s="1">
         <v>1520.48</v>
       </c>
     </row>
@@ -24837,7 +24834,7 @@
       <c r="G875" s="3">
         <v>45965</v>
       </c>
-      <c r="H875" s="5">
+      <c r="H875" s="1">
         <v>213.5</v>
       </c>
     </row>
@@ -24863,7 +24860,7 @@
       <c r="G876" s="3">
         <v>45965</v>
       </c>
-      <c r="H876" s="5">
+      <c r="H876" s="1">
         <v>1116</v>
       </c>
     </row>
@@ -24889,7 +24886,7 @@
       <c r="G877" s="3">
         <v>45965</v>
       </c>
-      <c r="H877" s="5">
+      <c r="H877" s="1">
         <v>4945.2700000000004</v>
       </c>
     </row>
@@ -24915,7 +24912,7 @@
       <c r="G878" s="3">
         <v>45965</v>
       </c>
-      <c r="H878" s="5">
+      <c r="H878" s="1">
         <v>41.46</v>
       </c>
     </row>
@@ -24941,7 +24938,7 @@
       <c r="G879" s="3">
         <v>45965</v>
       </c>
-      <c r="H879" s="5">
+      <c r="H879" s="1">
         <v>62.33</v>
       </c>
     </row>
@@ -24967,7 +24964,7 @@
       <c r="G880" s="3">
         <v>45965</v>
       </c>
-      <c r="H880" s="5">
+      <c r="H880" s="1">
         <v>91.21</v>
       </c>
     </row>
@@ -24993,7 +24990,7 @@
       <c r="G881" s="3">
         <v>45965</v>
       </c>
-      <c r="H881" s="5">
+      <c r="H881" s="1">
         <v>3.41</v>
       </c>
     </row>
@@ -25019,7 +25016,7 @@
       <c r="G882" s="3">
         <v>45965</v>
       </c>
-      <c r="H882" s="5">
+      <c r="H882" s="1">
         <v>12636</v>
       </c>
     </row>
@@ -25045,7 +25042,7 @@
       <c r="G883" s="3">
         <v>45966</v>
       </c>
-      <c r="H883" s="5">
+      <c r="H883" s="1">
         <v>1680</v>
       </c>
     </row>
@@ -25071,7 +25068,7 @@
       <c r="G884" s="3">
         <v>45966</v>
       </c>
-      <c r="H884" s="5">
+      <c r="H884" s="1">
         <v>763.94</v>
       </c>
     </row>
@@ -25097,7 +25094,7 @@
       <c r="G885" s="3">
         <v>45966</v>
       </c>
-      <c r="H885" s="5">
+      <c r="H885" s="1">
         <v>601.55999999999995</v>
       </c>
     </row>
@@ -25123,7 +25120,7 @@
       <c r="G886" s="3">
         <v>45966</v>
       </c>
-      <c r="H886" s="5">
+      <c r="H886" s="1">
         <v>10530</v>
       </c>
     </row>
@@ -25149,7 +25146,7 @@
       <c r="G887" s="3">
         <v>45966</v>
       </c>
-      <c r="H887" s="5">
+      <c r="H887" s="1">
         <v>3348</v>
       </c>
     </row>
@@ -25175,7 +25172,7 @@
       <c r="G888" s="3">
         <v>45967</v>
       </c>
-      <c r="H888" s="5">
+      <c r="H888" s="1">
         <v>527.52</v>
       </c>
     </row>
@@ -25201,7 +25198,7 @@
       <c r="G889" s="3">
         <v>45967</v>
       </c>
-      <c r="H889" s="5">
+      <c r="H889" s="1">
         <v>11088</v>
       </c>
     </row>
@@ -25227,7 +25224,7 @@
       <c r="G890" s="3">
         <v>45968</v>
       </c>
-      <c r="H890" s="5">
+      <c r="H890" s="1">
         <v>9.66</v>
       </c>
     </row>
@@ -25253,7 +25250,7 @@
       <c r="G891" s="3">
         <v>45968</v>
       </c>
-      <c r="H891" s="5">
+      <c r="H891" s="1">
         <v>73.59</v>
       </c>
     </row>
@@ -25279,7 +25276,7 @@
       <c r="G892" s="3">
         <v>45969</v>
       </c>
-      <c r="H892" s="5">
+      <c r="H892" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -25305,7 +25302,7 @@
       <c r="G893" s="3">
         <v>45970</v>
       </c>
-      <c r="H893" s="5">
+      <c r="H893" s="1">
         <v>300.69</v>
       </c>
     </row>
@@ -25331,7 +25328,7 @@
       <c r="G894" s="3">
         <v>45970</v>
       </c>
-      <c r="H894" s="5">
+      <c r="H894" s="1">
         <v>936</v>
       </c>
     </row>
@@ -25357,7 +25354,7 @@
       <c r="G895" s="3">
         <v>45971</v>
       </c>
-      <c r="H895" s="5">
+      <c r="H895" s="1">
         <v>468</v>
       </c>
     </row>
@@ -25383,7 +25380,7 @@
       <c r="G896" s="3">
         <v>45971</v>
       </c>
-      <c r="H896" s="5">
+      <c r="H896" s="1">
         <v>100.23</v>
       </c>
     </row>
@@ -25409,7 +25406,7 @@
       <c r="G897" s="3">
         <v>45971</v>
       </c>
-      <c r="H897" s="5">
+      <c r="H897" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -25435,7 +25432,7 @@
       <c r="G898" s="3">
         <v>45971</v>
       </c>
-      <c r="H898" s="5">
+      <c r="H898" s="1">
         <v>6318</v>
       </c>
     </row>
@@ -25461,7 +25458,7 @@
       <c r="G899" s="3">
         <v>45971</v>
       </c>
-      <c r="H899" s="5">
+      <c r="H899" s="1">
         <v>2232</v>
       </c>
     </row>
@@ -25487,7 +25484,7 @@
       <c r="G900" s="3">
         <v>45972</v>
       </c>
-      <c r="H900" s="5">
+      <c r="H900" s="1">
         <v>1520.48</v>
       </c>
     </row>
@@ -25513,7 +25510,7 @@
       <c r="G901" s="3">
         <v>45972</v>
       </c>
-      <c r="H901" s="5">
+      <c r="H901" s="1">
         <v>1251.51</v>
       </c>
     </row>
@@ -25539,7 +25536,7 @@
       <c r="G902" s="3">
         <v>45972</v>
       </c>
-      <c r="H902" s="5">
+      <c r="H902" s="1">
         <v>1256.32</v>
       </c>
     </row>
@@ -25565,7 +25562,7 @@
       <c r="G903" s="3">
         <v>45972</v>
       </c>
-      <c r="H903" s="5">
+      <c r="H903" s="1">
         <v>798.18</v>
       </c>
     </row>
@@ -25591,7 +25588,7 @@
       <c r="G904" s="3">
         <v>45972</v>
       </c>
-      <c r="H904" s="5">
+      <c r="H904" s="1">
         <v>1087.75</v>
       </c>
     </row>
@@ -25617,7 +25614,7 @@
       <c r="G905" s="3">
         <v>45972</v>
       </c>
-      <c r="H905" s="5">
+      <c r="H905" s="1">
         <v>1312</v>
       </c>
     </row>
@@ -25643,7 +25640,7 @@
       <c r="G906" s="3">
         <v>45972</v>
       </c>
-      <c r="H906" s="5">
+      <c r="H906" s="1">
         <v>308.52</v>
       </c>
     </row>
@@ -25669,7 +25666,7 @@
       <c r="G907" s="3">
         <v>45973</v>
       </c>
-      <c r="H907" s="5">
+      <c r="H907" s="1">
         <v>403.93</v>
       </c>
     </row>
@@ -25695,7 +25692,7 @@
       <c r="G908" s="3">
         <v>45974</v>
       </c>
-      <c r="H908" s="5">
+      <c r="H908" s="1">
         <v>3216.4</v>
       </c>
     </row>
@@ -25721,7 +25718,7 @@
       <c r="G909" s="3">
         <v>45974</v>
       </c>
-      <c r="H909" s="5">
+      <c r="H909" s="1">
         <v>926</v>
       </c>
     </row>
@@ -25747,7 +25744,7 @@
       <c r="G910" s="3">
         <v>45974</v>
       </c>
-      <c r="H910" s="5">
+      <c r="H910" s="1">
         <v>4484.51</v>
       </c>
     </row>
@@ -25773,7 +25770,7 @@
       <c r="G911" s="3">
         <v>45974</v>
       </c>
-      <c r="H911" s="5">
+      <c r="H911" s="1">
         <v>21.79</v>
       </c>
     </row>
@@ -25799,7 +25796,7 @@
       <c r="G912" s="3">
         <v>45974</v>
       </c>
-      <c r="H912" s="5">
+      <c r="H912" s="1">
         <v>265.70999999999998</v>
       </c>
     </row>
@@ -25825,7 +25822,7 @@
       <c r="G913" s="3">
         <v>45974</v>
       </c>
-      <c r="H913" s="5">
+      <c r="H913" s="1">
         <v>365.07</v>
       </c>
     </row>
@@ -25851,7 +25848,7 @@
       <c r="G914" s="3">
         <v>45974</v>
       </c>
-      <c r="H914" s="5">
+      <c r="H914" s="1">
         <v>1111.1199999999999</v>
       </c>
     </row>
@@ -25877,7 +25874,7 @@
       <c r="G915" s="3">
         <v>45974</v>
       </c>
-      <c r="H915" s="5">
+      <c r="H915" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -25903,7 +25900,7 @@
       <c r="G916" s="3">
         <v>45974</v>
       </c>
-      <c r="H916" s="5">
+      <c r="H916" s="1">
         <v>6318</v>
       </c>
     </row>
@@ -25929,7 +25926,7 @@
       <c r="G917" s="3">
         <v>45974</v>
       </c>
-      <c r="H917" s="5">
+      <c r="H917" s="1">
         <v>372</v>
       </c>
     </row>
@@ -25955,7 +25952,7 @@
       <c r="G918" s="3">
         <v>45975</v>
       </c>
-      <c r="H918" s="5">
+      <c r="H918" s="1">
         <v>1177.21</v>
       </c>
     </row>
@@ -25981,7 +25978,7 @@
       <c r="G919" s="3">
         <v>45975</v>
       </c>
-      <c r="H919" s="5">
+      <c r="H919" s="1">
         <v>5.79</v>
       </c>
     </row>
@@ -26007,7 +26004,7 @@
       <c r="G920" s="3">
         <v>45975</v>
       </c>
-      <c r="H920" s="5">
+      <c r="H920" s="1">
         <v>653.72</v>
       </c>
     </row>
@@ -26033,7 +26030,7 @@
       <c r="G921" s="3">
         <v>45975</v>
       </c>
-      <c r="H921" s="5">
+      <c r="H921" s="1">
         <v>148</v>
       </c>
     </row>
@@ -26059,7 +26056,7 @@
       <c r="G922" s="3">
         <v>45975</v>
       </c>
-      <c r="H922" s="5">
+      <c r="H922" s="1">
         <v>468</v>
       </c>
     </row>
@@ -26085,7 +26082,7 @@
       <c r="G923" s="3">
         <v>45976</v>
       </c>
-      <c r="H923" s="5">
+      <c r="H923" s="1">
         <v>3159</v>
       </c>
     </row>
@@ -26111,7 +26108,7 @@
       <c r="G924" s="3">
         <v>45977</v>
       </c>
-      <c r="H924" s="5">
+      <c r="H924" s="1">
         <v>3754.53</v>
       </c>
     </row>
@@ -26137,7 +26134,7 @@
       <c r="G925" s="3">
         <v>45977</v>
       </c>
-      <c r="H925" s="5">
+      <c r="H925" s="1">
         <v>1666.68</v>
       </c>
     </row>
@@ -26163,7 +26160,7 @@
       <c r="G926" s="3">
         <v>45977</v>
       </c>
-      <c r="H926" s="5">
+      <c r="H926" s="1">
         <v>2222.2399999999998</v>
       </c>
     </row>
@@ -26189,7 +26186,7 @@
       <c r="G927" s="3">
         <v>45977</v>
       </c>
-      <c r="H927" s="5">
+      <c r="H927" s="1">
         <v>760.24</v>
       </c>
     </row>
@@ -26215,7 +26212,7 @@
       <c r="G928" s="3">
         <v>45978</v>
       </c>
-      <c r="H928" s="5">
+      <c r="H928" s="1">
         <v>7440</v>
       </c>
     </row>
@@ -26241,7 +26238,7 @@
       <c r="G929" s="3">
         <v>45978</v>
       </c>
-      <c r="H929" s="5">
+      <c r="H929" s="1">
         <v>2106</v>
       </c>
     </row>
@@ -26267,7 +26264,7 @@
       <c r="G930" s="3">
         <v>45978</v>
       </c>
-      <c r="H930" s="5">
+      <c r="H930" s="1">
         <v>604.79999999999995</v>
       </c>
     </row>
@@ -26293,7 +26290,7 @@
       <c r="G931" s="3">
         <v>45979</v>
       </c>
-      <c r="H931" s="5">
+      <c r="H931" s="1">
         <v>372</v>
       </c>
     </row>
@@ -26319,7 +26316,7 @@
       <c r="G932" s="3">
         <v>45979</v>
       </c>
-      <c r="H932" s="5">
+      <c r="H932" s="1">
         <v>90.92</v>
       </c>
     </row>
@@ -26345,7 +26342,7 @@
       <c r="G933" s="3">
         <v>45979</v>
       </c>
-      <c r="H933" s="5">
+      <c r="H933" s="1">
         <v>468</v>
       </c>
     </row>
@@ -26371,7 +26368,7 @@
       <c r="G934" s="3">
         <v>45979</v>
       </c>
-      <c r="H934" s="5">
+      <c r="H934" s="1">
         <v>2281.5</v>
       </c>
     </row>
@@ -26397,7 +26394,7 @@
       <c r="G935" s="3">
         <v>45979</v>
       </c>
-      <c r="H935" s="5">
+      <c r="H935" s="1">
         <v>604.79999999999995</v>
       </c>
     </row>
@@ -26423,7 +26420,7 @@
       <c r="G936" s="3">
         <v>45979</v>
       </c>
-      <c r="H936" s="5">
+      <c r="H936" s="1">
         <v>131.88</v>
       </c>
     </row>
@@ -26449,7 +26446,7 @@
       <c r="G937" s="3">
         <v>45979</v>
       </c>
-      <c r="H937" s="5">
+      <c r="H937" s="1">
         <v>186.31</v>
       </c>
     </row>
@@ -26475,7 +26472,7 @@
       <c r="G938" s="3">
         <v>45980</v>
       </c>
-      <c r="H938" s="5">
+      <c r="H938" s="1">
         <v>2100</v>
       </c>
     </row>
@@ -26501,7 +26498,7 @@
       <c r="G939" s="3">
         <v>45980</v>
       </c>
-      <c r="H939" s="5">
+      <c r="H939" s="1">
         <v>2106</v>
       </c>
     </row>
@@ -26527,7 +26524,7 @@
       <c r="G940" s="3">
         <v>45980</v>
       </c>
-      <c r="H940" s="5">
+      <c r="H940" s="1">
         <v>604.79999999999995</v>
       </c>
     </row>
@@ -26553,7 +26550,7 @@
       <c r="G941" s="3">
         <v>45980</v>
       </c>
-      <c r="H941" s="5">
+      <c r="H941" s="1">
         <v>17.18</v>
       </c>
     </row>
@@ -26579,7 +26576,7 @@
       <c r="G942" s="3">
         <v>45980</v>
       </c>
-      <c r="H942" s="5">
+      <c r="H942" s="1">
         <v>2311.7399999999998</v>
       </c>
     </row>
@@ -26605,7 +26602,7 @@
       <c r="G943" s="3">
         <v>45981</v>
       </c>
-      <c r="H943" s="5">
+      <c r="H943" s="1">
         <v>1081.1199999999999</v>
       </c>
     </row>
@@ -26631,7 +26628,7 @@
       <c r="G944" s="3">
         <v>45981</v>
       </c>
-      <c r="H944" s="5">
+      <c r="H944" s="1">
         <v>2889.48</v>
       </c>
     </row>
@@ -26657,7 +26654,7 @@
       <c r="G945" s="3">
         <v>45981</v>
       </c>
-      <c r="H945" s="5">
+      <c r="H945" s="1">
         <v>2281.5</v>
       </c>
     </row>
@@ -26683,7 +26680,7 @@
       <c r="G946" s="3">
         <v>45981</v>
       </c>
-      <c r="H946" s="5">
+      <c r="H946" s="1">
         <v>604.79999999999995</v>
       </c>
     </row>
@@ -26709,7 +26706,7 @@
       <c r="G947" s="3">
         <v>45981</v>
       </c>
-      <c r="H947" s="5">
+      <c r="H947" s="1">
         <v>468</v>
       </c>
     </row>
@@ -26735,7 +26732,7 @@
       <c r="G948" s="3">
         <v>45981</v>
       </c>
-      <c r="H948" s="5">
+      <c r="H948" s="1">
         <v>421</v>
       </c>
     </row>
@@ -26761,7 +26758,7 @@
       <c r="G949" s="3">
         <v>45981</v>
       </c>
-      <c r="H949" s="5">
+      <c r="H949" s="1">
         <v>361.39</v>
       </c>
     </row>
@@ -26787,7 +26784,7 @@
       <c r="G950" s="3">
         <v>45982</v>
       </c>
-      <c r="H950" s="5">
+      <c r="H950" s="1">
         <v>78.010000000000005</v>
       </c>
     </row>
@@ -26813,7 +26810,7 @@
       <c r="G951" s="3">
         <v>45982</v>
       </c>
-      <c r="H951" s="5">
+      <c r="H951" s="1">
         <v>11.32</v>
       </c>
     </row>
@@ -26839,7 +26836,7 @@
       <c r="G952" s="3">
         <v>45982</v>
       </c>
-      <c r="H952" s="5">
+      <c r="H952" s="1">
         <v>26</v>
       </c>
     </row>
@@ -26865,7 +26862,7 @@
       <c r="G953" s="3">
         <v>45982</v>
       </c>
-      <c r="H953" s="5">
+      <c r="H953" s="1">
         <v>1009.1</v>
       </c>
     </row>
@@ -26891,7 +26888,7 @@
       <c r="G954" s="3">
         <v>45982</v>
       </c>
-      <c r="H954" s="5">
+      <c r="H954" s="1">
         <v>3275.36</v>
       </c>
     </row>
@@ -26917,7 +26914,7 @@
       <c r="G955" s="3">
         <v>45982</v>
       </c>
-      <c r="H955" s="5">
+      <c r="H955" s="1">
         <v>2281.5</v>
       </c>
     </row>
@@ -26943,7 +26940,7 @@
       <c r="G956" s="3">
         <v>45982</v>
       </c>
-      <c r="H956" s="5">
+      <c r="H956" s="1">
         <v>604.79999999999995</v>
       </c>
     </row>
@@ -26969,7 +26966,7 @@
       <c r="G957" s="3">
         <v>45982</v>
       </c>
-      <c r="H957" s="5">
+      <c r="H957" s="1">
         <v>3467.61</v>
       </c>
     </row>
@@ -26995,7 +26992,7 @@
       <c r="G958" s="3">
         <v>45982</v>
       </c>
-      <c r="H958" s="5">
+      <c r="H958" s="1">
         <v>413.18</v>
       </c>
     </row>
@@ -27021,7 +27018,7 @@
       <c r="G959" s="3">
         <v>45982</v>
       </c>
-      <c r="H959" s="5">
+      <c r="H959" s="1">
         <v>1583.35</v>
       </c>
     </row>
@@ -27047,7 +27044,7 @@
       <c r="G960" s="3">
         <v>45982</v>
       </c>
-      <c r="H960" s="5">
+      <c r="H960" s="1">
         <v>2790</v>
       </c>
     </row>
@@ -27073,7 +27070,7 @@
       <c r="G961" s="3">
         <v>45982</v>
       </c>
-      <c r="H961" s="5">
+      <c r="H961" s="1">
         <v>90.22</v>
       </c>
     </row>
@@ -27099,7 +27096,7 @@
       <c r="G962" s="3">
         <v>45982</v>
       </c>
-      <c r="H962" s="5">
+      <c r="H962" s="1">
         <v>8.56</v>
       </c>
     </row>
@@ -27125,7 +27122,7 @@
       <c r="G963" s="3">
         <v>45983</v>
       </c>
-      <c r="H963" s="5">
+      <c r="H963" s="1">
         <v>2106.12</v>
       </c>
     </row>
@@ -27151,7 +27148,7 @@
       <c r="G964" s="3">
         <v>45983</v>
       </c>
-      <c r="H964" s="5">
+      <c r="H964" s="1">
         <v>604.80999999999995</v>
       </c>
     </row>
@@ -27177,7 +27174,7 @@
       <c r="G965" s="3">
         <v>45983</v>
       </c>
-      <c r="H965" s="5">
+      <c r="H965" s="1">
         <v>4088.98</v>
       </c>
     </row>
@@ -27203,7 +27200,7 @@
       <c r="G966" s="3">
         <v>45983</v>
       </c>
-      <c r="H966" s="5">
+      <c r="H966" s="1">
         <v>1666.68</v>
       </c>
     </row>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/WeeklyInsights/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="393" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F7F6122-ED91-4DDF-A90B-D9B4B2FB20BF}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05842763-AF23-419D-A606-C1EF104D4A80}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$966</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$996</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5419" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5614" uniqueCount="561">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -1664,13 +1664,64 @@
     <t>10018.004 RENISHAW LINEAR ENCODER</t>
   </si>
   <si>
-    <t>PTS-1071 TW.50.15.FI.0S.151.00 X2637</t>
-  </si>
-  <si>
     <t>Wk47</t>
   </si>
   <si>
     <t>65pcs</t>
+  </si>
+  <si>
+    <t>XS-PTS-0360</t>
+  </si>
+  <si>
+    <t>10300.139 DC POWER SUPPLY 24VDC 20 AMP</t>
+  </si>
+  <si>
+    <t>26/11/2025</t>
+  </si>
+  <si>
+    <t>XS-PTS-0199</t>
+  </si>
+  <si>
+    <t>27/11/2025</t>
+  </si>
+  <si>
+    <t>PTS-1063 TW.50.1A.FI.0S.124.01 _ Aligner</t>
+  </si>
+  <si>
+    <t>160pcs</t>
+  </si>
+  <si>
+    <t>PTS-1087 X2637 TW.50.1A.FI.0S.123.02 Vac</t>
+  </si>
+  <si>
+    <t>28/11/2025</t>
+  </si>
+  <si>
+    <t>25 Ways Signal Connector Cable (100M)</t>
+  </si>
+  <si>
+    <t>1roll</t>
+  </si>
+  <si>
+    <t>PTS-1140 6K-9090-HS02 HPS LF Aligner</t>
+  </si>
+  <si>
+    <t>420pcs</t>
+  </si>
+  <si>
+    <t>29/11/2025</t>
+  </si>
+  <si>
+    <t>210pcs</t>
+  </si>
+  <si>
+    <t>PTS-1136 300-001519-015 Semiconductor</t>
+  </si>
+  <si>
+    <t>2800pcs</t>
+  </si>
+  <si>
+    <t>Wk48</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1728,6 +1779,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1744,10 +1798,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2067,11 +2117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J966"/>
+  <dimension ref="A1:J996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A945" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A960" sqref="A960"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2113,7 +2162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>182</v>
       </c>
@@ -2139,7 +2188,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>182</v>
       </c>
@@ -2165,7 +2214,7 @@
         <v>4444.4799999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>182</v>
       </c>
@@ -2191,7 +2240,7 @@
         <v>78.62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>182</v>
       </c>
@@ -2217,7 +2266,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>182</v>
       </c>
@@ -2243,7 +2292,7 @@
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>182</v>
       </c>
@@ -2269,7 +2318,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>182</v>
       </c>
@@ -2295,7 +2344,7 @@
         <v>65.959999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>182</v>
       </c>
@@ -2321,7 +2370,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>182</v>
       </c>
@@ -2347,7 +2396,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>182</v>
       </c>
@@ -2373,7 +2422,7 @@
         <v>29.46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>182</v>
       </c>
@@ -2399,7 +2448,7 @@
         <v>513.29999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
@@ -2425,7 +2474,7 @@
         <v>119.16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
@@ -2451,7 +2500,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
@@ -2477,7 +2526,7 @@
         <v>71.92</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>93</v>
       </c>
@@ -2503,7 +2552,7 @@
         <v>1311.72</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>93</v>
       </c>
@@ -2529,7 +2578,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -2555,7 +2604,7 @@
         <v>1983.2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>93</v>
       </c>
@@ -2581,7 +2630,7 @@
         <v>135.30000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
@@ -2607,7 +2656,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
@@ -2633,7 +2682,7 @@
         <v>760.24</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
@@ -2659,7 +2708,7 @@
         <v>1251.51</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
@@ -2685,7 +2734,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -2711,7 +2760,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
@@ -2737,7 +2786,7 @@
         <v>29.04</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
@@ -2763,7 +2812,7 @@
         <v>13.81</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>93</v>
       </c>
@@ -2789,7 +2838,7 @@
         <v>64.349999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
@@ -2815,7 +2864,7 @@
         <v>800.51</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>93</v>
       </c>
@@ -2841,7 +2890,7 @@
         <v>43.95</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
@@ -2867,7 +2916,7 @@
         <v>134.19999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>93</v>
       </c>
@@ -2893,7 +2942,7 @@
         <v>18.05</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>93</v>
       </c>
@@ -2919,7 +2968,7 @@
         <v>32.96</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>93</v>
       </c>
@@ -2945,7 +2994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>93</v>
       </c>
@@ -2971,7 +3020,7 @@
         <v>172.66</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
@@ -2997,7 +3046,7 @@
         <v>769.95</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>93</v>
       </c>
@@ -3023,7 +3072,7 @@
         <v>1539.9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>93</v>
       </c>
@@ -3049,7 +3098,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>93</v>
       </c>
@@ -3075,7 +3124,7 @@
         <v>8548.4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>93</v>
       </c>
@@ -3101,7 +3150,7 @@
         <v>13348.4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>93</v>
       </c>
@@ -3127,7 +3176,7 @@
         <v>1827.2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>93</v>
       </c>
@@ -3153,7 +3202,7 @@
         <v>1489.57</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>93</v>
       </c>
@@ -3179,7 +3228,7 @@
         <v>4836</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>93</v>
       </c>
@@ -3205,7 +3254,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>93</v>
       </c>
@@ -3231,7 +3280,7 @@
         <v>18.05</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -3257,7 +3306,7 @@
         <v>145.19</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
@@ -3283,7 +3332,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
@@ -3309,7 +3358,7 @@
         <v>1075.28</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>93</v>
       </c>
@@ -3335,7 +3384,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>93</v>
       </c>
@@ -3361,7 +3410,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>118</v>
       </c>
@@ -3387,7 +3436,7 @@
         <v>74.87</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
@@ -3413,7 +3462,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>118</v>
       </c>
@@ -3439,7 +3488,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>118</v>
       </c>
@@ -3465,7 +3514,7 @@
         <v>13.53</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>118</v>
       </c>
@@ -3491,7 +3540,7 @@
         <v>257.2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>118</v>
       </c>
@@ -3517,7 +3566,7 @@
         <v>214.3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>118</v>
       </c>
@@ -3543,7 +3592,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>118</v>
       </c>
@@ -3569,7 +3618,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
@@ -3595,7 +3644,7 @@
         <v>91.88</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>118</v>
       </c>
@@ -3621,7 +3670,7 @@
         <v>621.36</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -3647,7 +3696,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>118</v>
       </c>
@@ -3673,7 +3722,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>118</v>
       </c>
@@ -3699,7 +3748,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>118</v>
       </c>
@@ -3725,7 +3774,7 @@
         <v>210.07</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>118</v>
       </c>
@@ -3751,7 +3800,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>118</v>
       </c>
@@ -3777,7 +3826,7 @@
         <v>406.2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>118</v>
       </c>
@@ -3803,7 +3852,7 @@
         <v>9672</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>118</v>
       </c>
@@ -3829,7 +3878,7 @@
         <v>263.76</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>118</v>
       </c>
@@ -3855,7 +3904,7 @@
         <v>319.26</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>118</v>
       </c>
@@ -3881,7 +3930,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>118</v>
       </c>
@@ -3907,7 +3956,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>118</v>
       </c>
@@ -3933,7 +3982,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>118</v>
       </c>
@@ -3959,7 +4008,7 @@
         <v>210.07</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>118</v>
       </c>
@@ -3985,7 +4034,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>118</v>
       </c>
@@ -4011,7 +4060,7 @@
         <v>362.88</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>131</v>
       </c>
@@ -4038,7 +4087,7 @@
       </c>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>131</v>
       </c>
@@ -4064,7 +4113,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>131</v>
       </c>
@@ -4090,7 +4139,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>131</v>
       </c>
@@ -4116,7 +4165,7 @@
         <v>2777.8</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>131</v>
       </c>
@@ -4142,7 +4191,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>131</v>
       </c>
@@ -4168,7 +4217,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>131</v>
       </c>
@@ -4194,7 +4243,7 @@
         <v>68.91</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>131</v>
       </c>
@@ -4220,7 +4269,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>131</v>
       </c>
@@ -4246,7 +4295,7 @@
         <v>283.72000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>131</v>
       </c>
@@ -4272,7 +4321,7 @@
         <v>210.6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>131</v>
       </c>
@@ -4298,7 +4347,7 @@
         <v>161.28</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>131</v>
       </c>
@@ -4324,7 +4373,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>131</v>
       </c>
@@ -4350,7 +4399,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>131</v>
       </c>
@@ -4376,7 +4425,7 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>131</v>
       </c>
@@ -4402,7 +4451,7 @@
         <v>124.7</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>131</v>
       </c>
@@ -4428,7 +4477,7 @@
         <v>327.35000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>131</v>
       </c>
@@ -4454,7 +4503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>131</v>
       </c>
@@ -4480,7 +4529,7 @@
         <v>631.79999999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>131</v>
       </c>
@@ -4506,7 +4555,7 @@
         <v>282.24</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>131</v>
       </c>
@@ -4532,7 +4581,7 @@
         <v>123.1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>131</v>
       </c>
@@ -4558,7 +4607,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>131</v>
       </c>
@@ -4584,7 +4633,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>131</v>
       </c>
@@ -4610,7 +4659,7 @@
         <v>443.52</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>131</v>
       </c>
@@ -4636,7 +4685,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>131</v>
       </c>
@@ -4662,7 +4711,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>131</v>
       </c>
@@ -4688,7 +4737,7 @@
         <v>120.96</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>131</v>
       </c>
@@ -4714,7 +4763,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>131</v>
       </c>
@@ -4740,7 +4789,7 @@
         <v>288.95</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>131</v>
       </c>
@@ -4766,7 +4815,7 @@
         <v>234.28</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>131</v>
       </c>
@@ -4792,7 +4841,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>131</v>
       </c>
@@ -4818,7 +4867,7 @@
         <v>406.2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>131</v>
       </c>
@@ -4844,7 +4893,7 @@
         <v>842.4</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>131</v>
       </c>
@@ -4870,7 +4919,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>131</v>
       </c>
@@ -4896,7 +4945,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>156</v>
       </c>
@@ -4922,7 +4971,7 @@
         <v>51.86</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>156</v>
       </c>
@@ -4948,7 +4997,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>156</v>
       </c>
@@ -4974,7 +5023,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>156</v>
       </c>
@@ -5000,7 +5049,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>156</v>
       </c>
@@ -5026,7 +5075,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>156</v>
       </c>
@@ -5052,7 +5101,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>156</v>
       </c>
@@ -5078,7 +5127,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>156</v>
       </c>
@@ -5104,7 +5153,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>156</v>
       </c>
@@ -5130,7 +5179,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>156</v>
       </c>
@@ -5156,7 +5205,7 @@
         <v>420.14</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>156</v>
       </c>
@@ -5182,7 +5231,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>156</v>
       </c>
@@ -5208,7 +5257,7 @@
         <v>68.91</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>156</v>
       </c>
@@ -5234,7 +5283,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>156</v>
       </c>
@@ -5260,7 +5309,7 @@
         <v>362.88</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>156</v>
       </c>
@@ -5286,7 +5335,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>156</v>
       </c>
@@ -5312,7 +5361,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>156</v>
       </c>
@@ -5338,7 +5387,7 @@
         <v>1251.51</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>156</v>
       </c>
@@ -5364,7 +5413,7 @@
         <v>207.12</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>156</v>
       </c>
@@ -5390,7 +5439,7 @@
         <v>220.49</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>156</v>
       </c>
@@ -5416,7 +5465,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>156</v>
       </c>
@@ -5442,7 +5491,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>156</v>
       </c>
@@ -5468,7 +5517,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>156</v>
       </c>
@@ -5494,7 +5543,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>156</v>
       </c>
@@ -5520,7 +5569,7 @@
         <v>282.24</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>156</v>
       </c>
@@ -5546,7 +5595,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>156</v>
       </c>
@@ -5572,7 +5621,7 @@
         <v>304.08999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>156</v>
       </c>
@@ -5598,7 +5647,7 @@
         <v>2777.8</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>156</v>
       </c>
@@ -5624,7 +5673,7 @@
         <v>842.4</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>156</v>
       </c>
@@ -5650,7 +5699,7 @@
         <v>322.56</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>156</v>
       </c>
@@ -5676,7 +5725,7 @@
         <v>3018.87</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>156</v>
       </c>
@@ -5702,7 +5751,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>156</v>
       </c>
@@ -5728,7 +5777,7 @@
         <v>877.19</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>156</v>
       </c>
@@ -5754,7 +5803,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>156</v>
       </c>
@@ -5780,7 +5829,7 @@
         <v>161.28</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>156</v>
       </c>
@@ -5806,7 +5855,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
@@ -5832,7 +5881,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>156</v>
       </c>
@@ -5858,7 +5907,7 @@
         <v>3018.87</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>156</v>
       </c>
@@ -5884,7 +5933,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>156</v>
       </c>
@@ -5910,7 +5959,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>181</v>
       </c>
@@ -5936,7 +5985,7 @@
         <v>53.36</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>181</v>
       </c>
@@ -5962,7 +6011,7 @@
         <v>51.84</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>181</v>
       </c>
@@ -5988,7 +6037,7 @@
         <v>252.01</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>181</v>
       </c>
@@ -6014,7 +6063,7 @@
         <v>4945.2700000000004</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>181</v>
       </c>
@@ -6040,7 +6089,7 @@
         <v>189.47</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>181</v>
       </c>
@@ -6066,7 +6115,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>181</v>
       </c>
@@ -6092,7 +6141,7 @@
         <v>322.56</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>181</v>
       </c>
@@ -6118,7 +6167,7 @@
         <v>3333.36</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>181</v>
       </c>
@@ -6144,7 +6193,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>181</v>
       </c>
@@ -6170,7 +6219,7 @@
         <v>125.69</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>181</v>
       </c>
@@ -6196,7 +6245,7 @@
         <v>5055.03</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>181</v>
       </c>
@@ -6222,7 +6271,7 @@
         <v>161.28</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>181</v>
       </c>
@@ -6248,7 +6297,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>181</v>
       </c>
@@ -6274,7 +6323,7 @@
         <v>161.28</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>181</v>
       </c>
@@ -6300,7 +6349,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>181</v>
       </c>
@@ -6326,7 +6375,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>181</v>
       </c>
@@ -6352,7 +6401,7 @@
         <v>340.11</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>181</v>
       </c>
@@ -6378,7 +6427,7 @@
         <v>80.64</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>181</v>
       </c>
@@ -6404,7 +6453,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>181</v>
       </c>
@@ -6430,7 +6479,7 @@
         <v>440.98</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>181</v>
       </c>
@@ -6456,7 +6505,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
@@ -6482,7 +6531,7 @@
         <v>282.24</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>181</v>
       </c>
@@ -6508,7 +6557,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>181</v>
       </c>
@@ -6534,7 +6583,7 @@
         <v>210.6</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>181</v>
       </c>
@@ -6560,7 +6609,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>181</v>
       </c>
@@ -6586,7 +6635,7 @@
         <v>420.14</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>181</v>
       </c>
@@ -6612,7 +6661,7 @@
         <v>381.97</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>181</v>
       </c>
@@ -6638,7 +6687,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>181</v>
       </c>
@@ -6664,7 +6713,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>181</v>
       </c>
@@ -6690,7 +6739,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>181</v>
       </c>
@@ -6716,7 +6765,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>181</v>
       </c>
@@ -6742,7 +6791,7 @@
         <v>5778.96</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
@@ -6768,7 +6817,7 @@
         <v>8857.99</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>181</v>
       </c>
@@ -6794,7 +6843,7 @@
         <v>282.24</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
@@ -6820,7 +6869,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>181</v>
       </c>
@@ -6846,7 +6895,7 @@
         <v>1140.3599999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>181</v>
       </c>
@@ -6872,7 +6921,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>181</v>
       </c>
@@ -6898,7 +6947,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>181</v>
       </c>
@@ -6924,7 +6973,7 @@
         <v>221.76</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>181</v>
       </c>
@@ -6950,7 +6999,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>181</v>
       </c>
@@ -6976,7 +7025,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>181</v>
       </c>
@@ -7002,7 +7051,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>181</v>
       </c>
@@ -7028,7 +7077,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>183</v>
       </c>
@@ -7054,7 +7103,7 @@
         <v>221.76</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>183</v>
       </c>
@@ -7080,7 +7129,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>183</v>
       </c>
@@ -7106,7 +7155,7 @@
         <v>982.8</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>183</v>
       </c>
@@ -7132,7 +7181,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>183</v>
       </c>
@@ -7158,7 +7207,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>183</v>
       </c>
@@ -7184,7 +7233,7 @@
         <v>79.56</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>183</v>
       </c>
@@ -7210,7 +7259,7 @@
         <v>439.07</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>183</v>
       </c>
@@ -7236,7 +7285,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>183</v>
       </c>
@@ -7262,7 +7311,7 @@
         <v>2334.27</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>183</v>
       </c>
@@ -7288,7 +7337,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>183</v>
       </c>
@@ -7314,7 +7363,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>183</v>
       </c>
@@ -7340,7 +7389,7 @@
         <v>982.8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>183</v>
       </c>
@@ -7366,7 +7415,7 @@
         <v>1617.86</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>183</v>
       </c>
@@ -7392,7 +7441,7 @@
         <v>378.94</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>183</v>
       </c>
@@ -7418,7 +7467,7 @@
         <v>106.42</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>183</v>
       </c>
@@ -7444,7 +7493,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>183</v>
       </c>
@@ -7470,7 +7519,7 @@
         <v>106.75</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>183</v>
       </c>
@@ -7496,7 +7545,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>183</v>
       </c>
@@ -7522,7 +7571,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>183</v>
       </c>
@@ -7548,7 +7597,7 @@
         <v>189.47</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>183</v>
       </c>
@@ -7574,7 +7623,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>183</v>
       </c>
@@ -7600,7 +7649,7 @@
         <v>1474.2</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>183</v>
       </c>
@@ -7626,7 +7675,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>183</v>
       </c>
@@ -7652,7 +7701,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>183</v>
       </c>
@@ -7678,7 +7727,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>183</v>
       </c>
@@ -7704,7 +7753,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>183</v>
       </c>
@@ -7730,7 +7779,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>183</v>
       </c>
@@ -7756,7 +7805,7 @@
         <v>162.71</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>183</v>
       </c>
@@ -7782,7 +7831,7 @@
         <v>68.91</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>183</v>
       </c>
@@ -7808,7 +7857,7 @@
         <v>364.95</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>183</v>
       </c>
@@ -7834,7 +7883,7 @@
         <v>114.85</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>183</v>
       </c>
@@ -7860,7 +7909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>183</v>
       </c>
@@ -7886,7 +7935,7 @@
         <v>1333.8</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>183</v>
       </c>
@@ -7912,7 +7961,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>183</v>
       </c>
@@ -7938,7 +7987,7 @@
         <v>772.2</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>183</v>
       </c>
@@ -7964,7 +8013,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>183</v>
       </c>
@@ -7990,7 +8039,7 @@
         <v>123.1</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>183</v>
       </c>
@@ -8016,7 +8065,7 @@
         <v>1895.4</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>234</v>
       </c>
@@ -8042,7 +8091,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>234</v>
       </c>
@@ -8068,7 +8117,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>234</v>
       </c>
@@ -8094,7 +8143,7 @@
         <v>1251.51</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>234</v>
       </c>
@@ -8120,7 +8169,7 @@
         <v>1684.8</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>234</v>
       </c>
@@ -8146,7 +8195,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>234</v>
       </c>
@@ -8172,7 +8221,7 @@
         <v>11.66</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>234</v>
       </c>
@@ -8198,7 +8247,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
@@ -8224,7 +8273,7 @@
         <v>198.21</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>234</v>
       </c>
@@ -8250,7 +8299,7 @@
         <v>28.76</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>234</v>
       </c>
@@ -8276,7 +8325,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>234</v>
       </c>
@@ -8302,7 +8351,7 @@
         <v>172.57</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>234</v>
       </c>
@@ -8328,7 +8377,7 @@
         <v>388.24</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>234</v>
       </c>
@@ -8354,7 +8403,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>234</v>
       </c>
@@ -8380,7 +8429,7 @@
         <v>34.21</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>234</v>
       </c>
@@ -8406,7 +8455,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>234</v>
       </c>
@@ -8432,7 +8481,7 @@
         <v>1913.44</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>234</v>
       </c>
@@ -8458,7 +8507,7 @@
         <v>372.62</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>234</v>
       </c>
@@ -8484,7 +8533,7 @@
         <v>438.6</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>234</v>
       </c>
@@ -8510,7 +8559,7 @@
         <v>3888.92</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>234</v>
       </c>
@@ -8536,7 +8585,7 @@
         <v>1123.2</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>234</v>
       </c>
@@ -8562,7 +8611,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>234</v>
       </c>
@@ -8588,7 +8637,7 @@
         <v>331.6</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>234</v>
       </c>
@@ -8614,7 +8663,7 @@
         <v>381.97</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>234</v>
       </c>
@@ -8640,7 +8689,7 @@
         <v>982.8</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>234</v>
       </c>
@@ -8666,7 +8715,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>234</v>
       </c>
@@ -8692,7 +8741,7 @@
         <v>210.6</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>234</v>
       </c>
@@ -8718,7 +8767,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>234</v>
       </c>
@@ -8744,7 +8793,7 @@
         <v>210.6</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>234</v>
       </c>
@@ -8770,7 +8819,7 @@
         <v>912.6</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>234</v>
       </c>
@@ -8796,7 +8845,7 @@
         <v>9791.43</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>234</v>
       </c>
@@ -8822,7 +8871,7 @@
         <v>12792</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>234</v>
       </c>
@@ -8848,7 +8897,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>234</v>
       </c>
@@ -8874,7 +8923,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>234</v>
       </c>
@@ -8900,7 +8949,7 @@
         <v>13.19</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>234</v>
       </c>
@@ -8926,7 +8975,7 @@
         <v>369.3</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>234</v>
       </c>
@@ -8952,7 +9001,7 @@
         <v>491.1</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>261</v>
       </c>
@@ -8978,7 +9027,7 @@
         <v>81.319999999999993</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>261</v>
       </c>
@@ -9004,7 +9053,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>261</v>
       </c>
@@ -9030,7 +9079,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>261</v>
       </c>
@@ -9056,7 +9105,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>261</v>
       </c>
@@ -9082,7 +9131,7 @@
         <v>772.2</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>261</v>
       </c>
@@ -9108,7 +9157,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>261</v>
       </c>
@@ -9134,7 +9183,7 @@
         <v>471.72</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>261</v>
       </c>
@@ -9160,7 +9209,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>261</v>
       </c>
@@ -9186,7 +9235,7 @@
         <v>947.7</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>261</v>
       </c>
@@ -9212,7 +9261,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>261</v>
       </c>
@@ -9238,7 +9287,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>261</v>
       </c>
@@ -9264,7 +9313,7 @@
         <v>1155.8699999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>261</v>
       </c>
@@ -9290,7 +9339,7 @@
         <v>680.22</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>261</v>
       </c>
@@ -9316,7 +9365,7 @@
         <v>947.7</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>261</v>
       </c>
@@ -9342,7 +9391,7 @@
         <v>812.4</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>261</v>
       </c>
@@ -9368,7 +9417,7 @@
         <v>383.04</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>261</v>
       </c>
@@ -9394,7 +9443,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>261</v>
       </c>
@@ -9420,7 +9469,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>261</v>
       </c>
@@ -9446,7 +9495,7 @@
         <v>1754.38</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>261</v>
       </c>
@@ -9472,7 +9521,7 @@
         <v>2301.8000000000002</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>261</v>
       </c>
@@ -9498,7 +9547,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>261</v>
       </c>
@@ -9524,7 +9573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>261</v>
       </c>
@@ -9550,7 +9599,7 @@
         <v>18.18</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>261</v>
       </c>
@@ -9576,7 +9625,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>261</v>
       </c>
@@ -9602,7 +9651,7 @@
         <v>26.68</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>261</v>
       </c>
@@ -9628,7 +9677,7 @@
         <v>949.7</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>261</v>
       </c>
@@ -9654,7 +9703,7 @@
         <v>491.4</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>261</v>
       </c>
@@ -9680,7 +9729,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>261</v>
       </c>
@@ -9706,7 +9755,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>261</v>
       </c>
@@ -9732,7 +9781,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>261</v>
       </c>
@@ -9758,7 +9807,7 @@
         <v>650.05999999999995</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>261</v>
       </c>
@@ -9784,7 +9833,7 @@
         <v>382.69</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>261</v>
       </c>
@@ -9810,7 +9859,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>261</v>
       </c>
@@ -9836,7 +9885,7 @@
         <v>9890.5300000000007</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>261</v>
       </c>
@@ -9862,7 +9911,7 @@
         <v>425.68</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>261</v>
       </c>
@@ -9888,7 +9937,7 @@
         <v>263.76</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>261</v>
       </c>
@@ -9914,7 +9963,7 @@
         <v>491.4</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>261</v>
       </c>
@@ -9940,7 +9989,7 @@
         <v>326.86</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>261</v>
       </c>
@@ -9966,7 +10015,7 @@
         <v>217.55</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>261</v>
       </c>
@@ -9992,7 +10041,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>261</v>
       </c>
@@ -10018,7 +10067,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>261</v>
       </c>
@@ -10044,7 +10093,7 @@
         <v>912.6</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>261</v>
       </c>
@@ -10070,7 +10119,7 @@
         <v>78.62</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>261</v>
       </c>
@@ -10096,7 +10145,7 @@
         <v>123.1</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>261</v>
       </c>
@@ -10122,7 +10171,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>261</v>
       </c>
@@ -10148,7 +10197,7 @@
         <v>1155.8699999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>261</v>
       </c>
@@ -10174,7 +10223,7 @@
         <v>38.53</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>261</v>
       </c>
@@ -10200,7 +10249,7 @@
         <v>1079.4000000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>261</v>
       </c>
@@ -10226,7 +10275,7 @@
         <v>877.5</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>261</v>
       </c>
@@ -10252,7 +10301,7 @@
         <v>380.12</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>261</v>
       </c>
@@ -10278,7 +10327,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>261</v>
       </c>
@@ -10304,7 +10353,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>261</v>
       </c>
@@ -10330,7 +10379,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>261</v>
       </c>
@@ -10356,7 +10405,7 @@
         <v>80.64</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>294</v>
       </c>
@@ -10382,7 +10431,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>294</v>
       </c>
@@ -10408,7 +10457,7 @@
         <v>1368.9</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>294</v>
       </c>
@@ -10434,7 +10483,7 @@
         <v>362.88</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>294</v>
       </c>
@@ -10460,7 +10509,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>294</v>
       </c>
@@ -10486,7 +10535,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>294</v>
       </c>
@@ -10512,7 +10561,7 @@
         <v>204.68</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>294</v>
       </c>
@@ -10538,7 +10587,7 @@
         <v>3611.85</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>294</v>
       </c>
@@ -10564,7 +10613,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>294</v>
       </c>
@@ -10590,7 +10639,7 @@
         <v>388.24</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>294</v>
       </c>
@@ -10616,7 +10665,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>294</v>
       </c>
@@ -10642,7 +10691,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>294</v>
       </c>
@@ -10668,7 +10717,7 @@
         <v>572.96</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>294</v>
       </c>
@@ -10694,7 +10743,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>294</v>
       </c>
@@ -10720,7 +10769,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>294</v>
       </c>
@@ -10746,7 +10795,7 @@
         <v>1155.8699999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>294</v>
       </c>
@@ -10772,7 +10821,7 @@
         <v>68.91</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>294</v>
       </c>
@@ -10798,7 +10847,7 @@
         <v>3100.4</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>294</v>
       </c>
@@ -10824,7 +10873,7 @@
         <v>2311.7399999999998</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>294</v>
       </c>
@@ -10850,7 +10899,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>294</v>
       </c>
@@ -10876,7 +10925,7 @@
         <v>409.36</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>294</v>
       </c>
@@ -10902,7 +10951,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>294</v>
       </c>
@@ -10928,7 +10977,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>294</v>
       </c>
@@ -10954,7 +11003,7 @@
         <v>3467.61</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>294</v>
       </c>
@@ -10980,7 +11029,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>294</v>
       </c>
@@ -11006,7 +11055,7 @@
         <v>91.21</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>294</v>
       </c>
@@ -11032,7 +11081,7 @@
         <v>155.91</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>294</v>
       </c>
@@ -11058,7 +11107,7 @@
         <v>288.45</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>294</v>
       </c>
@@ -11084,7 +11133,7 @@
         <v>40.54</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>294</v>
       </c>
@@ -11110,7 +11159,7 @@
         <v>388.24</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>294</v>
       </c>
@@ -11136,7 +11185,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>294</v>
       </c>
@@ -11162,7 +11211,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>294</v>
       </c>
@@ -11188,7 +11237,7 @@
         <v>33.14</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>294</v>
       </c>
@@ -11214,7 +11263,7 @@
         <v>58.45</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
         <v>294</v>
       </c>
@@ -11240,7 +11289,7 @@
         <v>16.37</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
         <v>294</v>
       </c>
@@ -11266,7 +11315,7 @@
         <v>565.15</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>294</v>
       </c>
@@ -11292,7 +11341,7 @@
         <v>47.55</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
         <v>294</v>
       </c>
@@ -11318,7 +11367,7 @@
         <v>8780.24</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>294</v>
       </c>
@@ -11344,7 +11393,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>294</v>
       </c>
@@ -11370,7 +11419,7 @@
         <v>491.4</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>294</v>
       </c>
@@ -11396,7 +11445,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>294</v>
       </c>
@@ -11422,7 +11471,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>294</v>
       </c>
@@ -11448,7 +11497,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>294</v>
       </c>
@@ -11474,7 +11523,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>294</v>
       </c>
@@ -11500,7 +11549,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>294</v>
       </c>
@@ -11526,7 +11575,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>294</v>
       </c>
@@ -11552,7 +11601,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>294</v>
       </c>
@@ -11578,7 +11627,7 @@
         <v>395.64</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>294</v>
       </c>
@@ -11604,7 +11653,7 @@
         <v>379.02</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>294</v>
       </c>
@@ -11630,7 +11679,7 @@
         <v>255.74</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>294</v>
       </c>
@@ -11656,7 +11705,7 @@
         <v>18.739999999999998</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>294</v>
       </c>
@@ -11682,7 +11731,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>294</v>
       </c>
@@ -11708,7 +11757,7 @@
         <v>437.24</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>294</v>
       </c>
@@ -11734,7 +11783,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>294</v>
       </c>
@@ -11760,7 +11809,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>294</v>
       </c>
@@ -11786,7 +11835,7 @@
         <v>190.99</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>294</v>
       </c>
@@ -11812,7 +11861,7 @@
         <v>210.6</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>294</v>
       </c>
@@ -11838,7 +11887,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>294</v>
       </c>
@@ -11864,7 +11913,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>294</v>
       </c>
@@ -11890,7 +11939,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>294</v>
       </c>
@@ -11916,7 +11965,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>294</v>
       </c>
@@ -11942,7 +11991,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>294</v>
       </c>
@@ -11968,7 +12017,7 @@
         <v>1446.8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>294</v>
       </c>
@@ -11994,7 +12043,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>294</v>
       </c>
@@ -12020,7 +12069,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>312</v>
       </c>
@@ -12046,7 +12095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>312</v>
       </c>
@@ -12072,7 +12121,7 @@
         <v>388.24</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>312</v>
       </c>
@@ -12098,7 +12147,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>312</v>
       </c>
@@ -12124,7 +12173,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>312</v>
       </c>
@@ -12150,7 +12199,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>312</v>
       </c>
@@ -12176,7 +12225,7 @@
         <v>2167.11</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>312</v>
       </c>
@@ -12202,7 +12251,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>312</v>
       </c>
@@ -12228,7 +12277,7 @@
         <v>78.62</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>312</v>
       </c>
@@ -12254,7 +12303,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>312</v>
       </c>
@@ -12280,7 +12329,7 @@
         <v>2777.8</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>312</v>
       </c>
@@ -12306,7 +12355,7 @@
         <v>4444.4799999999996</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>312</v>
       </c>
@@ -12332,7 +12381,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>312</v>
       </c>
@@ -12358,7 +12407,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>312</v>
       </c>
@@ -12384,7 +12433,7 @@
         <v>325.02999999999997</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>312</v>
       </c>
@@ -12410,7 +12459,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>312</v>
       </c>
@@ -12436,7 +12485,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>312</v>
       </c>
@@ -12462,7 +12511,7 @@
         <v>421.2</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>312</v>
       </c>
@@ -12488,7 +12537,7 @@
         <v>106.75</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>312</v>
       </c>
@@ -12514,7 +12563,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>312</v>
       </c>
@@ -12540,7 +12589,7 @@
         <v>1509.3</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>312</v>
       </c>
@@ -12566,7 +12615,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>312</v>
       </c>
@@ -12592,7 +12641,7 @@
         <v>381.97</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>312</v>
       </c>
@@ -12618,7 +12667,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>312</v>
       </c>
@@ -12644,7 +12693,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
         <v>312</v>
       </c>
@@ -12670,7 +12719,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
         <v>312</v>
       </c>
@@ -12696,7 +12745,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
         <v>312</v>
       </c>
@@ -12722,7 +12771,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>312</v>
       </c>
@@ -12748,7 +12797,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>312</v>
       </c>
@@ -12774,7 +12823,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>312</v>
       </c>
@@ -12800,7 +12849,7 @@
         <v>1155.8699999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>312</v>
       </c>
@@ -12826,7 +12875,7 @@
         <v>752.32</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>312</v>
       </c>
@@ -12852,7 +12901,7 @@
         <v>388.24</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>312</v>
       </c>
@@ -12878,7 +12927,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
         <v>312</v>
       </c>
@@ -12904,7 +12953,7 @@
         <v>12.11</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
         <v>312</v>
       </c>
@@ -12930,7 +12979,7 @@
         <v>287.25</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
         <v>312</v>
       </c>
@@ -12956,7 +13005,7 @@
         <v>640.53</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
         <v>312</v>
       </c>
@@ -12982,7 +13031,7 @@
         <v>737.57</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>312</v>
       </c>
@@ -13008,7 +13057,7 @@
         <v>2167.11</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>312</v>
       </c>
@@ -13034,7 +13083,7 @@
         <v>17.36</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
         <v>312</v>
       </c>
@@ -13060,7 +13109,7 @@
         <v>43.32</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
         <v>312</v>
       </c>
@@ -13086,7 +13135,7 @@
         <v>420.08</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
         <v>312</v>
       </c>
@@ -13112,7 +13161,7 @@
         <v>650.05999999999995</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>312</v>
       </c>
@@ -13138,7 +13187,7 @@
         <v>561.6</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
         <v>312</v>
       </c>
@@ -13164,7 +13213,7 @@
         <v>4623.4799999999996</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
         <v>312</v>
       </c>
@@ -13190,7 +13239,7 @@
         <v>1788.3</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
         <v>312</v>
       </c>
@@ -13216,7 +13265,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
         <v>312</v>
       </c>
@@ -13242,7 +13291,7 @@
         <v>631.79999999999995</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
         <v>312</v>
       </c>
@@ -13268,7 +13317,7 @@
         <v>4945.2700000000004</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
         <v>312</v>
       </c>
@@ -13294,7 +13343,7 @@
         <v>2167.11</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
         <v>332</v>
       </c>
@@ -13320,7 +13369,7 @@
         <v>982.8</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
         <v>332</v>
       </c>
@@ -13346,7 +13395,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
         <v>332</v>
       </c>
@@ -13372,7 +13421,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
         <v>332</v>
       </c>
@@ -13398,7 +13447,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
         <v>332</v>
       </c>
@@ -13424,7 +13473,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
         <v>332</v>
       </c>
@@ -13450,7 +13499,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>332</v>
       </c>
@@ -13476,7 +13525,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>332</v>
       </c>
@@ -13502,7 +13551,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>332</v>
       </c>
@@ -13528,7 +13577,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
         <v>332</v>
       </c>
@@ -13554,7 +13603,7 @@
         <v>51.86</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
         <v>332</v>
       </c>
@@ -13580,7 +13629,7 @@
         <v>53.36</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>332</v>
       </c>
@@ -13606,7 +13655,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>332</v>
       </c>
@@ -13632,7 +13681,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
         <v>332</v>
       </c>
@@ -13658,7 +13707,7 @@
         <v>1155.8699999999999</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>332</v>
       </c>
@@ -13684,7 +13733,7 @@
         <v>1788.3</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>332</v>
       </c>
@@ -13710,7 +13759,7 @@
         <v>382.7</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>332</v>
       </c>
@@ -13736,7 +13785,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
         <v>332</v>
       </c>
@@ -13762,7 +13811,7 @@
         <v>650.05999999999995</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>332</v>
       </c>
@@ -13788,7 +13837,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>332</v>
       </c>
@@ -13814,7 +13863,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
         <v>332</v>
       </c>
@@ -13840,7 +13889,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>332</v>
       </c>
@@ -13866,7 +13915,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
         <v>332</v>
       </c>
@@ -13892,7 +13941,7 @@
         <v>194.12</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>332</v>
       </c>
@@ -13918,7 +13967,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
         <v>332</v>
       </c>
@@ -13944,7 +13993,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
         <v>332</v>
       </c>
@@ -13970,7 +14019,7 @@
         <v>1123.2</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
         <v>332</v>
       </c>
@@ -13996,7 +14045,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
         <v>332</v>
       </c>
@@ -14022,7 +14071,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
         <v>332</v>
       </c>
@@ -14048,7 +14097,7 @@
         <v>840.16</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>332</v>
       </c>
@@ -14074,7 +14123,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>332</v>
       </c>
@@ -14100,7 +14149,7 @@
         <v>763.94</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>332</v>
       </c>
@@ -14126,7 +14175,7 @@
         <v>650.05999999999995</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
         <v>332</v>
       </c>
@@ -14152,7 +14201,7 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>332</v>
       </c>
@@ -14178,7 +14227,7 @@
         <v>630.12</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
         <v>332</v>
       </c>
@@ -14204,7 +14253,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
         <v>332</v>
       </c>
@@ -14230,7 +14279,7 @@
         <v>89.68</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
         <v>332</v>
       </c>
@@ -14256,7 +14305,7 @@
         <v>50.69</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
         <v>332</v>
       </c>
@@ -14282,7 +14331,7 @@
         <v>30.42</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
         <v>332</v>
       </c>
@@ -14308,7 +14357,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
         <v>332</v>
       </c>
@@ -14334,7 +14383,7 @@
         <v>73.31</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
         <v>332</v>
       </c>
@@ -14360,7 +14409,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
         <v>332</v>
       </c>
@@ -14386,7 +14435,7 @@
         <v>68.62</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
         <v>332</v>
       </c>
@@ -14412,7 +14461,7 @@
         <v>90.45</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
         <v>332</v>
       </c>
@@ -14438,7 +14487,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
         <v>332</v>
       </c>
@@ -14464,7 +14513,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
         <v>332</v>
       </c>
@@ -14490,7 +14539,7 @@
         <v>604.79999999999995</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
         <v>332</v>
       </c>
@@ -14516,7 +14565,7 @@
         <v>91.88</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
         <v>332</v>
       </c>
@@ -14542,7 +14591,7 @@
         <v>604.79999999999995</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
         <v>332</v>
       </c>
@@ -14568,7 +14617,7 @@
         <v>386.1</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
         <v>332</v>
       </c>
@@ -14594,7 +14643,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
         <v>332</v>
       </c>
@@ -14620,7 +14669,7 @@
         <v>228.94</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
         <v>332</v>
       </c>
@@ -14646,7 +14695,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
         <v>332</v>
       </c>
@@ -14672,7 +14721,7 @@
         <v>2280.7199999999998</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
         <v>332</v>
       </c>
@@ -14698,7 +14747,7 @@
         <v>2311.7399999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
         <v>332</v>
       </c>
@@ -14724,7 +14773,7 @@
         <v>3576.6</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
         <v>332</v>
       </c>
@@ -14750,7 +14799,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
         <v>332</v>
       </c>
@@ -14776,7 +14825,7 @@
         <v>4945.2700000000004</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
         <v>332</v>
       </c>
@@ -14802,7 +14851,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A490" s="1" t="s">
         <v>332</v>
       </c>
@@ -14828,7 +14877,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
         <v>332</v>
       </c>
@@ -14854,7 +14903,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
         <v>352</v>
       </c>
@@ -14880,7 +14929,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A493" s="1" t="s">
         <v>352</v>
       </c>
@@ -14906,7 +14955,7 @@
         <v>228.94</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
         <v>352</v>
       </c>
@@ -14932,7 +14981,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
         <v>352</v>
       </c>
@@ -14958,7 +15007,7 @@
         <v>604.79999999999995</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A496" s="1" t="s">
         <v>352</v>
       </c>
@@ -14984,7 +15033,7 @@
         <v>2280.7199999999998</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
         <v>352</v>
       </c>
@@ -15010,7 +15059,7 @@
         <v>2311.7399999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
         <v>352</v>
       </c>
@@ -15036,7 +15085,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
         <v>352</v>
       </c>
@@ -15062,7 +15111,7 @@
         <v>3576.6</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
         <v>352</v>
       </c>
@@ -15088,7 +15137,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
         <v>352</v>
       </c>
@@ -15114,7 +15163,7 @@
         <v>4945.2700000000004</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
         <v>352</v>
       </c>
@@ -15140,7 +15189,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A503" s="1" t="s">
         <v>352</v>
       </c>
@@ -15166,7 +15215,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A504" s="1" t="s">
         <v>352</v>
       </c>
@@ -15192,7 +15241,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A505" s="1" t="s">
         <v>352</v>
       </c>
@@ -15218,7 +15267,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A506" s="1" t="s">
         <v>352</v>
       </c>
@@ -15244,7 +15293,7 @@
         <v>15.64</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A507" s="1" t="s">
         <v>352</v>
       </c>
@@ -15270,7 +15319,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A508" s="1" t="s">
         <v>352</v>
       </c>
@@ -15296,7 +15345,7 @@
         <v>42.23</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A509" s="1" t="s">
         <v>352</v>
       </c>
@@ -15322,7 +15371,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A510" s="1" t="s">
         <v>352</v>
       </c>
@@ -15348,7 +15397,7 @@
         <v>87.6</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
         <v>352</v>
       </c>
@@ -15374,7 +15423,7 @@
         <v>381.97</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
         <v>352</v>
       </c>
@@ -15400,7 +15449,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A513" s="1" t="s">
         <v>352</v>
       </c>
@@ -15426,7 +15475,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
         <v>352</v>
       </c>
@@ -15452,7 +15501,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
         <v>352</v>
       </c>
@@ -15478,7 +15527,7 @@
         <v>435.1</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516" s="1" t="s">
         <v>352</v>
       </c>
@@ -15504,7 +15553,7 @@
         <v>34.36</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517" s="1" t="s">
         <v>352</v>
       </c>
@@ -15530,7 +15579,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518" s="1" t="s">
         <v>352</v>
       </c>
@@ -15556,7 +15605,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519" s="1" t="s">
         <v>352</v>
       </c>
@@ -15582,7 +15631,7 @@
         <v>9890.5300000000007</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A520" s="1" t="s">
         <v>352</v>
       </c>
@@ -15608,7 +15657,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A521" s="1" t="s">
         <v>352</v>
       </c>
@@ -15634,7 +15683,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A522" s="1" t="s">
         <v>352</v>
       </c>
@@ -15660,7 +15709,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A523" s="1" t="s">
         <v>352</v>
       </c>
@@ -15686,7 +15735,7 @@
         <v>913.6</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A524" s="1" t="s">
         <v>352</v>
       </c>
@@ -15712,7 +15761,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A525" s="1" t="s">
         <v>352</v>
       </c>
@@ -15738,7 +15787,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A526" s="1" t="s">
         <v>352</v>
       </c>
@@ -15764,7 +15813,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A527" s="1" t="s">
         <v>352</v>
       </c>
@@ -15790,7 +15839,7 @@
         <v>91.88</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A528" s="1" t="s">
         <v>352</v>
       </c>
@@ -15816,7 +15865,7 @@
         <v>1788.3</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A529" s="1" t="s">
         <v>352</v>
       </c>
@@ -15842,7 +15891,7 @@
         <v>2311.7399999999998</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A530" s="1" t="s">
         <v>352</v>
       </c>
@@ -15868,7 +15917,7 @@
         <v>437.24</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A531" s="1" t="s">
         <v>352</v>
       </c>
@@ -15894,7 +15943,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A532" s="1" t="s">
         <v>352</v>
       </c>
@@ -15920,7 +15969,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A533" s="1" t="s">
         <v>352</v>
       </c>
@@ -15946,7 +15995,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A534" s="1" t="s">
         <v>352</v>
       </c>
@@ -15972,7 +16021,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A535" s="1" t="s">
         <v>352</v>
       </c>
@@ -15998,7 +16047,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A536" s="1" t="s">
         <v>352</v>
       </c>
@@ -16024,7 +16073,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A537" s="1" t="s">
         <v>352</v>
       </c>
@@ -16050,7 +16099,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A538" s="1" t="s">
         <v>352</v>
       </c>
@@ -16076,7 +16125,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A539" s="1" t="s">
         <v>352</v>
       </c>
@@ -16102,7 +16151,7 @@
         <v>91.88</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A540" s="1" t="s">
         <v>352</v>
       </c>
@@ -16128,7 +16177,7 @@
         <v>22.19</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A541" s="1" t="s">
         <v>352</v>
       </c>
@@ -16154,7 +16203,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A542" s="1" t="s">
         <v>352</v>
       </c>
@@ -16180,7 +16229,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A543" s="1" t="s">
         <v>352</v>
       </c>
@@ -16206,7 +16255,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A544" s="1" t="s">
         <v>352</v>
       </c>
@@ -16232,7 +16281,7 @@
         <v>77.790000000000006</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A545" s="1" t="s">
         <v>352</v>
       </c>
@@ -16258,7 +16307,7 @@
         <v>116.1</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A546" s="1" t="s">
         <v>352</v>
       </c>
@@ -16284,7 +16333,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A547" s="1" t="s">
         <v>352</v>
       </c>
@@ -16310,7 +16359,7 @@
         <v>503.35</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A548" s="1" t="s">
         <v>352</v>
       </c>
@@ -16336,7 +16385,7 @@
         <v>332.15</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A549" s="1" t="s">
         <v>352</v>
       </c>
@@ -16362,7 +16411,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A550" s="1" t="s">
         <v>352</v>
       </c>
@@ -16388,7 +16437,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A551" s="1" t="s">
         <v>355</v>
       </c>
@@ -16414,7 +16463,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A552" s="1" t="s">
         <v>355</v>
       </c>
@@ -16440,7 +16489,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A553" s="1" t="s">
         <v>355</v>
       </c>
@@ -16466,7 +16515,7 @@
         <v>78.62</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A554" s="1" t="s">
         <v>355</v>
       </c>
@@ -16492,7 +16541,7 @@
         <v>106.75</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A555" s="1" t="s">
         <v>355</v>
       </c>
@@ -16518,7 +16567,7 @@
         <v>1827.2</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A556" s="1" t="s">
         <v>355</v>
       </c>
@@ -16544,7 +16593,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A557" s="1" t="s">
         <v>355</v>
       </c>
@@ -16570,7 +16619,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A558" s="1" t="s">
         <v>355</v>
       </c>
@@ -16596,7 +16645,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A559" s="1" t="s">
         <v>355</v>
       </c>
@@ -16622,7 +16671,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A560" s="1" t="s">
         <v>355</v>
       </c>
@@ -16648,7 +16697,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A561" s="1" t="s">
         <v>355</v>
       </c>
@@ -16674,7 +16723,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A562" s="1" t="s">
         <v>355</v>
       </c>
@@ -16700,7 +16749,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A563" s="1" t="s">
         <v>355</v>
       </c>
@@ -16726,7 +16775,7 @@
         <v>4945.2700000000004</v>
       </c>
     </row>
-    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A564" s="1" t="s">
         <v>355</v>
       </c>
@@ -16752,7 +16801,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A565" s="1" t="s">
         <v>355</v>
       </c>
@@ -16778,7 +16827,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A566" s="1" t="s">
         <v>355</v>
       </c>
@@ -16804,7 +16853,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A567" s="1" t="s">
         <v>355</v>
       </c>
@@ -16830,7 +16879,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A568" s="1" t="s">
         <v>355</v>
       </c>
@@ -16856,7 +16905,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A569" s="1" t="s">
         <v>355</v>
       </c>
@@ -16882,7 +16931,7 @@
         <v>612.95000000000005</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A570" s="1" t="s">
         <v>355</v>
       </c>
@@ -16908,7 +16957,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A571" s="1" t="s">
         <v>355</v>
       </c>
@@ -16934,7 +16983,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A572" s="1" t="s">
         <v>355</v>
       </c>
@@ -16960,7 +17009,7 @@
         <v>91.88</v>
       </c>
     </row>
-    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A573" s="1" t="s">
         <v>355</v>
       </c>
@@ -16986,7 +17035,7 @@
         <v>3611.85</v>
       </c>
     </row>
-    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A574" s="1" t="s">
         <v>355</v>
       </c>
@@ -17012,7 +17061,7 @@
         <v>45.94</v>
       </c>
     </row>
-    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A575" s="1" t="s">
         <v>355</v>
       </c>
@@ -17038,7 +17087,7 @@
         <v>5364.9</v>
       </c>
     </row>
-    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A576" s="1" t="s">
         <v>355</v>
       </c>
@@ -17064,7 +17113,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A577" s="1" t="s">
         <v>355</v>
       </c>
@@ -17090,7 +17139,7 @@
         <v>420.08</v>
       </c>
     </row>
-    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A578" s="1" t="s">
         <v>355</v>
       </c>
@@ -17116,7 +17165,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A579" s="1" t="s">
         <v>355</v>
       </c>
@@ -17142,7 +17191,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A580" s="1" t="s">
         <v>355</v>
       </c>
@@ -17168,7 +17217,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A581" s="1" t="s">
         <v>355</v>
       </c>
@@ -17194,7 +17243,7 @@
         <v>877.5</v>
       </c>
     </row>
-    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A582" s="1" t="s">
         <v>355</v>
       </c>
@@ -17220,7 +17269,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A583" s="1" t="s">
         <v>355</v>
       </c>
@@ -17246,7 +17295,7 @@
         <v>505.36</v>
       </c>
     </row>
-    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A584" s="1" t="s">
         <v>355</v>
       </c>
@@ -17272,7 +17321,7 @@
         <v>1140.3599999999999</v>
       </c>
     </row>
-    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A585" s="1" t="s">
         <v>355</v>
       </c>
@@ -17298,7 +17347,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A586" s="1" t="s">
         <v>355</v>
       </c>
@@ -17324,7 +17373,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A587" s="1" t="s">
         <v>355</v>
       </c>
@@ -17350,7 +17399,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A588" s="1" t="s">
         <v>355</v>
       </c>
@@ -17376,7 +17425,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A589" s="1" t="s">
         <v>355</v>
       </c>
@@ -17402,7 +17451,7 @@
         <v>190.99</v>
       </c>
     </row>
-    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A590" s="1" t="s">
         <v>355</v>
       </c>
@@ -17428,7 +17477,7 @@
         <v>210.04</v>
       </c>
     </row>
-    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A591" s="1" t="s">
         <v>355</v>
       </c>
@@ -17454,7 +17503,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A592" s="1" t="s">
         <v>355</v>
       </c>
@@ -17480,7 +17529,7 @@
         <v>2311.7399999999998</v>
       </c>
     </row>
-    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A593" s="1" t="s">
         <v>355</v>
       </c>
@@ -17506,7 +17555,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A594" s="1" t="s">
         <v>355</v>
       </c>
@@ -17532,7 +17581,7 @@
         <v>3576.6</v>
       </c>
     </row>
-    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A595" s="1" t="s">
         <v>355</v>
       </c>
@@ -17558,7 +17607,7 @@
         <v>874.48</v>
       </c>
     </row>
-    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A596" s="1" t="s">
         <v>355</v>
       </c>
@@ -17584,7 +17633,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A597" s="1" t="s">
         <v>355</v>
       </c>
@@ -17610,7 +17659,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A598" s="1" t="s">
         <v>355</v>
       </c>
@@ -17636,7 +17685,7 @@
         <v>604.79999999999995</v>
       </c>
     </row>
-    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A599" s="1" t="s">
         <v>355</v>
       </c>
@@ -17662,7 +17711,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A600" s="1" t="s">
         <v>355</v>
       </c>
@@ -17688,7 +17737,7 @@
         <v>2632.5</v>
       </c>
     </row>
-    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A601" s="1" t="s">
         <v>355</v>
       </c>
@@ -17714,7 +17763,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A602" s="1" t="s">
         <v>355</v>
       </c>
@@ -17740,7 +17789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A603" s="1" t="s">
         <v>374</v>
       </c>
@@ -17766,7 +17815,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A604" s="1" t="s">
         <v>374</v>
       </c>
@@ -17792,7 +17841,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A605" s="1" t="s">
         <v>374</v>
       </c>
@@ -17818,7 +17867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A606" s="1" t="s">
         <v>374</v>
       </c>
@@ -17844,7 +17893,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A607" s="1" t="s">
         <v>374</v>
       </c>
@@ -17870,7 +17919,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A608" s="1" t="s">
         <v>374</v>
       </c>
@@ -17896,7 +17945,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A609" s="1" t="s">
         <v>374</v>
       </c>
@@ -17922,7 +17971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A610" s="1" t="s">
         <v>374</v>
       </c>
@@ -17948,7 +17997,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A611" s="1" t="s">
         <v>374</v>
       </c>
@@ -17974,7 +18023,7 @@
         <v>858.79</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A612" s="1" t="s">
         <v>374</v>
       </c>
@@ -18000,7 +18049,7 @@
         <v>799.4</v>
       </c>
     </row>
-    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A613" s="1" t="s">
         <v>374</v>
       </c>
@@ -18026,7 +18075,7 @@
         <v>484.29</v>
       </c>
     </row>
-    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A614" s="1" t="s">
         <v>374</v>
       </c>
@@ -18052,7 +18101,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A615" s="1" t="s">
         <v>374</v>
       </c>
@@ -18078,7 +18127,7 @@
         <v>304.08999999999997</v>
       </c>
     </row>
-    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A616" s="1" t="s">
         <v>374</v>
       </c>
@@ -18104,7 +18153,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A617" s="1" t="s">
         <v>374</v>
       </c>
@@ -18130,7 +18179,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A618" s="1" t="s">
         <v>374</v>
       </c>
@@ -18156,7 +18205,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A619" s="1" t="s">
         <v>374</v>
       </c>
@@ -18182,7 +18231,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A620" s="1" t="s">
         <v>374</v>
       </c>
@@ -18208,7 +18257,7 @@
         <v>5265</v>
       </c>
     </row>
-    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A621" s="1" t="s">
         <v>374</v>
       </c>
@@ -18234,7 +18283,7 @@
         <v>272.14</v>
       </c>
     </row>
-    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A622" s="1" t="s">
         <v>374</v>
       </c>
@@ -18260,7 +18309,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A623" s="1" t="s">
         <v>374</v>
       </c>
@@ -18286,7 +18335,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A624" s="1" t="s">
         <v>374</v>
       </c>
@@ -18312,7 +18361,7 @@
         <v>650.05999999999995</v>
       </c>
     </row>
-    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A625" s="1" t="s">
         <v>374</v>
       </c>
@@ -18338,7 +18387,7 @@
         <v>420.08</v>
       </c>
     </row>
-    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A626" s="1" t="s">
         <v>374</v>
       </c>
@@ -18364,7 +18413,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A627" s="1" t="s">
         <v>374</v>
       </c>
@@ -18390,7 +18439,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A628" s="1" t="s">
         <v>374</v>
       </c>
@@ -18416,7 +18465,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A629" s="1" t="s">
         <v>374</v>
       </c>
@@ -18442,7 +18491,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A630" s="1" t="s">
         <v>374</v>
       </c>
@@ -18468,7 +18517,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A631" s="1" t="s">
         <v>374</v>
       </c>
@@ -18494,7 +18543,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A632" s="1" t="s">
         <v>374</v>
       </c>
@@ -18520,7 +18569,7 @@
         <v>2777.8</v>
       </c>
     </row>
-    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A633" s="1" t="s">
         <v>374</v>
       </c>
@@ -18546,7 +18595,7 @@
         <v>968.7</v>
       </c>
     </row>
-    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A634" s="1" t="s">
         <v>374</v>
       </c>
@@ -18572,7 +18621,7 @@
         <v>968.7</v>
       </c>
     </row>
-    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A635" s="1" t="s">
         <v>374</v>
       </c>
@@ -18598,7 +18647,7 @@
         <v>359.6</v>
       </c>
     </row>
-    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A636" s="1" t="s">
         <v>374</v>
       </c>
@@ -18624,7 +18673,7 @@
         <v>6040.2</v>
       </c>
     </row>
-    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A637" s="1" t="s">
         <v>374</v>
       </c>
@@ -18650,7 +18699,7 @@
         <v>1020.33</v>
       </c>
     </row>
-    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A638" s="1" t="s">
         <v>374</v>
       </c>
@@ -18676,7 +18725,7 @@
         <v>1020.33</v>
       </c>
     </row>
-    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A639" s="1" t="s">
         <v>374</v>
       </c>
@@ -18702,7 +18751,7 @@
         <v>2657.2</v>
       </c>
     </row>
-    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A640" s="1" t="s">
         <v>374</v>
       </c>
@@ -18728,7 +18777,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A641" s="1" t="s">
         <v>374</v>
       </c>
@@ -18754,7 +18803,7 @@
         <v>45.94</v>
       </c>
     </row>
-    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A642" s="1" t="s">
         <v>374</v>
       </c>
@@ -18780,7 +18829,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A643" s="1" t="s">
         <v>374</v>
       </c>
@@ -18806,7 +18855,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A644" s="1" t="s">
         <v>374</v>
       </c>
@@ -18832,7 +18881,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A645" s="1" t="s">
         <v>374</v>
       </c>
@@ -18858,7 +18907,7 @@
         <v>2167.11</v>
       </c>
     </row>
-    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A646" s="1" t="s">
         <v>374</v>
       </c>
@@ -18884,7 +18933,7 @@
         <v>1444.74</v>
       </c>
     </row>
-    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A647" s="1" t="s">
         <v>374</v>
       </c>
@@ -18910,7 +18959,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A648" s="1" t="s">
         <v>374</v>
       </c>
@@ -18936,7 +18985,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A649" s="1" t="s">
         <v>374</v>
       </c>
@@ -18962,7 +19011,7 @@
         <v>975.09</v>
       </c>
     </row>
-    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A650" s="1" t="s">
         <v>374</v>
       </c>
@@ -18988,7 +19037,7 @@
         <v>630.12</v>
       </c>
     </row>
-    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A651" s="1" t="s">
         <v>374</v>
       </c>
@@ -19014,7 +19063,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A652" s="1" t="s">
         <v>374</v>
       </c>
@@ -19040,7 +19089,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A653" s="1" t="s">
         <v>374</v>
       </c>
@@ -19066,7 +19115,7 @@
         <v>207.12</v>
       </c>
     </row>
-    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A654" s="1" t="s">
         <v>374</v>
       </c>
@@ -19092,7 +19141,7 @@
         <v>331.6</v>
       </c>
     </row>
-    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A655" s="1" t="s">
         <v>374</v>
       </c>
@@ -19118,7 +19167,7 @@
         <v>96.73</v>
       </c>
     </row>
-    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A656" s="1" t="s">
         <v>374</v>
       </c>
@@ -19144,7 +19193,7 @@
         <v>220.49</v>
       </c>
     </row>
-    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A657" s="1" t="s">
         <v>374</v>
       </c>
@@ -19170,7 +19219,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A658" s="1" t="s">
         <v>374</v>
       </c>
@@ -19196,7 +19245,7 @@
         <v>2503.02</v>
       </c>
     </row>
-    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A659" s="1" t="s">
         <v>374</v>
       </c>
@@ -19222,7 +19271,7 @@
         <v>303.41000000000003</v>
       </c>
     </row>
-    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A660" s="1" t="s">
         <v>374</v>
       </c>
@@ -19248,7 +19297,7 @@
         <v>136.56</v>
       </c>
     </row>
-    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A661" s="1" t="s">
         <v>374</v>
       </c>
@@ -19274,7 +19323,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A662" s="1" t="s">
         <v>374</v>
       </c>
@@ -19300,7 +19349,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A663" s="1" t="s">
         <v>374</v>
       </c>
@@ -19326,7 +19375,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A664" s="1" t="s">
         <v>374</v>
       </c>
@@ -19352,7 +19401,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A665" s="1" t="s">
         <v>414</v>
       </c>
@@ -19378,7 +19427,7 @@
         <v>55.78</v>
       </c>
     </row>
-    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A666" s="1" t="s">
         <v>414</v>
       </c>
@@ -19404,7 +19453,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A667" s="1" t="s">
         <v>414</v>
       </c>
@@ -19430,7 +19479,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A668" s="1" t="s">
         <v>414</v>
       </c>
@@ -19456,7 +19505,7 @@
         <v>20.14</v>
       </c>
     </row>
-    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A669" s="1" t="s">
         <v>414</v>
       </c>
@@ -19482,7 +19531,7 @@
         <v>24.79</v>
       </c>
     </row>
-    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A670" s="1" t="s">
         <v>414</v>
       </c>
@@ -19508,7 +19557,7 @@
         <v>1100.0999999999999</v>
       </c>
     </row>
-    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A671" s="1" t="s">
         <v>414</v>
       </c>
@@ -19534,7 +19583,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A672" s="1" t="s">
         <v>414</v>
       </c>
@@ -19560,7 +19609,7 @@
         <v>22.97</v>
       </c>
     </row>
-    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A673" s="1" t="s">
         <v>414</v>
       </c>
@@ -19586,7 +19635,7 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A674" s="1" t="s">
         <v>414</v>
       </c>
@@ -19612,7 +19661,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A675" s="1" t="s">
         <v>414</v>
       </c>
@@ -19638,7 +19687,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A676" s="1" t="s">
         <v>414</v>
       </c>
@@ -19664,7 +19713,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A677" s="1" t="s">
         <v>414</v>
       </c>
@@ -19690,7 +19739,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A678" s="1" t="s">
         <v>414</v>
       </c>
@@ -19716,7 +19765,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A679" s="1" t="s">
         <v>414</v>
       </c>
@@ -19742,7 +19791,7 @@
         <v>9890.5300000000007</v>
       </c>
     </row>
-    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A680" s="1" t="s">
         <v>414</v>
       </c>
@@ -19768,7 +19817,7 @@
         <v>949.7</v>
       </c>
     </row>
-    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A681" s="1" t="s">
         <v>414</v>
       </c>
@@ -19794,7 +19843,7 @@
         <v>59.67</v>
       </c>
     </row>
-    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A682" s="1" t="s">
         <v>414</v>
       </c>
@@ -19820,7 +19869,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A683" s="1" t="s">
         <v>414</v>
       </c>
@@ -19846,7 +19895,7 @@
         <v>1827.2</v>
       </c>
     </row>
-    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A684" s="1" t="s">
         <v>414</v>
       </c>
@@ -19872,7 +19921,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A685" s="1" t="s">
         <v>414</v>
       </c>
@@ -19898,7 +19947,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A686" s="1" t="s">
         <v>414</v>
       </c>
@@ -19924,7 +19973,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A687" s="1" t="s">
         <v>414</v>
       </c>
@@ -19950,7 +19999,7 @@
         <v>776.48</v>
       </c>
     </row>
-    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A688" s="1" t="s">
         <v>414</v>
       </c>
@@ -19976,7 +20025,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A689" s="1" t="s">
         <v>414</v>
       </c>
@@ -20002,7 +20051,7 @@
         <v>968.45</v>
       </c>
     </row>
-    <row r="690" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A690" s="1" t="s">
         <v>414</v>
       </c>
@@ -20028,7 +20077,7 @@
         <v>77.48</v>
       </c>
     </row>
-    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A691" s="1" t="s">
         <v>414</v>
       </c>
@@ -20054,7 +20103,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A692" s="1" t="s">
         <v>414</v>
       </c>
@@ -20080,7 +20129,7 @@
         <v>2889.48</v>
       </c>
     </row>
-    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A693" s="1" t="s">
         <v>414</v>
       </c>
@@ -20106,7 +20155,7 @@
         <v>91.88</v>
       </c>
     </row>
-    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A694" s="1" t="s">
         <v>414</v>
       </c>
@@ -20132,7 +20181,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A695" s="1" t="s">
         <v>414</v>
       </c>
@@ -20158,7 +20207,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A696" s="1" t="s">
         <v>414</v>
       </c>
@@ -20184,7 +20233,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A697" s="1" t="s">
         <v>414</v>
       </c>
@@ -20210,7 +20259,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A698" s="1" t="s">
         <v>414</v>
       </c>
@@ -20236,7 +20285,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A699" s="1" t="s">
         <v>414</v>
       </c>
@@ -20262,7 +20311,7 @@
         <v>1221.4000000000001</v>
       </c>
     </row>
-    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A700" s="1" t="s">
         <v>414</v>
       </c>
@@ -20288,7 +20337,7 @@
         <v>87.69</v>
       </c>
     </row>
-    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A701" s="1" t="s">
         <v>414</v>
       </c>
@@ -20314,7 +20363,7 @@
         <v>574.20000000000005</v>
       </c>
     </row>
-    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A702" s="1" t="s">
         <v>414</v>
       </c>
@@ -20340,7 +20389,7 @@
         <v>430.6</v>
       </c>
     </row>
-    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A703" s="1" t="s">
         <v>414</v>
       </c>
@@ -20366,7 +20415,7 @@
         <v>1008.02</v>
       </c>
     </row>
-    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A704" s="1" t="s">
         <v>414</v>
       </c>
@@ -20392,7 +20441,7 @@
         <v>99.45</v>
       </c>
     </row>
-    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A705" s="1" t="s">
         <v>414</v>
       </c>
@@ -20418,7 +20467,7 @@
         <v>776.48</v>
       </c>
     </row>
-    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A706" s="1" t="s">
         <v>414</v>
       </c>
@@ -20444,7 +20493,7 @@
         <v>382.7</v>
       </c>
     </row>
-    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A707" s="1" t="s">
         <v>414</v>
       </c>
@@ -20470,7 +20519,7 @@
         <v>2098.7600000000002</v>
       </c>
     </row>
-    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A708" s="1" t="s">
         <v>414</v>
       </c>
@@ -20496,7 +20545,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A709" s="1" t="s">
         <v>414</v>
       </c>
@@ -20522,7 +20571,7 @@
         <v>5778.96</v>
       </c>
     </row>
-    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A710" s="1" t="s">
         <v>414</v>
       </c>
@@ -20548,7 +20597,7 @@
         <v>1110.6400000000001</v>
       </c>
     </row>
-    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A711" s="1" t="s">
         <v>414</v>
       </c>
@@ -20574,7 +20623,7 @@
         <v>664.3</v>
       </c>
     </row>
-    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A712" s="1" t="s">
         <v>414</v>
       </c>
@@ -20600,7 +20649,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A713" s="1" t="s">
         <v>414</v>
       </c>
@@ -20626,7 +20675,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A714" s="1" t="s">
         <v>414</v>
       </c>
@@ -20652,7 +20701,7 @@
         <v>1785.58</v>
       </c>
     </row>
-    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A715" s="1" t="s">
         <v>414</v>
       </c>
@@ -20678,7 +20727,7 @@
         <v>1678.14</v>
       </c>
     </row>
-    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A716" s="1" t="s">
         <v>414</v>
       </c>
@@ -20704,7 +20753,7 @@
         <v>4697.9399999999996</v>
       </c>
     </row>
-    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A717" s="1" t="s">
         <v>414</v>
       </c>
@@ -20730,7 +20779,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A718" s="1" t="s">
         <v>414</v>
       </c>
@@ -20756,7 +20805,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A719" s="1" t="s">
         <v>414</v>
       </c>
@@ -20782,7 +20831,7 @@
         <v>462.75</v>
       </c>
     </row>
-    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A720" s="1" t="s">
         <v>414</v>
       </c>
@@ -20808,7 +20857,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A721" s="1" t="s">
         <v>435</v>
       </c>
@@ -20834,7 +20883,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="722" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A722" s="1" t="s">
         <v>435</v>
       </c>
@@ -20860,7 +20909,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A723" s="1" t="s">
         <v>435</v>
       </c>
@@ -20886,7 +20935,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="724" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A724" s="1" t="s">
         <v>435</v>
       </c>
@@ -20912,7 +20961,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A725" s="1" t="s">
         <v>435</v>
       </c>
@@ -20938,7 +20987,7 @@
         <v>2098.7600000000002</v>
       </c>
     </row>
-    <row r="726" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A726" s="1" t="s">
         <v>435</v>
       </c>
@@ -20964,7 +21013,7 @@
         <v>11557.92</v>
       </c>
     </row>
-    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A727" s="1" t="s">
         <v>435</v>
       </c>
@@ -20990,7 +21039,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="728" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A728" s="1" t="s">
         <v>435</v>
       </c>
@@ -21016,7 +21065,7 @@
         <v>190.99</v>
       </c>
     </row>
-    <row r="729" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A729" s="1" t="s">
         <v>435</v>
       </c>
@@ -21042,7 +21091,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="730" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A730" s="1" t="s">
         <v>435</v>
       </c>
@@ -21068,7 +21117,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="731" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A731" s="1" t="s">
         <v>435</v>
       </c>
@@ -21094,7 +21143,7 @@
         <v>331.6</v>
       </c>
     </row>
-    <row r="732" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A732" s="1" t="s">
         <v>435</v>
       </c>
@@ -21120,7 +21169,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="733" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A733" s="1" t="s">
         <v>435</v>
       </c>
@@ -21146,7 +21195,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="734" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A734" s="1" t="s">
         <v>435</v>
       </c>
@@ -21172,7 +21221,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="735" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A735" s="1" t="s">
         <v>435</v>
       </c>
@@ -21198,7 +21247,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="736" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A736" s="1" t="s">
         <v>435</v>
       </c>
@@ -21224,7 +21273,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A737" s="1" t="s">
         <v>435</v>
       </c>
@@ -21250,7 +21299,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A738" s="1" t="s">
         <v>435</v>
       </c>
@@ -21276,7 +21325,7 @@
         <v>133.63999999999999</v>
       </c>
     </row>
-    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A739" s="1" t="s">
         <v>435</v>
       </c>
@@ -21302,7 +21351,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A740" s="1" t="s">
         <v>435</v>
       </c>
@@ -21328,7 +21377,7 @@
         <v>7703.45</v>
       </c>
     </row>
-    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A741" s="1" t="s">
         <v>435</v>
       </c>
@@ -21354,7 +21403,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A742" s="1" t="s">
         <v>435</v>
       </c>
@@ -21380,7 +21429,7 @@
         <v>132.86000000000001</v>
       </c>
     </row>
-    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A743" s="1" t="s">
         <v>435</v>
       </c>
@@ -21406,7 +21455,7 @@
         <v>1785.58</v>
       </c>
     </row>
-    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A744" s="1" t="s">
         <v>435</v>
       </c>
@@ -21432,7 +21481,7 @@
         <v>1006.88</v>
       </c>
     </row>
-    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A745" s="1" t="s">
         <v>435</v>
       </c>
@@ -21458,7 +21507,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A746" s="1" t="s">
         <v>435</v>
       </c>
@@ -21484,7 +21533,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A747" s="1" t="s">
         <v>435</v>
       </c>
@@ -21510,7 +21559,7 @@
         <v>1760.2</v>
       </c>
     </row>
-    <row r="748" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A748" s="1" t="s">
         <v>435</v>
       </c>
@@ -21536,7 +21585,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="749" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A749" s="1" t="s">
         <v>435</v>
       </c>
@@ -21562,7 +21611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="750" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A750" s="1" t="s">
         <v>435</v>
       </c>
@@ -21588,7 +21637,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="751" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A751" s="1" t="s">
         <v>435</v>
       </c>
@@ -21614,7 +21663,7 @@
         <v>194.66</v>
       </c>
     </row>
-    <row r="752" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A752" s="1" t="s">
         <v>435</v>
       </c>
@@ -21640,7 +21689,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="753" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A753" s="1" t="s">
         <v>435</v>
       </c>
@@ -21666,7 +21715,7 @@
         <v>784.32</v>
       </c>
     </row>
-    <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A754" s="1" t="s">
         <v>435</v>
       </c>
@@ -21692,7 +21741,7 @@
         <v>752.32</v>
       </c>
     </row>
-    <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A755" s="1" t="s">
         <v>435</v>
       </c>
@@ -21718,7 +21767,7 @@
         <v>833.34</v>
       </c>
     </row>
-    <row r="756" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A756" s="1" t="s">
         <v>435</v>
       </c>
@@ -21744,7 +21793,7 @@
         <v>135.30000000000001</v>
       </c>
     </row>
-    <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A757" s="1" t="s">
         <v>435</v>
       </c>
@@ -21770,7 +21819,7 @@
         <v>1850.99</v>
       </c>
     </row>
-    <row r="758" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A758" s="1" t="s">
         <v>435</v>
       </c>
@@ -21796,7 +21845,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A759" s="1" t="s">
         <v>435</v>
       </c>
@@ -21822,7 +21871,7 @@
         <v>5089.5</v>
       </c>
     </row>
-    <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A760" s="1" t="s">
         <v>435</v>
       </c>
@@ -21848,7 +21897,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A761" s="1" t="s">
         <v>435</v>
       </c>
@@ -21874,7 +21923,7 @@
         <v>3655.8</v>
       </c>
     </row>
-    <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A762" s="1" t="s">
         <v>435</v>
       </c>
@@ -21900,7 +21949,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="763" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A763" s="1" t="s">
         <v>435</v>
       </c>
@@ -21926,7 +21975,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A764" s="1" t="s">
         <v>435</v>
       </c>
@@ -21952,7 +22001,7 @@
         <v>11.58</v>
       </c>
     </row>
-    <row r="765" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A765" s="1" t="s">
         <v>435</v>
       </c>
@@ -21978,7 +22027,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="766" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A766" s="1" t="s">
         <v>435</v>
       </c>
@@ -22004,7 +22053,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="767" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A767" s="1" t="s">
         <v>435</v>
       </c>
@@ -22030,7 +22079,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="768" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A768" s="1" t="s">
         <v>435</v>
       </c>
@@ -22056,7 +22105,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="769" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A769" s="1" t="s">
         <v>435</v>
       </c>
@@ -22082,7 +22131,7 @@
         <v>3404.7</v>
       </c>
     </row>
-    <row r="770" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A770" s="1" t="s">
         <v>435</v>
       </c>
@@ -22108,7 +22157,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="771" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A771" s="1" t="s">
         <v>455</v>
       </c>
@@ -22134,7 +22183,7 @@
         <v>2242.2600000000002</v>
       </c>
     </row>
-    <row r="772" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A772" s="1" t="s">
         <v>455</v>
       </c>
@@ -22160,7 +22209,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="773" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A773" s="1" t="s">
         <v>455</v>
       </c>
@@ -22186,7 +22235,7 @@
         <v>246.94</v>
       </c>
     </row>
-    <row r="774" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A774" s="1" t="s">
         <v>455</v>
       </c>
@@ -22212,7 +22261,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="775" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A775" s="1" t="s">
         <v>455</v>
       </c>
@@ -22238,7 +22287,7 @@
         <v>167.05</v>
       </c>
     </row>
-    <row r="776" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A776" s="1" t="s">
         <v>455</v>
       </c>
@@ -22264,7 +22313,7 @@
         <v>17336.88</v>
       </c>
     </row>
-    <row r="777" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A777" s="1" t="s">
         <v>455</v>
       </c>
@@ -22290,7 +22339,7 @@
         <v>2777.8</v>
       </c>
     </row>
-    <row r="778" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A778" s="1" t="s">
         <v>455</v>
       </c>
@@ -22316,7 +22365,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="779" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A779" s="1" t="s">
         <v>455</v>
       </c>
@@ -22342,7 +22391,7 @@
         <v>11557.92</v>
       </c>
     </row>
-    <row r="780" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A780" s="1" t="s">
         <v>455</v>
       </c>
@@ -22368,7 +22417,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="781" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A781" s="1" t="s">
         <v>455</v>
       </c>
@@ -22394,7 +22443,7 @@
         <v>134.96</v>
       </c>
     </row>
-    <row r="782" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A782" s="1" t="s">
         <v>455</v>
       </c>
@@ -22420,7 +22469,7 @@
         <v>1568.64</v>
       </c>
     </row>
-    <row r="783" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A783" s="1" t="s">
         <v>455</v>
       </c>
@@ -22446,7 +22495,7 @@
         <v>246.94</v>
       </c>
     </row>
-    <row r="784" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A784" s="1" t="s">
         <v>455</v>
       </c>
@@ -22472,7 +22521,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A785" s="1" t="s">
         <v>455</v>
       </c>
@@ -22498,7 +22547,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="786" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A786" s="1" t="s">
         <v>455</v>
       </c>
@@ -22524,7 +22573,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="787" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A787" s="1" t="s">
         <v>455</v>
       </c>
@@ -22550,7 +22599,7 @@
         <v>194.66</v>
       </c>
     </row>
-    <row r="788" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A788" s="1" t="s">
         <v>455</v>
       </c>
@@ -22576,7 +22625,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="789" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A789" s="1" t="s">
         <v>455</v>
       </c>
@@ -22602,7 +22651,7 @@
         <v>2823.48</v>
       </c>
     </row>
-    <row r="790" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A790" s="1" t="s">
         <v>455</v>
       </c>
@@ -22628,7 +22677,7 @@
         <v>4288.43</v>
       </c>
     </row>
-    <row r="791" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A791" s="1" t="s">
         <v>455</v>
       </c>
@@ -22654,7 +22703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="792" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A792" s="1" t="s">
         <v>455</v>
       </c>
@@ -22680,7 +22729,7 @@
         <v>1568.64</v>
       </c>
     </row>
-    <row r="793" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A793" s="1" t="s">
         <v>455</v>
       </c>
@@ -22706,7 +22755,7 @@
         <v>2221.04</v>
       </c>
     </row>
-    <row r="794" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A794" s="1" t="s">
         <v>455</v>
       </c>
@@ -22732,7 +22781,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="795" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A795" s="1" t="s">
         <v>455</v>
       </c>
@@ -22758,7 +22807,7 @@
         <v>2167.1999999999998</v>
       </c>
     </row>
-    <row r="796" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A796" s="1" t="s">
         <v>455</v>
       </c>
@@ -22784,7 +22833,7 @@
         <v>1341.6</v>
       </c>
     </row>
-    <row r="797" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A797" s="1" t="s">
         <v>455</v>
       </c>
@@ -22810,7 +22859,7 @@
         <v>138.72999999999999</v>
       </c>
     </row>
-    <row r="798" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A798" s="1" t="s">
         <v>455</v>
       </c>
@@ -22836,7 +22885,7 @@
         <v>181.11</v>
       </c>
     </row>
-    <row r="799" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A799" s="1" t="s">
         <v>455</v>
       </c>
@@ -22862,7 +22911,7 @@
         <v>30.06</v>
       </c>
     </row>
-    <row r="800" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A800" s="1" t="s">
         <v>455</v>
       </c>
@@ -22888,7 +22937,7 @@
         <v>20.04</v>
       </c>
     </row>
-    <row r="801" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A801" s="1" t="s">
         <v>455</v>
       </c>
@@ -22914,7 +22963,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="802" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A802" s="1" t="s">
         <v>455</v>
       </c>
@@ -22940,7 +22989,7 @@
         <v>190.99</v>
       </c>
     </row>
-    <row r="803" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A803" s="1" t="s">
         <v>455</v>
       </c>
@@ -22966,7 +23015,7 @@
         <v>191.35</v>
       </c>
     </row>
-    <row r="804" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A804" s="1" t="s">
         <v>455</v>
       </c>
@@ -22992,7 +23041,7 @@
         <v>155.72999999999999</v>
       </c>
     </row>
-    <row r="805" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A805" s="1" t="s">
         <v>455</v>
       </c>
@@ -23018,7 +23067,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="806" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A806" s="1" t="s">
         <v>455</v>
       </c>
@@ -23044,7 +23093,7 @@
         <v>1399.17</v>
       </c>
     </row>
-    <row r="807" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A807" s="1" t="s">
         <v>455</v>
       </c>
@@ -23070,7 +23119,7 @@
         <v>756.02</v>
       </c>
     </row>
-    <row r="808" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A808" s="1" t="s">
         <v>455</v>
       </c>
@@ -23096,7 +23145,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="809" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A809" s="1" t="s">
         <v>455</v>
       </c>
@@ -23122,7 +23171,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="810" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A810" s="1" t="s">
         <v>455</v>
       </c>
@@ -23148,7 +23197,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="811" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A811" s="1" t="s">
         <v>455</v>
       </c>
@@ -23174,7 +23223,7 @@
         <v>4964</v>
       </c>
     </row>
-    <row r="812" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A812" s="1" t="s">
         <v>455</v>
       </c>
@@ -23200,7 +23249,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="813" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A813" s="1" t="s">
         <v>455</v>
       </c>
@@ -23226,7 +23275,7 @@
         <v>1504.64</v>
       </c>
     </row>
-    <row r="814" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A814" s="1" t="s">
         <v>468</v>
       </c>
@@ -23252,7 +23301,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="815" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A815" s="1" t="s">
         <v>468</v>
       </c>
@@ -23278,7 +23327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="816" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A816" s="1" t="s">
         <v>468</v>
       </c>
@@ -23304,7 +23353,7 @@
         <v>53.36</v>
       </c>
     </row>
-    <row r="817" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A817" s="1" t="s">
         <v>468</v>
       </c>
@@ -23330,7 +23379,7 @@
         <v>300.69</v>
       </c>
     </row>
-    <row r="818" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A818" s="1" t="s">
         <v>468</v>
       </c>
@@ -23356,7 +23405,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="819" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A819" s="1" t="s">
         <v>468</v>
       </c>
@@ -23382,7 +23431,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="820" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A820" s="1" t="s">
         <v>468</v>
       </c>
@@ -23408,7 +23457,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="821" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A821" s="1" t="s">
         <v>468</v>
       </c>
@@ -23434,7 +23483,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="822" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A822" s="1" t="s">
         <v>468</v>
       </c>
@@ -23460,7 +23509,7 @@
         <v>11557.92</v>
       </c>
     </row>
-    <row r="823" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A823" s="1" t="s">
         <v>468</v>
       </c>
@@ -23486,7 +23535,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="824" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A824" s="1" t="s">
         <v>468</v>
       </c>
@@ -23512,7 +23561,7 @@
         <v>212.84</v>
       </c>
     </row>
-    <row r="825" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A825" s="1" t="s">
         <v>468</v>
       </c>
@@ -23538,7 +23587,7 @@
         <v>10530</v>
       </c>
     </row>
-    <row r="826" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A826" s="1" t="s">
         <v>468</v>
       </c>
@@ -23564,7 +23613,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="827" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A827" s="1" t="s">
         <v>468</v>
       </c>
@@ -23590,7 +23639,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="828" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A828" s="1" t="s">
         <v>468</v>
       </c>
@@ -23616,7 +23665,7 @@
         <v>877.33</v>
       </c>
     </row>
-    <row r="829" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A829" s="1" t="s">
         <v>468</v>
       </c>
@@ -23642,7 +23691,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="830" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A830" s="1" t="s">
         <v>468</v>
       </c>
@@ -23668,7 +23717,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="831" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A831" s="1" t="s">
         <v>468</v>
       </c>
@@ -23694,7 +23743,7 @@
         <v>1140.3599999999999</v>
       </c>
     </row>
-    <row r="832" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A832" s="1" t="s">
         <v>468</v>
       </c>
@@ -23720,7 +23769,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="833" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A833" s="1" t="s">
         <v>468</v>
       </c>
@@ -23746,7 +23795,7 @@
         <v>555.55999999999995</v>
       </c>
     </row>
-    <row r="834" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A834" s="1" t="s">
         <v>468</v>
       </c>
@@ -23772,7 +23821,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="835" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A835" s="1" t="s">
         <v>468</v>
       </c>
@@ -23798,7 +23847,7 @@
         <v>5276.14</v>
       </c>
     </row>
-    <row r="836" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A836" s="1" t="s">
         <v>468</v>
       </c>
@@ -23824,7 +23873,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="837" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A837" s="1" t="s">
         <v>468</v>
       </c>
@@ -23850,7 +23899,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="838" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A838" s="1" t="s">
         <v>468</v>
       </c>
@@ -23876,7 +23925,7 @@
         <v>304.08999999999997</v>
       </c>
     </row>
-    <row r="839" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A839" s="1" t="s">
         <v>468</v>
       </c>
@@ -23902,7 +23951,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="840" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A840" s="1" t="s">
         <v>468</v>
       </c>
@@ -23928,7 +23977,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="841" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A841" s="1" t="s">
         <v>468</v>
       </c>
@@ -23954,7 +24003,7 @@
         <v>877.19</v>
       </c>
     </row>
-    <row r="842" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A842" s="1" t="s">
         <v>468</v>
       </c>
@@ -23980,7 +24029,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="843" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A843" s="1" t="s">
         <v>468</v>
       </c>
@@ -24006,7 +24055,7 @@
         <v>9072</v>
       </c>
     </row>
-    <row r="844" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A844" s="1" t="s">
         <v>468</v>
       </c>
@@ -24032,7 +24081,7 @@
         <v>331.6</v>
       </c>
     </row>
-    <row r="845" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A845" s="1" t="s">
         <v>468</v>
       </c>
@@ -24058,7 +24107,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="846" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A846" s="1" t="s">
         <v>468</v>
       </c>
@@ -24084,7 +24133,7 @@
         <v>190.99</v>
       </c>
     </row>
-    <row r="847" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A847" s="1" t="s">
         <v>468</v>
       </c>
@@ -24110,7 +24159,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="848" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A848" s="1" t="s">
         <v>468</v>
       </c>
@@ -24136,7 +24185,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="849" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A849" s="1" t="s">
         <v>468</v>
       </c>
@@ -24162,7 +24211,7 @@
         <v>23166</v>
       </c>
     </row>
-    <row r="850" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A850" s="1" t="s">
         <v>468</v>
       </c>
@@ -24188,7 +24237,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="851" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A851" s="1" t="s">
         <v>468</v>
       </c>
@@ -24214,7 +24263,7 @@
         <v>126.34</v>
       </c>
     </row>
-    <row r="852" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A852" s="1" t="s">
         <v>468</v>
       </c>
@@ -24240,7 +24289,7 @@
         <v>106.42</v>
       </c>
     </row>
-    <row r="853" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A853" s="1" t="s">
         <v>468</v>
       </c>
@@ -24266,7 +24315,7 @@
         <v>90.72</v>
       </c>
     </row>
-    <row r="854" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A854" s="1" t="s">
         <v>468</v>
       </c>
@@ -24292,7 +24341,7 @@
         <v>86.42</v>
       </c>
     </row>
-    <row r="855" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A855" s="1" t="s">
         <v>499</v>
       </c>
@@ -24318,7 +24367,7 @@
         <v>608.17999999999995</v>
       </c>
     </row>
-    <row r="856" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A856" s="1" t="s">
         <v>499</v>
       </c>
@@ -24344,7 +24393,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="857" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A857" s="1" t="s">
         <v>499</v>
       </c>
@@ -24370,7 +24419,7 @@
         <v>3337.1</v>
       </c>
     </row>
-    <row r="858" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A858" s="1" t="s">
         <v>499</v>
       </c>
@@ -24396,7 +24445,7 @@
         <v>793.28</v>
       </c>
     </row>
-    <row r="859" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A859" s="1" t="s">
         <v>499</v>
       </c>
@@ -24422,7 +24471,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="860" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A860" s="1" t="s">
         <v>499</v>
       </c>
@@ -24448,7 +24497,7 @@
         <v>1444.74</v>
       </c>
     </row>
-    <row r="861" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A861" s="1" t="s">
         <v>499</v>
       </c>
@@ -24474,7 +24523,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="862" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A862" s="1" t="s">
         <v>499</v>
       </c>
@@ -24500,7 +24549,7 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="863" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A863" s="1" t="s">
         <v>499</v>
       </c>
@@ -24526,7 +24575,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="864" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A864" s="1" t="s">
         <v>499</v>
       </c>
@@ -24552,7 +24601,7 @@
         <v>1114.8399999999999</v>
       </c>
     </row>
-    <row r="865" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A865" s="1" t="s">
         <v>499</v>
       </c>
@@ -24578,7 +24627,7 @@
         <v>1788.3</v>
       </c>
     </row>
-    <row r="866" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A866" s="1" t="s">
         <v>499</v>
       </c>
@@ -24604,7 +24653,7 @@
         <v>3053.7</v>
       </c>
     </row>
-    <row r="867" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A867" s="1" t="s">
         <v>499</v>
       </c>
@@ -24630,7 +24679,7 @@
         <v>67.05</v>
       </c>
     </row>
-    <row r="868" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A868" s="1" t="s">
         <v>499</v>
       </c>
@@ -24656,7 +24705,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="869" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A869" s="1" t="s">
         <v>499</v>
       </c>
@@ -24682,7 +24731,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="870" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A870" s="1" t="s">
         <v>499</v>
       </c>
@@ -24708,7 +24757,7 @@
         <v>9.9600000000000009</v>
       </c>
     </row>
-    <row r="871" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A871" s="1" t="s">
         <v>499</v>
       </c>
@@ -24734,7 +24783,7 @@
         <v>10.92</v>
       </c>
     </row>
-    <row r="872" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A872" s="1" t="s">
         <v>499</v>
       </c>
@@ -24760,7 +24809,7 @@
         <v>28.35</v>
       </c>
     </row>
-    <row r="873" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A873" s="1" t="s">
         <v>499</v>
       </c>
@@ -24786,7 +24835,7 @@
         <v>881.29</v>
       </c>
     </row>
-    <row r="874" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A874" s="1" t="s">
         <v>499</v>
       </c>
@@ -24812,7 +24861,7 @@
         <v>1520.48</v>
       </c>
     </row>
-    <row r="875" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A875" s="1" t="s">
         <v>499</v>
       </c>
@@ -24838,7 +24887,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="876" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A876" s="1" t="s">
         <v>499</v>
       </c>
@@ -24864,7 +24913,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="877" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A877" s="1" t="s">
         <v>499</v>
       </c>
@@ -24890,7 +24939,7 @@
         <v>4945.2700000000004</v>
       </c>
     </row>
-    <row r="878" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A878" s="1" t="s">
         <v>499</v>
       </c>
@@ -24916,7 +24965,7 @@
         <v>41.46</v>
       </c>
     </row>
-    <row r="879" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A879" s="1" t="s">
         <v>499</v>
       </c>
@@ -24942,7 +24991,7 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="880" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A880" s="1" t="s">
         <v>499</v>
       </c>
@@ -24968,7 +25017,7 @@
         <v>91.21</v>
       </c>
     </row>
-    <row r="881" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A881" s="1" t="s">
         <v>499</v>
       </c>
@@ -24994,7 +25043,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="882" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A882" s="1" t="s">
         <v>499</v>
       </c>
@@ -25020,7 +25069,7 @@
         <v>12636</v>
       </c>
     </row>
-    <row r="883" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A883" s="1" t="s">
         <v>499</v>
       </c>
@@ -25046,7 +25095,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="884" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A884" s="1" t="s">
         <v>499</v>
       </c>
@@ -25072,7 +25121,7 @@
         <v>763.94</v>
       </c>
     </row>
-    <row r="885" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A885" s="1" t="s">
         <v>499</v>
       </c>
@@ -25098,7 +25147,7 @@
         <v>601.55999999999995</v>
       </c>
     </row>
-    <row r="886" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A886" s="1" t="s">
         <v>499</v>
       </c>
@@ -25124,7 +25173,7 @@
         <v>10530</v>
       </c>
     </row>
-    <row r="887" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A887" s="1" t="s">
         <v>499</v>
       </c>
@@ -25150,7 +25199,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="888" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A888" s="1" t="s">
         <v>499</v>
       </c>
@@ -25176,7 +25225,7 @@
         <v>527.52</v>
       </c>
     </row>
-    <row r="889" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A889" s="1" t="s">
         <v>499</v>
       </c>
@@ -25202,7 +25251,7 @@
         <v>11088</v>
       </c>
     </row>
-    <row r="890" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A890" s="1" t="s">
         <v>499</v>
       </c>
@@ -25228,7 +25277,7 @@
         <v>9.66</v>
       </c>
     </row>
-    <row r="891" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A891" s="1" t="s">
         <v>499</v>
       </c>
@@ -25254,7 +25303,7 @@
         <v>73.59</v>
       </c>
     </row>
-    <row r="892" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A892" s="1" t="s">
         <v>499</v>
       </c>
@@ -25280,7 +25329,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="893" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A893" s="1" t="s">
         <v>499</v>
       </c>
@@ -25306,7 +25355,7 @@
         <v>300.69</v>
       </c>
     </row>
-    <row r="894" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A894" s="1" t="s">
         <v>499</v>
       </c>
@@ -25332,7 +25381,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="895" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A895" s="1" t="s">
         <v>521</v>
       </c>
@@ -25358,7 +25407,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="896" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A896" s="1" t="s">
         <v>521</v>
       </c>
@@ -25384,7 +25433,7 @@
         <v>100.23</v>
       </c>
     </row>
-    <row r="897" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A897" s="1" t="s">
         <v>521</v>
       </c>
@@ -25410,7 +25459,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="898" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A898" s="1" t="s">
         <v>521</v>
       </c>
@@ -25436,7 +25485,7 @@
         <v>6318</v>
       </c>
     </row>
-    <row r="899" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A899" s="1" t="s">
         <v>521</v>
       </c>
@@ -25462,7 +25511,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="900" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A900" s="1" t="s">
         <v>521</v>
       </c>
@@ -25488,7 +25537,7 @@
         <v>1520.48</v>
       </c>
     </row>
-    <row r="901" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A901" s="1" t="s">
         <v>521</v>
       </c>
@@ -25514,7 +25563,7 @@
         <v>1251.51</v>
       </c>
     </row>
-    <row r="902" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A902" s="1" t="s">
         <v>521</v>
       </c>
@@ -25540,7 +25589,7 @@
         <v>1256.32</v>
       </c>
     </row>
-    <row r="903" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A903" s="1" t="s">
         <v>521</v>
       </c>
@@ -25566,7 +25615,7 @@
         <v>798.18</v>
       </c>
     </row>
-    <row r="904" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A904" s="1" t="s">
         <v>521</v>
       </c>
@@ -25592,7 +25641,7 @@
         <v>1087.75</v>
       </c>
     </row>
-    <row r="905" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A905" s="1" t="s">
         <v>521</v>
       </c>
@@ -25618,7 +25667,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="906" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A906" s="1" t="s">
         <v>521</v>
       </c>
@@ -25644,7 +25693,7 @@
         <v>308.52</v>
       </c>
     </row>
-    <row r="907" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A907" s="1" t="s">
         <v>521</v>
       </c>
@@ -25670,7 +25719,7 @@
         <v>403.93</v>
       </c>
     </row>
-    <row r="908" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A908" s="1" t="s">
         <v>521</v>
       </c>
@@ -25696,7 +25745,7 @@
         <v>3216.4</v>
       </c>
     </row>
-    <row r="909" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A909" s="1" t="s">
         <v>521</v>
       </c>
@@ -25722,7 +25771,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="910" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A910" s="1" t="s">
         <v>521</v>
       </c>
@@ -25748,7 +25797,7 @@
         <v>4484.51</v>
       </c>
     </row>
-    <row r="911" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A911" s="1" t="s">
         <v>521</v>
       </c>
@@ -25774,7 +25823,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="912" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A912" s="1" t="s">
         <v>521</v>
       </c>
@@ -25800,7 +25849,7 @@
         <v>265.70999999999998</v>
       </c>
     </row>
-    <row r="913" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A913" s="1" t="s">
         <v>521</v>
       </c>
@@ -25826,7 +25875,7 @@
         <v>365.07</v>
       </c>
     </row>
-    <row r="914" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A914" s="1" t="s">
         <v>521</v>
       </c>
@@ -25852,7 +25901,7 @@
         <v>1111.1199999999999</v>
       </c>
     </row>
-    <row r="915" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A915" s="1" t="s">
         <v>521</v>
       </c>
@@ -25878,7 +25927,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="916" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A916" s="1" t="s">
         <v>521</v>
       </c>
@@ -25904,7 +25953,7 @@
         <v>6318</v>
       </c>
     </row>
-    <row r="917" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A917" s="1" t="s">
         <v>521</v>
       </c>
@@ -25930,7 +25979,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="918" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A918" s="1" t="s">
         <v>521</v>
       </c>
@@ -25956,7 +26005,7 @@
         <v>1177.21</v>
       </c>
     </row>
-    <row r="919" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A919" s="1" t="s">
         <v>521</v>
       </c>
@@ -25982,7 +26031,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="920" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A920" s="1" t="s">
         <v>521</v>
       </c>
@@ -26008,7 +26057,7 @@
         <v>653.72</v>
       </c>
     </row>
-    <row r="921" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A921" s="1" t="s">
         <v>521</v>
       </c>
@@ -26034,7 +26083,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="922" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A922" s="1" t="s">
         <v>521</v>
       </c>
@@ -26060,7 +26109,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="923" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A923" s="1" t="s">
         <v>521</v>
       </c>
@@ -26086,7 +26135,7 @@
         <v>3159</v>
       </c>
     </row>
-    <row r="924" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A924" s="1" t="s">
         <v>521</v>
       </c>
@@ -26112,7 +26161,7 @@
         <v>3754.53</v>
       </c>
     </row>
-    <row r="925" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A925" s="1" t="s">
         <v>521</v>
       </c>
@@ -26138,7 +26187,7 @@
         <v>1666.68</v>
       </c>
     </row>
-    <row r="926" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A926" s="1" t="s">
         <v>521</v>
       </c>
@@ -26164,7 +26213,7 @@
         <v>2222.2399999999998</v>
       </c>
     </row>
-    <row r="927" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A927" s="1" t="s">
         <v>521</v>
       </c>
@@ -26192,7 +26241,7 @@
     </row>
     <row r="928" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A928" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B928" s="1" t="s">
         <v>95</v>
@@ -26218,7 +26267,7 @@
     </row>
     <row r="929" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A929" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B929" s="1" t="s">
         <v>95</v>
@@ -26244,7 +26293,7 @@
     </row>
     <row r="930" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A930" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B930" s="1" t="s">
         <v>95</v>
@@ -26270,7 +26319,7 @@
     </row>
     <row r="931" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A931" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B931" s="1" t="s">
         <v>95</v>
@@ -26296,7 +26345,7 @@
     </row>
     <row r="932" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A932" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B932" s="1" t="s">
         <v>95</v>
@@ -26322,7 +26371,7 @@
     </row>
     <row r="933" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A933" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B933" s="1" t="s">
         <v>95</v>
@@ -26348,7 +26397,7 @@
     </row>
     <row r="934" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A934" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B934" s="1" t="s">
         <v>95</v>
@@ -26360,7 +26409,7 @@
         <v>87</v>
       </c>
       <c r="E934" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F934" s="1" t="s">
         <v>9</v>
@@ -26374,7 +26423,7 @@
     </row>
     <row r="935" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A935" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B935" s="1" t="s">
         <v>95</v>
@@ -26400,7 +26449,7 @@
     </row>
     <row r="936" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A936" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B936" s="1" t="s">
         <v>95</v>
@@ -26426,7 +26475,7 @@
     </row>
     <row r="937" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A937" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B937" s="1" t="s">
         <v>95</v>
@@ -26452,7 +26501,7 @@
     </row>
     <row r="938" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A938" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B938" s="1" t="s">
         <v>95</v>
@@ -26478,7 +26527,7 @@
     </row>
     <row r="939" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A939" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B939" s="1" t="s">
         <v>95</v>
@@ -26504,7 +26553,7 @@
     </row>
     <row r="940" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A940" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B940" s="1" t="s">
         <v>95</v>
@@ -26530,7 +26579,7 @@
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A941" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B941" s="1" t="s">
         <v>95</v>
@@ -26556,7 +26605,7 @@
     </row>
     <row r="942" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A942" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B942" s="1" t="s">
         <v>95</v>
@@ -26582,7 +26631,7 @@
     </row>
     <row r="943" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A943" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B943" s="1" t="s">
         <v>95</v>
@@ -26608,7 +26657,7 @@
     </row>
     <row r="944" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A944" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B944" s="1" t="s">
         <v>95</v>
@@ -26634,7 +26683,7 @@
     </row>
     <row r="945" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A945" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B945" s="1" t="s">
         <v>95</v>
@@ -26646,7 +26695,7 @@
         <v>87</v>
       </c>
       <c r="E945" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F945" s="1" t="s">
         <v>9</v>
@@ -26660,7 +26709,7 @@
     </row>
     <row r="946" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A946" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B946" s="1" t="s">
         <v>95</v>
@@ -26686,7 +26735,7 @@
     </row>
     <row r="947" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A947" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B947" s="1" t="s">
         <v>95</v>
@@ -26712,7 +26761,7 @@
     </row>
     <row r="948" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A948" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B948" s="1" t="s">
         <v>95</v>
@@ -26738,7 +26787,7 @@
     </row>
     <row r="949" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A949" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B949" s="1" t="s">
         <v>95</v>
@@ -26764,7 +26813,7 @@
     </row>
     <row r="950" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A950" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B950" s="1" t="s">
         <v>50</v>
@@ -26790,7 +26839,7 @@
     </row>
     <row r="951" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A951" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B951" s="1" t="s">
         <v>50</v>
@@ -26816,7 +26865,7 @@
     </row>
     <row r="952" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A952" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B952" s="1" t="s">
         <v>50</v>
@@ -26842,7 +26891,7 @@
     </row>
     <row r="953" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A953" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B953" s="1" t="s">
         <v>50</v>
@@ -26868,7 +26917,7 @@
     </row>
     <row r="954" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A954" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B954" s="1" t="s">
         <v>95</v>
@@ -26894,7 +26943,7 @@
     </row>
     <row r="955" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A955" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B955" s="1" t="s">
         <v>95</v>
@@ -26906,7 +26955,7 @@
         <v>87</v>
       </c>
       <c r="E955" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F955" s="1" t="s">
         <v>9</v>
@@ -26920,7 +26969,7 @@
     </row>
     <row r="956" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A956" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B956" s="1" t="s">
         <v>95</v>
@@ -26946,7 +26995,7 @@
     </row>
     <row r="957" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A957" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B957" s="1" t="s">
         <v>95</v>
@@ -26972,7 +27021,7 @@
     </row>
     <row r="958" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A958" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B958" s="1" t="s">
         <v>95</v>
@@ -26998,7 +27047,7 @@
     </row>
     <row r="959" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A959" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B959" s="1" t="s">
         <v>95</v>
@@ -27024,7 +27073,7 @@
     </row>
     <row r="960" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A960" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B960" s="1" t="s">
         <v>95</v>
@@ -27050,7 +27099,7 @@
     </row>
     <row r="961" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A961" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B961" s="1" t="s">
         <v>50</v>
@@ -27076,7 +27125,7 @@
     </row>
     <row r="962" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A962" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B962" s="1" t="s">
         <v>50</v>
@@ -27102,7 +27151,7 @@
     </row>
     <row r="963" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A963" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B963" s="1" t="s">
         <v>95</v>
@@ -27123,12 +27172,12 @@
         <v>45983</v>
       </c>
       <c r="H963" s="1">
-        <v>2106.12</v>
+        <v>2106.1</v>
       </c>
     </row>
     <row r="964" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A964" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B964" s="1" t="s">
         <v>95</v>
@@ -27149,12 +27198,12 @@
         <v>45983</v>
       </c>
       <c r="H964" s="1">
-        <v>604.80999999999995</v>
+        <v>604.79999999999995</v>
       </c>
     </row>
     <row r="965" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A965" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B965" s="1" t="s">
         <v>95</v>
@@ -27180,7 +27229,7 @@
     </row>
     <row r="966" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A966" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B966" s="1" t="s">
         <v>95</v>
@@ -27189,7 +27238,7 @@
         <v>11151248</v>
       </c>
       <c r="D966" s="4" t="s">
-        <v>541</v>
+        <v>364</v>
       </c>
       <c r="E966" s="1" t="s">
         <v>8</v>
@@ -27204,14 +27253,788 @@
         <v>1666.68</v>
       </c>
     </row>
+    <row r="967" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A967" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B967" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C967" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D967" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E967" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F967" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G967" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H967" s="1">
+        <v>432.88</v>
+      </c>
+    </row>
+    <row r="968" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A968" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B968" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C968" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D968" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E968" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F968" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G968" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H968" s="1">
+        <v>189.47</v>
+      </c>
+    </row>
+    <row r="969" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A969" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B969" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C969" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D969" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E969" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F969" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G969" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H969" s="1">
+        <v>1666.68</v>
+      </c>
+    </row>
+    <row r="970" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A970" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B970" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C970" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D970" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E970" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F970" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G970" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H970" s="1">
+        <v>246.94</v>
+      </c>
+    </row>
+    <row r="971" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A971" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B971" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C971" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D971" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E971" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F971" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G971" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H971" s="1">
+        <v>1976.87</v>
+      </c>
+    </row>
+    <row r="972" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A972" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B972" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C972" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D972" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E972" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F972" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G972" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H972" s="1">
+        <v>1788.3</v>
+      </c>
+    </row>
+    <row r="973" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A973" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B973" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C973" s="1">
+        <v>11156537</v>
+      </c>
+      <c r="D973" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E973" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F973" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G973" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H973" s="1">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="974" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A974" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B974" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C974" s="1">
+        <v>11156248</v>
+      </c>
+      <c r="D974" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E974" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F974" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G974" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H974" s="1">
+        <v>437.46</v>
+      </c>
+    </row>
+    <row r="975" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A975" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B975" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C975" s="1">
+        <v>11155949</v>
+      </c>
+      <c r="D975" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E975" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F975" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G975" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H975" s="1">
+        <v>2889.48</v>
+      </c>
+    </row>
+    <row r="976" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A976" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B976" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C976" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D976" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E976" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F976" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G976" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H976" s="1">
+        <v>45.46</v>
+      </c>
+    </row>
+    <row r="977" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A977" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B977" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C977" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D977" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E977" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F977" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G977" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H977" s="1">
+        <v>1020.33</v>
+      </c>
+    </row>
+    <row r="978" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A978" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B978" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C978" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D978" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E978" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F978" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G978" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H978" s="1">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="979" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A979" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B979" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C979" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D979" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E979" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F979" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G979" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H979" s="1">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="980" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A980" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C980" s="1">
+        <v>11156537</v>
+      </c>
+      <c r="D980" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E980" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F980" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G980" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H980" s="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="981" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A981" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B981" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C981" s="1">
+        <v>11154322</v>
+      </c>
+      <c r="D981" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E981" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F981" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G981" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H981" s="1">
+        <v>471.72</v>
+      </c>
+    </row>
+    <row r="982" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A982" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B982" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C982" s="1">
+        <v>11151240</v>
+      </c>
+      <c r="D982" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E982" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F982" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G982" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H982" s="1">
+        <v>4107.2</v>
+      </c>
+    </row>
+    <row r="983" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A983" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B983" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C983" s="1">
+        <v>11152228</v>
+      </c>
+      <c r="D983" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E983" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F983" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G983" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H983" s="1">
+        <v>6896</v>
+      </c>
+    </row>
+    <row r="984" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A984" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B984" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C984" s="1">
+        <v>11154683</v>
+      </c>
+      <c r="D984" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E984" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F984" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G984" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H984" s="1">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="985" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A985" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B985" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C985" s="1">
+        <v>11151249</v>
+      </c>
+      <c r="D985" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E985" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F985" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G985" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H985" s="1">
+        <v>1827.2</v>
+      </c>
+    </row>
+    <row r="986" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A986" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B986" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C986" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D986" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E986" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F986" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G986" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H986" s="1">
+        <v>2222.2399999999998</v>
+      </c>
+    </row>
+    <row r="987" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A987" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B987" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C987" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D987" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E987" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F987" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G987" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H987" s="1">
+        <v>1111.1199999999999</v>
+      </c>
+    </row>
+    <row r="988" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A988" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B988" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C988" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D988" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E988" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F988" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G988" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H988" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="989" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A989" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B989" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C989" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D989" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E989" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F989" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G989" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H989" s="1">
+        <v>388.24</v>
+      </c>
+    </row>
+    <row r="990" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A990" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B990" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C990" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D990" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E990" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F990" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G990" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H990" s="1">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="991" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A991" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B991" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C991" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D991" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E991" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F991" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G991" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H991" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="992" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A992" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B992" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C992" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D992" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E992" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F992" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G992" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H992" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="993" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A993" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B993" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C993" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D993" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="E993" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F993" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G993" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H993" s="1">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="994" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A994" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B994" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C994" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D994" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="E994" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F994" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G994" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="H994" s="1">
+        <v>14742</v>
+      </c>
+    </row>
+    <row r="995" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A995" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B995" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C995" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D995" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E995" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F995" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G995" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="H995" s="1">
+        <v>4233.6000000000004</v>
+      </c>
+    </row>
+    <row r="996" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A996" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B996" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C996" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D996" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="E996" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F996" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G996" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="H996" s="1">
+        <v>5208</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H966" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Wk47"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H996" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/WeeklyInsights/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="415" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05842763-AF23-419D-A606-C1EF104D4A80}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{458526E0-52FE-4283-8FDA-4D93A10F7730}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5614" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5614" uniqueCount="559">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -1703,9 +1703,6 @@
     <t>1roll</t>
   </si>
   <si>
-    <t>PTS-1140 6K-9090-HS02 HPS LF Aligner</t>
-  </si>
-  <si>
     <t>420pcs</t>
   </si>
   <si>
@@ -1713,9 +1710,6 @@
   </si>
   <si>
     <t>210pcs</t>
-  </si>
-  <si>
-    <t>PTS-1136 300-001519-015 Semiconductor</t>
   </si>
   <si>
     <t>2800pcs</t>
@@ -1798,6 +1792,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2120,7 +2118,7 @@
   <dimension ref="A1:J996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D1002" sqref="D1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27255,7 +27253,7 @@
     </row>
     <row r="967" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A967" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B967" s="1" t="s">
         <v>95</v>
@@ -27281,7 +27279,7 @@
     </row>
     <row r="968" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A968" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B968" s="1" t="s">
         <v>95</v>
@@ -27307,7 +27305,7 @@
     </row>
     <row r="969" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A969" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B969" s="1" t="s">
         <v>95</v>
@@ -27333,7 +27331,7 @@
     </row>
     <row r="970" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A970" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B970" s="1" t="s">
         <v>95</v>
@@ -27359,7 +27357,7 @@
     </row>
     <row r="971" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A971" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B971" s="1" t="s">
         <v>95</v>
@@ -27385,7 +27383,7 @@
     </row>
     <row r="972" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A972" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B972" s="1" t="s">
         <v>95</v>
@@ -27411,7 +27409,7 @@
     </row>
     <row r="973" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A973" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B973" s="1" t="s">
         <v>95</v>
@@ -27437,7 +27435,7 @@
     </row>
     <row r="974" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A974" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B974" s="1" t="s">
         <v>95</v>
@@ -27463,7 +27461,7 @@
     </row>
     <row r="975" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A975" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B975" s="1" t="s">
         <v>95</v>
@@ -27489,7 +27487,7 @@
     </row>
     <row r="976" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A976" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B976" s="1" t="s">
         <v>95</v>
@@ -27515,7 +27513,7 @@
     </row>
     <row r="977" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A977" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B977" s="1" t="s">
         <v>95</v>
@@ -27541,7 +27539,7 @@
     </row>
     <row r="978" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A978" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B978" s="1" t="s">
         <v>95</v>
@@ -27567,7 +27565,7 @@
     </row>
     <row r="979" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A979" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B979" s="1" t="s">
         <v>95</v>
@@ -27593,7 +27591,7 @@
     </row>
     <row r="980" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A980" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B980" s="1" t="s">
         <v>95</v>
@@ -27619,7 +27617,7 @@
     </row>
     <row r="981" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A981" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B981" s="1" t="s">
         <v>95</v>
@@ -27645,7 +27643,7 @@
     </row>
     <row r="982" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A982" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B982" s="1" t="s">
         <v>95</v>
@@ -27671,7 +27669,7 @@
     </row>
     <row r="983" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A983" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B983" s="1" t="s">
         <v>95</v>
@@ -27697,7 +27695,7 @@
     </row>
     <row r="984" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A984" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B984" s="1" t="s">
         <v>95</v>
@@ -27723,7 +27721,7 @@
     </row>
     <row r="985" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A985" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B985" s="1" t="s">
         <v>95</v>
@@ -27749,7 +27747,7 @@
     </row>
     <row r="986" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A986" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B986" s="1" t="s">
         <v>95</v>
@@ -27775,7 +27773,7 @@
     </row>
     <row r="987" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A987" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B987" s="1" t="s">
         <v>95</v>
@@ -27801,7 +27799,7 @@
     </row>
     <row r="988" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A988" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B988" s="1" t="s">
         <v>95</v>
@@ -27827,7 +27825,7 @@
     </row>
     <row r="989" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A989" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B989" s="1" t="s">
         <v>95</v>
@@ -27853,7 +27851,7 @@
     </row>
     <row r="990" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A990" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B990" s="1" t="s">
         <v>95</v>
@@ -27879,7 +27877,7 @@
     </row>
     <row r="991" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A991" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B991" s="1" t="s">
         <v>95</v>
@@ -27905,7 +27903,7 @@
     </row>
     <row r="992" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A992" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B992" s="1" t="s">
         <v>95</v>
@@ -27931,7 +27929,7 @@
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A993" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B993" s="1" t="s">
         <v>50</v>
@@ -27957,7 +27955,7 @@
     </row>
     <row r="994" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A994" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B994" s="1" t="s">
         <v>95</v>
@@ -27965,17 +27963,17 @@
       <c r="C994" s="1">
         <v>11155797</v>
       </c>
-      <c r="D994" s="5" t="s">
+      <c r="D994" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E994" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="E994" s="1" t="s">
+      <c r="F994" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G994" s="3" t="s">
         <v>555</v>
-      </c>
-      <c r="F994" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G994" s="3" t="s">
-        <v>556</v>
       </c>
       <c r="H994" s="1">
         <v>14742</v>
@@ -27983,7 +27981,7 @@
     </row>
     <row r="995" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A995" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B995" s="1" t="s">
         <v>95</v>
@@ -27995,13 +27993,13 @@
         <v>87</v>
       </c>
       <c r="E995" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F995" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G995" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H995" s="1">
         <v>4233.6000000000004</v>
@@ -28009,7 +28007,7 @@
     </row>
     <row r="996" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A996" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B996" s="1" t="s">
         <v>95</v>
@@ -28017,17 +28015,17 @@
       <c r="C996" s="1">
         <v>11155143</v>
       </c>
-      <c r="D996" s="5" t="s">
-        <v>558</v>
+      <c r="D996" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="E996" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F996" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G996" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H996" s="1">
         <v>5208</v>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{458526E0-52FE-4283-8FDA-4D93A10F7730}"/>
+  <xr:revisionPtr revIDLastSave="466" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB5E9DE6-C20A-4E13-892A-C31B64DA7823}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$996</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$1032</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5614" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5846" uniqueCount="579">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -1716,6 +1716,66 @@
   </si>
   <si>
     <t>Wk48</t>
+  </si>
+  <si>
+    <t>PTS-1163 Chainflex TPE Measuring System</t>
+  </si>
+  <si>
+    <t>1/12/2025</t>
+  </si>
+  <si>
+    <t>PTS-1071 TW.50.15.FI.0S.151.00 X2637</t>
+  </si>
+  <si>
+    <t>PTS-1124 70030.014 PRECISION MACHINE</t>
+  </si>
+  <si>
+    <t>4/12/2025</t>
+  </si>
+  <si>
+    <t>IGUS Chainflex PUR Data Cable (25x0,14)C</t>
+  </si>
+  <si>
+    <t>100M</t>
+  </si>
+  <si>
+    <t>5/12/2025</t>
+  </si>
+  <si>
+    <t>PTS-1136 300-001519-015 Semiconductor</t>
+  </si>
+  <si>
+    <t>6/12/2025</t>
+  </si>
+  <si>
+    <t>XS-PTS-0757</t>
+  </si>
+  <si>
+    <t>10203.213 PBA Linear Motor Coil X987</t>
+  </si>
+  <si>
+    <t>XS-PTS-0887</t>
+  </si>
+  <si>
+    <t>10110.017 PLC6 Circuit Chip SIEMENS</t>
+  </si>
+  <si>
+    <t>XS-PTS-0357</t>
+  </si>
+  <si>
+    <t>10102.081 SIMATIC S7-1200, CPU 1215C CPU</t>
+  </si>
+  <si>
+    <t>7/12/2025</t>
+  </si>
+  <si>
+    <t>XS-PTS-0285</t>
+  </si>
+  <si>
+    <t>19902.369 ROTARY MOTION WITH CONTROLLER</t>
+  </si>
+  <si>
+    <t>Wk49</t>
   </si>
 </sst>
 </file>
@@ -1792,10 +1852,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2115,10 +2171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:J996"/>
+  <dimension ref="A1:J1032"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1002" sqref="D1002"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28031,8 +28087,944 @@
         <v>5208</v>
       </c>
     </row>
+    <row r="997" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A997" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B997" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C997" s="1">
+        <v>11157407</v>
+      </c>
+      <c r="D997" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E997" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F997" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G997" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H997" s="1">
+        <v>29.25</v>
+      </c>
+    </row>
+    <row r="998" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A998" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B998" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C998" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D998" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E998" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F998" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G998" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H998" s="1">
+        <v>68.19</v>
+      </c>
+    </row>
+    <row r="999" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A999" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B999" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C999" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D999" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E999" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F999" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G999" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H999" s="1">
+        <v>2777.8</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1000" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1000" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1000" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D1000" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E1000" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1000" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1000" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H1000" s="1">
+        <v>2777.8</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1001" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1001" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1001" s="1">
+        <v>11152143</v>
+      </c>
+      <c r="D1001" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1001" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1001" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1001" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H1001" s="1">
+        <v>185.2</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1002" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1002" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1002" s="1">
+        <v>11154681</v>
+      </c>
+      <c r="D1002" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="E1002" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1002" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1002" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H1002" s="1">
+        <v>20.83</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1003" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1003" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1003" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1003" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1003" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1003" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1003" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1003" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1004" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1004" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1004" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1004" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E1004" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1004" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1004" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1004" s="1">
+        <v>200.68</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1005" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1005" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1005" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1005" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1005" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1005" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1005" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1005" s="1">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1006" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1006" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1006" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1006" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1006" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1006" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1006" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1006" s="1">
+        <v>9890.5300000000007</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1007" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1007" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1007" s="1">
+        <v>11156539</v>
+      </c>
+      <c r="D1007" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E1007" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1007" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1007" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1007" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1008" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1008" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1008" s="1">
+        <v>11156538</v>
+      </c>
+      <c r="D1008" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1008" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1008" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1008" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1008" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1009" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1009" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1009" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D1009" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E1009" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1009" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1009" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1009" s="1">
+        <v>2777.8</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1010" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1010" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1010" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D1010" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1010" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1010" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1010" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1010" s="1">
+        <v>1666.68</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1011" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1011" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1011" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1011" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1011" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1011" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1011" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1011" s="1">
+        <v>68.19</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1012" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1012" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1012" s="1">
+        <v>11151250</v>
+      </c>
+      <c r="D1012" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1012" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1012" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1012" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1012" s="1">
+        <v>1251.51</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1013" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1013" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1013" s="1">
+        <v>11151247</v>
+      </c>
+      <c r="D1013" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1013" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1013" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1013" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1013" s="1">
+        <v>912.27</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1014" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1014" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1014" s="1">
+        <v>11151245</v>
+      </c>
+      <c r="D1014" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1014" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1014" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1014" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1014" s="1">
+        <v>304.08999999999997</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1015" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1015" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1015" s="1">
+        <v>11151242</v>
+      </c>
+      <c r="D1015" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1015" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1015" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1015" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1015" s="1">
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1016" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1016" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1016" s="1">
+        <v>11151249</v>
+      </c>
+      <c r="D1016" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1016" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1016" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1016" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1016" s="1">
+        <v>1836.19</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1017" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1017" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1017" s="1">
+        <v>11151247</v>
+      </c>
+      <c r="D1017" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1017" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1017" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1017" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1017" s="1">
+        <v>912.27</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1018" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1018" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1018" s="1">
+        <v>11151245</v>
+      </c>
+      <c r="D1018" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1018" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1018" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1018" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1018" s="1">
+        <v>304.08999999999997</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1019" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1019" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1019" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1019" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1019" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1019" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1019" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1019" s="1">
+        <v>887.27</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1020" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1020" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1020" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1020" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1020" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1020" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1020" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1020" s="1">
+        <v>719.2</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1021" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1021" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1021" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1021" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="E1021" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F1021" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1021" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1021" s="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1022" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1022" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D1022" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1022" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F1022" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1022" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="H1022" s="1">
+        <v>14742</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1023" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1023" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1023" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D1023" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1023" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1023" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1023" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="H1023" s="1">
+        <v>4233.6000000000004</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1024" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1024" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1024" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D1024" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E1024" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F1024" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1024" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="H1024" s="1">
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1025" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1025" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1025" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D1025" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E1025" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1025" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1025" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1025" s="1">
+        <v>2777.8</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1026" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1026" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1026" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1026" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1026" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1026" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1026" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1026" s="1">
+        <v>3467.61</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1027" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1027" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1027" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1027" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E1027" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1027" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1027" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1027" s="1">
+        <v>1305.98</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1028" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1028" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1028" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D1028" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E1028" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1028" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1028" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1028" s="1">
+        <v>128.63999999999999</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1029" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1029" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1029" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D1029" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="E1029" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1029" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1029" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1029" s="1">
+        <v>511.8</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1030" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1030" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1030" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1030" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1030" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1030" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1030" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1030" s="1">
+        <v>79.12</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1031" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1031" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1031" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1031" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1031" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1031" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1031" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1031" s="1">
+        <v>80.040000000000006</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1032" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1032" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1032" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1032" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1032" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1032" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1032" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1032" s="1">
+        <v>1008.77</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H996" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
+  <autoFilter ref="A1:H1032" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="466" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB5E9DE6-C20A-4E13-892A-C31B64DA7823}"/>
+  <xr:revisionPtr revIDLastSave="482" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{197B8ADA-6F99-42D4-914E-4CB2DB29E87E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$1032</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$1081</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5846" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6165" uniqueCount="611">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -1776,6 +1776,102 @@
   </si>
   <si>
     <t>Wk49</t>
+  </si>
+  <si>
+    <t>8/12/2025</t>
+  </si>
+  <si>
+    <t>XS-PTS-0352</t>
+  </si>
+  <si>
+    <t>D-A93 AUTO SWITCH</t>
+  </si>
+  <si>
+    <t>XS-PTS-0945</t>
+  </si>
+  <si>
+    <t>HX 3034 HPN MAGGIE RIBBON CABLE WITH</t>
+  </si>
+  <si>
+    <t>XS-PTS-0981</t>
+  </si>
+  <si>
+    <t>EMERGE Window (With Engrave: V)</t>
+  </si>
+  <si>
+    <t>XS-PTS-1007</t>
+  </si>
+  <si>
+    <t>800.404.C4 NOZZLE SET</t>
+  </si>
+  <si>
+    <t>9/12/2025</t>
+  </si>
+  <si>
+    <t>9pcs</t>
+  </si>
+  <si>
+    <t>PTS-1158 TW.50.15.98.JV.016.01 X2544 ADA</t>
+  </si>
+  <si>
+    <t>PTS-1159 TW.50.15.98.JV.009.01 X2544 ADA</t>
+  </si>
+  <si>
+    <t>10/12/2025</t>
+  </si>
+  <si>
+    <t>PTS-1136 300-01519-015 Semiconductor</t>
+  </si>
+  <si>
+    <t>2700pcs</t>
+  </si>
+  <si>
+    <t>PTS-1060 70192.692 PNP RUBBER TIP</t>
+  </si>
+  <si>
+    <t>Lamphead  Service &amp; Repair</t>
+  </si>
+  <si>
+    <t>11/12/2025</t>
+  </si>
+  <si>
+    <t>Lamphead  Service</t>
+  </si>
+  <si>
+    <t>Cable Tie (1pack Each) 100pcs Per Pack 100mm,150mm,200mm,250mm &amp; 300mm</t>
+  </si>
+  <si>
+    <t>24 Touch USB-C Hub - P2424HT</t>
+  </si>
+  <si>
+    <t>XS-PTS-1046</t>
+  </si>
+  <si>
+    <t>AirTac Linear Block With Rail Length</t>
+  </si>
+  <si>
+    <t>XS-PTS-0982</t>
+  </si>
+  <si>
+    <t>HX 3523 HPN OMRON POWER SUPPLY</t>
+  </si>
+  <si>
+    <t>PTS-1058 70508.170 BULB#5 MFG: DAYTON</t>
+  </si>
+  <si>
+    <t>12/12/2025</t>
+  </si>
+  <si>
+    <t>PTS-1140 6K-9090-HS02 HPS LF Aligner</t>
+  </si>
+  <si>
+    <t>14/12/2025</t>
+  </si>
+  <si>
+    <t>15/12/2025</t>
+  </si>
+  <si>
+    <t>Wk50</t>
   </si>
 </sst>
 </file>
@@ -2171,10 +2267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:J1032"/>
+  <dimension ref="A1:J1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A1040" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1033" sqref="D1033:D1081"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29023,8 +29119,1282 @@
         <v>1008.77</v>
       </c>
     </row>
+    <row r="1033" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1033" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1033" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1033" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1033" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1033" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1033" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1033" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H1033" s="1">
+        <v>1788.3</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1034" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1034" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1034" s="1">
+        <v>11154689</v>
+      </c>
+      <c r="D1034" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1034" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1034" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1034" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H1034" s="1">
+        <v>10011.299999999999</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1035" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1035" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1035" s="1">
+        <v>11153067</v>
+      </c>
+      <c r="D1035" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1035" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1035" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1035" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H1035" s="1">
+        <v>322.89999999999998</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1036" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1036" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1036" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1036" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1036" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1036" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1036" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H1036" s="1">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1037" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1037" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1037" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D1037" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E1037" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1037" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1037" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H1037" s="1">
+        <v>827.99</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1038" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1038" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1038" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D1038" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1038" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1038" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1038" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H1038" s="1">
+        <v>286.64</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1039" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1039" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1039" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D1039" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1039" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1039" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1039" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H1039" s="1">
+        <v>321.87</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1040" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1040" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1040" s="1">
+        <v>11154689</v>
+      </c>
+      <c r="D1040" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1040" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1040" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1040" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1040" s="1">
+        <v>6674.2</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1041" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1041" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1041" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1041" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1041" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F1041" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1041" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1041" s="1">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1042" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1042" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1042" s="1">
+        <v>11156537</v>
+      </c>
+      <c r="D1042" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E1042" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1042" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1042" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1042" s="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1043" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1043" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1043" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1043" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1043" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1043" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1043" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1043" s="1">
+        <v>2311.7399999999998</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1044" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1044" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1044" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1044" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1044" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1044" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1044" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1044" s="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1045" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1045" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1045" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D1045" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1045" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1045" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1045" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1045" s="1">
+        <v>1666.68</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1046" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1046" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1046" s="1">
+        <v>11157171</v>
+      </c>
+      <c r="D1046" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="E1046" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1046" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1046" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1046" s="1">
+        <v>555.55999999999995</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1047" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1047" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1047" s="1">
+        <v>11157202</v>
+      </c>
+      <c r="D1047" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1047" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1047" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1047" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1047" s="1">
+        <v>555.55999999999995</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1048" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1048" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1048" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1048" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1048" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1048" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1048" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1048" s="1">
+        <v>437.24</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1049" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1049" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1049" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1049" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1049" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1049" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1049" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1049" s="1">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1050" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1050" s="1">
+        <v>11156536</v>
+      </c>
+      <c r="D1050" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1050" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1050" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1050" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1050" s="1">
+        <v>168.61</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1051" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1051" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1051" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1051" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1051" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1051" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1051" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1051" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1052" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1052" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1052" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1052" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1052" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1052" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1052" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1052" s="1">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1053" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1053" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1053" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1053" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1053" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1053" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1053" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1053" s="1">
+        <v>190.99</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1054" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1054" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1054" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1054" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1054" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1054" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1054" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1054" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1055" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1055" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1055" s="1">
+        <v>11151246</v>
+      </c>
+      <c r="D1055" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1055" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1055" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1055" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="H1055" s="1">
+        <v>2222.2399999999998</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1056" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1056" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1056" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D1056" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1056" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F1056" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1056" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="H1056" s="1">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1057" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1057" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1057" s="1">
+        <v>11151239</v>
+      </c>
+      <c r="D1057" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1057" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1057" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1057" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="H1057" s="1">
+        <v>1140.3599999999999</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1058" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1058" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1058" s="1">
+        <v>11151245</v>
+      </c>
+      <c r="D1058" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1058" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1058" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1058" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="H1058" s="1">
+        <v>608.17999999999995</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1059" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1059" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1059" s="1">
+        <v>11151237</v>
+      </c>
+      <c r="D1059" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="E1059" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1059" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1059" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="H1059" s="1">
+        <v>541.6</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1060" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1060" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1060" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1060" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1060" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1060" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1060" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="H1060" s="1">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1061" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1061" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1061" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1061" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E1061" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1061" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1061" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1061" s="1">
+        <v>4221.43</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1062" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1062" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1062" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1062" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1062" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1062" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1062" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1062" s="1">
+        <v>13850</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1063" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1063" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1063" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1063" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1063" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1063" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1063" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1063" s="1">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1064" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1064" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1064" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1064" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1064" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1064" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1064" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1064" s="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1065" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1065" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1065" s="1">
+        <v>11151248</v>
+      </c>
+      <c r="D1065" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E1065" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1065" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1065" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1065" s="1">
+        <v>1111.1199999999999</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1066" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1066" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1066" s="1">
+        <v>11151239</v>
+      </c>
+      <c r="D1066" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1066" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1066" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1066" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1066" s="1">
+        <v>380.12</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1067" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1067" s="1">
+        <v>11156537</v>
+      </c>
+      <c r="D1067" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E1067" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1067" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1067" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1067" s="1">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1068" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1068" s="1">
+        <v>11151250</v>
+      </c>
+      <c r="D1068" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1068" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1068" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1068" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1068" s="1">
+        <v>1251.51</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1069" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1069" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1069" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1069" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1069" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1069" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1069" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1069" s="1">
+        <v>887.37</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1070" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1070" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1070" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1070" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1070" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1070" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1070" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1070" s="1">
+        <v>719.2</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1071" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1071" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D1071" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1071" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1071" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1071" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1071" s="1">
+        <v>79.430000000000007</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1072" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1072" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1072" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D1072" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="E1072" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1072" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1072" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1072" s="1">
+        <v>39.72</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1073" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1073" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1073" s="1">
+        <v>11150980</v>
+      </c>
+      <c r="D1073" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="E1073" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1073" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1073" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H1073" s="1">
+        <v>225.04</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1074" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1074" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1074" s="1">
+        <v>11155797</v>
+      </c>
+      <c r="D1074" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="E1074" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F1074" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1074" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="H1074" s="1">
+        <v>14742</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1075" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1075" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1075" s="1">
+        <v>11155497</v>
+      </c>
+      <c r="D1075" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1075" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1075" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1075" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="H1075" s="1">
+        <v>4233.6000000000004</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1076" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1076" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1076" s="1">
+        <v>11155143</v>
+      </c>
+      <c r="D1076" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E1076" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F1076" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1076" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="H1076" s="1">
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1077" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1077" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1077" s="1">
+        <v>11156537</v>
+      </c>
+      <c r="D1077" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E1077" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1077" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1077" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="H1077" s="1">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1078" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1078" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1078" s="1">
+        <v>11155949</v>
+      </c>
+      <c r="D1078" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1078" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1078" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1078" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="H1078" s="1">
+        <v>4334.2</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1079" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1079" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1079" s="1">
+        <v>11154686</v>
+      </c>
+      <c r="D1079" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1079" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1079" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1079" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="H1079" s="1">
+        <v>1111.1199999999999</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1080" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1080" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1080" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1080" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1080" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1080" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1080" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="H1080" s="1">
+        <v>1155.8699999999999</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1081" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1081" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1081" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1081" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1081" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1081" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="H1081" s="1">
+        <v>1788.3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1032" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
+  <autoFilter ref="A1:H1081" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Expenditure.xlsx
+++ b/Weekly Expenditure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/amoa/DropBox III/Desktop/EongsRequest/ploty_Dashboard/Weeklydashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osram-my.sharepoint.com/personal/azhar_arkam_ams_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="482" documentId="13_ncr:1_{7AA4F1EB-EA1E-4886-B684-F1AC503A75A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{197B8ADA-6F99-42D4-914E-4CB2DB29E87E}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="114_{9282C635-7126-474A-A9DB-063464F5D924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0212C6C2-03D4-4E31-AF60-533E83590236}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB9E47C-89B0-4422-B529-4EB28642A4AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly Expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$1081</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Expenditure'!$A$1:$H$1148</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6165" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6590" uniqueCount="644">
   <si>
     <t>WorkWeek</t>
   </si>
@@ -1232,9 +1232,6 @@
     <t>Silicon Tubing 0402 (Per pack 20 Meter)</t>
   </si>
   <si>
-    <t>PTS-1146 70902.631 ALIGNER &amp; NEST X2544</t>
-  </si>
-  <si>
     <t>1200pcs</t>
   </si>
   <si>
@@ -1685,9 +1682,6 @@
     <t>27/11/2025</t>
   </si>
   <si>
-    <t>PTS-1063 TW.50.1A.FI.0S.124.01 _ Aligner</t>
-  </si>
-  <si>
     <t>160pcs</t>
   </si>
   <si>
@@ -1862,9 +1856,6 @@
     <t>12/12/2025</t>
   </si>
   <si>
-    <t>PTS-1140 6K-9090-HS02 HPS LF Aligner</t>
-  </si>
-  <si>
     <t>14/12/2025</t>
   </si>
   <si>
@@ -1872,6 +1863,114 @@
   </si>
   <si>
     <t>Wk50</t>
+  </si>
+  <si>
+    <t>3200pcs</t>
+  </si>
+  <si>
+    <t>16/12/2025</t>
+  </si>
+  <si>
+    <t>PTS-1068 TW.50.15.FI.0S.109.00 X2637</t>
+  </si>
+  <si>
+    <t>17/12/2025</t>
+  </si>
+  <si>
+    <t>PTS-1145 TW.50.0B.98.JV.006.00 VACUUM</t>
+  </si>
+  <si>
+    <t>29M</t>
+  </si>
+  <si>
+    <t>TW.50.1A.FI.0R.026.03 NORMAL PRIMARY</t>
+  </si>
+  <si>
+    <t>240pcs</t>
+  </si>
+  <si>
+    <t>17/12/2026</t>
+  </si>
+  <si>
+    <t>PTS-1055 70192.495 RUBBER TIP LL (MORAY)</t>
+  </si>
+  <si>
+    <t>21/12/2025</t>
+  </si>
+  <si>
+    <t>XS-PTS-0754</t>
+  </si>
+  <si>
+    <t>10818.462 PBA Hall Sensor Cable X987</t>
+  </si>
+  <si>
+    <t>XS-PTS-0755</t>
+  </si>
+  <si>
+    <t>10818.461 PBA Encoder Cable</t>
+  </si>
+  <si>
+    <t>140pcs</t>
+  </si>
+  <si>
+    <t>Wk51</t>
+  </si>
+  <si>
+    <t>23/12/2025</t>
+  </si>
+  <si>
+    <t>PTS-1092 TW.50.0B.FI.0S.006.01 Input/Out X2637</t>
+  </si>
+  <si>
+    <t>PTS-1164 20Ways Ribbon Cable Both Side X2637</t>
+  </si>
+  <si>
+    <t>24/12/2025</t>
+  </si>
+  <si>
+    <t>11151240</t>
+  </si>
+  <si>
+    <t>190pcs</t>
+  </si>
+  <si>
+    <t>PTS-1160 10416.080 2 metre 0.635 MM HIGH X2544</t>
+  </si>
+  <si>
+    <t>Antistatic Bag, Pink, Resealable, 254mm W x 355.6mm L (100pcs)</t>
+  </si>
+  <si>
+    <t>Antistatic Bag, Pink, Resealable, 127mm W x 203.2mm L (100pcs)</t>
+  </si>
+  <si>
+    <t>Losdestar L611938 Antistatic manual Vacuum Suction Pen</t>
+  </si>
+  <si>
+    <t>Handi-VAC Antistatic Mini BGA Vacuum Pump Suction Pen Picker</t>
+  </si>
+  <si>
+    <t>26/12/2025</t>
+  </si>
+  <si>
+    <t>PTS-1066 TW.50.1A.FI.0S.143.00 PCB X2637</t>
+  </si>
+  <si>
+    <t>PTS-1073 10618.655 (10311.135){Q=129} X2637</t>
+  </si>
+  <si>
+    <t>27/12/2025</t>
+  </si>
+  <si>
+    <t>355pcs</t>
+  </si>
+  <si>
+    <t>28/12/2025</t>
+  </si>
+  <si>
+    <t>Wk52</t>
+  </si>
+  <si>
+    <t>PTS-1063 TW.50.1A.FI.0S.124.01 X2637 Aligner</t>
   </si>
 </sst>
 </file>
@@ -1948,6 +2047,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2267,10 +2370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45189669-8C26-4695-95A4-FB3154B5D562}">
-  <dimension ref="A1:J1081"/>
+  <dimension ref="A1:J1148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1040" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1033" sqref="D1033:D1081"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3363,7 +3466,7 @@
         <v>79</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>80</v>
@@ -3987,7 +4090,7 @@
         <v>79</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>121</v>
@@ -5496,7 +5599,7 @@
         <v>79</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>20</v>
@@ -5730,7 +5833,7 @@
         <v>79</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>20</v>
@@ -6250,7 +6353,7 @@
         <v>79</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>167</v>
@@ -6510,7 +6613,7 @@
         <v>79</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>167</v>
@@ -6874,7 +6977,7 @@
         <v>79</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>167</v>
@@ -7004,7 +7107,7 @@
         <v>79</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>167</v>
@@ -7160,7 +7263,7 @@
         <v>79</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>20</v>
@@ -7264,7 +7367,7 @@
         <v>79</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>20</v>
@@ -7628,7 +7731,7 @@
         <v>79</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>84</v>
@@ -7654,7 +7757,7 @@
         <v>193</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>13</v>
@@ -7810,7 +7913,7 @@
         <v>79</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>84</v>
@@ -8096,7 +8199,7 @@
         <v>79</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>202</v>
@@ -8330,7 +8433,7 @@
         <v>79</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>202</v>
@@ -8746,7 +8849,7 @@
         <v>79</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>20</v>
@@ -9058,7 +9161,7 @@
         <v>79</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>20</v>
@@ -9214,7 +9317,7 @@
         <v>79</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>235</v>
@@ -9344,7 +9447,7 @@
         <v>79</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>167</v>
@@ -9578,7 +9681,7 @@
         <v>79</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
 